--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -656,7 +656,7 @@
         <v>485.0013</v>
       </c>
       <c r="T3" t="n">
-        <v>278.7422723082972</v>
+        <v>245.3568776072389</v>
       </c>
     </row>
     <row r="4">
@@ -780,7 +780,7 @@
         <v>475.0013999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>695.8772661340035</v>
+        <v>330.5074427944075</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>44.0011</v>
       </c>
       <c r="T6" t="n">
-        <v>70.86519041294287</v>
+        <v>72.07585795083818</v>
       </c>
     </row>
     <row r="7">
@@ -904,7 +904,7 @@
         <v>13.4402</v>
       </c>
       <c r="T7" t="n">
-        <v>187.6034681866131</v>
+        <v>272.6344143982342</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +966,7 @@
         <v>24.0004</v>
       </c>
       <c r="T8" t="n">
-        <v>18.60887462495679</v>
+        <v>13.21227531316025</v>
       </c>
     </row>
     <row r="9">
@@ -1028,7 +1028,7 @@
         <v>17.0002</v>
       </c>
       <c r="T9" t="n">
-        <v>18.43951612054424</v>
+        <v>2.909506376130465</v>
       </c>
     </row>
     <row r="10">
@@ -1090,7 +1090,7 @@
         <v>126</v>
       </c>
       <c r="T10" t="n">
-        <v>197.7781463070235</v>
+        <v>184.3250075854075</v>
       </c>
     </row>
     <row r="11">
@@ -1214,7 +1214,7 @@
         <v>52.0016</v>
       </c>
       <c r="T12" t="n">
-        <v>25.76126982276104</v>
+        <v>13.97441769010847</v>
       </c>
     </row>
     <row r="13">
@@ -1338,7 +1338,7 @@
         <v>309.0002</v>
       </c>
       <c r="T14" t="n">
-        <v>347.2420881552299</v>
+        <v>402.370008078924</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>185.0012</v>
       </c>
       <c r="T15" t="n">
-        <v>172.2640191760361</v>
+        <v>132.4869791670688</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1462,7 @@
         <v>127.9999</v>
       </c>
       <c r="T16" t="n">
-        <v>84.3061141884054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1524,7 +1524,7 @@
         <v>148.9997</v>
       </c>
       <c r="T17" t="n">
-        <v>244.5553622735056</v>
+        <v>225.2864697597877</v>
       </c>
     </row>
     <row r="18">
@@ -1710,7 +1710,7 @@
         <v>1.1891</v>
       </c>
       <c r="T20" t="n">
-        <v>87.81644662428091</v>
+        <v>81.64135930297674</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>17.9999</v>
       </c>
       <c r="T21" t="n">
-        <v>23.3456194772564</v>
+        <v>14.27313261852591</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         <v>2.3276</v>
       </c>
       <c r="T22" t="n">
-        <v>1.482162747459514</v>
+        <v>1.845962893080011</v>
       </c>
     </row>
     <row r="23">
@@ -2020,7 +2020,7 @@
         <v>29.6372</v>
       </c>
       <c r="T25" t="n">
-        <v>46.93668672483606</v>
+        <v>46.59485427447878</v>
       </c>
     </row>
     <row r="26">
@@ -2082,7 +2082,7 @@
         <v>1.0002</v>
       </c>
       <c r="T26" t="n">
-        <v>7.200993061428836</v>
+        <v>1.60883468819683</v>
       </c>
     </row>
     <row r="27">
@@ -2144,7 +2144,7 @@
         <v>4.0002</v>
       </c>
       <c r="T27" t="n">
-        <v>34.13696986552415</v>
+        <v>8.615576375291326</v>
       </c>
     </row>
     <row r="28">
@@ -2206,7 +2206,7 @@
         <v>178.0008</v>
       </c>
       <c r="T28" t="n">
-        <v>136.4441705968433</v>
+        <v>112.0385292085374</v>
       </c>
     </row>
     <row r="29">
@@ -2330,7 +2330,7 @@
         <v>-1</v>
       </c>
       <c r="T30" t="n">
-        <v>3.441065694475756</v>
+        <v>3.105762378340831</v>
       </c>
     </row>
     <row r="31">
@@ -2392,7 +2392,7 @@
         <v>-1</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9501528023613602</v>
+        <v>3.582947488421541</v>
       </c>
     </row>
     <row r="32">
@@ -2454,7 +2454,7 @@
         <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>3.552499153720126</v>
+        <v>13.03794002454498</v>
       </c>
     </row>
     <row r="33">
@@ -2516,7 +2516,7 @@
         <v>-1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.673466980454494</v>
       </c>
     </row>
     <row r="34">
@@ -2764,7 +2764,7 @@
         <v>-1</v>
       </c>
       <c r="T37" t="n">
-        <v>29.12256398478121</v>
+        <v>5.785640097433223</v>
       </c>
     </row>
     <row r="38">
@@ -2826,7 +2826,7 @@
         <v>10.0004</v>
       </c>
       <c r="T38" t="n">
-        <v>2.798041947607901</v>
+        <v>2.565695532632625</v>
       </c>
     </row>
     <row r="39">
@@ -2950,7 +2950,7 @@
         <v>500.0008</v>
       </c>
       <c r="T40" t="n">
-        <v>339.6916453048016</v>
+        <v>327.1564692698078</v>
       </c>
     </row>
     <row r="41">
@@ -3012,7 +3012,7 @@
         <v>445.0001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>292.5559963433109</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3074,7 @@
         <v>585</v>
       </c>
       <c r="T42" t="n">
-        <v>1311.182200215733</v>
+        <v>909.7803656613697</v>
       </c>
     </row>
     <row r="43">
@@ -3136,7 +3136,7 @@
         <v>40.0009</v>
       </c>
       <c r="T43" t="n">
-        <v>76.9046062667138</v>
+        <v>104.1063560482482</v>
       </c>
     </row>
     <row r="44">
@@ -3198,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="T44" t="n">
-        <v>237.5547184311856</v>
+        <v>306.4231914732399</v>
       </c>
     </row>
     <row r="45">
@@ -3260,7 +3260,7 @@
         <v>31.0002</v>
       </c>
       <c r="T45" t="n">
-        <v>46.8027566471582</v>
+        <v>43.13142095227081</v>
       </c>
     </row>
     <row r="46">
@@ -3322,7 +3322,7 @@
         <v>35.0004</v>
       </c>
       <c r="T46" t="n">
-        <v>69.85472350045653</v>
+        <v>81.77669493086074</v>
       </c>
     </row>
     <row r="47">
@@ -3384,7 +3384,7 @@
         <v>165.001</v>
       </c>
       <c r="T47" t="n">
-        <v>287.5191547383454</v>
+        <v>282.114884035195</v>
       </c>
     </row>
     <row r="48">
@@ -3446,7 +3446,7 @@
         <v>131.0002</v>
       </c>
       <c r="T48" t="n">
-        <v>273.0626463127709</v>
+        <v>134.3250128089034</v>
       </c>
     </row>
     <row r="49">
@@ -3508,7 +3508,7 @@
         <v>65.001</v>
       </c>
       <c r="T49" t="n">
-        <v>92.51853126004637</v>
+        <v>97.71701393729906</v>
       </c>
     </row>
     <row r="50">
@@ -3570,7 +3570,7 @@
         <v>43.9993</v>
       </c>
       <c r="T50" t="n">
-        <v>23.99373225374602</v>
+        <v>11.78764897046058</v>
       </c>
     </row>
     <row r="51">
@@ -3632,7 +3632,7 @@
         <v>299.0002</v>
       </c>
       <c r="T51" t="n">
-        <v>263.9422418417461</v>
+        <v>194.9276537245931</v>
       </c>
     </row>
     <row r="52">
@@ -3694,7 +3694,7 @@
         <v>220.0009</v>
       </c>
       <c r="T52" t="n">
-        <v>207.4802406361974</v>
+        <v>216.0258171561608</v>
       </c>
     </row>
     <row r="53">
@@ -3756,7 +3756,7 @@
         <v>282.0002</v>
       </c>
       <c r="T53" t="n">
-        <v>123.9443675187487</v>
+        <v>70.94298997840299</v>
       </c>
     </row>
     <row r="54">
@@ -3818,7 +3818,7 @@
         <v>190.9999000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>265.2250618832689</v>
+        <v>267.2674138714988</v>
       </c>
     </row>
     <row r="55">
@@ -3880,7 +3880,7 @@
         <v>193</v>
       </c>
       <c r="T55" t="n">
-        <v>330.9867541127481</v>
+        <v>348.6488970871975</v>
       </c>
     </row>
     <row r="56">
@@ -4004,7 +4004,7 @@
         <v>1.1891</v>
       </c>
       <c r="T57" t="n">
-        <v>87.28593379030798</v>
+        <v>97.9471500190316</v>
       </c>
     </row>
     <row r="58">
@@ -4066,7 +4066,7 @@
         <v>25.0011</v>
       </c>
       <c r="T58" t="n">
-        <v>38.46059679702695</v>
+        <v>33.49988484709898</v>
       </c>
     </row>
     <row r="59">
@@ -4128,7 +4128,7 @@
         <v>2.3276</v>
       </c>
       <c r="T59" t="n">
-        <v>7.51958478559747</v>
+        <v>2.543539264941394</v>
       </c>
     </row>
     <row r="60">
@@ -4252,7 +4252,7 @@
         <v>48.0004</v>
       </c>
       <c r="T61" t="n">
-        <v>39.23451228662847</v>
+        <v>55.19538525173044</v>
       </c>
     </row>
     <row r="62">
@@ -4314,7 +4314,7 @@
         <v>51.9996</v>
       </c>
       <c r="T62" t="n">
-        <v>117.5544653493133</v>
+        <v>105.0148023737829</v>
       </c>
     </row>
     <row r="63">
@@ -4376,7 +4376,7 @@
         <v>1.0002</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>6.82957223390516</v>
       </c>
     </row>
     <row r="64">
@@ -4438,7 +4438,7 @@
         <v>4.0002</v>
       </c>
       <c r="T64" t="n">
-        <v>26.80288946486896</v>
+        <v>26.20987311706924</v>
       </c>
     </row>
     <row r="65">
@@ -4500,7 +4500,7 @@
         <v>230.0008</v>
       </c>
       <c r="T65" t="n">
-        <v>249.0178030904274</v>
+        <v>247.3845064437122</v>
       </c>
     </row>
     <row r="66">
@@ -4624,7 +4624,7 @@
         <v>-1</v>
       </c>
       <c r="T67" t="n">
-        <v>1.398709625597247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4686,7 +4686,7 @@
         <v>-1</v>
       </c>
       <c r="T68" t="n">
-        <v>2.148374213388806</v>
+        <v>3.553709732023592</v>
       </c>
     </row>
     <row r="69">
@@ -4748,7 +4748,7 @@
         <v>-1</v>
       </c>
       <c r="T69" t="n">
-        <v>8.721747772611819</v>
+        <v>2.91273389774508</v>
       </c>
     </row>
     <row r="70">
@@ -4810,7 +4810,7 @@
         <v>1.0003</v>
       </c>
       <c r="T70" t="n">
-        <v>13.12256686682739</v>
+        <v>21.3413616142475</v>
       </c>
     </row>
     <row r="71">
@@ -4872,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="T71" t="n">
-        <v>28.55376129772677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4934,7 +4934,7 @@
         <v>-1</v>
       </c>
       <c r="T72" t="n">
-        <v>2.2912102028268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4996,7 +4996,7 @@
         <v>-1</v>
       </c>
       <c r="T73" t="n">
-        <v>15.87983193092758</v>
+        <v>4.4302588276427</v>
       </c>
     </row>
     <row r="74">
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="T74" t="n">
-        <v>4.397200651333668</v>
+        <v>3.162787251064786</v>
       </c>
     </row>
     <row r="75">
@@ -5244,7 +5244,7 @@
         <v>450.001</v>
       </c>
       <c r="T77" t="n">
-        <v>293.781786015669</v>
+        <v>294.8404545637371</v>
       </c>
     </row>
     <row r="78">
@@ -5306,7 +5306,7 @@
         <v>469.9998000000001</v>
       </c>
       <c r="T78" t="n">
-        <v>287.0556613088457</v>
+        <v>324.7514320771105</v>
       </c>
     </row>
     <row r="79">
@@ -5368,7 +5368,7 @@
         <v>680.0014</v>
       </c>
       <c r="T79" t="n">
-        <v>1596.911542112337</v>
+        <v>909.7398403105649</v>
       </c>
     </row>
     <row r="80">
@@ -5430,7 +5430,7 @@
         <v>-1</v>
       </c>
       <c r="T80" t="n">
-        <v>75.12998403011406</v>
+        <v>72.41764938515691</v>
       </c>
     </row>
     <row r="81">
@@ -5492,7 +5492,7 @@
         <v>38.0018</v>
       </c>
       <c r="T81" t="n">
-        <v>73.88331166522492</v>
+        <v>88.45890564094064</v>
       </c>
     </row>
     <row r="82">
@@ -5554,7 +5554,7 @@
         <v>107.0004</v>
       </c>
       <c r="T82" t="n">
-        <v>261.2001492079236</v>
+        <v>279.0543148498103</v>
       </c>
     </row>
     <row r="83">
@@ -5616,7 +5616,7 @@
         <v>-1</v>
       </c>
       <c r="T83" t="n">
-        <v>7.315315279912658</v>
+        <v>15.06218790619882</v>
       </c>
     </row>
     <row r="84">
@@ -5678,7 +5678,7 @@
         <v>38.0009</v>
       </c>
       <c r="T84" t="n">
-        <v>39.43260366898813</v>
+        <v>41.64256862063721</v>
       </c>
     </row>
     <row r="85">
@@ -5740,7 +5740,7 @@
         <v>58.0004</v>
       </c>
       <c r="T85" t="n">
-        <v>29.42356792175888</v>
+        <v>47.65730768547691</v>
       </c>
     </row>
     <row r="86">
@@ -5802,7 +5802,7 @@
         <v>-1</v>
       </c>
       <c r="T86" t="n">
-        <v>142.744179023231</v>
+        <v>204.6225400352968</v>
       </c>
     </row>
     <row r="87">
@@ -5864,7 +5864,7 @@
         <v>175.0001</v>
       </c>
       <c r="T87" t="n">
-        <v>227.2926062308556</v>
+        <v>227.4109170389023</v>
       </c>
     </row>
     <row r="88">
@@ -5926,7 +5926,7 @@
         <v>215</v>
       </c>
       <c r="T88" t="n">
-        <v>777.9515419435519</v>
+        <v>530.8612055912944</v>
       </c>
     </row>
     <row r="89">
@@ -5988,7 +5988,7 @@
         <v>73.00080000000001</v>
       </c>
       <c r="T89" t="n">
-        <v>94.85178242788618</v>
+        <v>95.18617290907856</v>
       </c>
     </row>
     <row r="90">
@@ -6174,7 +6174,7 @@
         <v>280.0001</v>
       </c>
       <c r="T92" t="n">
-        <v>56.20824528530078</v>
+        <v>25.68865408888867</v>
       </c>
     </row>
     <row r="93">
@@ -6236,7 +6236,7 @@
         <v>260.0014</v>
       </c>
       <c r="T93" t="n">
-        <v>260.0500930944337</v>
+        <v>197.745299428869</v>
       </c>
     </row>
     <row r="94">
@@ -6298,7 +6298,7 @@
         <v>250.0017</v>
       </c>
       <c r="T94" t="n">
-        <v>576.0928832641887</v>
+        <v>396.43724677651</v>
       </c>
     </row>
     <row r="95">
@@ -6360,7 +6360,7 @@
         <v>-1</v>
       </c>
       <c r="T95" t="n">
-        <v>7.710769468686212</v>
+        <v>33.34152006528058</v>
       </c>
     </row>
     <row r="96">
@@ -6422,7 +6422,7 @@
         <v>170.0019</v>
       </c>
       <c r="T96" t="n">
-        <v>260.6291923904413</v>
+        <v>231.0377550465308</v>
       </c>
     </row>
     <row r="97">
@@ -6484,7 +6484,7 @@
         <v>118.001</v>
       </c>
       <c r="T97" t="n">
-        <v>697.1838082820773</v>
+        <v>298.8071464111065</v>
       </c>
     </row>
     <row r="98">
@@ -6546,7 +6546,7 @@
         <v>1.9994</v>
       </c>
       <c r="T98" t="n">
-        <v>4.625037939447023</v>
+        <v>6.75776284362857</v>
       </c>
     </row>
     <row r="99">
@@ -6608,7 +6608,7 @@
         <v>1.189</v>
       </c>
       <c r="T99" t="n">
-        <v>88.80107681733676</v>
+        <v>85.40340555116155</v>
       </c>
     </row>
     <row r="100">
@@ -6670,7 +6670,7 @@
         <v>35</v>
       </c>
       <c r="T100" t="n">
-        <v>33.04806963034667</v>
+        <v>36.19348024137402</v>
       </c>
     </row>
     <row r="101">
@@ -6732,7 +6732,7 @@
         <v>3.3281</v>
       </c>
       <c r="T101" t="n">
-        <v>6.628698452889951</v>
+        <v>5.08181864202668</v>
       </c>
     </row>
     <row r="102">
@@ -6856,7 +6856,7 @@
         <v>85.0001</v>
       </c>
       <c r="T103" t="n">
-        <v>47.30772410283807</v>
+        <v>52.79045590512865</v>
       </c>
     </row>
     <row r="104">
@@ -6918,7 +6918,7 @@
         <v>75.0012</v>
       </c>
       <c r="T104" t="n">
-        <v>38.88875534434302</v>
+        <v>45.98781548680152</v>
       </c>
     </row>
     <row r="105">
@@ -6980,7 +6980,7 @@
         <v>1.0001</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>0.01445798706694314</v>
       </c>
     </row>
     <row r="106">
@@ -7042,7 +7042,7 @@
         <v>2.9998</v>
       </c>
       <c r="T106" t="n">
-        <v>25.76421512952821</v>
+        <v>19.36456873062223</v>
       </c>
     </row>
     <row r="107">
@@ -7166,7 +7166,7 @@
         <v>210.001</v>
       </c>
       <c r="T108" t="n">
-        <v>215.7786086306645</v>
+        <v>216.5878866743786</v>
       </c>
     </row>
     <row r="109">
@@ -7290,7 +7290,7 @@
         <v>-1</v>
       </c>
       <c r="T110" t="n">
-        <v>0.3481146186251911</v>
+        <v>0.4780975766908923</v>
       </c>
     </row>
     <row r="111">
@@ -7414,7 +7414,7 @@
         <v>1.0001</v>
       </c>
       <c r="T112" t="n">
-        <v>17.10827528889756</v>
+        <v>32.94929195641252</v>
       </c>
     </row>
     <row r="113">
@@ -7662,7 +7662,7 @@
         <v>-1</v>
       </c>
       <c r="T116" t="n">
-        <v>0.1791492181107807</v>
+        <v>4.580656795966735</v>
       </c>
     </row>
     <row r="117">
@@ -7786,7 +7786,7 @@
         <v>5.0005</v>
       </c>
       <c r="T118" t="n">
-        <v>0.8045968053765036</v>
+        <v>0.2707379745191804</v>
       </c>
     </row>
     <row r="119">
@@ -7848,7 +7848,7 @@
         <v>176.0002</v>
       </c>
       <c r="T119" t="n">
-        <v>1120.351774629268</v>
+        <v>1280.442831225293</v>
       </c>
     </row>
     <row r="120">
@@ -7910,7 +7910,7 @@
         <v>581.0004</v>
       </c>
       <c r="T120" t="n">
-        <v>44.34923881165443</v>
+        <v>38.07486626675708</v>
       </c>
     </row>
     <row r="121">
@@ -7972,7 +7972,7 @@
         <v>662.9996</v>
       </c>
       <c r="T121" t="n">
-        <v>2143.354114878234</v>
+        <v>2429.997417368853</v>
       </c>
     </row>
     <row r="122">
@@ -8034,7 +8034,7 @@
         <v>823.0001</v>
       </c>
       <c r="T122" t="n">
-        <v>1068.346275525382</v>
+        <v>1093.842740360509</v>
       </c>
     </row>
     <row r="123">
@@ -8158,7 +8158,7 @@
         <v>55.5001</v>
       </c>
       <c r="T124" t="n">
-        <v>40.61510810913042</v>
+        <v>31.66880135232928</v>
       </c>
     </row>
     <row r="125">
@@ -8344,7 +8344,7 @@
         <v>57.7993</v>
       </c>
       <c r="T127" t="n">
-        <v>23.31994854685807</v>
+        <v>28.17776068245438</v>
       </c>
     </row>
     <row r="128">
@@ -8406,7 +8406,7 @@
         <v>72.00059999999999</v>
       </c>
       <c r="T128" t="n">
-        <v>52.71503806893988</v>
+        <v>46.2739988003907</v>
       </c>
     </row>
     <row r="129">
@@ -8468,7 +8468,7 @@
         <v>-1</v>
       </c>
       <c r="T129" t="n">
-        <v>4.205144637389548</v>
+        <v>19.57523331551607</v>
       </c>
     </row>
     <row r="130">
@@ -8530,7 +8530,7 @@
         <v>260</v>
       </c>
       <c r="T130" t="n">
-        <v>233.2980490946409</v>
+        <v>242.2005290914242</v>
       </c>
     </row>
     <row r="131">
@@ -8592,7 +8592,7 @@
         <v>282.9998</v>
       </c>
       <c r="T131" t="n">
-        <v>627.3712362139634</v>
+        <v>951.7706325547548</v>
       </c>
     </row>
     <row r="132">
@@ -8654,7 +8654,7 @@
         <v>92.0013</v>
       </c>
       <c r="T132" t="n">
-        <v>54.17665274760601</v>
+        <v>62.90563231517719</v>
       </c>
     </row>
     <row r="133">
@@ -8716,7 +8716,7 @@
         <v>40.8001</v>
       </c>
       <c r="T133" t="n">
-        <v>32.5341393078229</v>
+        <v>49.35713555277531</v>
       </c>
     </row>
     <row r="134">
@@ -8778,7 +8778,7 @@
         <v>-1</v>
       </c>
       <c r="T134" t="n">
-        <v>109.1318776222886</v>
+        <v>112.5488729208881</v>
       </c>
     </row>
     <row r="135">
@@ -8840,7 +8840,7 @@
         <v>358.0002</v>
       </c>
       <c r="T135" t="n">
-        <v>282.4481734602885</v>
+        <v>265.4662324386241</v>
       </c>
     </row>
     <row r="136">
@@ -8902,7 +8902,7 @@
         <v>321.0008</v>
       </c>
       <c r="T136" t="n">
-        <v>55.0830377889875</v>
+        <v>56.70645446978546</v>
       </c>
     </row>
     <row r="137">
@@ -8964,7 +8964,7 @@
         <v>361.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2172.662713374463</v>
+        <v>2500.193961377069</v>
       </c>
     </row>
     <row r="138">
@@ -9088,7 +9088,7 @@
         <v>233</v>
       </c>
       <c r="T139" t="n">
-        <v>257.5035472232859</v>
+        <v>248.3370258542015</v>
       </c>
     </row>
     <row r="140">
@@ -9150,7 +9150,7 @@
         <v>163.5006</v>
       </c>
       <c r="T140" t="n">
-        <v>789.4752699602543</v>
+        <v>989.8666073357074</v>
       </c>
     </row>
     <row r="141">
@@ -9274,7 +9274,7 @@
         <v>1.309</v>
       </c>
       <c r="T142" t="n">
-        <v>17.11412103710401</v>
+        <v>25.18321589505369</v>
       </c>
     </row>
     <row r="143">
@@ -9336,7 +9336,7 @@
         <v>38.5</v>
       </c>
       <c r="T143" t="n">
-        <v>35.20266208523944</v>
+        <v>35.70249714727255</v>
       </c>
     </row>
     <row r="144">
@@ -9398,7 +9398,7 @@
         <v>5.8609</v>
       </c>
       <c r="T144" t="n">
-        <v>6.359186023809824</v>
+        <v>2.862611427498788</v>
       </c>
     </row>
     <row r="145">
@@ -9460,7 +9460,7 @@
         <v>1.6506</v>
       </c>
       <c r="T145" t="n">
-        <v>9.233418392261711</v>
+        <v>5.965734242676304</v>
       </c>
     </row>
     <row r="146">
@@ -9522,7 +9522,7 @@
         <v>103.5008</v>
       </c>
       <c r="T146" t="n">
-        <v>2.611239160761995</v>
+        <v>1.437395278036978</v>
       </c>
     </row>
     <row r="147">
@@ -9584,7 +9584,7 @@
         <v>76.50060000000001</v>
       </c>
       <c r="T147" t="n">
-        <v>239.8302586623487</v>
+        <v>238.3485324235078</v>
       </c>
     </row>
     <row r="148">
@@ -9646,7 +9646,7 @@
         <v>1.1</v>
       </c>
       <c r="T148" t="n">
-        <v>0.4653695411400193</v>
+        <v>1.413474264370243</v>
       </c>
     </row>
     <row r="149">
@@ -9708,7 +9708,7 @@
         <v>3.2997</v>
       </c>
       <c r="T149" t="n">
-        <v>2.518839498501652</v>
+        <v>4.038891316357132</v>
       </c>
     </row>
     <row r="150">
@@ -9832,7 +9832,7 @@
         <v>325.0005</v>
       </c>
       <c r="T151" t="n">
-        <v>212.1705964849611</v>
+        <v>183.2485033588704</v>
       </c>
     </row>
     <row r="152">
@@ -9894,7 +9894,7 @@
         <v>353.5008</v>
       </c>
       <c r="T152" t="n">
-        <v>1430.478331478256</v>
+        <v>1457.964988358887</v>
       </c>
     </row>
     <row r="153">
@@ -9956,7 +9956,7 @@
         <v>-1</v>
       </c>
       <c r="T153" t="n">
-        <v>1.945037987456328</v>
+        <v>7.732080211164063</v>
       </c>
     </row>
     <row r="154">
@@ -10018,7 +10018,7 @@
         <v>-1</v>
       </c>
       <c r="T154" t="n">
-        <v>0.8574727618734393</v>
+        <v>3.788209237854701</v>
       </c>
     </row>
     <row r="155">
@@ -10080,7 +10080,7 @@
         <v>-1</v>
       </c>
       <c r="T155" t="n">
-        <v>1.011056895377149</v>
+        <v>2.915809668924797</v>
       </c>
     </row>
     <row r="156">
@@ -10142,7 +10142,7 @@
         <v>1.1004</v>
       </c>
       <c r="T156" t="n">
-        <v>20.87106006553048</v>
+        <v>36.10333446766031</v>
       </c>
     </row>
     <row r="157">
@@ -10204,7 +10204,7 @@
         <v>2.1997</v>
       </c>
       <c r="T157" t="n">
-        <v>0</v>
+        <v>4.849316567565576</v>
       </c>
     </row>
     <row r="158">
@@ -10266,7 +10266,7 @@
         <v>-1</v>
       </c>
       <c r="T158" t="n">
-        <v>8.205813705250813</v>
+        <v>0.6172903257401993</v>
       </c>
     </row>
     <row r="159">
@@ -10328,7 +10328,7 @@
         <v>-1</v>
       </c>
       <c r="T159" t="n">
-        <v>11.70262596186393</v>
+        <v>12.76102926336774</v>
       </c>
     </row>
     <row r="160">
@@ -10390,7 +10390,7 @@
         <v>-1</v>
       </c>
       <c r="T160" t="n">
-        <v>11.53937011085958</v>
+        <v>7.083301645849361</v>
       </c>
     </row>
     <row r="161">
@@ -10452,7 +10452,7 @@
         <v>5.5</v>
       </c>
       <c r="T161" t="n">
-        <v>5.926285276298374</v>
+        <v>1.02365347477956</v>
       </c>
     </row>
     <row r="162">
@@ -10514,7 +10514,7 @@
         <v>5.5002</v>
       </c>
       <c r="T162" t="n">
-        <v>0</v>
+        <v>8.292973162763726</v>
       </c>
     </row>
     <row r="163">
@@ -10576,7 +10576,7 @@
         <v>176.0002</v>
       </c>
       <c r="T163" t="n">
-        <v>1255.493401593027</v>
+        <v>1404.525554328916</v>
       </c>
     </row>
     <row r="164">
@@ -10638,7 +10638,7 @@
         <v>559.0013</v>
       </c>
       <c r="T164" t="n">
-        <v>220.4205085053768</v>
+        <v>214.981078272803</v>
       </c>
     </row>
     <row r="165">
@@ -10700,7 +10700,7 @@
         <v>887.1487999999999</v>
       </c>
       <c r="T165" t="n">
-        <v>2271.360986318651</v>
+        <v>2180.799665495375</v>
       </c>
     </row>
     <row r="166">
@@ -10762,7 +10762,7 @@
         <v>1746.0525</v>
       </c>
       <c r="T166" t="n">
-        <v>926.080211535442</v>
+        <v>1072.278652509834</v>
       </c>
     </row>
     <row r="167">
@@ -10824,7 +10824,7 @@
         <v>-1</v>
       </c>
       <c r="T167" t="n">
-        <v>1.632393385606918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -10886,7 +10886,7 @@
         <v>-1</v>
       </c>
       <c r="T168" t="n">
-        <v>0</v>
+        <v>11.49393257574131</v>
       </c>
     </row>
     <row r="169">
@@ -11010,7 +11010,7 @@
         <v>77.00790000000001</v>
       </c>
       <c r="T170" t="n">
-        <v>103.1805277171606</v>
+        <v>94.79009932415684</v>
       </c>
     </row>
     <row r="171">
@@ -11072,7 +11072,7 @@
         <v>284.9998</v>
       </c>
       <c r="T171" t="n">
-        <v>159.4971865385857</v>
+        <v>397.1106435989604</v>
       </c>
     </row>
     <row r="172">
@@ -11196,7 +11196,7 @@
         <v>60.0002</v>
       </c>
       <c r="T173" t="n">
-        <v>0.6615877536174579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -11258,7 +11258,7 @@
         <v>158.013</v>
       </c>
       <c r="T174" t="n">
-        <v>104.6478213778908</v>
+        <v>124.1033826902213</v>
       </c>
     </row>
     <row r="175">
@@ -11382,7 +11382,7 @@
         <v>241.3695</v>
       </c>
       <c r="T176" t="n">
-        <v>220.4733619600863</v>
+        <v>224.6341461988357</v>
       </c>
     </row>
     <row r="177">
@@ -11444,7 +11444,7 @@
         <v>670</v>
       </c>
       <c r="T177" t="n">
-        <v>398.8721569754019</v>
+        <v>698.0691568087719</v>
       </c>
     </row>
     <row r="178">
@@ -11506,7 +11506,7 @@
         <v>80.21560000000001</v>
       </c>
       <c r="T178" t="n">
-        <v>48.95170582983324</v>
+        <v>50.64501332228565</v>
       </c>
     </row>
     <row r="179">
@@ -11568,7 +11568,7 @@
         <v>69.99980000000001</v>
       </c>
       <c r="T179" t="n">
-        <v>126.4522425173248</v>
+        <v>101.6747578444427</v>
       </c>
     </row>
     <row r="180">
@@ -11630,7 +11630,7 @@
         <v>-1</v>
       </c>
       <c r="T180" t="n">
-        <v>0</v>
+        <v>11.37367310657283</v>
       </c>
     </row>
     <row r="181">
@@ -11692,7 +11692,7 @@
         <v>350.0006</v>
       </c>
       <c r="T181" t="n">
-        <v>153.0221490957482</v>
+        <v>83.84857848936031</v>
       </c>
     </row>
     <row r="182">
@@ -11754,7 +11754,7 @@
         <v>250.6696</v>
       </c>
       <c r="T182" t="n">
-        <v>230.6801754573516</v>
+        <v>256.4893986368498</v>
       </c>
     </row>
     <row r="183">
@@ -11816,7 +11816,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T183" t="n">
-        <v>1657.677050007527</v>
+        <v>1596.027400874988</v>
       </c>
     </row>
     <row r="184">
@@ -11878,7 +11878,7 @@
         <v>-1</v>
       </c>
       <c r="T184" t="n">
-        <v>110.3988335700724</v>
+        <v>109.3887282598047</v>
       </c>
     </row>
     <row r="185">
@@ -11940,7 +11940,7 @@
         <v>238.9999000000001</v>
       </c>
       <c r="T185" t="n">
-        <v>223.4022961497401</v>
+        <v>220.9640209397939</v>
       </c>
     </row>
     <row r="186">
@@ -12002,7 +12002,7 @@
         <v>565.0008</v>
       </c>
       <c r="T186" t="n">
-        <v>805.0072278155778</v>
+        <v>1033.13089540583</v>
       </c>
     </row>
     <row r="187">
@@ -12126,7 +12126,7 @@
         <v>19.0004</v>
       </c>
       <c r="T188" t="n">
-        <v>11.53962270603104</v>
+        <v>23.62523134158839</v>
       </c>
     </row>
     <row r="189">
@@ -12188,7 +12188,7 @@
         <v>30.3876</v>
       </c>
       <c r="T189" t="n">
-        <v>80.41783277985292</v>
+        <v>77.07456214692374</v>
       </c>
     </row>
     <row r="190">
@@ -12250,7 +12250,7 @@
         <v>-1</v>
       </c>
       <c r="T190" t="n">
-        <v>1.644812486999392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -12312,7 +12312,7 @@
         <v>3.2463</v>
       </c>
       <c r="T191" t="n">
-        <v>7.763856873465648</v>
+        <v>6.334675812344636</v>
       </c>
     </row>
     <row r="192">
@@ -12374,7 +12374,7 @@
         <v>6.2618</v>
       </c>
       <c r="T192" t="n">
-        <v>25.66725587470658</v>
+        <v>29.09290591606605</v>
       </c>
     </row>
     <row r="193">
@@ -12436,7 +12436,7 @@
         <v>92.95829999999999</v>
       </c>
       <c r="T193" t="n">
-        <v>126.6851383423511</v>
+        <v>134.2805339124803</v>
       </c>
     </row>
     <row r="194">
@@ -12498,7 +12498,7 @@
         <v>170.4961</v>
       </c>
       <c r="T194" t="n">
-        <v>204.7444669675924</v>
+        <v>204.5233173531352</v>
       </c>
     </row>
     <row r="195">
@@ -12560,7 +12560,7 @@
         <v>5.4517</v>
       </c>
       <c r="T195" t="n">
-        <v>5.623779136399566</v>
+        <v>4.922652659831233</v>
       </c>
     </row>
     <row r="196">
@@ -12622,7 +12622,7 @@
         <v>10.9997</v>
       </c>
       <c r="T196" t="n">
-        <v>99.78040357460048</v>
+        <v>56.41220386456691</v>
       </c>
     </row>
     <row r="197">
@@ -12684,7 +12684,7 @@
         <v>-1</v>
       </c>
       <c r="T197" t="n">
-        <v>4.189688536637819</v>
+        <v>0.1415234205083246</v>
       </c>
     </row>
     <row r="198">
@@ -12746,7 +12746,7 @@
         <v>-1</v>
       </c>
       <c r="T198" t="n">
-        <v>63.08512242444547</v>
+        <v>78.27285473835009</v>
       </c>
     </row>
     <row r="199">
@@ -12808,7 +12808,7 @@
         <v>312.9858</v>
       </c>
       <c r="T199" t="n">
-        <v>112.1467191594385</v>
+        <v>127.0025089774252</v>
       </c>
     </row>
     <row r="200">
@@ -12870,7 +12870,7 @@
         <v>964.9152</v>
       </c>
       <c r="T200" t="n">
-        <v>1507.471343584707</v>
+        <v>1584.142924069273</v>
       </c>
     </row>
     <row r="201">
@@ -12932,7 +12932,7 @@
         <v>-1</v>
       </c>
       <c r="T201" t="n">
-        <v>1.632393385606918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -12994,7 +12994,7 @@
         <v>-1</v>
       </c>
       <c r="T202" t="n">
-        <v>81.35543165618672</v>
+        <v>11.54328640828917</v>
       </c>
     </row>
     <row r="203">
@@ -13056,7 +13056,7 @@
         <v>2.1928</v>
       </c>
       <c r="T203" t="n">
-        <v>1.713123885237548</v>
+        <v>1.645914398638528</v>
       </c>
     </row>
     <row r="204">
@@ -13118,7 +13118,7 @@
         <v>1.3362</v>
       </c>
       <c r="T204" t="n">
-        <v>0</v>
+        <v>0.5840487642305742</v>
       </c>
     </row>
     <row r="205">
@@ -13180,7 +13180,7 @@
         <v>3.2266</v>
       </c>
       <c r="T205" t="n">
-        <v>0</v>
+        <v>3.47241818229366</v>
       </c>
     </row>
     <row r="206">
@@ -13242,7 +13242,7 @@
         <v>6.035299999999999</v>
       </c>
       <c r="T206" t="n">
-        <v>0</v>
+        <v>1.540232935512559</v>
       </c>
     </row>
     <row r="207">
@@ -13304,7 +13304,7 @@
         <v>-1</v>
       </c>
       <c r="T207" t="n">
-        <v>4.596685706661958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -13366,7 +13366,7 @@
         <v>2.5048</v>
       </c>
       <c r="T208" t="n">
-        <v>3.176796895458453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -13428,7 +13428,7 @@
         <v>5.0002</v>
       </c>
       <c r="T209" t="n">
-        <v>2.103373099974477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -13490,7 +13490,7 @@
         <v>5.9995</v>
       </c>
       <c r="T210" t="n">
-        <v>7.937533781989967</v>
+        <v>6.781048565664234</v>
       </c>
     </row>
     <row r="211">
@@ -13552,7 +13552,7 @@
         <v>6.0004</v>
       </c>
       <c r="T211" t="n">
-        <v>39.96882245756654</v>
+        <v>29.1033800504658</v>
       </c>
     </row>
     <row r="212">
@@ -13614,7 +13614,7 @@
         <v>582.4081</v>
       </c>
       <c r="T212" t="n">
-        <v>1439.385396753925</v>
+        <v>1578.128343434502</v>
       </c>
     </row>
     <row r="213">
@@ -13676,7 +13676,7 @@
         <v>687.6011</v>
       </c>
       <c r="T213" t="n">
-        <v>265.8718535488717</v>
+        <v>266.0367960553276</v>
       </c>
     </row>
     <row r="214">
@@ -13738,7 +13738,7 @@
         <v>1736.9996</v>
       </c>
       <c r="T214" t="n">
-        <v>2187.526086842103</v>
+        <v>2354.884786817074</v>
       </c>
     </row>
     <row r="215">
@@ -13800,7 +13800,7 @@
         <v>3154.8637</v>
       </c>
       <c r="T215" t="n">
-        <v>1676.554337949955</v>
+        <v>1821.072059019614</v>
       </c>
     </row>
     <row r="216">
@@ -13862,7 +13862,7 @@
         <v>-1</v>
       </c>
       <c r="T216" t="n">
-        <v>6.951426084491693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13986,7 +13986,7 @@
         <v>48.5395</v>
       </c>
       <c r="T218" t="n">
-        <v>76.55244843316875</v>
+        <v>87.43587490784117</v>
       </c>
     </row>
     <row r="219">
@@ -14048,7 +14048,7 @@
         <v>137.9999</v>
       </c>
       <c r="T219" t="n">
-        <v>114.01791508244</v>
+        <v>122.3931912355208</v>
       </c>
     </row>
     <row r="220">
@@ -14110,7 +14110,7 @@
         <v>655.0002999999999</v>
       </c>
       <c r="T220" t="n">
-        <v>465.0198290189836</v>
+        <v>455.4607338516985</v>
       </c>
     </row>
     <row r="221">
@@ -14172,7 +14172,7 @@
         <v>53.29469999999999</v>
       </c>
       <c r="T221" t="n">
-        <v>228.7615083732257</v>
+        <v>224.9880026101909</v>
       </c>
     </row>
     <row r="222">
@@ -14234,7 +14234,7 @@
         <v>121.0002</v>
       </c>
       <c r="T222" t="n">
-        <v>23.39101170652692</v>
+        <v>15.28338239896683</v>
       </c>
     </row>
     <row r="223">
@@ -14296,7 +14296,7 @@
         <v>428.1665</v>
       </c>
       <c r="T223" t="n">
-        <v>197.9820826986663</v>
+        <v>203.5945885116177</v>
       </c>
     </row>
     <row r="224">
@@ -14358,7 +14358,7 @@
         <v>152.7379</v>
       </c>
       <c r="T224" t="n">
-        <v>119.4228742658529</v>
+        <v>83.16638338759498</v>
       </c>
     </row>
     <row r="225">
@@ -14420,7 +14420,7 @@
         <v>462.0015</v>
       </c>
       <c r="T225" t="n">
-        <v>267.9437297058452</v>
+        <v>273.8700324220544</v>
       </c>
     </row>
     <row r="226">
@@ -14482,7 +14482,7 @@
         <v>1822.3312</v>
       </c>
       <c r="T226" t="n">
-        <v>1401.268999975854</v>
+        <v>1815.532758702173</v>
       </c>
     </row>
     <row r="227">
@@ -14544,7 +14544,7 @@
         <v>125.0011</v>
       </c>
       <c r="T227" t="n">
-        <v>50.48866483336219</v>
+        <v>50.39078766765021</v>
       </c>
     </row>
     <row r="228">
@@ -14606,7 +14606,7 @@
         <v>208.001</v>
       </c>
       <c r="T228" t="n">
-        <v>154.1083957408752</v>
+        <v>133.8947134654931</v>
       </c>
     </row>
     <row r="229">
@@ -14668,7 +14668,7 @@
         <v>147.0985</v>
       </c>
       <c r="T229" t="n">
-        <v>110.738691646124</v>
+        <v>118.9469127436873</v>
       </c>
     </row>
     <row r="230">
@@ -14730,7 +14730,7 @@
         <v>349.9999</v>
       </c>
       <c r="T230" t="n">
-        <v>370.8735534267915</v>
+        <v>330.1764976484532</v>
       </c>
     </row>
     <row r="231">
@@ -14792,7 +14792,7 @@
         <v>396.646</v>
       </c>
       <c r="T231" t="n">
-        <v>279.7757765693317</v>
+        <v>296.9493511468959</v>
       </c>
     </row>
     <row r="232">
@@ -14854,7 +14854,7 @@
         <v>1695.0001</v>
       </c>
       <c r="T232" t="n">
-        <v>1705.264668390413</v>
+        <v>1739.111637675379</v>
       </c>
     </row>
     <row r="233">
@@ -14916,7 +14916,7 @@
         <v>49.1615</v>
       </c>
       <c r="T233" t="n">
-        <v>109.6087779031122</v>
+        <v>124.9958757573579</v>
       </c>
     </row>
     <row r="234">
@@ -14978,7 +14978,7 @@
         <v>405.0006</v>
       </c>
       <c r="T234" t="n">
-        <v>282.4339644069154</v>
+        <v>269.4696303921942</v>
       </c>
     </row>
     <row r="235">
@@ -15040,7 +15040,7 @@
         <v>1262.0158</v>
       </c>
       <c r="T235" t="n">
-        <v>801.1126441354795</v>
+        <v>907.0234475600179</v>
       </c>
     </row>
     <row r="236">
@@ -15102,7 +15102,7 @@
         <v>12.0748</v>
       </c>
       <c r="T236" t="n">
-        <v>3.21111287147389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -15164,7 +15164,7 @@
         <v>59.6185</v>
       </c>
       <c r="T237" t="n">
-        <v>21.92714772437285</v>
+        <v>51.11935002110162</v>
       </c>
     </row>
     <row r="238">
@@ -15226,7 +15226,7 @@
         <v>85.622</v>
       </c>
       <c r="T238" t="n">
-        <v>80.12933253836779</v>
+        <v>75.62945198045253</v>
       </c>
     </row>
     <row r="239">
@@ -15288,7 +15288,7 @@
         <v>-1</v>
       </c>
       <c r="T239" t="n">
-        <v>0.6763286010850762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -15350,7 +15350,7 @@
         <v>6.1518</v>
       </c>
       <c r="T240" t="n">
-        <v>9.302171037155022</v>
+        <v>6.102876717828135</v>
       </c>
     </row>
     <row r="241">
@@ -15412,7 +15412,7 @@
         <v>24.9579</v>
       </c>
       <c r="T241" t="n">
-        <v>11.94041939952041</v>
+        <v>32.8760093542361</v>
       </c>
     </row>
     <row r="242">
@@ -15474,7 +15474,7 @@
         <v>120.6001</v>
       </c>
       <c r="T242" t="n">
-        <v>119.1103384957976</v>
+        <v>123.5416140207306</v>
       </c>
     </row>
     <row r="243">
@@ -15536,7 +15536,7 @@
         <v>320.5705</v>
       </c>
       <c r="T243" t="n">
-        <v>247.7332498101944</v>
+        <v>260.6994220592422</v>
       </c>
     </row>
     <row r="244">
@@ -15598,7 +15598,7 @@
         <v>18.1142</v>
       </c>
       <c r="T244" t="n">
-        <v>6.442923036164809</v>
+        <v>2.276580796021992</v>
       </c>
     </row>
     <row r="245">
@@ -15660,7 +15660,7 @@
         <v>52.0008</v>
       </c>
       <c r="T245" t="n">
-        <v>48.76894597665369</v>
+        <v>53.21298843931594</v>
       </c>
     </row>
     <row r="246">
@@ -15722,7 +15722,7 @@
         <v>4</v>
       </c>
       <c r="T246" t="n">
-        <v>1.52606955972969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -15784,7 +15784,7 @@
         <v>119.8905</v>
       </c>
       <c r="T247" t="n">
-        <v>0</v>
+        <v>3.502221239977167</v>
       </c>
     </row>
     <row r="248">
@@ -15846,7 +15846,7 @@
         <v>640.0003</v>
       </c>
       <c r="T248" t="n">
-        <v>177.1061931572264</v>
+        <v>188.8128089771904</v>
       </c>
     </row>
     <row r="249">
@@ -15908,7 +15908,7 @@
         <v>2006.6505</v>
       </c>
       <c r="T249" t="n">
-        <v>1651.201710758246</v>
+        <v>1702.171041485553</v>
       </c>
     </row>
     <row r="250">
@@ -15970,7 +15970,7 @@
         <v>-1</v>
       </c>
       <c r="T250" t="n">
-        <v>6.951426084491693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -16032,7 +16032,7 @@
         <v>-1</v>
       </c>
       <c r="T251" t="n">
-        <v>3.031844394734144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -16094,7 +16094,7 @@
         <v>7.049500000000001</v>
       </c>
       <c r="T252" t="n">
-        <v>7.323238625985241</v>
+        <v>4.649943814170239</v>
       </c>
     </row>
     <row r="253">
@@ -16156,7 +16156,7 @@
         <v>3.102</v>
       </c>
       <c r="T253" t="n">
-        <v>0</v>
+        <v>2.22440352549179</v>
       </c>
     </row>
     <row r="254">
@@ -16218,7 +16218,7 @@
         <v>7.390899999999999</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
+        <v>12.15218841385707</v>
       </c>
     </row>
     <row r="255">
@@ -16280,7 +16280,7 @@
         <v>47.105</v>
       </c>
       <c r="T255" t="n">
-        <v>0</v>
+        <v>3.200362530503349</v>
       </c>
     </row>
     <row r="256">
@@ -16404,7 +16404,7 @@
         <v>1.8907</v>
       </c>
       <c r="T257" t="n">
-        <v>2.091640253849766</v>
+        <v>1.434429681753792</v>
       </c>
     </row>
     <row r="258">
@@ -16528,7 +16528,7 @@
         <v>22.5621</v>
       </c>
       <c r="T259" t="n">
-        <v>14.06295558581734</v>
+        <v>8.317695871039335</v>
       </c>
     </row>
     <row r="260">
@@ -16590,7 +16590,7 @@
         <v>63.6374</v>
       </c>
       <c r="T260" t="n">
-        <v>51.06134606387263</v>
+        <v>48.1734355358443</v>
       </c>
     </row>
     <row r="261">
@@ -16652,7 +16652,7 @@
         <v>2500</v>
       </c>
       <c r="T261" t="n">
-        <v>1883.710022377374</v>
+        <v>2669.160507163617</v>
       </c>
     </row>
     <row r="262">
@@ -16714,7 +16714,7 @@
         <v>982.6487</v>
       </c>
       <c r="T262" t="n">
-        <v>369.9730972090937</v>
+        <v>370.0700422305786</v>
       </c>
     </row>
     <row r="263">
@@ -16776,7 +16776,7 @@
         <v>3088.7803</v>
       </c>
       <c r="T263" t="n">
-        <v>2638.544376331935</v>
+        <v>3455.027814151184</v>
       </c>
     </row>
     <row r="264">
@@ -16838,7 +16838,7 @@
         <v>5894.566800000001</v>
       </c>
       <c r="T264" t="n">
-        <v>3429.060568760993</v>
+        <v>3343.026278215111</v>
       </c>
     </row>
     <row r="265">
@@ -16900,7 +16900,7 @@
         <v>262.6636</v>
       </c>
       <c r="T265" t="n">
-        <v>272.541659714245</v>
+        <v>292.0506081568262</v>
       </c>
     </row>
     <row r="266">
@@ -16962,7 +16962,7 @@
         <v>1097.0209</v>
       </c>
       <c r="T266" t="n">
-        <v>815.2126147918943</v>
+        <v>1252.805668729226</v>
       </c>
     </row>
     <row r="267">
@@ -17024,7 +17024,7 @@
         <v>138.6367</v>
       </c>
       <c r="T267" t="n">
-        <v>45.52783271512454</v>
+        <v>32.98860354225104</v>
       </c>
     </row>
     <row r="268">
@@ -17086,7 +17086,7 @@
         <v>816.5275</v>
       </c>
       <c r="T268" t="n">
-        <v>367.5921460594203</v>
+        <v>330.9781713331067</v>
       </c>
     </row>
     <row r="269">
@@ -17148,7 +17148,7 @@
         <v>662.6365</v>
       </c>
       <c r="T269" t="n">
-        <v>375.2929872602948</v>
+        <v>372.9298344075773</v>
       </c>
     </row>
     <row r="270">
@@ -17210,7 +17210,7 @@
         <v>3710.2785</v>
       </c>
       <c r="T270" t="n">
-        <v>3251.587186579977</v>
+        <v>2893.525509353327</v>
       </c>
     </row>
     <row r="271">
@@ -17272,7 +17272,7 @@
         <v>187.8522</v>
       </c>
       <c r="T271" t="n">
-        <v>79.8868462211197</v>
+        <v>73.5143898820355</v>
       </c>
     </row>
     <row r="272">
@@ -17334,7 +17334,7 @@
         <v>302.871</v>
       </c>
       <c r="T272" t="n">
-        <v>262.8579587836317</v>
+        <v>242.7124756667269</v>
       </c>
     </row>
     <row r="273">
@@ -17396,7 +17396,7 @@
         <v>490.4431</v>
       </c>
       <c r="T273" t="n">
-        <v>307.9286998932438</v>
+        <v>248.1634775203614</v>
       </c>
     </row>
     <row r="274">
@@ -17458,7 +17458,7 @@
         <v>1115.0003</v>
       </c>
       <c r="T274" t="n">
-        <v>315.6092682263357</v>
+        <v>329.3962720118489</v>
       </c>
     </row>
     <row r="275">
@@ -17520,7 +17520,7 @@
         <v>3615.5807</v>
       </c>
       <c r="T275" t="n">
-        <v>2320.583190578793</v>
+        <v>3193.894414282633</v>
       </c>
     </row>
     <row r="276">
@@ -17582,7 +17582,7 @@
         <v>687.2445</v>
       </c>
       <c r="T276" t="n">
-        <v>314.887974295739</v>
+        <v>302.9766569768244</v>
       </c>
     </row>
     <row r="277">
@@ -17644,7 +17644,7 @@
         <v>3141.8861</v>
       </c>
       <c r="T277" t="n">
-        <v>2560.655928256949</v>
+        <v>3064.306831388467</v>
       </c>
     </row>
     <row r="278">
@@ -17706,7 +17706,7 @@
         <v>20.7474</v>
       </c>
       <c r="T278" t="n">
-        <v>18.68711697764881</v>
+        <v>4.249630651923267</v>
       </c>
     </row>
     <row r="279">
@@ -17768,7 +17768,7 @@
         <v>128.2046</v>
       </c>
       <c r="T279" t="n">
-        <v>132.775043575878</v>
+        <v>166.0932289909199</v>
       </c>
     </row>
     <row r="280">
@@ -17830,7 +17830,7 @@
         <v>163.7464</v>
       </c>
       <c r="T280" t="n">
-        <v>92.71442018073833</v>
+        <v>80.17010405397301</v>
       </c>
     </row>
     <row r="281">
@@ -17892,7 +17892,7 @@
         <v>-1</v>
       </c>
       <c r="T281" t="n">
-        <v>9.113189999499662</v>
+        <v>1.790343877661694</v>
       </c>
     </row>
     <row r="282">
@@ -17954,7 +17954,7 @@
         <v>19.085</v>
       </c>
       <c r="T282" t="n">
-        <v>9.257229284328309</v>
+        <v>1.903611362423465</v>
       </c>
     </row>
     <row r="283">
@@ -18016,7 +18016,7 @@
         <v>45.2528</v>
       </c>
       <c r="T283" t="n">
-        <v>71.80675505277362</v>
+        <v>91.56553643973724</v>
       </c>
     </row>
     <row r="284">
@@ -18078,7 +18078,7 @@
         <v>206.4925</v>
       </c>
       <c r="T284" t="n">
-        <v>138.9496969950707</v>
+        <v>136.5813917938292</v>
       </c>
     </row>
     <row r="285">
@@ -18140,7 +18140,7 @@
         <v>796.9173</v>
       </c>
       <c r="T285" t="n">
-        <v>315.003326884673</v>
+        <v>309.2671493146032</v>
       </c>
     </row>
     <row r="286">
@@ -18202,7 +18202,7 @@
         <v>19.7169</v>
       </c>
       <c r="T286" t="n">
-        <v>11.04050762593866</v>
+        <v>8.228470025215428</v>
       </c>
     </row>
     <row r="287">
@@ -18264,7 +18264,7 @@
         <v>94.2634</v>
       </c>
       <c r="T287" t="n">
-        <v>151.7292040419802</v>
+        <v>175.3377425975687</v>
       </c>
     </row>
     <row r="288">
@@ -18326,7 +18326,7 @@
         <v>949.5663</v>
       </c>
       <c r="T288" t="n">
-        <v>262.686985775141</v>
+        <v>276.442867218618</v>
       </c>
     </row>
     <row r="289">
@@ -18388,7 +18388,7 @@
         <v>4644.0113</v>
       </c>
       <c r="T289" t="n">
-        <v>2272.301883514679</v>
+        <v>3168.941132787529</v>
       </c>
     </row>
     <row r="290">
@@ -18450,7 +18450,7 @@
         <v>-1</v>
       </c>
       <c r="T290" t="n">
-        <v>9.113189999499662</v>
+        <v>1.790343877661694</v>
       </c>
     </row>
     <row r="291">
@@ -18512,7 +18512,7 @@
         <v>17.7291</v>
       </c>
       <c r="T291" t="n">
-        <v>11.50949706196288</v>
+        <v>5.886336297872395</v>
       </c>
     </row>
     <row r="292">
@@ -18574,7 +18574,7 @@
         <v>9.175800000000001</v>
       </c>
       <c r="T292" t="n">
-        <v>10.63257756469537</v>
+        <v>8.004712859961108</v>
       </c>
     </row>
     <row r="293">
@@ -18636,7 +18636,7 @@
         <v>24.8</v>
       </c>
       <c r="T293" t="n">
-        <v>16.59458725380242</v>
+        <v>22.9284201782562</v>
       </c>
     </row>
     <row r="294">
@@ -18698,7 +18698,7 @@
         <v>75.5857</v>
       </c>
       <c r="T294" t="n">
-        <v>1.11473512599863</v>
+        <v>5.214953513306249</v>
       </c>
     </row>
     <row r="295">
@@ -18760,7 +18760,7 @@
         <v>3.9904</v>
       </c>
       <c r="T295" t="n">
-        <v>9.113189999499662</v>
+        <v>1.790343877661694</v>
       </c>
     </row>
     <row r="296">
@@ -18822,7 +18822,7 @@
         <v>9.1616</v>
       </c>
       <c r="T296" t="n">
-        <v>9.181399133386094</v>
+        <v>4.351147330845055</v>
       </c>
     </row>
     <row r="297">
@@ -18884,7 +18884,7 @@
         <v>17.7484</v>
       </c>
       <c r="T297" t="n">
-        <v>9.113189999499662</v>
+        <v>1.790343877661694</v>
       </c>
     </row>
     <row r="298">
@@ -18946,7 +18946,7 @@
         <v>52.53489999999999</v>
       </c>
       <c r="T298" t="n">
-        <v>21.11867443419184</v>
+        <v>15.76107253429246</v>
       </c>
     </row>
     <row r="299">
@@ -19008,7 +19008,7 @@
         <v>104.225</v>
       </c>
       <c r="T299" t="n">
-        <v>77.11409778791979</v>
+        <v>82.34629017533672</v>
       </c>
     </row>
     <row r="300">
@@ -19070,7 +19070,7 @@
         <v>100</v>
       </c>
       <c r="T300" t="n">
-        <v>1357.903568873506</v>
+        <v>1675.673413102383</v>
       </c>
     </row>
     <row r="301">
@@ -19132,7 +19132,7 @@
         <v>589.9998000000001</v>
       </c>
       <c r="T301" t="n">
-        <v>260.870758156965</v>
+        <v>245.7066233810761</v>
       </c>
     </row>
     <row r="302">
@@ -19194,7 +19194,7 @@
         <v>655.2552999999999</v>
       </c>
       <c r="T302" t="n">
-        <v>1700.644044249009</v>
+        <v>1657.423123865428</v>
       </c>
     </row>
     <row r="303">
@@ -19256,7 +19256,7 @@
         <v>722.2748</v>
       </c>
       <c r="T303" t="n">
-        <v>240.3952729647227</v>
+        <v>749.6098494544276</v>
       </c>
     </row>
     <row r="304">
@@ -19318,7 +19318,7 @@
         <v>40.803</v>
       </c>
       <c r="T304" t="n">
-        <v>120.8855617258431</v>
+        <v>93.17606835401355</v>
       </c>
     </row>
     <row r="305">
@@ -19380,7 +19380,7 @@
         <v>146.9536</v>
       </c>
       <c r="T305" t="n">
-        <v>383.4233161785662</v>
+        <v>209.961954916209</v>
       </c>
     </row>
     <row r="306">
@@ -19442,7 +19442,7 @@
         <v>25.6258</v>
       </c>
       <c r="T306" t="n">
-        <v>18.4671435451855</v>
+        <v>23.09656616139285</v>
       </c>
     </row>
     <row r="307">
@@ -19504,7 +19504,7 @@
         <v>120.3064</v>
       </c>
       <c r="T307" t="n">
-        <v>171.5152410159394</v>
+        <v>164.8347011852661</v>
       </c>
     </row>
     <row r="308">
@@ -19566,7 +19566,7 @@
         <v>170.6535</v>
       </c>
       <c r="T308" t="n">
-        <v>265.5451375717224</v>
+        <v>259.5187423524262</v>
       </c>
     </row>
     <row r="309">
@@ -19628,7 +19628,7 @@
         <v>441.6952</v>
       </c>
       <c r="T309" t="n">
-        <v>289.8527577730966</v>
+        <v>22.1720299919807</v>
       </c>
     </row>
     <row r="310">
@@ -19690,7 +19690,7 @@
         <v>43.6282</v>
       </c>
       <c r="T310" t="n">
-        <v>25.62905715208464</v>
+        <v>36.17063645275694</v>
       </c>
     </row>
     <row r="311">
@@ -19752,7 +19752,7 @@
         <v>55.0725</v>
       </c>
       <c r="T311" t="n">
-        <v>117.4311700451956</v>
+        <v>122.6641726010868</v>
       </c>
     </row>
     <row r="312">
@@ -19814,7 +19814,7 @@
         <v>309.9996</v>
       </c>
       <c r="T312" t="n">
-        <v>229.6678043405464</v>
+        <v>228.3676646734206</v>
       </c>
     </row>
     <row r="313">
@@ -19876,7 +19876,7 @@
         <v>325.0003</v>
       </c>
       <c r="T313" t="n">
-        <v>194.5551278311898</v>
+        <v>155.809179365655</v>
       </c>
     </row>
     <row r="314">
@@ -19938,7 +19938,7 @@
         <v>435.0011</v>
       </c>
       <c r="T314" t="n">
-        <v>1654.409262724785</v>
+        <v>1521.230490629046</v>
       </c>
     </row>
     <row r="315">
@@ -20000,7 +20000,7 @@
         <v>185.0013</v>
       </c>
       <c r="T315" t="n">
-        <v>214.5756166916683</v>
+        <v>200.341133553569</v>
       </c>
     </row>
     <row r="316">
@@ -20062,7 +20062,7 @@
         <v>413.73</v>
       </c>
       <c r="T316" t="n">
-        <v>638.6913053188109</v>
+        <v>299.0365378353143</v>
       </c>
     </row>
     <row r="317">
@@ -20186,7 +20186,7 @@
         <v>10.2007</v>
       </c>
       <c r="T318" t="n">
-        <v>21.92394303562363</v>
+        <v>26.35564469812187</v>
       </c>
     </row>
     <row r="319">
@@ -20248,7 +20248,7 @@
         <v>21.047</v>
       </c>
       <c r="T319" t="n">
-        <v>40.64279146315078</v>
+        <v>44.21390614638046</v>
       </c>
     </row>
     <row r="320">
@@ -20310,7 +20310,7 @@
         <v>2.3729</v>
       </c>
       <c r="T320" t="n">
-        <v>5.439735575075508</v>
+        <v>4.190137076934859</v>
       </c>
     </row>
     <row r="321">
@@ -20372,7 +20372,7 @@
         <v>5.4763</v>
       </c>
       <c r="T321" t="n">
-        <v>0</v>
+        <v>11.29032970490527</v>
       </c>
     </row>
     <row r="322">
@@ -20434,7 +20434,7 @@
         <v>69.62139999999999</v>
       </c>
       <c r="T322" t="n">
-        <v>128.4195870308801</v>
+        <v>140.2584000033208</v>
       </c>
     </row>
     <row r="323">
@@ -20496,7 +20496,7 @@
         <v>86.0008</v>
       </c>
       <c r="T323" t="n">
-        <v>210.3311307109209</v>
+        <v>167.7910704420038</v>
       </c>
     </row>
     <row r="324">
@@ -20558,7 +20558,7 @@
         <v>2.4911</v>
       </c>
       <c r="T324" t="n">
-        <v>6.649590201746733</v>
+        <v>5.67782127640251</v>
       </c>
     </row>
     <row r="325">
@@ -20682,7 +20682,7 @@
         <v>349.8127</v>
       </c>
       <c r="T326" t="n">
-        <v>156.0976300053648</v>
+        <v>124.7424665976982</v>
       </c>
     </row>
     <row r="327">
@@ -20744,7 +20744,7 @@
         <v>547.2891</v>
       </c>
       <c r="T327" t="n">
-        <v>1669.290953441841</v>
+        <v>1626.443137558831</v>
       </c>
     </row>
     <row r="328">
@@ -20806,7 +20806,7 @@
         <v>-1</v>
       </c>
       <c r="T328" t="n">
-        <v>1.811934510102867</v>
+        <v>1.177975838919151</v>
       </c>
     </row>
     <row r="329">
@@ -20868,7 +20868,7 @@
         <v>2.2388</v>
       </c>
       <c r="T329" t="n">
-        <v>2.729483620363734</v>
+        <v>6.775243643345894</v>
       </c>
     </row>
     <row r="330">
@@ -20930,7 +20930,7 @@
         <v>1.1186</v>
       </c>
       <c r="T330" t="n">
-        <v>2.489891347340387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -20992,7 +20992,7 @@
         <v>4.5925</v>
       </c>
       <c r="T331" t="n">
-        <v>0</v>
+        <v>7.266662532811405</v>
       </c>
     </row>
     <row r="332">
@@ -21054,7 +21054,7 @@
         <v>11.4436</v>
       </c>
       <c r="T332" t="n">
-        <v>6.334953604263217</v>
+        <v>10.65505691480353</v>
       </c>
     </row>
     <row r="333">
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>1.811934510102867</v>
+        <v>1.177975838919151</v>
       </c>
     </row>
     <row r="334">
@@ -21178,7 +21178,7 @@
         <v>1.116</v>
       </c>
       <c r="T334" t="n">
-        <v>0.7601212387516056</v>
+        <v>1.177975838919151</v>
       </c>
     </row>
     <row r="335">
@@ -21240,7 +21240,7 @@
         <v>2.125</v>
       </c>
       <c r="T335" t="n">
-        <v>1.811934510102867</v>
+        <v>1.177975838919151</v>
       </c>
     </row>
     <row r="336">
@@ -21302,7 +21302,7 @@
         <v>3.4947</v>
       </c>
       <c r="T336" t="n">
-        <v>0</v>
+        <v>5.626526129910491</v>
       </c>
     </row>
     <row r="337">
@@ -21364,7 +21364,7 @@
         <v>8.8324</v>
       </c>
       <c r="T337" t="n">
-        <v>0</v>
+        <v>19.53131418987933</v>
       </c>
     </row>
     <row r="338">
@@ -21426,7 +21426,7 @@
         <v>310.001</v>
       </c>
       <c r="T338" t="n">
-        <v>1032.852112314053</v>
+        <v>731.6439693046598</v>
       </c>
     </row>
     <row r="339">
@@ -21488,7 +21488,7 @@
         <v>970.0018</v>
       </c>
       <c r="T339" t="n">
-        <v>41.59427624523885</v>
+        <v>45.0864806277327</v>
       </c>
     </row>
     <row r="340">
@@ -21550,7 +21550,7 @@
         <v>1245.0007</v>
       </c>
       <c r="T340" t="n">
-        <v>1163.956948525746</v>
+        <v>1343.78227828914</v>
       </c>
     </row>
     <row r="341">
@@ -21612,7 +21612,7 @@
         <v>1503</v>
       </c>
       <c r="T341" t="n">
-        <v>759.417932687857</v>
+        <v>410.6088483290458</v>
       </c>
     </row>
     <row r="342">
@@ -21674,7 +21674,7 @@
         <v>80.9996</v>
       </c>
       <c r="T342" t="n">
-        <v>56.63010701714218</v>
+        <v>24.48302127862775</v>
       </c>
     </row>
     <row r="343">
@@ -21736,7 +21736,7 @@
         <v>268.9157</v>
       </c>
       <c r="T343" t="n">
-        <v>126.382222058218</v>
+        <v>23.60988632004432</v>
       </c>
     </row>
     <row r="344">
@@ -21798,7 +21798,7 @@
         <v>46.6918</v>
       </c>
       <c r="T344" t="n">
-        <v>0</v>
+        <v>2.317847273821261</v>
       </c>
     </row>
     <row r="345">
@@ -21860,7 +21860,7 @@
         <v>227.7049</v>
       </c>
       <c r="T345" t="n">
-        <v>55.67867991047569</v>
+        <v>47.70184045871417</v>
       </c>
     </row>
     <row r="346">
@@ -21922,7 +21922,7 @@
         <v>342.9574</v>
       </c>
       <c r="T346" t="n">
-        <v>181.4510970612698</v>
+        <v>180.3023767652386</v>
       </c>
     </row>
     <row r="347">
@@ -21984,7 +21984,7 @@
         <v>730</v>
       </c>
       <c r="T347" t="n">
-        <v>285.0221543891828</v>
+        <v>270.571346506218</v>
       </c>
     </row>
     <row r="348">
@@ -22046,7 +22046,7 @@
         <v>74.55589999999999</v>
       </c>
       <c r="T348" t="n">
-        <v>4.106824435566064</v>
+        <v>9.939179241459032</v>
       </c>
     </row>
     <row r="349">
@@ -22108,7 +22108,7 @@
         <v>100.9922</v>
       </c>
       <c r="T349" t="n">
-        <v>27.8358894727609</v>
+        <v>11.65866665144069</v>
       </c>
     </row>
     <row r="350">
@@ -22170,7 +22170,7 @@
         <v>490.0001</v>
       </c>
       <c r="T350" t="n">
-        <v>394.8979942777235</v>
+        <v>394.9239455585553</v>
       </c>
     </row>
     <row r="351">
@@ -22232,7 +22232,7 @@
         <v>635.0014</v>
       </c>
       <c r="T351" t="n">
-        <v>159.9137051167434</v>
+        <v>130.1323180354969</v>
       </c>
     </row>
     <row r="352">
@@ -22294,7 +22294,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T352" t="n">
-        <v>1188.711527300341</v>
+        <v>1206.296509173118</v>
       </c>
     </row>
     <row r="353">
@@ -22356,7 +22356,7 @@
         <v>295.0005</v>
       </c>
       <c r="T353" t="n">
-        <v>30.20222538322093</v>
+        <v>30.30880442144328</v>
       </c>
     </row>
     <row r="354">
@@ -22480,7 +22480,7 @@
         <v>4.6335</v>
       </c>
       <c r="T355" t="n">
-        <v>0</v>
+        <v>6.815118689920697</v>
       </c>
     </row>
     <row r="356">
@@ -22604,7 +22604,7 @@
         <v>38.885</v>
       </c>
       <c r="T357" t="n">
-        <v>38.32761130199286</v>
+        <v>35.78397785493461</v>
       </c>
     </row>
     <row r="358">
@@ -22666,7 +22666,7 @@
         <v>4.3014</v>
       </c>
       <c r="T358" t="n">
-        <v>2.665694753373356</v>
+        <v>5.456012023664274</v>
       </c>
     </row>
     <row r="359">
@@ -22728,7 +22728,7 @@
         <v>9.762700000000001</v>
       </c>
       <c r="T359" t="n">
-        <v>0</v>
+        <v>3.497433995590571</v>
       </c>
     </row>
     <row r="360">
@@ -22790,7 +22790,7 @@
         <v>120.9999</v>
       </c>
       <c r="T360" t="n">
-        <v>0</v>
+        <v>1.150433153664781</v>
       </c>
     </row>
     <row r="361">
@@ -22852,7 +22852,7 @@
         <v>156.0009</v>
       </c>
       <c r="T361" t="n">
-        <v>106.0334323805577</v>
+        <v>66.66001566160271</v>
       </c>
     </row>
     <row r="362">
@@ -23038,7 +23038,7 @@
         <v>630.0002000000001</v>
       </c>
       <c r="T364" t="n">
-        <v>110.7828628140452</v>
+        <v>89.57464581420521</v>
       </c>
     </row>
     <row r="365">
@@ -23100,7 +23100,7 @@
         <v>1000.0007</v>
       </c>
       <c r="T365" t="n">
-        <v>1278.260299226133</v>
+        <v>1317.266321910109</v>
       </c>
     </row>
     <row r="366">
@@ -23224,7 +23224,7 @@
         <v>4.0954</v>
       </c>
       <c r="T367" t="n">
-        <v>2.116124997863325</v>
+        <v>6.283452384587643</v>
       </c>
     </row>
     <row r="368">
@@ -23286,7 +23286,7 @@
         <v>2.2856</v>
       </c>
       <c r="T368" t="n">
-        <v>4.158255786229183</v>
+        <v>22.16686238324063</v>
       </c>
     </row>
     <row r="369">
@@ -23348,7 +23348,7 @@
         <v>5.0002</v>
       </c>
       <c r="T369" t="n">
-        <v>0.55011108045329</v>
+        <v>11.05988333208721</v>
       </c>
     </row>
     <row r="370">
@@ -23472,7 +23472,7 @@
         <v>1.9981</v>
       </c>
       <c r="T371" t="n">
-        <v>2.652284507471229</v>
+        <v>1.772321959389447</v>
       </c>
     </row>
     <row r="372">
@@ -23534,7 +23534,7 @@
         <v>3.7633</v>
       </c>
       <c r="T372" t="n">
-        <v>3.707026369814139</v>
+        <v>6.810228490337853</v>
       </c>
     </row>
     <row r="373">
@@ -23596,7 +23596,7 @@
         <v>4.0731</v>
       </c>
       <c r="T373" t="n">
-        <v>1.008531154415541</v>
+        <v>6.304942101412473</v>
       </c>
     </row>
     <row r="374">
@@ -23658,7 +23658,7 @@
         <v>5.8048</v>
       </c>
       <c r="T374" t="n">
-        <v>0</v>
+        <v>9.395657236864009</v>
       </c>
     </row>
     <row r="375">
@@ -23720,7 +23720,7 @@
         <v>45.0006</v>
       </c>
       <c r="T375" t="n">
-        <v>36.03146241253448</v>
+        <v>36.95101840163279</v>
       </c>
     </row>
     <row r="376">
@@ -23782,7 +23782,7 @@
         <v>130.0001</v>
       </c>
       <c r="T376" t="n">
-        <v>59.53767055716052</v>
+        <v>44.13206087077172</v>
       </c>
     </row>
     <row r="377">
@@ -23844,7 +23844,7 @@
         <v>145.0007</v>
       </c>
       <c r="T377" t="n">
-        <v>149.8395322281978</v>
+        <v>102.2322490799428</v>
       </c>
     </row>
     <row r="378">
@@ -23906,7 +23906,7 @@
         <v>3.0004</v>
       </c>
       <c r="T378" t="n">
-        <v>1.185111129827102</v>
+        <v>1.790587626271037</v>
       </c>
     </row>
     <row r="379">
@@ -23968,7 +23968,7 @@
         <v>32.0003</v>
       </c>
       <c r="T379" t="n">
-        <v>29.08042373743798</v>
+        <v>24.85448627199109</v>
       </c>
     </row>
     <row r="380">
@@ -24030,7 +24030,7 @@
         <v>115.0013</v>
       </c>
       <c r="T380" t="n">
-        <v>4.895876560630366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -24092,7 +24092,7 @@
         <v>4.6486</v>
       </c>
       <c r="T381" t="n">
-        <v>1.031666484927572</v>
+        <v>3.582947488421541</v>
       </c>
     </row>
     <row r="382">
@@ -24154,7 +24154,7 @@
         <v>22</v>
       </c>
       <c r="T382" t="n">
-        <v>29.14312271622945</v>
+        <v>31.14293540262693</v>
       </c>
     </row>
     <row r="383">
@@ -24278,7 +24278,7 @@
         <v>21.5553</v>
       </c>
       <c r="T384" t="n">
-        <v>25.35265853785342</v>
+        <v>24.52024429409363</v>
       </c>
     </row>
     <row r="385">
@@ -24340,7 +24340,7 @@
         <v>50.0004</v>
       </c>
       <c r="T385" t="n">
-        <v>26.23852500971389</v>
+        <v>15.05694605841646</v>
       </c>
     </row>
     <row r="386">
@@ -24402,7 +24402,7 @@
         <v>5.2401</v>
       </c>
       <c r="T386" t="n">
-        <v>1.160033126944062</v>
+        <v>3.532903155619851</v>
       </c>
     </row>
     <row r="387">
@@ -24526,7 +24526,7 @@
         <v>20.0004</v>
       </c>
       <c r="T388" t="n">
-        <v>6.438891674252736</v>
+        <v>6.070606962032158</v>
       </c>
     </row>
     <row r="389">
@@ -24588,7 +24588,7 @@
         <v>109</v>
       </c>
       <c r="T389" t="n">
-        <v>54.1296088014402</v>
+        <v>28.50307202286887</v>
       </c>
     </row>
     <row r="390">
@@ -24650,7 +24650,7 @@
         <v>33</v>
       </c>
       <c r="T390" t="n">
-        <v>6.460970889951972</v>
+        <v>5.397272061632979</v>
       </c>
     </row>
     <row r="391">
@@ -24774,7 +24774,7 @@
         <v>0.6499</v>
       </c>
       <c r="T392" t="n">
-        <v>0</v>
+        <v>1.277505677950963</v>
       </c>
     </row>
     <row r="393">
@@ -24960,7 +24960,7 @@
         <v>33.9999</v>
       </c>
       <c r="T395" t="n">
-        <v>7.788414677489997</v>
+        <v>6.070606962032158</v>
       </c>
     </row>
     <row r="396">
@@ -25022,7 +25022,7 @@
         <v>3.9042</v>
       </c>
       <c r="T396" t="n">
-        <v>1.395942536297561</v>
+        <v>3.566694807706487</v>
       </c>
     </row>
     <row r="397">
@@ -25084,7 +25084,7 @@
         <v>21.0001</v>
       </c>
       <c r="T397" t="n">
-        <v>0.4039226998562755</v>
+        <v>8.454417673981018</v>
       </c>
     </row>
     <row r="398">
@@ -25146,7 +25146,7 @@
         <v>27.6298</v>
       </c>
       <c r="T398" t="n">
-        <v>1.238505940318101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -25208,7 +25208,7 @@
         <v>13.2763</v>
       </c>
       <c r="T399" t="n">
-        <v>1.368757370556703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -25394,7 +25394,7 @@
         <v>1.1497</v>
       </c>
       <c r="T402" t="n">
-        <v>0.9501528023613602</v>
+        <v>3.582947488421541</v>
       </c>
     </row>
     <row r="403">
@@ -25456,7 +25456,7 @@
         <v>0.8001</v>
       </c>
       <c r="T403" t="n">
-        <v>6.428798224060094</v>
+        <v>5.567043565552586</v>
       </c>
     </row>
     <row r="404">
@@ -25518,7 +25518,7 @@
         <v>4</v>
       </c>
       <c r="T404" t="n">
-        <v>0</v>
+        <v>1.673466980454494</v>
       </c>
     </row>
     <row r="405">
@@ -25580,7 +25580,7 @@
         <v>19.4998</v>
       </c>
       <c r="T405" t="n">
-        <v>7.71304986279195</v>
+        <v>3.770218176819881</v>
       </c>
     </row>
     <row r="406">
@@ -25704,7 +25704,7 @@
         <v>22.5004</v>
       </c>
       <c r="T407" t="n">
-        <v>44.89483121537252</v>
+        <v>43.17147135688047</v>
       </c>
     </row>
     <row r="408">
@@ -25766,7 +25766,7 @@
         <v>65.00059999999999</v>
       </c>
       <c r="T408" t="n">
-        <v>139.9561106108636</v>
+        <v>135.9658845321659</v>
       </c>
     </row>
     <row r="409">
@@ -25828,7 +25828,7 @@
         <v>72.50020000000001</v>
       </c>
       <c r="T409" t="n">
-        <v>239.2143441477244</v>
+        <v>157.8344205083661</v>
       </c>
     </row>
     <row r="410">
@@ -25890,7 +25890,7 @@
         <v>1.5002</v>
       </c>
       <c r="T410" t="n">
-        <v>19.55959036630958</v>
+        <v>2.219169498859267</v>
       </c>
     </row>
     <row r="411">
@@ -25952,7 +25952,7 @@
         <v>-1</v>
       </c>
       <c r="T411" t="n">
-        <v>0</v>
+        <v>12.59488404604575</v>
       </c>
     </row>
     <row r="412">
@@ -26014,7 +26014,7 @@
         <v>16.0003</v>
       </c>
       <c r="T412" t="n">
-        <v>41.4911413369925</v>
+        <v>33.63228492668435</v>
       </c>
     </row>
     <row r="413">
@@ -26076,7 +26076,7 @@
         <v>57.5006</v>
       </c>
       <c r="T413" t="n">
-        <v>113.3774165053592</v>
+        <v>115.0291068487224</v>
       </c>
     </row>
     <row r="414">
@@ -26138,7 +26138,7 @@
         <v>2.3243</v>
       </c>
       <c r="T414" t="n">
-        <v>43.12142512097299</v>
+        <v>6.777030729779233</v>
       </c>
     </row>
     <row r="415">
@@ -26200,7 +26200,7 @@
         <v>-1</v>
       </c>
       <c r="T415" t="n">
-        <v>0.11925330692476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -26262,7 +26262,7 @@
         <v>11.0005</v>
       </c>
       <c r="T416" t="n">
-        <v>36.86333004641731</v>
+        <v>30.65486766235457</v>
       </c>
     </row>
     <row r="417">
@@ -26324,7 +26324,7 @@
         <v>68.2256</v>
       </c>
       <c r="T417" t="n">
-        <v>102.1665764415747</v>
+        <v>84.65912430711832</v>
       </c>
     </row>
     <row r="418">
@@ -26386,7 +26386,7 @@
         <v>10.7781</v>
       </c>
       <c r="T418" t="n">
-        <v>30.1850952968022</v>
+        <v>33.04939200892451</v>
       </c>
     </row>
     <row r="419">
@@ -26448,7 +26448,7 @@
         <v>24.9998</v>
       </c>
       <c r="T419" t="n">
-        <v>57.20335681864848</v>
+        <v>41.84611789887886</v>
       </c>
     </row>
     <row r="420">
@@ -26510,7 +26510,7 @@
         <v>2.6198</v>
       </c>
       <c r="T420" t="n">
-        <v>9.720497025308676</v>
+        <v>2.307805999078021</v>
       </c>
     </row>
     <row r="421">
@@ -26572,7 +26572,7 @@
         <v>-1</v>
       </c>
       <c r="T421" t="n">
-        <v>31.0152093840618</v>
+        <v>9.796006149467361</v>
       </c>
     </row>
     <row r="422">
@@ -26696,7 +26696,7 @@
         <v>10</v>
       </c>
       <c r="T423" t="n">
-        <v>22.544847935531</v>
+        <v>17.31146236816933</v>
       </c>
     </row>
     <row r="424">
@@ -26758,7 +26758,7 @@
         <v>54.5001</v>
       </c>
       <c r="T424" t="n">
-        <v>72.48824174604002</v>
+        <v>47.44324098965968</v>
       </c>
     </row>
     <row r="425">
@@ -26820,7 +26820,7 @@
         <v>-1</v>
       </c>
       <c r="T425" t="n">
-        <v>73.20177963676754</v>
+        <v>92.2068001394871</v>
       </c>
     </row>
     <row r="426">
@@ -26882,7 +26882,7 @@
         <v>16.4999</v>
       </c>
       <c r="T426" t="n">
-        <v>28.92424302024069</v>
+        <v>18.4394465593262</v>
       </c>
     </row>
     <row r="427">
@@ -26944,7 +26944,7 @@
         <v>147.5008</v>
       </c>
       <c r="T427" t="n">
-        <v>155.4014377867613</v>
+        <v>160.3307154399166</v>
       </c>
     </row>
     <row r="428">
@@ -27006,7 +27006,7 @@
         <v>0.3252</v>
       </c>
       <c r="T428" t="n">
-        <v>0.3313603199168329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -27130,7 +27130,7 @@
         <v>-1</v>
       </c>
       <c r="T430" t="n">
-        <v>0.11925330692476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -27192,7 +27192,7 @@
         <v>1.3629</v>
       </c>
       <c r="T431" t="n">
-        <v>0.9031656461300609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -27254,7 +27254,7 @@
         <v>17.0003</v>
       </c>
       <c r="T432" t="n">
-        <v>122.199506783225</v>
+        <v>99.04550536466516</v>
       </c>
     </row>
     <row r="433">
@@ -27316,7 +27316,7 @@
         <v>1.9376</v>
       </c>
       <c r="T433" t="n">
-        <v>41.63928292234033</v>
+        <v>6.662733724224356</v>
       </c>
     </row>
     <row r="434">
@@ -27378,7 +27378,7 @@
         <v>10.4999</v>
       </c>
       <c r="T434" t="n">
-        <v>38.24642459559054</v>
+        <v>41.12733272511723</v>
       </c>
     </row>
     <row r="435">
@@ -27440,7 +27440,7 @@
         <v>13.8146</v>
       </c>
       <c r="T435" t="n">
-        <v>39.8243244797446</v>
+        <v>33.76619832745385</v>
       </c>
     </row>
     <row r="436">
@@ -27502,7 +27502,7 @@
         <v>6.6018</v>
       </c>
       <c r="T436" t="n">
-        <v>37.56881427760451</v>
+        <v>7.517843841651213</v>
       </c>
     </row>
     <row r="437">
@@ -27564,7 +27564,7 @@
         <v>4.0001</v>
       </c>
       <c r="T437" t="n">
-        <v>16.58569519558807</v>
+        <v>19.70444883733326</v>
       </c>
     </row>
     <row r="438">
@@ -27626,7 +27626,7 @@
         <v>0.6501</v>
       </c>
       <c r="T438" t="n">
-        <v>7.041667835909175</v>
+        <v>2.593617969749599</v>
       </c>
     </row>
     <row r="439">
@@ -27688,7 +27688,7 @@
         <v>0.5753</v>
       </c>
       <c r="T439" t="n">
-        <v>6.897392576808479</v>
+        <v>2.91273389774508</v>
       </c>
     </row>
     <row r="440">
@@ -27750,7 +27750,7 @@
         <v>-1</v>
       </c>
       <c r="T440" t="n">
-        <v>16.51721543778391</v>
+        <v>23.08040857441952</v>
       </c>
     </row>
     <row r="441">
@@ -27812,7 +27812,7 @@
         <v>0.4001</v>
       </c>
       <c r="T441" t="n">
-        <v>14.06236960530238</v>
+        <v>9.796006149467361</v>
       </c>
     </row>
     <row r="442">
@@ -27874,7 +27874,7 @@
         <v>1.9998</v>
       </c>
       <c r="T442" t="n">
-        <v>59.75863250907913</v>
+        <v>68.24434894570413</v>
       </c>
     </row>
     <row r="443">
@@ -27936,7 +27936,7 @@
         <v>9.750299999999999</v>
       </c>
       <c r="T443" t="n">
-        <v>67.5538931572943</v>
+        <v>38.71572681684042</v>
       </c>
     </row>
     <row r="444">
@@ -27998,7 +27998,7 @@
         <v>-1</v>
       </c>
       <c r="T444" t="n">
-        <v>48.66546609267551</v>
+        <v>61.71457168426476</v>
       </c>
     </row>
     <row r="445">
@@ -28060,7 +28060,7 @@
         <v>65.24979999999999</v>
       </c>
       <c r="T445" t="n">
-        <v>54.27089736089595</v>
+        <v>50.41902782231946</v>
       </c>
     </row>
     <row r="446">
@@ -28122,7 +28122,7 @@
         <v>187.5</v>
       </c>
       <c r="T446" t="n">
-        <v>139.2436895459589</v>
+        <v>118.9675653212719</v>
       </c>
     </row>
     <row r="447">
@@ -28184,7 +28184,7 @@
         <v>206.2503</v>
       </c>
       <c r="T447" t="n">
-        <v>178.5895075269886</v>
+        <v>120.8199411820588</v>
       </c>
     </row>
     <row r="448">
@@ -28246,7 +28246,7 @@
         <v>4.2003</v>
       </c>
       <c r="T448" t="n">
-        <v>3.027288934416438</v>
+        <v>1.388869677125878</v>
       </c>
     </row>
     <row r="449">
@@ -28370,7 +28370,7 @@
         <v>45.4499</v>
       </c>
       <c r="T450" t="n">
-        <v>45.00397942698336</v>
+        <v>38.86762621888938</v>
       </c>
     </row>
     <row r="451">
@@ -28432,7 +28432,7 @@
         <v>162.7504</v>
       </c>
       <c r="T451" t="n">
-        <v>143.2818787342073</v>
+        <v>128.9957653115842</v>
       </c>
     </row>
     <row r="452">
@@ -28494,7 +28494,7 @@
         <v>6.5762</v>
       </c>
       <c r="T452" t="n">
-        <v>6.688467456270443</v>
+        <v>4.644796049992463</v>
       </c>
     </row>
     <row r="453">
@@ -28556,7 +28556,7 @@
         <v>-1</v>
       </c>
       <c r="T453" t="n">
-        <v>0.7168036647287191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -28618,7 +28618,7 @@
         <v>30.75</v>
       </c>
       <c r="T454" t="n">
-        <v>49.57199808001574</v>
+        <v>49.83273841017967</v>
       </c>
     </row>
     <row r="455">
@@ -28680,7 +28680,7 @@
         <v>189.676</v>
       </c>
       <c r="T455" t="n">
-        <v>51.83243404180872</v>
+        <v>58.30929596062147</v>
       </c>
     </row>
     <row r="456">
@@ -28742,7 +28742,7 @@
         <v>30.5996</v>
       </c>
       <c r="T456" t="n">
-        <v>29.53980911733735</v>
+        <v>30.71625567582247</v>
       </c>
     </row>
     <row r="457">
@@ -28804,7 +28804,7 @@
         <v>68.2499</v>
       </c>
       <c r="T457" t="n">
-        <v>37.57328186648095</v>
+        <v>46.62932553185043</v>
       </c>
     </row>
     <row r="458">
@@ -28866,7 +28866,7 @@
         <v>7.2598</v>
       </c>
       <c r="T458" t="n">
-        <v>0</v>
+        <v>0.767742143990043</v>
       </c>
     </row>
     <row r="459">
@@ -29052,7 +29052,7 @@
         <v>-1</v>
       </c>
       <c r="T461" t="n">
-        <v>0.167873237175075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -29114,7 +29114,7 @@
         <v>28.4999</v>
       </c>
       <c r="T462" t="n">
-        <v>60.37283332622802</v>
+        <v>42.70976077688461</v>
       </c>
     </row>
     <row r="463">
@@ -29176,7 +29176,7 @@
         <v>154.4998</v>
       </c>
       <c r="T463" t="n">
-        <v>79.74107329013542</v>
+        <v>70.68479823915527</v>
       </c>
     </row>
     <row r="464">
@@ -29238,7 +29238,7 @@
         <v>47.4</v>
       </c>
       <c r="T464" t="n">
-        <v>41.17021598117996</v>
+        <v>33.38572893897404</v>
       </c>
     </row>
     <row r="465">
@@ -29300,7 +29300,7 @@
         <v>423.7501</v>
       </c>
       <c r="T465" t="n">
-        <v>121.3498039641497</v>
+        <v>160.9980157377019</v>
       </c>
     </row>
     <row r="466">
@@ -29362,7 +29362,7 @@
         <v>0.9003</v>
       </c>
       <c r="T466" t="n">
-        <v>0</v>
+        <v>0.01572826222907236</v>
       </c>
     </row>
     <row r="467">
@@ -29486,7 +29486,7 @@
         <v>-1</v>
       </c>
       <c r="T468" t="n">
-        <v>0.3193555740006934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -29610,7 +29610,7 @@
         <v>46.95</v>
       </c>
       <c r="T470" t="n">
-        <v>28.03619630334723</v>
+        <v>43.31816758264755</v>
       </c>
     </row>
     <row r="471">
@@ -29672,7 +29672,7 @@
         <v>5.6121</v>
       </c>
       <c r="T471" t="n">
-        <v>2.229243675282608</v>
+        <v>1.089034579767617</v>
       </c>
     </row>
     <row r="472">
@@ -29734,7 +29734,7 @@
         <v>29.6996</v>
       </c>
       <c r="T472" t="n">
-        <v>32.97606694151573</v>
+        <v>43.44522823697739</v>
       </c>
     </row>
     <row r="473">
@@ -29796,7 +29796,7 @@
         <v>40.7794</v>
       </c>
       <c r="T473" t="n">
-        <v>67.61972931905109</v>
+        <v>67.35457717851243</v>
       </c>
     </row>
     <row r="474">
@@ -29858,7 +29858,7 @@
         <v>19.1484</v>
       </c>
       <c r="T474" t="n">
-        <v>14.13109583558293</v>
+        <v>9.771393987904814</v>
       </c>
     </row>
     <row r="475">
@@ -29920,7 +29920,7 @@
         <v>11.55</v>
       </c>
       <c r="T475" t="n">
-        <v>13.1657981833328</v>
+        <v>31.93602685858796</v>
       </c>
     </row>
     <row r="476">
@@ -29982,7 +29982,7 @@
         <v>1.9048</v>
       </c>
       <c r="T476" t="n">
-        <v>0</v>
+        <v>1.135566969500604</v>
       </c>
     </row>
     <row r="477">
@@ -30106,7 +30106,7 @@
         <v>1.1254</v>
       </c>
       <c r="T478" t="n">
-        <v>2.812075288363836</v>
+        <v>1.318983859982888</v>
       </c>
     </row>
     <row r="479">
@@ -30230,7 +30230,7 @@
         <v>27.8997</v>
       </c>
       <c r="T480" t="n">
-        <v>48.59981972956125</v>
+        <v>49.90164486013819</v>
       </c>
     </row>
     <row r="481">
@@ -30292,7 +30292,7 @@
         <v>-1</v>
       </c>
       <c r="T481" t="n">
-        <v>65.11766820081787</v>
+        <v>67.66751245756667</v>
       </c>
     </row>
     <row r="482">
@@ -30354,7 +30354,7 @@
         <v>70.25019999999999</v>
       </c>
       <c r="T482" t="n">
-        <v>50.88720449429405</v>
+        <v>49.9812207036703</v>
       </c>
     </row>
     <row r="483">
@@ -30416,7 +30416,7 @@
         <v>225.0006</v>
       </c>
       <c r="T483" t="n">
-        <v>95.02571193775422</v>
+        <v>87.85304240149998</v>
       </c>
     </row>
     <row r="484">
@@ -30478,7 +30478,7 @@
         <v>336.0003</v>
       </c>
       <c r="T484" t="n">
-        <v>259.8168801657818</v>
+        <v>171.8167541509306</v>
       </c>
     </row>
     <row r="485">
@@ -30540,7 +30540,7 @@
         <v>4.2006</v>
       </c>
       <c r="T485" t="n">
-        <v>5.819799715424621</v>
+        <v>2.029870409638979</v>
       </c>
     </row>
     <row r="486">
@@ -30664,7 +30664,7 @@
         <v>49.95</v>
       </c>
       <c r="T487" t="n">
-        <v>48.73804163852665</v>
+        <v>50.31069993564042</v>
       </c>
     </row>
     <row r="488">
@@ -30726,7 +30726,7 @@
         <v>179.9998</v>
       </c>
       <c r="T488" t="n">
-        <v>99.01262239187739</v>
+        <v>86.57601490903747</v>
       </c>
     </row>
     <row r="489">
@@ -30788,7 +30788,7 @@
         <v>8.575799999999999</v>
       </c>
       <c r="T489" t="n">
-        <v>11.14983401074615</v>
+        <v>9.224297683075243</v>
       </c>
     </row>
     <row r="490">
@@ -30850,7 +30850,7 @@
         <v>-1</v>
       </c>
       <c r="T490" t="n">
-        <v>15.56716545223578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -30912,7 +30912,7 @@
         <v>50.2502</v>
       </c>
       <c r="T491" t="n">
-        <v>95.89276977155426</v>
+        <v>59.5317691505345</v>
       </c>
     </row>
     <row r="492">
@@ -30974,7 +30974,7 @@
         <v>270.0002</v>
       </c>
       <c r="T492" t="n">
-        <v>59.70083077974193</v>
+        <v>83.10212224547176</v>
       </c>
     </row>
     <row r="493">
@@ -31036,7 +31036,7 @@
         <v>-1</v>
       </c>
       <c r="T493" t="n">
-        <v>6.845236524613192</v>
+        <v>7.732080211164063</v>
       </c>
     </row>
     <row r="494">
@@ -31098,7 +31098,7 @@
         <v>28.5997</v>
       </c>
       <c r="T494" t="n">
-        <v>32.99339490572993</v>
+        <v>36.3320533049836</v>
       </c>
     </row>
     <row r="495">
@@ -31160,7 +31160,7 @@
         <v>66.0005</v>
       </c>
       <c r="T495" t="n">
-        <v>59.79925189071738</v>
+        <v>64.54663543176022</v>
       </c>
     </row>
     <row r="496">
@@ -31222,7 +31222,7 @@
         <v>7.2597</v>
       </c>
       <c r="T496" t="n">
-        <v>3.276438099785357</v>
+        <v>0.499038179973892</v>
       </c>
     </row>
     <row r="497">
@@ -31284,7 +31284,7 @@
         <v>-1</v>
       </c>
       <c r="T497" t="n">
-        <v>2.066659679304764</v>
+        <v>1.296234935935876</v>
       </c>
     </row>
     <row r="498">
@@ -31346,7 +31346,7 @@
         <v>-1</v>
       </c>
       <c r="T498" t="n">
-        <v>25.4958571394534</v>
+        <v>5.021738300335829</v>
       </c>
     </row>
     <row r="499">
@@ -31408,7 +31408,7 @@
         <v>39</v>
       </c>
       <c r="T499" t="n">
-        <v>55.0830377889875</v>
+        <v>56.70645446978546</v>
       </c>
     </row>
     <row r="500">
@@ -31470,7 +31470,7 @@
         <v>135</v>
       </c>
       <c r="T500" t="n">
-        <v>163.639019385315</v>
+        <v>182.4502489951948</v>
       </c>
     </row>
     <row r="501">
@@ -31594,7 +31594,7 @@
         <v>43.0003</v>
       </c>
       <c r="T502" t="n">
-        <v>53.42567646211826</v>
+        <v>56.66925894472545</v>
       </c>
     </row>
     <row r="503">
@@ -31656,7 +31656,7 @@
         <v>440.0004</v>
       </c>
       <c r="T503" t="n">
-        <v>55.63532337118585</v>
+        <v>48.02112035679279</v>
       </c>
     </row>
     <row r="504">
@@ -31718,7 +31718,7 @@
         <v>0.8247</v>
       </c>
       <c r="T504" t="n">
-        <v>5.948433272067197</v>
+        <v>0.448155169287312</v>
       </c>
     </row>
     <row r="505">
@@ -31842,7 +31842,7 @@
         <v>-1</v>
       </c>
       <c r="T506" t="n">
-        <v>1.945037987456328</v>
+        <v>7.732080211164063</v>
       </c>
     </row>
     <row r="507">
@@ -31904,7 +31904,7 @@
         <v>2.35</v>
       </c>
       <c r="T507" t="n">
-        <v>2.611239160761995</v>
+        <v>1.437395278036978</v>
       </c>
     </row>
     <row r="508">
@@ -31966,7 +31966,7 @@
         <v>43.0001</v>
       </c>
       <c r="T508" t="n">
-        <v>36.20379239478532</v>
+        <v>30.57290298761878</v>
       </c>
     </row>
     <row r="509">
@@ -32028,7 +32028,7 @@
         <v>-1</v>
       </c>
       <c r="T509" t="n">
-        <v>74.68123597352727</v>
+        <v>23.6108951982657</v>
       </c>
     </row>
     <row r="510">
@@ -32090,7 +32090,7 @@
         <v>5.5571</v>
       </c>
       <c r="T510" t="n">
-        <v>13.94875176564678</v>
+        <v>7.163480294678739</v>
       </c>
     </row>
     <row r="511">
@@ -32152,7 +32152,7 @@
         <v>49.001</v>
       </c>
       <c r="T511" t="n">
-        <v>34.78159505293057</v>
+        <v>41.21580881914959</v>
       </c>
     </row>
     <row r="512">
@@ -32214,7 +32214,7 @@
         <v>60.98840000000001</v>
       </c>
       <c r="T512" t="n">
-        <v>69.66317225594341</v>
+        <v>77.53254777997383</v>
       </c>
     </row>
     <row r="513">
@@ -32276,7 +32276,7 @@
         <v>18.9569</v>
       </c>
       <c r="T513" t="n">
-        <v>29.67206468667</v>
+        <v>20.15037823872079</v>
       </c>
     </row>
     <row r="514">
@@ -32338,7 +32338,7 @@
         <v>19.0499</v>
       </c>
       <c r="T514" t="n">
-        <v>28.28528162123855</v>
+        <v>34.91250047581813</v>
       </c>
     </row>
     <row r="515">
@@ -32400,7 +32400,7 @@
         <v>1.9048</v>
       </c>
       <c r="T515" t="n">
-        <v>1.403370164106167</v>
+        <v>0.8585684882850119</v>
       </c>
     </row>
     <row r="516">
@@ -32462,7 +32462,7 @@
         <v>-1</v>
       </c>
       <c r="T516" t="n">
-        <v>6.845236524613192</v>
+        <v>7.732080211164063</v>
       </c>
     </row>
     <row r="517">
@@ -32524,7 +32524,7 @@
         <v>1.5748</v>
       </c>
       <c r="T517" t="n">
-        <v>0.9529303878816107</v>
+        <v>2.138303379182629</v>
       </c>
     </row>
     <row r="518">
@@ -32586,7 +32586,7 @@
         <v>-1</v>
       </c>
       <c r="T518" t="n">
-        <v>20.51337099132418</v>
+        <v>38.76964927072741</v>
       </c>
     </row>
     <row r="519">
@@ -32648,7 +32648,7 @@
         <v>0.8253</v>
       </c>
       <c r="T519" t="n">
-        <v>5.071487434447627</v>
+        <v>12.76102926336774</v>
       </c>
     </row>
     <row r="520">
@@ -32710,7 +32710,7 @@
         <v>4.4997</v>
       </c>
       <c r="T520" t="n">
-        <v>3.851069652000211</v>
+        <v>2.747666372016991</v>
       </c>
     </row>
     <row r="521">
@@ -32772,7 +32772,7 @@
         <v>47.0002</v>
       </c>
       <c r="T521" t="n">
-        <v>64.43483125723372</v>
+        <v>70.07052418376367</v>
       </c>
     </row>
     <row r="522">
@@ -32834,7 +32834,7 @@
         <v>10</v>
       </c>
       <c r="T522" t="n">
-        <v>31.97374258396444</v>
+        <v>30.15967533216033</v>
       </c>
     </row>
     <row r="523">
@@ -32896,7 +32896,7 @@
         <v>85.2572</v>
       </c>
       <c r="T523" t="n">
-        <v>30.2414860630562</v>
+        <v>30.96222521293795</v>
       </c>
     </row>
     <row r="524">
@@ -32958,7 +32958,7 @@
         <v>273.3009</v>
       </c>
       <c r="T524" t="n">
-        <v>106.7452383721892</v>
+        <v>118.0538263847506</v>
       </c>
     </row>
     <row r="525">
@@ -33020,7 +33020,7 @@
         <v>409.6</v>
       </c>
       <c r="T525" t="n">
-        <v>138.054397399632</v>
+        <v>105.1282033182321</v>
       </c>
     </row>
     <row r="526">
@@ -33206,7 +33206,7 @@
         <v>61.4383</v>
       </c>
       <c r="T528" t="n">
-        <v>40.7247638198219</v>
+        <v>46.38040646711057</v>
       </c>
     </row>
     <row r="529">
@@ -33268,7 +33268,7 @@
         <v>221.3998</v>
       </c>
       <c r="T529" t="n">
-        <v>107.1871426656252</v>
+        <v>123.054197568649</v>
       </c>
     </row>
     <row r="530">
@@ -33330,7 +33330,7 @@
         <v>10.5488</v>
       </c>
       <c r="T530" t="n">
-        <v>6.777243948800174</v>
+        <v>6.370069311416455</v>
       </c>
     </row>
     <row r="531">
@@ -33454,7 +33454,7 @@
         <v>61.8075</v>
       </c>
       <c r="T532" t="n">
-        <v>78.26868862115236</v>
+        <v>49.5553720163269</v>
       </c>
     </row>
     <row r="533">
@@ -33516,7 +33516,7 @@
         <v>332.0997</v>
       </c>
       <c r="T533" t="n">
-        <v>121.1026563924628</v>
+        <v>115.9481919781151</v>
       </c>
     </row>
     <row r="534">
@@ -33578,7 +33578,7 @@
         <v>35.1775</v>
       </c>
       <c r="T534" t="n">
-        <v>23.97102349513745</v>
+        <v>21.95768231040099</v>
       </c>
     </row>
     <row r="535">
@@ -33640,7 +33640,7 @@
         <v>81.17989999999999</v>
       </c>
       <c r="T535" t="n">
-        <v>45.1114942748702</v>
+        <v>38.07280461729421</v>
       </c>
     </row>
     <row r="536">
@@ -33702,7 +33702,7 @@
         <v>8.9291</v>
       </c>
       <c r="T536" t="n">
-        <v>0.6433221964714916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -33888,7 +33888,7 @@
         <v>47.9702</v>
       </c>
       <c r="T539" t="n">
-        <v>32.85245577565355</v>
+        <v>29.45598019973571</v>
       </c>
     </row>
     <row r="540">
@@ -33950,7 +33950,7 @@
         <v>-1</v>
       </c>
       <c r="T540" t="n">
-        <v>126.1412178947014</v>
+        <v>96.64444044477682</v>
       </c>
     </row>
     <row r="541">
@@ -34012,7 +34012,7 @@
         <v>-1</v>
       </c>
       <c r="T541" t="n">
-        <v>24.36067384224501</v>
+        <v>6.405200006925729</v>
       </c>
     </row>
     <row r="542">
@@ -34074,7 +34074,7 @@
         <v>52.8901</v>
       </c>
       <c r="T542" t="n">
-        <v>32.74245546158984</v>
+        <v>29.45598019973571</v>
       </c>
     </row>
     <row r="543">
@@ -34136,7 +34136,7 @@
         <v>541.1995000000001</v>
       </c>
       <c r="T543" t="n">
-        <v>153.8717263244112</v>
+        <v>99.19252930633156</v>
       </c>
     </row>
     <row r="544">
@@ -34322,7 +34322,7 @@
         <v>2.8901</v>
       </c>
       <c r="T546" t="n">
-        <v>0.4776253252742584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -34384,7 +34384,7 @@
         <v>52.89</v>
       </c>
       <c r="T547" t="n">
-        <v>39.77787166098837</v>
+        <v>35.04097617777295</v>
       </c>
     </row>
     <row r="548">
@@ -34570,7 +34570,7 @@
         <v>60.2702</v>
       </c>
       <c r="T550" t="n">
-        <v>28.64317192915236</v>
+        <v>42.65520564004105</v>
       </c>
     </row>
     <row r="551">
@@ -34632,7 +34632,7 @@
         <v>-1</v>
       </c>
       <c r="T551" t="n">
-        <v>38.00559456394376</v>
+        <v>48.02808755857738</v>
       </c>
     </row>
     <row r="552">
@@ -34694,7 +34694,7 @@
         <v>24.0996</v>
       </c>
       <c r="T552" t="n">
-        <v>13.58110206816517</v>
+        <v>9.202246798141886</v>
       </c>
     </row>
     <row r="553">
@@ -34756,7 +34756,7 @@
         <v>23.4313</v>
       </c>
       <c r="T553" t="n">
-        <v>31.39268889759717</v>
+        <v>37.71118932603004</v>
       </c>
     </row>
     <row r="554">
@@ -34818,7 +34818,7 @@
         <v>2.3431</v>
       </c>
       <c r="T554" t="n">
-        <v>2.932913357258772</v>
+        <v>1.743928970048008</v>
       </c>
     </row>
     <row r="555">
@@ -34880,7 +34880,7 @@
         <v>-1</v>
       </c>
       <c r="T555" t="n">
-        <v>30.69405750244715</v>
+        <v>2.89771709359211</v>
       </c>
     </row>
     <row r="556">
@@ -35128,7 +35128,7 @@
         <v>47.0001</v>
       </c>
       <c r="T559" t="n">
-        <v>47.37863595050585</v>
+        <v>48.93984409148761</v>
       </c>
     </row>
     <row r="560">
@@ -35190,7 +35190,7 @@
         <v>-1</v>
       </c>
       <c r="T560" t="n">
-        <v>81.66517031443028</v>
+        <v>68.62070568210693</v>
       </c>
     </row>
     <row r="561">
@@ -35252,7 +35252,7 @@
         <v>72.20010000000001</v>
       </c>
       <c r="T561" t="n">
-        <v>41.18934709434922</v>
+        <v>38.61387858255009</v>
       </c>
     </row>
     <row r="562">
@@ -35314,7 +35314,7 @@
         <v>231.1114</v>
       </c>
       <c r="T562" t="n">
-        <v>127.2373291184403</v>
+        <v>139.5718631034981</v>
       </c>
     </row>
     <row r="563">
@@ -35376,7 +35376,7 @@
         <v>343.1307</v>
       </c>
       <c r="T563" t="n">
-        <v>187.2540282321296</v>
+        <v>149.7996573532854</v>
       </c>
     </row>
     <row r="564">
@@ -35438,7 +35438,7 @@
         <v>4.2774</v>
       </c>
       <c r="T564" t="n">
-        <v>2.559914934254142</v>
+        <v>1.623127129021207</v>
       </c>
     </row>
     <row r="565">
@@ -35500,7 +35500,7 @@
         <v>-1</v>
       </c>
       <c r="T565" t="n">
-        <v>59.38361558327257</v>
+        <v>51.73965269232138</v>
       </c>
     </row>
     <row r="566">
@@ -35562,7 +35562,7 @@
         <v>51.18680000000001</v>
       </c>
       <c r="T566" t="n">
-        <v>34.68043458513571</v>
+        <v>36.75438329375007</v>
       </c>
     </row>
     <row r="567">
@@ -35624,7 +35624,7 @@
         <v>183.8605</v>
       </c>
       <c r="T567" t="n">
-        <v>126.736185721111</v>
+        <v>136.98376621728</v>
       </c>
     </row>
     <row r="568">
@@ -35686,7 +35686,7 @@
         <v>8.800599999999999</v>
       </c>
       <c r="T568" t="n">
-        <v>8.69813112444367</v>
+        <v>3.944143687125135</v>
       </c>
     </row>
     <row r="569">
@@ -35748,7 +35748,7 @@
         <v>-1</v>
       </c>
       <c r="T569" t="n">
-        <v>7.222451967650058</v>
+        <v>7.647282505892076</v>
       </c>
     </row>
     <row r="570">
@@ -35810,7 +35810,7 @@
         <v>51.5917</v>
       </c>
       <c r="T570" t="n">
-        <v>85.73717628804138</v>
+        <v>54.67669178659853</v>
       </c>
     </row>
     <row r="571">
@@ -35872,7 +35872,7 @@
         <v>275.7907</v>
       </c>
       <c r="T571" t="n">
-        <v>151.2113773610795</v>
+        <v>134.1630489736089</v>
       </c>
     </row>
     <row r="572">
@@ -35934,7 +35934,7 @@
         <v>-1</v>
       </c>
       <c r="T572" t="n">
-        <v>1.25544073126018</v>
+        <v>7.647282505892076</v>
       </c>
     </row>
     <row r="573">
@@ -35996,7 +35996,7 @@
         <v>29.2229</v>
       </c>
       <c r="T573" t="n">
-        <v>18.54046926451984</v>
+        <v>14.60203578270628</v>
       </c>
     </row>
     <row r="574">
@@ -36058,7 +36058,7 @@
         <v>66.7841</v>
       </c>
       <c r="T574" t="n">
-        <v>57.76151749811218</v>
+        <v>49.6438278710888</v>
       </c>
     </row>
     <row r="575">
@@ -36120,7 +36120,7 @@
         <v>7.367699999999999</v>
       </c>
       <c r="T575" t="n">
-        <v>4.681873524718681</v>
+        <v>9.878239147775313</v>
       </c>
     </row>
     <row r="576">
@@ -36182,7 +36182,7 @@
         <v>-1</v>
       </c>
       <c r="T576" t="n">
-        <v>0.6763286010850762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -36244,7 +36244,7 @@
         <v>39.9627</v>
       </c>
       <c r="T577" t="n">
-        <v>23.52562136608055</v>
+        <v>25.71141012058067</v>
       </c>
     </row>
     <row r="578">
@@ -36306,7 +36306,7 @@
         <v>138.5841</v>
       </c>
       <c r="T578" t="n">
-        <v>104.897210303131</v>
+        <v>112.8298784206797</v>
       </c>
     </row>
     <row r="579">
@@ -36368,7 +36368,7 @@
         <v>-1</v>
       </c>
       <c r="T579" t="n">
-        <v>10.59905610020431</v>
+        <v>6.578296230650385</v>
       </c>
     </row>
     <row r="580">
@@ -36430,7 +36430,7 @@
         <v>44.1595</v>
       </c>
       <c r="T580" t="n">
-        <v>38.84673533489252</v>
+        <v>34.35686238876571</v>
       </c>
     </row>
     <row r="581">
@@ -36492,7 +36492,7 @@
         <v>452.3446</v>
       </c>
       <c r="T581" t="n">
-        <v>219.086847032309</v>
+        <v>153.3570503807431</v>
       </c>
     </row>
     <row r="582">
@@ -36554,7 +36554,7 @@
         <v>0.8353</v>
       </c>
       <c r="T582" t="n">
-        <v>2.108233526808666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -36678,7 +36678,7 @@
         <v>-1</v>
       </c>
       <c r="T584" t="n">
-        <v>0.6763286010850762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -36740,7 +36740,7 @@
         <v>2.3993</v>
       </c>
       <c r="T585" t="n">
-        <v>0.6819175298128908</v>
+        <v>0.1845021564597539</v>
       </c>
     </row>
     <row r="586">
@@ -36802,7 +36802,7 @@
         <v>43.6772</v>
       </c>
       <c r="T586" t="n">
-        <v>159.8234998547734</v>
+        <v>155.5896443206572</v>
       </c>
     </row>
     <row r="587">
@@ -36864,7 +36864,7 @@
         <v>5.755</v>
       </c>
       <c r="T587" t="n">
-        <v>5.259475419225337</v>
+        <v>5.533559366819795</v>
       </c>
     </row>
     <row r="588">
@@ -36926,7 +36926,7 @@
         <v>50.1278</v>
       </c>
       <c r="T588" t="n">
-        <v>35.51695271005525</v>
+        <v>47.72787172717184</v>
       </c>
     </row>
     <row r="589">
@@ -36988,7 +36988,7 @@
         <v>63.2574</v>
       </c>
       <c r="T589" t="n">
-        <v>40.57585783856816</v>
+        <v>53.98267715223027</v>
       </c>
     </row>
     <row r="590">
@@ -37050,7 +37050,7 @@
         <v>19.7054</v>
       </c>
       <c r="T590" t="n">
-        <v>11.76762362451258</v>
+        <v>9.178884513913705</v>
       </c>
     </row>
     <row r="591">
@@ -37112,7 +37112,7 @@
         <v>19.6838</v>
       </c>
       <c r="T591" t="n">
-        <v>38.80996852527288</v>
+        <v>42.09759396952587</v>
       </c>
     </row>
     <row r="592">
@@ -37174,7 +37174,7 @@
         <v>1.9685</v>
       </c>
       <c r="T592" t="n">
-        <v>2.810703110572086</v>
+        <v>4.241166237587663</v>
       </c>
     </row>
     <row r="593">
@@ -37236,7 +37236,7 @@
         <v>-1</v>
       </c>
       <c r="T593" t="n">
-        <v>35.86132894620269</v>
+        <v>4.706447021690954</v>
       </c>
     </row>
     <row r="594">
@@ -37298,7 +37298,7 @@
         <v>1.5924</v>
       </c>
       <c r="T594" t="n">
-        <v>0</v>
+        <v>1.528936622181847</v>
       </c>
     </row>
     <row r="595">
@@ -37360,7 +37360,7 @@
         <v>-1</v>
       </c>
       <c r="T595" t="n">
-        <v>20.94772944235356</v>
+        <v>39.18694940631454</v>
       </c>
     </row>
     <row r="596">
@@ -37422,7 +37422,7 @@
         <v>0.8353</v>
       </c>
       <c r="T596" t="n">
-        <v>0.6763286010850762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -37546,7 +37546,7 @@
         <v>49.9997</v>
       </c>
       <c r="T598" t="n">
-        <v>38.9299129183724</v>
+        <v>34.35686238876571</v>
       </c>
     </row>
     <row r="599">
@@ -37608,7 +37608,7 @@
         <v>72.6339</v>
       </c>
       <c r="T599" t="n">
-        <v>68.26973060982746</v>
+        <v>68.0041537859411</v>
       </c>
     </row>
     <row r="600">
@@ -37670,7 +37670,7 @@
         <v>240.3169</v>
       </c>
       <c r="T600" t="n">
-        <v>177.3650658666837</v>
+        <v>198.9908211060289</v>
       </c>
     </row>
     <row r="601">
@@ -37732,7 +37732,7 @@
         <v>361.0804</v>
       </c>
       <c r="T601" t="n">
-        <v>304.4427927493358</v>
+        <v>292.5371767961745</v>
       </c>
     </row>
     <row r="602">
@@ -37794,7 +37794,7 @@
         <v>4.3693</v>
       </c>
       <c r="T602" t="n">
-        <v>13.73458353945442</v>
+        <v>3.924235330556888</v>
       </c>
     </row>
     <row r="603">
@@ -37856,7 +37856,7 @@
         <v>51.6017</v>
       </c>
       <c r="T603" t="n">
-        <v>65.91100982924186</v>
+        <v>64.59745349088472</v>
       </c>
     </row>
     <row r="604">
@@ -37918,7 +37918,7 @@
         <v>196.7636</v>
       </c>
       <c r="T604" t="n">
-        <v>178.3131995477336</v>
+        <v>197.8020841607201</v>
       </c>
     </row>
     <row r="605">
@@ -37980,7 +37980,7 @@
         <v>8.659699999999999</v>
       </c>
       <c r="T605" t="n">
-        <v>11.70110112561522</v>
+        <v>5.842732829629953</v>
       </c>
     </row>
     <row r="606">
@@ -38042,7 +38042,7 @@
         <v>51.3151</v>
       </c>
       <c r="T606" t="n">
-        <v>57.70880552946353</v>
+        <v>45.34019735930962</v>
       </c>
     </row>
     <row r="607">
@@ -38104,7 +38104,7 @@
         <v>-1</v>
       </c>
       <c r="T607" t="n">
-        <v>246.9606846681139</v>
+        <v>260.4270431054564</v>
       </c>
     </row>
     <row r="608">
@@ -38166,7 +38166,7 @@
         <v>29.6632</v>
       </c>
       <c r="T608" t="n">
-        <v>41.32344614668813</v>
+        <v>39.79479525624816</v>
       </c>
     </row>
     <row r="609">
@@ -38228,7 +38228,7 @@
         <v>71.3374</v>
       </c>
       <c r="T609" t="n">
-        <v>152.8739719002654</v>
+        <v>124.5371541505018</v>
       </c>
     </row>
     <row r="610">
@@ -38290,7 +38290,7 @@
         <v>7.6278</v>
       </c>
       <c r="T610" t="n">
-        <v>15.12088878291354</v>
+        <v>10.3383129915028</v>
       </c>
     </row>
     <row r="611">
@@ -38352,7 +38352,7 @@
         <v>-1</v>
       </c>
       <c r="T611" t="n">
-        <v>9.113189999499662</v>
+        <v>1.790343877661694</v>
       </c>
     </row>
     <row r="612">
@@ -38414,7 +38414,7 @@
         <v>40.7916</v>
       </c>
       <c r="T612" t="n">
-        <v>33.11349444319548</v>
+        <v>35.67431903662276</v>
       </c>
     </row>
     <row r="613">
@@ -38476,7 +38476,7 @@
         <v>140.1716</v>
       </c>
       <c r="T613" t="n">
-        <v>181.0373536630267</v>
+        <v>181.0175952907282</v>
       </c>
     </row>
     <row r="614">
@@ -38538,7 +38538,7 @@
         <v>45.3716</v>
       </c>
       <c r="T614" t="n">
-        <v>18.70612678695858</v>
+        <v>20.64245125578925</v>
       </c>
     </row>
     <row r="615">
@@ -38600,7 +38600,7 @@
         <v>449.1803000000001</v>
       </c>
       <c r="T615" t="n">
-        <v>360.6789326847194</v>
+        <v>305.6304565454157</v>
       </c>
     </row>
     <row r="616">
@@ -38662,7 +38662,7 @@
         <v>0.8909</v>
       </c>
       <c r="T616" t="n">
-        <v>12.67462766160204</v>
+        <v>3.613047959142543</v>
       </c>
     </row>
     <row r="617">
@@ -38724,7 +38724,7 @@
         <v>0.8908</v>
       </c>
       <c r="T617" t="n">
-        <v>4.611051831107587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -38786,7 +38786,7 @@
         <v>2.5471</v>
       </c>
       <c r="T618" t="n">
-        <v>8.383685949168843</v>
+        <v>4.850881305500629</v>
       </c>
     </row>
     <row r="619">
@@ -38848,7 +38848,7 @@
         <v>45.854</v>
       </c>
       <c r="T619" t="n">
-        <v>29.13264154794097</v>
+        <v>34.02724363466654</v>
       </c>
     </row>
     <row r="620">
@@ -38910,7 +38910,7 @@
         <v>5.7114</v>
       </c>
       <c r="T620" t="n">
-        <v>10.12403384289109</v>
+        <v>3.819928754634837</v>
       </c>
     </row>
     <row r="621">
@@ -38972,7 +38972,7 @@
         <v>51.11</v>
       </c>
       <c r="T621" t="n">
-        <v>73.97389920664844</v>
+        <v>82.05471043501245</v>
       </c>
     </row>
     <row r="622">
@@ -39034,7 +39034,7 @@
         <v>60.86340000000001</v>
       </c>
       <c r="T622" t="n">
-        <v>77.5553674103973</v>
+        <v>92.21214533869413</v>
       </c>
     </row>
     <row r="623">
@@ -39096,7 +39096,7 @@
         <v>19.5246</v>
       </c>
       <c r="T623" t="n">
-        <v>8.098859818822211</v>
+        <v>7.576504487059898</v>
       </c>
     </row>
     <row r="624">
@@ -39158,7 +39158,7 @@
         <v>19.2224</v>
       </c>
       <c r="T624" t="n">
-        <v>35.5242375476677</v>
+        <v>37.82286125232728</v>
       </c>
     </row>
     <row r="625">
@@ -39220,7 +39220,7 @@
         <v>-1</v>
       </c>
       <c r="T625" t="n">
-        <v>7.246505583082874</v>
+        <v>4.029593466900566</v>
       </c>
     </row>
     <row r="626">
@@ -39282,7 +39282,7 @@
         <v>1.6737</v>
       </c>
       <c r="T626" t="n">
-        <v>10.50235114269912</v>
+        <v>8.310456678646396</v>
       </c>
     </row>
     <row r="627">
@@ -39344,7 +39344,7 @@
         <v>0.891</v>
       </c>
       <c r="T627" t="n">
-        <v>9.113189999499662</v>
+        <v>1.790343877661694</v>
       </c>
     </row>
     <row r="628">
@@ -39406,7 +39406,7 @@
         <v>4.8014</v>
       </c>
       <c r="T628" t="n">
-        <v>2.721141251879084</v>
+        <v>1.539344176291494</v>
       </c>
     </row>
     <row r="629">
@@ -39468,7 +39468,7 @@
         <v>50.1301</v>
       </c>
       <c r="T629" t="n">
-        <v>83.58240475457448</v>
+        <v>59.91069809115242</v>
       </c>
     </row>
     <row r="630">
@@ -39530,7 +39530,7 @@
         <v>26.6801</v>
       </c>
       <c r="T630" t="n">
-        <v>26.47719344795908</v>
+        <v>32.5987819996538</v>
       </c>
     </row>
     <row r="631">
@@ -39592,7 +39592,7 @@
         <v>85.95999999999999</v>
       </c>
       <c r="T631" t="n">
-        <v>129.6661015381721</v>
+        <v>139.8736005197578</v>
       </c>
     </row>
     <row r="632">
@@ -39654,7 +39654,7 @@
         <v>126.3998</v>
       </c>
       <c r="T632" t="n">
-        <v>93.09296477525194</v>
+        <v>105.6716296371446</v>
       </c>
     </row>
     <row r="633">
@@ -39716,7 +39716,7 @@
         <v>1.3638</v>
       </c>
       <c r="T633" t="n">
-        <v>10.73330409339047</v>
+        <v>25.84593105829662</v>
       </c>
     </row>
     <row r="634">
@@ -39778,7 +39778,7 @@
         <v>16.9556</v>
       </c>
       <c r="T634" t="n">
-        <v>10.44730097013385</v>
+        <v>19.44693130187484</v>
       </c>
     </row>
     <row r="635">
@@ -39840,7 +39840,7 @@
         <v>62.0002</v>
       </c>
       <c r="T635" t="n">
-        <v>122.9193412305758</v>
+        <v>125.5073863895951</v>
       </c>
     </row>
     <row r="636">
@@ -39902,7 +39902,7 @@
         <v>2.6378</v>
       </c>
       <c r="T636" t="n">
-        <v>0</v>
+        <v>6.842312763062014</v>
       </c>
     </row>
     <row r="637">
@@ -39964,7 +39964,7 @@
         <v>16.6551</v>
       </c>
       <c r="T637" t="n">
-        <v>31.04673557974841</v>
+        <v>33.28036591486744</v>
       </c>
     </row>
     <row r="638">
@@ -40026,7 +40026,7 @@
         <v>94.3198</v>
       </c>
       <c r="T638" t="n">
-        <v>99.20288417833969</v>
+        <v>119.9009817569184</v>
       </c>
     </row>
     <row r="639">
@@ -40088,7 +40088,7 @@
         <v>-1</v>
       </c>
       <c r="T639" t="n">
-        <v>0.8673034930960245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -40150,7 +40150,7 @@
         <v>9.1576</v>
       </c>
       <c r="T640" t="n">
-        <v>15.75050371628636</v>
+        <v>24.80088107162894</v>
       </c>
     </row>
     <row r="641">
@@ -40212,7 +40212,7 @@
         <v>23.0573</v>
       </c>
       <c r="T641" t="n">
-        <v>2.709752738093774</v>
+        <v>2.433588164369571</v>
       </c>
     </row>
     <row r="642">
@@ -40274,7 +40274,7 @@
         <v>2.4055</v>
       </c>
       <c r="T642" t="n">
-        <v>5.607225063885444</v>
+        <v>3.473695542386071</v>
       </c>
     </row>
     <row r="643">
@@ -40336,7 +40336,7 @@
         <v>13.2736</v>
       </c>
       <c r="T643" t="n">
-        <v>2.501200558806913</v>
+        <v>5.662429743270293</v>
       </c>
     </row>
     <row r="644">
@@ -40398,7 +40398,7 @@
         <v>46.0799</v>
       </c>
       <c r="T644" t="n">
-        <v>10.58336659956739</v>
+        <v>15.03187632812712</v>
       </c>
     </row>
     <row r="645">
@@ -40460,7 +40460,7 @@
         <v>14.2612</v>
       </c>
       <c r="T645" t="n">
-        <v>16.24686009699981</v>
+        <v>23.56846780683158</v>
       </c>
     </row>
     <row r="646">
@@ -40522,7 +40522,7 @@
         <v>148.4</v>
       </c>
       <c r="T646" t="n">
-        <v>83.88032580778339</v>
+        <v>97.65447056055086</v>
       </c>
     </row>
     <row r="647">
@@ -40584,7 +40584,7 @@
         <v>0.2829</v>
       </c>
       <c r="T647" t="n">
-        <v>2.508794593772625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -40646,7 +40646,7 @@
         <v>-1</v>
       </c>
       <c r="T648" t="n">
-        <v>1.811934510102867</v>
+        <v>1.177975838919151</v>
       </c>
     </row>
     <row r="649">
@@ -40708,7 +40708,7 @@
         <v>0.7863</v>
       </c>
       <c r="T649" t="n">
-        <v>6.605700879112933</v>
+        <v>6.378623429922269</v>
       </c>
     </row>
     <row r="650">
@@ -40770,7 +40770,7 @@
         <v>15.4798</v>
       </c>
       <c r="T650" t="n">
-        <v>2.041184742575879</v>
+        <v>6.034657125755297</v>
       </c>
     </row>
     <row r="651">
@@ -40832,7 +40832,7 @@
         <v>1.733</v>
       </c>
       <c r="T651" t="n">
-        <v>14.16067846882362</v>
+        <v>25.51129348590696</v>
       </c>
     </row>
     <row r="652">
@@ -40894,7 +40894,7 @@
         <v>15.7148</v>
       </c>
       <c r="T652" t="n">
-        <v>0</v>
+        <v>15.35473959582611</v>
       </c>
     </row>
     <row r="653">
@@ -40956,7 +40956,7 @@
         <v>20.0064</v>
       </c>
       <c r="T653" t="n">
-        <v>0</v>
+        <v>10.96070373835058</v>
       </c>
     </row>
     <row r="654">
@@ -41080,7 +41080,7 @@
         <v>6.531</v>
       </c>
       <c r="T655" t="n">
-        <v>2.022667684799632</v>
+        <v>17.69753150516755</v>
       </c>
     </row>
     <row r="656">
@@ -41142,7 +41142,7 @@
         <v>0.5641</v>
       </c>
       <c r="T656" t="n">
-        <v>8.304754475901378</v>
+        <v>27.78526163100007</v>
       </c>
     </row>
     <row r="657">
@@ -41204,7 +41204,7 @@
         <v>-1</v>
       </c>
       <c r="T657" t="n">
-        <v>0</v>
+        <v>5.139335835740925</v>
       </c>
     </row>
     <row r="658">
@@ -41266,7 +41266,7 @@
         <v>0.5338000000000001</v>
       </c>
       <c r="T658" t="n">
-        <v>2.362799418483215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -41328,7 +41328,7 @@
         <v>-1</v>
       </c>
       <c r="T659" t="n">
-        <v>7.880843482193595</v>
+        <v>32.22961686809782</v>
       </c>
     </row>
     <row r="660">
@@ -41390,7 +41390,7 @@
         <v>0.2827</v>
       </c>
       <c r="T660" t="n">
-        <v>1.817130873527872</v>
+        <v>0.9246515160989165</v>
       </c>
     </row>
     <row r="661">
@@ -41514,7 +41514,7 @@
         <v>17.1199</v>
       </c>
       <c r="T662" t="n">
-        <v>2.040206319958699</v>
+        <v>1.576320550126013</v>
       </c>
     </row>
     <row r="663">
@@ -41576,7 +41576,7 @@
         <v>30.7088</v>
       </c>
       <c r="T663" t="n">
-        <v>41.59427624523885</v>
+        <v>45.0864806277327</v>
       </c>
     </row>
     <row r="664">
@@ -41638,7 +41638,7 @@
         <v>94.8353</v>
       </c>
       <c r="T664" t="n">
-        <v>58.76975185842277</v>
+        <v>61.4847737660843</v>
       </c>
     </row>
     <row r="665">
@@ -41700,7 +41700,7 @@
         <v>-1</v>
       </c>
       <c r="T665" t="n">
-        <v>0</v>
+        <v>26.03568264589475</v>
       </c>
     </row>
     <row r="666">
@@ -41762,7 +41762,7 @@
         <v>1.4254</v>
       </c>
       <c r="T666" t="n">
-        <v>0</v>
+        <v>2.317847273821261</v>
       </c>
     </row>
     <row r="667">
@@ -41824,7 +41824,7 @@
         <v>17.4042</v>
       </c>
       <c r="T667" t="n">
-        <v>13.93897723794584</v>
+        <v>14.90137869029983</v>
       </c>
     </row>
     <row r="668">
@@ -41886,7 +41886,7 @@
         <v>62.4926</v>
       </c>
       <c r="T668" t="n">
-        <v>37.9806488816248</v>
+        <v>48.7655144159484</v>
       </c>
     </row>
     <row r="669">
@@ -41948,7 +41948,7 @@
         <v>2.9385</v>
       </c>
       <c r="T669" t="n">
-        <v>4.817683722747306</v>
+        <v>6.418946039017064</v>
       </c>
     </row>
     <row r="670">
@@ -42010,7 +42010,7 @@
         <v>17.4724</v>
       </c>
       <c r="T670" t="n">
-        <v>26.12614394208913</v>
+        <v>28.85721903777293</v>
       </c>
     </row>
     <row r="671">
@@ -42072,7 +42072,7 @@
         <v>94.30159999999999</v>
       </c>
       <c r="T671" t="n">
-        <v>5.08885314186869</v>
+        <v>17.48838586382083</v>
       </c>
     </row>
     <row r="672">
@@ -42134,7 +42134,7 @@
         <v>9.8513</v>
       </c>
       <c r="T672" t="n">
-        <v>14.34899539765153</v>
+        <v>11.07112507701561</v>
       </c>
     </row>
     <row r="673">
@@ -42196,7 +42196,7 @@
         <v>22.5049</v>
       </c>
       <c r="T673" t="n">
-        <v>3.968817375278039</v>
+        <v>3.834211586937654</v>
       </c>
     </row>
     <row r="674">
@@ -42320,7 +42320,7 @@
         <v>13.7427</v>
       </c>
       <c r="T675" t="n">
-        <v>2.788461374374934</v>
+        <v>3.535703827099587</v>
       </c>
     </row>
     <row r="676">
@@ -42382,7 +42382,7 @@
         <v>47.6786</v>
       </c>
       <c r="T676" t="n">
-        <v>28.82875200261358</v>
+        <v>31.87954648001931</v>
       </c>
     </row>
     <row r="677">
@@ -42444,7 +42444,7 @@
         <v>15.2288</v>
       </c>
       <c r="T677" t="n">
-        <v>30.20222538322093</v>
+        <v>30.30880442144328</v>
       </c>
     </row>
     <row r="678">
@@ -42506,7 +42506,7 @@
         <v>154.0869</v>
       </c>
       <c r="T678" t="n">
-        <v>0</v>
+        <v>24.30582537261296</v>
       </c>
     </row>
     <row r="679">
@@ -42630,7 +42630,7 @@
         <v>0.845</v>
       </c>
       <c r="T680" t="n">
-        <v>0</v>
+        <v>1.150433153664781</v>
       </c>
     </row>
     <row r="681">
@@ -42692,7 +42692,7 @@
         <v>14.7618</v>
       </c>
       <c r="T681" t="n">
-        <v>3.236881601046449</v>
+        <v>4.485519409148966</v>
       </c>
     </row>
     <row r="682">
@@ -42754,7 +42754,7 @@
         <v>1.9498</v>
       </c>
       <c r="T682" t="n">
-        <v>0</v>
+        <v>2.220920245916631</v>
       </c>
     </row>
     <row r="683">
@@ -42816,7 +42816,7 @@
         <v>17.0852</v>
       </c>
       <c r="T683" t="n">
-        <v>0.2105786222618961</v>
+        <v>15.67143388555956</v>
       </c>
     </row>
     <row r="684">
@@ -42878,7 +42878,7 @@
         <v>21.8758</v>
       </c>
       <c r="T684" t="n">
-        <v>4.934450748893343</v>
+        <v>9.419674106268012</v>
       </c>
     </row>
     <row r="685">
@@ -43002,7 +43002,7 @@
         <v>0.6685</v>
       </c>
       <c r="T686" t="n">
-        <v>23.58670219639462</v>
+        <v>8.18294168422397</v>
       </c>
     </row>
     <row r="687">
@@ -43064,7 +43064,7 @@
         <v>-1</v>
       </c>
       <c r="T687" t="n">
-        <v>0</v>
+        <v>1.150433153664781</v>
       </c>
     </row>
     <row r="688">
@@ -43188,7 +43188,7 @@
         <v>0.2824</v>
       </c>
       <c r="T689" t="n">
-        <v>1.774798982651844</v>
+        <v>7.883073864637305</v>
       </c>
     </row>
     <row r="690">
@@ -43250,7 +43250,7 @@
         <v>1.497</v>
       </c>
       <c r="T690" t="n">
-        <v>0.55011108045329</v>
+        <v>11.05988333208721</v>
       </c>
     </row>
     <row r="691">
@@ -43312,7 +43312,7 @@
         <v>17.6805</v>
       </c>
       <c r="T691" t="n">
-        <v>0</v>
+        <v>6.810228490337853</v>
       </c>
     </row>
   </sheetData>

--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -594,7 +594,7 @@
         <v>-1</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>598.1154566716936</v>
       </c>
     </row>
     <row r="3">
@@ -656,7 +656,7 @@
         <v>485.0013</v>
       </c>
       <c r="T3" t="n">
-        <v>245.3568776072389</v>
+        <v>308.027065420206</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>382</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1118.518531060239</v>
       </c>
     </row>
     <row r="5">
@@ -780,7 +780,7 @@
         <v>475.0013999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>330.5074427944075</v>
+        <v>1754.748708617728</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>44.0011</v>
       </c>
       <c r="T6" t="n">
-        <v>72.07585795083818</v>
+        <v>266.0049364027477</v>
       </c>
     </row>
     <row r="7">
@@ -904,7 +904,7 @@
         <v>13.4402</v>
       </c>
       <c r="T7" t="n">
-        <v>272.6344143982342</v>
+        <v>821.5853509766079</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +966,7 @@
         <v>24.0004</v>
       </c>
       <c r="T8" t="n">
-        <v>13.21227531316025</v>
+        <v>49.13533906094749</v>
       </c>
     </row>
     <row r="9">
@@ -1028,7 +1028,7 @@
         <v>17.0002</v>
       </c>
       <c r="T9" t="n">
-        <v>2.909506376130465</v>
+        <v>308.9747429069031</v>
       </c>
     </row>
     <row r="10">
@@ -1090,7 +1090,7 @@
         <v>126</v>
       </c>
       <c r="T10" t="n">
-        <v>184.3250075854075</v>
+        <v>327.6081109787017</v>
       </c>
     </row>
     <row r="11">
@@ -1152,7 +1152,7 @@
         <v>65.9999</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1657.74270992265</v>
       </c>
     </row>
     <row r="12">
@@ -1214,7 +1214,7 @@
         <v>52.0016</v>
       </c>
       <c r="T12" t="n">
-        <v>13.97441769010847</v>
+        <v>67.64827296808055</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1276,7 @@
         <v>8.429699999999999</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>344.5344317495567</v>
       </c>
     </row>
     <row r="14">
@@ -1338,7 +1338,7 @@
         <v>309.0002</v>
       </c>
       <c r="T14" t="n">
-        <v>402.370008078924</v>
+        <v>152.5064656616864</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>185.0012</v>
       </c>
       <c r="T15" t="n">
-        <v>132.4869791670688</v>
+        <v>286.5345632058048</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1462,7 @@
         <v>127.9999</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1010.907738000519</v>
       </c>
     </row>
     <row r="17">
@@ -1524,7 +1524,7 @@
         <v>148.9997</v>
       </c>
       <c r="T17" t="n">
-        <v>225.2864697597877</v>
+        <v>326.1007467982353</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1586,7 @@
         <v>107.7205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1564.188186053842</v>
       </c>
     </row>
     <row r="19">
@@ -1648,7 +1648,7 @@
         <v>1.9992</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>99.08977840019895</v>
       </c>
     </row>
     <row r="20">
@@ -1710,7 +1710,7 @@
         <v>1.1891</v>
       </c>
       <c r="T20" t="n">
-        <v>81.64135930297674</v>
+        <v>154.4283454372257</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>17.9999</v>
       </c>
       <c r="T21" t="n">
-        <v>14.27313261852591</v>
+        <v>30.79709214041444</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         <v>2.3276</v>
       </c>
       <c r="T22" t="n">
-        <v>1.845962893080011</v>
+        <v>34.92030336326475</v>
       </c>
     </row>
     <row r="23">
@@ -1896,7 +1896,7 @@
         <v>1.4993</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>12.56420826557415</v>
       </c>
     </row>
     <row r="24">
@@ -1958,7 +1958,7 @@
         <v>38.0001</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>36.4595677923081</v>
       </c>
     </row>
     <row r="25">
@@ -2020,7 +2020,7 @@
         <v>29.6372</v>
       </c>
       <c r="T25" t="n">
-        <v>46.59485427447878</v>
+        <v>422.8339618151144</v>
       </c>
     </row>
     <row r="26">
@@ -2082,7 +2082,7 @@
         <v>1.0002</v>
       </c>
       <c r="T26" t="n">
-        <v>1.60883468819683</v>
+        <v>9.568135176624866</v>
       </c>
     </row>
     <row r="27">
@@ -2144,7 +2144,7 @@
         <v>4.0002</v>
       </c>
       <c r="T27" t="n">
-        <v>8.615576375291326</v>
+        <v>193.5464042898081</v>
       </c>
     </row>
     <row r="28">
@@ -2206,7 +2206,7 @@
         <v>178.0008</v>
       </c>
       <c r="T28" t="n">
-        <v>112.0385292085374</v>
+        <v>191.8604494110309</v>
       </c>
     </row>
     <row r="29">
@@ -2268,7 +2268,7 @@
         <v>104.0006</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>914.947374837336</v>
       </c>
     </row>
     <row r="30">
@@ -2330,7 +2330,7 @@
         <v>-1</v>
       </c>
       <c r="T30" t="n">
-        <v>3.105762378340831</v>
+        <v>21.54889974315648</v>
       </c>
     </row>
     <row r="31">
@@ -2392,7 +2392,7 @@
         <v>-1</v>
       </c>
       <c r="T31" t="n">
-        <v>3.582947488421541</v>
+        <v>30.66899043294371</v>
       </c>
     </row>
     <row r="32">
@@ -2454,7 +2454,7 @@
         <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>13.03794002454498</v>
+        <v>71.016041156453</v>
       </c>
     </row>
     <row r="33">
@@ -2516,7 +2516,7 @@
         <v>-1</v>
       </c>
       <c r="T33" t="n">
-        <v>1.673466980454494</v>
+        <v>6.449016493358303</v>
       </c>
     </row>
     <row r="34">
@@ -2578,7 +2578,7 @@
         <v>-1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>22.74541352669559</v>
       </c>
     </row>
     <row r="35">
@@ -2640,7 +2640,7 @@
         <v>-1</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>37.55752577181401</v>
       </c>
     </row>
     <row r="36">
@@ -2702,7 +2702,7 @@
         <v>-1</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>22.74541352669559</v>
       </c>
     </row>
     <row r="37">
@@ -2764,7 +2764,7 @@
         <v>-1</v>
       </c>
       <c r="T37" t="n">
-        <v>5.785640097433223</v>
+        <v>12.08883168752941</v>
       </c>
     </row>
     <row r="38">
@@ -2826,7 +2826,7 @@
         <v>10.0004</v>
       </c>
       <c r="T38" t="n">
-        <v>2.565695532632625</v>
+        <v>78.00343157316659</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>40.0004</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>994.4529640465701</v>
       </c>
     </row>
     <row r="40">
@@ -2950,7 +2950,7 @@
         <v>500.0008</v>
       </c>
       <c r="T40" t="n">
-        <v>327.1564692698078</v>
+        <v>283.5873755242641</v>
       </c>
     </row>
     <row r="41">
@@ -3012,7 +3012,7 @@
         <v>445.0001</v>
       </c>
       <c r="T41" t="n">
-        <v>292.5559963433109</v>
+        <v>1106.792214336061</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3074,7 @@
         <v>585</v>
       </c>
       <c r="T42" t="n">
-        <v>909.7803656613697</v>
+        <v>2299.081308917453</v>
       </c>
     </row>
     <row r="43">
@@ -3136,7 +3136,7 @@
         <v>40.0009</v>
       </c>
       <c r="T43" t="n">
-        <v>104.1063560482482</v>
+        <v>226.1536938970253</v>
       </c>
     </row>
     <row r="44">
@@ -3198,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="T44" t="n">
-        <v>306.4231914732399</v>
+        <v>847.3099680231209</v>
       </c>
     </row>
     <row r="45">
@@ -3260,7 +3260,7 @@
         <v>31.0002</v>
       </c>
       <c r="T45" t="n">
-        <v>43.13142095227081</v>
+        <v>15.06330628615413</v>
       </c>
     </row>
     <row r="46">
@@ -3322,7 +3322,7 @@
         <v>35.0004</v>
       </c>
       <c r="T46" t="n">
-        <v>81.77669493086074</v>
+        <v>230.3145417127032</v>
       </c>
     </row>
     <row r="47">
@@ -3384,7 +3384,7 @@
         <v>165.001</v>
       </c>
       <c r="T47" t="n">
-        <v>282.114884035195</v>
+        <v>313.3809513466657</v>
       </c>
     </row>
     <row r="48">
@@ -3446,7 +3446,7 @@
         <v>131.0002</v>
       </c>
       <c r="T48" t="n">
-        <v>134.3250128089034</v>
+        <v>1655.267769744219</v>
       </c>
     </row>
     <row r="49">
@@ -3508,7 +3508,7 @@
         <v>65.001</v>
       </c>
       <c r="T49" t="n">
-        <v>97.71701393729906</v>
+        <v>28.17414207066973</v>
       </c>
     </row>
     <row r="50">
@@ -3570,7 +3570,7 @@
         <v>43.9993</v>
       </c>
       <c r="T50" t="n">
-        <v>11.78764897046058</v>
+        <v>272.6653950188566</v>
       </c>
     </row>
     <row r="51">
@@ -3632,7 +3632,7 @@
         <v>299.0002</v>
       </c>
       <c r="T51" t="n">
-        <v>194.9276537245931</v>
+        <v>96.87217292793706</v>
       </c>
     </row>
     <row r="52">
@@ -3694,7 +3694,7 @@
         <v>220.0009</v>
       </c>
       <c r="T52" t="n">
-        <v>216.0258171561608</v>
+        <v>255.4947555932659</v>
       </c>
     </row>
     <row r="53">
@@ -3756,7 +3756,7 @@
         <v>282.0002</v>
       </c>
       <c r="T53" t="n">
-        <v>70.94298997840299</v>
+        <v>896.6007450221564</v>
       </c>
     </row>
     <row r="54">
@@ -3818,7 +3818,7 @@
         <v>190.9999000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>267.2674138714988</v>
+        <v>291.5744333249564</v>
       </c>
     </row>
     <row r="55">
@@ -3880,7 +3880,7 @@
         <v>193</v>
       </c>
       <c r="T55" t="n">
-        <v>348.6488970871975</v>
+        <v>1314.060413489568</v>
       </c>
     </row>
     <row r="56">
@@ -3942,7 +3942,7 @@
         <v>1.9992</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>26.6047290285168</v>
       </c>
     </row>
     <row r="57">
@@ -4004,7 +4004,7 @@
         <v>1.1891</v>
       </c>
       <c r="T57" t="n">
-        <v>97.9471500190316</v>
+        <v>129.6031163577425</v>
       </c>
     </row>
     <row r="58">
@@ -4066,7 +4066,7 @@
         <v>25.0011</v>
       </c>
       <c r="T58" t="n">
-        <v>33.49988484709898</v>
+        <v>20.73756784207718</v>
       </c>
     </row>
     <row r="59">
@@ -4128,7 +4128,7 @@
         <v>2.3276</v>
       </c>
       <c r="T59" t="n">
-        <v>2.543539264941394</v>
+        <v>23.98697807589553</v>
       </c>
     </row>
     <row r="60">
@@ -4252,7 +4252,7 @@
         <v>48.0004</v>
       </c>
       <c r="T61" t="n">
-        <v>55.19538525173044</v>
+        <v>45.88093862637847</v>
       </c>
     </row>
     <row r="62">
@@ -4314,7 +4314,7 @@
         <v>51.9996</v>
       </c>
       <c r="T62" t="n">
-        <v>105.0148023737829</v>
+        <v>414.3770550213032</v>
       </c>
     </row>
     <row r="63">
@@ -4376,7 +4376,7 @@
         <v>1.0002</v>
       </c>
       <c r="T63" t="n">
-        <v>6.82957223390516</v>
+        <v>1.034570870577572</v>
       </c>
     </row>
     <row r="64">
@@ -4438,7 +4438,7 @@
         <v>4.0002</v>
       </c>
       <c r="T64" t="n">
-        <v>26.20987311706924</v>
+        <v>108.2779089684611</v>
       </c>
     </row>
     <row r="65">
@@ -4500,7 +4500,7 @@
         <v>230.0008</v>
       </c>
       <c r="T65" t="n">
-        <v>247.3845064437122</v>
+        <v>138.7195195576242</v>
       </c>
     </row>
     <row r="66">
@@ -4562,7 +4562,7 @@
         <v>156.0009</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>869.1209834830955</v>
       </c>
     </row>
     <row r="67">
@@ -4624,7 +4624,7 @@
         <v>-1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>12.95909601003673</v>
       </c>
     </row>
     <row r="68">
@@ -4686,7 +4686,7 @@
         <v>-1</v>
       </c>
       <c r="T68" t="n">
-        <v>3.553709732023592</v>
+        <v>10.05107443830877</v>
       </c>
     </row>
     <row r="69">
@@ -4748,7 +4748,7 @@
         <v>-1</v>
       </c>
       <c r="T69" t="n">
-        <v>2.91273389774508</v>
+        <v>13.62783477604364</v>
       </c>
     </row>
     <row r="70">
@@ -4810,7 +4810,7 @@
         <v>1.0003</v>
       </c>
       <c r="T70" t="n">
-        <v>21.3413616142475</v>
+        <v>51.11704329862865</v>
       </c>
     </row>
     <row r="71">
@@ -4934,7 +4934,7 @@
         <v>-1</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>17.69724865740459</v>
       </c>
     </row>
     <row r="73">
@@ -4996,7 +4996,7 @@
         <v>-1</v>
       </c>
       <c r="T73" t="n">
-        <v>4.4302588276427</v>
+        <v>15.18230456378739</v>
       </c>
     </row>
     <row r="74">
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="T74" t="n">
-        <v>3.162787251064786</v>
+        <v>18.55742975684466</v>
       </c>
     </row>
     <row r="75">
@@ -5120,7 +5120,7 @@
         <v>6.9995</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>70.97945967628104</v>
       </c>
     </row>
     <row r="76">
@@ -5182,7 +5182,7 @@
         <v>146.0011</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1203.658098757532</v>
       </c>
     </row>
     <row r="77">
@@ -5244,7 +5244,7 @@
         <v>450.001</v>
       </c>
       <c r="T77" t="n">
-        <v>294.8404545637371</v>
+        <v>243.1752288661824</v>
       </c>
     </row>
     <row r="78">
@@ -5306,7 +5306,7 @@
         <v>469.9998000000001</v>
       </c>
       <c r="T78" t="n">
-        <v>324.7514320771105</v>
+        <v>1887.557471103658</v>
       </c>
     </row>
     <row r="79">
@@ -5368,7 +5368,7 @@
         <v>680.0014</v>
       </c>
       <c r="T79" t="n">
-        <v>909.7398403105649</v>
+        <v>3076.360305766037</v>
       </c>
     </row>
     <row r="80">
@@ -5430,7 +5430,7 @@
         <v>-1</v>
       </c>
       <c r="T80" t="n">
-        <v>72.41764938515691</v>
+        <v>163.2258392416472</v>
       </c>
     </row>
     <row r="81">
@@ -5492,7 +5492,7 @@
         <v>38.0018</v>
       </c>
       <c r="T81" t="n">
-        <v>88.45890564094064</v>
+        <v>229.4056770764082</v>
       </c>
     </row>
     <row r="82">
@@ -5554,7 +5554,7 @@
         <v>107.0004</v>
       </c>
       <c r="T82" t="n">
-        <v>279.0543148498103</v>
+        <v>910.6102964788968</v>
       </c>
     </row>
     <row r="83">
@@ -5616,7 +5616,7 @@
         <v>-1</v>
       </c>
       <c r="T83" t="n">
-        <v>15.06218790619882</v>
+        <v>20.59195026581224</v>
       </c>
     </row>
     <row r="84">
@@ -5678,7 +5678,7 @@
         <v>38.0009</v>
       </c>
       <c r="T84" t="n">
-        <v>41.64256862063721</v>
+        <v>20.59903451488591</v>
       </c>
     </row>
     <row r="85">
@@ -5740,7 +5740,7 @@
         <v>58.0004</v>
       </c>
       <c r="T85" t="n">
-        <v>47.65730768547691</v>
+        <v>239.1059191053364</v>
       </c>
     </row>
     <row r="86">
@@ -5802,7 +5802,7 @@
         <v>-1</v>
       </c>
       <c r="T86" t="n">
-        <v>204.6225400352968</v>
+        <v>366.7056517022894</v>
       </c>
     </row>
     <row r="87">
@@ -5864,7 +5864,7 @@
         <v>175.0001</v>
       </c>
       <c r="T87" t="n">
-        <v>227.4109170389023</v>
+        <v>304.0340833901525</v>
       </c>
     </row>
     <row r="88">
@@ -5926,7 +5926,7 @@
         <v>215</v>
       </c>
       <c r="T88" t="n">
-        <v>530.8612055912944</v>
+        <v>1955.662283746265</v>
       </c>
     </row>
     <row r="89">
@@ -5988,7 +5988,7 @@
         <v>73.00080000000001</v>
       </c>
       <c r="T89" t="n">
-        <v>95.18617290907856</v>
+        <v>58.61877360574442</v>
       </c>
     </row>
     <row r="90">
@@ -6050,7 +6050,7 @@
         <v>38.0006</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>308.4425574394584</v>
       </c>
     </row>
     <row r="91">
@@ -6112,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>215.5808931405017</v>
       </c>
     </row>
     <row r="92">
@@ -6174,7 +6174,7 @@
         <v>280.0001</v>
       </c>
       <c r="T92" t="n">
-        <v>25.68865408888867</v>
+        <v>81.90309511113605</v>
       </c>
     </row>
     <row r="93">
@@ -6236,7 +6236,7 @@
         <v>260.0014</v>
       </c>
       <c r="T93" t="n">
-        <v>197.745299428869</v>
+        <v>280.340199860268</v>
       </c>
     </row>
     <row r="94">
@@ -6298,7 +6298,7 @@
         <v>250.0017</v>
       </c>
       <c r="T94" t="n">
-        <v>396.43724677651</v>
+        <v>1589.947354812349</v>
       </c>
     </row>
     <row r="95">
@@ -6360,7 +6360,7 @@
         <v>-1</v>
       </c>
       <c r="T95" t="n">
-        <v>33.34152006528058</v>
+        <v>44.02359133254693</v>
       </c>
     </row>
     <row r="96">
@@ -6422,7 +6422,7 @@
         <v>170.0019</v>
       </c>
       <c r="T96" t="n">
-        <v>231.0377550465308</v>
+        <v>305.0203520934318</v>
       </c>
     </row>
     <row r="97">
@@ -6484,7 +6484,7 @@
         <v>118.001</v>
       </c>
       <c r="T97" t="n">
-        <v>298.8071464111065</v>
+        <v>1938.21687637644</v>
       </c>
     </row>
     <row r="98">
@@ -6546,7 +6546,7 @@
         <v>1.9994</v>
       </c>
       <c r="T98" t="n">
-        <v>6.75776284362857</v>
+        <v>41.27854744937992</v>
       </c>
     </row>
     <row r="99">
@@ -6608,7 +6608,7 @@
         <v>1.189</v>
       </c>
       <c r="T99" t="n">
-        <v>85.40340555116155</v>
+        <v>137.6040949051081</v>
       </c>
     </row>
     <row r="100">
@@ -6670,7 +6670,7 @@
         <v>35</v>
       </c>
       <c r="T100" t="n">
-        <v>36.19348024137402</v>
+        <v>40.97423563603353</v>
       </c>
     </row>
     <row r="101">
@@ -6732,7 +6732,7 @@
         <v>3.3281</v>
       </c>
       <c r="T101" t="n">
-        <v>5.08181864202668</v>
+        <v>17.24421774949271</v>
       </c>
     </row>
     <row r="102">
@@ -6794,7 +6794,7 @@
         <v>1.4996</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>2.796527883718245</v>
       </c>
     </row>
     <row r="103">
@@ -6856,7 +6856,7 @@
         <v>85.0001</v>
       </c>
       <c r="T103" t="n">
-        <v>52.79045590512865</v>
+        <v>66.25719795923746</v>
       </c>
     </row>
     <row r="104">
@@ -6918,7 +6918,7 @@
         <v>75.0012</v>
       </c>
       <c r="T104" t="n">
-        <v>45.98781548680152</v>
+        <v>395.9295396764115</v>
       </c>
     </row>
     <row r="105">
@@ -6980,7 +6980,7 @@
         <v>1.0001</v>
       </c>
       <c r="T105" t="n">
-        <v>0.01445798706694314</v>
+        <v>19.39095123343307</v>
       </c>
     </row>
     <row r="106">
@@ -7042,7 +7042,7 @@
         <v>2.9998</v>
       </c>
       <c r="T106" t="n">
-        <v>19.36456873062223</v>
+        <v>160.0379410667813</v>
       </c>
     </row>
     <row r="107">
@@ -7104,7 +7104,7 @@
         <v>-1</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>234.8922559321887</v>
       </c>
     </row>
     <row r="108">
@@ -7166,7 +7166,7 @@
         <v>210.001</v>
       </c>
       <c r="T108" t="n">
-        <v>216.5878866743786</v>
+        <v>246.2938676544599</v>
       </c>
     </row>
     <row r="109">
@@ -7228,7 +7228,7 @@
         <v>250.9999</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>831.3839253825173</v>
       </c>
     </row>
     <row r="110">
@@ -7290,7 +7290,7 @@
         <v>-1</v>
       </c>
       <c r="T110" t="n">
-        <v>0.4780975766908923</v>
+        <v>19.4623456874139</v>
       </c>
     </row>
     <row r="111">
@@ -7352,7 +7352,7 @@
         <v>-1</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>28.88583560483621</v>
       </c>
     </row>
     <row r="112">
@@ -7414,7 +7414,7 @@
         <v>1.0001</v>
       </c>
       <c r="T112" t="n">
-        <v>32.94929195641252</v>
+        <v>60.69008177585387</v>
       </c>
     </row>
     <row r="113">
@@ -7538,7 +7538,7 @@
         <v>-1</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>22.86572400490989</v>
       </c>
     </row>
     <row r="115">
@@ -7600,7 +7600,7 @@
         <v>-1</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>16.86945458906319</v>
       </c>
     </row>
     <row r="116">
@@ -7662,7 +7662,7 @@
         <v>-1</v>
       </c>
       <c r="T116" t="n">
-        <v>4.580656795966735</v>
+        <v>30.04408662147567</v>
       </c>
     </row>
     <row r="117">
@@ -7724,7 +7724,7 @@
         <v>4.9999</v>
       </c>
       <c r="T117" t="n">
-        <v>0</v>
+        <v>29.82634218646169</v>
       </c>
     </row>
     <row r="118">
@@ -7786,7 +7786,7 @@
         <v>5.0005</v>
       </c>
       <c r="T118" t="n">
-        <v>0.2707379745191804</v>
+        <v>91.86963476097395</v>
       </c>
     </row>
     <row r="119">
@@ -7848,7 +7848,7 @@
         <v>176.0002</v>
       </c>
       <c r="T119" t="n">
-        <v>1280.442831225293</v>
+        <v>1734.833710678956</v>
       </c>
     </row>
     <row r="120">
@@ -7910,7 +7910,7 @@
         <v>581.0004</v>
       </c>
       <c r="T120" t="n">
-        <v>38.07486626675708</v>
+        <v>52.90396173699591</v>
       </c>
     </row>
     <row r="121">
@@ -7972,7 +7972,7 @@
         <v>662.9996</v>
       </c>
       <c r="T121" t="n">
-        <v>2429.997417368853</v>
+        <v>2171.549121632821</v>
       </c>
     </row>
     <row r="122">
@@ -8034,7 +8034,7 @@
         <v>823.0001</v>
       </c>
       <c r="T122" t="n">
-        <v>1093.842740360509</v>
+        <v>3515.417186222424</v>
       </c>
     </row>
     <row r="123">
@@ -8096,7 +8096,7 @@
         <v>-1</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>40.55906408767421</v>
       </c>
     </row>
     <row r="124">
@@ -8158,7 +8158,7 @@
         <v>55.5001</v>
       </c>
       <c r="T124" t="n">
-        <v>31.66880135232928</v>
+        <v>90.32813982752522</v>
       </c>
     </row>
     <row r="125">
@@ -8220,7 +8220,7 @@
         <v>93</v>
       </c>
       <c r="T125" t="n">
-        <v>0</v>
+        <v>548.5820153029579</v>
       </c>
     </row>
     <row r="126">
@@ -8282,7 +8282,7 @@
         <v>-1</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>62.28099932310532</v>
       </c>
     </row>
     <row r="127">
@@ -8344,7 +8344,7 @@
         <v>57.7993</v>
       </c>
       <c r="T127" t="n">
-        <v>28.17776068245438</v>
+        <v>46.41284130545685</v>
       </c>
     </row>
     <row r="128">
@@ -8406,7 +8406,7 @@
         <v>72.00059999999999</v>
       </c>
       <c r="T128" t="n">
-        <v>46.2739988003907</v>
+        <v>366.0923649981988</v>
       </c>
     </row>
     <row r="129">
@@ -8468,7 +8468,7 @@
         <v>-1</v>
       </c>
       <c r="T129" t="n">
-        <v>19.57523331551607</v>
+        <v>221.6933333149763</v>
       </c>
     </row>
     <row r="130">
@@ -8530,7 +8530,7 @@
         <v>260</v>
       </c>
       <c r="T130" t="n">
-        <v>242.2005290914242</v>
+        <v>333.8654153950843</v>
       </c>
     </row>
     <row r="131">
@@ -8592,7 +8592,7 @@
         <v>282.9998</v>
       </c>
       <c r="T131" t="n">
-        <v>951.7706325547548</v>
+        <v>2597.024791686676</v>
       </c>
     </row>
     <row r="132">
@@ -8654,7 +8654,7 @@
         <v>92.0013</v>
       </c>
       <c r="T132" t="n">
-        <v>62.90563231517719</v>
+        <v>67.18844101053918</v>
       </c>
     </row>
     <row r="133">
@@ -8716,7 +8716,7 @@
         <v>40.8001</v>
       </c>
       <c r="T133" t="n">
-        <v>49.35713555277531</v>
+        <v>349.9283166787203</v>
       </c>
     </row>
     <row r="134">
@@ -8778,7 +8778,7 @@
         <v>-1</v>
       </c>
       <c r="T134" t="n">
-        <v>112.5488729208881</v>
+        <v>235.3834580965034</v>
       </c>
     </row>
     <row r="135">
@@ -8840,7 +8840,7 @@
         <v>358.0002</v>
       </c>
       <c r="T135" t="n">
-        <v>265.4662324386241</v>
+        <v>537.0530235152993</v>
       </c>
     </row>
     <row r="136">
@@ -8902,7 +8902,7 @@
         <v>321.0008</v>
       </c>
       <c r="T136" t="n">
-        <v>56.70645446978546</v>
+        <v>80.93555498220182</v>
       </c>
     </row>
     <row r="137">
@@ -8964,7 +8964,7 @@
         <v>361.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2500.193961377069</v>
+        <v>2160.898149907973</v>
       </c>
     </row>
     <row r="138">
@@ -9026,7 +9026,7 @@
         <v>-1</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>26.91258127573478</v>
       </c>
     </row>
     <row r="139">
@@ -9088,7 +9088,7 @@
         <v>233</v>
       </c>
       <c r="T139" t="n">
-        <v>248.3370258542015</v>
+        <v>224.2496068074149</v>
       </c>
     </row>
     <row r="140">
@@ -9150,7 +9150,7 @@
         <v>163.5006</v>
       </c>
       <c r="T140" t="n">
-        <v>989.8666073357074</v>
+        <v>2026.244111605248</v>
       </c>
     </row>
     <row r="141">
@@ -9212,7 +9212,7 @@
         <v>2.2001</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>23.81076896092306</v>
       </c>
     </row>
     <row r="142">
@@ -9274,7 +9274,7 @@
         <v>1.309</v>
       </c>
       <c r="T142" t="n">
-        <v>25.18321589505369</v>
+        <v>45.07844796957038</v>
       </c>
     </row>
     <row r="143">
@@ -9336,7 +9336,7 @@
         <v>38.5</v>
       </c>
       <c r="T143" t="n">
-        <v>35.70249714727255</v>
+        <v>96.89355789408984</v>
       </c>
     </row>
     <row r="144">
@@ -9398,7 +9398,7 @@
         <v>5.8609</v>
       </c>
       <c r="T144" t="n">
-        <v>2.862611427498788</v>
+        <v>46.49684256894449</v>
       </c>
     </row>
     <row r="145">
@@ -9460,7 +9460,7 @@
         <v>1.6506</v>
       </c>
       <c r="T145" t="n">
-        <v>5.965734242676304</v>
+        <v>88.80774615928613</v>
       </c>
     </row>
     <row r="146">
@@ -9522,7 +9522,7 @@
         <v>103.5008</v>
       </c>
       <c r="T146" t="n">
-        <v>1.437395278036978</v>
+        <v>35.29922172350186</v>
       </c>
     </row>
     <row r="147">
@@ -9584,7 +9584,7 @@
         <v>76.50060000000001</v>
       </c>
       <c r="T147" t="n">
-        <v>238.3485324235078</v>
+        <v>323.9322614797727</v>
       </c>
     </row>
     <row r="148">
@@ -9646,7 +9646,7 @@
         <v>1.1</v>
       </c>
       <c r="T148" t="n">
-        <v>1.413474264370243</v>
+        <v>28.03676829787928</v>
       </c>
     </row>
     <row r="149">
@@ -9708,7 +9708,7 @@
         <v>3.2997</v>
       </c>
       <c r="T149" t="n">
-        <v>4.038891316357132</v>
+        <v>81.79418750813596</v>
       </c>
     </row>
     <row r="150">
@@ -9770,7 +9770,7 @@
         <v>-1</v>
       </c>
       <c r="T150" t="n">
-        <v>0</v>
+        <v>159.5610173185428</v>
       </c>
     </row>
     <row r="151">
@@ -9832,7 +9832,7 @@
         <v>325.0005</v>
       </c>
       <c r="T151" t="n">
-        <v>183.2485033588704</v>
+        <v>275.4645721122002</v>
       </c>
     </row>
     <row r="152">
@@ -9894,7 +9894,7 @@
         <v>353.5008</v>
       </c>
       <c r="T152" t="n">
-        <v>1457.964988358887</v>
+        <v>1716.232929569807</v>
       </c>
     </row>
     <row r="153">
@@ -9956,7 +9956,7 @@
         <v>-1</v>
       </c>
       <c r="T153" t="n">
-        <v>7.732080211164063</v>
+        <v>51.3958664483355</v>
       </c>
     </row>
     <row r="154">
@@ -10018,7 +10018,7 @@
         <v>-1</v>
       </c>
       <c r="T154" t="n">
-        <v>3.788209237854701</v>
+        <v>40.65542130657077</v>
       </c>
     </row>
     <row r="155">
@@ -10080,7 +10080,7 @@
         <v>-1</v>
       </c>
       <c r="T155" t="n">
-        <v>2.915809668924797</v>
+        <v>43.81109185686945</v>
       </c>
     </row>
     <row r="156">
@@ -10142,7 +10142,7 @@
         <v>1.1004</v>
       </c>
       <c r="T156" t="n">
-        <v>36.10333446766031</v>
+        <v>89.02507127050585</v>
       </c>
     </row>
     <row r="157">
@@ -10204,7 +10204,7 @@
         <v>2.1997</v>
       </c>
       <c r="T157" t="n">
-        <v>4.849316567565576</v>
+        <v>9.439100467593306</v>
       </c>
     </row>
     <row r="158">
@@ -10266,7 +10266,7 @@
         <v>-1</v>
       </c>
       <c r="T158" t="n">
-        <v>0.6172903257401993</v>
+        <v>71.29362416212132</v>
       </c>
     </row>
     <row r="159">
@@ -10328,7 +10328,7 @@
         <v>-1</v>
       </c>
       <c r="T159" t="n">
-        <v>12.76102926336774</v>
+        <v>54.99930541724772</v>
       </c>
     </row>
     <row r="160">
@@ -10390,7 +10390,7 @@
         <v>-1</v>
       </c>
       <c r="T160" t="n">
-        <v>7.083301645849361</v>
+        <v>59.06867562375571</v>
       </c>
     </row>
     <row r="161">
@@ -10452,7 +10452,7 @@
         <v>5.5</v>
       </c>
       <c r="T161" t="n">
-        <v>1.02365347477956</v>
+        <v>60.03683170190737</v>
       </c>
     </row>
     <row r="162">
@@ -10514,7 +10514,7 @@
         <v>5.5002</v>
       </c>
       <c r="T162" t="n">
-        <v>8.292973162763726</v>
+        <v>89.34551457863593</v>
       </c>
     </row>
     <row r="163">
@@ -10576,7 +10576,7 @@
         <v>176.0002</v>
       </c>
       <c r="T163" t="n">
-        <v>1404.525554328916</v>
+        <v>1487.09268799159</v>
       </c>
     </row>
     <row r="164">
@@ -10638,7 +10638,7 @@
         <v>559.0013</v>
       </c>
       <c r="T164" t="n">
-        <v>214.981078272803</v>
+        <v>339.0832243254698</v>
       </c>
     </row>
     <row r="165">
@@ -10700,7 +10700,7 @@
         <v>887.1487999999999</v>
       </c>
       <c r="T165" t="n">
-        <v>2180.799665495375</v>
+        <v>1963.155567273877</v>
       </c>
     </row>
     <row r="166">
@@ -10762,7 +10762,7 @@
         <v>1746.0525</v>
       </c>
       <c r="T166" t="n">
-        <v>1072.278652509834</v>
+        <v>3030.895629294819</v>
       </c>
     </row>
     <row r="167">
@@ -10824,7 +10824,7 @@
         <v>-1</v>
       </c>
       <c r="T167" t="n">
-        <v>0</v>
+        <v>20.16021787220769</v>
       </c>
     </row>
     <row r="168">
@@ -10886,7 +10886,7 @@
         <v>-1</v>
       </c>
       <c r="T168" t="n">
-        <v>11.49393257574131</v>
+        <v>1.62435108591057</v>
       </c>
     </row>
     <row r="169">
@@ -10948,7 +10948,7 @@
         <v>-1</v>
       </c>
       <c r="T169" t="n">
-        <v>0</v>
+        <v>55.58364495168621</v>
       </c>
     </row>
     <row r="170">
@@ -11010,7 +11010,7 @@
         <v>77.00790000000001</v>
       </c>
       <c r="T170" t="n">
-        <v>94.79009932415684</v>
+        <v>14.82210257173746</v>
       </c>
     </row>
     <row r="171">
@@ -11072,7 +11072,7 @@
         <v>284.9998</v>
       </c>
       <c r="T171" t="n">
-        <v>397.1106435989604</v>
+        <v>635.5561372274325</v>
       </c>
     </row>
     <row r="172">
@@ -11134,7 +11134,7 @@
         <v>-1</v>
       </c>
       <c r="T172" t="n">
-        <v>0</v>
+        <v>29.49631515689971</v>
       </c>
     </row>
     <row r="173">
@@ -11196,7 +11196,7 @@
         <v>60.0002</v>
       </c>
       <c r="T173" t="n">
-        <v>0</v>
+        <v>5.596722687023359</v>
       </c>
     </row>
     <row r="174">
@@ -11258,7 +11258,7 @@
         <v>158.013</v>
       </c>
       <c r="T174" t="n">
-        <v>124.1033826902213</v>
+        <v>215.4745046091613</v>
       </c>
     </row>
     <row r="175">
@@ -11320,7 +11320,7 @@
         <v>-1</v>
       </c>
       <c r="T175" t="n">
-        <v>0</v>
+        <v>243.9478478329479</v>
       </c>
     </row>
     <row r="176">
@@ -11382,7 +11382,7 @@
         <v>241.3695</v>
       </c>
       <c r="T176" t="n">
-        <v>224.6341461988357</v>
+        <v>259.660150209208</v>
       </c>
     </row>
     <row r="177">
@@ -11444,7 +11444,7 @@
         <v>670</v>
       </c>
       <c r="T177" t="n">
-        <v>698.0691568087719</v>
+        <v>2282.677958649202</v>
       </c>
     </row>
     <row r="178">
@@ -11506,7 +11506,7 @@
         <v>80.21560000000001</v>
       </c>
       <c r="T178" t="n">
-        <v>50.64501332228565</v>
+        <v>45.72931568569467</v>
       </c>
     </row>
     <row r="179">
@@ -11568,7 +11568,7 @@
         <v>69.99980000000001</v>
       </c>
       <c r="T179" t="n">
-        <v>101.6747578444427</v>
+        <v>149.378385531207</v>
       </c>
     </row>
     <row r="180">
@@ -11630,7 +11630,7 @@
         <v>-1</v>
       </c>
       <c r="T180" t="n">
-        <v>11.37367310657283</v>
+        <v>238.4092238734904</v>
       </c>
     </row>
     <row r="181">
@@ -11692,7 +11692,7 @@
         <v>350.0006</v>
       </c>
       <c r="T181" t="n">
-        <v>83.84857848936031</v>
+        <v>227.0097618975513</v>
       </c>
     </row>
     <row r="182">
@@ -11754,7 +11754,7 @@
         <v>250.6696</v>
       </c>
       <c r="T182" t="n">
-        <v>256.4893986368498</v>
+        <v>323.8605519249765</v>
       </c>
     </row>
     <row r="183">
@@ -11816,7 +11816,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T183" t="n">
-        <v>1596.027400874988</v>
+        <v>1827.58119473953</v>
       </c>
     </row>
     <row r="184">
@@ -11878,7 +11878,7 @@
         <v>-1</v>
       </c>
       <c r="T184" t="n">
-        <v>109.3887282598047</v>
+        <v>30.06708376123115</v>
       </c>
     </row>
     <row r="185">
@@ -11940,7 +11940,7 @@
         <v>238.9999000000001</v>
       </c>
       <c r="T185" t="n">
-        <v>220.9640209397939</v>
+        <v>165.3649484928851</v>
       </c>
     </row>
     <row r="186">
@@ -12002,7 +12002,7 @@
         <v>565.0008</v>
       </c>
       <c r="T186" t="n">
-        <v>1033.13089540583</v>
+        <v>1571.855864176677</v>
       </c>
     </row>
     <row r="187">
@@ -12126,7 +12126,7 @@
         <v>19.0004</v>
       </c>
       <c r="T188" t="n">
-        <v>23.62523134158839</v>
+        <v>28.73863725130972</v>
       </c>
     </row>
     <row r="189">
@@ -12188,7 +12188,7 @@
         <v>30.3876</v>
       </c>
       <c r="T189" t="n">
-        <v>77.07456214692374</v>
+        <v>27.63216392225331</v>
       </c>
     </row>
     <row r="190">
@@ -12250,7 +12250,7 @@
         <v>-1</v>
       </c>
       <c r="T190" t="n">
-        <v>0</v>
+        <v>8.677528497777095</v>
       </c>
     </row>
     <row r="191">
@@ -12312,7 +12312,7 @@
         <v>3.2463</v>
       </c>
       <c r="T191" t="n">
-        <v>6.334675812344636</v>
+        <v>13.95718482139062</v>
       </c>
     </row>
     <row r="192">
@@ -12374,7 +12374,7 @@
         <v>6.2618</v>
       </c>
       <c r="T192" t="n">
-        <v>29.09290591606605</v>
+        <v>77.94774497379137</v>
       </c>
     </row>
     <row r="193">
@@ -12436,7 +12436,7 @@
         <v>92.95829999999999</v>
       </c>
       <c r="T193" t="n">
-        <v>134.2805339124803</v>
+        <v>58.24336980531105</v>
       </c>
     </row>
     <row r="194">
@@ -12498,7 +12498,7 @@
         <v>170.4961</v>
       </c>
       <c r="T194" t="n">
-        <v>204.5233173531352</v>
+        <v>303.9177220686936</v>
       </c>
     </row>
     <row r="195">
@@ -12560,7 +12560,7 @@
         <v>5.4517</v>
       </c>
       <c r="T195" t="n">
-        <v>4.922652659831233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -12622,7 +12622,7 @@
         <v>10.9997</v>
       </c>
       <c r="T196" t="n">
-        <v>56.41220386456691</v>
+        <v>207.7052595293006</v>
       </c>
     </row>
     <row r="197">
@@ -12684,7 +12684,7 @@
         <v>-1</v>
       </c>
       <c r="T197" t="n">
-        <v>0.1415234205083246</v>
+        <v>9.062004307920356</v>
       </c>
     </row>
     <row r="198">
@@ -12746,7 +12746,7 @@
         <v>-1</v>
       </c>
       <c r="T198" t="n">
-        <v>78.27285473835009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -12808,7 +12808,7 @@
         <v>312.9858</v>
       </c>
       <c r="T199" t="n">
-        <v>127.0025089774252</v>
+        <v>223.8248115460499</v>
       </c>
     </row>
     <row r="200">
@@ -12870,7 +12870,7 @@
         <v>964.9152</v>
       </c>
       <c r="T200" t="n">
-        <v>1584.142924069273</v>
+        <v>1636.600050562198</v>
       </c>
     </row>
     <row r="201">
@@ -12932,7 +12932,7 @@
         <v>-1</v>
       </c>
       <c r="T201" t="n">
-        <v>0</v>
+        <v>20.16021787220769</v>
       </c>
     </row>
     <row r="202">
@@ -12994,7 +12994,7 @@
         <v>-1</v>
       </c>
       <c r="T202" t="n">
-        <v>11.54328640828917</v>
+        <v>11.47755334506727</v>
       </c>
     </row>
     <row r="203">
@@ -13056,7 +13056,7 @@
         <v>2.1928</v>
       </c>
       <c r="T203" t="n">
-        <v>1.645914398638528</v>
+        <v>22.72840963559182</v>
       </c>
     </row>
     <row r="204">
@@ -13118,7 +13118,7 @@
         <v>1.3362</v>
       </c>
       <c r="T204" t="n">
-        <v>0.5840487642305742</v>
+        <v>9.563747704223236</v>
       </c>
     </row>
     <row r="205">
@@ -13180,7 +13180,7 @@
         <v>3.2266</v>
       </c>
       <c r="T205" t="n">
-        <v>3.47241818229366</v>
+        <v>32.1453601015314</v>
       </c>
     </row>
     <row r="206">
@@ -13242,7 +13242,7 @@
         <v>6.035299999999999</v>
       </c>
       <c r="T206" t="n">
-        <v>1.540232935512559</v>
+        <v>68.99498633862522</v>
       </c>
     </row>
     <row r="207">
@@ -13304,7 +13304,7 @@
         <v>-1</v>
       </c>
       <c r="T207" t="n">
-        <v>0</v>
+        <v>24.29307862398068</v>
       </c>
     </row>
     <row r="208">
@@ -13366,7 +13366,7 @@
         <v>2.5048</v>
       </c>
       <c r="T208" t="n">
-        <v>0</v>
+        <v>19.34614279854446</v>
       </c>
     </row>
     <row r="209">
@@ -13428,7 +13428,7 @@
         <v>5.0002</v>
       </c>
       <c r="T209" t="n">
-        <v>0</v>
+        <v>33.60488122850535</v>
       </c>
     </row>
     <row r="210">
@@ -13490,7 +13490,7 @@
         <v>5.9995</v>
       </c>
       <c r="T210" t="n">
-        <v>6.781048565664234</v>
+        <v>18.9168393956917</v>
       </c>
     </row>
     <row r="211">
@@ -13552,7 +13552,7 @@
         <v>6.0004</v>
       </c>
       <c r="T211" t="n">
-        <v>29.1033800504658</v>
+        <v>50.68414556453138</v>
       </c>
     </row>
     <row r="212">
@@ -13614,7 +13614,7 @@
         <v>582.4081</v>
       </c>
       <c r="T212" t="n">
-        <v>1578.128343434502</v>
+        <v>1693.717387225793</v>
       </c>
     </row>
     <row r="213">
@@ -13676,7 +13676,7 @@
         <v>687.6011</v>
       </c>
       <c r="T213" t="n">
-        <v>266.0367960553276</v>
+        <v>367.6176313802451</v>
       </c>
     </row>
     <row r="214">
@@ -13738,7 +13738,7 @@
         <v>1736.9996</v>
       </c>
       <c r="T214" t="n">
-        <v>2354.884786817074</v>
+        <v>1959.441122107623</v>
       </c>
     </row>
     <row r="215">
@@ -13800,7 +13800,7 @@
         <v>3154.8637</v>
       </c>
       <c r="T215" t="n">
-        <v>1821.072059019614</v>
+        <v>3197.171060651599</v>
       </c>
     </row>
     <row r="216">
@@ -13862,7 +13862,7 @@
         <v>-1</v>
       </c>
       <c r="T216" t="n">
-        <v>0</v>
+        <v>30.85653568606003</v>
       </c>
     </row>
     <row r="217">
@@ -13924,7 +13924,7 @@
         <v>-1</v>
       </c>
       <c r="T217" t="n">
-        <v>0</v>
+        <v>47.02859344697897</v>
       </c>
     </row>
     <row r="218">
@@ -13986,7 +13986,7 @@
         <v>48.5395</v>
       </c>
       <c r="T218" t="n">
-        <v>87.43587490784117</v>
+        <v>181.3738451733972</v>
       </c>
     </row>
     <row r="219">
@@ -14048,7 +14048,7 @@
         <v>137.9999</v>
       </c>
       <c r="T219" t="n">
-        <v>122.3931912355208</v>
+        <v>115.2855487934309</v>
       </c>
     </row>
     <row r="220">
@@ -14110,7 +14110,7 @@
         <v>655.0002999999999</v>
       </c>
       <c r="T220" t="n">
-        <v>455.4607338516985</v>
+        <v>1128.067205345397</v>
       </c>
     </row>
     <row r="221">
@@ -14172,7 +14172,7 @@
         <v>53.29469999999999</v>
       </c>
       <c r="T221" t="n">
-        <v>224.9880026101909</v>
+        <v>156.0947511216345</v>
       </c>
     </row>
     <row r="222">
@@ -14234,7 +14234,7 @@
         <v>121.0002</v>
       </c>
       <c r="T222" t="n">
-        <v>15.28338239896683</v>
+        <v>36.2988718362659</v>
       </c>
     </row>
     <row r="223">
@@ -14296,7 +14296,7 @@
         <v>428.1665</v>
       </c>
       <c r="T223" t="n">
-        <v>203.5945885116177</v>
+        <v>496.7957829611943</v>
       </c>
     </row>
     <row r="224">
@@ -14358,7 +14358,7 @@
         <v>152.7379</v>
       </c>
       <c r="T224" t="n">
-        <v>83.16638338759498</v>
+        <v>349.2254047690035</v>
       </c>
     </row>
     <row r="225">
@@ -14420,7 +14420,7 @@
         <v>462.0015</v>
       </c>
       <c r="T225" t="n">
-        <v>273.8700324220544</v>
+        <v>344.1650366033147</v>
       </c>
     </row>
     <row r="226">
@@ -14482,7 +14482,7 @@
         <v>1822.3312</v>
       </c>
       <c r="T226" t="n">
-        <v>1815.532758702173</v>
+        <v>2614.32974990355</v>
       </c>
     </row>
     <row r="227">
@@ -14544,7 +14544,7 @@
         <v>125.0011</v>
       </c>
       <c r="T227" t="n">
-        <v>50.39078766765021</v>
+        <v>70.58891558627312</v>
       </c>
     </row>
     <row r="228">
@@ -14606,7 +14606,7 @@
         <v>208.001</v>
       </c>
       <c r="T228" t="n">
-        <v>133.8947134654931</v>
+        <v>403.2045230165173</v>
       </c>
     </row>
     <row r="229">
@@ -14668,7 +14668,7 @@
         <v>147.0985</v>
       </c>
       <c r="T229" t="n">
-        <v>118.9469127436873</v>
+        <v>244.6769250862176</v>
       </c>
     </row>
     <row r="230">
@@ -14730,7 +14730,7 @@
         <v>349.9999</v>
       </c>
       <c r="T230" t="n">
-        <v>330.1764976484532</v>
+        <v>295.7011069683155</v>
       </c>
     </row>
     <row r="231">
@@ -14792,7 +14792,7 @@
         <v>396.646</v>
       </c>
       <c r="T231" t="n">
-        <v>296.9493511468959</v>
+        <v>350.3105608096801</v>
       </c>
     </row>
     <row r="232">
@@ -14854,7 +14854,7 @@
         <v>1695.0001</v>
       </c>
       <c r="T232" t="n">
-        <v>1739.111637675379</v>
+        <v>1921.462085850645</v>
       </c>
     </row>
     <row r="233">
@@ -14916,7 +14916,7 @@
         <v>49.1615</v>
       </c>
       <c r="T233" t="n">
-        <v>124.9958757573579</v>
+        <v>90.90517389498787</v>
       </c>
     </row>
     <row r="234">
@@ -14978,7 +14978,7 @@
         <v>405.0006</v>
       </c>
       <c r="T234" t="n">
-        <v>269.4696303921942</v>
+        <v>202.8598487932251</v>
       </c>
     </row>
     <row r="235">
@@ -15040,7 +15040,7 @@
         <v>1262.0158</v>
       </c>
       <c r="T235" t="n">
-        <v>907.0234475600179</v>
+        <v>1642.903650558683</v>
       </c>
     </row>
     <row r="236">
@@ -15164,7 +15164,7 @@
         <v>59.6185</v>
       </c>
       <c r="T237" t="n">
-        <v>51.11935002110162</v>
+        <v>57.85917481718813</v>
       </c>
     </row>
     <row r="238">
@@ -15226,7 +15226,7 @@
         <v>85.622</v>
       </c>
       <c r="T238" t="n">
-        <v>75.62945198045253</v>
+        <v>40.34614925854014</v>
       </c>
     </row>
     <row r="239">
@@ -15288,7 +15288,7 @@
         <v>-1</v>
       </c>
       <c r="T239" t="n">
-        <v>0</v>
+        <v>11.89976377768311</v>
       </c>
     </row>
     <row r="240">
@@ -15350,7 +15350,7 @@
         <v>6.1518</v>
       </c>
       <c r="T240" t="n">
-        <v>6.102876717828135</v>
+        <v>37.18633659591483</v>
       </c>
     </row>
     <row r="241">
@@ -15412,7 +15412,7 @@
         <v>24.9579</v>
       </c>
       <c r="T241" t="n">
-        <v>32.8760093542361</v>
+        <v>110.0750991978248</v>
       </c>
     </row>
     <row r="242">
@@ -15474,7 +15474,7 @@
         <v>120.6001</v>
       </c>
       <c r="T242" t="n">
-        <v>123.5416140207306</v>
+        <v>71.67499880686088</v>
       </c>
     </row>
     <row r="243">
@@ -15536,7 +15536,7 @@
         <v>320.5705</v>
       </c>
       <c r="T243" t="n">
-        <v>260.6994220592422</v>
+        <v>353.9143663819316</v>
       </c>
     </row>
     <row r="244">
@@ -15598,7 +15598,7 @@
         <v>18.1142</v>
       </c>
       <c r="T244" t="n">
-        <v>2.276580796021992</v>
+        <v>23.57044718564174</v>
       </c>
     </row>
     <row r="245">
@@ -15660,7 +15660,7 @@
         <v>52.0008</v>
       </c>
       <c r="T245" t="n">
-        <v>53.21298843931594</v>
+        <v>199.7092811505719</v>
       </c>
     </row>
     <row r="246">
@@ -15722,7 +15722,7 @@
         <v>4</v>
       </c>
       <c r="T246" t="n">
-        <v>0</v>
+        <v>13.49022626198927</v>
       </c>
     </row>
     <row r="247">
@@ -15784,7 +15784,7 @@
         <v>119.8905</v>
       </c>
       <c r="T247" t="n">
-        <v>3.502221239977167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -15846,7 +15846,7 @@
         <v>640.0003</v>
       </c>
       <c r="T248" t="n">
-        <v>188.8128089771904</v>
+        <v>246.3118385417402</v>
       </c>
     </row>
     <row r="249">
@@ -15908,7 +15908,7 @@
         <v>2006.6505</v>
       </c>
       <c r="T249" t="n">
-        <v>1702.171041485553</v>
+        <v>1699.231986559322</v>
       </c>
     </row>
     <row r="250">
@@ -15970,7 +15970,7 @@
         <v>-1</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
+        <v>30.85653568606003</v>
       </c>
     </row>
     <row r="251">
@@ -16032,7 +16032,7 @@
         <v>-1</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
+        <v>11.71740943167925</v>
       </c>
     </row>
     <row r="252">
@@ -16094,7 +16094,7 @@
         <v>7.049500000000001</v>
       </c>
       <c r="T252" t="n">
-        <v>4.649943814170239</v>
+        <v>31.45577921757981</v>
       </c>
     </row>
     <row r="253">
@@ -16156,7 +16156,7 @@
         <v>3.102</v>
       </c>
       <c r="T253" t="n">
-        <v>2.22440352549179</v>
+        <v>27.71983441836236</v>
       </c>
     </row>
     <row r="254">
@@ -16218,7 +16218,7 @@
         <v>7.390899999999999</v>
       </c>
       <c r="T254" t="n">
-        <v>12.15218841385707</v>
+        <v>34.77210853504543</v>
       </c>
     </row>
     <row r="255">
@@ -16280,7 +16280,7 @@
         <v>47.105</v>
       </c>
       <c r="T255" t="n">
-        <v>3.200362530503349</v>
+        <v>69.47997714443673</v>
       </c>
     </row>
     <row r="256">
@@ -16342,7 +16342,7 @@
         <v>2.3998</v>
       </c>
       <c r="T256" t="n">
-        <v>0</v>
+        <v>16.6335192021378</v>
       </c>
     </row>
     <row r="257">
@@ -16404,7 +16404,7 @@
         <v>1.8907</v>
       </c>
       <c r="T257" t="n">
-        <v>1.434429681753792</v>
+        <v>13.10988738599441</v>
       </c>
     </row>
     <row r="258">
@@ -16466,7 +16466,7 @@
         <v>5.7134</v>
       </c>
       <c r="T258" t="n">
-        <v>0</v>
+        <v>16.6335192021378</v>
       </c>
     </row>
     <row r="259">
@@ -16528,7 +16528,7 @@
         <v>22.5621</v>
       </c>
       <c r="T259" t="n">
-        <v>8.317695871039335</v>
+        <v>39.79027305923871</v>
       </c>
     </row>
     <row r="260">
@@ -16590,7 +16590,7 @@
         <v>63.6374</v>
       </c>
       <c r="T260" t="n">
-        <v>48.1734355358443</v>
+        <v>67.57595053187868</v>
       </c>
     </row>
     <row r="261">
@@ -16652,7 +16652,7 @@
         <v>2500</v>
       </c>
       <c r="T261" t="n">
-        <v>2669.160507163617</v>
+        <v>1599.781101510245</v>
       </c>
     </row>
     <row r="262">
@@ -16714,7 +16714,7 @@
         <v>982.6487</v>
       </c>
       <c r="T262" t="n">
-        <v>370.0700422305786</v>
+        <v>395.4533678434906</v>
       </c>
     </row>
     <row r="263">
@@ -16776,7 +16776,7 @@
         <v>3088.7803</v>
       </c>
       <c r="T263" t="n">
-        <v>3455.027814151184</v>
+        <v>2148.772219755502</v>
       </c>
     </row>
     <row r="264">
@@ -16838,7 +16838,7 @@
         <v>5894.566800000001</v>
       </c>
       <c r="T264" t="n">
-        <v>3343.026278215111</v>
+        <v>3299.178557747271</v>
       </c>
     </row>
     <row r="265">
@@ -16900,7 +16900,7 @@
         <v>262.6636</v>
       </c>
       <c r="T265" t="n">
-        <v>292.0506081568262</v>
+        <v>444.7550547373527</v>
       </c>
     </row>
     <row r="266">
@@ -16962,7 +16962,7 @@
         <v>1097.0209</v>
       </c>
       <c r="T266" t="n">
-        <v>1252.805668729226</v>
+        <v>1162.077803989087</v>
       </c>
     </row>
     <row r="267">
@@ -17024,7 +17024,7 @@
         <v>138.6367</v>
       </c>
       <c r="T267" t="n">
-        <v>32.98860354225104</v>
+        <v>16.09630877946649</v>
       </c>
     </row>
     <row r="268">
@@ -17086,7 +17086,7 @@
         <v>816.5275</v>
       </c>
       <c r="T268" t="n">
-        <v>330.9781713331067</v>
+        <v>828.5535290318097</v>
       </c>
     </row>
     <row r="269">
@@ -17148,7 +17148,7 @@
         <v>662.6365</v>
       </c>
       <c r="T269" t="n">
-        <v>372.9298344075773</v>
+        <v>410.3380764564165</v>
       </c>
     </row>
     <row r="270">
@@ -17210,7 +17210,7 @@
         <v>3710.2785</v>
       </c>
       <c r="T270" t="n">
-        <v>2893.525509353327</v>
+        <v>2823.314508711364</v>
       </c>
     </row>
     <row r="271">
@@ -17272,7 +17272,7 @@
         <v>187.8522</v>
       </c>
       <c r="T271" t="n">
-        <v>73.5143898820355</v>
+        <v>65.30628623404307</v>
       </c>
     </row>
     <row r="272">
@@ -17334,7 +17334,7 @@
         <v>302.871</v>
       </c>
       <c r="T272" t="n">
-        <v>242.7124756667269</v>
+        <v>566.0368584296606</v>
       </c>
     </row>
     <row r="273">
@@ -17396,7 +17396,7 @@
         <v>490.4431</v>
       </c>
       <c r="T273" t="n">
-        <v>248.1634775203614</v>
+        <v>278.7352710736742</v>
       </c>
     </row>
     <row r="274">
@@ -17458,7 +17458,7 @@
         <v>1115.0003</v>
       </c>
       <c r="T274" t="n">
-        <v>329.3962720118489</v>
+        <v>392.7663658766663</v>
       </c>
     </row>
     <row r="275">
@@ -17520,7 +17520,7 @@
         <v>3615.5807</v>
       </c>
       <c r="T275" t="n">
-        <v>3193.894414282633</v>
+        <v>2042.210039483026</v>
       </c>
     </row>
     <row r="276">
@@ -17582,7 +17582,7 @@
         <v>687.2445</v>
       </c>
       <c r="T276" t="n">
-        <v>302.9766569768244</v>
+        <v>167.0702834123921</v>
       </c>
     </row>
     <row r="277">
@@ -17644,7 +17644,7 @@
         <v>3141.8861</v>
       </c>
       <c r="T277" t="n">
-        <v>3064.306831388467</v>
+        <v>1865.810870418553</v>
       </c>
     </row>
     <row r="278">
@@ -17706,7 +17706,7 @@
         <v>20.7474</v>
       </c>
       <c r="T278" t="n">
-        <v>4.249630651923267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -17768,7 +17768,7 @@
         <v>128.2046</v>
       </c>
       <c r="T279" t="n">
-        <v>166.0932289909199</v>
+        <v>51.94728258544664</v>
       </c>
     </row>
     <row r="280">
@@ -17830,7 +17830,7 @@
         <v>163.7464</v>
       </c>
       <c r="T280" t="n">
-        <v>80.17010405397301</v>
+        <v>87.00550333487757</v>
       </c>
     </row>
     <row r="281">
@@ -17892,7 +17892,7 @@
         <v>-1</v>
       </c>
       <c r="T281" t="n">
-        <v>1.790343877661694</v>
+        <v>17.33140892197316</v>
       </c>
     </row>
     <row r="282">
@@ -17954,7 +17954,7 @@
         <v>19.085</v>
       </c>
       <c r="T282" t="n">
-        <v>1.903611362423465</v>
+        <v>14.64643451349439</v>
       </c>
     </row>
     <row r="283">
@@ -18016,7 +18016,7 @@
         <v>45.2528</v>
       </c>
       <c r="T283" t="n">
-        <v>91.56553643973724</v>
+        <v>132.276209797412</v>
       </c>
     </row>
     <row r="284">
@@ -18078,7 +18078,7 @@
         <v>206.4925</v>
       </c>
       <c r="T284" t="n">
-        <v>136.5813917938292</v>
+        <v>70.94190520480404</v>
       </c>
     </row>
     <row r="285">
@@ -18140,7 +18140,7 @@
         <v>796.9173</v>
       </c>
       <c r="T285" t="n">
-        <v>309.2671493146032</v>
+        <v>377.03504161836</v>
       </c>
     </row>
     <row r="286">
@@ -18202,7 +18202,7 @@
         <v>19.7169</v>
       </c>
       <c r="T286" t="n">
-        <v>8.228470025215428</v>
+        <v>43.79072364540327</v>
       </c>
     </row>
     <row r="287">
@@ -18264,7 +18264,7 @@
         <v>94.2634</v>
       </c>
       <c r="T287" t="n">
-        <v>175.3377425975687</v>
+        <v>289.9180400766483</v>
       </c>
     </row>
     <row r="288">
@@ -18326,7 +18326,7 @@
         <v>949.5663</v>
       </c>
       <c r="T288" t="n">
-        <v>276.442867218618</v>
+        <v>321.972702483027</v>
       </c>
     </row>
     <row r="289">
@@ -18388,7 +18388,7 @@
         <v>4644.0113</v>
       </c>
       <c r="T289" t="n">
-        <v>3168.941132787529</v>
+        <v>1756.760372467345</v>
       </c>
     </row>
     <row r="290">
@@ -18450,7 +18450,7 @@
         <v>-1</v>
       </c>
       <c r="T290" t="n">
-        <v>1.790343877661694</v>
+        <v>17.33140892197316</v>
       </c>
     </row>
     <row r="291">
@@ -18512,7 +18512,7 @@
         <v>17.7291</v>
       </c>
       <c r="T291" t="n">
-        <v>5.886336297872395</v>
+        <v>10.15357413874102</v>
       </c>
     </row>
     <row r="292">
@@ -18574,7 +18574,7 @@
         <v>9.175800000000001</v>
       </c>
       <c r="T292" t="n">
-        <v>8.004712859961108</v>
+        <v>28.86302887827435</v>
       </c>
     </row>
     <row r="293">
@@ -18636,7 +18636,7 @@
         <v>24.8</v>
       </c>
       <c r="T293" t="n">
-        <v>22.9284201782562</v>
+        <v>43.22367627936125</v>
       </c>
     </row>
     <row r="294">
@@ -18698,7 +18698,7 @@
         <v>75.5857</v>
       </c>
       <c r="T294" t="n">
-        <v>5.214953513306249</v>
+        <v>72.53999923406985</v>
       </c>
     </row>
     <row r="295">
@@ -18760,7 +18760,7 @@
         <v>3.9904</v>
       </c>
       <c r="T295" t="n">
-        <v>1.790343877661694</v>
+        <v>17.33140892197316</v>
       </c>
     </row>
     <row r="296">
@@ -18822,7 +18822,7 @@
         <v>9.1616</v>
       </c>
       <c r="T296" t="n">
-        <v>4.351147330845055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -18884,7 +18884,7 @@
         <v>17.7484</v>
       </c>
       <c r="T297" t="n">
-        <v>1.790343877661694</v>
+        <v>17.33140892197316</v>
       </c>
     </row>
     <row r="298">
@@ -18946,7 +18946,7 @@
         <v>52.53489999999999</v>
       </c>
       <c r="T298" t="n">
-        <v>15.76107253429246</v>
+        <v>29.81245681035508</v>
       </c>
     </row>
     <row r="299">
@@ -19008,7 +19008,7 @@
         <v>104.225</v>
       </c>
       <c r="T299" t="n">
-        <v>82.34629017533672</v>
+        <v>76.22977952635178</v>
       </c>
     </row>
     <row r="300">
@@ -19070,7 +19070,7 @@
         <v>100</v>
       </c>
       <c r="T300" t="n">
-        <v>1675.673413102383</v>
+        <v>1196.241493458918</v>
       </c>
     </row>
     <row r="301">
@@ -19132,7 +19132,7 @@
         <v>589.9998000000001</v>
       </c>
       <c r="T301" t="n">
-        <v>245.7066233810761</v>
+        <v>296.284570576091</v>
       </c>
     </row>
     <row r="302">
@@ -19194,7 +19194,7 @@
         <v>655.2552999999999</v>
       </c>
       <c r="T302" t="n">
-        <v>1657.423123865428</v>
+        <v>1534.294379058465</v>
       </c>
     </row>
     <row r="303">
@@ -19256,7 +19256,7 @@
         <v>722.2748</v>
       </c>
       <c r="T303" t="n">
-        <v>749.6098494544276</v>
+        <v>2267.642900965001</v>
       </c>
     </row>
     <row r="304">
@@ -19318,7 +19318,7 @@
         <v>40.803</v>
       </c>
       <c r="T304" t="n">
-        <v>93.17606835401355</v>
+        <v>53.70983027295011</v>
       </c>
     </row>
     <row r="305">
@@ -19380,7 +19380,7 @@
         <v>146.9536</v>
       </c>
       <c r="T305" t="n">
-        <v>209.961954916209</v>
+        <v>580.2677030542202</v>
       </c>
     </row>
     <row r="306">
@@ -19442,7 +19442,7 @@
         <v>25.6258</v>
       </c>
       <c r="T306" t="n">
-        <v>23.09656616139285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -19504,7 +19504,7 @@
         <v>120.3064</v>
       </c>
       <c r="T307" t="n">
-        <v>164.8347011852661</v>
+        <v>208.6778458206524</v>
       </c>
     </row>
     <row r="308">
@@ -19566,7 +19566,7 @@
         <v>170.6535</v>
       </c>
       <c r="T308" t="n">
-        <v>259.5187423524262</v>
+        <v>329.1451190503891</v>
       </c>
     </row>
     <row r="309">
@@ -19628,7 +19628,7 @@
         <v>441.6952</v>
       </c>
       <c r="T309" t="n">
-        <v>22.1720299919807</v>
+        <v>1569.878843727404</v>
       </c>
     </row>
     <row r="310">
@@ -19690,7 +19690,7 @@
         <v>43.6282</v>
       </c>
       <c r="T310" t="n">
-        <v>36.17063645275694</v>
+        <v>43.19270247810476</v>
       </c>
     </row>
     <row r="311">
@@ -19752,7 +19752,7 @@
         <v>55.0725</v>
       </c>
       <c r="T311" t="n">
-        <v>122.6641726010868</v>
+        <v>175.9245070749481</v>
       </c>
     </row>
     <row r="312">
@@ -19814,7 +19814,7 @@
         <v>309.9996</v>
       </c>
       <c r="T312" t="n">
-        <v>228.3676646734206</v>
+        <v>22.75142611339354</v>
       </c>
     </row>
     <row r="313">
@@ -19876,7 +19876,7 @@
         <v>325.0003</v>
       </c>
       <c r="T313" t="n">
-        <v>155.809179365655</v>
+        <v>279.456441156225</v>
       </c>
     </row>
     <row r="314">
@@ -19938,7 +19938,7 @@
         <v>435.0011</v>
       </c>
       <c r="T314" t="n">
-        <v>1521.230490629046</v>
+        <v>1679.560367988859</v>
       </c>
     </row>
     <row r="315">
@@ -20000,7 +20000,7 @@
         <v>185.0013</v>
       </c>
       <c r="T315" t="n">
-        <v>200.341133553569</v>
+        <v>137.3216211083701</v>
       </c>
     </row>
     <row r="316">
@@ -20062,7 +20062,7 @@
         <v>413.73</v>
       </c>
       <c r="T316" t="n">
-        <v>299.0365378353143</v>
+        <v>1004.115453744393</v>
       </c>
     </row>
     <row r="317">
@@ -20186,7 +20186,7 @@
         <v>10.2007</v>
       </c>
       <c r="T318" t="n">
-        <v>26.35564469812187</v>
+        <v>28.1020293015344</v>
       </c>
     </row>
     <row r="319">
@@ -20248,7 +20248,7 @@
         <v>21.047</v>
       </c>
       <c r="T319" t="n">
-        <v>44.21390614638046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -20310,7 +20310,7 @@
         <v>2.3729</v>
       </c>
       <c r="T320" t="n">
-        <v>4.190137076934859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -20372,7 +20372,7 @@
         <v>5.4763</v>
       </c>
       <c r="T321" t="n">
-        <v>11.29032970490527</v>
+        <v>43.71649648678256</v>
       </c>
     </row>
     <row r="322">
@@ -20434,7 +20434,7 @@
         <v>69.62139999999999</v>
       </c>
       <c r="T322" t="n">
-        <v>140.2584000033208</v>
+        <v>33.76300894292962</v>
       </c>
     </row>
     <row r="323">
@@ -20496,7 +20496,7 @@
         <v>86.0008</v>
       </c>
       <c r="T323" t="n">
-        <v>167.7910704420038</v>
+        <v>266.8241821147974</v>
       </c>
     </row>
     <row r="324">
@@ -20558,7 +20558,7 @@
         <v>2.4911</v>
       </c>
       <c r="T324" t="n">
-        <v>5.67782127640251</v>
+        <v>10.34740133087608</v>
       </c>
     </row>
     <row r="325">
@@ -20620,7 +20620,7 @@
         <v>6.1442</v>
       </c>
       <c r="T325" t="n">
-        <v>0</v>
+        <v>15.28968889550397</v>
       </c>
     </row>
     <row r="326">
@@ -20682,7 +20682,7 @@
         <v>349.8127</v>
       </c>
       <c r="T326" t="n">
-        <v>124.7424665976982</v>
+        <v>216.6258488912708</v>
       </c>
     </row>
     <row r="327">
@@ -20744,7 +20744,7 @@
         <v>547.2891</v>
       </c>
       <c r="T327" t="n">
-        <v>1626.443137558831</v>
+        <v>1590.748344807265</v>
       </c>
     </row>
     <row r="328">
@@ -20806,7 +20806,7 @@
         <v>-1</v>
       </c>
       <c r="T328" t="n">
-        <v>1.177975838919151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -20868,7 +20868,7 @@
         <v>2.2388</v>
       </c>
       <c r="T329" t="n">
-        <v>6.775243643345894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -20992,7 +20992,7 @@
         <v>4.5925</v>
       </c>
       <c r="T331" t="n">
-        <v>7.266662532811405</v>
+        <v>24.8935532418319</v>
       </c>
     </row>
     <row r="332">
@@ -21054,7 +21054,7 @@
         <v>11.4436</v>
       </c>
       <c r="T332" t="n">
-        <v>10.65505691480353</v>
+        <v>49.57020284479626</v>
       </c>
     </row>
     <row r="333">
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>1.177975838919151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -21178,7 +21178,7 @@
         <v>1.116</v>
       </c>
       <c r="T334" t="n">
-        <v>1.177975838919151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -21240,7 +21240,7 @@
         <v>2.125</v>
       </c>
       <c r="T335" t="n">
-        <v>1.177975838919151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -21302,7 +21302,7 @@
         <v>3.4947</v>
       </c>
       <c r="T336" t="n">
-        <v>5.626526129910491</v>
+        <v>12.24852856363867</v>
       </c>
     </row>
     <row r="337">
@@ -21364,7 +21364,7 @@
         <v>8.8324</v>
       </c>
       <c r="T337" t="n">
-        <v>19.53131418987933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -21426,7 +21426,7 @@
         <v>310.001</v>
       </c>
       <c r="T338" t="n">
-        <v>731.6439693046598</v>
+        <v>1665.074757980801</v>
       </c>
     </row>
     <row r="339">
@@ -21488,7 +21488,7 @@
         <v>970.0018</v>
       </c>
       <c r="T339" t="n">
-        <v>45.0864806277327</v>
+        <v>19.30883526157029</v>
       </c>
     </row>
     <row r="340">
@@ -21550,7 +21550,7 @@
         <v>1245.0007</v>
       </c>
       <c r="T340" t="n">
-        <v>1343.78227828914</v>
+        <v>1644.821435788759</v>
       </c>
     </row>
     <row r="341">
@@ -21612,7 +21612,7 @@
         <v>1503</v>
       </c>
       <c r="T341" t="n">
-        <v>410.6088483290458</v>
+        <v>1885.62363894279</v>
       </c>
     </row>
     <row r="342">
@@ -21674,7 +21674,7 @@
         <v>80.9996</v>
       </c>
       <c r="T342" t="n">
-        <v>24.48302127862775</v>
+        <v>133.4061121414733</v>
       </c>
     </row>
     <row r="343">
@@ -21736,7 +21736,7 @@
         <v>268.9157</v>
       </c>
       <c r="T343" t="n">
-        <v>23.60988632004432</v>
+        <v>585.1158280444153</v>
       </c>
     </row>
     <row r="344">
@@ -21798,7 +21798,7 @@
         <v>46.6918</v>
       </c>
       <c r="T344" t="n">
-        <v>2.317847273821261</v>
+        <v>38.78554176466029</v>
       </c>
     </row>
     <row r="345">
@@ -21860,7 +21860,7 @@
         <v>227.7049</v>
       </c>
       <c r="T345" t="n">
-        <v>47.70184045871417</v>
+        <v>163.5035520629163</v>
       </c>
     </row>
     <row r="346">
@@ -21922,7 +21922,7 @@
         <v>342.9574</v>
       </c>
       <c r="T346" t="n">
-        <v>180.3023767652386</v>
+        <v>325.8556186105269</v>
       </c>
     </row>
     <row r="347">
@@ -21984,7 +21984,7 @@
         <v>730</v>
       </c>
       <c r="T347" t="n">
-        <v>270.571346506218</v>
+        <v>959.3663921966038</v>
       </c>
     </row>
     <row r="348">
@@ -22046,7 +22046,7 @@
         <v>74.55589999999999</v>
       </c>
       <c r="T348" t="n">
-        <v>9.939179241459032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -22108,7 +22108,7 @@
         <v>100.9922</v>
       </c>
       <c r="T349" t="n">
-        <v>11.65866665144069</v>
+        <v>282.3586741135843</v>
       </c>
     </row>
     <row r="350">
@@ -22170,7 +22170,7 @@
         <v>490.0001</v>
       </c>
       <c r="T350" t="n">
-        <v>394.9239455585553</v>
+        <v>101.6830655946821</v>
       </c>
     </row>
     <row r="351">
@@ -22232,7 +22232,7 @@
         <v>635.0014</v>
       </c>
       <c r="T351" t="n">
-        <v>130.1323180354969</v>
+        <v>274.7998158294395</v>
       </c>
     </row>
     <row r="352">
@@ -22294,7 +22294,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T352" t="n">
-        <v>1206.296509173118</v>
+        <v>1684.253925362755</v>
       </c>
     </row>
     <row r="353">
@@ -22356,7 +22356,7 @@
         <v>295.0005</v>
       </c>
       <c r="T353" t="n">
-        <v>30.30880442144328</v>
+        <v>67.44093020579744</v>
       </c>
     </row>
     <row r="354">
@@ -22418,7 +22418,7 @@
         <v>575.0004</v>
       </c>
       <c r="T354" t="n">
-        <v>0</v>
+        <v>671.3318030807093</v>
       </c>
     </row>
     <row r="355">
@@ -22480,7 +22480,7 @@
         <v>4.6335</v>
       </c>
       <c r="T355" t="n">
-        <v>6.815118689920697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -22542,7 +22542,7 @@
         <v>12.0005</v>
       </c>
       <c r="T356" t="n">
-        <v>0</v>
+        <v>12.43888961763093</v>
       </c>
     </row>
     <row r="357">
@@ -22604,7 +22604,7 @@
         <v>38.885</v>
       </c>
       <c r="T357" t="n">
-        <v>35.78397785493461</v>
+        <v>52.9242132541029</v>
       </c>
     </row>
     <row r="358">
@@ -22666,7 +22666,7 @@
         <v>4.3014</v>
       </c>
       <c r="T358" t="n">
-        <v>5.456012023664274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -22728,7 +22728,7 @@
         <v>9.762700000000001</v>
       </c>
       <c r="T359" t="n">
-        <v>3.497433995590571</v>
+        <v>61.2326471464882</v>
       </c>
     </row>
     <row r="360">
@@ -22790,7 +22790,7 @@
         <v>120.9999</v>
       </c>
       <c r="T360" t="n">
-        <v>1.150433153664781</v>
+        <v>11.76432469858765</v>
       </c>
     </row>
     <row r="361">
@@ -22852,7 +22852,7 @@
         <v>156.0009</v>
       </c>
       <c r="T361" t="n">
-        <v>66.66001566160271</v>
+        <v>234.7320516242123</v>
       </c>
     </row>
     <row r="362">
@@ -22914,7 +22914,7 @@
         <v>4.558</v>
       </c>
       <c r="T362" t="n">
-        <v>0</v>
+        <v>7.971994674386492</v>
       </c>
     </row>
     <row r="363">
@@ -22976,7 +22976,7 @@
         <v>7.481299999999999</v>
       </c>
       <c r="T363" t="n">
-        <v>0</v>
+        <v>28.75730000927256</v>
       </c>
     </row>
     <row r="364">
@@ -23038,7 +23038,7 @@
         <v>630.0002000000001</v>
       </c>
       <c r="T364" t="n">
-        <v>89.57464581420521</v>
+        <v>224.664779299769</v>
       </c>
     </row>
     <row r="365">
@@ -23100,7 +23100,7 @@
         <v>1000.0007</v>
       </c>
       <c r="T365" t="n">
-        <v>1317.266321910109</v>
+        <v>1611.752675558948</v>
       </c>
     </row>
     <row r="366">
@@ -23162,7 +23162,7 @@
         <v>-1</v>
       </c>
       <c r="T366" t="n">
-        <v>0</v>
+        <v>12.29766403672305</v>
       </c>
     </row>
     <row r="367">
@@ -23224,7 +23224,7 @@
         <v>4.0954</v>
       </c>
       <c r="T367" t="n">
-        <v>6.283452384587643</v>
+        <v>8.191780571959658</v>
       </c>
     </row>
     <row r="368">
@@ -23286,7 +23286,7 @@
         <v>2.2856</v>
       </c>
       <c r="T368" t="n">
-        <v>22.16686238324063</v>
+        <v>49.35862296471927</v>
       </c>
     </row>
     <row r="369">
@@ -23348,7 +23348,7 @@
         <v>5.0002</v>
       </c>
       <c r="T369" t="n">
-        <v>11.05988333208721</v>
+        <v>63.48989601334665</v>
       </c>
     </row>
     <row r="370">
@@ -23410,7 +23410,7 @@
         <v>1.0002</v>
       </c>
       <c r="T370" t="n">
-        <v>0</v>
+        <v>12.29766403672305</v>
       </c>
     </row>
     <row r="371">
@@ -23472,7 +23472,7 @@
         <v>1.9981</v>
       </c>
       <c r="T371" t="n">
-        <v>1.772321959389447</v>
+        <v>20.57870502719133</v>
       </c>
     </row>
     <row r="372">
@@ -23534,7 +23534,7 @@
         <v>3.7633</v>
       </c>
       <c r="T372" t="n">
-        <v>6.810228490337853</v>
+        <v>21.65085771761571</v>
       </c>
     </row>
     <row r="373">
@@ -23596,7 +23596,7 @@
         <v>4.0731</v>
       </c>
       <c r="T373" t="n">
-        <v>6.304942101412473</v>
+        <v>25.4689626905452</v>
       </c>
     </row>
     <row r="374">
@@ -23658,7 +23658,7 @@
         <v>5.8048</v>
       </c>
       <c r="T374" t="n">
-        <v>9.395657236864009</v>
+        <v>23.54373943677192</v>
       </c>
     </row>
     <row r="375">
@@ -23720,7 +23720,7 @@
         <v>45.0006</v>
       </c>
       <c r="T375" t="n">
-        <v>36.95101840163279</v>
+        <v>87.7494872540581</v>
       </c>
     </row>
     <row r="376">
@@ -23782,7 +23782,7 @@
         <v>130.0001</v>
       </c>
       <c r="T376" t="n">
-        <v>44.13206087077172</v>
+        <v>224.3444063949235</v>
       </c>
     </row>
     <row r="377">
@@ -23844,7 +23844,7 @@
         <v>145.0007</v>
       </c>
       <c r="T377" t="n">
-        <v>102.2322490799428</v>
+        <v>269.5318198486151</v>
       </c>
     </row>
     <row r="378">
@@ -23906,7 +23906,7 @@
         <v>3.0004</v>
       </c>
       <c r="T378" t="n">
-        <v>1.790587626271037</v>
+        <v>33.04061557734219</v>
       </c>
     </row>
     <row r="379">
@@ -23968,7 +23968,7 @@
         <v>32.0003</v>
       </c>
       <c r="T379" t="n">
-        <v>24.85448627199109</v>
+        <v>77.5242177685758</v>
       </c>
     </row>
     <row r="380">
@@ -24030,7 +24030,7 @@
         <v>115.0013</v>
       </c>
       <c r="T380" t="n">
-        <v>0</v>
+        <v>183.8333652345095</v>
       </c>
     </row>
     <row r="381">
@@ -24092,7 +24092,7 @@
         <v>4.6486</v>
       </c>
       <c r="T381" t="n">
-        <v>3.582947488421541</v>
+        <v>35.86499342691377</v>
       </c>
     </row>
     <row r="382">
@@ -24154,7 +24154,7 @@
         <v>22</v>
       </c>
       <c r="T382" t="n">
-        <v>31.14293540262693</v>
+        <v>61.13090419019853</v>
       </c>
     </row>
     <row r="383">
@@ -24216,7 +24216,7 @@
         <v>136.4504</v>
       </c>
       <c r="T383" t="n">
-        <v>0</v>
+        <v>341.9147783039294</v>
       </c>
     </row>
     <row r="384">
@@ -24278,7 +24278,7 @@
         <v>21.5553</v>
       </c>
       <c r="T384" t="n">
-        <v>24.52024429409363</v>
+        <v>60.20275753978601</v>
       </c>
     </row>
     <row r="385">
@@ -24340,7 +24340,7 @@
         <v>50.0004</v>
       </c>
       <c r="T385" t="n">
-        <v>15.05694605841646</v>
+        <v>202.3014854489483</v>
       </c>
     </row>
     <row r="386">
@@ -24402,7 +24402,7 @@
         <v>5.2401</v>
       </c>
       <c r="T386" t="n">
-        <v>3.532903155619851</v>
+        <v>30.40477657045631</v>
       </c>
     </row>
     <row r="387">
@@ -24464,7 +24464,7 @@
         <v>-1</v>
       </c>
       <c r="T387" t="n">
-        <v>0</v>
+        <v>35.24579897849556</v>
       </c>
     </row>
     <row r="388">
@@ -24526,7 +24526,7 @@
         <v>20.0004</v>
       </c>
       <c r="T388" t="n">
-        <v>6.070606962032158</v>
+        <v>23.87999539986105</v>
       </c>
     </row>
     <row r="389">
@@ -24588,7 +24588,7 @@
         <v>109</v>
       </c>
       <c r="T389" t="n">
-        <v>28.50307202286887</v>
+        <v>127.0323161058751</v>
       </c>
     </row>
     <row r="390">
@@ -24650,7 +24650,7 @@
         <v>33</v>
       </c>
       <c r="T390" t="n">
-        <v>5.397272061632979</v>
+        <v>37.30112709926652</v>
       </c>
     </row>
     <row r="391">
@@ -24712,7 +24712,7 @@
         <v>295.0005</v>
       </c>
       <c r="T391" t="n">
-        <v>0</v>
+        <v>258.6282107913204</v>
       </c>
     </row>
     <row r="392">
@@ -24774,7 +24774,7 @@
         <v>0.6499</v>
       </c>
       <c r="T392" t="n">
-        <v>1.277505677950963</v>
+        <v>65.4814758298841</v>
       </c>
     </row>
     <row r="393">
@@ -24836,7 +24836,7 @@
         <v>0.8001</v>
       </c>
       <c r="T393" t="n">
-        <v>0</v>
+        <v>12.37575087928299</v>
       </c>
     </row>
     <row r="394">
@@ -24898,7 +24898,7 @@
         <v>2.7258</v>
       </c>
       <c r="T394" t="n">
-        <v>0</v>
+        <v>36.4595677923081</v>
       </c>
     </row>
     <row r="395">
@@ -24960,7 +24960,7 @@
         <v>33.9999</v>
       </c>
       <c r="T395" t="n">
-        <v>6.070606962032158</v>
+        <v>49.17438374769669</v>
       </c>
     </row>
     <row r="396">
@@ -25022,7 +25022,7 @@
         <v>3.9042</v>
       </c>
       <c r="T396" t="n">
-        <v>3.566694807706487</v>
+        <v>30.62571447862334</v>
       </c>
     </row>
     <row r="397">
@@ -25084,7 +25084,7 @@
         <v>21.0001</v>
       </c>
       <c r="T397" t="n">
-        <v>8.454417673981018</v>
+        <v>89.71025577718697</v>
       </c>
     </row>
     <row r="398">
@@ -25146,7 +25146,7 @@
         <v>27.6298</v>
       </c>
       <c r="T398" t="n">
-        <v>0</v>
+        <v>80.46820917315453</v>
       </c>
     </row>
     <row r="399">
@@ -25208,7 +25208,7 @@
         <v>13.2763</v>
       </c>
       <c r="T399" t="n">
-        <v>0</v>
+        <v>24.97900720531523</v>
       </c>
     </row>
     <row r="400">
@@ -25270,7 +25270,7 @@
         <v>8.0001</v>
       </c>
       <c r="T400" t="n">
-        <v>0</v>
+        <v>90.30313797483895</v>
       </c>
     </row>
     <row r="401">
@@ -25332,7 +25332,7 @@
         <v>1.3001</v>
       </c>
       <c r="T401" t="n">
-        <v>0</v>
+        <v>33.00015751927955</v>
       </c>
     </row>
     <row r="402">
@@ -25394,7 +25394,7 @@
         <v>1.1497</v>
       </c>
       <c r="T402" t="n">
-        <v>3.582947488421541</v>
+        <v>23.28313619673405</v>
       </c>
     </row>
     <row r="403">
@@ -25456,7 +25456,7 @@
         <v>0.8001</v>
       </c>
       <c r="T403" t="n">
-        <v>5.567043565552586</v>
+        <v>42.49571985902465</v>
       </c>
     </row>
     <row r="404">
@@ -25518,7 +25518,7 @@
         <v>4</v>
       </c>
       <c r="T404" t="n">
-        <v>1.673466980454494</v>
+        <v>6.449016493358303</v>
       </c>
     </row>
     <row r="405">
@@ -25580,7 +25580,7 @@
         <v>19.4998</v>
       </c>
       <c r="T405" t="n">
-        <v>3.770218176819881</v>
+        <v>49.96443947194718</v>
       </c>
     </row>
     <row r="406">
@@ -25642,7 +25642,7 @@
         <v>-1</v>
       </c>
       <c r="T406" t="n">
-        <v>0</v>
+        <v>28.78301742946591</v>
       </c>
     </row>
     <row r="407">
@@ -25704,7 +25704,7 @@
         <v>22.5004</v>
       </c>
       <c r="T407" t="n">
-        <v>43.17147135688047</v>
+        <v>46.73531793984055</v>
       </c>
     </row>
     <row r="408">
@@ -25766,7 +25766,7 @@
         <v>65.00059999999999</v>
       </c>
       <c r="T408" t="n">
-        <v>135.9658845321659</v>
+        <v>158.3225261446039</v>
       </c>
     </row>
     <row r="409">
@@ -25828,7 +25828,7 @@
         <v>72.50020000000001</v>
       </c>
       <c r="T409" t="n">
-        <v>157.8344205083661</v>
+        <v>185.3582554013641</v>
       </c>
     </row>
     <row r="410">
@@ -25890,7 +25890,7 @@
         <v>1.5002</v>
       </c>
       <c r="T410" t="n">
-        <v>2.219169498859267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -25952,7 +25952,7 @@
         <v>-1</v>
       </c>
       <c r="T411" t="n">
-        <v>12.59488404604575</v>
+        <v>27.37722311472422</v>
       </c>
     </row>
     <row r="412">
@@ -26014,7 +26014,7 @@
         <v>16.0003</v>
       </c>
       <c r="T412" t="n">
-        <v>33.63228492668435</v>
+        <v>43.00842050043255</v>
       </c>
     </row>
     <row r="413">
@@ -26076,7 +26076,7 @@
         <v>57.5006</v>
       </c>
       <c r="T413" t="n">
-        <v>115.0291068487224</v>
+        <v>112.4100789512468</v>
       </c>
     </row>
     <row r="414">
@@ -26138,7 +26138,7 @@
         <v>2.3243</v>
       </c>
       <c r="T414" t="n">
-        <v>6.777030729779233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -26200,7 +26200,7 @@
         <v>-1</v>
       </c>
       <c r="T415" t="n">
-        <v>0</v>
+        <v>21.58056268503971</v>
       </c>
     </row>
     <row r="416">
@@ -26262,7 +26262,7 @@
         <v>11.0005</v>
       </c>
       <c r="T416" t="n">
-        <v>30.65486766235457</v>
+        <v>43.35746091209615</v>
       </c>
     </row>
     <row r="417">
@@ -26324,7 +26324,7 @@
         <v>68.2256</v>
       </c>
       <c r="T417" t="n">
-        <v>84.65912430711832</v>
+        <v>273.4304797935461</v>
       </c>
     </row>
     <row r="418">
@@ -26386,7 +26386,7 @@
         <v>10.7781</v>
       </c>
       <c r="T418" t="n">
-        <v>33.04939200892451</v>
+        <v>24.92955042530518</v>
       </c>
     </row>
     <row r="419">
@@ -26448,7 +26448,7 @@
         <v>24.9998</v>
       </c>
       <c r="T419" t="n">
-        <v>41.84611789887886</v>
+        <v>142.9104371281389</v>
       </c>
     </row>
     <row r="420">
@@ -26510,7 +26510,7 @@
         <v>2.6198</v>
       </c>
       <c r="T420" t="n">
-        <v>2.307805999078021</v>
+        <v>14.2575452432904</v>
       </c>
     </row>
     <row r="421">
@@ -26572,7 +26572,7 @@
         <v>-1</v>
       </c>
       <c r="T421" t="n">
-        <v>9.796006149467361</v>
+        <v>22.73928659530663</v>
       </c>
     </row>
     <row r="422">
@@ -26696,7 +26696,7 @@
         <v>10</v>
       </c>
       <c r="T423" t="n">
-        <v>17.31146236816933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -26758,7 +26758,7 @@
         <v>54.5001</v>
       </c>
       <c r="T424" t="n">
-        <v>47.44324098965968</v>
+        <v>50.55052102243024</v>
       </c>
     </row>
     <row r="425">
@@ -26820,7 +26820,7 @@
         <v>-1</v>
       </c>
       <c r="T425" t="n">
-        <v>92.2068001394871</v>
+        <v>41.45238993127971</v>
       </c>
     </row>
     <row r="426">
@@ -26882,7 +26882,7 @@
         <v>16.4999</v>
       </c>
       <c r="T426" t="n">
-        <v>18.4394465593262</v>
+        <v>13.35644724053437</v>
       </c>
     </row>
     <row r="427">
@@ -26944,7 +26944,7 @@
         <v>147.5008</v>
       </c>
       <c r="T427" t="n">
-        <v>160.3307154399166</v>
+        <v>248.235969659123</v>
       </c>
     </row>
     <row r="428">
@@ -27130,7 +27130,7 @@
         <v>-1</v>
       </c>
       <c r="T430" t="n">
-        <v>0</v>
+        <v>21.58056268503971</v>
       </c>
     </row>
     <row r="431">
@@ -27192,7 +27192,7 @@
         <v>1.3629</v>
       </c>
       <c r="T431" t="n">
-        <v>0</v>
+        <v>16.96171011399178</v>
       </c>
     </row>
     <row r="432">
@@ -27254,7 +27254,7 @@
         <v>17.0003</v>
       </c>
       <c r="T432" t="n">
-        <v>99.04550536466516</v>
+        <v>78.87716628497347</v>
       </c>
     </row>
     <row r="433">
@@ -27316,7 +27316,7 @@
         <v>1.9376</v>
       </c>
       <c r="T433" t="n">
-        <v>6.662733724224356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -27378,7 +27378,7 @@
         <v>10.4999</v>
       </c>
       <c r="T434" t="n">
-        <v>41.12733272511723</v>
+        <v>60.15653061026695</v>
       </c>
     </row>
     <row r="435">
@@ -27440,7 +27440,7 @@
         <v>13.8146</v>
       </c>
       <c r="T435" t="n">
-        <v>33.76619832745385</v>
+        <v>39.84227108082002</v>
       </c>
     </row>
     <row r="436">
@@ -27502,7 +27502,7 @@
         <v>6.6018</v>
       </c>
       <c r="T436" t="n">
-        <v>7.517843841651213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -27564,7 +27564,7 @@
         <v>4.0001</v>
       </c>
       <c r="T437" t="n">
-        <v>19.70444883733326</v>
+        <v>24.24715847561989</v>
       </c>
     </row>
     <row r="438">
@@ -27626,7 +27626,7 @@
         <v>0.6501</v>
       </c>
       <c r="T438" t="n">
-        <v>2.593617969749599</v>
+        <v>15.81846015656623</v>
       </c>
     </row>
     <row r="439">
@@ -27688,7 +27688,7 @@
         <v>0.5753</v>
       </c>
       <c r="T439" t="n">
-        <v>2.91273389774508</v>
+        <v>4.963938297465825</v>
       </c>
     </row>
     <row r="440">
@@ -27750,7 +27750,7 @@
         <v>-1</v>
       </c>
       <c r="T440" t="n">
-        <v>23.08040857441952</v>
+        <v>9.663720311878864</v>
       </c>
     </row>
     <row r="441">
@@ -27812,7 +27812,7 @@
         <v>0.4001</v>
       </c>
       <c r="T441" t="n">
-        <v>9.796006149467361</v>
+        <v>20.58813961675646</v>
       </c>
     </row>
     <row r="442">
@@ -27874,7 +27874,7 @@
         <v>1.9998</v>
       </c>
       <c r="T442" t="n">
-        <v>68.24434894570413</v>
+        <v>5.464370481547896</v>
       </c>
     </row>
     <row r="443">
@@ -27936,7 +27936,7 @@
         <v>9.750299999999999</v>
       </c>
       <c r="T443" t="n">
-        <v>38.71572681684042</v>
+        <v>18.92205585334143</v>
       </c>
     </row>
     <row r="444">
@@ -27998,7 +27998,7 @@
         <v>-1</v>
       </c>
       <c r="T444" t="n">
-        <v>61.71457168426476</v>
+        <v>46.21858762482427</v>
       </c>
     </row>
     <row r="445">
@@ -28060,7 +28060,7 @@
         <v>65.24979999999999</v>
       </c>
       <c r="T445" t="n">
-        <v>50.41902782231946</v>
+        <v>11.12793141938261</v>
       </c>
     </row>
     <row r="446">
@@ -28122,7 +28122,7 @@
         <v>187.5</v>
       </c>
       <c r="T446" t="n">
-        <v>118.9675653212719</v>
+        <v>179.9183019821174</v>
       </c>
     </row>
     <row r="447">
@@ -28184,7 +28184,7 @@
         <v>206.2503</v>
       </c>
       <c r="T447" t="n">
-        <v>120.8199411820588</v>
+        <v>201.836148624301</v>
       </c>
     </row>
     <row r="448">
@@ -28246,7 +28246,7 @@
         <v>4.2003</v>
       </c>
       <c r="T448" t="n">
-        <v>1.388869677125878</v>
+        <v>3.088450227788057</v>
       </c>
     </row>
     <row r="449">
@@ -28308,7 +28308,7 @@
         <v>-1</v>
       </c>
       <c r="T449" t="n">
-        <v>0</v>
+        <v>21.91694386967364</v>
       </c>
     </row>
     <row r="450">
@@ -28370,7 +28370,7 @@
         <v>45.4499</v>
       </c>
       <c r="T450" t="n">
-        <v>38.86762621888938</v>
+        <v>38.97882935173417</v>
       </c>
     </row>
     <row r="451">
@@ -28432,7 +28432,7 @@
         <v>162.7504</v>
       </c>
       <c r="T451" t="n">
-        <v>128.9957653115842</v>
+        <v>123.9829277213847</v>
       </c>
     </row>
     <row r="452">
@@ -28494,7 +28494,7 @@
         <v>6.5762</v>
       </c>
       <c r="T452" t="n">
-        <v>4.644796049992463</v>
+        <v>9.474739088815326</v>
       </c>
     </row>
     <row r="453">
@@ -28556,7 +28556,7 @@
         <v>-1</v>
       </c>
       <c r="T453" t="n">
-        <v>0</v>
+        <v>22.52221973590868</v>
       </c>
     </row>
     <row r="454">
@@ -28618,7 +28618,7 @@
         <v>30.75</v>
       </c>
       <c r="T454" t="n">
-        <v>49.83273841017967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -28680,7 +28680,7 @@
         <v>189.676</v>
       </c>
       <c r="T455" t="n">
-        <v>58.30929596062147</v>
+        <v>201.3855229829871</v>
       </c>
     </row>
     <row r="456">
@@ -28742,7 +28742,7 @@
         <v>30.5996</v>
       </c>
       <c r="T456" t="n">
-        <v>30.71625567582247</v>
+        <v>38.06610489190773</v>
       </c>
     </row>
     <row r="457">
@@ -28804,7 +28804,7 @@
         <v>68.2499</v>
       </c>
       <c r="T457" t="n">
-        <v>46.62932553185043</v>
+        <v>172.0562619086033</v>
       </c>
     </row>
     <row r="458">
@@ -28866,7 +28866,7 @@
         <v>7.2598</v>
       </c>
       <c r="T458" t="n">
-        <v>0.767742143990043</v>
+        <v>35.05132066798013</v>
       </c>
     </row>
     <row r="459">
@@ -28928,7 +28928,7 @@
         <v>-1</v>
       </c>
       <c r="T459" t="n">
-        <v>0</v>
+        <v>31.37696615623416</v>
       </c>
     </row>
     <row r="460">
@@ -28990,7 +28990,7 @@
         <v>-1</v>
       </c>
       <c r="T460" t="n">
-        <v>0</v>
+        <v>40.6557297237532</v>
       </c>
     </row>
     <row r="461">
@@ -29052,7 +29052,7 @@
         <v>-1</v>
       </c>
       <c r="T461" t="n">
-        <v>0</v>
+        <v>5.106333910109778</v>
       </c>
     </row>
     <row r="462">
@@ -29114,7 +29114,7 @@
         <v>28.4999</v>
       </c>
       <c r="T462" t="n">
-        <v>42.70976077688461</v>
+        <v>12.46311227301902</v>
       </c>
     </row>
     <row r="463">
@@ -29176,7 +29176,7 @@
         <v>154.4998</v>
       </c>
       <c r="T463" t="n">
-        <v>70.68479823915527</v>
+        <v>27.63589776245904</v>
       </c>
     </row>
     <row r="464">
@@ -29238,7 +29238,7 @@
         <v>47.4</v>
       </c>
       <c r="T464" t="n">
-        <v>33.38572893897404</v>
+        <v>30.86366722640973</v>
       </c>
     </row>
     <row r="465">
@@ -29300,7 +29300,7 @@
         <v>423.7501</v>
       </c>
       <c r="T465" t="n">
-        <v>160.9980157377019</v>
+        <v>248.2049776868297</v>
       </c>
     </row>
     <row r="466">
@@ -29362,7 +29362,7 @@
         <v>0.9003</v>
       </c>
       <c r="T466" t="n">
-        <v>0.01572826222907236</v>
+        <v>7.978531430241222</v>
       </c>
     </row>
     <row r="467">
@@ -29424,7 +29424,7 @@
         <v>1.1251</v>
       </c>
       <c r="T467" t="n">
-        <v>0</v>
+        <v>6.374827433460102</v>
       </c>
     </row>
     <row r="468">
@@ -29486,7 +29486,7 @@
         <v>-1</v>
       </c>
       <c r="T468" t="n">
-        <v>0</v>
+        <v>35.42903585829398</v>
       </c>
     </row>
     <row r="469">
@@ -29548,7 +29548,7 @@
         <v>3.9384</v>
       </c>
       <c r="T469" t="n">
-        <v>0</v>
+        <v>35.42934192394787</v>
       </c>
     </row>
     <row r="470">
@@ -29610,7 +29610,7 @@
         <v>46.95</v>
       </c>
       <c r="T470" t="n">
-        <v>43.31816758264755</v>
+        <v>69.2603473569575</v>
       </c>
     </row>
     <row r="471">
@@ -29672,7 +29672,7 @@
         <v>5.6121</v>
       </c>
       <c r="T471" t="n">
-        <v>1.089034579767617</v>
+        <v>26.03316721203177</v>
       </c>
     </row>
     <row r="472">
@@ -29734,7 +29734,7 @@
         <v>29.6996</v>
       </c>
       <c r="T472" t="n">
-        <v>43.44522823697739</v>
+        <v>70.54135716203048</v>
       </c>
     </row>
     <row r="473">
@@ -29796,7 +29796,7 @@
         <v>40.7794</v>
       </c>
       <c r="T473" t="n">
-        <v>67.35457717851243</v>
+        <v>47.71949580338305</v>
       </c>
     </row>
     <row r="474">
@@ -29858,7 +29858,7 @@
         <v>19.1484</v>
       </c>
       <c r="T474" t="n">
-        <v>9.771393987904814</v>
+        <v>21.78242287011096</v>
       </c>
     </row>
     <row r="475">
@@ -29920,7 +29920,7 @@
         <v>11.55</v>
       </c>
       <c r="T475" t="n">
-        <v>31.93602685858796</v>
+        <v>47.53985688569752</v>
       </c>
     </row>
     <row r="476">
@@ -29982,7 +29982,7 @@
         <v>1.9048</v>
       </c>
       <c r="T476" t="n">
-        <v>1.135566969500604</v>
+        <v>35.95093136851492</v>
       </c>
     </row>
     <row r="477">
@@ -30044,7 +30044,7 @@
         <v>1.5753</v>
       </c>
       <c r="T477" t="n">
-        <v>0</v>
+        <v>19.06719011651154</v>
       </c>
     </row>
     <row r="478">
@@ -30106,7 +30106,7 @@
         <v>1.1254</v>
       </c>
       <c r="T478" t="n">
-        <v>1.318983859982888</v>
+        <v>29.24663204766738</v>
       </c>
     </row>
     <row r="479">
@@ -30168,7 +30168,7 @@
         <v>5.5501</v>
       </c>
       <c r="T479" t="n">
-        <v>0</v>
+        <v>26.4865883837833</v>
       </c>
     </row>
     <row r="480">
@@ -30230,7 +30230,7 @@
         <v>27.8997</v>
       </c>
       <c r="T480" t="n">
-        <v>49.90164486013819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -30292,7 +30292,7 @@
         <v>-1</v>
       </c>
       <c r="T481" t="n">
-        <v>67.66751245756667</v>
+        <v>84.39024531175917</v>
       </c>
     </row>
     <row r="482">
@@ -30354,7 +30354,7 @@
         <v>70.25019999999999</v>
       </c>
       <c r="T482" t="n">
-        <v>49.9812207036703</v>
+        <v>48.2531566373458</v>
       </c>
     </row>
     <row r="483">
@@ -30416,7 +30416,7 @@
         <v>225.0006</v>
       </c>
       <c r="T483" t="n">
-        <v>87.85304240149998</v>
+        <v>458.1057927577524</v>
       </c>
     </row>
     <row r="484">
@@ -30478,7 +30478,7 @@
         <v>336.0003</v>
       </c>
       <c r="T484" t="n">
-        <v>171.8167541509306</v>
+        <v>680.5700657911897</v>
       </c>
     </row>
     <row r="485">
@@ -30540,7 +30540,7 @@
         <v>4.2006</v>
       </c>
       <c r="T485" t="n">
-        <v>2.029870409638979</v>
+        <v>50.19722100529777</v>
       </c>
     </row>
     <row r="486">
@@ -30602,7 +30602,7 @@
         <v>-1</v>
       </c>
       <c r="T486" t="n">
-        <v>0</v>
+        <v>40.08957275720829</v>
       </c>
     </row>
     <row r="487">
@@ -30664,7 +30664,7 @@
         <v>49.95</v>
       </c>
       <c r="T487" t="n">
-        <v>50.31069993564042</v>
+        <v>18.48812595272776</v>
       </c>
     </row>
     <row r="488">
@@ -30726,7 +30726,7 @@
         <v>179.9998</v>
       </c>
       <c r="T488" t="n">
-        <v>86.57601490903747</v>
+        <v>444.2490987926383</v>
       </c>
     </row>
     <row r="489">
@@ -30788,7 +30788,7 @@
         <v>8.575799999999999</v>
       </c>
       <c r="T489" t="n">
-        <v>9.224297683075243</v>
+        <v>26.84599499600096</v>
       </c>
     </row>
     <row r="490">
@@ -30850,7 +30850,7 @@
         <v>-1</v>
       </c>
       <c r="T490" t="n">
-        <v>0</v>
+        <v>43.03124628127835</v>
       </c>
     </row>
     <row r="491">
@@ -30912,7 +30912,7 @@
         <v>50.2502</v>
       </c>
       <c r="T491" t="n">
-        <v>59.5317691505345</v>
+        <v>58.18225402988588</v>
       </c>
     </row>
     <row r="492">
@@ -30974,7 +30974,7 @@
         <v>270.0002</v>
       </c>
       <c r="T492" t="n">
-        <v>83.10212224547176</v>
+        <v>299.376464941359</v>
       </c>
     </row>
     <row r="493">
@@ -31036,7 +31036,7 @@
         <v>-1</v>
       </c>
       <c r="T493" t="n">
-        <v>7.732080211164063</v>
+        <v>80.82712710055644</v>
       </c>
     </row>
     <row r="494">
@@ -31098,7 +31098,7 @@
         <v>28.5997</v>
       </c>
       <c r="T494" t="n">
-        <v>36.3320533049836</v>
+        <v>73.12677350735626</v>
       </c>
     </row>
     <row r="495">
@@ -31160,7 +31160,7 @@
         <v>66.0005</v>
       </c>
       <c r="T495" t="n">
-        <v>64.54663543176022</v>
+        <v>92.04325180401472</v>
       </c>
     </row>
     <row r="496">
@@ -31222,7 +31222,7 @@
         <v>7.2597</v>
       </c>
       <c r="T496" t="n">
-        <v>0.499038179973892</v>
+        <v>50.33461227053957</v>
       </c>
     </row>
     <row r="497">
@@ -31284,7 +31284,7 @@
         <v>-1</v>
       </c>
       <c r="T497" t="n">
-        <v>1.296234935935876</v>
+        <v>58.60064218367982</v>
       </c>
     </row>
     <row r="498">
@@ -31346,7 +31346,7 @@
         <v>-1</v>
       </c>
       <c r="T498" t="n">
-        <v>5.021738300335829</v>
+        <v>37.81454615991512</v>
       </c>
     </row>
     <row r="499">
@@ -31408,7 +31408,7 @@
         <v>39</v>
       </c>
       <c r="T499" t="n">
-        <v>56.70645446978546</v>
+        <v>80.93555498220182</v>
       </c>
     </row>
     <row r="500">
@@ -31470,7 +31470,7 @@
         <v>135</v>
       </c>
       <c r="T500" t="n">
-        <v>182.4502489951948</v>
+        <v>254.8020465681209</v>
       </c>
     </row>
     <row r="501">
@@ -31532,7 +31532,7 @@
         <v>-1</v>
       </c>
       <c r="T501" t="n">
-        <v>0</v>
+        <v>23.96555424088506</v>
       </c>
     </row>
     <row r="502">
@@ -31594,7 +31594,7 @@
         <v>43.0003</v>
       </c>
       <c r="T502" t="n">
-        <v>56.66925894472545</v>
+        <v>86.20965335621783</v>
       </c>
     </row>
     <row r="503">
@@ -31656,7 +31656,7 @@
         <v>440.0004</v>
       </c>
       <c r="T503" t="n">
-        <v>48.02112035679279</v>
+        <v>545.25638891859</v>
       </c>
     </row>
     <row r="504">
@@ -31718,7 +31718,7 @@
         <v>0.8247</v>
       </c>
       <c r="T504" t="n">
-        <v>0.448155169287312</v>
+        <v>27.58229974709943</v>
       </c>
     </row>
     <row r="505">
@@ -31780,7 +31780,7 @@
         <v>0.825</v>
       </c>
       <c r="T505" t="n">
-        <v>0</v>
+        <v>23.59523734528157</v>
       </c>
     </row>
     <row r="506">
@@ -31842,7 +31842,7 @@
         <v>-1</v>
       </c>
       <c r="T506" t="n">
-        <v>7.732080211164063</v>
+        <v>51.3958664483355</v>
       </c>
     </row>
     <row r="507">
@@ -31904,7 +31904,7 @@
         <v>2.35</v>
       </c>
       <c r="T507" t="n">
-        <v>1.437395278036978</v>
+        <v>35.29922172350186</v>
       </c>
     </row>
     <row r="508">
@@ -31966,7 +31966,7 @@
         <v>43.0001</v>
       </c>
       <c r="T508" t="n">
-        <v>30.57290298761878</v>
+        <v>42.70188180614669</v>
       </c>
     </row>
     <row r="509">
@@ -32028,7 +32028,7 @@
         <v>-1</v>
       </c>
       <c r="T509" t="n">
-        <v>23.6108951982657</v>
+        <v>127.4800371256067</v>
       </c>
     </row>
     <row r="510">
@@ -32090,7 +32090,7 @@
         <v>5.5571</v>
       </c>
       <c r="T510" t="n">
-        <v>7.163480294678739</v>
+        <v>35.60814873640302</v>
       </c>
     </row>
     <row r="511">
@@ -32152,7 +32152,7 @@
         <v>49.001</v>
       </c>
       <c r="T511" t="n">
-        <v>41.21580881914959</v>
+        <v>95.75029183474774</v>
       </c>
     </row>
     <row r="512">
@@ -32214,7 +32214,7 @@
         <v>60.98840000000001</v>
       </c>
       <c r="T512" t="n">
-        <v>77.53254777997383</v>
+        <v>115.3358069086376</v>
       </c>
     </row>
     <row r="513">
@@ -32276,7 +32276,7 @@
         <v>18.9569</v>
       </c>
       <c r="T513" t="n">
-        <v>20.15037823872079</v>
+        <v>71.60373965674168</v>
       </c>
     </row>
     <row r="514">
@@ -32338,7 +32338,7 @@
         <v>19.0499</v>
       </c>
       <c r="T514" t="n">
-        <v>34.91250047581813</v>
+        <v>62.16574740893</v>
       </c>
     </row>
     <row r="515">
@@ -32400,7 +32400,7 @@
         <v>1.9048</v>
       </c>
       <c r="T515" t="n">
-        <v>0.8585684882850119</v>
+        <v>54.03946191775956</v>
       </c>
     </row>
     <row r="516">
@@ -32462,7 +32462,7 @@
         <v>-1</v>
       </c>
       <c r="T516" t="n">
-        <v>7.732080211164063</v>
+        <v>80.82712710055644</v>
       </c>
     </row>
     <row r="517">
@@ -32524,7 +32524,7 @@
         <v>1.5748</v>
       </c>
       <c r="T517" t="n">
-        <v>2.138303379182629</v>
+        <v>42.73028269687068</v>
       </c>
     </row>
     <row r="518">
@@ -32586,7 +32586,7 @@
         <v>-1</v>
       </c>
       <c r="T518" t="n">
-        <v>38.76964927072741</v>
+        <v>47.15609902129064</v>
       </c>
     </row>
     <row r="519">
@@ -32648,7 +32648,7 @@
         <v>0.8253</v>
       </c>
       <c r="T519" t="n">
-        <v>12.76102926336774</v>
+        <v>60.5203891833243</v>
       </c>
     </row>
     <row r="520">
@@ -32710,7 +32710,7 @@
         <v>4.4997</v>
       </c>
       <c r="T520" t="n">
-        <v>2.747666372016991</v>
+        <v>42.45405946499959</v>
       </c>
     </row>
     <row r="521">
@@ -32772,7 +32772,7 @@
         <v>47.0002</v>
       </c>
       <c r="T521" t="n">
-        <v>70.07052418376367</v>
+        <v>5.57725252519158</v>
       </c>
     </row>
     <row r="522">
@@ -32834,7 +32834,7 @@
         <v>10</v>
       </c>
       <c r="T522" t="n">
-        <v>30.15967533216033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -32896,7 +32896,7 @@
         <v>85.2572</v>
       </c>
       <c r="T523" t="n">
-        <v>30.96222521293795</v>
+        <v>30.27297325044573</v>
       </c>
     </row>
     <row r="524">
@@ -32958,7 +32958,7 @@
         <v>273.3009</v>
       </c>
       <c r="T524" t="n">
-        <v>118.0538263847506</v>
+        <v>229.2806399898241</v>
       </c>
     </row>
     <row r="525">
@@ -33020,7 +33020,7 @@
         <v>409.6</v>
       </c>
       <c r="T525" t="n">
-        <v>105.1282033182321</v>
+        <v>293.2713974191764</v>
       </c>
     </row>
     <row r="526">
@@ -33082,7 +33082,7 @@
         <v>5.1661</v>
       </c>
       <c r="T526" t="n">
-        <v>0</v>
+        <v>9.508117940750624</v>
       </c>
     </row>
     <row r="527">
@@ -33144,7 +33144,7 @@
         <v>-1</v>
       </c>
       <c r="T527" t="n">
-        <v>0</v>
+        <v>84.66138807258659</v>
       </c>
     </row>
     <row r="528">
@@ -33206,7 +33206,7 @@
         <v>61.4383</v>
       </c>
       <c r="T528" t="n">
-        <v>46.38040646711057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -33268,7 +33268,7 @@
         <v>221.3998</v>
       </c>
       <c r="T529" t="n">
-        <v>123.054197568649</v>
+        <v>195.3215309194585</v>
       </c>
     </row>
     <row r="530">
@@ -33330,7 +33330,7 @@
         <v>10.5488</v>
       </c>
       <c r="T530" t="n">
-        <v>6.370069311416455</v>
+        <v>7.772428981902362</v>
       </c>
     </row>
     <row r="531">
@@ -33392,7 +33392,7 @@
         <v>-1</v>
       </c>
       <c r="T531" t="n">
-        <v>0</v>
+        <v>6.369965011223336</v>
       </c>
     </row>
     <row r="532">
@@ -33454,7 +33454,7 @@
         <v>61.8075</v>
       </c>
       <c r="T532" t="n">
-        <v>49.5553720163269</v>
+        <v>78.13260445776862</v>
       </c>
     </row>
     <row r="533">
@@ -33516,7 +33516,7 @@
         <v>332.0997</v>
       </c>
       <c r="T533" t="n">
-        <v>115.9481919781151</v>
+        <v>21.5090799914246</v>
       </c>
     </row>
     <row r="534">
@@ -33578,7 +33578,7 @@
         <v>35.1775</v>
       </c>
       <c r="T534" t="n">
-        <v>21.95768231040099</v>
+        <v>31.91266533147037</v>
       </c>
     </row>
     <row r="535">
@@ -33640,7 +33640,7 @@
         <v>81.17989999999999</v>
       </c>
       <c r="T535" t="n">
-        <v>38.07280461729421</v>
+        <v>76.54028997144877</v>
       </c>
     </row>
     <row r="536">
@@ -33702,7 +33702,7 @@
         <v>8.9291</v>
       </c>
       <c r="T536" t="n">
-        <v>0</v>
+        <v>10.62157626805262</v>
       </c>
     </row>
     <row r="537">
@@ -33764,7 +33764,7 @@
         <v>-1</v>
       </c>
       <c r="T537" t="n">
-        <v>0</v>
+        <v>7.075882924215322</v>
       </c>
     </row>
     <row r="538">
@@ -33826,7 +33826,7 @@
         <v>-1</v>
       </c>
       <c r="T538" t="n">
-        <v>0</v>
+        <v>15.75961729028689</v>
       </c>
     </row>
     <row r="539">
@@ -33888,7 +33888,7 @@
         <v>47.9702</v>
       </c>
       <c r="T539" t="n">
-        <v>29.45598019973571</v>
+        <v>42.89890122561027</v>
       </c>
     </row>
     <row r="540">
@@ -33950,7 +33950,7 @@
         <v>-1</v>
       </c>
       <c r="T540" t="n">
-        <v>96.64444044477682</v>
+        <v>14.09474703071846</v>
       </c>
     </row>
     <row r="541">
@@ -34012,7 +34012,7 @@
         <v>-1</v>
       </c>
       <c r="T541" t="n">
-        <v>6.405200006925729</v>
+        <v>1.944983633658486</v>
       </c>
     </row>
     <row r="542">
@@ -34074,7 +34074,7 @@
         <v>52.8901</v>
       </c>
       <c r="T542" t="n">
-        <v>29.45598019973571</v>
+        <v>43.31195235414367</v>
       </c>
     </row>
     <row r="543">
@@ -34136,7 +34136,7 @@
         <v>541.1995000000001</v>
       </c>
       <c r="T543" t="n">
-        <v>99.19252930633156</v>
+        <v>213.1771345426047</v>
       </c>
     </row>
     <row r="544">
@@ -34260,7 +34260,7 @@
         <v>1.0142</v>
       </c>
       <c r="T545" t="n">
-        <v>0</v>
+        <v>13.26406203371899</v>
       </c>
     </row>
     <row r="546">
@@ -34322,7 +34322,7 @@
         <v>2.8901</v>
       </c>
       <c r="T546" t="n">
-        <v>0</v>
+        <v>23.54663983712219</v>
       </c>
     </row>
     <row r="547">
@@ -34384,7 +34384,7 @@
         <v>52.89</v>
       </c>
       <c r="T547" t="n">
-        <v>35.04097617777295</v>
+        <v>43.09436144378117</v>
       </c>
     </row>
     <row r="548">
@@ -34508,7 +34508,7 @@
         <v>7.038499999999999</v>
       </c>
       <c r="T549" t="n">
-        <v>0</v>
+        <v>11.25142784813602</v>
       </c>
     </row>
     <row r="550">
@@ -34570,7 +34570,7 @@
         <v>60.2702</v>
       </c>
       <c r="T550" t="n">
-        <v>42.65520564004105</v>
+        <v>38.81945622353761</v>
       </c>
     </row>
     <row r="551">
@@ -34632,7 +34632,7 @@
         <v>-1</v>
       </c>
       <c r="T551" t="n">
-        <v>48.02808755857738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -34694,7 +34694,7 @@
         <v>24.0996</v>
       </c>
       <c r="T552" t="n">
-        <v>9.202246798141886</v>
+        <v>20.95227369771802</v>
       </c>
     </row>
     <row r="553">
@@ -34756,7 +34756,7 @@
         <v>23.4313</v>
       </c>
       <c r="T553" t="n">
-        <v>37.71118932603004</v>
+        <v>61.45501270002959</v>
       </c>
     </row>
     <row r="554">
@@ -34818,7 +34818,7 @@
         <v>2.3431</v>
       </c>
       <c r="T554" t="n">
-        <v>1.743928970048008</v>
+        <v>20.56801350913266</v>
       </c>
     </row>
     <row r="555">
@@ -34880,7 +34880,7 @@
         <v>-1</v>
       </c>
       <c r="T555" t="n">
-        <v>2.89771709359211</v>
+        <v>22.56130189401408</v>
       </c>
     </row>
     <row r="556">
@@ -34942,7 +34942,7 @@
         <v>1.9373</v>
       </c>
       <c r="T556" t="n">
-        <v>0</v>
+        <v>8.482938544224497</v>
       </c>
     </row>
     <row r="557">
@@ -35004,7 +35004,7 @@
         <v>1.0145</v>
       </c>
       <c r="T557" t="n">
-        <v>0</v>
+        <v>11.22233004763551</v>
       </c>
     </row>
     <row r="558">
@@ -35066,7 +35066,7 @@
         <v>5.5351</v>
       </c>
       <c r="T558" t="n">
-        <v>0</v>
+        <v>92.56158429018296</v>
       </c>
     </row>
     <row r="559">
@@ -35128,7 +35128,7 @@
         <v>47.0001</v>
       </c>
       <c r="T559" t="n">
-        <v>48.93984409148761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -35190,7 +35190,7 @@
         <v>-1</v>
       </c>
       <c r="T560" t="n">
-        <v>68.62070568210693</v>
+        <v>240.1777392810648</v>
       </c>
     </row>
     <row r="561">
@@ -35252,7 +35252,7 @@
         <v>72.20010000000001</v>
       </c>
       <c r="T561" t="n">
-        <v>38.61387858255009</v>
+        <v>56.33649307839117</v>
       </c>
     </row>
     <row r="562">
@@ -35314,7 +35314,7 @@
         <v>231.1114</v>
       </c>
       <c r="T562" t="n">
-        <v>139.5718631034981</v>
+        <v>389.0376900672998</v>
       </c>
     </row>
     <row r="563">
@@ -35376,7 +35376,7 @@
         <v>343.1307</v>
       </c>
       <c r="T563" t="n">
-        <v>149.7996573532854</v>
+        <v>406.5457049684082</v>
       </c>
     </row>
     <row r="564">
@@ -35438,7 +35438,7 @@
         <v>4.2774</v>
       </c>
       <c r="T564" t="n">
-        <v>1.623127129021207</v>
+        <v>26.8703057062784</v>
       </c>
     </row>
     <row r="565">
@@ -35500,7 +35500,7 @@
         <v>-1</v>
       </c>
       <c r="T565" t="n">
-        <v>51.73965269232138</v>
+        <v>125.2458865421687</v>
       </c>
     </row>
     <row r="566">
@@ -35562,7 +35562,7 @@
         <v>51.18680000000001</v>
       </c>
       <c r="T566" t="n">
-        <v>36.75438329375007</v>
+        <v>25.42261639714508</v>
       </c>
     </row>
     <row r="567">
@@ -35624,7 +35624,7 @@
         <v>183.8605</v>
       </c>
       <c r="T567" t="n">
-        <v>136.98376621728</v>
+        <v>343.6671304222035</v>
       </c>
     </row>
     <row r="568">
@@ -35686,7 +35686,7 @@
         <v>8.800599999999999</v>
       </c>
       <c r="T568" t="n">
-        <v>3.944143687125135</v>
+        <v>30.07153872104302</v>
       </c>
     </row>
     <row r="569">
@@ -35748,7 +35748,7 @@
         <v>-1</v>
       </c>
       <c r="T569" t="n">
-        <v>7.647282505892076</v>
+        <v>29.73305976487178</v>
       </c>
     </row>
     <row r="570">
@@ -35810,7 +35810,7 @@
         <v>51.5917</v>
       </c>
       <c r="T570" t="n">
-        <v>54.67669178659853</v>
+        <v>110.534711468088</v>
       </c>
     </row>
     <row r="571">
@@ -35872,7 +35872,7 @@
         <v>275.7907</v>
       </c>
       <c r="T571" t="n">
-        <v>134.1630489736089</v>
+        <v>286.2156724460713</v>
       </c>
     </row>
     <row r="572">
@@ -35934,7 +35934,7 @@
         <v>-1</v>
       </c>
       <c r="T572" t="n">
-        <v>7.647282505892076</v>
+        <v>20.99453686775012</v>
       </c>
     </row>
     <row r="573">
@@ -35996,7 +35996,7 @@
         <v>29.2229</v>
       </c>
       <c r="T573" t="n">
-        <v>14.60203578270628</v>
+        <v>51.94334126967097</v>
       </c>
     </row>
     <row r="574">
@@ -36058,7 +36058,7 @@
         <v>66.7841</v>
       </c>
       <c r="T574" t="n">
-        <v>49.6438278710888</v>
+        <v>220.4520891022354</v>
       </c>
     </row>
     <row r="575">
@@ -36120,7 +36120,7 @@
         <v>7.367699999999999</v>
       </c>
       <c r="T575" t="n">
-        <v>9.878239147775313</v>
+        <v>14.72723062290241</v>
       </c>
     </row>
     <row r="576">
@@ -36182,7 +36182,7 @@
         <v>-1</v>
       </c>
       <c r="T576" t="n">
-        <v>0</v>
+        <v>11.89976377768311</v>
       </c>
     </row>
     <row r="577">
@@ -36244,7 +36244,7 @@
         <v>39.9627</v>
       </c>
       <c r="T577" t="n">
-        <v>25.71141012058067</v>
+        <v>63.77187550898854</v>
       </c>
     </row>
     <row r="578">
@@ -36306,7 +36306,7 @@
         <v>138.5841</v>
       </c>
       <c r="T578" t="n">
-        <v>112.8298784206797</v>
+        <v>92.45441019142497</v>
       </c>
     </row>
     <row r="579">
@@ -36368,7 +36368,7 @@
         <v>-1</v>
       </c>
       <c r="T579" t="n">
-        <v>6.578296230650385</v>
+        <v>45.26814587610775</v>
       </c>
     </row>
     <row r="580">
@@ -36430,7 +36430,7 @@
         <v>44.1595</v>
       </c>
       <c r="T580" t="n">
-        <v>34.35686238876571</v>
+        <v>63.63921716588568</v>
       </c>
     </row>
     <row r="581">
@@ -36492,7 +36492,7 @@
         <v>452.3446</v>
       </c>
       <c r="T581" t="n">
-        <v>153.3570503807431</v>
+        <v>384.268056999264</v>
       </c>
     </row>
     <row r="582">
@@ -36616,7 +36616,7 @@
         <v>0.8353</v>
       </c>
       <c r="T583" t="n">
-        <v>0</v>
+        <v>33.34865021606509</v>
       </c>
     </row>
     <row r="584">
@@ -36678,7 +36678,7 @@
         <v>-1</v>
       </c>
       <c r="T584" t="n">
-        <v>0</v>
+        <v>11.89976377768311</v>
       </c>
     </row>
     <row r="585">
@@ -36740,7 +36740,7 @@
         <v>2.3993</v>
       </c>
       <c r="T585" t="n">
-        <v>0.1845021564597539</v>
+        <v>40.45026184994894</v>
       </c>
     </row>
     <row r="586">
@@ -36802,7 +36802,7 @@
         <v>43.6772</v>
       </c>
       <c r="T586" t="n">
-        <v>155.5896443206572</v>
+        <v>86.30737982501016</v>
       </c>
     </row>
     <row r="587">
@@ -36864,7 +36864,7 @@
         <v>5.755</v>
       </c>
       <c r="T587" t="n">
-        <v>5.533559366819795</v>
+        <v>30.54566771175018</v>
       </c>
     </row>
     <row r="588">
@@ -36926,7 +36926,7 @@
         <v>50.1278</v>
       </c>
       <c r="T588" t="n">
-        <v>47.72787172717184</v>
+        <v>90.24142303112107</v>
       </c>
     </row>
     <row r="589">
@@ -36988,7 +36988,7 @@
         <v>63.2574</v>
       </c>
       <c r="T589" t="n">
-        <v>53.98267715223027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590">
@@ -37050,7 +37050,7 @@
         <v>19.7054</v>
       </c>
       <c r="T590" t="n">
-        <v>9.178884513913705</v>
+        <v>35.15836510111044</v>
       </c>
     </row>
     <row r="591">
@@ -37112,7 +37112,7 @@
         <v>19.6838</v>
       </c>
       <c r="T591" t="n">
-        <v>42.09759396952587</v>
+        <v>84.75922560206283</v>
       </c>
     </row>
     <row r="592">
@@ -37174,7 +37174,7 @@
         <v>1.9685</v>
       </c>
       <c r="T592" t="n">
-        <v>4.241166237587663</v>
+        <v>23.41839131428397</v>
       </c>
     </row>
     <row r="593">
@@ -37236,7 +37236,7 @@
         <v>-1</v>
       </c>
       <c r="T593" t="n">
-        <v>4.706447021690954</v>
+        <v>29.22787026363496</v>
       </c>
     </row>
     <row r="594">
@@ -37298,7 +37298,7 @@
         <v>1.5924</v>
       </c>
       <c r="T594" t="n">
-        <v>1.528936622181847</v>
+        <v>26.2120913992934</v>
       </c>
     </row>
     <row r="595">
@@ -37360,7 +37360,7 @@
         <v>-1</v>
       </c>
       <c r="T595" t="n">
-        <v>39.18694940631454</v>
+        <v>12.5371858951602</v>
       </c>
     </row>
     <row r="596">
@@ -37422,7 +37422,7 @@
         <v>0.8353</v>
       </c>
       <c r="T596" t="n">
-        <v>0</v>
+        <v>11.89976377768311</v>
       </c>
     </row>
     <row r="597">
@@ -37484,7 +37484,7 @@
         <v>4.5427</v>
       </c>
       <c r="T597" t="n">
-        <v>0</v>
+        <v>95.69283025932273</v>
       </c>
     </row>
     <row r="598">
@@ -37546,7 +37546,7 @@
         <v>49.9997</v>
       </c>
       <c r="T598" t="n">
-        <v>34.35686238876571</v>
+        <v>63.53055084724327</v>
       </c>
     </row>
     <row r="599">
@@ -37608,7 +37608,7 @@
         <v>72.6339</v>
       </c>
       <c r="T599" t="n">
-        <v>68.0041537859411</v>
+        <v>63.47709876018139</v>
       </c>
     </row>
     <row r="600">
@@ -37670,7 +37670,7 @@
         <v>240.3169</v>
       </c>
       <c r="T600" t="n">
-        <v>198.9908211060289</v>
+        <v>574.4066815286587</v>
       </c>
     </row>
     <row r="601">
@@ -37732,7 +37732,7 @@
         <v>361.0804</v>
       </c>
       <c r="T601" t="n">
-        <v>292.5371767961745</v>
+        <v>527.1326343173704</v>
       </c>
     </row>
     <row r="602">
@@ -37794,7 +37794,7 @@
         <v>4.3693</v>
       </c>
       <c r="T602" t="n">
-        <v>3.924235330556888</v>
+        <v>8.433518844878495</v>
       </c>
     </row>
     <row r="603">
@@ -37856,7 +37856,7 @@
         <v>51.6017</v>
       </c>
       <c r="T603" t="n">
-        <v>64.59745349088472</v>
+        <v>68.59994757585534</v>
       </c>
     </row>
     <row r="604">
@@ -37918,7 +37918,7 @@
         <v>196.7636</v>
       </c>
       <c r="T604" t="n">
-        <v>197.8020841607201</v>
+        <v>534.5626791846339</v>
       </c>
     </row>
     <row r="605">
@@ -37980,7 +37980,7 @@
         <v>8.659699999999999</v>
       </c>
       <c r="T605" t="n">
-        <v>5.842732829629953</v>
+        <v>22.84628605293557</v>
       </c>
     </row>
     <row r="606">
@@ -38042,7 +38042,7 @@
         <v>51.3151</v>
       </c>
       <c r="T606" t="n">
-        <v>45.34019735930962</v>
+        <v>83.42388429432521</v>
       </c>
     </row>
     <row r="607">
@@ -38104,7 +38104,7 @@
         <v>-1</v>
       </c>
       <c r="T607" t="n">
-        <v>260.4270431054564</v>
+        <v>417.6379959793883</v>
       </c>
     </row>
     <row r="608">
@@ -38166,7 +38166,7 @@
         <v>29.6632</v>
       </c>
       <c r="T608" t="n">
-        <v>39.79479525624816</v>
+        <v>71.73104151798042</v>
       </c>
     </row>
     <row r="609">
@@ -38228,7 +38228,7 @@
         <v>71.3374</v>
       </c>
       <c r="T609" t="n">
-        <v>124.5371541505018</v>
+        <v>242.1779409083674</v>
       </c>
     </row>
     <row r="610">
@@ -38290,7 +38290,7 @@
         <v>7.6278</v>
       </c>
       <c r="T610" t="n">
-        <v>10.3383129915028</v>
+        <v>27.98419316721311</v>
       </c>
     </row>
     <row r="611">
@@ -38352,7 +38352,7 @@
         <v>-1</v>
       </c>
       <c r="T611" t="n">
-        <v>1.790343877661694</v>
+        <v>17.33140892197316</v>
       </c>
     </row>
     <row r="612">
@@ -38414,7 +38414,7 @@
         <v>40.7916</v>
       </c>
       <c r="T612" t="n">
-        <v>35.67431903662276</v>
+        <v>79.14352396468678</v>
       </c>
     </row>
     <row r="613">
@@ -38476,7 +38476,7 @@
         <v>140.1716</v>
       </c>
       <c r="T613" t="n">
-        <v>181.0175952907282</v>
+        <v>181.699494549446</v>
       </c>
     </row>
     <row r="614">
@@ -38538,7 +38538,7 @@
         <v>45.3716</v>
       </c>
       <c r="T614" t="n">
-        <v>20.64245125578925</v>
+        <v>48.53404785191197</v>
       </c>
     </row>
     <row r="615">
@@ -38600,7 +38600,7 @@
         <v>449.1803000000001</v>
       </c>
       <c r="T615" t="n">
-        <v>305.6304565454157</v>
+        <v>532.5324250255934</v>
       </c>
     </row>
     <row r="616">
@@ -38662,7 +38662,7 @@
         <v>0.8909</v>
       </c>
       <c r="T616" t="n">
-        <v>3.613047959142543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -38724,7 +38724,7 @@
         <v>0.8908</v>
       </c>
       <c r="T617" t="n">
-        <v>0</v>
+        <v>30.16593880448612</v>
       </c>
     </row>
     <row r="618">
@@ -38786,7 +38786,7 @@
         <v>2.5471</v>
       </c>
       <c r="T618" t="n">
-        <v>4.850881305500629</v>
+        <v>38.77343828801707</v>
       </c>
     </row>
     <row r="619">
@@ -38848,7 +38848,7 @@
         <v>45.854</v>
       </c>
       <c r="T619" t="n">
-        <v>34.02724363466654</v>
+        <v>60.84013138762362</v>
       </c>
     </row>
     <row r="620">
@@ -38910,7 +38910,7 @@
         <v>5.7114</v>
       </c>
       <c r="T620" t="n">
-        <v>3.819928754634837</v>
+        <v>54.41721362498882</v>
       </c>
     </row>
     <row r="621">
@@ -38972,7 +38972,7 @@
         <v>51.11</v>
       </c>
       <c r="T621" t="n">
-        <v>82.05471043501245</v>
+        <v>119.6270293243989</v>
       </c>
     </row>
     <row r="622">
@@ -39034,7 +39034,7 @@
         <v>60.86340000000001</v>
       </c>
       <c r="T622" t="n">
-        <v>92.21214533869413</v>
+        <v>52.5680007752462</v>
       </c>
     </row>
     <row r="623">
@@ -39096,7 +39096,7 @@
         <v>19.5246</v>
       </c>
       <c r="T623" t="n">
-        <v>7.576504487059898</v>
+        <v>45.75048566000137</v>
       </c>
     </row>
     <row r="624">
@@ -39158,7 +39158,7 @@
         <v>19.2224</v>
       </c>
       <c r="T624" t="n">
-        <v>37.82286125232728</v>
+        <v>86.49139004092746</v>
       </c>
     </row>
     <row r="625">
@@ -39220,7 +39220,7 @@
         <v>-1</v>
       </c>
       <c r="T625" t="n">
-        <v>4.029593466900566</v>
+        <v>16.82718313820626</v>
       </c>
     </row>
     <row r="626">
@@ -39282,7 +39282,7 @@
         <v>1.6737</v>
       </c>
       <c r="T626" t="n">
-        <v>8.310456678646396</v>
+        <v>27.80513718508585</v>
       </c>
     </row>
     <row r="627">
@@ -39344,7 +39344,7 @@
         <v>0.891</v>
       </c>
       <c r="T627" t="n">
-        <v>1.790343877661694</v>
+        <v>17.33140892197316</v>
       </c>
     </row>
     <row r="628">
@@ -39406,7 +39406,7 @@
         <v>4.8014</v>
       </c>
       <c r="T628" t="n">
-        <v>1.539344176291494</v>
+        <v>101.7242723226426</v>
       </c>
     </row>
     <row r="629">
@@ -39468,7 +39468,7 @@
         <v>50.1301</v>
       </c>
       <c r="T629" t="n">
-        <v>59.91069809115242</v>
+        <v>70.14288707390834</v>
       </c>
     </row>
     <row r="630">
@@ -39530,7 +39530,7 @@
         <v>26.6801</v>
       </c>
       <c r="T630" t="n">
-        <v>32.5987819996538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -39592,7 +39592,7 @@
         <v>85.95999999999999</v>
       </c>
       <c r="T631" t="n">
-        <v>139.8736005197578</v>
+        <v>155.5610882520425</v>
       </c>
     </row>
     <row r="632">
@@ -39654,7 +39654,7 @@
         <v>126.3998</v>
       </c>
       <c r="T632" t="n">
-        <v>105.6716296371446</v>
+        <v>244.9971027789886</v>
       </c>
     </row>
     <row r="633">
@@ -39716,7 +39716,7 @@
         <v>1.3638</v>
       </c>
       <c r="T633" t="n">
-        <v>25.84593105829662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -39778,7 +39778,7 @@
         <v>16.9556</v>
       </c>
       <c r="T634" t="n">
-        <v>19.44693130187484</v>
+        <v>13.56900445951073</v>
       </c>
     </row>
     <row r="635">
@@ -39840,7 +39840,7 @@
         <v>62.0002</v>
       </c>
       <c r="T635" t="n">
-        <v>125.5073863895951</v>
+        <v>170.936016346025</v>
       </c>
     </row>
     <row r="636">
@@ -39902,7 +39902,7 @@
         <v>2.6378</v>
       </c>
       <c r="T636" t="n">
-        <v>6.842312763062014</v>
+        <v>8.58842040773526</v>
       </c>
     </row>
     <row r="637">
@@ -39964,7 +39964,7 @@
         <v>16.6551</v>
       </c>
       <c r="T637" t="n">
-        <v>33.28036591486744</v>
+        <v>16.92020847761703</v>
       </c>
     </row>
     <row r="638">
@@ -40026,7 +40026,7 @@
         <v>94.3198</v>
       </c>
       <c r="T638" t="n">
-        <v>119.9009817569184</v>
+        <v>95.89618452176614</v>
       </c>
     </row>
     <row r="639">
@@ -40088,7 +40088,7 @@
         <v>-1</v>
       </c>
       <c r="T639" t="n">
-        <v>0</v>
+        <v>1.298508394293022</v>
       </c>
     </row>
     <row r="640">
@@ -40150,7 +40150,7 @@
         <v>9.1576</v>
       </c>
       <c r="T640" t="n">
-        <v>24.80088107162894</v>
+        <v>12.95977794942512</v>
       </c>
     </row>
     <row r="641">
@@ -40212,7 +40212,7 @@
         <v>23.0573</v>
       </c>
       <c r="T641" t="n">
-        <v>2.433588164369571</v>
+        <v>56.23295966284085</v>
       </c>
     </row>
     <row r="642">
@@ -40274,7 +40274,7 @@
         <v>2.4055</v>
       </c>
       <c r="T642" t="n">
-        <v>3.473695542386071</v>
+        <v>0.9187291342448123</v>
       </c>
     </row>
     <row r="643">
@@ -40336,7 +40336,7 @@
         <v>13.2736</v>
       </c>
       <c r="T643" t="n">
-        <v>5.662429743270293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -40398,7 +40398,7 @@
         <v>46.0799</v>
       </c>
       <c r="T644" t="n">
-        <v>15.03187632812712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -40460,7 +40460,7 @@
         <v>14.2612</v>
       </c>
       <c r="T645" t="n">
-        <v>23.56846780683158</v>
+        <v>6.284815649805611</v>
       </c>
     </row>
     <row r="646">
@@ -40522,7 +40522,7 @@
         <v>148.4</v>
       </c>
       <c r="T646" t="n">
-        <v>97.65447056055086</v>
+        <v>182.0715697119944</v>
       </c>
     </row>
     <row r="647">
@@ -40646,7 +40646,7 @@
         <v>-1</v>
       </c>
       <c r="T648" t="n">
-        <v>1.177975838919151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -40708,7 +40708,7 @@
         <v>0.7863</v>
       </c>
       <c r="T649" t="n">
-        <v>6.378623429922269</v>
+        <v>0.8718678569321043</v>
       </c>
     </row>
     <row r="650">
@@ -40770,7 +40770,7 @@
         <v>15.4798</v>
       </c>
       <c r="T650" t="n">
-        <v>6.034657125755297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -40832,7 +40832,7 @@
         <v>1.733</v>
       </c>
       <c r="T651" t="n">
-        <v>25.51129348590696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -40894,7 +40894,7 @@
         <v>15.7148</v>
       </c>
       <c r="T652" t="n">
-        <v>15.35473959582611</v>
+        <v>28.53527590580341</v>
       </c>
     </row>
     <row r="653">
@@ -40956,7 +40956,7 @@
         <v>20.0064</v>
       </c>
       <c r="T653" t="n">
-        <v>10.96070373835058</v>
+        <v>13.71409816799531</v>
       </c>
     </row>
     <row r="654">
@@ -41080,7 +41080,7 @@
         <v>6.531</v>
       </c>
       <c r="T655" t="n">
-        <v>17.69753150516755</v>
+        <v>58.6994763216917</v>
       </c>
     </row>
     <row r="656">
@@ -41142,7 +41142,7 @@
         <v>0.5641</v>
       </c>
       <c r="T656" t="n">
-        <v>27.78526163100007</v>
+        <v>3.249498015865522</v>
       </c>
     </row>
     <row r="657">
@@ -41204,7 +41204,7 @@
         <v>-1</v>
       </c>
       <c r="T657" t="n">
-        <v>5.139335835740925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -41328,7 +41328,7 @@
         <v>-1</v>
       </c>
       <c r="T659" t="n">
-        <v>32.22961686809782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -41390,7 +41390,7 @@
         <v>0.2827</v>
       </c>
       <c r="T660" t="n">
-        <v>0.9246515160989165</v>
+        <v>4.291957358982192</v>
       </c>
     </row>
     <row r="661">
@@ -41452,7 +41452,7 @@
         <v>1.5383</v>
       </c>
       <c r="T661" t="n">
-        <v>0</v>
+        <v>70.07453272972229</v>
       </c>
     </row>
     <row r="662">
@@ -41514,7 +41514,7 @@
         <v>17.1199</v>
       </c>
       <c r="T662" t="n">
-        <v>1.576320550126013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -41576,7 +41576,7 @@
         <v>30.7088</v>
       </c>
       <c r="T663" t="n">
-        <v>45.0864806277327</v>
+        <v>19.30883526157029</v>
       </c>
     </row>
     <row r="664">
@@ -41638,7 +41638,7 @@
         <v>94.8353</v>
       </c>
       <c r="T664" t="n">
-        <v>61.4847737660843</v>
+        <v>147.7819502060489</v>
       </c>
     </row>
     <row r="665">
@@ -41700,7 +41700,7 @@
         <v>-1</v>
       </c>
       <c r="T665" t="n">
-        <v>26.03568264589475</v>
+        <v>322.8760047305955</v>
       </c>
     </row>
     <row r="666">
@@ -41762,7 +41762,7 @@
         <v>1.4254</v>
       </c>
       <c r="T666" t="n">
-        <v>2.317847273821261</v>
+        <v>38.78554176466029</v>
       </c>
     </row>
     <row r="667">
@@ -41824,7 +41824,7 @@
         <v>17.4042</v>
       </c>
       <c r="T667" t="n">
-        <v>14.90137869029983</v>
+        <v>30.30404981074919</v>
       </c>
     </row>
     <row r="668">
@@ -41886,7 +41886,7 @@
         <v>62.4926</v>
       </c>
       <c r="T668" t="n">
-        <v>48.7655144159484</v>
+        <v>214.630759987134</v>
       </c>
     </row>
     <row r="669">
@@ -41948,7 +41948,7 @@
         <v>2.9385</v>
       </c>
       <c r="T669" t="n">
-        <v>6.418946039017064</v>
+        <v>11.62616576843479</v>
       </c>
     </row>
     <row r="670">
@@ -42010,7 +42010,7 @@
         <v>17.4724</v>
       </c>
       <c r="T670" t="n">
-        <v>28.85721903777293</v>
+        <v>68.33589075014073</v>
       </c>
     </row>
     <row r="671">
@@ -42072,7 +42072,7 @@
         <v>94.30159999999999</v>
       </c>
       <c r="T671" t="n">
-        <v>17.48838586382083</v>
+        <v>182.6436536893574</v>
       </c>
     </row>
     <row r="672">
@@ -42134,7 +42134,7 @@
         <v>9.8513</v>
       </c>
       <c r="T672" t="n">
-        <v>11.07112507701561</v>
+        <v>29.9025309904062</v>
       </c>
     </row>
     <row r="673">
@@ -42196,7 +42196,7 @@
         <v>22.5049</v>
       </c>
       <c r="T673" t="n">
-        <v>3.834211586937654</v>
+        <v>115.8882857233083</v>
       </c>
     </row>
     <row r="674">
@@ -42320,7 +42320,7 @@
         <v>13.7427</v>
       </c>
       <c r="T675" t="n">
-        <v>3.535703827099587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -42382,7 +42382,7 @@
         <v>47.6786</v>
       </c>
       <c r="T676" t="n">
-        <v>31.87954648001931</v>
+        <v>94.21043506103004</v>
       </c>
     </row>
     <row r="677">
@@ -42444,7 +42444,7 @@
         <v>15.2288</v>
       </c>
       <c r="T677" t="n">
-        <v>30.30880442144328</v>
+        <v>67.44093020579744</v>
       </c>
     </row>
     <row r="678">
@@ -42506,7 +42506,7 @@
         <v>154.0869</v>
       </c>
       <c r="T678" t="n">
-        <v>24.30582537261296</v>
+        <v>263.6787379474101</v>
       </c>
     </row>
     <row r="679">
@@ -42568,7 +42568,7 @@
         <v>0.2824</v>
       </c>
       <c r="T679" t="n">
-        <v>0</v>
+        <v>1.757751911714363</v>
       </c>
     </row>
     <row r="680">
@@ -42630,7 +42630,7 @@
         <v>0.845</v>
       </c>
       <c r="T680" t="n">
-        <v>1.150433153664781</v>
+        <v>11.76432469858765</v>
       </c>
     </row>
     <row r="681">
@@ -42692,7 +42692,7 @@
         <v>14.7618</v>
       </c>
       <c r="T681" t="n">
-        <v>4.485519409148966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -42754,7 +42754,7 @@
         <v>1.9498</v>
       </c>
       <c r="T682" t="n">
-        <v>2.220920245916631</v>
+        <v>19.80177711835869</v>
       </c>
     </row>
     <row r="683">
@@ -42816,7 +42816,7 @@
         <v>17.0852</v>
       </c>
       <c r="T683" t="n">
-        <v>15.67143388555956</v>
+        <v>42.03141508693063</v>
       </c>
     </row>
     <row r="684">
@@ -42878,7 +42878,7 @@
         <v>21.8758</v>
       </c>
       <c r="T684" t="n">
-        <v>9.419674106268012</v>
+        <v>13.86100842086096</v>
       </c>
     </row>
     <row r="685">
@@ -42940,7 +42940,7 @@
         <v>6.680700000000001</v>
       </c>
       <c r="T685" t="n">
-        <v>0</v>
+        <v>1.957740247113026</v>
       </c>
     </row>
     <row r="686">
@@ -43002,7 +43002,7 @@
         <v>0.6685</v>
       </c>
       <c r="T686" t="n">
-        <v>8.18294168422397</v>
+        <v>1.474556021201303</v>
       </c>
     </row>
     <row r="687">
@@ -43064,7 +43064,7 @@
         <v>-1</v>
       </c>
       <c r="T687" t="n">
-        <v>1.150433153664781</v>
+        <v>28.87389328187838</v>
       </c>
     </row>
     <row r="688">
@@ -43126,7 +43126,7 @@
         <v>0.5255</v>
       </c>
       <c r="T688" t="n">
-        <v>0</v>
+        <v>1.253394436255262</v>
       </c>
     </row>
     <row r="689">
@@ -43188,7 +43188,7 @@
         <v>0.2824</v>
       </c>
       <c r="T689" t="n">
-        <v>7.883073864637305</v>
+        <v>30.15083127506217</v>
       </c>
     </row>
     <row r="690">
@@ -43250,7 +43250,7 @@
         <v>1.497</v>
       </c>
       <c r="T690" t="n">
-        <v>11.05988333208721</v>
+        <v>63.48989601334665</v>
       </c>
     </row>
     <row r="691">
@@ -43312,7 +43312,7 @@
         <v>17.6805</v>
       </c>
       <c r="T691" t="n">
-        <v>6.810228490337853</v>
+        <v>24.56346227217007</v>
       </c>
     </row>
   </sheetData>

--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -594,7 +594,7 @@
         <v>-1</v>
       </c>
       <c r="T2" t="n">
-        <v>598.1154566716936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -656,7 +656,7 @@
         <v>485.0013</v>
       </c>
       <c r="T3" t="n">
-        <v>308.027065420206</v>
+        <v>247.0301434194196</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>382</v>
       </c>
       <c r="T4" t="n">
-        <v>1118.518531060239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -780,7 +780,7 @@
         <v>475.0013999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>1754.748708617728</v>
+        <v>823.5681655385565</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>44.0011</v>
       </c>
       <c r="T6" t="n">
-        <v>266.0049364027477</v>
+        <v>61.1275857342665</v>
       </c>
     </row>
     <row r="7">
@@ -904,7 +904,7 @@
         <v>13.4402</v>
       </c>
       <c r="T7" t="n">
-        <v>821.5853509766079</v>
+        <v>200.0646990384041</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +966,7 @@
         <v>24.0004</v>
       </c>
       <c r="T8" t="n">
-        <v>49.13533906094749</v>
+        <v>15.26420118179601</v>
       </c>
     </row>
     <row r="9">
@@ -1028,7 +1028,7 @@
         <v>17.0002</v>
       </c>
       <c r="T9" t="n">
-        <v>308.9747429069031</v>
+        <v>18.60989607079688</v>
       </c>
     </row>
     <row r="10">
@@ -1090,7 +1090,7 @@
         <v>126</v>
       </c>
       <c r="T10" t="n">
-        <v>327.6081109787017</v>
+        <v>169.9376622697891</v>
       </c>
     </row>
     <row r="11">
@@ -1152,7 +1152,7 @@
         <v>65.9999</v>
       </c>
       <c r="T11" t="n">
-        <v>1657.74270992265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1214,7 +1214,7 @@
         <v>52.0016</v>
       </c>
       <c r="T12" t="n">
-        <v>67.64827296808055</v>
+        <v>31.50552188012345</v>
       </c>
     </row>
     <row r="13">
@@ -1276,7 +1276,7 @@
         <v>8.429699999999999</v>
       </c>
       <c r="T13" t="n">
-        <v>344.5344317495567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1338,7 +1338,7 @@
         <v>309.0002</v>
       </c>
       <c r="T14" t="n">
-        <v>152.5064656616864</v>
+        <v>374.6922794824724</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>185.0012</v>
       </c>
       <c r="T15" t="n">
-        <v>286.5345632058048</v>
+        <v>185.5493983594321</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1462,7 @@
         <v>127.9999</v>
       </c>
       <c r="T16" t="n">
-        <v>1010.907738000519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1524,7 +1524,7 @@
         <v>148.9997</v>
       </c>
       <c r="T17" t="n">
-        <v>326.1007467982353</v>
+        <v>248.0577166726091</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1586,7 @@
         <v>107.7205</v>
       </c>
       <c r="T18" t="n">
-        <v>1564.188186053842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1648,7 +1648,7 @@
         <v>1.9992</v>
       </c>
       <c r="T19" t="n">
-        <v>99.08977840019895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1710,7 +1710,7 @@
         <v>1.1891</v>
       </c>
       <c r="T20" t="n">
-        <v>154.4283454372257</v>
+        <v>86.50349348379899</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>17.9999</v>
       </c>
       <c r="T21" t="n">
-        <v>30.79709214041444</v>
+        <v>19.65613685624902</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         <v>2.3276</v>
       </c>
       <c r="T22" t="n">
-        <v>34.92030336326475</v>
+        <v>0.5152301607213002</v>
       </c>
     </row>
     <row r="23">
@@ -1896,7 +1896,7 @@
         <v>1.4993</v>
       </c>
       <c r="T23" t="n">
-        <v>12.56420826557415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1958,7 +1958,7 @@
         <v>38.0001</v>
       </c>
       <c r="T24" t="n">
-        <v>36.4595677923081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2020,7 +2020,7 @@
         <v>29.6372</v>
       </c>
       <c r="T25" t="n">
-        <v>422.8339618151144</v>
+        <v>23.39902469451328</v>
       </c>
     </row>
     <row r="26">
@@ -2082,7 +2082,7 @@
         <v>1.0002</v>
       </c>
       <c r="T26" t="n">
-        <v>9.568135176624866</v>
+        <v>6.45791360856312</v>
       </c>
     </row>
     <row r="27">
@@ -2144,7 +2144,7 @@
         <v>4.0002</v>
       </c>
       <c r="T27" t="n">
-        <v>193.5464042898081</v>
+        <v>12.85925880226422</v>
       </c>
     </row>
     <row r="28">
@@ -2206,7 +2206,7 @@
         <v>178.0008</v>
       </c>
       <c r="T28" t="n">
-        <v>191.8604494110309</v>
+        <v>133.1145975093946</v>
       </c>
     </row>
     <row r="29">
@@ -2268,7 +2268,7 @@
         <v>104.0006</v>
       </c>
       <c r="T29" t="n">
-        <v>914.947374837336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2330,7 +2330,7 @@
         <v>-1</v>
       </c>
       <c r="T30" t="n">
-        <v>21.54889974315648</v>
+        <v>1.795811189665958</v>
       </c>
     </row>
     <row r="31">
@@ -2392,7 +2392,7 @@
         <v>-1</v>
       </c>
       <c r="T31" t="n">
-        <v>30.66899043294371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2454,7 +2454,7 @@
         <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>71.016041156453</v>
+        <v>3.672431965553983</v>
       </c>
     </row>
     <row r="33">
@@ -2516,7 +2516,7 @@
         <v>-1</v>
       </c>
       <c r="T33" t="n">
-        <v>6.449016493358303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2578,7 +2578,7 @@
         <v>-1</v>
       </c>
       <c r="T34" t="n">
-        <v>22.74541352669559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2640,7 +2640,7 @@
         <v>-1</v>
       </c>
       <c r="T35" t="n">
-        <v>37.55752577181401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2702,7 +2702,7 @@
         <v>-1</v>
       </c>
       <c r="T36" t="n">
-        <v>22.74541352669559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2764,7 +2764,7 @@
         <v>-1</v>
       </c>
       <c r="T37" t="n">
-        <v>12.08883168752941</v>
+        <v>27.48922459069661</v>
       </c>
     </row>
     <row r="38">
@@ -2826,7 +2826,7 @@
         <v>10.0004</v>
       </c>
       <c r="T38" t="n">
-        <v>78.00343157316659</v>
+        <v>2.826531863257337</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>40.0004</v>
       </c>
       <c r="T39" t="n">
-        <v>994.4529640465701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2950,7 +2950,7 @@
         <v>500.0008</v>
       </c>
       <c r="T40" t="n">
-        <v>283.5873755242641</v>
+        <v>328.9117109177144</v>
       </c>
     </row>
     <row r="41">
@@ -3012,7 +3012,7 @@
         <v>445.0001</v>
       </c>
       <c r="T41" t="n">
-        <v>1106.792214336061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3074,7 @@
         <v>585</v>
       </c>
       <c r="T42" t="n">
-        <v>2299.081308917453</v>
+        <v>1285.211189283064</v>
       </c>
     </row>
     <row r="43">
@@ -3136,7 +3136,7 @@
         <v>40.0009</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1536938970253</v>
+        <v>74.61111066474507</v>
       </c>
     </row>
     <row r="44">
@@ -3198,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="T44" t="n">
-        <v>847.3099680231209</v>
+        <v>257.7417605934824</v>
       </c>
     </row>
     <row r="45">
@@ -3260,7 +3260,7 @@
         <v>31.0002</v>
       </c>
       <c r="T45" t="n">
-        <v>15.06330628615413</v>
+        <v>33.85873612369966</v>
       </c>
     </row>
     <row r="46">
@@ -3322,7 +3322,7 @@
         <v>35.0004</v>
       </c>
       <c r="T46" t="n">
-        <v>230.3145417127032</v>
+        <v>75.39266243466309</v>
       </c>
     </row>
     <row r="47">
@@ -3384,7 +3384,7 @@
         <v>165.001</v>
       </c>
       <c r="T47" t="n">
-        <v>313.3809513466657</v>
+        <v>292.0269562981898</v>
       </c>
     </row>
     <row r="48">
@@ -3446,7 +3446,7 @@
         <v>131.0002</v>
       </c>
       <c r="T48" t="n">
-        <v>1655.267769744219</v>
+        <v>177.6223738868757</v>
       </c>
     </row>
     <row r="49">
@@ -3508,7 +3508,7 @@
         <v>65.001</v>
       </c>
       <c r="T49" t="n">
-        <v>28.17414207066973</v>
+        <v>90.35972490663002</v>
       </c>
     </row>
     <row r="50">
@@ -3570,7 +3570,7 @@
         <v>43.9993</v>
       </c>
       <c r="T50" t="n">
-        <v>272.6653950188566</v>
+        <v>10.62269373418373</v>
       </c>
     </row>
     <row r="51">
@@ -3632,7 +3632,7 @@
         <v>299.0002</v>
       </c>
       <c r="T51" t="n">
-        <v>96.87217292793706</v>
+        <v>213.3716001735425</v>
       </c>
     </row>
     <row r="52">
@@ -3694,7 +3694,7 @@
         <v>220.0009</v>
       </c>
       <c r="T52" t="n">
-        <v>255.4947555932659</v>
+        <v>200.5753301068372</v>
       </c>
     </row>
     <row r="53">
@@ -3756,7 +3756,7 @@
         <v>282.0002</v>
       </c>
       <c r="T53" t="n">
-        <v>896.6007450221564</v>
+        <v>96.17634062271702</v>
       </c>
     </row>
     <row r="54">
@@ -3818,7 +3818,7 @@
         <v>190.9999000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>291.5744333249564</v>
+        <v>263.3406382783992</v>
       </c>
     </row>
     <row r="55">
@@ -3880,7 +3880,7 @@
         <v>193</v>
       </c>
       <c r="T55" t="n">
-        <v>1314.060413489568</v>
+        <v>230.3775866639067</v>
       </c>
     </row>
     <row r="56">
@@ -3942,7 +3942,7 @@
         <v>1.9992</v>
       </c>
       <c r="T56" t="n">
-        <v>26.6047290285168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4004,7 +4004,7 @@
         <v>1.1891</v>
       </c>
       <c r="T57" t="n">
-        <v>129.6031163577425</v>
+        <v>96.37767939524558</v>
       </c>
     </row>
     <row r="58">
@@ -4066,7 +4066,7 @@
         <v>25.0011</v>
       </c>
       <c r="T58" t="n">
-        <v>20.73756784207718</v>
+        <v>34.90048543912242</v>
       </c>
     </row>
     <row r="59">
@@ -4128,7 +4128,7 @@
         <v>2.3276</v>
       </c>
       <c r="T59" t="n">
-        <v>23.98697807589553</v>
+        <v>4.822214330897471</v>
       </c>
     </row>
     <row r="60">
@@ -4252,7 +4252,7 @@
         <v>48.0004</v>
       </c>
       <c r="T61" t="n">
-        <v>45.88093862637847</v>
+        <v>29.17327206264247</v>
       </c>
     </row>
     <row r="62">
@@ -4314,7 +4314,7 @@
         <v>51.9996</v>
       </c>
       <c r="T62" t="n">
-        <v>414.3770550213032</v>
+        <v>77.72341068623224</v>
       </c>
     </row>
     <row r="63">
@@ -4376,7 +4376,7 @@
         <v>1.0002</v>
       </c>
       <c r="T63" t="n">
-        <v>1.034570870577572</v>
+        <v>1.995301208834231</v>
       </c>
     </row>
     <row r="64">
@@ -4438,7 +4438,7 @@
         <v>4.0002</v>
       </c>
       <c r="T64" t="n">
-        <v>108.2779089684611</v>
+        <v>21.46028995672271</v>
       </c>
     </row>
     <row r="65">
@@ -4500,7 +4500,7 @@
         <v>230.0008</v>
       </c>
       <c r="T65" t="n">
-        <v>138.7195195576242</v>
+        <v>239.5829773668889</v>
       </c>
     </row>
     <row r="66">
@@ -4562,7 +4562,7 @@
         <v>156.0009</v>
       </c>
       <c r="T66" t="n">
-        <v>869.1209834830955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4624,7 +4624,7 @@
         <v>-1</v>
       </c>
       <c r="T67" t="n">
-        <v>12.95909601003673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4686,7 +4686,7 @@
         <v>-1</v>
       </c>
       <c r="T68" t="n">
-        <v>10.05107443830877</v>
+        <v>5.893608930028742</v>
       </c>
     </row>
     <row r="69">
@@ -4748,7 +4748,7 @@
         <v>-1</v>
       </c>
       <c r="T69" t="n">
-        <v>13.62783477604364</v>
+        <v>6.289092437383017</v>
       </c>
     </row>
     <row r="70">
@@ -4810,7 +4810,7 @@
         <v>1.0003</v>
       </c>
       <c r="T70" t="n">
-        <v>51.11704329862865</v>
+        <v>14.56921813182694</v>
       </c>
     </row>
     <row r="71">
@@ -4872,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>24.42829683961134</v>
       </c>
     </row>
     <row r="72">
@@ -4934,7 +4934,7 @@
         <v>-1</v>
       </c>
       <c r="T72" t="n">
-        <v>17.69724865740459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4996,7 +4996,7 @@
         <v>-1</v>
       </c>
       <c r="T73" t="n">
-        <v>15.18230456378739</v>
+        <v>9.248630102214136</v>
       </c>
     </row>
     <row r="74">
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="T74" t="n">
-        <v>18.55742975684466</v>
+        <v>5.797679908763742</v>
       </c>
     </row>
     <row r="75">
@@ -5120,7 +5120,7 @@
         <v>6.9995</v>
       </c>
       <c r="T75" t="n">
-        <v>70.97945967628104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -5182,7 +5182,7 @@
         <v>146.0011</v>
       </c>
       <c r="T76" t="n">
-        <v>1203.658098757532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5244,7 +5244,7 @@
         <v>450.001</v>
       </c>
       <c r="T77" t="n">
-        <v>243.1752288661824</v>
+        <v>281.6879921650849</v>
       </c>
     </row>
     <row r="78">
@@ -5306,7 +5306,7 @@
         <v>469.9998000000001</v>
       </c>
       <c r="T78" t="n">
-        <v>1887.557471103658</v>
+        <v>88.22982347622958</v>
       </c>
     </row>
     <row r="79">
@@ -5368,7 +5368,7 @@
         <v>680.0014</v>
       </c>
       <c r="T79" t="n">
-        <v>3076.360305766037</v>
+        <v>1383.14304500218</v>
       </c>
     </row>
     <row r="80">
@@ -5430,7 +5430,7 @@
         <v>-1</v>
       </c>
       <c r="T80" t="n">
-        <v>163.2258392416472</v>
+        <v>74.50677191681622</v>
       </c>
     </row>
     <row r="81">
@@ -5492,7 +5492,7 @@
         <v>38.0018</v>
       </c>
       <c r="T81" t="n">
-        <v>229.4056770764082</v>
+        <v>76.11079746587461</v>
       </c>
     </row>
     <row r="82">
@@ -5554,7 +5554,7 @@
         <v>107.0004</v>
       </c>
       <c r="T82" t="n">
-        <v>910.6102964788968</v>
+        <v>250.6571329076148</v>
       </c>
     </row>
     <row r="83">
@@ -5616,7 +5616,7 @@
         <v>-1</v>
       </c>
       <c r="T83" t="n">
-        <v>20.59195026581224</v>
+        <v>21.35988460746819</v>
       </c>
     </row>
     <row r="84">
@@ -5678,7 +5678,7 @@
         <v>38.0009</v>
       </c>
       <c r="T84" t="n">
-        <v>20.59903451488591</v>
+        <v>44.31089160932173</v>
       </c>
     </row>
     <row r="85">
@@ -5740,7 +5740,7 @@
         <v>58.0004</v>
       </c>
       <c r="T85" t="n">
-        <v>239.1059191053364</v>
+        <v>37.43473311436453</v>
       </c>
     </row>
     <row r="86">
@@ -5802,7 +5802,7 @@
         <v>-1</v>
       </c>
       <c r="T86" t="n">
-        <v>366.7056517022894</v>
+        <v>182.919377492821</v>
       </c>
     </row>
     <row r="87">
@@ -5864,7 +5864,7 @@
         <v>175.0001</v>
       </c>
       <c r="T87" t="n">
-        <v>304.0340833901525</v>
+        <v>213.6523047812726</v>
       </c>
     </row>
     <row r="88">
@@ -5926,7 +5926,7 @@
         <v>215</v>
       </c>
       <c r="T88" t="n">
-        <v>1955.662283746265</v>
+        <v>509.9799013323655</v>
       </c>
     </row>
     <row r="89">
@@ -5988,7 +5988,7 @@
         <v>73.00080000000001</v>
       </c>
       <c r="T89" t="n">
-        <v>58.61877360574442</v>
+        <v>105.3107692755359</v>
       </c>
     </row>
     <row r="90">
@@ -6050,7 +6050,7 @@
         <v>38.0006</v>
       </c>
       <c r="T90" t="n">
-        <v>308.4425574394584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -6112,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="T91" t="n">
-        <v>215.5808931405017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6174,7 +6174,7 @@
         <v>280.0001</v>
       </c>
       <c r="T92" t="n">
-        <v>81.90309511113605</v>
+        <v>51.82978342267865</v>
       </c>
     </row>
     <row r="93">
@@ -6236,7 +6236,7 @@
         <v>260.0014</v>
       </c>
       <c r="T93" t="n">
-        <v>280.340199860268</v>
+        <v>266.1755164202907</v>
       </c>
     </row>
     <row r="94">
@@ -6298,7 +6298,7 @@
         <v>250.0017</v>
       </c>
       <c r="T94" t="n">
-        <v>1589.947354812349</v>
+        <v>165.9174974942789</v>
       </c>
     </row>
     <row r="95">
@@ -6360,7 +6360,7 @@
         <v>-1</v>
       </c>
       <c r="T95" t="n">
-        <v>44.02359133254693</v>
+        <v>19.79956377116452</v>
       </c>
     </row>
     <row r="96">
@@ -6422,7 +6422,7 @@
         <v>170.0019</v>
       </c>
       <c r="T96" t="n">
-        <v>305.0203520934318</v>
+        <v>261.8136161696384</v>
       </c>
     </row>
     <row r="97">
@@ -6484,7 +6484,7 @@
         <v>118.001</v>
       </c>
       <c r="T97" t="n">
-        <v>1938.21687637644</v>
+        <v>380.2760848929498</v>
       </c>
     </row>
     <row r="98">
@@ -6546,7 +6546,7 @@
         <v>1.9994</v>
       </c>
       <c r="T98" t="n">
-        <v>41.27854744937992</v>
+        <v>1.955702057957732</v>
       </c>
     </row>
     <row r="99">
@@ -6608,7 +6608,7 @@
         <v>1.189</v>
       </c>
       <c r="T99" t="n">
-        <v>137.6040949051081</v>
+        <v>85.34900158167983</v>
       </c>
     </row>
     <row r="100">
@@ -6670,7 +6670,7 @@
         <v>35</v>
       </c>
       <c r="T100" t="n">
-        <v>40.97423563603353</v>
+        <v>35.36107326807808</v>
       </c>
     </row>
     <row r="101">
@@ -6732,7 +6732,7 @@
         <v>3.3281</v>
       </c>
       <c r="T101" t="n">
-        <v>17.24421774949271</v>
+        <v>8.003835387647181</v>
       </c>
     </row>
     <row r="102">
@@ -6794,7 +6794,7 @@
         <v>1.4996</v>
       </c>
       <c r="T102" t="n">
-        <v>2.796527883718245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -6856,7 +6856,7 @@
         <v>85.0001</v>
       </c>
       <c r="T103" t="n">
-        <v>66.25719795923746</v>
+        <v>56.03729763324778</v>
       </c>
     </row>
     <row r="104">
@@ -6918,7 +6918,7 @@
         <v>75.0012</v>
       </c>
       <c r="T104" t="n">
-        <v>395.9295396764115</v>
+        <v>38.44176964116658</v>
       </c>
     </row>
     <row r="105">
@@ -6980,7 +6980,7 @@
         <v>1.0001</v>
       </c>
       <c r="T105" t="n">
-        <v>19.39095123343307</v>
+        <v>3.471688984517163</v>
       </c>
     </row>
     <row r="106">
@@ -7042,7 +7042,7 @@
         <v>2.9998</v>
       </c>
       <c r="T106" t="n">
-        <v>160.0379410667813</v>
+        <v>12.50884382483642</v>
       </c>
     </row>
     <row r="107">
@@ -7104,7 +7104,7 @@
         <v>-1</v>
       </c>
       <c r="T107" t="n">
-        <v>234.8922559321887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -7166,7 +7166,7 @@
         <v>210.001</v>
       </c>
       <c r="T108" t="n">
-        <v>246.2938676544599</v>
+        <v>209.7920260975615</v>
       </c>
     </row>
     <row r="109">
@@ -7228,7 +7228,7 @@
         <v>250.9999</v>
       </c>
       <c r="T109" t="n">
-        <v>831.3839253825173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -7290,7 +7290,7 @@
         <v>-1</v>
       </c>
       <c r="T110" t="n">
-        <v>19.4623456874139</v>
+        <v>0.1245983973112687</v>
       </c>
     </row>
     <row r="111">
@@ -7352,7 +7352,7 @@
         <v>-1</v>
       </c>
       <c r="T111" t="n">
-        <v>28.88583560483621</v>
+        <v>0.1020019314765256</v>
       </c>
     </row>
     <row r="112">
@@ -7414,7 +7414,7 @@
         <v>1.0001</v>
       </c>
       <c r="T112" t="n">
-        <v>60.69008177585387</v>
+        <v>21.36373403583165</v>
       </c>
     </row>
     <row r="113">
@@ -7538,7 +7538,7 @@
         <v>-1</v>
       </c>
       <c r="T114" t="n">
-        <v>22.86572400490989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -7600,7 +7600,7 @@
         <v>-1</v>
       </c>
       <c r="T115" t="n">
-        <v>16.86945458906319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7662,7 +7662,7 @@
         <v>-1</v>
       </c>
       <c r="T116" t="n">
-        <v>30.04408662147567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7724,7 +7724,7 @@
         <v>4.9999</v>
       </c>
       <c r="T117" t="n">
-        <v>29.82634218646169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7786,7 +7786,7 @@
         <v>5.0005</v>
       </c>
       <c r="T118" t="n">
-        <v>91.86963476097395</v>
+        <v>3.569949452187832</v>
       </c>
     </row>
     <row r="119">
@@ -7848,7 +7848,7 @@
         <v>176.0002</v>
       </c>
       <c r="T119" t="n">
-        <v>1734.833710678956</v>
+        <v>1179.987433881321</v>
       </c>
     </row>
     <row r="120">
@@ -7910,7 +7910,7 @@
         <v>581.0004</v>
       </c>
       <c r="T120" t="n">
-        <v>52.90396173699591</v>
+        <v>31.07881169488827</v>
       </c>
     </row>
     <row r="121">
@@ -7972,7 +7972,7 @@
         <v>662.9996</v>
       </c>
       <c r="T121" t="n">
-        <v>2171.549121632821</v>
+        <v>2203.515763983407</v>
       </c>
     </row>
     <row r="122">
@@ -8034,7 +8034,7 @@
         <v>823.0001</v>
       </c>
       <c r="T122" t="n">
-        <v>3515.417186222424</v>
+        <v>867.6537896693422</v>
       </c>
     </row>
     <row r="123">
@@ -8096,7 +8096,7 @@
         <v>-1</v>
       </c>
       <c r="T123" t="n">
-        <v>40.55906408767421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -8158,7 +8158,7 @@
         <v>55.5001</v>
       </c>
       <c r="T124" t="n">
-        <v>90.32813982752522</v>
+        <v>35.7228987970069</v>
       </c>
     </row>
     <row r="125">
@@ -8220,7 +8220,7 @@
         <v>93</v>
       </c>
       <c r="T125" t="n">
-        <v>548.5820153029579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -8282,7 +8282,7 @@
         <v>-1</v>
       </c>
       <c r="T126" t="n">
-        <v>62.28099932310532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -8344,7 +8344,7 @@
         <v>57.7993</v>
       </c>
       <c r="T127" t="n">
-        <v>46.41284130545685</v>
+        <v>37.64481829047313</v>
       </c>
     </row>
     <row r="128">
@@ -8406,7 +8406,7 @@
         <v>72.00059999999999</v>
       </c>
       <c r="T128" t="n">
-        <v>366.0923649981988</v>
+        <v>59.66063150690551</v>
       </c>
     </row>
     <row r="129">
@@ -8468,7 +8468,7 @@
         <v>-1</v>
       </c>
       <c r="T129" t="n">
-        <v>221.6933333149763</v>
+        <v>4.439231656254606</v>
       </c>
     </row>
     <row r="130">
@@ -8530,7 +8530,7 @@
         <v>260</v>
       </c>
       <c r="T130" t="n">
-        <v>333.8654153950843</v>
+        <v>249.7063665639621</v>
       </c>
     </row>
     <row r="131">
@@ -8592,7 +8592,7 @@
         <v>282.9998</v>
       </c>
       <c r="T131" t="n">
-        <v>2597.024791686676</v>
+        <v>592.9929626250295</v>
       </c>
     </row>
     <row r="132">
@@ -8654,7 +8654,7 @@
         <v>92.0013</v>
       </c>
       <c r="T132" t="n">
-        <v>67.18844101053918</v>
+        <v>65.57921518977082</v>
       </c>
     </row>
     <row r="133">
@@ -8716,7 +8716,7 @@
         <v>40.8001</v>
       </c>
       <c r="T133" t="n">
-        <v>349.9283166787203</v>
+        <v>61.18333298569136</v>
       </c>
     </row>
     <row r="134">
@@ -8778,7 +8778,7 @@
         <v>-1</v>
       </c>
       <c r="T134" t="n">
-        <v>235.3834580965034</v>
+        <v>103.6173785624576</v>
       </c>
     </row>
     <row r="135">
@@ -8840,7 +8840,7 @@
         <v>358.0002</v>
       </c>
       <c r="T135" t="n">
-        <v>537.0530235152993</v>
+        <v>275.3023634631106</v>
       </c>
     </row>
     <row r="136">
@@ -8902,7 +8902,7 @@
         <v>321.0008</v>
       </c>
       <c r="T136" t="n">
-        <v>80.93555498220182</v>
+        <v>52.45682685186753</v>
       </c>
     </row>
     <row r="137">
@@ -8964,7 +8964,7 @@
         <v>361.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2160.898149907973</v>
+        <v>2231.232417506441</v>
       </c>
     </row>
     <row r="138">
@@ -9026,7 +9026,7 @@
         <v>-1</v>
       </c>
       <c r="T138" t="n">
-        <v>26.91258127573478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -9088,7 +9088,7 @@
         <v>233</v>
       </c>
       <c r="T139" t="n">
-        <v>224.2496068074149</v>
+        <v>263.4589956372548</v>
       </c>
     </row>
     <row r="140">
@@ -9150,7 +9150,7 @@
         <v>163.5006</v>
       </c>
       <c r="T140" t="n">
-        <v>2026.244111605248</v>
+        <v>855.7425455338215</v>
       </c>
     </row>
     <row r="141">
@@ -9212,7 +9212,7 @@
         <v>2.2001</v>
       </c>
       <c r="T141" t="n">
-        <v>23.81076896092306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -9274,7 +9274,7 @@
         <v>1.309</v>
       </c>
       <c r="T142" t="n">
-        <v>45.07844796957038</v>
+        <v>16.35481104190294</v>
       </c>
     </row>
     <row r="143">
@@ -9336,7 +9336,7 @@
         <v>38.5</v>
       </c>
       <c r="T143" t="n">
-        <v>96.89355789408984</v>
+        <v>34.81924926312228</v>
       </c>
     </row>
     <row r="144">
@@ -9398,7 +9398,7 @@
         <v>5.8609</v>
       </c>
       <c r="T144" t="n">
-        <v>46.49684256894449</v>
+        <v>2.448490118234136</v>
       </c>
     </row>
     <row r="145">
@@ -9460,7 +9460,7 @@
         <v>1.6506</v>
       </c>
       <c r="T145" t="n">
-        <v>88.80774615928613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -9522,7 +9522,7 @@
         <v>103.5008</v>
       </c>
       <c r="T146" t="n">
-        <v>35.29922172350186</v>
+        <v>2.304466789078151</v>
       </c>
     </row>
     <row r="147">
@@ -9584,7 +9584,7 @@
         <v>76.50060000000001</v>
       </c>
       <c r="T147" t="n">
-        <v>323.9322614797727</v>
+        <v>250.4066265184716</v>
       </c>
     </row>
     <row r="148">
@@ -9646,7 +9646,7 @@
         <v>1.1</v>
       </c>
       <c r="T148" t="n">
-        <v>28.03676829787928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -9708,7 +9708,7 @@
         <v>3.2997</v>
       </c>
       <c r="T149" t="n">
-        <v>81.79418750813596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -9770,7 +9770,7 @@
         <v>-1</v>
       </c>
       <c r="T150" t="n">
-        <v>159.5610173185428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -9832,7 +9832,7 @@
         <v>325.0005</v>
       </c>
       <c r="T151" t="n">
-        <v>275.4645721122002</v>
+        <v>203.7849299282552</v>
       </c>
     </row>
     <row r="152">
@@ -9894,7 +9894,7 @@
         <v>353.5008</v>
       </c>
       <c r="T152" t="n">
-        <v>1716.232929569807</v>
+        <v>1482.7359202241</v>
       </c>
     </row>
     <row r="153">
@@ -9956,7 +9956,7 @@
         <v>-1</v>
       </c>
       <c r="T153" t="n">
-        <v>51.3958664483355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -10018,7 +10018,7 @@
         <v>-1</v>
       </c>
       <c r="T154" t="n">
-        <v>40.65542130657077</v>
+        <v>0.6796298904501762</v>
       </c>
     </row>
     <row r="155">
@@ -10080,7 +10080,7 @@
         <v>-1</v>
       </c>
       <c r="T155" t="n">
-        <v>43.81109185686945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -10142,7 +10142,7 @@
         <v>1.1004</v>
       </c>
       <c r="T156" t="n">
-        <v>89.02507127050585</v>
+        <v>15.64289005245421</v>
       </c>
     </row>
     <row r="157">
@@ -10204,7 +10204,7 @@
         <v>2.1997</v>
       </c>
       <c r="T157" t="n">
-        <v>9.439100467593306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -10266,7 +10266,7 @@
         <v>-1</v>
       </c>
       <c r="T158" t="n">
-        <v>71.29362416212132</v>
+        <v>5.59009071011383</v>
       </c>
     </row>
     <row r="159">
@@ -10328,7 +10328,7 @@
         <v>-1</v>
       </c>
       <c r="T159" t="n">
-        <v>54.99930541724772</v>
+        <v>7.46042545723979</v>
       </c>
     </row>
     <row r="160">
@@ -10390,7 +10390,7 @@
         <v>-1</v>
       </c>
       <c r="T160" t="n">
-        <v>59.06867562375571</v>
+        <v>6.159048633185881</v>
       </c>
     </row>
     <row r="161">
@@ -10452,7 +10452,7 @@
         <v>5.5</v>
       </c>
       <c r="T161" t="n">
-        <v>60.03683170190737</v>
+        <v>2.288550705516854</v>
       </c>
     </row>
     <row r="162">
@@ -10514,7 +10514,7 @@
         <v>5.5002</v>
       </c>
       <c r="T162" t="n">
-        <v>89.34551457863593</v>
+        <v>2.331565348338838</v>
       </c>
     </row>
     <row r="163">
@@ -10576,7 +10576,7 @@
         <v>176.0002</v>
       </c>
       <c r="T163" t="n">
-        <v>1487.09268799159</v>
+        <v>1325.139154259017</v>
       </c>
     </row>
     <row r="164">
@@ -10638,7 +10638,7 @@
         <v>559.0013</v>
       </c>
       <c r="T164" t="n">
-        <v>339.0832243254698</v>
+        <v>223.9740009074783</v>
       </c>
     </row>
     <row r="165">
@@ -10700,7 +10700,7 @@
         <v>887.1487999999999</v>
       </c>
       <c r="T165" t="n">
-        <v>1963.155567273877</v>
+        <v>2342.888700082125</v>
       </c>
     </row>
     <row r="166">
@@ -10762,7 +10762,7 @@
         <v>1746.0525</v>
       </c>
       <c r="T166" t="n">
-        <v>3030.895629294819</v>
+        <v>865.4444569354598</v>
       </c>
     </row>
     <row r="167">
@@ -10824,7 +10824,7 @@
         <v>-1</v>
       </c>
       <c r="T167" t="n">
-        <v>20.16021787220769</v>
+        <v>3.510538038643863</v>
       </c>
     </row>
     <row r="168">
@@ -10886,7 +10886,7 @@
         <v>-1</v>
       </c>
       <c r="T168" t="n">
-        <v>1.62435108591057</v>
+        <v>8.289120328141193</v>
       </c>
     </row>
     <row r="169">
@@ -10948,7 +10948,7 @@
         <v>-1</v>
       </c>
       <c r="T169" t="n">
-        <v>55.58364495168621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -11010,7 +11010,7 @@
         <v>77.00790000000001</v>
       </c>
       <c r="T170" t="n">
-        <v>14.82210257173746</v>
+        <v>101.6007014076376</v>
       </c>
     </row>
     <row r="171">
@@ -11072,7 +11072,7 @@
         <v>284.9998</v>
       </c>
       <c r="T171" t="n">
-        <v>635.5561372274325</v>
+        <v>115.059737258681</v>
       </c>
     </row>
     <row r="172">
@@ -11134,7 +11134,7 @@
         <v>-1</v>
       </c>
       <c r="T172" t="n">
-        <v>29.49631515689971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -11196,7 +11196,7 @@
         <v>60.0002</v>
       </c>
       <c r="T173" t="n">
-        <v>5.596722687023359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -11258,7 +11258,7 @@
         <v>158.013</v>
       </c>
       <c r="T174" t="n">
-        <v>215.4745046091613</v>
+        <v>107.9464694076324</v>
       </c>
     </row>
     <row r="175">
@@ -11320,7 +11320,7 @@
         <v>-1</v>
       </c>
       <c r="T175" t="n">
-        <v>243.9478478329479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -11382,7 +11382,7 @@
         <v>241.3695</v>
       </c>
       <c r="T176" t="n">
-        <v>259.660150209208</v>
+        <v>235.8889872615287</v>
       </c>
     </row>
     <row r="177">
@@ -11444,7 +11444,7 @@
         <v>670</v>
       </c>
       <c r="T177" t="n">
-        <v>2282.677958649202</v>
+        <v>433.0074224269067</v>
       </c>
     </row>
     <row r="178">
@@ -11506,7 +11506,7 @@
         <v>80.21560000000001</v>
       </c>
       <c r="T178" t="n">
-        <v>45.72931568569467</v>
+        <v>50.54058537833269</v>
       </c>
     </row>
     <row r="179">
@@ -11568,7 +11568,7 @@
         <v>69.99980000000001</v>
       </c>
       <c r="T179" t="n">
-        <v>149.378385531207</v>
+        <v>111.5700670569909</v>
       </c>
     </row>
     <row r="180">
@@ -11630,7 +11630,7 @@
         <v>-1</v>
       </c>
       <c r="T180" t="n">
-        <v>238.4092238734904</v>
+        <v>0.3234833260550063</v>
       </c>
     </row>
     <row r="181">
@@ -11692,7 +11692,7 @@
         <v>350.0006</v>
       </c>
       <c r="T181" t="n">
-        <v>227.0097618975513</v>
+        <v>129.8275991658999</v>
       </c>
     </row>
     <row r="182">
@@ -11754,7 +11754,7 @@
         <v>250.6696</v>
       </c>
       <c r="T182" t="n">
-        <v>323.8605519249765</v>
+        <v>243.2603644969944</v>
       </c>
     </row>
     <row r="183">
@@ -11816,7 +11816,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T183" t="n">
-        <v>1827.58119473953</v>
+        <v>1714.070500426968</v>
       </c>
     </row>
     <row r="184">
@@ -11878,7 +11878,7 @@
         <v>-1</v>
       </c>
       <c r="T184" t="n">
-        <v>30.06708376123115</v>
+        <v>111.2811173441554</v>
       </c>
     </row>
     <row r="185">
@@ -11940,7 +11940,7 @@
         <v>238.9999000000001</v>
       </c>
       <c r="T185" t="n">
-        <v>165.3649484928851</v>
+        <v>225.792910924485</v>
       </c>
     </row>
     <row r="186">
@@ -12002,7 +12002,7 @@
         <v>565.0008</v>
       </c>
       <c r="T186" t="n">
-        <v>1571.855864176677</v>
+        <v>919.6973981936106</v>
       </c>
     </row>
     <row r="187">
@@ -12126,7 +12126,7 @@
         <v>19.0004</v>
       </c>
       <c r="T188" t="n">
-        <v>28.73863725130972</v>
+        <v>23.4077709879574</v>
       </c>
     </row>
     <row r="189">
@@ -12188,7 +12188,7 @@
         <v>30.3876</v>
       </c>
       <c r="T189" t="n">
-        <v>27.63216392225331</v>
+        <v>79.19389701158266</v>
       </c>
     </row>
     <row r="190">
@@ -12250,7 +12250,7 @@
         <v>-1</v>
       </c>
       <c r="T190" t="n">
-        <v>8.677528497777095</v>
+        <v>4.027388502667862</v>
       </c>
     </row>
     <row r="191">
@@ -12312,7 +12312,7 @@
         <v>3.2463</v>
       </c>
       <c r="T191" t="n">
-        <v>13.95718482139062</v>
+        <v>7.564100974336592</v>
       </c>
     </row>
     <row r="192">
@@ -12374,7 +12374,7 @@
         <v>6.2618</v>
       </c>
       <c r="T192" t="n">
-        <v>77.94774497379137</v>
+        <v>23.53954198508767</v>
       </c>
     </row>
     <row r="193">
@@ -12436,7 +12436,7 @@
         <v>92.95829999999999</v>
       </c>
       <c r="T193" t="n">
-        <v>58.24336980531105</v>
+        <v>126.5520773811156</v>
       </c>
     </row>
     <row r="194">
@@ -12498,7 +12498,7 @@
         <v>170.4961</v>
       </c>
       <c r="T194" t="n">
-        <v>303.9177220686936</v>
+        <v>221.6664236221709</v>
       </c>
     </row>
     <row r="195">
@@ -12560,7 +12560,7 @@
         <v>5.4517</v>
       </c>
       <c r="T195" t="n">
-        <v>0</v>
+        <v>8.383290217567925</v>
       </c>
     </row>
     <row r="196">
@@ -12622,7 +12622,7 @@
         <v>10.9997</v>
       </c>
       <c r="T196" t="n">
-        <v>207.7052595293006</v>
+        <v>97.11738027780156</v>
       </c>
     </row>
     <row r="197">
@@ -12684,7 +12684,7 @@
         <v>-1</v>
       </c>
       <c r="T197" t="n">
-        <v>9.062004307920356</v>
+        <v>2.175090291637208</v>
       </c>
     </row>
     <row r="198">
@@ -12746,7 +12746,7 @@
         <v>-1</v>
       </c>
       <c r="T198" t="n">
-        <v>0</v>
+        <v>72.22216988540607</v>
       </c>
     </row>
     <row r="199">
@@ -12808,7 +12808,7 @@
         <v>312.9858</v>
       </c>
       <c r="T199" t="n">
-        <v>223.8248115460499</v>
+        <v>136.1391564562886</v>
       </c>
     </row>
     <row r="200">
@@ -12870,7 +12870,7 @@
         <v>964.9152</v>
       </c>
       <c r="T200" t="n">
-        <v>1636.600050562198</v>
+        <v>1535.217758820946</v>
       </c>
     </row>
     <row r="201">
@@ -12932,7 +12932,7 @@
         <v>-1</v>
       </c>
       <c r="T201" t="n">
-        <v>20.16021787220769</v>
+        <v>3.510538038643863</v>
       </c>
     </row>
     <row r="202">
@@ -12994,7 +12994,7 @@
         <v>-1</v>
       </c>
       <c r="T202" t="n">
-        <v>11.47755334506727</v>
+        <v>78.76068075831064</v>
       </c>
     </row>
     <row r="203">
@@ -13056,7 +13056,7 @@
         <v>2.1928</v>
       </c>
       <c r="T203" t="n">
-        <v>22.72840963559182</v>
+        <v>3.013181076851702</v>
       </c>
     </row>
     <row r="204">
@@ -13118,7 +13118,7 @@
         <v>1.3362</v>
       </c>
       <c r="T204" t="n">
-        <v>9.563747704223236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -13180,7 +13180,7 @@
         <v>3.2266</v>
       </c>
       <c r="T205" t="n">
-        <v>32.1453601015314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -13242,7 +13242,7 @@
         <v>6.035299999999999</v>
       </c>
       <c r="T206" t="n">
-        <v>68.99498633862522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -13304,7 +13304,7 @@
         <v>-1</v>
       </c>
       <c r="T207" t="n">
-        <v>24.29307862398068</v>
+        <v>4.488139315123739</v>
       </c>
     </row>
     <row r="208">
@@ -13366,7 +13366,7 @@
         <v>2.5048</v>
       </c>
       <c r="T208" t="n">
-        <v>19.34614279854446</v>
+        <v>1.18809787622976</v>
       </c>
     </row>
     <row r="209">
@@ -13428,7 +13428,7 @@
         <v>5.0002</v>
       </c>
       <c r="T209" t="n">
-        <v>33.60488122850535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -13490,7 +13490,7 @@
         <v>5.9995</v>
       </c>
       <c r="T210" t="n">
-        <v>18.9168393956917</v>
+        <v>7.945470591052494</v>
       </c>
     </row>
     <row r="211">
@@ -13552,7 +13552,7 @@
         <v>6.0004</v>
       </c>
       <c r="T211" t="n">
-        <v>50.68414556453138</v>
+        <v>49.08717164399771</v>
       </c>
     </row>
     <row r="212">
@@ -13614,7 +13614,7 @@
         <v>582.4081</v>
       </c>
       <c r="T212" t="n">
-        <v>1693.717387225793</v>
+        <v>1465.966782509147</v>
       </c>
     </row>
     <row r="213">
@@ -13676,7 +13676,7 @@
         <v>687.6011</v>
       </c>
       <c r="T213" t="n">
-        <v>367.6176313802451</v>
+        <v>261.765543310383</v>
       </c>
     </row>
     <row r="214">
@@ -13738,7 +13738,7 @@
         <v>1736.9996</v>
       </c>
       <c r="T214" t="n">
-        <v>1959.441122107623</v>
+        <v>2226.454582412668</v>
       </c>
     </row>
     <row r="215">
@@ -13800,7 +13800,7 @@
         <v>3154.8637</v>
       </c>
       <c r="T215" t="n">
-        <v>3197.171060651599</v>
+        <v>1687.474494048642</v>
       </c>
     </row>
     <row r="216">
@@ -13862,7 +13862,7 @@
         <v>-1</v>
       </c>
       <c r="T216" t="n">
-        <v>30.85653568606003</v>
+        <v>5.857397300311598</v>
       </c>
     </row>
     <row r="217">
@@ -13924,7 +13924,7 @@
         <v>-1</v>
       </c>
       <c r="T217" t="n">
-        <v>47.02859344697897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13986,7 +13986,7 @@
         <v>48.5395</v>
       </c>
       <c r="T218" t="n">
-        <v>181.3738451733972</v>
+        <v>75.87331345674627</v>
       </c>
     </row>
     <row r="219">
@@ -14048,7 +14048,7 @@
         <v>137.9999</v>
       </c>
       <c r="T219" t="n">
-        <v>115.2855487934309</v>
+        <v>110.0920377974345</v>
       </c>
     </row>
     <row r="220">
@@ -14110,7 +14110,7 @@
         <v>655.0002999999999</v>
       </c>
       <c r="T220" t="n">
-        <v>1128.067205345397</v>
+        <v>436.6908267644653</v>
       </c>
     </row>
     <row r="221">
@@ -14172,7 +14172,7 @@
         <v>53.29469999999999</v>
       </c>
       <c r="T221" t="n">
-        <v>156.0947511216345</v>
+        <v>217.1307259899011</v>
       </c>
     </row>
     <row r="222">
@@ -14234,7 +14234,7 @@
         <v>121.0002</v>
       </c>
       <c r="T222" t="n">
-        <v>36.2988718362659</v>
+        <v>39.40792281970656</v>
       </c>
     </row>
     <row r="223">
@@ -14296,7 +14296,7 @@
         <v>428.1665</v>
       </c>
       <c r="T223" t="n">
-        <v>496.7957829611943</v>
+        <v>200.6054083705349</v>
       </c>
     </row>
     <row r="224">
@@ -14358,7 +14358,7 @@
         <v>152.7379</v>
       </c>
       <c r="T224" t="n">
-        <v>349.2254047690035</v>
+        <v>92.17305337207074</v>
       </c>
     </row>
     <row r="225">
@@ -14420,7 +14420,7 @@
         <v>462.0015</v>
       </c>
       <c r="T225" t="n">
-        <v>344.1650366033147</v>
+        <v>267.1440471331198</v>
       </c>
     </row>
     <row r="226">
@@ -14482,7 +14482,7 @@
         <v>1822.3312</v>
       </c>
       <c r="T226" t="n">
-        <v>2614.32974990355</v>
+        <v>1560.680151245548</v>
       </c>
     </row>
     <row r="227">
@@ -14544,7 +14544,7 @@
         <v>125.0011</v>
       </c>
       <c r="T227" t="n">
-        <v>70.58891558627312</v>
+        <v>55.14650891846869</v>
       </c>
     </row>
     <row r="228">
@@ -14606,7 +14606,7 @@
         <v>208.001</v>
       </c>
       <c r="T228" t="n">
-        <v>403.2045230165173</v>
+        <v>136.9695677529464</v>
       </c>
     </row>
     <row r="229">
@@ -14668,7 +14668,7 @@
         <v>147.0985</v>
       </c>
       <c r="T229" t="n">
-        <v>244.6769250862176</v>
+        <v>98.10900730376945</v>
       </c>
     </row>
     <row r="230">
@@ -14730,7 +14730,7 @@
         <v>349.9999</v>
       </c>
       <c r="T230" t="n">
-        <v>295.7011069683155</v>
+        <v>338.1387418690726</v>
       </c>
     </row>
     <row r="231">
@@ -14792,7 +14792,7 @@
         <v>396.646</v>
       </c>
       <c r="T231" t="n">
-        <v>350.3105608096801</v>
+        <v>269.2320543757067</v>
       </c>
     </row>
     <row r="232">
@@ -14854,7 +14854,7 @@
         <v>1695.0001</v>
       </c>
       <c r="T232" t="n">
-        <v>1921.462085850645</v>
+        <v>1728.191460478089</v>
       </c>
     </row>
     <row r="233">
@@ -14916,7 +14916,7 @@
         <v>49.1615</v>
       </c>
       <c r="T233" t="n">
-        <v>90.90517389498787</v>
+        <v>125.400316001601</v>
       </c>
     </row>
     <row r="234">
@@ -14978,7 +14978,7 @@
         <v>405.0006</v>
       </c>
       <c r="T234" t="n">
-        <v>202.8598487932251</v>
+        <v>271.7559073185534</v>
       </c>
     </row>
     <row r="235">
@@ -15040,7 +15040,7 @@
         <v>1262.0158</v>
       </c>
       <c r="T235" t="n">
-        <v>1642.903650558683</v>
+        <v>904.3376221513522</v>
       </c>
     </row>
     <row r="236">
@@ -15164,7 +15164,7 @@
         <v>59.6185</v>
       </c>
       <c r="T237" t="n">
-        <v>57.85917481718813</v>
+        <v>33.86896896848481</v>
       </c>
     </row>
     <row r="238">
@@ -15226,7 +15226,7 @@
         <v>85.622</v>
       </c>
       <c r="T238" t="n">
-        <v>40.34614925854014</v>
+        <v>77.531506334241</v>
       </c>
     </row>
     <row r="239">
@@ -15288,7 +15288,7 @@
         <v>-1</v>
       </c>
       <c r="T239" t="n">
-        <v>11.89976377768311</v>
+        <v>1.384364999002491</v>
       </c>
     </row>
     <row r="240">
@@ -15350,7 +15350,7 @@
         <v>6.1518</v>
       </c>
       <c r="T240" t="n">
-        <v>37.18633659591483</v>
+        <v>8.529287290341408</v>
       </c>
     </row>
     <row r="241">
@@ -15412,7 +15412,7 @@
         <v>24.9579</v>
       </c>
       <c r="T241" t="n">
-        <v>110.0750991978248</v>
+        <v>10.09242379438998</v>
       </c>
     </row>
     <row r="242">
@@ -15474,7 +15474,7 @@
         <v>120.6001</v>
       </c>
       <c r="T242" t="n">
-        <v>71.67499880686088</v>
+        <v>110.3975704329416</v>
       </c>
     </row>
     <row r="243">
@@ -15536,7 +15536,7 @@
         <v>320.5705</v>
       </c>
       <c r="T243" t="n">
-        <v>353.9143663819316</v>
+        <v>253.0442080768178</v>
       </c>
     </row>
     <row r="244">
@@ -15598,7 +15598,7 @@
         <v>18.1142</v>
       </c>
       <c r="T244" t="n">
-        <v>23.57044718564174</v>
+        <v>4.698984698913148</v>
       </c>
     </row>
     <row r="245">
@@ -15660,7 +15660,7 @@
         <v>52.0008</v>
       </c>
       <c r="T245" t="n">
-        <v>199.7092811505719</v>
+        <v>51.11112985598569</v>
       </c>
     </row>
     <row r="246">
@@ -15722,7 +15722,7 @@
         <v>4</v>
       </c>
       <c r="T246" t="n">
-        <v>13.49022626198927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -15846,7 +15846,7 @@
         <v>640.0003</v>
       </c>
       <c r="T248" t="n">
-        <v>246.3118385417402</v>
+        <v>188.9756754435383</v>
       </c>
     </row>
     <row r="249">
@@ -15908,7 +15908,7 @@
         <v>2006.6505</v>
       </c>
       <c r="T249" t="n">
-        <v>1699.231986559322</v>
+        <v>1736.620818538633</v>
       </c>
     </row>
     <row r="250">
@@ -15970,7 +15970,7 @@
         <v>-1</v>
       </c>
       <c r="T250" t="n">
-        <v>30.85653568606003</v>
+        <v>5.857397300311598</v>
       </c>
     </row>
     <row r="251">
@@ -16032,7 +16032,7 @@
         <v>-1</v>
       </c>
       <c r="T251" t="n">
-        <v>11.71740943167925</v>
+        <v>0.7329546921013997</v>
       </c>
     </row>
     <row r="252">
@@ -16094,7 +16094,7 @@
         <v>7.049500000000001</v>
       </c>
       <c r="T252" t="n">
-        <v>31.45577921757981</v>
+        <v>6.529222908005109</v>
       </c>
     </row>
     <row r="253">
@@ -16156,7 +16156,7 @@
         <v>3.102</v>
       </c>
       <c r="T253" t="n">
-        <v>27.71983441836236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -16218,7 +16218,7 @@
         <v>7.390899999999999</v>
       </c>
       <c r="T254" t="n">
-        <v>34.77210853504543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -16280,7 +16280,7 @@
         <v>47.105</v>
       </c>
       <c r="T255" t="n">
-        <v>69.47997714443673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -16342,7 +16342,7 @@
         <v>2.3998</v>
       </c>
       <c r="T256" t="n">
-        <v>16.6335192021378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -16404,7 +16404,7 @@
         <v>1.8907</v>
       </c>
       <c r="T257" t="n">
-        <v>13.10988738599441</v>
+        <v>4.558662609740635</v>
       </c>
     </row>
     <row r="258">
@@ -16466,7 +16466,7 @@
         <v>5.7134</v>
       </c>
       <c r="T258" t="n">
-        <v>16.6335192021378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -16528,7 +16528,7 @@
         <v>22.5621</v>
       </c>
       <c r="T259" t="n">
-        <v>39.79027305923871</v>
+        <v>13.729059203968</v>
       </c>
     </row>
     <row r="260">
@@ -16590,7 +16590,7 @@
         <v>63.6374</v>
       </c>
       <c r="T260" t="n">
-        <v>67.57595053187868</v>
+        <v>50.68191989682316</v>
       </c>
     </row>
     <row r="261">
@@ -16652,7 +16652,7 @@
         <v>2500</v>
       </c>
       <c r="T261" t="n">
-        <v>1599.781101510245</v>
+        <v>1843.037121887017</v>
       </c>
     </row>
     <row r="262">
@@ -16714,7 +16714,7 @@
         <v>982.6487</v>
       </c>
       <c r="T262" t="n">
-        <v>395.4533678434906</v>
+        <v>368.4582777942862</v>
       </c>
     </row>
     <row r="263">
@@ -16776,7 +16776,7 @@
         <v>3088.7803</v>
       </c>
       <c r="T263" t="n">
-        <v>2148.772219755502</v>
+        <v>2616.090275904811</v>
       </c>
     </row>
     <row r="264">
@@ -16838,7 +16838,7 @@
         <v>5894.566800000001</v>
       </c>
       <c r="T264" t="n">
-        <v>3299.178557747271</v>
+        <v>3354.385903811168</v>
       </c>
     </row>
     <row r="265">
@@ -16900,7 +16900,7 @@
         <v>262.6636</v>
       </c>
       <c r="T265" t="n">
-        <v>444.7550547373527</v>
+        <v>281.5214632179958</v>
       </c>
     </row>
     <row r="266">
@@ -16962,7 +16962,7 @@
         <v>1097.0209</v>
       </c>
       <c r="T266" t="n">
-        <v>1162.077803989087</v>
+        <v>834.4026404777943</v>
       </c>
     </row>
     <row r="267">
@@ -17024,7 +17024,7 @@
         <v>138.6367</v>
       </c>
       <c r="T267" t="n">
-        <v>16.09630877946649</v>
+        <v>50.71359326393368</v>
       </c>
     </row>
     <row r="268">
@@ -17086,7 +17086,7 @@
         <v>816.5275</v>
       </c>
       <c r="T268" t="n">
-        <v>828.5535290318097</v>
+        <v>360.0137270268816</v>
       </c>
     </row>
     <row r="269">
@@ -17148,7 +17148,7 @@
         <v>662.6365</v>
       </c>
       <c r="T269" t="n">
-        <v>410.3380764564165</v>
+        <v>375.1214916638018</v>
       </c>
     </row>
     <row r="270">
@@ -17210,7 +17210,7 @@
         <v>3710.2785</v>
       </c>
       <c r="T270" t="n">
-        <v>2823.314508711364</v>
+        <v>3201.848543907018</v>
       </c>
     </row>
     <row r="271">
@@ -17272,7 +17272,7 @@
         <v>187.8522</v>
       </c>
       <c r="T271" t="n">
-        <v>65.30628623404307</v>
+        <v>84.97256995647811</v>
       </c>
     </row>
     <row r="272">
@@ -17334,7 +17334,7 @@
         <v>302.871</v>
       </c>
       <c r="T272" t="n">
-        <v>566.0368584296606</v>
+        <v>222.0891150872027</v>
       </c>
     </row>
     <row r="273">
@@ -17396,7 +17396,7 @@
         <v>490.4431</v>
       </c>
       <c r="T273" t="n">
-        <v>278.7352710736742</v>
+        <v>247.42751593908</v>
       </c>
     </row>
     <row r="274">
@@ -17458,7 +17458,7 @@
         <v>1115.0003</v>
       </c>
       <c r="T274" t="n">
-        <v>392.7663658766663</v>
+        <v>318.0870458729619</v>
       </c>
     </row>
     <row r="275">
@@ -17520,7 +17520,7 @@
         <v>3615.5807</v>
       </c>
       <c r="T275" t="n">
-        <v>2042.210039483026</v>
+        <v>2199.869965841841</v>
       </c>
     </row>
     <row r="276">
@@ -17582,7 +17582,7 @@
         <v>687.2445</v>
       </c>
       <c r="T276" t="n">
-        <v>167.0702834123921</v>
+        <v>314.7928810559795</v>
       </c>
     </row>
     <row r="277">
@@ -17644,7 +17644,7 @@
         <v>3141.8861</v>
       </c>
       <c r="T277" t="n">
-        <v>1865.810870418553</v>
+        <v>2526.845969923805</v>
       </c>
     </row>
     <row r="278">
@@ -17706,7 +17706,7 @@
         <v>20.7474</v>
       </c>
       <c r="T278" t="n">
-        <v>0</v>
+        <v>20.66720050886681</v>
       </c>
     </row>
     <row r="279">
@@ -17768,7 +17768,7 @@
         <v>128.2046</v>
       </c>
       <c r="T279" t="n">
-        <v>51.94728258544664</v>
+        <v>158.3278858565266</v>
       </c>
     </row>
     <row r="280">
@@ -17830,7 +17830,7 @@
         <v>163.7464</v>
       </c>
       <c r="T280" t="n">
-        <v>87.00550333487757</v>
+        <v>85.69713862965371</v>
       </c>
     </row>
     <row r="281">
@@ -17892,7 +17892,7 @@
         <v>-1</v>
       </c>
       <c r="T281" t="n">
-        <v>17.33140892197316</v>
+        <v>7.949808148176519</v>
       </c>
     </row>
     <row r="282">
@@ -17954,7 +17954,7 @@
         <v>19.085</v>
       </c>
       <c r="T282" t="n">
-        <v>14.64643451349439</v>
+        <v>8.952944251958565</v>
       </c>
     </row>
     <row r="283">
@@ -18016,7 +18016,7 @@
         <v>45.2528</v>
       </c>
       <c r="T283" t="n">
-        <v>132.276209797412</v>
+        <v>67.09430249992275</v>
       </c>
     </row>
     <row r="284">
@@ -18078,7 +18078,7 @@
         <v>206.4925</v>
       </c>
       <c r="T284" t="n">
-        <v>70.94190520480404</v>
+        <v>132.4351986166471</v>
       </c>
     </row>
     <row r="285">
@@ -18140,7 +18140,7 @@
         <v>796.9173</v>
       </c>
       <c r="T285" t="n">
-        <v>377.03504161836</v>
+        <v>313.2610906230037</v>
       </c>
     </row>
     <row r="286">
@@ -18202,7 +18202,7 @@
         <v>19.7169</v>
       </c>
       <c r="T286" t="n">
-        <v>43.79072364540327</v>
+        <v>7.360669310119826</v>
       </c>
     </row>
     <row r="287">
@@ -18264,7 +18264,7 @@
         <v>94.2634</v>
       </c>
       <c r="T287" t="n">
-        <v>289.9180400766483</v>
+        <v>181.8276841434677</v>
       </c>
     </row>
     <row r="288">
@@ -18326,7 +18326,7 @@
         <v>949.5663</v>
       </c>
       <c r="T288" t="n">
-        <v>321.972702483027</v>
+        <v>263.1635443100871</v>
       </c>
     </row>
     <row r="289">
@@ -18388,7 +18388,7 @@
         <v>4644.0113</v>
       </c>
       <c r="T289" t="n">
-        <v>1756.760372467345</v>
+        <v>2256.878141976525</v>
       </c>
     </row>
     <row r="290">
@@ -18450,7 +18450,7 @@
         <v>-1</v>
       </c>
       <c r="T290" t="n">
-        <v>17.33140892197316</v>
+        <v>7.949808148176519</v>
       </c>
     </row>
     <row r="291">
@@ -18512,7 +18512,7 @@
         <v>17.7291</v>
       </c>
       <c r="T291" t="n">
-        <v>10.15357413874102</v>
+        <v>11.53673621767529</v>
       </c>
     </row>
     <row r="292">
@@ -18574,7 +18574,7 @@
         <v>9.175800000000001</v>
       </c>
       <c r="T292" t="n">
-        <v>28.86302887827435</v>
+        <v>5.034870533953274</v>
       </c>
     </row>
     <row r="293">
@@ -18636,7 +18636,7 @@
         <v>24.8</v>
       </c>
       <c r="T293" t="n">
-        <v>43.22367627936125</v>
+        <v>23.7067747515316</v>
       </c>
     </row>
     <row r="294">
@@ -18698,7 +18698,7 @@
         <v>75.5857</v>
       </c>
       <c r="T294" t="n">
-        <v>72.53999923406985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -18760,7 +18760,7 @@
         <v>3.9904</v>
       </c>
       <c r="T295" t="n">
-        <v>17.33140892197316</v>
+        <v>7.949808148176519</v>
       </c>
     </row>
     <row r="296">
@@ -18822,7 +18822,7 @@
         <v>9.1616</v>
       </c>
       <c r="T296" t="n">
-        <v>0</v>
+        <v>10.73327843610119</v>
       </c>
     </row>
     <row r="297">
@@ -18884,7 +18884,7 @@
         <v>17.7484</v>
       </c>
       <c r="T297" t="n">
-        <v>17.33140892197316</v>
+        <v>7.949808148176519</v>
       </c>
     </row>
     <row r="298">
@@ -18946,7 +18946,7 @@
         <v>52.53489999999999</v>
       </c>
       <c r="T298" t="n">
-        <v>29.81245681035508</v>
+        <v>22.49238771821944</v>
       </c>
     </row>
     <row r="299">
@@ -19008,7 +19008,7 @@
         <v>104.225</v>
       </c>
       <c r="T299" t="n">
-        <v>76.22977952635178</v>
+        <v>76.11501692280798</v>
       </c>
     </row>
     <row r="300">
@@ -19070,7 +19070,7 @@
         <v>100</v>
       </c>
       <c r="T300" t="n">
-        <v>1196.241493458918</v>
+        <v>1280.351191399995</v>
       </c>
     </row>
     <row r="301">
@@ -19132,7 +19132,7 @@
         <v>589.9998000000001</v>
       </c>
       <c r="T301" t="n">
-        <v>296.284570576091</v>
+        <v>273.5011075386718</v>
       </c>
     </row>
     <row r="302">
@@ -19194,7 +19194,7 @@
         <v>655.2552999999999</v>
       </c>
       <c r="T302" t="n">
-        <v>1534.294379058465</v>
+        <v>1678.960723158998</v>
       </c>
     </row>
     <row r="303">
@@ -19256,7 +19256,7 @@
         <v>722.2748</v>
       </c>
       <c r="T303" t="n">
-        <v>2267.642900965001</v>
+        <v>359.3876468868121</v>
       </c>
     </row>
     <row r="304">
@@ -19318,7 +19318,7 @@
         <v>40.803</v>
       </c>
       <c r="T304" t="n">
-        <v>53.70983027295011</v>
+        <v>139.0175361851797</v>
       </c>
     </row>
     <row r="305">
@@ -19380,7 +19380,7 @@
         <v>146.9536</v>
       </c>
       <c r="T305" t="n">
-        <v>580.2677030542202</v>
+        <v>283.3486881874609</v>
       </c>
     </row>
     <row r="306">
@@ -19442,7 +19442,7 @@
         <v>25.6258</v>
       </c>
       <c r="T306" t="n">
-        <v>0</v>
+        <v>13.85750185979645</v>
       </c>
     </row>
     <row r="307">
@@ -19504,7 +19504,7 @@
         <v>120.3064</v>
       </c>
       <c r="T307" t="n">
-        <v>208.6778458206524</v>
+        <v>175.0426120946867</v>
       </c>
     </row>
     <row r="308">
@@ -19566,7 +19566,7 @@
         <v>170.6535</v>
       </c>
       <c r="T308" t="n">
-        <v>329.1451190503891</v>
+        <v>281.9562142105092</v>
       </c>
     </row>
     <row r="309">
@@ -19628,7 +19628,7 @@
         <v>441.6952</v>
       </c>
       <c r="T309" t="n">
-        <v>1569.878843727404</v>
+        <v>441.401103863486</v>
       </c>
     </row>
     <row r="310">
@@ -19690,7 +19690,7 @@
         <v>43.6282</v>
       </c>
       <c r="T310" t="n">
-        <v>43.19270247810476</v>
+        <v>26.61869303214016</v>
       </c>
     </row>
     <row r="311">
@@ -19752,7 +19752,7 @@
         <v>55.0725</v>
       </c>
       <c r="T311" t="n">
-        <v>175.9245070749481</v>
+        <v>124.7117009336674</v>
       </c>
     </row>
     <row r="312">
@@ -19814,7 +19814,7 @@
         <v>309.9996</v>
       </c>
       <c r="T312" t="n">
-        <v>22.75142611339354</v>
+        <v>240.5593194617108</v>
       </c>
     </row>
     <row r="313">
@@ -19876,7 +19876,7 @@
         <v>325.0003</v>
       </c>
       <c r="T313" t="n">
-        <v>279.456441156225</v>
+        <v>259.8144440267239</v>
       </c>
     </row>
     <row r="314">
@@ -19938,7 +19938,7 @@
         <v>435.0011</v>
       </c>
       <c r="T314" t="n">
-        <v>1679.560367988859</v>
+        <v>1577.111600295226</v>
       </c>
     </row>
     <row r="315">
@@ -20000,7 +20000,7 @@
         <v>185.0013</v>
       </c>
       <c r="T315" t="n">
-        <v>137.3216211083701</v>
+        <v>230.893173966237</v>
       </c>
     </row>
     <row r="316">
@@ -20062,7 +20062,7 @@
         <v>413.73</v>
       </c>
       <c r="T316" t="n">
-        <v>1004.115453744393</v>
+        <v>610.4845924731111</v>
       </c>
     </row>
     <row r="317">
@@ -20186,7 +20186,7 @@
         <v>10.2007</v>
       </c>
       <c r="T318" t="n">
-        <v>28.1020293015344</v>
+        <v>20.55934416160041</v>
       </c>
     </row>
     <row r="319">
@@ -20248,7 +20248,7 @@
         <v>21.047</v>
       </c>
       <c r="T319" t="n">
-        <v>0</v>
+        <v>41.34814378586525</v>
       </c>
     </row>
     <row r="320">
@@ -20310,7 +20310,7 @@
         <v>2.3729</v>
       </c>
       <c r="T320" t="n">
-        <v>0</v>
+        <v>6.592174338989899</v>
       </c>
     </row>
     <row r="321">
@@ -20372,7 +20372,7 @@
         <v>5.4763</v>
       </c>
       <c r="T321" t="n">
-        <v>43.71649648678256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -20434,7 +20434,7 @@
         <v>69.62139999999999</v>
       </c>
       <c r="T322" t="n">
-        <v>33.76300894292962</v>
+        <v>128.9033341580727</v>
       </c>
     </row>
     <row r="323">
@@ -20496,7 +20496,7 @@
         <v>86.0008</v>
       </c>
       <c r="T323" t="n">
-        <v>266.8241821147974</v>
+        <v>232.3883847903642</v>
       </c>
     </row>
     <row r="324">
@@ -20558,7 +20558,7 @@
         <v>2.4911</v>
       </c>
       <c r="T324" t="n">
-        <v>10.34740133087608</v>
+        <v>9.31939001203753</v>
       </c>
     </row>
     <row r="325">
@@ -20620,7 +20620,7 @@
         <v>6.1442</v>
       </c>
       <c r="T325" t="n">
-        <v>15.28968889550397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -20682,7 +20682,7 @@
         <v>349.8127</v>
       </c>
       <c r="T326" t="n">
-        <v>216.6258488912708</v>
+        <v>204.448163802121</v>
       </c>
     </row>
     <row r="327">
@@ -20744,7 +20744,7 @@
         <v>547.2891</v>
       </c>
       <c r="T327" t="n">
-        <v>1590.748344807265</v>
+        <v>1660.139073616256</v>
       </c>
     </row>
     <row r="328">
@@ -20806,7 +20806,7 @@
         <v>-1</v>
       </c>
       <c r="T328" t="n">
-        <v>0</v>
+        <v>5.417502458190046</v>
       </c>
     </row>
     <row r="329">
@@ -20868,7 +20868,7 @@
         <v>2.2388</v>
       </c>
       <c r="T329" t="n">
-        <v>0</v>
+        <v>1.9689178365236</v>
       </c>
     </row>
     <row r="330">
@@ -20930,7 +20930,7 @@
         <v>1.1186</v>
       </c>
       <c r="T330" t="n">
-        <v>0</v>
+        <v>2.688434612105704</v>
       </c>
     </row>
     <row r="331">
@@ -20992,7 +20992,7 @@
         <v>4.5925</v>
       </c>
       <c r="T331" t="n">
-        <v>24.8935532418319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -21054,7 +21054,7 @@
         <v>11.4436</v>
       </c>
       <c r="T332" t="n">
-        <v>49.57020284479626</v>
+        <v>3.734992638020555</v>
       </c>
     </row>
     <row r="333">
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>0</v>
+        <v>5.417502458190046</v>
       </c>
     </row>
     <row r="334">
@@ -21178,7 +21178,7 @@
         <v>1.116</v>
       </c>
       <c r="T334" t="n">
-        <v>0</v>
+        <v>1.737114717849977</v>
       </c>
     </row>
     <row r="335">
@@ -21240,7 +21240,7 @@
         <v>2.125</v>
       </c>
       <c r="T335" t="n">
-        <v>0</v>
+        <v>5.417502458190046</v>
       </c>
     </row>
     <row r="336">
@@ -21302,7 +21302,7 @@
         <v>3.4947</v>
       </c>
       <c r="T336" t="n">
-        <v>12.24852856363867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -21426,7 +21426,7 @@
         <v>310.001</v>
       </c>
       <c r="T338" t="n">
-        <v>1665.074757980801</v>
+        <v>1041.719096103181</v>
       </c>
     </row>
     <row r="339">
@@ -21488,7 +21488,7 @@
         <v>970.0018</v>
       </c>
       <c r="T339" t="n">
-        <v>19.30883526157029</v>
+        <v>44.12473286692195</v>
       </c>
     </row>
     <row r="340">
@@ -21550,7 +21550,7 @@
         <v>1245.0007</v>
       </c>
       <c r="T340" t="n">
-        <v>1644.821435788759</v>
+        <v>1195.754599010603</v>
       </c>
     </row>
     <row r="341">
@@ -21612,7 +21612,7 @@
         <v>1503</v>
       </c>
       <c r="T341" t="n">
-        <v>1885.62363894279</v>
+        <v>603.8001557464796</v>
       </c>
     </row>
     <row r="342">
@@ -21674,7 +21674,7 @@
         <v>80.9996</v>
       </c>
       <c r="T342" t="n">
-        <v>133.4061121414733</v>
+        <v>60.20403897126239</v>
       </c>
     </row>
     <row r="343">
@@ -21736,7 +21736,7 @@
         <v>268.9157</v>
       </c>
       <c r="T343" t="n">
-        <v>585.1158280444153</v>
+        <v>71.30693364250853</v>
       </c>
     </row>
     <row r="344">
@@ -21798,7 +21798,7 @@
         <v>46.6918</v>
       </c>
       <c r="T344" t="n">
-        <v>38.78554176466029</v>
+        <v>0.5125670807667627</v>
       </c>
     </row>
     <row r="345">
@@ -21860,7 +21860,7 @@
         <v>227.7049</v>
       </c>
       <c r="T345" t="n">
-        <v>163.5035520629163</v>
+        <v>61.63990497602489</v>
       </c>
     </row>
     <row r="346">
@@ -21922,7 +21922,7 @@
         <v>342.9574</v>
       </c>
       <c r="T346" t="n">
-        <v>325.8556186105269</v>
+        <v>197.5866657590044</v>
       </c>
     </row>
     <row r="347">
@@ -21984,7 +21984,7 @@
         <v>730</v>
       </c>
       <c r="T347" t="n">
-        <v>959.3663921966038</v>
+        <v>305.0386392862087</v>
       </c>
     </row>
     <row r="348">
@@ -22046,7 +22046,7 @@
         <v>74.55589999999999</v>
       </c>
       <c r="T348" t="n">
-        <v>0</v>
+        <v>8.46499102291142</v>
       </c>
     </row>
     <row r="349">
@@ -22108,7 +22108,7 @@
         <v>100.9922</v>
       </c>
       <c r="T349" t="n">
-        <v>282.3586741135843</v>
+        <v>35.03530015670391</v>
       </c>
     </row>
     <row r="350">
@@ -22170,7 +22170,7 @@
         <v>490.0001</v>
       </c>
       <c r="T350" t="n">
-        <v>101.6830655946821</v>
+        <v>464.6066594999272</v>
       </c>
     </row>
     <row r="351">
@@ -22232,7 +22232,7 @@
         <v>635.0014</v>
       </c>
       <c r="T351" t="n">
-        <v>274.7998158294395</v>
+        <v>171.6561498327694</v>
       </c>
     </row>
     <row r="352">
@@ -22294,7 +22294,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T352" t="n">
-        <v>1684.253925362755</v>
+        <v>1182.141499664104</v>
       </c>
     </row>
     <row r="353">
@@ -22356,7 +22356,7 @@
         <v>295.0005</v>
       </c>
       <c r="T353" t="n">
-        <v>67.44093020579744</v>
+        <v>30.30130689072344</v>
       </c>
     </row>
     <row r="354">
@@ -22418,7 +22418,7 @@
         <v>575.0004</v>
       </c>
       <c r="T354" t="n">
-        <v>671.3318030807093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -22542,7 +22542,7 @@
         <v>12.0005</v>
       </c>
       <c r="T356" t="n">
-        <v>12.43888961763093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -22604,7 +22604,7 @@
         <v>38.885</v>
       </c>
       <c r="T357" t="n">
-        <v>52.9242132541029</v>
+        <v>34.63320879967087</v>
       </c>
     </row>
     <row r="358">
@@ -22666,7 +22666,7 @@
         <v>4.3014</v>
       </c>
       <c r="T358" t="n">
-        <v>0</v>
+        <v>2.399998274342116</v>
       </c>
     </row>
     <row r="359">
@@ -22728,7 +22728,7 @@
         <v>9.762700000000001</v>
       </c>
       <c r="T359" t="n">
-        <v>61.2326471464882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -22790,7 +22790,7 @@
         <v>120.9999</v>
       </c>
       <c r="T360" t="n">
-        <v>11.76432469858765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -22852,7 +22852,7 @@
         <v>156.0009</v>
       </c>
       <c r="T361" t="n">
-        <v>234.7320516242123</v>
+        <v>106.5804207234773</v>
       </c>
     </row>
     <row r="362">
@@ -22914,7 +22914,7 @@
         <v>4.558</v>
       </c>
       <c r="T362" t="n">
-        <v>7.971994674386492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -22976,7 +22976,7 @@
         <v>7.481299999999999</v>
       </c>
       <c r="T363" t="n">
-        <v>28.75730000927256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -23038,7 +23038,7 @@
         <v>630.0002000000001</v>
       </c>
       <c r="T364" t="n">
-        <v>224.664779299769</v>
+        <v>119.9224874510847</v>
       </c>
     </row>
     <row r="365">
@@ -23100,7 +23100,7 @@
         <v>1000.0007</v>
       </c>
       <c r="T365" t="n">
-        <v>1611.752675558948</v>
+        <v>1296.526419970687</v>
       </c>
     </row>
     <row r="366">
@@ -23162,7 +23162,7 @@
         <v>-1</v>
       </c>
       <c r="T366" t="n">
-        <v>12.29766403672305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -23224,7 +23224,7 @@
         <v>4.0954</v>
       </c>
       <c r="T367" t="n">
-        <v>8.191780571959658</v>
+        <v>1.534346279690294</v>
       </c>
     </row>
     <row r="368">
@@ -23286,7 +23286,7 @@
         <v>2.2856</v>
       </c>
       <c r="T368" t="n">
-        <v>49.35862296471927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -23348,7 +23348,7 @@
         <v>5.0002</v>
       </c>
       <c r="T369" t="n">
-        <v>63.48989601334665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -23410,7 +23410,7 @@
         <v>1.0002</v>
       </c>
       <c r="T370" t="n">
-        <v>12.29766403672305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -23472,7 +23472,7 @@
         <v>1.9981</v>
       </c>
       <c r="T371" t="n">
-        <v>20.57870502719133</v>
+        <v>4.481139335531417</v>
       </c>
     </row>
     <row r="372">
@@ -23534,7 +23534,7 @@
         <v>3.7633</v>
       </c>
       <c r="T372" t="n">
-        <v>21.65085771761571</v>
+        <v>5.973420431267765</v>
       </c>
     </row>
     <row r="373">
@@ -23596,7 +23596,7 @@
         <v>4.0731</v>
       </c>
       <c r="T373" t="n">
-        <v>25.4689626905452</v>
+        <v>0.8280577700359611</v>
       </c>
     </row>
     <row r="374">
@@ -23658,7 +23658,7 @@
         <v>5.8048</v>
       </c>
       <c r="T374" t="n">
-        <v>23.54373943677192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -23720,7 +23720,7 @@
         <v>45.0006</v>
       </c>
       <c r="T375" t="n">
-        <v>87.7494872540581</v>
+        <v>31.04587915636225</v>
       </c>
     </row>
     <row r="376">
@@ -23782,7 +23782,7 @@
         <v>130.0001</v>
       </c>
       <c r="T376" t="n">
-        <v>224.3444063949235</v>
+        <v>57.36528013863632</v>
       </c>
     </row>
     <row r="377">
@@ -23844,7 +23844,7 @@
         <v>145.0007</v>
       </c>
       <c r="T377" t="n">
-        <v>269.5318198486151</v>
+        <v>135.6415411458555</v>
       </c>
     </row>
     <row r="378">
@@ -23906,7 +23906,7 @@
         <v>3.0004</v>
       </c>
       <c r="T378" t="n">
-        <v>33.04061557734219</v>
+        <v>0.1322532379517092</v>
       </c>
     </row>
     <row r="379">
@@ -23968,7 +23968,7 @@
         <v>32.0003</v>
       </c>
       <c r="T379" t="n">
-        <v>77.5242177685758</v>
+        <v>25.66696799081979</v>
       </c>
     </row>
     <row r="380">
@@ -24030,7 +24030,7 @@
         <v>115.0013</v>
       </c>
       <c r="T380" t="n">
-        <v>183.8333652345095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -24092,7 +24092,7 @@
         <v>4.6486</v>
       </c>
       <c r="T381" t="n">
-        <v>35.86499342691377</v>
+        <v>0.2647079285451893</v>
       </c>
     </row>
     <row r="382">
@@ -24154,7 +24154,7 @@
         <v>22</v>
       </c>
       <c r="T382" t="n">
-        <v>61.13090419019853</v>
+        <v>25.84027128528032</v>
       </c>
     </row>
     <row r="383">
@@ -24216,7 +24216,7 @@
         <v>136.4504</v>
       </c>
       <c r="T383" t="n">
-        <v>341.9147783039294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -24278,7 +24278,7 @@
         <v>21.5553</v>
       </c>
       <c r="T384" t="n">
-        <v>60.20275753978601</v>
+        <v>21.10590323855302</v>
       </c>
     </row>
     <row r="385">
@@ -24340,7 +24340,7 @@
         <v>50.0004</v>
       </c>
       <c r="T385" t="n">
-        <v>202.3014854489483</v>
+        <v>24.15561208621334</v>
       </c>
     </row>
     <row r="386">
@@ -24402,7 +24402,7 @@
         <v>5.2401</v>
       </c>
       <c r="T386" t="n">
-        <v>30.40477657045631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -24464,7 +24464,7 @@
         <v>-1</v>
       </c>
       <c r="T387" t="n">
-        <v>35.24579897849556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -24526,7 +24526,7 @@
         <v>20.0004</v>
       </c>
       <c r="T388" t="n">
-        <v>23.87999539986105</v>
+        <v>4.869575358553417</v>
       </c>
     </row>
     <row r="389">
@@ -24588,7 +24588,7 @@
         <v>109</v>
       </c>
       <c r="T389" t="n">
-        <v>127.0323161058751</v>
+        <v>51.34298892995481</v>
       </c>
     </row>
     <row r="390">
@@ -24650,7 +24650,7 @@
         <v>33</v>
       </c>
       <c r="T390" t="n">
-        <v>37.30112709926652</v>
+        <v>5.008625306487268</v>
       </c>
     </row>
     <row r="391">
@@ -24712,7 +24712,7 @@
         <v>295.0005</v>
       </c>
       <c r="T391" t="n">
-        <v>258.6282107913204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -24774,7 +24774,7 @@
         <v>0.6499</v>
       </c>
       <c r="T392" t="n">
-        <v>65.4814758298841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -24836,7 +24836,7 @@
         <v>0.8001</v>
       </c>
       <c r="T393" t="n">
-        <v>12.37575087928299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
@@ -24898,7 +24898,7 @@
         <v>2.7258</v>
       </c>
       <c r="T394" t="n">
-        <v>36.4595677923081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -24960,7 +24960,7 @@
         <v>33.9999</v>
       </c>
       <c r="T395" t="n">
-        <v>49.17438374769669</v>
+        <v>6.073899924532007</v>
       </c>
     </row>
     <row r="396">
@@ -25022,7 +25022,7 @@
         <v>3.9042</v>
       </c>
       <c r="T396" t="n">
-        <v>30.62571447862334</v>
+        <v>0.3707805088131283</v>
       </c>
     </row>
     <row r="397">
@@ -25084,7 +25084,7 @@
         <v>21.0001</v>
       </c>
       <c r="T397" t="n">
-        <v>89.71025577718697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -25146,7 +25146,7 @@
         <v>27.6298</v>
       </c>
       <c r="T398" t="n">
-        <v>80.46820917315453</v>
+        <v>10.84045339517503</v>
       </c>
     </row>
     <row r="399">
@@ -25208,7 +25208,7 @@
         <v>13.2763</v>
       </c>
       <c r="T399" t="n">
-        <v>24.97900720531523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -25270,7 +25270,7 @@
         <v>8.0001</v>
       </c>
       <c r="T400" t="n">
-        <v>90.30313797483895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -25332,7 +25332,7 @@
         <v>1.3001</v>
       </c>
       <c r="T401" t="n">
-        <v>33.00015751927955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -25394,7 +25394,7 @@
         <v>1.1497</v>
       </c>
       <c r="T402" t="n">
-        <v>23.28313619673405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -25456,7 +25456,7 @@
         <v>0.8001</v>
       </c>
       <c r="T403" t="n">
-        <v>42.49571985902465</v>
+        <v>1.12853156943536</v>
       </c>
     </row>
     <row r="404">
@@ -25518,7 +25518,7 @@
         <v>4</v>
       </c>
       <c r="T404" t="n">
-        <v>6.449016493358303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -25580,7 +25580,7 @@
         <v>19.4998</v>
       </c>
       <c r="T405" t="n">
-        <v>49.96443947194718</v>
+        <v>5.306240823038361</v>
       </c>
     </row>
     <row r="406">
@@ -25642,7 +25642,7 @@
         <v>-1</v>
       </c>
       <c r="T406" t="n">
-        <v>28.78301742946591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -25704,7 +25704,7 @@
         <v>22.5004</v>
       </c>
       <c r="T407" t="n">
-        <v>46.73531793984055</v>
+        <v>42.97870676728137</v>
       </c>
     </row>
     <row r="408">
@@ -25766,7 +25766,7 @@
         <v>65.00059999999999</v>
       </c>
       <c r="T408" t="n">
-        <v>158.3225261446039</v>
+        <v>140.5419454299248</v>
       </c>
     </row>
     <row r="409">
@@ -25828,7 +25828,7 @@
         <v>72.50020000000001</v>
       </c>
       <c r="T409" t="n">
-        <v>185.3582554013641</v>
+        <v>190.2527356740427</v>
       </c>
     </row>
     <row r="410">
@@ -25890,7 +25890,7 @@
         <v>1.5002</v>
       </c>
       <c r="T410" t="n">
-        <v>0</v>
+        <v>19.60956334980306</v>
       </c>
     </row>
     <row r="411">
@@ -25952,7 +25952,7 @@
         <v>-1</v>
       </c>
       <c r="T411" t="n">
-        <v>27.37722311472422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -26014,7 +26014,7 @@
         <v>16.0003</v>
       </c>
       <c r="T412" t="n">
-        <v>43.00842050043255</v>
+        <v>42.76892672621612</v>
       </c>
     </row>
     <row r="413">
@@ -26076,7 +26076,7 @@
         <v>57.5006</v>
       </c>
       <c r="T413" t="n">
-        <v>112.4100789512468</v>
+        <v>124.792337624162</v>
       </c>
     </row>
     <row r="414">
@@ -26138,7 +26138,7 @@
         <v>2.3243</v>
       </c>
       <c r="T414" t="n">
-        <v>0</v>
+        <v>43.82970422817831</v>
       </c>
     </row>
     <row r="415">
@@ -26200,7 +26200,7 @@
         <v>-1</v>
       </c>
       <c r="T415" t="n">
-        <v>21.58056268503971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -26262,7 +26262,7 @@
         <v>11.0005</v>
       </c>
       <c r="T416" t="n">
-        <v>43.35746091209615</v>
+        <v>35.79367123578214</v>
       </c>
     </row>
     <row r="417">
@@ -26324,7 +26324,7 @@
         <v>68.2256</v>
       </c>
       <c r="T417" t="n">
-        <v>273.4304797935461</v>
+        <v>90.1747435890011</v>
       </c>
     </row>
     <row r="418">
@@ -26386,7 +26386,7 @@
         <v>10.7781</v>
       </c>
       <c r="T418" t="n">
-        <v>24.92955042530518</v>
+        <v>30.35877189318791</v>
       </c>
     </row>
     <row r="419">
@@ -26448,7 +26448,7 @@
         <v>24.9998</v>
       </c>
       <c r="T419" t="n">
-        <v>142.9104371281389</v>
+        <v>58.57343426890802</v>
       </c>
     </row>
     <row r="420">
@@ -26510,7 +26510,7 @@
         <v>2.6198</v>
       </c>
       <c r="T420" t="n">
-        <v>14.2575452432904</v>
+        <v>7.840638686903171</v>
       </c>
     </row>
     <row r="421">
@@ -26572,7 +26572,7 @@
         <v>-1</v>
       </c>
       <c r="T421" t="n">
-        <v>22.73928659530663</v>
+        <v>24.32856335852128</v>
       </c>
     </row>
     <row r="422">
@@ -26696,7 +26696,7 @@
         <v>10</v>
       </c>
       <c r="T423" t="n">
-        <v>0</v>
+        <v>28.02377975633359</v>
       </c>
     </row>
     <row r="424">
@@ -26758,7 +26758,7 @@
         <v>54.5001</v>
       </c>
       <c r="T424" t="n">
-        <v>50.55052102243024</v>
+        <v>78.90890181641916</v>
       </c>
     </row>
     <row r="425">
@@ -26820,7 +26820,7 @@
         <v>-1</v>
       </c>
       <c r="T425" t="n">
-        <v>41.45238993127971</v>
+        <v>75.03674914064435</v>
       </c>
     </row>
     <row r="426">
@@ -26882,7 +26882,7 @@
         <v>16.4999</v>
       </c>
       <c r="T426" t="n">
-        <v>13.35644724053437</v>
+        <v>27.57510738919835</v>
       </c>
     </row>
     <row r="427">
@@ -26944,7 +26944,7 @@
         <v>147.5008</v>
       </c>
       <c r="T427" t="n">
-        <v>248.235969659123</v>
+        <v>137.8604685925557</v>
       </c>
     </row>
     <row r="428">
@@ -27130,7 +27130,7 @@
         <v>-1</v>
       </c>
       <c r="T430" t="n">
-        <v>21.58056268503971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -27192,7 +27192,7 @@
         <v>1.3629</v>
       </c>
       <c r="T431" t="n">
-        <v>16.96171011399178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -27254,7 +27254,7 @@
         <v>17.0003</v>
       </c>
       <c r="T432" t="n">
-        <v>78.87716628497347</v>
+        <v>104.9796182132926</v>
       </c>
     </row>
     <row r="433">
@@ -27316,7 +27316,7 @@
         <v>1.9376</v>
       </c>
       <c r="T433" t="n">
-        <v>0</v>
+        <v>44.2283444192203</v>
       </c>
     </row>
     <row r="434">
@@ -27378,7 +27378,7 @@
         <v>10.4999</v>
       </c>
       <c r="T434" t="n">
-        <v>60.15653061026695</v>
+        <v>41.32441649443589</v>
       </c>
     </row>
     <row r="435">
@@ -27440,7 +27440,7 @@
         <v>13.8146</v>
       </c>
       <c r="T435" t="n">
-        <v>39.84227108082002</v>
+        <v>48.95401822173932</v>
       </c>
     </row>
     <row r="436">
@@ -27502,7 +27502,7 @@
         <v>6.6018</v>
       </c>
       <c r="T436" t="n">
-        <v>0</v>
+        <v>33.97906383460057</v>
       </c>
     </row>
     <row r="437">
@@ -27564,7 +27564,7 @@
         <v>4.0001</v>
       </c>
       <c r="T437" t="n">
-        <v>24.24715847561989</v>
+        <v>12.96693273810607</v>
       </c>
     </row>
     <row r="438">
@@ -27626,7 +27626,7 @@
         <v>0.6501</v>
       </c>
       <c r="T438" t="n">
-        <v>15.81846015656623</v>
+        <v>6.921354427391039</v>
       </c>
     </row>
     <row r="439">
@@ -27688,7 +27688,7 @@
         <v>0.5753</v>
       </c>
       <c r="T439" t="n">
-        <v>4.963938297465825</v>
+        <v>5.97543288432175</v>
       </c>
     </row>
     <row r="440">
@@ -27750,7 +27750,7 @@
         <v>-1</v>
       </c>
       <c r="T440" t="n">
-        <v>9.663720311878864</v>
+        <v>5.062283522709552</v>
       </c>
     </row>
     <row r="441">
@@ -27812,7 +27812,7 @@
         <v>0.4001</v>
       </c>
       <c r="T441" t="n">
-        <v>20.58813961675646</v>
+        <v>7.970850065902242</v>
       </c>
     </row>
     <row r="442">
@@ -27874,7 +27874,7 @@
         <v>1.9998</v>
       </c>
       <c r="T442" t="n">
-        <v>5.464370481547896</v>
+        <v>43.83318459261542</v>
       </c>
     </row>
     <row r="443">
@@ -27936,7 +27936,7 @@
         <v>9.750299999999999</v>
       </c>
       <c r="T443" t="n">
-        <v>18.92205585334143</v>
+        <v>70.17732668211673</v>
       </c>
     </row>
     <row r="444">
@@ -27998,7 +27998,7 @@
         <v>-1</v>
       </c>
       <c r="T444" t="n">
-        <v>46.21858762482427</v>
+        <v>57.03483017200074</v>
       </c>
     </row>
     <row r="445">
@@ -28060,7 +28060,7 @@
         <v>65.24979999999999</v>
       </c>
       <c r="T445" t="n">
-        <v>11.12793141938261</v>
+        <v>52.31814545557516</v>
       </c>
     </row>
     <row r="446">
@@ -28122,7 +28122,7 @@
         <v>187.5</v>
       </c>
       <c r="T446" t="n">
-        <v>179.9183019821174</v>
+        <v>139.8674282966844</v>
       </c>
     </row>
     <row r="447">
@@ -28184,7 +28184,7 @@
         <v>206.2503</v>
       </c>
       <c r="T447" t="n">
-        <v>201.836148624301</v>
+        <v>179.5636658758964</v>
       </c>
     </row>
     <row r="448">
@@ -28246,7 +28246,7 @@
         <v>4.2003</v>
       </c>
       <c r="T448" t="n">
-        <v>3.088450227788057</v>
+        <v>4.340222254148368</v>
       </c>
     </row>
     <row r="449">
@@ -28308,7 +28308,7 @@
         <v>-1</v>
       </c>
       <c r="T449" t="n">
-        <v>21.91694386967364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -28370,7 +28370,7 @@
         <v>45.4499</v>
       </c>
       <c r="T450" t="n">
-        <v>38.97882935173417</v>
+        <v>49.92188285415305</v>
       </c>
     </row>
     <row r="451">
@@ -28432,7 +28432,7 @@
         <v>162.7504</v>
       </c>
       <c r="T451" t="n">
-        <v>123.9829277213847</v>
+        <v>129.1554109707772</v>
       </c>
     </row>
     <row r="452">
@@ -28494,7 +28494,7 @@
         <v>6.5762</v>
       </c>
       <c r="T452" t="n">
-        <v>9.474739088815326</v>
+        <v>8.374504960402788</v>
       </c>
     </row>
     <row r="453">
@@ -28556,7 +28556,7 @@
         <v>-1</v>
       </c>
       <c r="T453" t="n">
-        <v>22.52221973590868</v>
+        <v>2.997287147137459</v>
       </c>
     </row>
     <row r="454">
@@ -28618,7 +28618,7 @@
         <v>30.75</v>
       </c>
       <c r="T454" t="n">
-        <v>0</v>
+        <v>53.96980102697571</v>
       </c>
     </row>
     <row r="455">
@@ -28680,7 +28680,7 @@
         <v>189.676</v>
       </c>
       <c r="T455" t="n">
-        <v>201.3855229829871</v>
+        <v>72.52595966637297</v>
       </c>
     </row>
     <row r="456">
@@ -28742,7 +28742,7 @@
         <v>30.5996</v>
       </c>
       <c r="T456" t="n">
-        <v>38.06610489190773</v>
+        <v>27.11641486370162</v>
       </c>
     </row>
     <row r="457">
@@ -28804,7 +28804,7 @@
         <v>68.2499</v>
       </c>
       <c r="T457" t="n">
-        <v>172.0562619086033</v>
+        <v>46.10528612194179</v>
       </c>
     </row>
     <row r="458">
@@ -28866,7 +28866,7 @@
         <v>7.2598</v>
       </c>
       <c r="T458" t="n">
-        <v>35.05132066798013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -28928,7 +28928,7 @@
         <v>-1</v>
       </c>
       <c r="T459" t="n">
-        <v>31.37696615623416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -28990,7 +28990,7 @@
         <v>-1</v>
       </c>
       <c r="T460" t="n">
-        <v>40.6557297237532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -29052,7 +29052,7 @@
         <v>-1</v>
       </c>
       <c r="T461" t="n">
-        <v>5.106333910109778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -29114,7 +29114,7 @@
         <v>28.4999</v>
       </c>
       <c r="T462" t="n">
-        <v>12.46311227301902</v>
+        <v>66.81645951803694</v>
       </c>
     </row>
     <row r="463">
@@ -29176,7 +29176,7 @@
         <v>154.4998</v>
       </c>
       <c r="T463" t="n">
-        <v>27.63589776245904</v>
+        <v>77.64802820278135</v>
       </c>
     </row>
     <row r="464">
@@ -29238,7 +29238,7 @@
         <v>47.4</v>
       </c>
       <c r="T464" t="n">
-        <v>30.86366722640973</v>
+        <v>44.4167574696457</v>
       </c>
     </row>
     <row r="465">
@@ -29300,7 +29300,7 @@
         <v>423.7501</v>
       </c>
       <c r="T465" t="n">
-        <v>248.2049776868297</v>
+        <v>128.8776055007894</v>
       </c>
     </row>
     <row r="466">
@@ -29362,7 +29362,7 @@
         <v>0.9003</v>
       </c>
       <c r="T466" t="n">
-        <v>7.978531430241222</v>
+        <v>4.527701086514519</v>
       </c>
     </row>
     <row r="467">
@@ -29424,7 +29424,7 @@
         <v>1.1251</v>
       </c>
       <c r="T467" t="n">
-        <v>6.374827433460102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -29486,7 +29486,7 @@
         <v>-1</v>
       </c>
       <c r="T468" t="n">
-        <v>35.42903585829398</v>
+        <v>1.912067828979681</v>
       </c>
     </row>
     <row r="469">
@@ -29548,7 +29548,7 @@
         <v>3.9384</v>
       </c>
       <c r="T469" t="n">
-        <v>35.42934192394787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -29610,7 +29610,7 @@
         <v>46.95</v>
       </c>
       <c r="T470" t="n">
-        <v>69.2603473569575</v>
+        <v>34.66780214576561</v>
       </c>
     </row>
     <row r="471">
@@ -29672,7 +29672,7 @@
         <v>5.6121</v>
       </c>
       <c r="T471" t="n">
-        <v>26.03316721203177</v>
+        <v>2.335462830534133</v>
       </c>
     </row>
     <row r="472">
@@ -29734,7 +29734,7 @@
         <v>29.6996</v>
       </c>
       <c r="T472" t="n">
-        <v>70.54135716203048</v>
+        <v>36.87369639596843</v>
       </c>
     </row>
     <row r="473">
@@ -29796,7 +29796,7 @@
         <v>40.7794</v>
       </c>
       <c r="T473" t="n">
-        <v>47.71949580338305</v>
+        <v>72.48849420633759</v>
       </c>
     </row>
     <row r="474">
@@ -29858,7 +29858,7 @@
         <v>19.1484</v>
       </c>
       <c r="T474" t="n">
-        <v>21.78242287011096</v>
+        <v>15.40544589388365</v>
       </c>
     </row>
     <row r="475">
@@ -29920,7 +29920,7 @@
         <v>11.55</v>
       </c>
       <c r="T475" t="n">
-        <v>47.53985688569752</v>
+        <v>18.65509271036661</v>
       </c>
     </row>
     <row r="476">
@@ -29982,7 +29982,7 @@
         <v>1.9048</v>
       </c>
       <c r="T476" t="n">
-        <v>35.95093136851492</v>
+        <v>0.488446612309686</v>
       </c>
     </row>
     <row r="477">
@@ -30044,7 +30044,7 @@
         <v>1.5753</v>
       </c>
       <c r="T477" t="n">
-        <v>19.06719011651154</v>
+        <v>0.1020019314765256</v>
       </c>
     </row>
     <row r="478">
@@ -30106,7 +30106,7 @@
         <v>1.1254</v>
       </c>
       <c r="T478" t="n">
-        <v>29.24663204766738</v>
+        <v>2.715166866662163</v>
       </c>
     </row>
     <row r="479">
@@ -30168,7 +30168,7 @@
         <v>5.5501</v>
       </c>
       <c r="T479" t="n">
-        <v>26.4865883837833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -30230,7 +30230,7 @@
         <v>27.8997</v>
       </c>
       <c r="T480" t="n">
-        <v>0</v>
+        <v>55.34681686493146</v>
       </c>
     </row>
     <row r="481">
@@ -30292,7 +30292,7 @@
         <v>-1</v>
       </c>
       <c r="T481" t="n">
-        <v>84.39024531175917</v>
+        <v>61.52544640616873</v>
       </c>
     </row>
     <row r="482">
@@ -30354,7 +30354,7 @@
         <v>70.25019999999999</v>
       </c>
       <c r="T482" t="n">
-        <v>48.2531566373458</v>
+        <v>44.97895016326156</v>
       </c>
     </row>
     <row r="483">
@@ -30416,7 +30416,7 @@
         <v>225.0006</v>
       </c>
       <c r="T483" t="n">
-        <v>458.1057927577524</v>
+        <v>109.5169023969789</v>
       </c>
     </row>
     <row r="484">
@@ -30478,7 +30478,7 @@
         <v>336.0003</v>
       </c>
       <c r="T484" t="n">
-        <v>680.5700657911897</v>
+        <v>240.0378981312567</v>
       </c>
     </row>
     <row r="485">
@@ -30540,7 +30540,7 @@
         <v>4.2006</v>
       </c>
       <c r="T485" t="n">
-        <v>50.19722100529777</v>
+        <v>4.685195227188552</v>
       </c>
     </row>
     <row r="486">
@@ -30602,7 +30602,7 @@
         <v>-1</v>
       </c>
       <c r="T486" t="n">
-        <v>40.08957275720829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -30664,7 +30664,7 @@
         <v>49.95</v>
       </c>
       <c r="T487" t="n">
-        <v>18.48812595272776</v>
+        <v>44.95242275431236</v>
       </c>
     </row>
     <row r="488">
@@ -30726,7 +30726,7 @@
         <v>179.9998</v>
       </c>
       <c r="T488" t="n">
-        <v>444.2490987926383</v>
+        <v>110.388218271986</v>
       </c>
     </row>
     <row r="489">
@@ -30788,7 +30788,7 @@
         <v>8.575799999999999</v>
       </c>
       <c r="T489" t="n">
-        <v>26.84599499600096</v>
+        <v>10.79905417422113</v>
       </c>
     </row>
     <row r="490">
@@ -30850,7 +30850,7 @@
         <v>-1</v>
       </c>
       <c r="T490" t="n">
-        <v>43.03124628127835</v>
+        <v>15.3199845016918</v>
       </c>
     </row>
     <row r="491">
@@ -30912,7 +30912,7 @@
         <v>50.2502</v>
       </c>
       <c r="T491" t="n">
-        <v>58.18225402988588</v>
+        <v>91.71581729130311</v>
       </c>
     </row>
     <row r="492">
@@ -30974,7 +30974,7 @@
         <v>270.0002</v>
       </c>
       <c r="T492" t="n">
-        <v>299.376464941359</v>
+        <v>105.4897171106595</v>
       </c>
     </row>
     <row r="493">
@@ -31036,7 +31036,7 @@
         <v>-1</v>
       </c>
       <c r="T493" t="n">
-        <v>80.82712710055644</v>
+        <v>2.754810277796133</v>
       </c>
     </row>
     <row r="494">
@@ -31098,7 +31098,7 @@
         <v>28.5997</v>
       </c>
       <c r="T494" t="n">
-        <v>73.12677350735626</v>
+        <v>32.18984117973715</v>
       </c>
     </row>
     <row r="495">
@@ -31160,7 +31160,7 @@
         <v>66.0005</v>
       </c>
       <c r="T495" t="n">
-        <v>92.04325180401472</v>
+        <v>58.21417637631749</v>
       </c>
     </row>
     <row r="496">
@@ -31222,7 +31222,7 @@
         <v>7.2597</v>
       </c>
       <c r="T496" t="n">
-        <v>50.33461227053957</v>
+        <v>3.228544559451742</v>
       </c>
     </row>
     <row r="497">
@@ -31284,7 +31284,7 @@
         <v>-1</v>
       </c>
       <c r="T497" t="n">
-        <v>58.60064218367982</v>
+        <v>1.05305608108085</v>
       </c>
     </row>
     <row r="498">
@@ -31346,7 +31346,7 @@
         <v>-1</v>
       </c>
       <c r="T498" t="n">
-        <v>37.81454615991512</v>
+        <v>24.28135321120644</v>
       </c>
     </row>
     <row r="499">
@@ -31408,7 +31408,7 @@
         <v>39</v>
       </c>
       <c r="T499" t="n">
-        <v>80.93555498220182</v>
+        <v>52.45682685186753</v>
       </c>
     </row>
     <row r="500">
@@ -31470,7 +31470,7 @@
         <v>135</v>
       </c>
       <c r="T500" t="n">
-        <v>254.8020465681209</v>
+        <v>164.3892361595083</v>
       </c>
     </row>
     <row r="501">
@@ -31532,7 +31532,7 @@
         <v>-1</v>
       </c>
       <c r="T501" t="n">
-        <v>23.96555424088506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -31594,7 +31594,7 @@
         <v>43.0003</v>
       </c>
       <c r="T502" t="n">
-        <v>86.20965335621783</v>
+        <v>51.3470441798022</v>
       </c>
     </row>
     <row r="503">
@@ -31656,7 +31656,7 @@
         <v>440.0004</v>
       </c>
       <c r="T503" t="n">
-        <v>545.25638891859</v>
+        <v>43.97981955522091</v>
       </c>
     </row>
     <row r="504">
@@ -31718,7 +31718,7 @@
         <v>0.8247</v>
       </c>
       <c r="T504" t="n">
-        <v>27.58229974709943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -31780,7 +31780,7 @@
         <v>0.825</v>
       </c>
       <c r="T505" t="n">
-        <v>23.59523734528157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -31842,7 +31842,7 @@
         <v>-1</v>
       </c>
       <c r="T506" t="n">
-        <v>51.3958664483355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
@@ -31904,7 +31904,7 @@
         <v>2.35</v>
       </c>
       <c r="T507" t="n">
-        <v>35.29922172350186</v>
+        <v>2.304466789078151</v>
       </c>
     </row>
     <row r="508">
@@ -31966,7 +31966,7 @@
         <v>43.0001</v>
       </c>
       <c r="T508" t="n">
-        <v>42.70188180614669</v>
+        <v>33.30292143342597</v>
       </c>
     </row>
     <row r="509">
@@ -32028,7 +32028,7 @@
         <v>-1</v>
       </c>
       <c r="T509" t="n">
-        <v>127.4800371256067</v>
+        <v>75.8006880444639</v>
       </c>
     </row>
     <row r="510">
@@ -32090,7 +32090,7 @@
         <v>5.5571</v>
       </c>
       <c r="T510" t="n">
-        <v>35.60814873640302</v>
+        <v>11.48772534582799</v>
       </c>
     </row>
     <row r="511">
@@ -32152,7 +32152,7 @@
         <v>49.001</v>
       </c>
       <c r="T511" t="n">
-        <v>95.75029183474774</v>
+        <v>31.92606669274889</v>
       </c>
     </row>
     <row r="512">
@@ -32214,7 +32214,7 @@
         <v>60.98840000000001</v>
       </c>
       <c r="T512" t="n">
-        <v>115.3358069086376</v>
+        <v>72.26033696066574</v>
       </c>
     </row>
     <row r="513">
@@ -32276,7 +32276,7 @@
         <v>18.9569</v>
       </c>
       <c r="T513" t="n">
-        <v>71.60373965674168</v>
+        <v>31.30700463583883</v>
       </c>
     </row>
     <row r="514">
@@ -32338,7 +32338,7 @@
         <v>19.0499</v>
       </c>
       <c r="T514" t="n">
-        <v>62.16574740893</v>
+        <v>30.59824263931148</v>
       </c>
     </row>
     <row r="515">
@@ -32400,7 +32400,7 @@
         <v>1.9048</v>
       </c>
       <c r="T515" t="n">
-        <v>54.03946191775956</v>
+        <v>0.9900148981534205</v>
       </c>
     </row>
     <row r="516">
@@ -32462,7 +32462,7 @@
         <v>-1</v>
       </c>
       <c r="T516" t="n">
-        <v>80.82712710055644</v>
+        <v>2.754810277796133</v>
       </c>
     </row>
     <row r="517">
@@ -32524,7 +32524,7 @@
         <v>1.5748</v>
       </c>
       <c r="T517" t="n">
-        <v>42.73028269687068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -32586,7 +32586,7 @@
         <v>-1</v>
       </c>
       <c r="T518" t="n">
-        <v>47.15609902129064</v>
+        <v>11.07631329600455</v>
       </c>
     </row>
     <row r="519">
@@ -32648,7 +32648,7 @@
         <v>0.8253</v>
       </c>
       <c r="T519" t="n">
-        <v>60.5203891833243</v>
+        <v>0.9185464816793311</v>
       </c>
     </row>
     <row r="520">
@@ -32710,7 +32710,7 @@
         <v>4.4997</v>
       </c>
       <c r="T520" t="n">
-        <v>42.45405946499959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -32772,7 +32772,7 @@
         <v>47.0002</v>
       </c>
       <c r="T521" t="n">
-        <v>5.57725252519158</v>
+        <v>53.90148914250364</v>
       </c>
     </row>
     <row r="522">
@@ -32834,7 +32834,7 @@
         <v>10</v>
       </c>
       <c r="T522" t="n">
-        <v>0</v>
+        <v>34.10096396406348</v>
       </c>
     </row>
     <row r="523">
@@ -32896,7 +32896,7 @@
         <v>85.2572</v>
       </c>
       <c r="T523" t="n">
-        <v>30.27297325044573</v>
+        <v>32.38424917628588</v>
       </c>
     </row>
     <row r="524">
@@ -32958,7 +32958,7 @@
         <v>273.3009</v>
       </c>
       <c r="T524" t="n">
-        <v>229.2806399898241</v>
+        <v>100.6767837378993</v>
       </c>
     </row>
     <row r="525">
@@ -33020,7 +33020,7 @@
         <v>409.6</v>
       </c>
       <c r="T525" t="n">
-        <v>293.2713974191764</v>
+        <v>136.6263027653586</v>
       </c>
     </row>
     <row r="526">
@@ -33082,7 +33082,7 @@
         <v>5.1661</v>
       </c>
       <c r="T526" t="n">
-        <v>9.508117940750624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -33144,7 +33144,7 @@
         <v>-1</v>
       </c>
       <c r="T527" t="n">
-        <v>84.66138807258659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -33206,7 +33206,7 @@
         <v>61.4383</v>
       </c>
       <c r="T528" t="n">
-        <v>0</v>
+        <v>44.32008679063196</v>
       </c>
     </row>
     <row r="529">
@@ -33268,7 +33268,7 @@
         <v>221.3998</v>
       </c>
       <c r="T529" t="n">
-        <v>195.3215309194585</v>
+        <v>106.5649163083121</v>
       </c>
     </row>
     <row r="530">
@@ -33330,7 +33330,7 @@
         <v>10.5488</v>
       </c>
       <c r="T530" t="n">
-        <v>7.772428981902362</v>
+        <v>6.912406655130104</v>
       </c>
     </row>
     <row r="531">
@@ -33392,7 +33392,7 @@
         <v>-1</v>
       </c>
       <c r="T531" t="n">
-        <v>6.369965011223336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -33454,7 +33454,7 @@
         <v>61.8075</v>
       </c>
       <c r="T532" t="n">
-        <v>78.13260445776862</v>
+        <v>79.65323648384143</v>
       </c>
     </row>
     <row r="533">
@@ -33516,7 +33516,7 @@
         <v>332.0997</v>
       </c>
       <c r="T533" t="n">
-        <v>21.5090799914246</v>
+        <v>118.7876545219157</v>
       </c>
     </row>
     <row r="534">
@@ -33578,7 +33578,7 @@
         <v>35.1775</v>
       </c>
       <c r="T534" t="n">
-        <v>31.91266533147037</v>
+        <v>25.07343787316793</v>
       </c>
     </row>
     <row r="535">
@@ -33640,7 +33640,7 @@
         <v>81.17989999999999</v>
       </c>
       <c r="T535" t="n">
-        <v>76.54028997144877</v>
+        <v>46.95335918869443</v>
       </c>
     </row>
     <row r="536">
@@ -33702,7 +33702,7 @@
         <v>8.9291</v>
       </c>
       <c r="T536" t="n">
-        <v>10.62157626805262</v>
+        <v>2.004646087645475</v>
       </c>
     </row>
     <row r="537">
@@ -33764,7 +33764,7 @@
         <v>-1</v>
       </c>
       <c r="T537" t="n">
-        <v>7.075882924215322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -33826,7 +33826,7 @@
         <v>-1</v>
       </c>
       <c r="T538" t="n">
-        <v>15.75961729028689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -33888,7 +33888,7 @@
         <v>47.9702</v>
       </c>
       <c r="T539" t="n">
-        <v>42.89890122561027</v>
+        <v>30.90902370851251</v>
       </c>
     </row>
     <row r="540">
@@ -33950,7 +33950,7 @@
         <v>-1</v>
       </c>
       <c r="T540" t="n">
-        <v>14.09474703071846</v>
+        <v>127.1695691531943</v>
       </c>
     </row>
     <row r="541">
@@ -34012,7 +34012,7 @@
         <v>-1</v>
       </c>
       <c r="T541" t="n">
-        <v>1.944983633658486</v>
+        <v>28.34406141696211</v>
       </c>
     </row>
     <row r="542">
@@ -34074,7 +34074,7 @@
         <v>52.8901</v>
       </c>
       <c r="T542" t="n">
-        <v>43.31195235414367</v>
+        <v>30.85499163073111</v>
       </c>
     </row>
     <row r="543">
@@ -34136,7 +34136,7 @@
         <v>541.1995000000001</v>
       </c>
       <c r="T543" t="n">
-        <v>213.1771345426047</v>
+        <v>125.2996298788057</v>
       </c>
     </row>
     <row r="544">
@@ -34260,7 +34260,7 @@
         <v>1.0142</v>
       </c>
       <c r="T545" t="n">
-        <v>13.26406203371899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -34322,7 +34322,7 @@
         <v>2.8901</v>
       </c>
       <c r="T546" t="n">
-        <v>23.54663983712219</v>
+        <v>0.9663717253486697</v>
       </c>
     </row>
     <row r="547">
@@ -34384,7 +34384,7 @@
         <v>52.89</v>
       </c>
       <c r="T547" t="n">
-        <v>43.09436144378117</v>
+        <v>37.88825980375919</v>
       </c>
     </row>
     <row r="548">
@@ -34508,7 +34508,7 @@
         <v>7.038499999999999</v>
       </c>
       <c r="T549" t="n">
-        <v>11.25142784813602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -34570,7 +34570,7 @@
         <v>60.2702</v>
       </c>
       <c r="T550" t="n">
-        <v>38.81945622353761</v>
+        <v>28.84844493712967</v>
       </c>
     </row>
     <row r="551">
@@ -34632,7 +34632,7 @@
         <v>-1</v>
       </c>
       <c r="T551" t="n">
-        <v>0</v>
+        <v>39.65189176713314</v>
       </c>
     </row>
     <row r="552">
@@ -34694,7 +34694,7 @@
         <v>24.0996</v>
       </c>
       <c r="T552" t="n">
-        <v>20.95227369771802</v>
+        <v>14.44745886456377</v>
       </c>
     </row>
     <row r="553">
@@ -34756,7 +34756,7 @@
         <v>23.4313</v>
       </c>
       <c r="T553" t="n">
-        <v>61.45501270002959</v>
+        <v>29.98577158266122</v>
       </c>
     </row>
     <row r="554">
@@ -34818,7 +34818,7 @@
         <v>2.3431</v>
       </c>
       <c r="T554" t="n">
-        <v>20.56801350913266</v>
+        <v>3.196745293857874</v>
       </c>
     </row>
     <row r="555">
@@ -34880,7 +34880,7 @@
         <v>-1</v>
       </c>
       <c r="T555" t="n">
-        <v>22.56130189401408</v>
+        <v>34.05497264271346</v>
       </c>
     </row>
     <row r="556">
@@ -34942,7 +34942,7 @@
         <v>1.9373</v>
       </c>
       <c r="T556" t="n">
-        <v>8.482938544224497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
@@ -35004,7 +35004,7 @@
         <v>1.0145</v>
       </c>
       <c r="T557" t="n">
-        <v>11.22233004763551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -35066,7 +35066,7 @@
         <v>5.5351</v>
       </c>
       <c r="T558" t="n">
-        <v>92.56158429018296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
@@ -35128,7 +35128,7 @@
         <v>47.0001</v>
       </c>
       <c r="T559" t="n">
-        <v>0</v>
+        <v>45.42346110555452</v>
       </c>
     </row>
     <row r="560">
@@ -35190,7 +35190,7 @@
         <v>-1</v>
       </c>
       <c r="T560" t="n">
-        <v>240.1777392810648</v>
+        <v>79.01565852644308</v>
       </c>
     </row>
     <row r="561">
@@ -35252,7 +35252,7 @@
         <v>72.20010000000001</v>
       </c>
       <c r="T561" t="n">
-        <v>56.33649307839117</v>
+        <v>47.31158391068965</v>
       </c>
     </row>
     <row r="562">
@@ -35314,7 +35314,7 @@
         <v>231.1114</v>
       </c>
       <c r="T562" t="n">
-        <v>389.0376900672998</v>
+        <v>118.0611599182323</v>
       </c>
     </row>
     <row r="563">
@@ -35376,7 +35376,7 @@
         <v>343.1307</v>
       </c>
       <c r="T563" t="n">
-        <v>406.5457049684082</v>
+        <v>170.2508183209378</v>
       </c>
     </row>
     <row r="564">
@@ -35438,7 +35438,7 @@
         <v>4.2774</v>
       </c>
       <c r="T564" t="n">
-        <v>26.8703057062784</v>
+        <v>3.123504489069309</v>
       </c>
     </row>
     <row r="565">
@@ -35500,7 +35500,7 @@
         <v>-1</v>
       </c>
       <c r="T565" t="n">
-        <v>125.2458865421687</v>
+        <v>53.93137642330992</v>
       </c>
     </row>
     <row r="566">
@@ -35562,7 +35562,7 @@
         <v>51.18680000000001</v>
       </c>
       <c r="T566" t="n">
-        <v>25.42261639714508</v>
+        <v>40.76079786798008</v>
       </c>
     </row>
     <row r="567">
@@ -35624,7 +35624,7 @@
         <v>183.8605</v>
       </c>
       <c r="T567" t="n">
-        <v>343.6671304222035</v>
+        <v>115.4143162794333</v>
       </c>
     </row>
     <row r="568">
@@ -35686,7 +35686,7 @@
         <v>8.800599999999999</v>
       </c>
       <c r="T568" t="n">
-        <v>30.07153872104302</v>
+        <v>8.145388313197747</v>
       </c>
     </row>
     <row r="569">
@@ -35748,7 +35748,7 @@
         <v>-1</v>
       </c>
       <c r="T569" t="n">
-        <v>29.73305976487178</v>
+        <v>4.531287880562507</v>
       </c>
     </row>
     <row r="570">
@@ -35810,7 +35810,7 @@
         <v>51.5917</v>
       </c>
       <c r="T570" t="n">
-        <v>110.534711468088</v>
+        <v>90.01649122220292</v>
       </c>
     </row>
     <row r="571">
@@ -35872,7 +35872,7 @@
         <v>275.7907</v>
       </c>
       <c r="T571" t="n">
-        <v>286.2156724460713</v>
+        <v>148.7624898086701</v>
       </c>
     </row>
     <row r="572">
@@ -35934,7 +35934,7 @@
         <v>-1</v>
       </c>
       <c r="T572" t="n">
-        <v>20.99453686775012</v>
+        <v>1.165217390341217</v>
       </c>
     </row>
     <row r="573">
@@ -35996,7 +35996,7 @@
         <v>29.2229</v>
       </c>
       <c r="T573" t="n">
-        <v>51.94334126967097</v>
+        <v>21.24586137056694</v>
       </c>
     </row>
     <row r="574">
@@ -36058,7 +36058,7 @@
         <v>66.7841</v>
       </c>
       <c r="T574" t="n">
-        <v>220.4520891022354</v>
+        <v>53.49665231230858</v>
       </c>
     </row>
     <row r="575">
@@ -36120,7 +36120,7 @@
         <v>7.367699999999999</v>
       </c>
       <c r="T575" t="n">
-        <v>14.72723062290241</v>
+        <v>6.436678752258204</v>
       </c>
     </row>
     <row r="576">
@@ -36182,7 +36182,7 @@
         <v>-1</v>
       </c>
       <c r="T576" t="n">
-        <v>11.89976377768311</v>
+        <v>1.384364999002491</v>
       </c>
     </row>
     <row r="577">
@@ -36244,7 +36244,7 @@
         <v>39.9627</v>
       </c>
       <c r="T577" t="n">
-        <v>63.77187550898854</v>
+        <v>22.83622316252244</v>
       </c>
     </row>
     <row r="578">
@@ -36306,7 +36306,7 @@
         <v>138.5841</v>
       </c>
       <c r="T578" t="n">
-        <v>92.45441019142497</v>
+        <v>108.6346844481146</v>
       </c>
     </row>
     <row r="579">
@@ -36368,7 +36368,7 @@
         <v>-1</v>
       </c>
       <c r="T579" t="n">
-        <v>45.26814587610775</v>
+        <v>10.88798376446548</v>
       </c>
     </row>
     <row r="580">
@@ -36430,7 +36430,7 @@
         <v>44.1595</v>
       </c>
       <c r="T580" t="n">
-        <v>63.63921716588568</v>
+        <v>39.97284234857572</v>
       </c>
     </row>
     <row r="581">
@@ -36492,7 +36492,7 @@
         <v>452.3446</v>
       </c>
       <c r="T581" t="n">
-        <v>384.268056999264</v>
+        <v>188.8433689433697</v>
       </c>
     </row>
     <row r="582">
@@ -36554,7 +36554,7 @@
         <v>0.8353</v>
       </c>
       <c r="T582" t="n">
-        <v>0</v>
+        <v>0.1729399410521833</v>
       </c>
     </row>
     <row r="583">
@@ -36616,7 +36616,7 @@
         <v>0.8353</v>
       </c>
       <c r="T583" t="n">
-        <v>33.34865021606509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -36678,7 +36678,7 @@
         <v>-1</v>
       </c>
       <c r="T584" t="n">
-        <v>11.89976377768311</v>
+        <v>1.384364999002491</v>
       </c>
     </row>
     <row r="585">
@@ -36740,7 +36740,7 @@
         <v>2.3993</v>
       </c>
       <c r="T585" t="n">
-        <v>40.45026184994894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -36802,7 +36802,7 @@
         <v>43.6772</v>
       </c>
       <c r="T586" t="n">
-        <v>86.30737982501016</v>
+        <v>143.3634964280087</v>
       </c>
     </row>
     <row r="587">
@@ -36864,7 +36864,7 @@
         <v>5.755</v>
       </c>
       <c r="T587" t="n">
-        <v>30.54566771175018</v>
+        <v>6.6956231531026</v>
       </c>
     </row>
     <row r="588">
@@ -36926,7 +36926,7 @@
         <v>50.1278</v>
       </c>
       <c r="T588" t="n">
-        <v>90.24142303112107</v>
+        <v>32.77282465470606</v>
       </c>
     </row>
     <row r="589">
@@ -36988,7 +36988,7 @@
         <v>63.2574</v>
       </c>
       <c r="T589" t="n">
-        <v>0</v>
+        <v>38.90306718788904</v>
       </c>
     </row>
     <row r="590">
@@ -37050,7 +37050,7 @@
         <v>19.7054</v>
       </c>
       <c r="T590" t="n">
-        <v>35.15836510111044</v>
+        <v>12.35019775786134</v>
       </c>
     </row>
     <row r="591">
@@ -37112,7 +37112,7 @@
         <v>19.6838</v>
       </c>
       <c r="T591" t="n">
-        <v>84.75922560206283</v>
+        <v>33.43028379330791</v>
       </c>
     </row>
     <row r="592">
@@ -37174,7 +37174,7 @@
         <v>1.9685</v>
       </c>
       <c r="T592" t="n">
-        <v>23.41839131428397</v>
+        <v>1.718057099339548</v>
       </c>
     </row>
     <row r="593">
@@ -37236,7 +37236,7 @@
         <v>-1</v>
       </c>
       <c r="T593" t="n">
-        <v>29.22787026363496</v>
+        <v>39.31335625208276</v>
       </c>
     </row>
     <row r="594">
@@ -37298,7 +37298,7 @@
         <v>1.5924</v>
       </c>
       <c r="T594" t="n">
-        <v>26.2120913992934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -37360,7 +37360,7 @@
         <v>-1</v>
       </c>
       <c r="T595" t="n">
-        <v>12.5371858951602</v>
+        <v>14.1898251466985</v>
       </c>
     </row>
     <row r="596">
@@ -37422,7 +37422,7 @@
         <v>0.8353</v>
       </c>
       <c r="T596" t="n">
-        <v>11.89976377768311</v>
+        <v>1.384364999002491</v>
       </c>
     </row>
     <row r="597">
@@ -37484,7 +37484,7 @@
         <v>4.5427</v>
       </c>
       <c r="T597" t="n">
-        <v>95.69283025932273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -37546,7 +37546,7 @@
         <v>49.9997</v>
       </c>
       <c r="T598" t="n">
-        <v>63.53055084724327</v>
+        <v>39.40511513732785</v>
       </c>
     </row>
     <row r="599">
@@ -37608,7 +37608,7 @@
         <v>72.6339</v>
       </c>
       <c r="T599" t="n">
-        <v>63.47709876018139</v>
+        <v>74.59498569282799</v>
       </c>
     </row>
     <row r="600">
@@ -37670,7 +37670,7 @@
         <v>240.3169</v>
       </c>
       <c r="T600" t="n">
-        <v>574.4066815286587</v>
+        <v>177.478438958247</v>
       </c>
     </row>
     <row r="601">
@@ -37732,7 +37732,7 @@
         <v>361.0804</v>
       </c>
       <c r="T601" t="n">
-        <v>527.1326343173704</v>
+        <v>274.552583506945</v>
       </c>
     </row>
     <row r="602">
@@ -37794,7 +37794,7 @@
         <v>4.3693</v>
       </c>
       <c r="T602" t="n">
-        <v>8.433518844878495</v>
+        <v>8.060261448200118</v>
       </c>
     </row>
     <row r="603">
@@ -37856,7 +37856,7 @@
         <v>51.6017</v>
       </c>
       <c r="T603" t="n">
-        <v>68.59994757585534</v>
+        <v>71.41842998019129</v>
       </c>
     </row>
     <row r="604">
@@ -37918,7 +37918,7 @@
         <v>196.7636</v>
       </c>
       <c r="T604" t="n">
-        <v>534.5626791846339</v>
+        <v>176.3486579169039</v>
       </c>
     </row>
     <row r="605">
@@ -37980,7 +37980,7 @@
         <v>8.659699999999999</v>
       </c>
       <c r="T605" t="n">
-        <v>22.84628605293557</v>
+        <v>11.61456071093091</v>
       </c>
     </row>
     <row r="606">
@@ -38042,7 +38042,7 @@
         <v>51.3151</v>
       </c>
       <c r="T606" t="n">
-        <v>83.42388429432521</v>
+        <v>52.51871602965054</v>
       </c>
     </row>
     <row r="607">
@@ -38104,7 +38104,7 @@
         <v>-1</v>
       </c>
       <c r="T607" t="n">
-        <v>417.6379959793883</v>
+        <v>206.2365104158903</v>
       </c>
     </row>
     <row r="608">
@@ -38166,7 +38166,7 @@
         <v>29.6632</v>
       </c>
       <c r="T608" t="n">
-        <v>71.73104151798042</v>
+        <v>47.99109110841056</v>
       </c>
     </row>
     <row r="609">
@@ -38228,7 +38228,7 @@
         <v>71.3374</v>
       </c>
       <c r="T609" t="n">
-        <v>242.1779409083674</v>
+        <v>162.9993188283289</v>
       </c>
     </row>
     <row r="610">
@@ -38290,7 +38290,7 @@
         <v>7.6278</v>
       </c>
       <c r="T610" t="n">
-        <v>27.98419316721311</v>
+        <v>12.04139299666327</v>
       </c>
     </row>
     <row r="611">
@@ -38352,7 +38352,7 @@
         <v>-1</v>
       </c>
       <c r="T611" t="n">
-        <v>17.33140892197316</v>
+        <v>7.949808148176519</v>
       </c>
     </row>
     <row r="612">
@@ -38414,7 +38414,7 @@
         <v>40.7916</v>
       </c>
       <c r="T612" t="n">
-        <v>79.14352396468678</v>
+        <v>34.10319623990333</v>
       </c>
     </row>
     <row r="613">
@@ -38476,7 +38476,7 @@
         <v>140.1716</v>
       </c>
       <c r="T613" t="n">
-        <v>181.699494549446</v>
+        <v>195.6623307759984</v>
       </c>
     </row>
     <row r="614">
@@ -38538,7 +38538,7 @@
         <v>45.3716</v>
       </c>
       <c r="T614" t="n">
-        <v>48.53404785191197</v>
+        <v>18.79533381246587</v>
       </c>
     </row>
     <row r="615">
@@ -38600,7 +38600,7 @@
         <v>449.1803000000001</v>
       </c>
       <c r="T615" t="n">
-        <v>532.5324250255934</v>
+        <v>315.5897066987848</v>
       </c>
     </row>
     <row r="616">
@@ -38662,7 +38662,7 @@
         <v>0.8909</v>
       </c>
       <c r="T616" t="n">
-        <v>0</v>
+        <v>9.963857588654353</v>
       </c>
     </row>
     <row r="617">
@@ -38724,7 +38724,7 @@
         <v>0.8908</v>
       </c>
       <c r="T617" t="n">
-        <v>30.16593880448612</v>
+        <v>3.831289593838109</v>
       </c>
     </row>
     <row r="618">
@@ -38786,7 +38786,7 @@
         <v>2.5471</v>
       </c>
       <c r="T618" t="n">
-        <v>38.77343828801707</v>
+        <v>8.025534752774179</v>
       </c>
     </row>
     <row r="619">
@@ -38848,7 +38848,7 @@
         <v>45.854</v>
       </c>
       <c r="T619" t="n">
-        <v>60.84013138762362</v>
+        <v>31.88769788375363</v>
       </c>
     </row>
     <row r="620">
@@ -38910,7 +38910,7 @@
         <v>5.7114</v>
       </c>
       <c r="T620" t="n">
-        <v>54.41721362498882</v>
+        <v>7.409200357332279</v>
       </c>
     </row>
     <row r="621">
@@ -38972,7 +38972,7 @@
         <v>51.11</v>
       </c>
       <c r="T621" t="n">
-        <v>119.6270293243989</v>
+        <v>70.0102585157113</v>
       </c>
     </row>
     <row r="622">
@@ -39034,7 +39034,7 @@
         <v>60.86340000000001</v>
       </c>
       <c r="T622" t="n">
-        <v>52.5680007752462</v>
+        <v>78.0530368067472</v>
       </c>
     </row>
     <row r="623">
@@ -39096,7 +39096,7 @@
         <v>19.5246</v>
       </c>
       <c r="T623" t="n">
-        <v>45.75048566000137</v>
+        <v>15.26126278072537</v>
       </c>
     </row>
     <row r="624">
@@ -39158,7 +39158,7 @@
         <v>19.2224</v>
       </c>
       <c r="T624" t="n">
-        <v>86.49139004092746</v>
+        <v>42.29421527121621</v>
       </c>
     </row>
     <row r="625">
@@ -39220,7 +39220,7 @@
         <v>-1</v>
       </c>
       <c r="T625" t="n">
-        <v>16.82718313820626</v>
+        <v>10.84172389142485</v>
       </c>
     </row>
     <row r="626">
@@ -39282,7 +39282,7 @@
         <v>1.6737</v>
       </c>
       <c r="T626" t="n">
-        <v>27.80513718508585</v>
+        <v>5.080267536750526</v>
       </c>
     </row>
     <row r="627">
@@ -39344,7 +39344,7 @@
         <v>0.891</v>
       </c>
       <c r="T627" t="n">
-        <v>17.33140892197316</v>
+        <v>7.949808148176519</v>
       </c>
     </row>
     <row r="628">
@@ -39406,7 +39406,7 @@
         <v>4.8014</v>
       </c>
       <c r="T628" t="n">
-        <v>101.7242723226426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -39468,7 +39468,7 @@
         <v>50.1301</v>
       </c>
       <c r="T629" t="n">
-        <v>70.14288707390834</v>
+        <v>72.97504653518534</v>
       </c>
     </row>
     <row r="630">
@@ -39530,7 +39530,7 @@
         <v>26.6801</v>
       </c>
       <c r="T630" t="n">
-        <v>0</v>
+        <v>28.60804109910469</v>
       </c>
     </row>
     <row r="631">
@@ -39592,7 +39592,7 @@
         <v>85.95999999999999</v>
       </c>
       <c r="T631" t="n">
-        <v>155.5610882520425</v>
+        <v>131.7160893268127</v>
       </c>
     </row>
     <row r="632">
@@ -39654,7 +39654,7 @@
         <v>126.3998</v>
       </c>
       <c r="T632" t="n">
-        <v>244.9971027789886</v>
+        <v>103.7766461676159</v>
       </c>
     </row>
     <row r="633">
@@ -39716,7 +39716,7 @@
         <v>1.3638</v>
       </c>
       <c r="T633" t="n">
-        <v>0</v>
+        <v>12.59090334490275</v>
       </c>
     </row>
     <row r="634">
@@ -39778,7 +39778,7 @@
         <v>16.9556</v>
       </c>
       <c r="T634" t="n">
-        <v>13.56900445951073</v>
+        <v>12.51542079210273</v>
       </c>
     </row>
     <row r="635">
@@ -39840,7 +39840,7 @@
         <v>62.0002</v>
       </c>
       <c r="T635" t="n">
-        <v>170.936016346025</v>
+        <v>125.2431535672636</v>
       </c>
     </row>
     <row r="636">
@@ -39902,7 +39902,7 @@
         <v>2.6378</v>
       </c>
       <c r="T636" t="n">
-        <v>8.58842040773526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -39964,7 +39964,7 @@
         <v>16.6551</v>
       </c>
       <c r="T637" t="n">
-        <v>16.92020847761703</v>
+        <v>30.64188345708673</v>
       </c>
     </row>
     <row r="638">
@@ -40026,7 +40026,7 @@
         <v>94.3198</v>
       </c>
       <c r="T638" t="n">
-        <v>95.89618452176614</v>
+        <v>108.7908183126199</v>
       </c>
     </row>
     <row r="639">
@@ -40088,7 +40088,7 @@
         <v>-1</v>
       </c>
       <c r="T639" t="n">
-        <v>1.298508394293022</v>
+        <v>2.910919689362031</v>
       </c>
     </row>
     <row r="640">
@@ -40150,7 +40150,7 @@
         <v>9.1576</v>
       </c>
       <c r="T640" t="n">
-        <v>12.95977794942512</v>
+        <v>18.64405038023902</v>
       </c>
     </row>
     <row r="641">
@@ -40212,7 +40212,7 @@
         <v>23.0573</v>
       </c>
       <c r="T641" t="n">
-        <v>56.23295966284085</v>
+        <v>5.021720255351788</v>
       </c>
     </row>
     <row r="642">
@@ -40274,7 +40274,7 @@
         <v>2.4055</v>
       </c>
       <c r="T642" t="n">
-        <v>0.9187291342448123</v>
+        <v>5.980955440966935</v>
       </c>
     </row>
     <row r="643">
@@ -40336,7 +40336,7 @@
         <v>13.2736</v>
       </c>
       <c r="T643" t="n">
-        <v>0</v>
+        <v>4.042454022569967</v>
       </c>
     </row>
     <row r="644">
@@ -40398,7 +40398,7 @@
         <v>46.0799</v>
       </c>
       <c r="T644" t="n">
-        <v>0</v>
+        <v>13.43234381680605</v>
       </c>
     </row>
     <row r="645">
@@ -40460,7 +40460,7 @@
         <v>14.2612</v>
       </c>
       <c r="T645" t="n">
-        <v>6.284815649805611</v>
+        <v>17.34998051858195</v>
       </c>
     </row>
     <row r="646">
@@ -40522,7 +40522,7 @@
         <v>148.4</v>
       </c>
       <c r="T646" t="n">
-        <v>182.0715697119944</v>
+        <v>90.99644338907065</v>
       </c>
     </row>
     <row r="647">
@@ -40584,7 +40584,7 @@
         <v>0.2829</v>
       </c>
       <c r="T647" t="n">
-        <v>0</v>
+        <v>5.151059975437982</v>
       </c>
     </row>
     <row r="648">
@@ -40646,7 +40646,7 @@
         <v>-1</v>
       </c>
       <c r="T648" t="n">
-        <v>0</v>
+        <v>5.417502458190046</v>
       </c>
     </row>
     <row r="649">
@@ -40708,7 +40708,7 @@
         <v>0.7863</v>
       </c>
       <c r="T649" t="n">
-        <v>0.8718678569321043</v>
+        <v>7.57633065913407</v>
       </c>
     </row>
     <row r="650">
@@ -40770,7 +40770,7 @@
         <v>15.4798</v>
       </c>
       <c r="T650" t="n">
-        <v>0</v>
+        <v>3.305515653913905</v>
       </c>
     </row>
     <row r="651">
@@ -40832,7 +40832,7 @@
         <v>1.733</v>
       </c>
       <c r="T651" t="n">
-        <v>0</v>
+        <v>15.28973519715964</v>
       </c>
     </row>
     <row r="652">
@@ -40894,7 +40894,7 @@
         <v>15.7148</v>
       </c>
       <c r="T652" t="n">
-        <v>28.53527590580341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -40956,7 +40956,7 @@
         <v>20.0064</v>
       </c>
       <c r="T653" t="n">
-        <v>13.71409816799531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -41080,7 +41080,7 @@
         <v>6.531</v>
       </c>
       <c r="T655" t="n">
-        <v>58.6994763216917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -41142,7 +41142,7 @@
         <v>0.5641</v>
       </c>
       <c r="T656" t="n">
-        <v>3.249498015865522</v>
+        <v>12.83378032836605</v>
       </c>
     </row>
     <row r="657">
@@ -41266,7 +41266,7 @@
         <v>0.5338000000000001</v>
       </c>
       <c r="T658" t="n">
-        <v>0</v>
+        <v>3.107581046709595</v>
       </c>
     </row>
     <row r="659">
@@ -41328,7 +41328,7 @@
         <v>-1</v>
       </c>
       <c r="T659" t="n">
-        <v>0</v>
+        <v>12.51077158731299</v>
       </c>
     </row>
     <row r="660">
@@ -41390,7 +41390,7 @@
         <v>0.2827</v>
       </c>
       <c r="T660" t="n">
-        <v>4.291957358982192</v>
+        <v>5.432921081102145</v>
       </c>
     </row>
     <row r="661">
@@ -41452,7 +41452,7 @@
         <v>1.5383</v>
       </c>
       <c r="T661" t="n">
-        <v>70.07453272972229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
@@ -41514,7 +41514,7 @@
         <v>17.1199</v>
       </c>
       <c r="T662" t="n">
-        <v>0</v>
+        <v>5.21091167127599</v>
       </c>
     </row>
     <row r="663">
@@ -41576,7 +41576,7 @@
         <v>30.7088</v>
       </c>
       <c r="T663" t="n">
-        <v>19.30883526157029</v>
+        <v>44.12473286692195</v>
       </c>
     </row>
     <row r="664">
@@ -41638,7 +41638,7 @@
         <v>94.8353</v>
       </c>
       <c r="T664" t="n">
-        <v>147.7819502060489</v>
+        <v>63.46722102105814</v>
       </c>
     </row>
     <row r="665">
@@ -41700,7 +41700,7 @@
         <v>-1</v>
       </c>
       <c r="T665" t="n">
-        <v>322.8760047305955</v>
+        <v>26.55645689424128</v>
       </c>
     </row>
     <row r="666">
@@ -41762,7 +41762,7 @@
         <v>1.4254</v>
       </c>
       <c r="T666" t="n">
-        <v>38.78554176466029</v>
+        <v>0.5125670807667627</v>
       </c>
     </row>
     <row r="667">
@@ -41824,7 +41824,7 @@
         <v>17.4042</v>
       </c>
       <c r="T667" t="n">
-        <v>30.30404981074919</v>
+        <v>12.49924528645674</v>
       </c>
     </row>
     <row r="668">
@@ -41886,7 +41886,7 @@
         <v>62.4926</v>
       </c>
       <c r="T668" t="n">
-        <v>214.630759987134</v>
+        <v>49.85578088859697</v>
       </c>
     </row>
     <row r="669">
@@ -41948,7 +41948,7 @@
         <v>2.9385</v>
       </c>
       <c r="T669" t="n">
-        <v>11.62616576843479</v>
+        <v>3.933895819091022</v>
       </c>
     </row>
     <row r="670">
@@ -42010,7 +42010,7 @@
         <v>17.4724</v>
       </c>
       <c r="T670" t="n">
-        <v>68.33589075014073</v>
+        <v>27.20511903291789</v>
       </c>
     </row>
     <row r="671">
@@ -42072,7 +42072,7 @@
         <v>94.30159999999999</v>
       </c>
       <c r="T671" t="n">
-        <v>182.6436536893574</v>
+        <v>21.99787772480847</v>
       </c>
     </row>
     <row r="672">
@@ -42134,7 +42134,7 @@
         <v>9.8513</v>
       </c>
       <c r="T672" t="n">
-        <v>29.9025309904062</v>
+        <v>14.093885780946</v>
       </c>
     </row>
     <row r="673">
@@ -42196,7 +42196,7 @@
         <v>22.5049</v>
       </c>
       <c r="T673" t="n">
-        <v>115.8882857233083</v>
+        <v>12.89505976620143</v>
       </c>
     </row>
     <row r="674">
@@ -42320,7 +42320,7 @@
         <v>13.7427</v>
       </c>
       <c r="T675" t="n">
-        <v>0</v>
+        <v>4.853004666413993</v>
       </c>
     </row>
     <row r="676">
@@ -42382,7 +42382,7 @@
         <v>47.6786</v>
       </c>
       <c r="T676" t="n">
-        <v>94.21043506103004</v>
+        <v>33.60216354873352</v>
       </c>
     </row>
     <row r="677">
@@ -42444,7 +42444,7 @@
         <v>15.2288</v>
       </c>
       <c r="T677" t="n">
-        <v>67.44093020579744</v>
+        <v>30.30130689072344</v>
       </c>
     </row>
     <row r="678">
@@ -42506,7 +42506,7 @@
         <v>154.0869</v>
       </c>
       <c r="T678" t="n">
-        <v>263.6787379474101</v>
+        <v>7.54307870170978</v>
       </c>
     </row>
     <row r="679">
@@ -42568,7 +42568,7 @@
         <v>0.2824</v>
       </c>
       <c r="T679" t="n">
-        <v>1.757751911714363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -42630,7 +42630,7 @@
         <v>0.845</v>
       </c>
       <c r="T680" t="n">
-        <v>11.76432469858765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -42692,7 +42692,7 @@
         <v>14.7618</v>
       </c>
       <c r="T681" t="n">
-        <v>0</v>
+        <v>2.386249554443433</v>
       </c>
     </row>
     <row r="682">
@@ -42754,7 +42754,7 @@
         <v>1.9498</v>
       </c>
       <c r="T682" t="n">
-        <v>19.80177711835869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -42816,7 +42816,7 @@
         <v>17.0852</v>
       </c>
       <c r="T683" t="n">
-        <v>42.03141508693063</v>
+        <v>0.7684236619575125</v>
       </c>
     </row>
     <row r="684">
@@ -42878,7 +42878,7 @@
         <v>21.8758</v>
       </c>
       <c r="T684" t="n">
-        <v>13.86100842086096</v>
+        <v>5.730110209675758</v>
       </c>
     </row>
     <row r="685">
@@ -42940,7 +42940,7 @@
         <v>6.680700000000001</v>
       </c>
       <c r="T685" t="n">
-        <v>1.957740247113026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -43002,7 +43002,7 @@
         <v>0.6685</v>
       </c>
       <c r="T686" t="n">
-        <v>1.474556021201303</v>
+        <v>18.50830906553661</v>
       </c>
     </row>
     <row r="687">
@@ -43064,7 +43064,7 @@
         <v>-1</v>
       </c>
       <c r="T687" t="n">
-        <v>28.87389328187838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -43126,7 +43126,7 @@
         <v>0.5255</v>
       </c>
       <c r="T688" t="n">
-        <v>1.253394436255262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -43188,7 +43188,7 @@
         <v>0.2824</v>
       </c>
       <c r="T689" t="n">
-        <v>30.15083127506217</v>
+        <v>2.377468385626182</v>
       </c>
     </row>
     <row r="690">
@@ -43250,7 +43250,7 @@
         <v>1.497</v>
       </c>
       <c r="T690" t="n">
-        <v>63.48989601334665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -43312,7 +43312,7 @@
         <v>17.6805</v>
       </c>
       <c r="T691" t="n">
-        <v>24.56346227217007</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -656,7 +656,7 @@
         <v>485.0013</v>
       </c>
       <c r="T3" t="n">
-        <v>247.0301434194196</v>
+        <v>369.5791089473599</v>
       </c>
     </row>
     <row r="4">
@@ -780,7 +780,7 @@
         <v>475.0013999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>823.5681655385565</v>
+        <v>174.1079853170683</v>
       </c>
     </row>
     <row r="6">
@@ -842,7 +842,7 @@
         <v>44.0011</v>
       </c>
       <c r="T6" t="n">
-        <v>61.1275857342665</v>
+        <v>39.90846379076038</v>
       </c>
     </row>
     <row r="7">
@@ -904,7 +904,7 @@
         <v>13.4402</v>
       </c>
       <c r="T7" t="n">
-        <v>200.0646990384041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -966,7 +966,7 @@
         <v>24.0004</v>
       </c>
       <c r="T8" t="n">
-        <v>15.26420118179601</v>
+        <v>25.65624743105196</v>
       </c>
     </row>
     <row r="9">
@@ -1028,7 +1028,7 @@
         <v>17.0002</v>
       </c>
       <c r="T9" t="n">
-        <v>18.60989607079688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1090,7 +1090,7 @@
         <v>126</v>
       </c>
       <c r="T10" t="n">
-        <v>169.9376622697891</v>
+        <v>177.9669816929502</v>
       </c>
     </row>
     <row r="11">
@@ -1214,7 +1214,7 @@
         <v>52.0016</v>
       </c>
       <c r="T12" t="n">
-        <v>31.50552188012345</v>
+        <v>43.70552601746306</v>
       </c>
     </row>
     <row r="13">
@@ -1338,7 +1338,7 @@
         <v>309.0002</v>
       </c>
       <c r="T14" t="n">
-        <v>374.6922794824724</v>
+        <v>263.7105754282798</v>
       </c>
     </row>
     <row r="15">
@@ -1400,7 +1400,7 @@
         <v>185.0012</v>
       </c>
       <c r="T15" t="n">
-        <v>185.5493983594321</v>
+        <v>323.8150759983182</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1462,7 @@
         <v>127.9999</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>620.3355397322371</v>
       </c>
     </row>
     <row r="17">
@@ -1524,7 +1524,7 @@
         <v>148.9997</v>
       </c>
       <c r="T17" t="n">
-        <v>248.0577166726091</v>
+        <v>224.963612767289</v>
       </c>
     </row>
     <row r="18">
@@ -1586,7 +1586,7 @@
         <v>107.7205</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>103.5968659003145</v>
       </c>
     </row>
     <row r="19">
@@ -1710,7 +1710,7 @@
         <v>1.1891</v>
       </c>
       <c r="T20" t="n">
-        <v>86.50349348379899</v>
+        <v>77.90602078631001</v>
       </c>
     </row>
     <row r="21">
@@ -1772,7 +1772,7 @@
         <v>17.9999</v>
       </c>
       <c r="T21" t="n">
-        <v>19.65613685624902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1834,7 +1834,7 @@
         <v>2.3276</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5152301607213002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2020,7 +2020,7 @@
         <v>29.6372</v>
       </c>
       <c r="T25" t="n">
-        <v>23.39902469451328</v>
+        <v>300.2979738734111</v>
       </c>
     </row>
     <row r="26">
@@ -2082,7 +2082,7 @@
         <v>1.0002</v>
       </c>
       <c r="T26" t="n">
-        <v>6.45791360856312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2144,7 +2144,7 @@
         <v>4.0002</v>
       </c>
       <c r="T27" t="n">
-        <v>12.85925880226422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2206,7 +2206,7 @@
         <v>178.0008</v>
       </c>
       <c r="T28" t="n">
-        <v>133.1145975093946</v>
+        <v>288.9972243945153</v>
       </c>
     </row>
     <row r="29">
@@ -2268,7 +2268,7 @@
         <v>104.0006</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>926.9660109749593</v>
       </c>
     </row>
     <row r="30">
@@ -2330,7 +2330,7 @@
         <v>-1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.795811189665958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2454,7 +2454,7 @@
         <v>-1</v>
       </c>
       <c r="T32" t="n">
-        <v>3.672431965553983</v>
+        <v>71.30962221085665</v>
       </c>
     </row>
     <row r="33">
@@ -2764,7 +2764,7 @@
         <v>-1</v>
       </c>
       <c r="T37" t="n">
-        <v>27.48922459069661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2826,7 +2826,7 @@
         <v>10.0004</v>
       </c>
       <c r="T38" t="n">
-        <v>2.826531863257337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2950,7 +2950,7 @@
         <v>500.0008</v>
       </c>
       <c r="T40" t="n">
-        <v>328.9117109177144</v>
+        <v>411.0550960655044</v>
       </c>
     </row>
     <row r="41">
@@ -3012,7 +3012,7 @@
         <v>445.0001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>430.290823292941</v>
       </c>
     </row>
     <row r="42">
@@ -3074,7 +3074,7 @@
         <v>585</v>
       </c>
       <c r="T42" t="n">
-        <v>1285.211189283064</v>
+        <v>1147.35294644253</v>
       </c>
     </row>
     <row r="43">
@@ -3136,7 +3136,7 @@
         <v>40.0009</v>
       </c>
       <c r="T43" t="n">
-        <v>74.61111066474507</v>
+        <v>15.14725786495323</v>
       </c>
     </row>
     <row r="44">
@@ -3198,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="T44" t="n">
-        <v>257.7417605934824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3260,7 +3260,7 @@
         <v>31.0002</v>
       </c>
       <c r="T45" t="n">
-        <v>33.85873612369966</v>
+        <v>31.01379908958035</v>
       </c>
     </row>
     <row r="46">
@@ -3322,7 +3322,7 @@
         <v>35.0004</v>
       </c>
       <c r="T46" t="n">
-        <v>75.39266243466309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3384,7 +3384,7 @@
         <v>165.001</v>
       </c>
       <c r="T47" t="n">
-        <v>292.0269562981898</v>
+        <v>197.0597438393694</v>
       </c>
     </row>
     <row r="48">
@@ -3446,7 +3446,7 @@
         <v>131.0002</v>
       </c>
       <c r="T48" t="n">
-        <v>177.6223738868757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3508,7 +3508,7 @@
         <v>65.001</v>
       </c>
       <c r="T49" t="n">
-        <v>90.35972490663002</v>
+        <v>75.64297569600549</v>
       </c>
     </row>
     <row r="50">
@@ -3570,7 +3570,7 @@
         <v>43.9993</v>
       </c>
       <c r="T50" t="n">
-        <v>10.62269373418373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3632,7 +3632,7 @@
         <v>299.0002</v>
       </c>
       <c r="T51" t="n">
-        <v>213.3716001735425</v>
+        <v>200.5937543837195</v>
       </c>
     </row>
     <row r="52">
@@ -3694,7 +3694,7 @@
         <v>220.0009</v>
       </c>
       <c r="T52" t="n">
-        <v>200.5753301068372</v>
+        <v>326.9649836609481</v>
       </c>
     </row>
     <row r="53">
@@ -3756,7 +3756,7 @@
         <v>282.0002</v>
       </c>
       <c r="T53" t="n">
-        <v>96.17634062271702</v>
+        <v>741.1816849907693</v>
       </c>
     </row>
     <row r="54">
@@ -3818,7 +3818,7 @@
         <v>190.9999000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>263.3406382783992</v>
+        <v>236.5645127647671</v>
       </c>
     </row>
     <row r="55">
@@ -3880,7 +3880,7 @@
         <v>193</v>
       </c>
       <c r="T55" t="n">
-        <v>230.3775866639067</v>
+        <v>995.767457197999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,7 +4004,7 @@
         <v>1.1891</v>
       </c>
       <c r="T57" t="n">
-        <v>96.37767939524558</v>
+        <v>78.55527095915758</v>
       </c>
     </row>
     <row r="58">
@@ -4066,7 +4066,7 @@
         <v>25.0011</v>
       </c>
       <c r="T58" t="n">
-        <v>34.90048543912242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4128,7 +4128,7 @@
         <v>2.3276</v>
       </c>
       <c r="T59" t="n">
-        <v>4.822214330897471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4252,7 +4252,7 @@
         <v>48.0004</v>
       </c>
       <c r="T61" t="n">
-        <v>29.17327206264247</v>
+        <v>13.0120883620838</v>
       </c>
     </row>
     <row r="62">
@@ -4314,7 +4314,7 @@
         <v>51.9996</v>
       </c>
       <c r="T62" t="n">
-        <v>77.72341068623224</v>
+        <v>286.3469678786017</v>
       </c>
     </row>
     <row r="63">
@@ -4376,7 +4376,7 @@
         <v>1.0002</v>
       </c>
       <c r="T63" t="n">
-        <v>1.995301208834231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4438,7 +4438,7 @@
         <v>4.0002</v>
       </c>
       <c r="T64" t="n">
-        <v>21.46028995672271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4500,7 +4500,7 @@
         <v>230.0008</v>
       </c>
       <c r="T65" t="n">
-        <v>239.5829773668889</v>
+        <v>326.9963760588547</v>
       </c>
     </row>
     <row r="66">
@@ -4562,7 +4562,7 @@
         <v>156.0009</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1013.22129582169</v>
       </c>
     </row>
     <row r="67">
@@ -4686,7 +4686,7 @@
         <v>-1</v>
       </c>
       <c r="T68" t="n">
-        <v>5.893608930028742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4748,7 +4748,7 @@
         <v>-1</v>
       </c>
       <c r="T69" t="n">
-        <v>6.289092437383017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4810,7 +4810,7 @@
         <v>1.0003</v>
       </c>
       <c r="T70" t="n">
-        <v>14.56921813182694</v>
+        <v>59.62740523216284</v>
       </c>
     </row>
     <row r="71">
@@ -4872,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="T71" t="n">
-        <v>24.42829683961134</v>
+        <v>7.619132859342958</v>
       </c>
     </row>
     <row r="72">
@@ -4996,7 +4996,7 @@
         <v>-1</v>
       </c>
       <c r="T73" t="n">
-        <v>9.248630102214136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5058,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="T74" t="n">
-        <v>5.797679908763742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5182,7 +5182,7 @@
         <v>146.0011</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>385.5038489817614</v>
       </c>
     </row>
     <row r="77">
@@ -5244,7 +5244,7 @@
         <v>450.001</v>
       </c>
       <c r="T77" t="n">
-        <v>281.6879921650849</v>
+        <v>429.6982873798881</v>
       </c>
     </row>
     <row r="78">
@@ -5306,7 +5306,7 @@
         <v>469.9998000000001</v>
       </c>
       <c r="T78" t="n">
-        <v>88.22982347622958</v>
+        <v>1103.363171002223</v>
       </c>
     </row>
     <row r="79">
@@ -5368,7 +5368,7 @@
         <v>680.0014</v>
       </c>
       <c r="T79" t="n">
-        <v>1383.14304500218</v>
+        <v>1654.954271409881</v>
       </c>
     </row>
     <row r="80">
@@ -5430,7 +5430,7 @@
         <v>-1</v>
       </c>
       <c r="T80" t="n">
-        <v>74.50677191681622</v>
+        <v>62.14323692595788</v>
       </c>
     </row>
     <row r="81">
@@ -5492,7 +5492,7 @@
         <v>38.0018</v>
       </c>
       <c r="T81" t="n">
-        <v>76.11079746587461</v>
+        <v>42.15861251864014</v>
       </c>
     </row>
     <row r="82">
@@ -5554,7 +5554,7 @@
         <v>107.0004</v>
       </c>
       <c r="T82" t="n">
-        <v>250.6571329076148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -5616,7 +5616,7 @@
         <v>-1</v>
       </c>
       <c r="T83" t="n">
-        <v>21.35988460746819</v>
+        <v>59.41519267866704</v>
       </c>
     </row>
     <row r="84">
@@ -5678,7 +5678,7 @@
         <v>38.0009</v>
       </c>
       <c r="T84" t="n">
-        <v>44.31089160932173</v>
+        <v>19.73393261086578</v>
       </c>
     </row>
     <row r="85">
@@ -5740,7 +5740,7 @@
         <v>58.0004</v>
       </c>
       <c r="T85" t="n">
-        <v>37.43473311436453</v>
+        <v>30.09549229387601</v>
       </c>
     </row>
     <row r="86">
@@ -5802,7 +5802,7 @@
         <v>-1</v>
       </c>
       <c r="T86" t="n">
-        <v>182.919377492821</v>
+        <v>139.0206695401738</v>
       </c>
     </row>
     <row r="87">
@@ -5864,7 +5864,7 @@
         <v>175.0001</v>
       </c>
       <c r="T87" t="n">
-        <v>213.6523047812726</v>
+        <v>210.8678445329251</v>
       </c>
     </row>
     <row r="88">
@@ -5926,7 +5926,7 @@
         <v>215</v>
       </c>
       <c r="T88" t="n">
-        <v>509.9799013323655</v>
+        <v>590.88404044226</v>
       </c>
     </row>
     <row r="89">
@@ -5988,7 +5988,7 @@
         <v>73.00080000000001</v>
       </c>
       <c r="T89" t="n">
-        <v>105.3107692755359</v>
+        <v>77.10803983935196</v>
       </c>
     </row>
     <row r="90">
@@ -6112,7 +6112,7 @@
         <v>-1</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>62.90936129768215</v>
       </c>
     </row>
     <row r="92">
@@ -6174,7 +6174,7 @@
         <v>280.0001</v>
       </c>
       <c r="T92" t="n">
-        <v>51.82978342267865</v>
+        <v>192.1914226678992</v>
       </c>
     </row>
     <row r="93">
@@ -6236,7 +6236,7 @@
         <v>260.0014</v>
       </c>
       <c r="T93" t="n">
-        <v>266.1755164202907</v>
+        <v>363.3407107089624</v>
       </c>
     </row>
     <row r="94">
@@ -6298,7 +6298,7 @@
         <v>250.0017</v>
       </c>
       <c r="T94" t="n">
-        <v>165.9174974942789</v>
+        <v>1290.464281093244</v>
       </c>
     </row>
     <row r="95">
@@ -6360,7 +6360,7 @@
         <v>-1</v>
       </c>
       <c r="T95" t="n">
-        <v>19.79956377116452</v>
+        <v>32.29441761998969</v>
       </c>
     </row>
     <row r="96">
@@ -6422,7 +6422,7 @@
         <v>170.0019</v>
       </c>
       <c r="T96" t="n">
-        <v>261.8136161696384</v>
+        <v>270.7320654467938</v>
       </c>
     </row>
     <row r="97">
@@ -6484,7 +6484,7 @@
         <v>118.001</v>
       </c>
       <c r="T97" t="n">
-        <v>380.2760848929498</v>
+        <v>1829.147456776953</v>
       </c>
     </row>
     <row r="98">
@@ -6546,7 +6546,7 @@
         <v>1.9994</v>
       </c>
       <c r="T98" t="n">
-        <v>1.955702057957732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -6608,7 +6608,7 @@
         <v>1.189</v>
       </c>
       <c r="T99" t="n">
-        <v>85.34900158167983</v>
+        <v>76.46282299001042</v>
       </c>
     </row>
     <row r="100">
@@ -6670,7 +6670,7 @@
         <v>35</v>
       </c>
       <c r="T100" t="n">
-        <v>35.36107326807808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -6732,7 +6732,7 @@
         <v>3.3281</v>
       </c>
       <c r="T101" t="n">
-        <v>8.003835387647181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6856,7 +6856,7 @@
         <v>85.0001</v>
       </c>
       <c r="T103" t="n">
-        <v>56.03729763324778</v>
+        <v>9.952847388876336</v>
       </c>
     </row>
     <row r="104">
@@ -6918,7 +6918,7 @@
         <v>75.0012</v>
       </c>
       <c r="T104" t="n">
-        <v>38.44176964116658</v>
+        <v>164.5758980307351</v>
       </c>
     </row>
     <row r="105">
@@ -6980,7 +6980,7 @@
         <v>1.0001</v>
       </c>
       <c r="T105" t="n">
-        <v>3.471688984517163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -7042,7 +7042,7 @@
         <v>2.9998</v>
       </c>
       <c r="T106" t="n">
-        <v>12.50884382483642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -7104,7 +7104,7 @@
         <v>-1</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>153.2533777707891</v>
       </c>
     </row>
     <row r="108">
@@ -7166,7 +7166,7 @@
         <v>210.001</v>
       </c>
       <c r="T108" t="n">
-        <v>209.7920260975615</v>
+        <v>330.1723503359207</v>
       </c>
     </row>
     <row r="109">
@@ -7228,7 +7228,7 @@
         <v>250.9999</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1212.321360612819</v>
       </c>
     </row>
     <row r="110">
@@ -7290,7 +7290,7 @@
         <v>-1</v>
       </c>
       <c r="T110" t="n">
-        <v>0.1245983973112687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7352,7 +7352,7 @@
         <v>-1</v>
       </c>
       <c r="T111" t="n">
-        <v>0.1020019314765256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7414,7 +7414,7 @@
         <v>1.0001</v>
       </c>
       <c r="T112" t="n">
-        <v>21.36373403583165</v>
+        <v>82.33622377698421</v>
       </c>
     </row>
     <row r="113">
@@ -7786,7 +7786,7 @@
         <v>5.0005</v>
       </c>
       <c r="T118" t="n">
-        <v>3.569949452187832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7848,7 +7848,7 @@
         <v>176.0002</v>
       </c>
       <c r="T119" t="n">
-        <v>1179.987433881321</v>
+        <v>587.3169092658399</v>
       </c>
     </row>
     <row r="120">
@@ -7910,7 +7910,7 @@
         <v>581.0004</v>
       </c>
       <c r="T120" t="n">
-        <v>31.07881169488827</v>
+        <v>131.9959709526399</v>
       </c>
     </row>
     <row r="121">
@@ -7972,7 +7972,7 @@
         <v>662.9996</v>
       </c>
       <c r="T121" t="n">
-        <v>2203.515763983407</v>
+        <v>1373.948981403851</v>
       </c>
     </row>
     <row r="122">
@@ -8034,7 +8034,7 @@
         <v>823.0001</v>
       </c>
       <c r="T122" t="n">
-        <v>867.6537896693422</v>
+        <v>2466.926577403475</v>
       </c>
     </row>
     <row r="123">
@@ -8158,7 +8158,7 @@
         <v>55.5001</v>
       </c>
       <c r="T124" t="n">
-        <v>35.7228987970069</v>
+        <v>32.26112683475569</v>
       </c>
     </row>
     <row r="125">
@@ -8282,7 +8282,7 @@
         <v>-1</v>
       </c>
       <c r="T126" t="n">
-        <v>0</v>
+        <v>4.054642721488825</v>
       </c>
     </row>
     <row r="127">
@@ -8344,7 +8344,7 @@
         <v>57.7993</v>
       </c>
       <c r="T127" t="n">
-        <v>37.64481829047313</v>
+        <v>15.24824595558845</v>
       </c>
     </row>
     <row r="128">
@@ -8406,7 +8406,7 @@
         <v>72.00059999999999</v>
       </c>
       <c r="T128" t="n">
-        <v>59.66063150690551</v>
+        <v>53.93659717608038</v>
       </c>
     </row>
     <row r="129">
@@ -8468,7 +8468,7 @@
         <v>-1</v>
       </c>
       <c r="T129" t="n">
-        <v>4.439231656254606</v>
+        <v>10.98363630346577</v>
       </c>
     </row>
     <row r="130">
@@ -8530,7 +8530,7 @@
         <v>260</v>
       </c>
       <c r="T130" t="n">
-        <v>249.7063665639621</v>
+        <v>214.019394470036</v>
       </c>
     </row>
     <row r="131">
@@ -8592,7 +8592,7 @@
         <v>282.9998</v>
       </c>
       <c r="T131" t="n">
-        <v>592.9929626250295</v>
+        <v>658.3750219540796</v>
       </c>
     </row>
     <row r="132">
@@ -8654,7 +8654,7 @@
         <v>92.0013</v>
       </c>
       <c r="T132" t="n">
-        <v>65.57921518977082</v>
+        <v>65.89444992768233</v>
       </c>
     </row>
     <row r="133">
@@ -8716,7 +8716,7 @@
         <v>40.8001</v>
       </c>
       <c r="T133" t="n">
-        <v>61.18333298569136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8778,7 +8778,7 @@
         <v>-1</v>
       </c>
       <c r="T134" t="n">
-        <v>103.6173785624576</v>
+        <v>252.2748526493147</v>
       </c>
     </row>
     <row r="135">
@@ -8840,7 +8840,7 @@
         <v>358.0002</v>
       </c>
       <c r="T135" t="n">
-        <v>275.3023634631106</v>
+        <v>254.8754066472574</v>
       </c>
     </row>
     <row r="136">
@@ -8902,7 +8902,7 @@
         <v>321.0008</v>
       </c>
       <c r="T136" t="n">
-        <v>52.45682685186753</v>
+        <v>81.27341234706184</v>
       </c>
     </row>
     <row r="137">
@@ -8964,7 +8964,7 @@
         <v>361.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2231.232417506441</v>
+        <v>1268.040154583319</v>
       </c>
     </row>
     <row r="138">
@@ -9088,7 +9088,7 @@
         <v>233</v>
       </c>
       <c r="T139" t="n">
-        <v>263.4589956372548</v>
+        <v>205.8561256820213</v>
       </c>
     </row>
     <row r="140">
@@ -9150,7 +9150,7 @@
         <v>163.5006</v>
       </c>
       <c r="T140" t="n">
-        <v>855.7425455338215</v>
+        <v>1179.352882206621</v>
       </c>
     </row>
     <row r="141">
@@ -9274,7 +9274,7 @@
         <v>1.309</v>
       </c>
       <c r="T142" t="n">
-        <v>16.35481104190294</v>
+        <v>67.50744403746022</v>
       </c>
     </row>
     <row r="143">
@@ -9336,7 +9336,7 @@
         <v>38.5</v>
       </c>
       <c r="T143" t="n">
-        <v>34.81924926312228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -9398,7 +9398,7 @@
         <v>5.8609</v>
       </c>
       <c r="T144" t="n">
-        <v>2.448490118234136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -9522,7 +9522,7 @@
         <v>103.5008</v>
       </c>
       <c r="T146" t="n">
-        <v>2.304466789078151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -9584,7 +9584,7 @@
         <v>76.50060000000001</v>
       </c>
       <c r="T147" t="n">
-        <v>250.4066265184716</v>
+        <v>62.98897327739641</v>
       </c>
     </row>
     <row r="148">
@@ -9832,7 +9832,7 @@
         <v>325.0005</v>
       </c>
       <c r="T151" t="n">
-        <v>203.7849299282552</v>
+        <v>319.8842568948123</v>
       </c>
     </row>
     <row r="152">
@@ -9894,7 +9894,7 @@
         <v>353.5008</v>
       </c>
       <c r="T152" t="n">
-        <v>1482.7359202241</v>
+        <v>913.7980618104746</v>
       </c>
     </row>
     <row r="153">
@@ -10018,7 +10018,7 @@
         <v>-1</v>
       </c>
       <c r="T154" t="n">
-        <v>0.6796298904501762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -10142,7 +10142,7 @@
         <v>1.1004</v>
       </c>
       <c r="T156" t="n">
-        <v>15.64289005245421</v>
+        <v>52.59959227941622</v>
       </c>
     </row>
     <row r="157">
@@ -10266,7 +10266,7 @@
         <v>-1</v>
       </c>
       <c r="T158" t="n">
-        <v>5.59009071011383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -10328,7 +10328,7 @@
         <v>-1</v>
       </c>
       <c r="T159" t="n">
-        <v>7.46042545723979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -10390,7 +10390,7 @@
         <v>-1</v>
       </c>
       <c r="T160" t="n">
-        <v>6.159048633185881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -10452,7 +10452,7 @@
         <v>5.5</v>
       </c>
       <c r="T161" t="n">
-        <v>2.288550705516854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -10514,7 +10514,7 @@
         <v>5.5002</v>
       </c>
       <c r="T162" t="n">
-        <v>2.331565348338838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -10576,7 +10576,7 @@
         <v>176.0002</v>
       </c>
       <c r="T163" t="n">
-        <v>1325.139154259017</v>
+        <v>443.4976653219632</v>
       </c>
     </row>
     <row r="164">
@@ -10638,7 +10638,7 @@
         <v>559.0013</v>
       </c>
       <c r="T164" t="n">
-        <v>223.9740009074783</v>
+        <v>354.7839870850091</v>
       </c>
     </row>
     <row r="165">
@@ -10700,7 +10700,7 @@
         <v>887.1487999999999</v>
       </c>
       <c r="T165" t="n">
-        <v>2342.888700082125</v>
+        <v>1366.639481420972</v>
       </c>
     </row>
     <row r="166">
@@ -10762,7 +10762,7 @@
         <v>1746.0525</v>
       </c>
       <c r="T166" t="n">
-        <v>865.4444569354598</v>
+        <v>2056.896383857185</v>
       </c>
     </row>
     <row r="167">
@@ -10824,7 +10824,7 @@
         <v>-1</v>
       </c>
       <c r="T167" t="n">
-        <v>3.510538038643863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -10886,7 +10886,7 @@
         <v>-1</v>
       </c>
       <c r="T168" t="n">
-        <v>8.289120328141193</v>
+        <v>17.53997990050595</v>
       </c>
     </row>
     <row r="169">
@@ -11010,7 +11010,7 @@
         <v>77.00790000000001</v>
       </c>
       <c r="T170" t="n">
-        <v>101.6007014076376</v>
+        <v>51.76402148508832</v>
       </c>
     </row>
     <row r="171">
@@ -11072,7 +11072,7 @@
         <v>284.9998</v>
       </c>
       <c r="T171" t="n">
-        <v>115.059737258681</v>
+        <v>330.3255397420877</v>
       </c>
     </row>
     <row r="172">
@@ -11258,7 +11258,7 @@
         <v>158.013</v>
       </c>
       <c r="T174" t="n">
-        <v>107.9464694076324</v>
+        <v>114.8320057308737</v>
       </c>
     </row>
     <row r="175">
@@ -11320,7 +11320,7 @@
         <v>-1</v>
       </c>
       <c r="T175" t="n">
-        <v>0</v>
+        <v>91.14737289289948</v>
       </c>
     </row>
     <row r="176">
@@ -11382,7 +11382,7 @@
         <v>241.3695</v>
       </c>
       <c r="T176" t="n">
-        <v>235.8889872615287</v>
+        <v>209.5478619836669</v>
       </c>
     </row>
     <row r="177">
@@ -11444,7 +11444,7 @@
         <v>670</v>
       </c>
       <c r="T177" t="n">
-        <v>433.0074224269067</v>
+        <v>980.0659147349834</v>
       </c>
     </row>
     <row r="178">
@@ -11506,7 +11506,7 @@
         <v>80.21560000000001</v>
       </c>
       <c r="T178" t="n">
-        <v>50.54058537833269</v>
+        <v>67.5471468187842</v>
       </c>
     </row>
     <row r="179">
@@ -11568,7 +11568,7 @@
         <v>69.99980000000001</v>
       </c>
       <c r="T179" t="n">
-        <v>111.5700670569909</v>
+        <v>76.52801261386358</v>
       </c>
     </row>
     <row r="180">
@@ -11630,7 +11630,7 @@
         <v>-1</v>
       </c>
       <c r="T180" t="n">
-        <v>0.3234833260550063</v>
+        <v>262.3986234203031</v>
       </c>
     </row>
     <row r="181">
@@ -11692,7 +11692,7 @@
         <v>350.0006</v>
       </c>
       <c r="T181" t="n">
-        <v>129.8275991658999</v>
+        <v>289.0284326289968</v>
       </c>
     </row>
     <row r="182">
@@ -11754,7 +11754,7 @@
         <v>250.6696</v>
       </c>
       <c r="T182" t="n">
-        <v>243.2603644969944</v>
+        <v>311.4157423580166</v>
       </c>
     </row>
     <row r="183">
@@ -11816,7 +11816,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T183" t="n">
-        <v>1714.070500426968</v>
+        <v>1150.586170937256</v>
       </c>
     </row>
     <row r="184">
@@ -11878,7 +11878,7 @@
         <v>-1</v>
       </c>
       <c r="T184" t="n">
-        <v>111.2811173441554</v>
+        <v>47.64187760296258</v>
       </c>
     </row>
     <row r="185">
@@ -11940,7 +11940,7 @@
         <v>238.9999000000001</v>
       </c>
       <c r="T185" t="n">
-        <v>225.792910924485</v>
+        <v>190.4872266681265</v>
       </c>
     </row>
     <row r="186">
@@ -12002,7 +12002,7 @@
         <v>565.0008</v>
       </c>
       <c r="T186" t="n">
-        <v>919.6973981936106</v>
+        <v>1350.84871532697</v>
       </c>
     </row>
     <row r="187">
@@ -12126,7 +12126,7 @@
         <v>19.0004</v>
       </c>
       <c r="T188" t="n">
-        <v>23.4077709879574</v>
+        <v>62.28991596739711</v>
       </c>
     </row>
     <row r="189">
@@ -12188,7 +12188,7 @@
         <v>30.3876</v>
       </c>
       <c r="T189" t="n">
-        <v>79.19389701158266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -12250,7 +12250,7 @@
         <v>-1</v>
       </c>
       <c r="T190" t="n">
-        <v>4.027388502667862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -12312,7 +12312,7 @@
         <v>3.2463</v>
       </c>
       <c r="T191" t="n">
-        <v>7.564100974336592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -12374,7 +12374,7 @@
         <v>6.2618</v>
       </c>
       <c r="T192" t="n">
-        <v>23.53954198508767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -12436,7 +12436,7 @@
         <v>92.95829999999999</v>
       </c>
       <c r="T193" t="n">
-        <v>126.5520773811156</v>
+        <v>4.383615676103197</v>
       </c>
     </row>
     <row r="194">
@@ -12498,7 +12498,7 @@
         <v>170.4961</v>
       </c>
       <c r="T194" t="n">
-        <v>221.6664236221709</v>
+        <v>124.0084172668962</v>
       </c>
     </row>
     <row r="195">
@@ -12560,7 +12560,7 @@
         <v>5.4517</v>
       </c>
       <c r="T195" t="n">
-        <v>8.383290217567925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -12622,7 +12622,7 @@
         <v>10.9997</v>
       </c>
       <c r="T196" t="n">
-        <v>97.11738027780156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -12684,7 +12684,7 @@
         <v>-1</v>
       </c>
       <c r="T197" t="n">
-        <v>2.175090291637208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -12746,7 +12746,7 @@
         <v>-1</v>
       </c>
       <c r="T198" t="n">
-        <v>72.22216988540607</v>
+        <v>276.0488344825952</v>
       </c>
     </row>
     <row r="199">
@@ -12808,7 +12808,7 @@
         <v>312.9858</v>
       </c>
       <c r="T199" t="n">
-        <v>136.1391564562886</v>
+        <v>269.8732691846452</v>
       </c>
     </row>
     <row r="200">
@@ -12870,7 +12870,7 @@
         <v>964.9152</v>
       </c>
       <c r="T200" t="n">
-        <v>1535.217758820946</v>
+        <v>1005.550499532006</v>
       </c>
     </row>
     <row r="201">
@@ -12932,7 +12932,7 @@
         <v>-1</v>
       </c>
       <c r="T201" t="n">
-        <v>3.510538038643863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -12994,7 +12994,7 @@
         <v>-1</v>
       </c>
       <c r="T202" t="n">
-        <v>78.76068075831064</v>
+        <v>50.25934483174531</v>
       </c>
     </row>
     <row r="203">
@@ -13056,7 +13056,7 @@
         <v>2.1928</v>
       </c>
       <c r="T203" t="n">
-        <v>3.013181076851702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -13180,7 +13180,7 @@
         <v>3.2266</v>
       </c>
       <c r="T205" t="n">
-        <v>0</v>
+        <v>52.95976224195002</v>
       </c>
     </row>
     <row r="206">
@@ -13304,7 +13304,7 @@
         <v>-1</v>
       </c>
       <c r="T207" t="n">
-        <v>4.488139315123739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -13366,7 +13366,7 @@
         <v>2.5048</v>
       </c>
       <c r="T208" t="n">
-        <v>1.18809787622976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -13490,7 +13490,7 @@
         <v>5.9995</v>
       </c>
       <c r="T210" t="n">
-        <v>7.945470591052494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -13552,7 +13552,7 @@
         <v>6.0004</v>
       </c>
       <c r="T211" t="n">
-        <v>49.08717164399771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -13614,7 +13614,7 @@
         <v>582.4081</v>
       </c>
       <c r="T212" t="n">
-        <v>1465.966782509147</v>
+        <v>573.9102273841669</v>
       </c>
     </row>
     <row r="213">
@@ -13676,7 +13676,7 @@
         <v>687.6011</v>
       </c>
       <c r="T213" t="n">
-        <v>261.765543310383</v>
+        <v>392.509585002561</v>
       </c>
     </row>
     <row r="214">
@@ -13738,7 +13738,7 @@
         <v>1736.9996</v>
       </c>
       <c r="T214" t="n">
-        <v>2226.454582412668</v>
+        <v>1253.738979318287</v>
       </c>
     </row>
     <row r="215">
@@ -13800,7 +13800,7 @@
         <v>3154.8637</v>
       </c>
       <c r="T215" t="n">
-        <v>1687.474494048642</v>
+        <v>1869.172588348473</v>
       </c>
     </row>
     <row r="216">
@@ -13862,7 +13862,7 @@
         <v>-1</v>
       </c>
       <c r="T216" t="n">
-        <v>5.857397300311598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13986,7 +13986,7 @@
         <v>48.5395</v>
       </c>
       <c r="T218" t="n">
-        <v>75.87331345674627</v>
+        <v>1.392312453843743</v>
       </c>
     </row>
     <row r="219">
@@ -14048,7 +14048,7 @@
         <v>137.9999</v>
       </c>
       <c r="T219" t="n">
-        <v>110.0920377974345</v>
+        <v>59.22971231686043</v>
       </c>
     </row>
     <row r="220">
@@ -14110,7 +14110,7 @@
         <v>655.0002999999999</v>
       </c>
       <c r="T220" t="n">
-        <v>436.6908267644653</v>
+        <v>365.684053311663</v>
       </c>
     </row>
     <row r="221">
@@ -14172,7 +14172,7 @@
         <v>53.29469999999999</v>
       </c>
       <c r="T221" t="n">
-        <v>217.1307259899011</v>
+        <v>99.23838903738933</v>
       </c>
     </row>
     <row r="222">
@@ -14234,7 +14234,7 @@
         <v>121.0002</v>
       </c>
       <c r="T222" t="n">
-        <v>39.40792281970656</v>
+        <v>9.956745177592754</v>
       </c>
     </row>
     <row r="223">
@@ -14296,7 +14296,7 @@
         <v>428.1665</v>
       </c>
       <c r="T223" t="n">
-        <v>200.6054083705349</v>
+        <v>194.0629727354478</v>
       </c>
     </row>
     <row r="224">
@@ -14358,7 +14358,7 @@
         <v>152.7379</v>
       </c>
       <c r="T224" t="n">
-        <v>92.17305337207074</v>
+        <v>173.2878573870109</v>
       </c>
     </row>
     <row r="225">
@@ -14420,7 +14420,7 @@
         <v>462.0015</v>
       </c>
       <c r="T225" t="n">
-        <v>267.1440471331198</v>
+        <v>194.3367658505051</v>
       </c>
     </row>
     <row r="226">
@@ -14482,7 +14482,7 @@
         <v>1822.3312</v>
       </c>
       <c r="T226" t="n">
-        <v>1560.680151245548</v>
+        <v>796.6293959471784</v>
       </c>
     </row>
     <row r="227">
@@ -14544,7 +14544,7 @@
         <v>125.0011</v>
       </c>
       <c r="T227" t="n">
-        <v>55.14650891846869</v>
+        <v>63.46553980434869</v>
       </c>
     </row>
     <row r="228">
@@ -14606,7 +14606,7 @@
         <v>208.001</v>
       </c>
       <c r="T228" t="n">
-        <v>136.9695677529464</v>
+        <v>89.46981629448047</v>
       </c>
     </row>
     <row r="229">
@@ -14668,7 +14668,7 @@
         <v>147.0985</v>
       </c>
       <c r="T229" t="n">
-        <v>98.10900730376945</v>
+        <v>246.6084565164768</v>
       </c>
     </row>
     <row r="230">
@@ -14730,7 +14730,7 @@
         <v>349.9999</v>
       </c>
       <c r="T230" t="n">
-        <v>338.1387418690726</v>
+        <v>247.4435605837693</v>
       </c>
     </row>
     <row r="231">
@@ -14783,7 +14783,7 @@
         <v>880.5</v>
       </c>
       <c r="Q231" t="n">
-        <v>35.1</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="R231" t="n">
         <v>41.4</v>
@@ -14792,7 +14792,7 @@
         <v>396.646</v>
       </c>
       <c r="T231" t="n">
-        <v>269.2320543757067</v>
+        <v>312.7040401944443</v>
       </c>
     </row>
     <row r="232">
@@ -14854,7 +14854,7 @@
         <v>1695.0001</v>
       </c>
       <c r="T232" t="n">
-        <v>1728.191460478089</v>
+        <v>969.0354961020442</v>
       </c>
     </row>
     <row r="233">
@@ -14916,7 +14916,7 @@
         <v>49.1615</v>
       </c>
       <c r="T233" t="n">
-        <v>125.400316001601</v>
+        <v>43.96388166303279</v>
       </c>
     </row>
     <row r="234">
@@ -14978,7 +14978,7 @@
         <v>405.0006</v>
       </c>
       <c r="T234" t="n">
-        <v>271.7559073185534</v>
+        <v>199.2656212552934</v>
       </c>
     </row>
     <row r="235">
@@ -15040,7 +15040,7 @@
         <v>1262.0158</v>
       </c>
       <c r="T235" t="n">
-        <v>904.3376221513522</v>
+        <v>1231.481597350548</v>
       </c>
     </row>
     <row r="236">
@@ -15164,7 +15164,7 @@
         <v>59.6185</v>
       </c>
       <c r="T237" t="n">
-        <v>33.86896896848481</v>
+        <v>65.92765318214217</v>
       </c>
     </row>
     <row r="238">
@@ -15226,7 +15226,7 @@
         <v>85.622</v>
       </c>
       <c r="T238" t="n">
-        <v>77.531506334241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -15288,7 +15288,7 @@
         <v>-1</v>
       </c>
       <c r="T239" t="n">
-        <v>1.384364999002491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -15350,7 +15350,7 @@
         <v>6.1518</v>
       </c>
       <c r="T240" t="n">
-        <v>8.529287290341408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -15412,7 +15412,7 @@
         <v>24.9579</v>
       </c>
       <c r="T241" t="n">
-        <v>10.09242379438998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -15474,7 +15474,7 @@
         <v>120.6001</v>
       </c>
       <c r="T242" t="n">
-        <v>110.3975704329416</v>
+        <v>0.3405935646229139</v>
       </c>
     </row>
     <row r="243">
@@ -15536,7 +15536,7 @@
         <v>320.5705</v>
       </c>
       <c r="T243" t="n">
-        <v>253.0442080768178</v>
+        <v>125.7189603478802</v>
       </c>
     </row>
     <row r="244">
@@ -15598,7 +15598,7 @@
         <v>18.1142</v>
       </c>
       <c r="T244" t="n">
-        <v>4.698984698913148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -15660,7 +15660,7 @@
         <v>52.0008</v>
       </c>
       <c r="T245" t="n">
-        <v>51.11112985598569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -15846,7 +15846,7 @@
         <v>640.0003</v>
       </c>
       <c r="T248" t="n">
-        <v>188.9756754435383</v>
+        <v>305.7633220992028</v>
       </c>
     </row>
     <row r="249">
@@ -15908,7 +15908,7 @@
         <v>2006.6505</v>
       </c>
       <c r="T249" t="n">
-        <v>1736.620818538633</v>
+        <v>924.6379194775507</v>
       </c>
     </row>
     <row r="250">
@@ -15970,7 +15970,7 @@
         <v>-1</v>
       </c>
       <c r="T250" t="n">
-        <v>5.857397300311598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -16032,7 +16032,7 @@
         <v>-1</v>
       </c>
       <c r="T251" t="n">
-        <v>0.7329546921013997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -16094,7 +16094,7 @@
         <v>7.049500000000001</v>
       </c>
       <c r="T252" t="n">
-        <v>6.529222908005109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -16218,7 +16218,7 @@
         <v>7.390899999999999</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
+        <v>47.60617255210095</v>
       </c>
     </row>
     <row r="255">
@@ -16404,7 +16404,7 @@
         <v>1.8907</v>
       </c>
       <c r="T257" t="n">
-        <v>4.558662609740635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -16528,7 +16528,7 @@
         <v>22.5621</v>
       </c>
       <c r="T259" t="n">
-        <v>13.729059203968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -16590,7 +16590,7 @@
         <v>63.6374</v>
       </c>
       <c r="T260" t="n">
-        <v>50.68191989682316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -16652,7 +16652,7 @@
         <v>2500</v>
       </c>
       <c r="T261" t="n">
-        <v>1843.037121887017</v>
+        <v>814.4845616473337</v>
       </c>
     </row>
     <row r="262">
@@ -16714,7 +16714,7 @@
         <v>982.6487</v>
       </c>
       <c r="T262" t="n">
-        <v>368.4582777942862</v>
+        <v>475.4068022538999</v>
       </c>
     </row>
     <row r="263">
@@ -16776,7 +16776,7 @@
         <v>3088.7803</v>
       </c>
       <c r="T263" t="n">
-        <v>2616.090275904811</v>
+        <v>1796.779886557748</v>
       </c>
     </row>
     <row r="264">
@@ -16838,7 +16838,7 @@
         <v>5894.566800000001</v>
       </c>
       <c r="T264" t="n">
-        <v>3354.385903811168</v>
+        <v>2299.705711765574</v>
       </c>
     </row>
     <row r="265">
@@ -16900,7 +16900,7 @@
         <v>262.6636</v>
       </c>
       <c r="T265" t="n">
-        <v>281.5214632179958</v>
+        <v>118.7779530885969</v>
       </c>
     </row>
     <row r="266">
@@ -16962,7 +16962,7 @@
         <v>1097.0209</v>
       </c>
       <c r="T266" t="n">
-        <v>834.4026404777943</v>
+        <v>892.9819736532828</v>
       </c>
     </row>
     <row r="267">
@@ -17024,7 +17024,7 @@
         <v>138.6367</v>
       </c>
       <c r="T267" t="n">
-        <v>50.71359326393368</v>
+        <v>31.94947042236544</v>
       </c>
     </row>
     <row r="268">
@@ -17086,7 +17086,7 @@
         <v>816.5275</v>
       </c>
       <c r="T268" t="n">
-        <v>360.0137270268816</v>
+        <v>373.3727568240582</v>
       </c>
     </row>
     <row r="269">
@@ -17148,7 +17148,7 @@
         <v>662.6365</v>
       </c>
       <c r="T269" t="n">
-        <v>375.1214916638018</v>
+        <v>305.3548686341153</v>
       </c>
     </row>
     <row r="270">
@@ -17210,7 +17210,7 @@
         <v>3710.2785</v>
       </c>
       <c r="T270" t="n">
-        <v>3201.848543907018</v>
+        <v>1275.838605621157</v>
       </c>
     </row>
     <row r="271">
@@ -17272,7 +17272,7 @@
         <v>187.8522</v>
       </c>
       <c r="T271" t="n">
-        <v>84.97256995647811</v>
+        <v>85.18296505389698</v>
       </c>
     </row>
     <row r="272">
@@ -17334,7 +17334,7 @@
         <v>302.871</v>
       </c>
       <c r="T272" t="n">
-        <v>222.0891150872027</v>
+        <v>214.3387685659474</v>
       </c>
     </row>
     <row r="273">
@@ -17396,7 +17396,7 @@
         <v>490.4431</v>
       </c>
       <c r="T273" t="n">
-        <v>247.42751593908</v>
+        <v>219.8305326464627</v>
       </c>
     </row>
     <row r="274">
@@ -17452,13 +17452,13 @@
         <v>38.1</v>
       </c>
       <c r="R274" t="n">
-        <v>35.1</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="S274" t="n">
         <v>1115.0003</v>
       </c>
       <c r="T274" t="n">
-        <v>318.0870458729619</v>
+        <v>403.3111861354065</v>
       </c>
     </row>
     <row r="275">
@@ -17520,7 +17520,7 @@
         <v>3615.5807</v>
       </c>
       <c r="T275" t="n">
-        <v>2199.869965841841</v>
+        <v>1625.383083422347</v>
       </c>
     </row>
     <row r="276">
@@ -17582,7 +17582,7 @@
         <v>687.2445</v>
       </c>
       <c r="T276" t="n">
-        <v>314.7928810559795</v>
+        <v>232.0785535370322</v>
       </c>
     </row>
     <row r="277">
@@ -17644,7 +17644,7 @@
         <v>3141.8861</v>
       </c>
       <c r="T277" t="n">
-        <v>2526.845969923805</v>
+        <v>1897.702581080413</v>
       </c>
     </row>
     <row r="278">
@@ -17706,7 +17706,7 @@
         <v>20.7474</v>
       </c>
       <c r="T278" t="n">
-        <v>20.66720050886681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -17768,7 +17768,7 @@
         <v>128.2046</v>
       </c>
       <c r="T279" t="n">
-        <v>158.3278858565266</v>
+        <v>114.6432040813448</v>
       </c>
     </row>
     <row r="280">
@@ -17830,7 +17830,7 @@
         <v>163.7464</v>
       </c>
       <c r="T280" t="n">
-        <v>85.69713862965371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -17892,7 +17892,7 @@
         <v>-1</v>
       </c>
       <c r="T281" t="n">
-        <v>7.949808148176519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -17954,7 +17954,7 @@
         <v>19.085</v>
       </c>
       <c r="T282" t="n">
-        <v>8.952944251958565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -18016,7 +18016,7 @@
         <v>45.2528</v>
       </c>
       <c r="T283" t="n">
-        <v>67.09430249992275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -18078,7 +18078,7 @@
         <v>206.4925</v>
       </c>
       <c r="T284" t="n">
-        <v>132.4351986166471</v>
+        <v>13.51446255457169</v>
       </c>
     </row>
     <row r="285">
@@ -18140,7 +18140,7 @@
         <v>796.9173</v>
       </c>
       <c r="T285" t="n">
-        <v>313.2610906230037</v>
+        <v>158.0736427087224</v>
       </c>
     </row>
     <row r="286">
@@ -18202,7 +18202,7 @@
         <v>19.7169</v>
       </c>
       <c r="T286" t="n">
-        <v>7.360669310119826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -18264,7 +18264,7 @@
         <v>94.2634</v>
       </c>
       <c r="T287" t="n">
-        <v>181.8276841434677</v>
+        <v>27.25755350765975</v>
       </c>
     </row>
     <row r="288">
@@ -18326,7 +18326,7 @@
         <v>949.5663</v>
       </c>
       <c r="T288" t="n">
-        <v>263.1635443100871</v>
+        <v>359.5984204064741</v>
       </c>
     </row>
     <row r="289">
@@ -18388,7 +18388,7 @@
         <v>4644.0113</v>
       </c>
       <c r="T289" t="n">
-        <v>2256.878141976525</v>
+        <v>1673.959842452972</v>
       </c>
     </row>
     <row r="290">
@@ -18450,7 +18450,7 @@
         <v>-1</v>
       </c>
       <c r="T290" t="n">
-        <v>7.949808148176519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -18512,7 +18512,7 @@
         <v>17.7291</v>
       </c>
       <c r="T291" t="n">
-        <v>11.53673621767529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -18574,7 +18574,7 @@
         <v>9.175800000000001</v>
       </c>
       <c r="T292" t="n">
-        <v>5.034870533953274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -18636,7 +18636,7 @@
         <v>24.8</v>
       </c>
       <c r="T293" t="n">
-        <v>23.7067747515316</v>
+        <v>53.8940152935233</v>
       </c>
     </row>
     <row r="294">
@@ -18760,7 +18760,7 @@
         <v>3.9904</v>
       </c>
       <c r="T295" t="n">
-        <v>7.949808148176519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -18822,7 +18822,7 @@
         <v>9.1616</v>
       </c>
       <c r="T296" t="n">
-        <v>10.73327843610119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -18884,7 +18884,7 @@
         <v>17.7484</v>
       </c>
       <c r="T297" t="n">
-        <v>7.949808148176519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -18946,7 +18946,7 @@
         <v>52.53489999999999</v>
       </c>
       <c r="T298" t="n">
-        <v>22.49238771821944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -19008,7 +19008,7 @@
         <v>104.225</v>
       </c>
       <c r="T299" t="n">
-        <v>76.11501692280798</v>
+        <v>16.60287537948707</v>
       </c>
     </row>
     <row r="300">
@@ -19070,7 +19070,7 @@
         <v>100</v>
       </c>
       <c r="T300" t="n">
-        <v>1280.351191399995</v>
+        <v>7.130570493372744</v>
       </c>
     </row>
     <row r="301">
@@ -19132,7 +19132,7 @@
         <v>589.9998000000001</v>
       </c>
       <c r="T301" t="n">
-        <v>273.5011075386718</v>
+        <v>343.8177998718004</v>
       </c>
     </row>
     <row r="302">
@@ -19194,7 +19194,7 @@
         <v>655.2552999999999</v>
       </c>
       <c r="T302" t="n">
-        <v>1678.960723158998</v>
+        <v>658.1066580658534</v>
       </c>
     </row>
     <row r="303">
@@ -19256,7 +19256,7 @@
         <v>722.2748</v>
       </c>
       <c r="T303" t="n">
-        <v>359.3876468868121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -19318,7 +19318,7 @@
         <v>40.803</v>
       </c>
       <c r="T304" t="n">
-        <v>139.0175361851797</v>
+        <v>69.14952409196167</v>
       </c>
     </row>
     <row r="305">
@@ -19380,7 +19380,7 @@
         <v>146.9536</v>
       </c>
       <c r="T305" t="n">
-        <v>283.3486881874609</v>
+        <v>14.3843061266686</v>
       </c>
     </row>
     <row r="306">
@@ -19442,7 +19442,7 @@
         <v>25.6258</v>
       </c>
       <c r="T306" t="n">
-        <v>13.85750185979645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -19504,7 +19504,7 @@
         <v>120.3064</v>
       </c>
       <c r="T307" t="n">
-        <v>175.0426120946867</v>
+        <v>137.3686486993555</v>
       </c>
     </row>
     <row r="308">
@@ -19566,7 +19566,7 @@
         <v>170.6535</v>
       </c>
       <c r="T308" t="n">
-        <v>281.9562142105092</v>
+        <v>189.11446411347</v>
       </c>
     </row>
     <row r="309">
@@ -19628,7 +19628,7 @@
         <v>441.6952</v>
       </c>
       <c r="T309" t="n">
-        <v>441.401103863486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -19690,7 +19690,7 @@
         <v>43.6282</v>
       </c>
       <c r="T310" t="n">
-        <v>26.61869303214016</v>
+        <v>49.40816272810885</v>
       </c>
     </row>
     <row r="311">
@@ -19752,7 +19752,7 @@
         <v>55.0725</v>
       </c>
       <c r="T311" t="n">
-        <v>124.7117009336674</v>
+        <v>9.679922732198253</v>
       </c>
     </row>
     <row r="312">
@@ -19814,7 +19814,7 @@
         <v>309.9996</v>
       </c>
       <c r="T312" t="n">
-        <v>240.5593194617108</v>
+        <v>269.4358203957514</v>
       </c>
     </row>
     <row r="313">
@@ -19876,7 +19876,7 @@
         <v>325.0003</v>
       </c>
       <c r="T313" t="n">
-        <v>259.8144440267239</v>
+        <v>290.7863031001011</v>
       </c>
     </row>
     <row r="314">
@@ -19938,7 +19938,7 @@
         <v>435.0011</v>
       </c>
       <c r="T314" t="n">
-        <v>1577.111600295226</v>
+        <v>397.9004903575814</v>
       </c>
     </row>
     <row r="315">
@@ -20000,7 +20000,7 @@
         <v>185.0013</v>
       </c>
       <c r="T315" t="n">
-        <v>230.893173966237</v>
+        <v>181.0433757011423</v>
       </c>
     </row>
     <row r="316">
@@ -20062,7 +20062,7 @@
         <v>413.73</v>
       </c>
       <c r="T316" t="n">
-        <v>610.4845924731111</v>
+        <v>448.2089389203575</v>
       </c>
     </row>
     <row r="317">
@@ -20186,7 +20186,7 @@
         <v>10.2007</v>
       </c>
       <c r="T318" t="n">
-        <v>20.55934416160041</v>
+        <v>45.54134378434183</v>
       </c>
     </row>
     <row r="319">
@@ -20248,7 +20248,7 @@
         <v>21.047</v>
       </c>
       <c r="T319" t="n">
-        <v>41.34814378586525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -20310,7 +20310,7 @@
         <v>2.3729</v>
       </c>
       <c r="T320" t="n">
-        <v>6.592174338989899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -20434,7 +20434,7 @@
         <v>69.62139999999999</v>
       </c>
       <c r="T322" t="n">
-        <v>128.9033341580727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -20496,7 +20496,7 @@
         <v>86.0008</v>
       </c>
       <c r="T323" t="n">
-        <v>232.3883847903642</v>
+        <v>150.5161399252052</v>
       </c>
     </row>
     <row r="324">
@@ -20558,7 +20558,7 @@
         <v>2.4911</v>
       </c>
       <c r="T324" t="n">
-        <v>9.31939001203753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -20682,7 +20682,7 @@
         <v>349.8127</v>
       </c>
       <c r="T326" t="n">
-        <v>204.448163802121</v>
+        <v>272.480427442565</v>
       </c>
     </row>
     <row r="327">
@@ -20744,7 +20744,7 @@
         <v>547.2891</v>
       </c>
       <c r="T327" t="n">
-        <v>1660.139073616256</v>
+        <v>600.229471520139</v>
       </c>
     </row>
     <row r="328">
@@ -20806,7 +20806,7 @@
         <v>-1</v>
       </c>
       <c r="T328" t="n">
-        <v>5.417502458190046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -20868,7 +20868,7 @@
         <v>2.2388</v>
       </c>
       <c r="T329" t="n">
-        <v>1.9689178365236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -20930,7 +20930,7 @@
         <v>1.1186</v>
       </c>
       <c r="T330" t="n">
-        <v>2.688434612105704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -20992,7 +20992,7 @@
         <v>4.5925</v>
       </c>
       <c r="T331" t="n">
-        <v>0</v>
+        <v>40.03598215903856</v>
       </c>
     </row>
     <row r="332">
@@ -21054,7 +21054,7 @@
         <v>11.4436</v>
       </c>
       <c r="T332" t="n">
-        <v>3.734992638020555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -21116,7 +21116,7 @@
         <v>1</v>
       </c>
       <c r="T333" t="n">
-        <v>5.417502458190046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -21178,7 +21178,7 @@
         <v>1.116</v>
       </c>
       <c r="T334" t="n">
-        <v>1.737114717849977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -21240,7 +21240,7 @@
         <v>2.125</v>
       </c>
       <c r="T335" t="n">
-        <v>5.417502458190046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -21426,7 +21426,7 @@
         <v>310.001</v>
       </c>
       <c r="T338" t="n">
-        <v>1041.719096103181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -21488,7 +21488,7 @@
         <v>970.0018</v>
       </c>
       <c r="T339" t="n">
-        <v>44.12473286692195</v>
+        <v>98.41329576344083</v>
       </c>
     </row>
     <row r="340">
@@ -21550,7 +21550,7 @@
         <v>1245.0007</v>
       </c>
       <c r="T340" t="n">
-        <v>1195.754599010603</v>
+        <v>705.4307077315733</v>
       </c>
     </row>
     <row r="341">
@@ -21612,7 +21612,7 @@
         <v>1503</v>
       </c>
       <c r="T341" t="n">
-        <v>603.8001557464796</v>
+        <v>202.5569386857496</v>
       </c>
     </row>
     <row r="342">
@@ -21674,7 +21674,7 @@
         <v>80.9996</v>
       </c>
       <c r="T342" t="n">
-        <v>60.20403897126239</v>
+        <v>40.39132399568661</v>
       </c>
     </row>
     <row r="343">
@@ -21736,7 +21736,7 @@
         <v>268.9157</v>
       </c>
       <c r="T343" t="n">
-        <v>71.30693364250853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -21798,7 +21798,7 @@
         <v>46.6918</v>
       </c>
       <c r="T344" t="n">
-        <v>0.5125670807667627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -21860,7 +21860,7 @@
         <v>227.7049</v>
       </c>
       <c r="T345" t="n">
-        <v>61.63990497602489</v>
+        <v>28.49886490319815</v>
       </c>
     </row>
     <row r="346">
@@ -21922,7 +21922,7 @@
         <v>342.9574</v>
       </c>
       <c r="T346" t="n">
-        <v>197.5866657590044</v>
+        <v>219.7948653095284</v>
       </c>
     </row>
     <row r="347">
@@ -21984,7 +21984,7 @@
         <v>730</v>
       </c>
       <c r="T347" t="n">
-        <v>305.0386392862087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -22046,7 +22046,7 @@
         <v>74.55589999999999</v>
       </c>
       <c r="T348" t="n">
-        <v>8.46499102291142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -22108,7 +22108,7 @@
         <v>100.9922</v>
       </c>
       <c r="T349" t="n">
-        <v>35.03530015670391</v>
+        <v>88.89376343131686</v>
       </c>
     </row>
     <row r="350">
@@ -22170,7 +22170,7 @@
         <v>490.0001</v>
       </c>
       <c r="T350" t="n">
-        <v>464.6066594999272</v>
+        <v>370.225711018944</v>
       </c>
     </row>
     <row r="351">
@@ -22232,7 +22232,7 @@
         <v>635.0014</v>
       </c>
       <c r="T351" t="n">
-        <v>171.6561498327694</v>
+        <v>296.3129040166078</v>
       </c>
     </row>
     <row r="352">
@@ -22294,7 +22294,7 @@
         <v>615.0019000000001</v>
       </c>
       <c r="T352" t="n">
-        <v>1182.141499664104</v>
+        <v>402.419834630942</v>
       </c>
     </row>
     <row r="353">
@@ -22356,7 +22356,7 @@
         <v>295.0005</v>
       </c>
       <c r="T353" t="n">
-        <v>30.30130689072344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -22418,7 +22418,7 @@
         <v>575.0004</v>
       </c>
       <c r="T354" t="n">
-        <v>0</v>
+        <v>103.7406175317563</v>
       </c>
     </row>
     <row r="355">
@@ -22604,7 +22604,7 @@
         <v>38.885</v>
       </c>
       <c r="T357" t="n">
-        <v>34.63320879967087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -22666,7 +22666,7 @@
         <v>4.3014</v>
       </c>
       <c r="T358" t="n">
-        <v>2.399998274342116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -22852,7 +22852,7 @@
         <v>156.0009</v>
       </c>
       <c r="T361" t="n">
-        <v>106.5804207234773</v>
+        <v>193.5409893386887</v>
       </c>
     </row>
     <row r="362">
@@ -23038,7 +23038,7 @@
         <v>630.0002000000001</v>
       </c>
       <c r="T364" t="n">
-        <v>119.9224874510847</v>
+        <v>283.6788516969836</v>
       </c>
     </row>
     <row r="365">
@@ -23100,7 +23100,7 @@
         <v>1000.0007</v>
       </c>
       <c r="T365" t="n">
-        <v>1296.526419970687</v>
+        <v>619.0741426528346</v>
       </c>
     </row>
     <row r="366">
@@ -23224,7 +23224,7 @@
         <v>4.0954</v>
       </c>
       <c r="T367" t="n">
-        <v>1.534346279690294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -23286,7 +23286,7 @@
         <v>2.2856</v>
       </c>
       <c r="T368" t="n">
-        <v>0</v>
+        <v>51.03678650476215</v>
       </c>
     </row>
     <row r="369">
@@ -23472,7 +23472,7 @@
         <v>1.9981</v>
       </c>
       <c r="T371" t="n">
-        <v>4.481139335531417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -23534,7 +23534,7 @@
         <v>3.7633</v>
       </c>
       <c r="T372" t="n">
-        <v>5.973420431267765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -23596,7 +23596,7 @@
         <v>4.0731</v>
       </c>
       <c r="T373" t="n">
-        <v>0.8280577700359611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -23720,7 +23720,7 @@
         <v>45.0006</v>
       </c>
       <c r="T375" t="n">
-        <v>31.04587915636225</v>
+        <v>33.27374475214243</v>
       </c>
     </row>
     <row r="376">
@@ -23782,7 +23782,7 @@
         <v>130.0001</v>
       </c>
       <c r="T376" t="n">
-        <v>57.36528013863632</v>
+        <v>78.04893618186097</v>
       </c>
     </row>
     <row r="377">
@@ -23844,7 +23844,7 @@
         <v>145.0007</v>
       </c>
       <c r="T377" t="n">
-        <v>135.6415411458555</v>
+        <v>161.7116757980607</v>
       </c>
     </row>
     <row r="378">
@@ -23906,7 +23906,7 @@
         <v>3.0004</v>
       </c>
       <c r="T378" t="n">
-        <v>0.1322532379517092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -23968,7 +23968,7 @@
         <v>32.0003</v>
       </c>
       <c r="T379" t="n">
-        <v>25.66696799081979</v>
+        <v>4.280976414859468</v>
       </c>
     </row>
     <row r="380">
@@ -24030,7 +24030,7 @@
         <v>115.0013</v>
       </c>
       <c r="T380" t="n">
-        <v>0</v>
+        <v>61.07052558487767</v>
       </c>
     </row>
     <row r="381">
@@ -24092,7 +24092,7 @@
         <v>4.6486</v>
       </c>
       <c r="T381" t="n">
-        <v>0.2647079285451893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -24154,7 +24154,7 @@
         <v>22</v>
       </c>
       <c r="T382" t="n">
-        <v>25.84027128528032</v>
+        <v>14.73716471797824</v>
       </c>
     </row>
     <row r="383">
@@ -24216,7 +24216,7 @@
         <v>136.4504</v>
       </c>
       <c r="T383" t="n">
-        <v>0</v>
+        <v>105.7238622871056</v>
       </c>
     </row>
     <row r="384">
@@ -24278,7 +24278,7 @@
         <v>21.5553</v>
       </c>
       <c r="T384" t="n">
-        <v>21.10590323855302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -24340,7 +24340,7 @@
         <v>50.0004</v>
       </c>
       <c r="T385" t="n">
-        <v>24.15561208621334</v>
+        <v>28.30263664655329</v>
       </c>
     </row>
     <row r="386">
@@ -24526,7 +24526,7 @@
         <v>20.0004</v>
       </c>
       <c r="T388" t="n">
-        <v>4.869575358553417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -24588,7 +24588,7 @@
         <v>109</v>
       </c>
       <c r="T389" t="n">
-        <v>51.34298892995481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -24650,7 +24650,7 @@
         <v>33</v>
       </c>
       <c r="T390" t="n">
-        <v>5.008625306487268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -24712,7 +24712,7 @@
         <v>295.0005</v>
       </c>
       <c r="T391" t="n">
-        <v>0</v>
+        <v>92.74022043351688</v>
       </c>
     </row>
     <row r="392">
@@ -24960,7 +24960,7 @@
         <v>33.9999</v>
       </c>
       <c r="T395" t="n">
-        <v>6.073899924532007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -25022,7 +25022,7 @@
         <v>3.9042</v>
       </c>
       <c r="T396" t="n">
-        <v>0.3707805088131283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -25146,7 +25146,7 @@
         <v>27.6298</v>
       </c>
       <c r="T398" t="n">
-        <v>10.84045339517503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -25456,7 +25456,7 @@
         <v>0.8001</v>
       </c>
       <c r="T403" t="n">
-        <v>1.12853156943536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -25580,7 +25580,7 @@
         <v>19.4998</v>
       </c>
       <c r="T405" t="n">
-        <v>5.306240823038361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -25704,7 +25704,7 @@
         <v>22.5004</v>
       </c>
       <c r="T407" t="n">
-        <v>42.97870676728137</v>
+        <v>41.89720927867923</v>
       </c>
     </row>
     <row r="408">
@@ -25766,7 +25766,7 @@
         <v>65.00059999999999</v>
       </c>
       <c r="T408" t="n">
-        <v>140.5419454299248</v>
+        <v>169.5019269709522</v>
       </c>
     </row>
     <row r="409">
@@ -25828,7 +25828,7 @@
         <v>72.50020000000001</v>
       </c>
       <c r="T409" t="n">
-        <v>190.2527356740427</v>
+        <v>193.8626013937592</v>
       </c>
     </row>
     <row r="410">
@@ -25890,7 +25890,7 @@
         <v>1.5002</v>
       </c>
       <c r="T410" t="n">
-        <v>19.60956334980306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -25952,7 +25952,7 @@
         <v>-1</v>
       </c>
       <c r="T411" t="n">
-        <v>0</v>
+        <v>24.66082029619997</v>
       </c>
     </row>
     <row r="412">
@@ -26014,7 +26014,7 @@
         <v>16.0003</v>
       </c>
       <c r="T412" t="n">
-        <v>42.76892672621612</v>
+        <v>17.35426755798811</v>
       </c>
     </row>
     <row r="413">
@@ -26076,7 +26076,7 @@
         <v>57.5006</v>
       </c>
       <c r="T413" t="n">
-        <v>124.792337624162</v>
+        <v>115.3006263423022</v>
       </c>
     </row>
     <row r="414">
@@ -26138,7 +26138,7 @@
         <v>2.3243</v>
       </c>
       <c r="T414" t="n">
-        <v>43.82970422817831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -26262,7 +26262,7 @@
         <v>11.0005</v>
       </c>
       <c r="T416" t="n">
-        <v>35.79367123578214</v>
+        <v>17.6760734294704</v>
       </c>
     </row>
     <row r="417">
@@ -26324,7 +26324,7 @@
         <v>68.2256</v>
       </c>
       <c r="T417" t="n">
-        <v>90.1747435890011</v>
+        <v>173.8662947602419</v>
       </c>
     </row>
     <row r="418">
@@ -26386,7 +26386,7 @@
         <v>10.7781</v>
       </c>
       <c r="T418" t="n">
-        <v>30.35877189318791</v>
+        <v>4.788087334791697</v>
       </c>
     </row>
     <row r="419">
@@ -26448,7 +26448,7 @@
         <v>24.9998</v>
       </c>
       <c r="T419" t="n">
-        <v>58.57343426890802</v>
+        <v>29.25959617591787</v>
       </c>
     </row>
     <row r="420">
@@ -26510,7 +26510,7 @@
         <v>2.6198</v>
       </c>
       <c r="T420" t="n">
-        <v>7.840638686903171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
@@ -26572,7 +26572,7 @@
         <v>-1</v>
       </c>
       <c r="T421" t="n">
-        <v>24.32856335852128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -26696,7 +26696,7 @@
         <v>10</v>
       </c>
       <c r="T423" t="n">
-        <v>28.02377975633359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -26758,7 +26758,7 @@
         <v>54.5001</v>
       </c>
       <c r="T424" t="n">
-        <v>78.90890181641916</v>
+        <v>42.22719434630595</v>
       </c>
     </row>
     <row r="425">
@@ -26820,7 +26820,7 @@
         <v>-1</v>
       </c>
       <c r="T425" t="n">
-        <v>75.03674914064435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -26882,7 +26882,7 @@
         <v>16.4999</v>
       </c>
       <c r="T426" t="n">
-        <v>27.57510738919835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -26944,7 +26944,7 @@
         <v>147.5008</v>
       </c>
       <c r="T427" t="n">
-        <v>137.8604685925557</v>
+        <v>174.1669121946646</v>
       </c>
     </row>
     <row r="428">
@@ -27254,7 +27254,7 @@
         <v>17.0003</v>
       </c>
       <c r="T432" t="n">
-        <v>104.9796182132926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -27316,7 +27316,7 @@
         <v>1.9376</v>
       </c>
       <c r="T433" t="n">
-        <v>44.2283444192203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -27378,7 +27378,7 @@
         <v>10.4999</v>
       </c>
       <c r="T434" t="n">
-        <v>41.32441649443589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -27440,7 +27440,7 @@
         <v>13.8146</v>
       </c>
       <c r="T435" t="n">
-        <v>48.95401822173932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -27502,7 +27502,7 @@
         <v>6.6018</v>
       </c>
       <c r="T436" t="n">
-        <v>33.97906383460057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -27564,7 +27564,7 @@
         <v>4.0001</v>
       </c>
       <c r="T437" t="n">
-        <v>12.96693273810607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -27626,7 +27626,7 @@
         <v>0.6501</v>
       </c>
       <c r="T438" t="n">
-        <v>6.921354427391039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -27688,7 +27688,7 @@
         <v>0.5753</v>
       </c>
       <c r="T439" t="n">
-        <v>5.97543288432175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -27750,7 +27750,7 @@
         <v>-1</v>
       </c>
       <c r="T440" t="n">
-        <v>5.062283522709552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -27812,7 +27812,7 @@
         <v>0.4001</v>
       </c>
       <c r="T441" t="n">
-        <v>7.970850065902242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -27874,7 +27874,7 @@
         <v>1.9998</v>
       </c>
       <c r="T442" t="n">
-        <v>43.83318459261542</v>
+        <v>50.914355276338</v>
       </c>
     </row>
     <row r="443">
@@ -27936,7 +27936,7 @@
         <v>9.750299999999999</v>
       </c>
       <c r="T443" t="n">
-        <v>70.17732668211673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -27998,7 +27998,7 @@
         <v>-1</v>
       </c>
       <c r="T444" t="n">
-        <v>57.03483017200074</v>
+        <v>111.8207561235277</v>
       </c>
     </row>
     <row r="445">
@@ -28060,7 +28060,7 @@
         <v>65.24979999999999</v>
       </c>
       <c r="T445" t="n">
-        <v>52.31814545557516</v>
+        <v>53.45549645103121</v>
       </c>
     </row>
     <row r="446">
@@ -28122,7 +28122,7 @@
         <v>187.5</v>
       </c>
       <c r="T446" t="n">
-        <v>139.8674282966844</v>
+        <v>185.5377811521067</v>
       </c>
     </row>
     <row r="447">
@@ -28184,7 +28184,7 @@
         <v>206.2503</v>
       </c>
       <c r="T447" t="n">
-        <v>179.5636658758964</v>
+        <v>265.7530717632577</v>
       </c>
     </row>
     <row r="448">
@@ -28246,7 +28246,7 @@
         <v>4.2003</v>
       </c>
       <c r="T448" t="n">
-        <v>4.340222254148368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -28370,7 +28370,7 @@
         <v>45.4499</v>
       </c>
       <c r="T450" t="n">
-        <v>49.92188285415305</v>
+        <v>24.57435106584726</v>
       </c>
     </row>
     <row r="451">
@@ -28432,7 +28432,7 @@
         <v>162.7504</v>
       </c>
       <c r="T451" t="n">
-        <v>129.1554109707772</v>
+        <v>100.7631382642013</v>
       </c>
     </row>
     <row r="452">
@@ -28494,7 +28494,7 @@
         <v>6.5762</v>
       </c>
       <c r="T452" t="n">
-        <v>8.374504960402788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -28556,7 +28556,7 @@
         <v>-1</v>
       </c>
       <c r="T453" t="n">
-        <v>2.997287147137459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -28618,7 +28618,7 @@
         <v>30.75</v>
       </c>
       <c r="T454" t="n">
-        <v>53.96980102697571</v>
+        <v>32.38750947791693</v>
       </c>
     </row>
     <row r="455">
@@ -28680,7 +28680,7 @@
         <v>189.676</v>
       </c>
       <c r="T455" t="n">
-        <v>72.52595966637297</v>
+        <v>157.9168885554565</v>
       </c>
     </row>
     <row r="456">
@@ -28742,7 +28742,7 @@
         <v>30.5996</v>
       </c>
       <c r="T456" t="n">
-        <v>27.11641486370162</v>
+        <v>8.933834116633779</v>
       </c>
     </row>
     <row r="457">
@@ -28804,7 +28804,7 @@
         <v>68.2499</v>
       </c>
       <c r="T457" t="n">
-        <v>46.10528612194179</v>
+        <v>44.33842251836447</v>
       </c>
     </row>
     <row r="458">
@@ -28990,7 +28990,7 @@
         <v>-1</v>
       </c>
       <c r="T460" t="n">
-        <v>0</v>
+        <v>16.69623638261868</v>
       </c>
     </row>
     <row r="461">
@@ -29114,7 +29114,7 @@
         <v>28.4999</v>
       </c>
       <c r="T462" t="n">
-        <v>66.81645951803694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -29176,7 +29176,7 @@
         <v>154.4998</v>
       </c>
       <c r="T463" t="n">
-        <v>77.64802820278135</v>
+        <v>102.3956434165559</v>
       </c>
     </row>
     <row r="464">
@@ -29238,7 +29238,7 @@
         <v>47.4</v>
       </c>
       <c r="T464" t="n">
-        <v>44.4167574696457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -29300,7 +29300,7 @@
         <v>423.7501</v>
       </c>
       <c r="T465" t="n">
-        <v>128.8776055007894</v>
+        <v>205.2869067558948</v>
       </c>
     </row>
     <row r="466">
@@ -29362,7 +29362,7 @@
         <v>0.9003</v>
       </c>
       <c r="T466" t="n">
-        <v>4.527701086514519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -29486,7 +29486,7 @@
         <v>-1</v>
       </c>
       <c r="T468" t="n">
-        <v>1.912067828979681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -29610,7 +29610,7 @@
         <v>46.95</v>
       </c>
       <c r="T470" t="n">
-        <v>34.66780214576561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -29672,7 +29672,7 @@
         <v>5.6121</v>
       </c>
       <c r="T471" t="n">
-        <v>2.335462830534133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -29734,7 +29734,7 @@
         <v>29.6996</v>
       </c>
       <c r="T472" t="n">
-        <v>36.87369639596843</v>
+        <v>25.09648431099129</v>
       </c>
     </row>
     <row r="473">
@@ -29796,7 +29796,7 @@
         <v>40.7794</v>
       </c>
       <c r="T473" t="n">
-        <v>72.48849420633759</v>
+        <v>44.34022807771368</v>
       </c>
     </row>
     <row r="474">
@@ -29858,7 +29858,7 @@
         <v>19.1484</v>
       </c>
       <c r="T474" t="n">
-        <v>15.40544589388365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -29920,7 +29920,7 @@
         <v>11.55</v>
       </c>
       <c r="T475" t="n">
-        <v>18.65509271036661</v>
+        <v>10.44699441621588</v>
       </c>
     </row>
     <row r="476">
@@ -29982,7 +29982,7 @@
         <v>1.9048</v>
       </c>
       <c r="T476" t="n">
-        <v>0.488446612309686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -30044,7 +30044,7 @@
         <v>1.5753</v>
       </c>
       <c r="T477" t="n">
-        <v>0.1020019314765256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -30106,7 +30106,7 @@
         <v>1.1254</v>
       </c>
       <c r="T478" t="n">
-        <v>2.715166866662163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -30230,7 +30230,7 @@
         <v>27.8997</v>
       </c>
       <c r="T480" t="n">
-        <v>55.34681686493146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -30292,7 +30292,7 @@
         <v>-1</v>
       </c>
       <c r="T481" t="n">
-        <v>61.52544640616873</v>
+        <v>107.603943349171</v>
       </c>
     </row>
     <row r="482">
@@ -30354,7 +30354,7 @@
         <v>70.25019999999999</v>
       </c>
       <c r="T482" t="n">
-        <v>44.97895016326156</v>
+        <v>37.85990901666064</v>
       </c>
     </row>
     <row r="483">
@@ -30416,7 +30416,7 @@
         <v>225.0006</v>
       </c>
       <c r="T483" t="n">
-        <v>109.5169023969789</v>
+        <v>188.9697067073562</v>
       </c>
     </row>
     <row r="484">
@@ -30478,7 +30478,7 @@
         <v>336.0003</v>
       </c>
       <c r="T484" t="n">
-        <v>240.0378981312567</v>
+        <v>299.2379171521707</v>
       </c>
     </row>
     <row r="485">
@@ -30540,7 +30540,7 @@
         <v>4.2006</v>
       </c>
       <c r="T485" t="n">
-        <v>4.685195227188552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -30664,7 +30664,7 @@
         <v>49.95</v>
       </c>
       <c r="T487" t="n">
-        <v>44.95242275431236</v>
+        <v>16.62904345569223</v>
       </c>
     </row>
     <row r="488">
@@ -30726,7 +30726,7 @@
         <v>179.9998</v>
       </c>
       <c r="T488" t="n">
-        <v>110.388218271986</v>
+        <v>122.9946226692073</v>
       </c>
     </row>
     <row r="489">
@@ -30788,7 +30788,7 @@
         <v>8.575799999999999</v>
       </c>
       <c r="T489" t="n">
-        <v>10.79905417422113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -30850,7 +30850,7 @@
         <v>-1</v>
       </c>
       <c r="T490" t="n">
-        <v>15.3199845016918</v>
+        <v>5.021039260106036</v>
       </c>
     </row>
     <row r="491">
@@ -30912,7 +30912,7 @@
         <v>50.2502</v>
       </c>
       <c r="T491" t="n">
-        <v>91.71581729130311</v>
+        <v>18.2987475268538</v>
       </c>
     </row>
     <row r="492">
@@ -30974,7 +30974,7 @@
         <v>270.0002</v>
       </c>
       <c r="T492" t="n">
-        <v>105.4897171106595</v>
+        <v>107.2527016570415</v>
       </c>
     </row>
     <row r="493">
@@ -31036,7 +31036,7 @@
         <v>-1</v>
       </c>
       <c r="T493" t="n">
-        <v>2.754810277796133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -31098,7 +31098,7 @@
         <v>28.5997</v>
       </c>
       <c r="T494" t="n">
-        <v>32.18984117973715</v>
+        <v>0.2210384846335849</v>
       </c>
     </row>
     <row r="495">
@@ -31160,7 +31160,7 @@
         <v>66.0005</v>
       </c>
       <c r="T495" t="n">
-        <v>58.21417637631749</v>
+        <v>8.09061847345826</v>
       </c>
     </row>
     <row r="496">
@@ -31222,7 +31222,7 @@
         <v>7.2597</v>
       </c>
       <c r="T496" t="n">
-        <v>3.228544559451742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -31284,7 +31284,7 @@
         <v>-1</v>
       </c>
       <c r="T497" t="n">
-        <v>1.05305608108085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -31346,7 +31346,7 @@
         <v>-1</v>
       </c>
       <c r="T498" t="n">
-        <v>24.28135321120644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -31408,7 +31408,7 @@
         <v>39</v>
       </c>
       <c r="T499" t="n">
-        <v>52.45682685186753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -31470,7 +31470,7 @@
         <v>135</v>
       </c>
       <c r="T500" t="n">
-        <v>164.3892361595083</v>
+        <v>97.28024498731551</v>
       </c>
     </row>
     <row r="501">
@@ -31594,7 +31594,7 @@
         <v>43.0003</v>
       </c>
       <c r="T502" t="n">
-        <v>51.3470441798022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -31656,7 +31656,7 @@
         <v>440.0004</v>
       </c>
       <c r="T503" t="n">
-        <v>43.97981955522091</v>
+        <v>208.1173630955196</v>
       </c>
     </row>
     <row r="504">
@@ -31904,7 +31904,7 @@
         <v>2.35</v>
       </c>
       <c r="T507" t="n">
-        <v>2.304466789078151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
@@ -31966,7 +31966,7 @@
         <v>43.0001</v>
       </c>
       <c r="T508" t="n">
-        <v>33.30292143342597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -32028,7 +32028,7 @@
         <v>-1</v>
       </c>
       <c r="T509" t="n">
-        <v>75.8006880444639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -32090,7 +32090,7 @@
         <v>5.5571</v>
       </c>
       <c r="T510" t="n">
-        <v>11.48772534582799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -32152,7 +32152,7 @@
         <v>49.001</v>
       </c>
       <c r="T511" t="n">
-        <v>31.92606669274889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -32214,7 +32214,7 @@
         <v>60.98840000000001</v>
       </c>
       <c r="T512" t="n">
-        <v>72.26033696066574</v>
+        <v>36.38462731835303</v>
       </c>
     </row>
     <row r="513">
@@ -32276,7 +32276,7 @@
         <v>18.9569</v>
       </c>
       <c r="T513" t="n">
-        <v>31.30700463583883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -32338,7 +32338,7 @@
         <v>19.0499</v>
       </c>
       <c r="T514" t="n">
-        <v>30.59824263931148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -32400,7 +32400,7 @@
         <v>1.9048</v>
       </c>
       <c r="T515" t="n">
-        <v>0.9900148981534205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -32462,7 +32462,7 @@
         <v>-1</v>
       </c>
       <c r="T516" t="n">
-        <v>2.754810277796133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -32586,7 +32586,7 @@
         <v>-1</v>
       </c>
       <c r="T518" t="n">
-        <v>11.07631329600455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -32648,7 +32648,7 @@
         <v>0.8253</v>
       </c>
       <c r="T519" t="n">
-        <v>0.9185464816793311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -32772,7 +32772,7 @@
         <v>47.0002</v>
       </c>
       <c r="T521" t="n">
-        <v>53.90148914250364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -32834,7 +32834,7 @@
         <v>10</v>
       </c>
       <c r="T522" t="n">
-        <v>34.10096396406348</v>
+        <v>80.52311965990914</v>
       </c>
     </row>
     <row r="523">
@@ -32896,7 +32896,7 @@
         <v>85.2572</v>
       </c>
       <c r="T523" t="n">
-        <v>32.38424917628588</v>
+        <v>28.60447300603654</v>
       </c>
     </row>
     <row r="524">
@@ -32958,7 +32958,7 @@
         <v>273.3009</v>
       </c>
       <c r="T524" t="n">
-        <v>100.6767837378993</v>
+        <v>188.2535203957236</v>
       </c>
     </row>
     <row r="525">
@@ -33020,7 +33020,7 @@
         <v>409.6</v>
       </c>
       <c r="T525" t="n">
-        <v>136.6263027653586</v>
+        <v>281.5199248846531</v>
       </c>
     </row>
     <row r="526">
@@ -33206,7 +33206,7 @@
         <v>61.4383</v>
       </c>
       <c r="T528" t="n">
-        <v>44.32008679063196</v>
+        <v>27.7786881893515</v>
       </c>
     </row>
     <row r="529">
@@ -33268,7 +33268,7 @@
         <v>221.3998</v>
       </c>
       <c r="T529" t="n">
-        <v>106.5649163083121</v>
+        <v>94.0001645384294</v>
       </c>
     </row>
     <row r="530">
@@ -33330,7 +33330,7 @@
         <v>10.5488</v>
       </c>
       <c r="T530" t="n">
-        <v>6.912406655130104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -33454,7 +33454,7 @@
         <v>61.8075</v>
       </c>
       <c r="T532" t="n">
-        <v>79.65323648384143</v>
+        <v>22.57346548835522</v>
       </c>
     </row>
     <row r="533">
@@ -33516,7 +33516,7 @@
         <v>332.0997</v>
       </c>
       <c r="T533" t="n">
-        <v>118.7876545219157</v>
+        <v>162.6967096152136</v>
       </c>
     </row>
     <row r="534">
@@ -33578,7 +33578,7 @@
         <v>35.1775</v>
       </c>
       <c r="T534" t="n">
-        <v>25.07343787316793</v>
+        <v>6.48518298953196</v>
       </c>
     </row>
     <row r="535">
@@ -33640,7 +33640,7 @@
         <v>81.17989999999999</v>
       </c>
       <c r="T535" t="n">
-        <v>46.95335918869443</v>
+        <v>51.07976200684368</v>
       </c>
     </row>
     <row r="536">
@@ -33702,7 +33702,7 @@
         <v>8.9291</v>
       </c>
       <c r="T536" t="n">
-        <v>2.004646087645475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -33876,7 +33876,7 @@
         <v>-1</v>
       </c>
       <c r="P539" t="n">
-        <v>35.1</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="Q539" t="n">
         <v>41.4</v>
@@ -33888,7 +33888,7 @@
         <v>47.9702</v>
       </c>
       <c r="T539" t="n">
-        <v>30.90902370851251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -33950,7 +33950,7 @@
         <v>-1</v>
       </c>
       <c r="T540" t="n">
-        <v>127.1695691531943</v>
+        <v>87.99579234387993</v>
       </c>
     </row>
     <row r="541">
@@ -34012,7 +34012,7 @@
         <v>-1</v>
       </c>
       <c r="T541" t="n">
-        <v>28.34406141696211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -34074,7 +34074,7 @@
         <v>52.8901</v>
       </c>
       <c r="T542" t="n">
-        <v>30.85499163073111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
@@ -34136,7 +34136,7 @@
         <v>541.1995000000001</v>
       </c>
       <c r="T543" t="n">
-        <v>125.2996298788057</v>
+        <v>242.1472685310667</v>
       </c>
     </row>
     <row r="544">
@@ -34322,7 +34322,7 @@
         <v>2.8901</v>
       </c>
       <c r="T546" t="n">
-        <v>0.9663717253486697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -34384,7 +34384,7 @@
         <v>52.89</v>
       </c>
       <c r="T547" t="n">
-        <v>37.88825980375919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -34570,7 +34570,7 @@
         <v>60.2702</v>
       </c>
       <c r="T550" t="n">
-        <v>28.84844493712967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -34632,7 +34632,7 @@
         <v>-1</v>
       </c>
       <c r="T551" t="n">
-        <v>39.65189176713314</v>
+        <v>24.84104875520276</v>
       </c>
     </row>
     <row r="552">
@@ -34694,7 +34694,7 @@
         <v>24.0996</v>
       </c>
       <c r="T552" t="n">
-        <v>14.44745886456377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -34756,7 +34756,7 @@
         <v>23.4313</v>
       </c>
       <c r="T553" t="n">
-        <v>29.98577158266122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -34818,7 +34818,7 @@
         <v>2.3431</v>
       </c>
       <c r="T554" t="n">
-        <v>3.196745293857874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -34880,7 +34880,7 @@
         <v>-1</v>
       </c>
       <c r="T555" t="n">
-        <v>34.05497264271346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -35128,7 +35128,7 @@
         <v>47.0001</v>
       </c>
       <c r="T559" t="n">
-        <v>45.42346110555452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -35190,7 +35190,7 @@
         <v>-1</v>
       </c>
       <c r="T560" t="n">
-        <v>79.01565852644308</v>
+        <v>96.70681401171051</v>
       </c>
     </row>
     <row r="561">
@@ -35252,7 +35252,7 @@
         <v>72.20010000000001</v>
       </c>
       <c r="T561" t="n">
-        <v>47.31158391068965</v>
+        <v>35.7352757418113</v>
       </c>
     </row>
     <row r="562">
@@ -35314,7 +35314,7 @@
         <v>231.1114</v>
       </c>
       <c r="T562" t="n">
-        <v>118.0611599182323</v>
+        <v>189.1856365862556</v>
       </c>
     </row>
     <row r="563">
@@ -35376,7 +35376,7 @@
         <v>343.1307</v>
       </c>
       <c r="T563" t="n">
-        <v>170.2508183209378</v>
+        <v>279.5115113391592</v>
       </c>
     </row>
     <row r="564">
@@ -35438,7 +35438,7 @@
         <v>4.2774</v>
       </c>
       <c r="T564" t="n">
-        <v>3.123504489069309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -35500,7 +35500,7 @@
         <v>-1</v>
       </c>
       <c r="T565" t="n">
-        <v>53.93137642330992</v>
+        <v>2.746469360544442</v>
       </c>
     </row>
     <row r="566">
@@ -35562,7 +35562,7 @@
         <v>51.18680000000001</v>
       </c>
       <c r="T566" t="n">
-        <v>40.76079786798008</v>
+        <v>20.82039220121731</v>
       </c>
     </row>
     <row r="567">
@@ -35624,7 +35624,7 @@
         <v>183.8605</v>
       </c>
       <c r="T567" t="n">
-        <v>115.4143162794333</v>
+        <v>72.82177703337274</v>
       </c>
     </row>
     <row r="568">
@@ -35686,7 +35686,7 @@
         <v>8.800599999999999</v>
       </c>
       <c r="T568" t="n">
-        <v>8.145388313197747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -35748,7 +35748,7 @@
         <v>-1</v>
       </c>
       <c r="T569" t="n">
-        <v>4.531287880562507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
@@ -35810,7 +35810,7 @@
         <v>51.5917</v>
       </c>
       <c r="T570" t="n">
-        <v>90.01649122220292</v>
+        <v>19.5480949585795</v>
       </c>
     </row>
     <row r="571">
@@ -35872,7 +35872,7 @@
         <v>275.7907</v>
       </c>
       <c r="T571" t="n">
-        <v>148.7624898086701</v>
+        <v>110.2395261412274</v>
       </c>
     </row>
     <row r="572">
@@ -35934,7 +35934,7 @@
         <v>-1</v>
       </c>
       <c r="T572" t="n">
-        <v>1.165217390341217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -35996,7 +35996,7 @@
         <v>29.2229</v>
       </c>
       <c r="T573" t="n">
-        <v>21.24586137056694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
@@ -36058,7 +36058,7 @@
         <v>66.7841</v>
       </c>
       <c r="T574" t="n">
-        <v>53.49665231230858</v>
+        <v>25.50793406741785</v>
       </c>
     </row>
     <row r="575">
@@ -36120,7 +36120,7 @@
         <v>7.367699999999999</v>
       </c>
       <c r="T575" t="n">
-        <v>6.436678752258204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -36182,7 +36182,7 @@
         <v>-1</v>
       </c>
       <c r="T576" t="n">
-        <v>1.384364999002491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -36235,7 +36235,7 @@
         <v>38.1</v>
       </c>
       <c r="Q577" t="n">
-        <v>35.1</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="R577" t="n">
         <v>41.4</v>
@@ -36244,7 +36244,7 @@
         <v>39.9627</v>
       </c>
       <c r="T577" t="n">
-        <v>22.83622316252244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -36306,7 +36306,7 @@
         <v>138.5841</v>
       </c>
       <c r="T578" t="n">
-        <v>108.6346844481146</v>
+        <v>57.35375846674823</v>
       </c>
     </row>
     <row r="579">
@@ -36368,7 +36368,7 @@
         <v>-1</v>
       </c>
       <c r="T579" t="n">
-        <v>10.88798376446548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -36430,7 +36430,7 @@
         <v>44.1595</v>
       </c>
       <c r="T580" t="n">
-        <v>39.97284234857572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -36492,7 +36492,7 @@
         <v>452.3446</v>
       </c>
       <c r="T581" t="n">
-        <v>188.8433689433697</v>
+        <v>235.6832934731648</v>
       </c>
     </row>
     <row r="582">
@@ -36554,7 +36554,7 @@
         <v>0.8353</v>
       </c>
       <c r="T582" t="n">
-        <v>0.1729399410521833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -36678,7 +36678,7 @@
         <v>-1</v>
       </c>
       <c r="T584" t="n">
-        <v>1.384364999002491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -36802,7 +36802,7 @@
         <v>43.6772</v>
       </c>
       <c r="T586" t="n">
-        <v>143.3634964280087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -36864,7 +36864,7 @@
         <v>5.755</v>
       </c>
       <c r="T587" t="n">
-        <v>6.6956231531026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -36926,7 +36926,7 @@
         <v>50.1278</v>
       </c>
       <c r="T588" t="n">
-        <v>32.77282465470606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -36988,7 +36988,7 @@
         <v>63.2574</v>
       </c>
       <c r="T589" t="n">
-        <v>38.90306718788904</v>
+        <v>12.37540888572803</v>
       </c>
     </row>
     <row r="590">
@@ -37050,7 +37050,7 @@
         <v>19.7054</v>
       </c>
       <c r="T590" t="n">
-        <v>12.35019775786134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -37112,7 +37112,7 @@
         <v>19.6838</v>
       </c>
       <c r="T591" t="n">
-        <v>33.43028379330791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -37174,7 +37174,7 @@
         <v>1.9685</v>
       </c>
       <c r="T592" t="n">
-        <v>1.718057099339548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -37236,7 +37236,7 @@
         <v>-1</v>
       </c>
       <c r="T593" t="n">
-        <v>39.31335625208276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
@@ -37360,7 +37360,7 @@
         <v>-1</v>
       </c>
       <c r="T595" t="n">
-        <v>14.1898251466985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -37422,7 +37422,7 @@
         <v>0.8353</v>
       </c>
       <c r="T596" t="n">
-        <v>1.384364999002491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -37546,7 +37546,7 @@
         <v>49.9997</v>
       </c>
       <c r="T598" t="n">
-        <v>39.40511513732785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -37608,7 +37608,7 @@
         <v>72.6339</v>
       </c>
       <c r="T599" t="n">
-        <v>74.59498569282799</v>
+        <v>57.0323433134899</v>
       </c>
     </row>
     <row r="600">
@@ -37670,7 +37670,7 @@
         <v>240.3169</v>
       </c>
       <c r="T600" t="n">
-        <v>177.478438958247</v>
+        <v>259.6556311338313</v>
       </c>
     </row>
     <row r="601">
@@ -37732,7 +37732,7 @@
         <v>361.0804</v>
       </c>
       <c r="T601" t="n">
-        <v>274.552583506945</v>
+        <v>410.3086273843114</v>
       </c>
     </row>
     <row r="602">
@@ -37794,7 +37794,7 @@
         <v>4.3693</v>
       </c>
       <c r="T602" t="n">
-        <v>8.060261448200118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -37856,7 +37856,7 @@
         <v>51.6017</v>
       </c>
       <c r="T603" t="n">
-        <v>71.41842998019129</v>
+        <v>31.89931431721941</v>
       </c>
     </row>
     <row r="604">
@@ -37918,7 +37918,7 @@
         <v>196.7636</v>
       </c>
       <c r="T604" t="n">
-        <v>176.3486579169039</v>
+        <v>136.4055696825307</v>
       </c>
     </row>
     <row r="605">
@@ -37980,7 +37980,7 @@
         <v>8.659699999999999</v>
       </c>
       <c r="T605" t="n">
-        <v>11.61456071093091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -38042,7 +38042,7 @@
         <v>51.3151</v>
       </c>
       <c r="T606" t="n">
-        <v>52.51871602965054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -38104,7 +38104,7 @@
         <v>-1</v>
       </c>
       <c r="T607" t="n">
-        <v>206.2365104158903</v>
+        <v>196.4750645950158</v>
       </c>
     </row>
     <row r="608">
@@ -38166,7 +38166,7 @@
         <v>29.6632</v>
       </c>
       <c r="T608" t="n">
-        <v>47.99109110841056</v>
+        <v>14.64430494056895</v>
       </c>
     </row>
     <row r="609">
@@ -38228,7 +38228,7 @@
         <v>71.3374</v>
       </c>
       <c r="T609" t="n">
-        <v>162.9993188283289</v>
+        <v>71.78860016037871</v>
       </c>
     </row>
     <row r="610">
@@ -38290,7 +38290,7 @@
         <v>7.6278</v>
       </c>
       <c r="T610" t="n">
-        <v>12.04139299666327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -38352,7 +38352,7 @@
         <v>-1</v>
       </c>
       <c r="T611" t="n">
-        <v>7.949808148176519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -38408,13 +38408,13 @@
         <v>38.1</v>
       </c>
       <c r="R612" t="n">
-        <v>35.1</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="S612" t="n">
         <v>40.7916</v>
       </c>
       <c r="T612" t="n">
-        <v>34.10319623990333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -38476,7 +38476,7 @@
         <v>140.1716</v>
       </c>
       <c r="T613" t="n">
-        <v>195.6623307759984</v>
+        <v>99.37561627433645</v>
       </c>
     </row>
     <row r="614">
@@ -38538,7 +38538,7 @@
         <v>45.3716</v>
       </c>
       <c r="T614" t="n">
-        <v>18.79533381246587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -38600,7 +38600,7 @@
         <v>449.1803000000001</v>
       </c>
       <c r="T615" t="n">
-        <v>315.5897066987848</v>
+        <v>312.7979282825586</v>
       </c>
     </row>
     <row r="616">
@@ -38662,7 +38662,7 @@
         <v>0.8909</v>
       </c>
       <c r="T616" t="n">
-        <v>9.963857588654353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -38724,7 +38724,7 @@
         <v>0.8908</v>
       </c>
       <c r="T617" t="n">
-        <v>3.831289593838109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -38786,7 +38786,7 @@
         <v>2.5471</v>
       </c>
       <c r="T618" t="n">
-        <v>8.025534752774179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -38848,7 +38848,7 @@
         <v>45.854</v>
       </c>
       <c r="T619" t="n">
-        <v>31.88769788375363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -38910,7 +38910,7 @@
         <v>5.7114</v>
       </c>
       <c r="T620" t="n">
-        <v>7.409200357332279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -38972,7 +38972,7 @@
         <v>51.11</v>
       </c>
       <c r="T621" t="n">
-        <v>70.0102585157113</v>
+        <v>55.98198951096253</v>
       </c>
     </row>
     <row r="622">
@@ -39034,7 +39034,7 @@
         <v>60.86340000000001</v>
       </c>
       <c r="T622" t="n">
-        <v>78.0530368067472</v>
+        <v>28.39121835586034</v>
       </c>
     </row>
     <row r="623">
@@ -39096,7 +39096,7 @@
         <v>19.5246</v>
       </c>
       <c r="T623" t="n">
-        <v>15.26126278072537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -39158,7 +39158,7 @@
         <v>19.2224</v>
       </c>
       <c r="T624" t="n">
-        <v>42.29421527121621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -39220,7 +39220,7 @@
         <v>-1</v>
       </c>
       <c r="T625" t="n">
-        <v>10.84172389142485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -39282,7 +39282,7 @@
         <v>1.6737</v>
       </c>
       <c r="T626" t="n">
-        <v>5.080267536750526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -39344,7 +39344,7 @@
         <v>0.891</v>
       </c>
       <c r="T627" t="n">
-        <v>7.949808148176519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -39406,7 +39406,7 @@
         <v>4.8014</v>
       </c>
       <c r="T628" t="n">
-        <v>0</v>
+        <v>0.1793339702490861</v>
       </c>
     </row>
     <row r="629">
@@ -39468,7 +39468,7 @@
         <v>50.1301</v>
       </c>
       <c r="T629" t="n">
-        <v>72.97504653518534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -39530,7 +39530,7 @@
         <v>26.6801</v>
       </c>
       <c r="T630" t="n">
-        <v>28.60804109910469</v>
+        <v>44.76479966534173</v>
       </c>
     </row>
     <row r="631">
@@ -39592,7 +39592,7 @@
         <v>85.95999999999999</v>
       </c>
       <c r="T631" t="n">
-        <v>131.7160893268127</v>
+        <v>121.1678117703324</v>
       </c>
     </row>
     <row r="632">
@@ -39654,7 +39654,7 @@
         <v>126.3998</v>
       </c>
       <c r="T632" t="n">
-        <v>103.7766461676159</v>
+        <v>119.8228751485965</v>
       </c>
     </row>
     <row r="633">
@@ -39716,7 +39716,7 @@
         <v>1.3638</v>
       </c>
       <c r="T633" t="n">
-        <v>12.59090334490275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -39778,7 +39778,7 @@
         <v>16.9556</v>
       </c>
       <c r="T634" t="n">
-        <v>12.51542079210273</v>
+        <v>9.979923041917516</v>
       </c>
     </row>
     <row r="635">
@@ -39840,7 +39840,7 @@
         <v>62.0002</v>
       </c>
       <c r="T635" t="n">
-        <v>125.2431535672636</v>
+        <v>27.98736817318477</v>
       </c>
     </row>
     <row r="636">
@@ -39964,7 +39964,7 @@
         <v>16.6551</v>
       </c>
       <c r="T637" t="n">
-        <v>30.64188345708673</v>
+        <v>0.9723626345735106</v>
       </c>
     </row>
     <row r="638">
@@ -40026,7 +40026,7 @@
         <v>94.3198</v>
       </c>
       <c r="T638" t="n">
-        <v>108.7908183126199</v>
+        <v>41.49373267601693</v>
       </c>
     </row>
     <row r="639">
@@ -40088,7 +40088,7 @@
         <v>-1</v>
       </c>
       <c r="T639" t="n">
-        <v>2.910919689362031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -40150,7 +40150,7 @@
         <v>9.1576</v>
       </c>
       <c r="T640" t="n">
-        <v>18.64405038023902</v>
+        <v>3.395284930080887</v>
       </c>
     </row>
     <row r="641">
@@ -40212,7 +40212,7 @@
         <v>23.0573</v>
       </c>
       <c r="T641" t="n">
-        <v>5.021720255351788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -40274,7 +40274,7 @@
         <v>2.4055</v>
       </c>
       <c r="T642" t="n">
-        <v>5.980955440966935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -40336,7 +40336,7 @@
         <v>13.2736</v>
       </c>
       <c r="T643" t="n">
-        <v>4.042454022569967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -40398,7 +40398,7 @@
         <v>46.0799</v>
       </c>
       <c r="T644" t="n">
-        <v>13.43234381680605</v>
+        <v>15.33743128454089</v>
       </c>
     </row>
     <row r="645">
@@ -40460,7 +40460,7 @@
         <v>14.2612</v>
       </c>
       <c r="T645" t="n">
-        <v>17.34998051858195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -40522,7 +40522,7 @@
         <v>148.4</v>
       </c>
       <c r="T646" t="n">
-        <v>90.99644338907065</v>
+        <v>75.96951825617698</v>
       </c>
     </row>
     <row r="647">
@@ -40584,7 +40584,7 @@
         <v>0.2829</v>
       </c>
       <c r="T647" t="n">
-        <v>5.151059975437982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -40646,7 +40646,7 @@
         <v>-1</v>
       </c>
       <c r="T648" t="n">
-        <v>5.417502458190046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -40708,7 +40708,7 @@
         <v>0.7863</v>
       </c>
       <c r="T649" t="n">
-        <v>7.57633065913407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -40770,7 +40770,7 @@
         <v>15.4798</v>
       </c>
       <c r="T650" t="n">
-        <v>3.305515653913905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -40832,7 +40832,7 @@
         <v>1.733</v>
       </c>
       <c r="T651" t="n">
-        <v>15.28973519715964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -41142,7 +41142,7 @@
         <v>0.5641</v>
       </c>
       <c r="T656" t="n">
-        <v>12.83378032836605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -41266,7 +41266,7 @@
         <v>0.5338000000000001</v>
       </c>
       <c r="T658" t="n">
-        <v>3.107581046709595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -41328,7 +41328,7 @@
         <v>-1</v>
       </c>
       <c r="T659" t="n">
-        <v>12.51077158731299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -41390,7 +41390,7 @@
         <v>0.2827</v>
       </c>
       <c r="T660" t="n">
-        <v>5.432921081102145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -41514,7 +41514,7 @@
         <v>17.1199</v>
       </c>
       <c r="T662" t="n">
-        <v>5.21091167127599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -41576,7 +41576,7 @@
         <v>30.7088</v>
       </c>
       <c r="T663" t="n">
-        <v>44.12473286692195</v>
+        <v>47.60062609771115</v>
       </c>
     </row>
     <row r="664">
@@ -41638,7 +41638,7 @@
         <v>94.8353</v>
       </c>
       <c r="T664" t="n">
-        <v>63.46722102105814</v>
+        <v>195.0000519101171</v>
       </c>
     </row>
     <row r="665">
@@ -41700,7 +41700,7 @@
         <v>-1</v>
       </c>
       <c r="T665" t="n">
-        <v>26.55645689424128</v>
+        <v>243.9369224503173</v>
       </c>
     </row>
     <row r="666">
@@ -41762,7 +41762,7 @@
         <v>1.4254</v>
       </c>
       <c r="T666" t="n">
-        <v>0.5125670807667627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -41824,7 +41824,7 @@
         <v>17.4042</v>
       </c>
       <c r="T667" t="n">
-        <v>12.49924528645674</v>
+        <v>6.821773065932348</v>
       </c>
     </row>
     <row r="668">
@@ -41886,7 +41886,7 @@
         <v>62.4926</v>
       </c>
       <c r="T668" t="n">
-        <v>49.85578088859697</v>
+        <v>87.7473270844732</v>
       </c>
     </row>
     <row r="669">
@@ -41948,7 +41948,7 @@
         <v>2.9385</v>
       </c>
       <c r="T669" t="n">
-        <v>3.933895819091022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -42010,7 +42010,7 @@
         <v>17.4724</v>
       </c>
       <c r="T670" t="n">
-        <v>27.20511903291789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -42072,7 +42072,7 @@
         <v>94.30159999999999</v>
       </c>
       <c r="T671" t="n">
-        <v>21.99787772480847</v>
+        <v>119.2607748748696</v>
       </c>
     </row>
     <row r="672">
@@ -42134,7 +42134,7 @@
         <v>9.8513</v>
       </c>
       <c r="T672" t="n">
-        <v>14.093885780946</v>
+        <v>2.314611703522033</v>
       </c>
     </row>
     <row r="673">
@@ -42196,7 +42196,7 @@
         <v>22.5049</v>
       </c>
       <c r="T673" t="n">
-        <v>12.89505976620143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -42320,7 +42320,7 @@
         <v>13.7427</v>
       </c>
       <c r="T675" t="n">
-        <v>4.853004666413993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -42382,7 +42382,7 @@
         <v>47.6786</v>
       </c>
       <c r="T676" t="n">
-        <v>33.60216354873352</v>
+        <v>9.008845363903514</v>
       </c>
     </row>
     <row r="677">
@@ -42444,7 +42444,7 @@
         <v>15.2288</v>
       </c>
       <c r="T677" t="n">
-        <v>30.30130689072344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -42506,7 +42506,7 @@
         <v>154.0869</v>
       </c>
       <c r="T678" t="n">
-        <v>7.54307870170978</v>
+        <v>162.6301597121641</v>
       </c>
     </row>
     <row r="679">
@@ -42692,7 +42692,7 @@
         <v>14.7618</v>
       </c>
       <c r="T681" t="n">
-        <v>2.386249554443433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -42816,7 +42816,7 @@
         <v>17.0852</v>
       </c>
       <c r="T683" t="n">
-        <v>0.7684236619575125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -42878,7 +42878,7 @@
         <v>21.8758</v>
       </c>
       <c r="T684" t="n">
-        <v>5.730110209675758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -43002,7 +43002,7 @@
         <v>0.6685</v>
       </c>
       <c r="T686" t="n">
-        <v>18.50830906553661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -43188,7 +43188,7 @@
         <v>0.2824</v>
       </c>
       <c r="T689" t="n">
-        <v>2.377468385626182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">

--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -590,13 +590,13 @@
         <v>2684</v>
       </c>
       <c r="R2" t="n">
-        <v>192</v>
+        <v>191.625</v>
       </c>
       <c r="S2" t="n">
         <v>95</v>
       </c>
       <c r="T2" t="n">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
@@ -658,7 +658,7 @@
         <v>480</v>
       </c>
       <c r="T3" t="n">
-        <v>580</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
@@ -722,7 +722,7 @@
         <v>935</v>
       </c>
       <c r="T4" t="n">
-        <v>1116</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="5">
@@ -786,7 +786,7 @@
         <v>1270</v>
       </c>
       <c r="T5" t="n">
-        <v>1267</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6">
@@ -842,13 +842,13 @@
         <v>340.75</v>
       </c>
       <c r="R6" t="n">
-        <v>80</v>
+        <v>79.5</v>
       </c>
       <c r="S6" t="n">
         <v>58</v>
       </c>
       <c r="T6" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -904,13 +904,13 @@
         <v>1462</v>
       </c>
       <c r="R7" t="n">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="S7" t="n">
         <v>137</v>
       </c>
       <c r="T7" t="n">
-        <v>136</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
@@ -966,13 +966,13 @@
         <v>100.5</v>
       </c>
       <c r="R8" t="n">
-        <v>61</v>
+        <v>61.1875</v>
       </c>
       <c r="S8" t="n">
         <v>44</v>
       </c>
       <c r="T8" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -1030,13 +1030,13 @@
         <v>1034</v>
       </c>
       <c r="R9" t="n">
-        <v>90</v>
+        <v>90.5</v>
       </c>
       <c r="S9" t="n">
         <v>85</v>
       </c>
       <c r="T9" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1094,13 +1094,13 @@
         <v>575</v>
       </c>
       <c r="R10" t="n">
-        <v>215</v>
+        <v>214.75</v>
       </c>
       <c r="S10" t="n">
         <v>216</v>
       </c>
       <c r="T10" t="n">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
@@ -1164,7 +1164,7 @@
         <v>542</v>
       </c>
       <c r="T11" t="n">
-        <v>578</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12">
@@ -1220,13 +1220,13 @@
         <v>172.75</v>
       </c>
       <c r="R12" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="S12" t="n">
         <v>53</v>
       </c>
       <c r="T12" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -1288,7 +1288,7 @@
         <v>58</v>
       </c>
       <c r="T13" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -1344,13 +1344,13 @@
         <v>108.4375</v>
       </c>
       <c r="R14" t="n">
-        <v>383</v>
+        <v>382.75</v>
       </c>
       <c r="S14" t="n">
         <v>334</v>
       </c>
       <c r="T14" t="n">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15">
@@ -1406,13 +1406,13 @@
         <v>497.75</v>
       </c>
       <c r="R15" t="n">
-        <v>348</v>
+        <v>348.25</v>
       </c>
       <c r="S15" t="n">
         <v>352</v>
       </c>
       <c r="T15" t="n">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16">
@@ -1468,13 +1468,13 @@
         <v>3476</v>
       </c>
       <c r="R16" t="n">
-        <v>610</v>
+        <v>609.5</v>
       </c>
       <c r="S16" t="n">
         <v>443</v>
       </c>
       <c r="T16" t="n">
-        <v>686</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17">
@@ -1532,13 +1532,13 @@
         <v>407.5</v>
       </c>
       <c r="R17" t="n">
-        <v>337</v>
+        <v>337.25</v>
       </c>
       <c r="S17" t="n">
         <v>327</v>
       </c>
       <c r="T17" t="n">
-        <v>423</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18">
@@ -1596,13 +1596,13 @@
         <v>3866</v>
       </c>
       <c r="R18" t="n">
-        <v>464</v>
+        <v>464.5</v>
       </c>
       <c r="S18" t="n">
         <v>513</v>
       </c>
       <c r="T18" t="n">
-        <v>565</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19">
@@ -1660,13 +1660,13 @@
         <v>77.375</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S19" t="n">
         <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1724,13 +1724,13 @@
         <v>474.5</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.300048828125</v>
       </c>
       <c r="S20" t="n">
         <v>8</v>
       </c>
       <c r="T20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -1782,13 +1782,13 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>37</v>
+        <v>36.90625</v>
       </c>
       <c r="S21" t="n">
         <v>27</v>
       </c>
       <c r="T21" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -1844,13 +1844,13 @@
         <v>26.40625</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>4.19921875</v>
       </c>
       <c r="S22" t="n">
         <v>6</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1906,13 +1906,13 @@
         <v>154.5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1968,13 +1968,13 @@
         <v>164.125</v>
       </c>
       <c r="R24" t="n">
-        <v>92</v>
+        <v>92.125</v>
       </c>
       <c r="S24" t="n">
         <v>87</v>
       </c>
       <c r="T24" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
@@ -2030,13 +2030,13 @@
         <v>1024</v>
       </c>
       <c r="R25" t="n">
-        <v>128</v>
+        <v>128.5</v>
       </c>
       <c r="S25" t="n">
         <v>127</v>
       </c>
       <c r="T25" t="n">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -2158,13 +2158,13 @@
         <v>424.25</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>3.599609375</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2220,13 +2220,13 @@
         <v>769</v>
       </c>
       <c r="R28" t="n">
-        <v>396</v>
+        <v>396.5</v>
       </c>
       <c r="S28" t="n">
         <v>345</v>
       </c>
       <c r="T28" t="n">
-        <v>481</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29">
@@ -2288,7 +2288,7 @@
         <v>599</v>
       </c>
       <c r="T29" t="n">
-        <v>662</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30">
@@ -2346,7 +2346,7 @@
         <v>24.453125</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>2.099609375</v>
       </c>
       <c r="S30" t="n">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2474,13 +2474,13 @@
         <v>24.75</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>3.44921875</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2538,7 +2538,7 @@
         <v>96.875</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
@@ -2602,7 +2602,7 @@
         <v>20.65625</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>0.61181640625</v>
       </c>
       <c r="S34" t="n">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>115</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -2800,7 +2800,7 @@
         <v>7</v>
       </c>
       <c r="T37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
@@ -2856,13 +2856,13 @@
         <v>60.4375</v>
       </c>
       <c r="R38" t="n">
-        <v>43</v>
+        <v>43.1875</v>
       </c>
       <c r="S38" t="n">
         <v>72</v>
       </c>
       <c r="T38" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39">
@@ -2920,13 +2920,13 @@
         <v>462.25</v>
       </c>
       <c r="R39" t="n">
-        <v>96</v>
+        <v>96.3125</v>
       </c>
       <c r="S39" t="n">
         <v>186</v>
       </c>
       <c r="T39" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40">
@@ -2990,7 +2990,7 @@
         <v>298</v>
       </c>
       <c r="T40" t="n">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
@@ -3046,13 +3046,13 @@
         <v>22.203125</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>2.69921875</v>
       </c>
       <c r="S41" t="n">
         <v>4</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3108,13 +3108,13 @@
         <v>110.125</v>
       </c>
       <c r="R42" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="S42" t="n">
         <v>40</v>
       </c>
       <c r="T42" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -3178,7 +3178,7 @@
         <v>84</v>
       </c>
       <c r="T43" t="n">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44">
@@ -3234,13 +3234,13 @@
         <v>35.09375</v>
       </c>
       <c r="R44" t="n">
-        <v>6</v>
+        <v>5.69921875</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -3296,13 +3296,13 @@
         <v>93</v>
       </c>
       <c r="R45" t="n">
-        <v>22</v>
+        <v>22.203125</v>
       </c>
       <c r="S45" t="n">
         <v>40</v>
       </c>
       <c r="T45" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
@@ -3358,13 +3358,13 @@
         <v>704</v>
       </c>
       <c r="R46" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="S46" t="n">
         <v>99</v>
       </c>
       <c r="T46" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
@@ -3422,13 +3422,13 @@
         <v>89.6875</v>
       </c>
       <c r="R47" t="n">
-        <v>13</v>
+        <v>12.6015625</v>
       </c>
       <c r="S47" t="n">
         <v>27</v>
       </c>
       <c r="T47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -3490,7 +3490,7 @@
         <v>24</v>
       </c>
       <c r="T48" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -3546,13 +3546,13 @@
         <v>27.90625</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S49" t="n">
         <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3662,13 +3662,13 @@
         <v>37.1875</v>
       </c>
       <c r="R51" t="n">
-        <v>25</v>
+        <v>24.90625</v>
       </c>
       <c r="S51" t="n">
         <v>18</v>
       </c>
       <c r="T51" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -3724,13 +3724,13 @@
         <v>349.5</v>
       </c>
       <c r="R52" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="S52" t="n">
         <v>63</v>
       </c>
       <c r="T52" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -3786,13 +3786,13 @@
         <v>61.5</v>
       </c>
       <c r="R53" t="n">
-        <v>38</v>
+        <v>38.40625</v>
       </c>
       <c r="S53" t="n">
         <v>41</v>
       </c>
       <c r="T53" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
@@ -3848,13 +3848,13 @@
         <v>707</v>
       </c>
       <c r="R54" t="n">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="S54" t="n">
         <v>124</v>
       </c>
       <c r="T54" t="n">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55">
@@ -3912,13 +3912,13 @@
         <v>19.65625</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>0.449951171875</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -3976,13 +3976,13 @@
         <v>38.09375</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>0.89990234375</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -4040,13 +4040,13 @@
         <v>33.3125</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4.80078125</v>
       </c>
       <c r="S57" t="n">
         <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -4104,13 +4104,13 @@
         <v>161</v>
       </c>
       <c r="R58" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="S58" t="n">
         <v>17</v>
       </c>
       <c r="T58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -4168,13 +4168,13 @@
         <v>38.40625</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>3.900390625</v>
       </c>
       <c r="S59" t="n">
         <v>3</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -4232,13 +4232,13 @@
         <v>216</v>
       </c>
       <c r="R60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
       </c>
       <c r="T60" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -4300,7 +4300,7 @@
         <v>26</v>
       </c>
       <c r="T61" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
@@ -4362,7 +4362,7 @@
         <v>3</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -4424,7 +4424,7 @@
         <v>5</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -4540,13 +4540,13 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>0.89990234375</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4658,7 +4658,7 @@
         <v>14.3984375</v>
       </c>
       <c r="R67" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -4722,13 +4722,13 @@
         <v>8.703125</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S68" t="n">
         <v>2</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -4784,13 +4784,13 @@
         <v>115.1875</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S69" t="n">
         <v>4</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -4850,7 +4850,7 @@
         <v>7</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -4908,13 +4908,13 @@
         <v>2774</v>
       </c>
       <c r="R71" t="n">
-        <v>134</v>
+        <v>134.25</v>
       </c>
       <c r="S71" t="n">
         <v>115</v>
       </c>
       <c r="T71" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72">
@@ -4972,13 +4972,13 @@
         <v>423.5</v>
       </c>
       <c r="R72" t="n">
-        <v>628</v>
+        <v>627.5</v>
       </c>
       <c r="S72" t="n">
         <v>580</v>
       </c>
       <c r="T72" t="n">
-        <v>454</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73">
@@ -5042,7 +5042,7 @@
         <v>1219</v>
       </c>
       <c r="T73" t="n">
-        <v>902</v>
+        <v>885</v>
       </c>
     </row>
     <row r="74">
@@ -5106,7 +5106,7 @@
         <v>1282</v>
       </c>
       <c r="T74" t="n">
-        <v>1188</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="75">
@@ -5162,13 +5162,13 @@
         <v>330.25</v>
       </c>
       <c r="R75" t="n">
-        <v>82</v>
+        <v>81.875</v>
       </c>
       <c r="S75" t="n">
         <v>110</v>
       </c>
       <c r="T75" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76">
@@ -5226,13 +5226,13 @@
         <v>1467</v>
       </c>
       <c r="R76" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="S76" t="n">
         <v>150</v>
       </c>
       <c r="T76" t="n">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
@@ -5288,13 +5288,13 @@
         <v>111.3125</v>
       </c>
       <c r="R77" t="n">
-        <v>65</v>
+        <v>65.125</v>
       </c>
       <c r="S77" t="n">
         <v>70</v>
       </c>
       <c r="T77" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78">
@@ -5358,7 +5358,7 @@
         <v>100</v>
       </c>
       <c r="T78" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
@@ -5422,7 +5422,7 @@
         <v>278</v>
       </c>
       <c r="T79" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80">
@@ -5486,7 +5486,7 @@
         <v>654</v>
       </c>
       <c r="T80" t="n">
-        <v>555</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81">
@@ -5542,7 +5542,7 @@
         <v>131.375</v>
       </c>
       <c r="R81" t="n">
-        <v>121</v>
+        <v>121.1875</v>
       </c>
       <c r="S81" t="n">
         <v>75</v>
@@ -5604,7 +5604,7 @@
         <v>565.5</v>
       </c>
       <c r="R82" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="S82" t="n">
         <v>61</v>
@@ -5666,13 +5666,13 @@
         <v>97.625</v>
       </c>
       <c r="R83" t="n">
-        <v>462</v>
+        <v>461.5</v>
       </c>
       <c r="S83" t="n">
         <v>345</v>
       </c>
       <c r="T83" t="n">
-        <v>361</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84">
@@ -5734,7 +5734,7 @@
         <v>462</v>
       </c>
       <c r="T84" t="n">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85">
@@ -5796,7 +5796,7 @@
         <v>662</v>
       </c>
       <c r="T85" t="n">
-        <v>541</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86">
@@ -5860,7 +5860,7 @@
         <v>371</v>
       </c>
       <c r="T86" t="n">
-        <v>338</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87">
@@ -5924,7 +5924,7 @@
         <v>474</v>
       </c>
       <c r="T87" t="n">
-        <v>555</v>
+        <v>519</v>
       </c>
     </row>
     <row r="88">
@@ -5982,13 +5982,13 @@
         <v>80.25</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>1.7998046875</v>
       </c>
       <c r="S88" t="n">
         <v>5</v>
       </c>
       <c r="T88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -6046,13 +6046,13 @@
         <v>460.5</v>
       </c>
       <c r="R89" t="n">
-        <v>5</v>
+        <v>5.1015625</v>
       </c>
       <c r="S89" t="n">
         <v>13</v>
       </c>
       <c r="T89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90">
@@ -6108,13 +6108,13 @@
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="S90" t="n">
         <v>31</v>
       </c>
       <c r="T90" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -6170,13 +6170,13 @@
         <v>30.90625</v>
       </c>
       <c r="R91" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S91" t="n">
         <v>6</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92">
@@ -6232,13 +6232,13 @@
         <v>151</v>
       </c>
       <c r="R92" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="S92" t="n">
         <v>7</v>
       </c>
       <c r="T92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -6294,13 +6294,13 @@
         <v>166.75</v>
       </c>
       <c r="R93" t="n">
-        <v>111</v>
+        <v>110.6875</v>
       </c>
       <c r="S93" t="n">
         <v>131</v>
       </c>
       <c r="T93" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94">
@@ -6362,7 +6362,7 @@
         <v>198</v>
       </c>
       <c r="T94" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -6420,13 +6420,13 @@
         <v>46.8125</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>2.400390625</v>
       </c>
       <c r="S95" t="n">
         <v>2</v>
       </c>
       <c r="T95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -6484,13 +6484,13 @@
         <v>430.75</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S96" t="n">
         <v>5</v>
       </c>
       <c r="T96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -6552,7 +6552,7 @@
         <v>492</v>
       </c>
       <c r="T97" t="n">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="98">
@@ -6616,7 +6616,7 @@
         <v>782</v>
       </c>
       <c r="T98" t="n">
-        <v>613</v>
+        <v>628</v>
       </c>
     </row>
     <row r="99">
@@ -6674,13 +6674,13 @@
         <v>24.296875</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>1.349609375</v>
       </c>
       <c r="S99" t="n">
         <v>2</v>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -6738,13 +6738,13 @@
         <v>23.703125</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>0.449951171875</v>
       </c>
       <c r="S100" t="n">
         <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -6802,13 +6802,13 @@
         <v>31.046875</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>1.9501953125</v>
       </c>
       <c r="S101" t="n">
         <v>2</v>
       </c>
       <c r="T101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -6872,7 +6872,7 @@
         <v>2</v>
       </c>
       <c r="T102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -6930,13 +6930,13 @@
         <v>20.203125</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>1.6826171875</v>
       </c>
       <c r="S103" t="n">
         <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -7000,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -7058,13 +7058,13 @@
         <v>110.5</v>
       </c>
       <c r="R105" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S105" t="n">
         <v>7</v>
       </c>
       <c r="T105" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
@@ -7128,7 +7128,7 @@
         <v>10</v>
       </c>
       <c r="T106" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -7184,13 +7184,13 @@
         <v>70.375</v>
       </c>
       <c r="R107" t="n">
-        <v>56</v>
+        <v>56.09375</v>
       </c>
       <c r="S107" t="n">
         <v>72</v>
       </c>
       <c r="T107" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108">
@@ -7248,13 +7248,13 @@
         <v>499.5</v>
       </c>
       <c r="R108" t="n">
-        <v>130</v>
+        <v>129.625</v>
       </c>
       <c r="S108" t="n">
         <v>206</v>
       </c>
       <c r="T108" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109">
@@ -7312,13 +7312,13 @@
         <v>767.5</v>
       </c>
       <c r="R109" t="n">
-        <v>178</v>
+        <v>178.5</v>
       </c>
       <c r="S109" t="n">
         <v>290</v>
       </c>
       <c r="T109" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110">
@@ -7374,13 +7374,13 @@
         <v>15.296875</v>
       </c>
       <c r="R110" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S110" t="n">
         <v>4</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111">
@@ -7436,13 +7436,13 @@
         <v>93.875</v>
       </c>
       <c r="R111" t="n">
-        <v>36</v>
+        <v>35.6875</v>
       </c>
       <c r="S111" t="n">
         <v>42</v>
       </c>
       <c r="T111" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
@@ -7500,13 +7500,13 @@
         <v>542.5</v>
       </c>
       <c r="R112" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="S112" t="n">
         <v>82</v>
       </c>
       <c r="T112" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113">
@@ -7562,13 +7562,13 @@
         <v>44.40625</v>
       </c>
       <c r="R113" t="n">
-        <v>5</v>
+        <v>5.1015625</v>
       </c>
       <c r="S113" t="n">
         <v>9</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114">
@@ -7624,13 +7624,13 @@
         <v>104.375</v>
       </c>
       <c r="R114" t="n">
-        <v>33</v>
+        <v>32.6875</v>
       </c>
       <c r="S114" t="n">
         <v>35</v>
       </c>
       <c r="T114" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
@@ -7692,7 +7692,7 @@
         <v>90</v>
       </c>
       <c r="T115" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116">
@@ -7748,13 +7748,13 @@
         <v>85.5</v>
       </c>
       <c r="R116" t="n">
-        <v>34</v>
+        <v>34.1875</v>
       </c>
       <c r="S116" t="n">
         <v>33</v>
       </c>
       <c r="T116" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
@@ -7812,13 +7812,13 @@
         <v>338.5</v>
       </c>
       <c r="R117" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="S117" t="n">
         <v>23</v>
       </c>
       <c r="T117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
@@ -7876,13 +7876,13 @@
         <v>23.703125</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S118" t="n">
         <v>2</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -7938,13 +7938,13 @@
         <v>48.3125</v>
       </c>
       <c r="R119" t="n">
-        <v>23</v>
+        <v>22.796875</v>
       </c>
       <c r="S119" t="n">
         <v>19</v>
       </c>
       <c r="T119" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
@@ -8002,13 +8002,13 @@
         <v>266</v>
       </c>
       <c r="R120" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="S120" t="n">
         <v>56</v>
       </c>
       <c r="T120" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121">
@@ -8070,7 +8070,7 @@
         <v>43</v>
       </c>
       <c r="T121" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -8128,13 +8128,13 @@
         <v>802.5</v>
       </c>
       <c r="R122" t="n">
-        <v>90</v>
+        <v>90.5</v>
       </c>
       <c r="S122" t="n">
         <v>120</v>
       </c>
       <c r="T122" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
@@ -8192,13 +8192,13 @@
         <v>14.1015625</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>0.300048828125</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -8256,13 +8256,13 @@
         <v>30</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>0.300048828125</v>
       </c>
       <c r="S124" t="n">
         <v>1</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -8320,13 +8320,13 @@
         <v>27.90625</v>
       </c>
       <c r="R125" t="n">
-        <v>5</v>
+        <v>5.1015625</v>
       </c>
       <c r="S125" t="n">
         <v>1</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126">
@@ -8390,7 +8390,7 @@
         <v>16</v>
       </c>
       <c r="T126" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -8448,13 +8448,13 @@
         <v>23.40625</v>
       </c>
       <c r="R127" t="n">
-        <v>3</v>
+        <v>2.69921875</v>
       </c>
       <c r="S127" t="n">
         <v>3</v>
       </c>
       <c r="T127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -8512,13 +8512,13 @@
         <v>198</v>
       </c>
       <c r="R128" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="S128" t="n">
         <v>12</v>
       </c>
       <c r="T128" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129">
@@ -8574,13 +8574,13 @@
         <v>250</v>
       </c>
       <c r="R129" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="S129" t="n">
         <v>23</v>
       </c>
       <c r="T129" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130">
@@ -8636,13 +8636,13 @@
         <v>99</v>
       </c>
       <c r="R130" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S130" t="n">
         <v>3</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
@@ -8698,13 +8698,13 @@
         <v>174.5</v>
       </c>
       <c r="R131" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S131" t="n">
         <v>5</v>
       </c>
       <c r="T131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -8768,7 +8768,7 @@
         <v>1</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
@@ -8820,13 +8820,13 @@
       <c r="P133" t="inlineStr"/>
       <c r="Q133" t="inlineStr"/>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>1.9501953125</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
@@ -8884,13 +8884,13 @@
         <v>10.046875</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>0.300048828125</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -8954,7 +8954,7 @@
         <v>4</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
@@ -9016,7 +9016,7 @@
         <v>3</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -9076,7 +9076,7 @@
         <v>8</v>
       </c>
       <c r="T137" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138">
@@ -9132,13 +9132,13 @@
         <v>2732</v>
       </c>
       <c r="R138" t="n">
-        <v>215</v>
+        <v>215.125</v>
       </c>
       <c r="S138" t="n">
         <v>160</v>
       </c>
       <c r="T138" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
@@ -9202,7 +9202,7 @@
         <v>620</v>
       </c>
       <c r="T139" t="n">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140">
@@ -9266,7 +9266,7 @@
         <v>1044</v>
       </c>
       <c r="T140" t="n">
-        <v>1066</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="141">
@@ -9330,7 +9330,7 @@
         <v>1320</v>
       </c>
       <c r="T141" t="n">
-        <v>1404</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="142">
@@ -9388,13 +9388,13 @@
         <v>348</v>
       </c>
       <c r="R142" t="n">
-        <v>116</v>
+        <v>115.5</v>
       </c>
       <c r="S142" t="n">
         <v>94</v>
       </c>
       <c r="T142" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
@@ -9458,7 +9458,7 @@
         <v>148</v>
       </c>
       <c r="T143" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="144">
@@ -9514,13 +9514,13 @@
         <v>109.5</v>
       </c>
       <c r="R144" t="n">
-        <v>82</v>
+        <v>81.875</v>
       </c>
       <c r="S144" t="n">
         <v>70</v>
       </c>
       <c r="T144" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145">
@@ -9576,13 +9576,13 @@
         <v>928.5</v>
       </c>
       <c r="R145" t="n">
-        <v>92</v>
+        <v>91.5</v>
       </c>
       <c r="S145" t="n">
         <v>98</v>
       </c>
       <c r="T145" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146">
@@ -9644,7 +9644,7 @@
         <v>260</v>
       </c>
       <c r="T146" t="n">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="147">
@@ -9708,7 +9708,7 @@
         <v>575</v>
       </c>
       <c r="T147" t="n">
-        <v>786</v>
+        <v>859</v>
       </c>
     </row>
     <row r="148">
@@ -9764,13 +9764,13 @@
         <v>165</v>
       </c>
       <c r="R148" t="n">
-        <v>126</v>
+        <v>125.6875</v>
       </c>
       <c r="S148" t="n">
         <v>94</v>
       </c>
       <c r="T148" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149">
@@ -9834,7 +9834,7 @@
         <v>78</v>
       </c>
       <c r="T149" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150">
@@ -9888,13 +9888,13 @@
         <v>901</v>
       </c>
       <c r="R150" t="n">
-        <v>10</v>
+        <v>9.8984375</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -9950,13 +9950,13 @@
         <v>99.3125</v>
       </c>
       <c r="R151" t="n">
-        <v>495</v>
+        <v>495.25</v>
       </c>
       <c r="S151" t="n">
         <v>382</v>
       </c>
       <c r="T151" t="n">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="152">
@@ -10018,7 +10018,7 @@
         <v>393</v>
       </c>
       <c r="T152" t="n">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="153">
@@ -10076,13 +10076,13 @@
         <v>3508</v>
       </c>
       <c r="R153" t="n">
-        <v>796</v>
+        <v>795.5</v>
       </c>
       <c r="S153" t="n">
         <v>636</v>
       </c>
       <c r="T153" t="n">
-        <v>969</v>
+        <v>905</v>
       </c>
     </row>
     <row r="154">
@@ -10140,13 +10140,13 @@
         <v>440.5</v>
       </c>
       <c r="R154" t="n">
-        <v>462</v>
+        <v>462.5</v>
       </c>
       <c r="S154" t="n">
         <v>422</v>
       </c>
       <c r="T154" t="n">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="155">
@@ -10204,13 +10204,13 @@
         <v>4120</v>
       </c>
       <c r="R155" t="n">
-        <v>436</v>
+        <v>435.5</v>
       </c>
       <c r="S155" t="n">
         <v>489</v>
       </c>
       <c r="T155" t="n">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="156">
@@ -10268,13 +10268,13 @@
         <v>76.1875</v>
       </c>
       <c r="R156" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S156" t="n">
         <v>4</v>
       </c>
       <c r="T156" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -10338,7 +10338,7 @@
         <v>13</v>
       </c>
       <c r="T157" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -10392,13 +10392,13 @@
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="n">
-        <v>50</v>
+        <v>50.09375</v>
       </c>
       <c r="S158" t="n">
         <v>31</v>
       </c>
       <c r="T158" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -10516,13 +10516,13 @@
         <v>142</v>
       </c>
       <c r="R160" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S160" t="n">
         <v>8</v>
       </c>
       <c r="T160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -10578,13 +10578,13 @@
         <v>183.25</v>
       </c>
       <c r="R161" t="n">
-        <v>133</v>
+        <v>132.875</v>
       </c>
       <c r="S161" t="n">
         <v>111</v>
       </c>
       <c r="T161" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="162">
@@ -10646,7 +10646,7 @@
         <v>153</v>
       </c>
       <c r="T162" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="163">
@@ -10704,13 +10704,13 @@
         <v>39.15625</v>
       </c>
       <c r="R163" t="n">
-        <v>3</v>
+        <v>2.55078125</v>
       </c>
       <c r="S163" t="n">
         <v>2</v>
       </c>
       <c r="T163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -10768,13 +10768,13 @@
         <v>468</v>
       </c>
       <c r="R164" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S164" t="n">
         <v>10</v>
       </c>
       <c r="T164" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -10832,13 +10832,13 @@
         <v>826</v>
       </c>
       <c r="R165" t="n">
-        <v>520</v>
+        <v>519.5</v>
       </c>
       <c r="S165" t="n">
         <v>486</v>
       </c>
       <c r="T165" t="n">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="166">
@@ -10896,13 +10896,13 @@
         <v>5980</v>
       </c>
       <c r="R166" t="n">
-        <v>702</v>
+        <v>702.5</v>
       </c>
       <c r="S166" t="n">
         <v>820</v>
       </c>
       <c r="T166" t="n">
-        <v>792</v>
+        <v>728</v>
       </c>
     </row>
     <row r="167">
@@ -10960,13 +10960,13 @@
         <v>23.40625</v>
       </c>
       <c r="R167" t="n">
-        <v>5</v>
+        <v>5.3984375</v>
       </c>
       <c r="S167" t="n">
         <v>2</v>
       </c>
       <c r="T167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -11024,7 +11024,7 @@
         <v>18.453125</v>
       </c>
       <c r="R168" t="n">
-        <v>2</v>
+        <v>1.9501953125</v>
       </c>
       <c r="S168" t="n">
         <v>1</v>
@@ -11088,13 +11088,13 @@
         <v>30.90625</v>
       </c>
       <c r="R169" t="n">
-        <v>6</v>
+        <v>5.8515625</v>
       </c>
       <c r="S169" t="n">
         <v>5</v>
       </c>
       <c r="T169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -11152,13 +11152,13 @@
         <v>125.375</v>
       </c>
       <c r="R170" t="n">
-        <v>18</v>
+        <v>18.296875</v>
       </c>
       <c r="S170" t="n">
         <v>2</v>
       </c>
       <c r="T170" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="T171" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -11270,13 +11270,13 @@
         <v>22.640625</v>
       </c>
       <c r="R172" t="n">
-        <v>1</v>
+        <v>1.0712890625</v>
       </c>
       <c r="S172" t="n">
         <v>2</v>
       </c>
       <c r="T172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -11332,13 +11332,13 @@
         <v>46.8125</v>
       </c>
       <c r="R173" t="n">
-        <v>2</v>
+        <v>2.099609375</v>
       </c>
       <c r="S173" t="n">
         <v>2</v>
       </c>
       <c r="T173" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -11402,7 +11402,7 @@
         <v>7</v>
       </c>
       <c r="T174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -11460,13 +11460,13 @@
         <v>195</v>
       </c>
       <c r="R175" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="S175" t="n">
         <v>10</v>
       </c>
       <c r="T175" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
@@ -11522,13 +11522,13 @@
         <v>74.6875</v>
       </c>
       <c r="R176" t="n">
-        <v>65</v>
+        <v>64.9375</v>
       </c>
       <c r="S176" t="n">
         <v>76</v>
       </c>
       <c r="T176" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177">
@@ -11586,13 +11586,13 @@
         <v>492.5</v>
       </c>
       <c r="R177" t="n">
-        <v>160</v>
+        <v>160.25</v>
       </c>
       <c r="S177" t="n">
         <v>196</v>
       </c>
       <c r="T177" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178">
@@ -11650,13 +11650,13 @@
         <v>695</v>
       </c>
       <c r="R178" t="n">
-        <v>202</v>
+        <v>202.5</v>
       </c>
       <c r="S178" t="n">
         <v>316</v>
       </c>
       <c r="T178" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="179">
@@ -11710,7 +11710,7 @@
         <v>21.296875</v>
       </c>
       <c r="R179" t="n">
-        <v>4</v>
+        <v>3.900390625</v>
       </c>
       <c r="S179" t="n">
         <v>4</v>
@@ -11772,13 +11772,13 @@
         <v>102.875</v>
       </c>
       <c r="R180" t="n">
-        <v>35</v>
+        <v>35.09375</v>
       </c>
       <c r="S180" t="n">
         <v>43</v>
       </c>
       <c r="T180" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181">
@@ -11842,7 +11842,7 @@
         <v>88</v>
       </c>
       <c r="T181" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182">
@@ -11900,13 +11900,13 @@
         <v>34.1875</v>
       </c>
       <c r="R182" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="S182" t="n">
         <v>10</v>
       </c>
       <c r="T182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -11962,7 +11962,7 @@
         <v>126.625</v>
       </c>
       <c r="R183" t="n">
-        <v>44</v>
+        <v>43.8125</v>
       </c>
       <c r="S183" t="n">
         <v>41</v>
@@ -12026,13 +12026,13 @@
         <v>831.5</v>
       </c>
       <c r="R184" t="n">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="S184" t="n">
         <v>105</v>
       </c>
       <c r="T184" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185">
@@ -12088,13 +12088,13 @@
         <v>93.3125</v>
       </c>
       <c r="R185" t="n">
-        <v>43</v>
+        <v>42.90625</v>
       </c>
       <c r="S185" t="n">
         <v>30</v>
       </c>
       <c r="T185" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="186">
@@ -12158,7 +12158,7 @@
         <v>28</v>
       </c>
       <c r="T186" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187">
@@ -12216,7 +12216,7 @@
         <v>29.40625</v>
       </c>
       <c r="R187" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S187" t="n">
         <v>2</v>
@@ -12278,13 +12278,13 @@
         <v>37.8125</v>
       </c>
       <c r="R188" t="n">
-        <v>25</v>
+        <v>24.59375</v>
       </c>
       <c r="S188" t="n">
         <v>20</v>
       </c>
       <c r="T188" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189">
@@ -12346,7 +12346,7 @@
         <v>66</v>
       </c>
       <c r="T189" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190">
@@ -12402,13 +12402,13 @@
         <v>52.8125</v>
       </c>
       <c r="R190" t="n">
-        <v>42</v>
+        <v>41.6875</v>
       </c>
       <c r="S190" t="n">
         <v>44</v>
       </c>
       <c r="T190" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191">
@@ -12466,13 +12466,13 @@
         <v>880.5</v>
       </c>
       <c r="R191" t="n">
-        <v>132</v>
+        <v>131.5</v>
       </c>
       <c r="S191" t="n">
         <v>148</v>
       </c>
       <c r="T191" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="192">
@@ -12530,7 +12530,7 @@
         <v>19.203125</v>
       </c>
       <c r="R192" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S192" t="n">
         <v>0</v>
@@ -12594,7 +12594,7 @@
         <v>51.3125</v>
       </c>
       <c r="R193" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S193" t="n">
         <v>1</v>
@@ -12658,13 +12658,13 @@
         <v>26.40625</v>
       </c>
       <c r="R194" t="n">
-        <v>2</v>
+        <v>2.400390625</v>
       </c>
       <c r="S194" t="n">
         <v>1</v>
       </c>
       <c r="T194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -12728,7 +12728,7 @@
         <v>20</v>
       </c>
       <c r="T195" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196">
@@ -12786,13 +12786,13 @@
         <v>37.1875</v>
       </c>
       <c r="R196" t="n">
-        <v>5</v>
+        <v>4.80078125</v>
       </c>
       <c r="S196" t="n">
         <v>3</v>
       </c>
       <c r="T196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -12850,13 +12850,13 @@
         <v>217</v>
       </c>
       <c r="R197" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="S197" t="n">
         <v>11</v>
       </c>
       <c r="T197" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -12918,7 +12918,7 @@
         <v>29</v>
       </c>
       <c r="T198" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199">
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -13042,7 +13042,7 @@
         <v>7</v>
       </c>
       <c r="T200" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -13100,7 +13100,7 @@
         <v>20.703125</v>
       </c>
       <c r="R201" t="n">
-        <v>3</v>
+        <v>2.69921875</v>
       </c>
       <c r="S201" t="n">
         <v>1</v>
@@ -13158,7 +13158,7 @@
       <c r="P202" t="inlineStr"/>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S202" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>14.703125</v>
       </c>
       <c r="R204" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S204" t="n">
         <v>5</v>
@@ -13470,13 +13470,13 @@
         <v>2952</v>
       </c>
       <c r="R207" t="n">
-        <v>376</v>
+        <v>376.25</v>
       </c>
       <c r="S207" t="n">
         <v>145</v>
       </c>
       <c r="T207" t="n">
-        <v>263</v>
+        <v>287</v>
       </c>
     </row>
     <row r="208">
@@ -13540,7 +13540,7 @@
         <v>796</v>
       </c>
       <c r="T208" t="n">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row r="209">
@@ -13604,7 +13604,7 @@
         <v>1428</v>
       </c>
       <c r="T209" t="n">
-        <v>1302</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="210">
@@ -13668,7 +13668,7 @@
         <v>1530</v>
       </c>
       <c r="T210" t="n">
-        <v>1517</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="211">
@@ -13726,13 +13726,13 @@
         <v>368</v>
       </c>
       <c r="R211" t="n">
-        <v>137</v>
+        <v>137.375</v>
       </c>
       <c r="S211" t="n">
         <v>112</v>
       </c>
       <c r="T211" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212">
@@ -13790,13 +13790,13 @@
         <v>1783</v>
       </c>
       <c r="R212" t="n">
-        <v>206</v>
+        <v>206.5</v>
       </c>
       <c r="S212" t="n">
         <v>173</v>
       </c>
       <c r="T212" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213">
@@ -13852,13 +13852,13 @@
         <v>168.875</v>
       </c>
       <c r="R213" t="n">
-        <v>116</v>
+        <v>115.5</v>
       </c>
       <c r="S213" t="n">
         <v>84</v>
       </c>
       <c r="T213" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214">
@@ -13922,7 +13922,7 @@
         <v>159</v>
       </c>
       <c r="T214" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="215">
@@ -13980,13 +13980,13 @@
         <v>676.5</v>
       </c>
       <c r="R215" t="n">
-        <v>488</v>
+        <v>487.75</v>
       </c>
       <c r="S215" t="n">
         <v>401</v>
       </c>
       <c r="T215" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="216">
@@ -14050,7 +14050,7 @@
         <v>824</v>
       </c>
       <c r="T216" t="n">
-        <v>800</v>
+        <v>905</v>
       </c>
     </row>
     <row r="217">
@@ -14112,7 +14112,7 @@
         <v>122</v>
       </c>
       <c r="T217" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218">
@@ -14170,13 +14170,13 @@
         <v>664.5</v>
       </c>
       <c r="R218" t="n">
-        <v>144</v>
+        <v>143.5</v>
       </c>
       <c r="S218" t="n">
         <v>107</v>
       </c>
       <c r="T218" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="219">
@@ -14230,13 +14230,13 @@
         <v>911</v>
       </c>
       <c r="R219" t="n">
-        <v>38</v>
+        <v>37.96875</v>
       </c>
       <c r="S219" t="n">
         <v>0</v>
       </c>
       <c r="T219" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220">
@@ -14298,7 +14298,7 @@
         <v>490</v>
       </c>
       <c r="T220" t="n">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221">
@@ -14360,7 +14360,7 @@
         <v>532</v>
       </c>
       <c r="T221" t="n">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="222">
@@ -14424,7 +14424,7 @@
         <v>896</v>
       </c>
       <c r="T222" t="n">
-        <v>963</v>
+        <v>901</v>
       </c>
     </row>
     <row r="223">
@@ -14476,13 +14476,13 @@
         <v>245.125</v>
       </c>
       <c r="R223" t="n">
-        <v>20</v>
+        <v>19.796875</v>
       </c>
       <c r="S223" t="n">
         <v>0</v>
       </c>
       <c r="T223" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224">
@@ -14546,7 +14546,7 @@
         <v>478</v>
       </c>
       <c r="T224" t="n">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="225">
@@ -14610,7 +14610,7 @@
         <v>601</v>
       </c>
       <c r="T225" t="n">
-        <v>708</v>
+        <v>727</v>
       </c>
     </row>
     <row r="226">
@@ -14668,7 +14668,7 @@
         <v>89.5625</v>
       </c>
       <c r="R226" t="n">
-        <v>5</v>
+        <v>4.94921875</v>
       </c>
       <c r="S226" t="n">
         <v>7</v>
@@ -14732,13 +14732,13 @@
         <v>541</v>
       </c>
       <c r="R227" t="n">
-        <v>15</v>
+        <v>14.703125</v>
       </c>
       <c r="S227" t="n">
         <v>16</v>
       </c>
       <c r="T227" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228">
@@ -14796,7 +14796,7 @@
         <v>30</v>
       </c>
       <c r="T228" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229">
@@ -14976,13 +14976,13 @@
         <v>210</v>
       </c>
       <c r="R231" t="n">
-        <v>212</v>
+        <v>212.125</v>
       </c>
       <c r="S231" t="n">
         <v>142</v>
       </c>
       <c r="T231" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232">
@@ -15038,13 +15038,13 @@
         <v>1288</v>
       </c>
       <c r="R232" t="n">
-        <v>310</v>
+        <v>309.5</v>
       </c>
       <c r="S232" t="n">
         <v>193</v>
       </c>
       <c r="T232" t="n">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="233">
@@ -15102,7 +15102,7 @@
         <v>48.59375</v>
       </c>
       <c r="R233" t="n">
-        <v>2</v>
+        <v>1.7998046875</v>
       </c>
       <c r="S233" t="n">
         <v>3</v>
@@ -15166,13 +15166,13 @@
         <v>493</v>
       </c>
       <c r="R234" t="n">
-        <v>4</v>
+        <v>3.599609375</v>
       </c>
       <c r="S234" t="n">
         <v>10</v>
       </c>
       <c r="T234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -15234,7 +15234,7 @@
         <v>576</v>
       </c>
       <c r="T235" t="n">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236">
@@ -15298,7 +15298,7 @@
         <v>874</v>
       </c>
       <c r="T236" t="n">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="237">
@@ -15356,7 +15356,7 @@
         <v>29.546875</v>
       </c>
       <c r="R237" t="n">
-        <v>6</v>
+        <v>5.69921875</v>
       </c>
       <c r="S237" t="n">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>30.453125</v>
       </c>
       <c r="R238" t="n">
-        <v>1</v>
+        <v>1.349609375</v>
       </c>
       <c r="S238" t="n">
         <v>2</v>
@@ -15484,7 +15484,7 @@
         <v>31.046875</v>
       </c>
       <c r="R239" t="n">
-        <v>10</v>
+        <v>10.3515625</v>
       </c>
       <c r="S239" t="n">
         <v>5</v>
@@ -15548,13 +15548,13 @@
         <v>172.5</v>
       </c>
       <c r="R240" t="n">
-        <v>87</v>
+        <v>87.3125</v>
       </c>
       <c r="S240" t="n">
         <v>5</v>
       </c>
       <c r="T240" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241">
@@ -15668,7 +15668,7 @@
         <v>27.078125</v>
       </c>
       <c r="R242" t="n">
-        <v>3</v>
+        <v>3.212890625</v>
       </c>
       <c r="S242" t="n">
         <v>2</v>
@@ -15732,7 +15732,7 @@
         <v>60.59375</v>
       </c>
       <c r="R243" t="n">
-        <v>15</v>
+        <v>15.296875</v>
       </c>
       <c r="S243" t="n">
         <v>2</v>
@@ -15802,7 +15802,7 @@
         <v>7</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>10</v>
       </c>
       <c r="T245" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246">
@@ -15924,13 +15924,13 @@
         <v>95.625</v>
       </c>
       <c r="R246" t="n">
-        <v>138</v>
+        <v>138.25</v>
       </c>
       <c r="S246" t="n">
         <v>84</v>
       </c>
       <c r="T246" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="247">
@@ -15988,13 +15988,13 @@
         <v>602.5</v>
       </c>
       <c r="R247" t="n">
-        <v>424</v>
+        <v>424.25</v>
       </c>
       <c r="S247" t="n">
         <v>209</v>
       </c>
       <c r="T247" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="248">
@@ -16052,13 +16052,13 @@
         <v>817.5</v>
       </c>
       <c r="R248" t="n">
-        <v>1006</v>
+        <v>1005.5</v>
       </c>
       <c r="S248" t="n">
         <v>350</v>
       </c>
       <c r="T248" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="249">
@@ -16112,7 +16112,7 @@
         <v>24.296875</v>
       </c>
       <c r="R249" t="n">
-        <v>8</v>
+        <v>7.80078125</v>
       </c>
       <c r="S249" t="n">
         <v>4</v>
@@ -16176,13 +16176,13 @@
         <v>129.25</v>
       </c>
       <c r="R250" t="n">
-        <v>110</v>
+        <v>109.8125</v>
       </c>
       <c r="S250" t="n">
         <v>50</v>
       </c>
       <c r="T250" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>98</v>
       </c>
       <c r="T251" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252">
@@ -16304,7 +16304,7 @@
         <v>10</v>
       </c>
       <c r="T252" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253">
@@ -16358,13 +16358,13 @@
         <v>87.875</v>
       </c>
       <c r="R253" t="n">
-        <v>98</v>
+        <v>97.8125</v>
       </c>
       <c r="S253" t="n">
         <v>43</v>
       </c>
       <c r="T253" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="254">
@@ -16428,7 +16428,7 @@
         <v>108</v>
       </c>
       <c r="T254" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255">
@@ -16488,7 +16488,7 @@
         <v>31</v>
       </c>
       <c r="T255" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="256">
@@ -16552,7 +16552,7 @@
         <v>27</v>
       </c>
       <c r="T256" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257">
@@ -16608,7 +16608,7 @@
         <v>25.203125</v>
       </c>
       <c r="R257" t="n">
-        <v>2</v>
+        <v>1.7998046875</v>
       </c>
       <c r="S257" t="n">
         <v>2</v>
@@ -16670,13 +16670,13 @@
         <v>58.8125</v>
       </c>
       <c r="R258" t="n">
-        <v>62</v>
+        <v>61.5</v>
       </c>
       <c r="S258" t="n">
         <v>22</v>
       </c>
       <c r="T258" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -16740,7 +16740,7 @@
         <v>71</v>
       </c>
       <c r="T259" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="260">
@@ -16796,13 +16796,13 @@
         <v>76.8125</v>
       </c>
       <c r="R260" t="n">
-        <v>118</v>
+        <v>117.625</v>
       </c>
       <c r="S260" t="n">
         <v>46</v>
       </c>
       <c r="T260" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261">
@@ -16866,7 +16866,7 @@
         <v>162</v>
       </c>
       <c r="T261" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="262">
@@ -16922,7 +16922,7 @@
         <v>22.5</v>
       </c>
       <c r="R262" t="n">
-        <v>0</v>
+        <v>0.449951171875</v>
       </c>
       <c r="S262" t="n">
         <v>0</v>
@@ -16986,7 +16986,7 @@
         <v>51.59375</v>
       </c>
       <c r="R263" t="n">
-        <v>1</v>
+        <v>0.89990234375</v>
       </c>
       <c r="S263" t="n">
         <v>1</v>
@@ -17050,7 +17050,7 @@
         <v>40.5</v>
       </c>
       <c r="R264" t="n">
-        <v>10</v>
+        <v>9.8984375</v>
       </c>
       <c r="S264" t="n">
         <v>1</v>
@@ -17120,7 +17120,7 @@
         <v>19</v>
       </c>
       <c r="T265" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266">
@@ -17178,7 +17178,7 @@
         <v>38.09375</v>
       </c>
       <c r="R266" t="n">
-        <v>8</v>
+        <v>8.1015625</v>
       </c>
       <c r="S266" t="n">
         <v>3</v>
@@ -17242,13 +17242,13 @@
         <v>274.5</v>
       </c>
       <c r="R267" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="S267" t="n">
         <v>11</v>
       </c>
       <c r="T267" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -17302,13 +17302,13 @@
         <v>402</v>
       </c>
       <c r="R268" t="n">
-        <v>50</v>
+        <v>50.5</v>
       </c>
       <c r="S268" t="n">
         <v>30</v>
       </c>
       <c r="T268" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
@@ -17368,7 +17368,7 @@
         <v>7</v>
       </c>
       <c r="T269" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270">
@@ -17424,7 +17424,7 @@
         <v>41.40625</v>
       </c>
       <c r="R270" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S270" t="n">
         <v>1</v>
@@ -17486,7 +17486,7 @@
         <v>17.546875</v>
       </c>
       <c r="R271" t="n">
-        <v>0</v>
+        <v>0.449951171875</v>
       </c>
       <c r="S271" t="n">
         <v>0</v>
@@ -17548,7 +17548,7 @@
         <v>16.65625</v>
       </c>
       <c r="R272" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S272" t="n">
         <v>6</v>
@@ -17610,7 +17610,7 @@
         <v>166.75</v>
       </c>
       <c r="R273" t="n">
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="S273" t="n">
         <v>6</v>
@@ -17734,13 +17734,13 @@
         <v>2748</v>
       </c>
       <c r="R275" t="n">
-        <v>280</v>
+        <v>279.75</v>
       </c>
       <c r="S275" t="n">
         <v>145</v>
       </c>
       <c r="T275" t="n">
-        <v>528</v>
+        <v>547</v>
       </c>
     </row>
     <row r="276">
@@ -17798,13 +17798,13 @@
         <v>515.5</v>
       </c>
       <c r="R276" t="n">
-        <v>926</v>
+        <v>926.5</v>
       </c>
       <c r="S276" t="n">
         <v>649</v>
       </c>
       <c r="T276" t="n">
-        <v>889</v>
+        <v>814</v>
       </c>
     </row>
     <row r="277">
@@ -17868,7 +17868,7 @@
         <v>1134</v>
       </c>
       <c r="T277" t="n">
-        <v>1726</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="278">
@@ -17932,7 +17932,7 @@
         <v>1364</v>
       </c>
       <c r="T278" t="n">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="279">
@@ -17988,7 +17988,7 @@
         <v>262.75</v>
       </c>
       <c r="R279" t="n">
-        <v>122</v>
+        <v>121.8125</v>
       </c>
       <c r="S279" t="n">
         <v>96</v>
@@ -18052,13 +18052,13 @@
         <v>1513</v>
       </c>
       <c r="R280" t="n">
-        <v>208</v>
+        <v>207.5</v>
       </c>
       <c r="S280" t="n">
         <v>142</v>
       </c>
       <c r="T280" t="n">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="281">
@@ -18120,7 +18120,7 @@
         <v>77</v>
       </c>
       <c r="T281" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282">
@@ -18184,7 +18184,7 @@
         <v>105</v>
       </c>
       <c r="T282" t="n">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="283">
@@ -18240,13 +18240,13 @@
         <v>582.5</v>
       </c>
       <c r="R283" t="n">
-        <v>426</v>
+        <v>425.5</v>
       </c>
       <c r="S283" t="n">
         <v>294</v>
       </c>
       <c r="T283" t="n">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="284">
@@ -18310,7 +18310,7 @@
         <v>676</v>
       </c>
       <c r="T284" t="n">
-        <v>1460</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="285">
@@ -18366,13 +18366,13 @@
         <v>178.75</v>
       </c>
       <c r="R285" t="n">
-        <v>202</v>
+        <v>201.625</v>
       </c>
       <c r="S285" t="n">
         <v>100</v>
       </c>
       <c r="T285" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="286">
@@ -18428,13 +18428,13 @@
         <v>607.5</v>
       </c>
       <c r="R286" t="n">
-        <v>160</v>
+        <v>159.5</v>
       </c>
       <c r="S286" t="n">
         <v>60</v>
       </c>
       <c r="T286" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="287">
@@ -18492,13 +18492,13 @@
         <v>1007.5</v>
       </c>
       <c r="R287" t="n">
-        <v>38</v>
+        <v>38.40625</v>
       </c>
       <c r="S287" t="n">
         <v>0</v>
       </c>
       <c r="T287" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="288">
@@ -18560,7 +18560,7 @@
         <v>483</v>
       </c>
       <c r="T288" t="n">
-        <v>480</v>
+        <v>427</v>
       </c>
     </row>
     <row r="289">
@@ -18622,7 +18622,7 @@
         <v>513</v>
       </c>
       <c r="T289" t="n">
-        <v>552</v>
+        <v>500</v>
       </c>
     </row>
     <row r="290">
@@ -18686,7 +18686,7 @@
         <v>765</v>
       </c>
       <c r="T290" t="n">
-        <v>1588</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="291">
@@ -18742,13 +18742,13 @@
         <v>238</v>
       </c>
       <c r="R291" t="n">
-        <v>15</v>
+        <v>14.8515625</v>
       </c>
       <c r="S291" t="n">
         <v>0</v>
       </c>
       <c r="T291" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="292">
@@ -18806,13 +18806,13 @@
         <v>444.5</v>
       </c>
       <c r="R292" t="n">
-        <v>646</v>
+        <v>645.5</v>
       </c>
       <c r="S292" t="n">
         <v>379</v>
       </c>
       <c r="T292" t="n">
-        <v>520</v>
+        <v>451</v>
       </c>
     </row>
     <row r="293">
@@ -18876,7 +18876,7 @@
         <v>407</v>
       </c>
       <c r="T293" t="n">
-        <v>1374</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="294">
@@ -18934,13 +18934,13 @@
         <v>95.375</v>
       </c>
       <c r="R294" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S294" t="n">
         <v>5</v>
       </c>
       <c r="T294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -19004,7 +19004,7 @@
         <v>16</v>
       </c>
       <c r="T295" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296">
@@ -19056,13 +19056,13 @@
       <c r="P296" t="inlineStr"/>
       <c r="Q296" t="inlineStr"/>
       <c r="R296" t="n">
-        <v>66</v>
+        <v>65.6875</v>
       </c>
       <c r="S296" t="n">
         <v>30</v>
       </c>
       <c r="T296" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="297">
@@ -19118,13 +19118,13 @@
         <v>24.90625</v>
       </c>
       <c r="R297" t="n">
-        <v>9</v>
+        <v>8.703125</v>
       </c>
       <c r="S297" t="n">
         <v>6</v>
       </c>
       <c r="T297" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -19182,13 +19182,13 @@
         <v>156.5</v>
       </c>
       <c r="R298" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="S298" t="n">
         <v>11</v>
       </c>
       <c r="T298" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -19244,13 +19244,13 @@
         <v>171.875</v>
       </c>
       <c r="R299" t="n">
-        <v>171</v>
+        <v>170.75</v>
       </c>
       <c r="S299" t="n">
         <v>116</v>
       </c>
       <c r="T299" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="300">
@@ -19306,13 +19306,13 @@
         <v>1062</v>
       </c>
       <c r="R300" t="n">
-        <v>236</v>
+        <v>235.5</v>
       </c>
       <c r="S300" t="n">
         <v>168</v>
       </c>
       <c r="T300" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="301">
@@ -19370,7 +19370,7 @@
         <v>48.4375</v>
       </c>
       <c r="R301" t="n">
-        <v>2</v>
+        <v>2.400390625</v>
       </c>
       <c r="S301" t="n">
         <v>2</v>
@@ -19434,13 +19434,13 @@
         <v>499.25</v>
       </c>
       <c r="R302" t="n">
-        <v>1</v>
+        <v>0.89990234375</v>
       </c>
       <c r="S302" t="n">
         <v>11</v>
       </c>
       <c r="T302" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="303">
@@ -19498,13 +19498,13 @@
         <v>745</v>
       </c>
       <c r="R303" t="n">
-        <v>774</v>
+        <v>773.5</v>
       </c>
       <c r="S303" t="n">
         <v>477</v>
       </c>
       <c r="T303" t="n">
-        <v>584</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304">
@@ -19568,7 +19568,7 @@
         <v>804</v>
       </c>
       <c r="T304" t="n">
-        <v>1886</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="305">
@@ -19626,7 +19626,7 @@
         <v>26.09375</v>
       </c>
       <c r="R305" t="n">
-        <v>6</v>
+        <v>5.69921875</v>
       </c>
       <c r="S305" t="n">
         <v>2</v>
@@ -19690,7 +19690,7 @@
         <v>23.40625</v>
       </c>
       <c r="R306" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S306" t="n">
         <v>2</v>
@@ -19754,13 +19754,13 @@
         <v>35.40625</v>
       </c>
       <c r="R307" t="n">
-        <v>10</v>
+        <v>9.8984375</v>
       </c>
       <c r="S307" t="n">
         <v>7</v>
       </c>
       <c r="T307" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -19818,13 +19818,13 @@
         <v>228.25</v>
       </c>
       <c r="R308" t="n">
-        <v>53</v>
+        <v>53.09375</v>
       </c>
       <c r="S308" t="n">
         <v>8</v>
       </c>
       <c r="T308" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309">
@@ -19940,7 +19940,7 @@
         <v>24.78125</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>0.458984375</v>
       </c>
       <c r="S310" t="n">
         <v>3</v>
@@ -20004,13 +20004,13 @@
         <v>74.375</v>
       </c>
       <c r="R311" t="n">
-        <v>8</v>
+        <v>8.3984375</v>
       </c>
       <c r="S311" t="n">
         <v>2</v>
       </c>
       <c r="T311" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312">
@@ -20074,7 +20074,7 @@
         <v>7</v>
       </c>
       <c r="T312" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -20138,7 +20138,7 @@
         <v>10</v>
       </c>
       <c r="T313" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="314">
@@ -20196,13 +20196,13 @@
         <v>77.6875</v>
       </c>
       <c r="R314" t="n">
-        <v>76</v>
+        <v>76.0625</v>
       </c>
       <c r="S314" t="n">
         <v>69</v>
       </c>
       <c r="T314" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315">
@@ -20260,13 +20260,13 @@
         <v>415.5</v>
       </c>
       <c r="R315" t="n">
-        <v>165</v>
+        <v>164.75</v>
       </c>
       <c r="S315" t="n">
         <v>248</v>
       </c>
       <c r="T315" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="316">
@@ -20330,7 +20330,7 @@
         <v>361</v>
       </c>
       <c r="T316" t="n">
-        <v>564</v>
+        <v>542</v>
       </c>
     </row>
     <row r="317">
@@ -20384,13 +20384,13 @@
         <v>23.09375</v>
       </c>
       <c r="R317" t="n">
-        <v>3</v>
+        <v>3.30078125</v>
       </c>
       <c r="S317" t="n">
         <v>12</v>
       </c>
       <c r="T317" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="T318" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319">
@@ -20504,13 +20504,13 @@
         <v>108</v>
       </c>
       <c r="R319" t="n">
-        <v>56</v>
+        <v>56.09375</v>
       </c>
       <c r="S319" t="n">
         <v>65</v>
       </c>
       <c r="T319" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="320">
@@ -20572,7 +20572,7 @@
         <v>136</v>
       </c>
       <c r="T320" t="n">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="321">
@@ -20626,7 +20626,7 @@
         <v>0</v>
       </c>
       <c r="T321" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -20680,13 +20680,13 @@
         <v>48.3125</v>
       </c>
       <c r="R322" t="n">
-        <v>17</v>
+        <v>17.09375</v>
       </c>
       <c r="S322" t="n">
         <v>21</v>
       </c>
       <c r="T322" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323">
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="T323" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324">
@@ -20800,13 +20800,13 @@
         <v>108.625</v>
       </c>
       <c r="R324" t="n">
-        <v>31</v>
+        <v>31.203125</v>
       </c>
       <c r="S324" t="n">
         <v>47</v>
       </c>
       <c r="T324" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="325">
@@ -20868,7 +20868,7 @@
         <v>277</v>
       </c>
       <c r="T325" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="326">
@@ -20930,7 +20930,7 @@
         <v>53</v>
       </c>
       <c r="T326" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="327">
@@ -20986,13 +20986,13 @@
         <v>396</v>
       </c>
       <c r="R327" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="S327" t="n">
         <v>42</v>
       </c>
       <c r="T327" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="328">
@@ -21046,13 +21046,13 @@
         <v>35.6875</v>
       </c>
       <c r="R328" t="n">
-        <v>2</v>
+        <v>2.099609375</v>
       </c>
       <c r="S328" t="n">
         <v>8</v>
       </c>
       <c r="T328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -21106,7 +21106,7 @@
         <v>0</v>
       </c>
       <c r="T329" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -21162,13 +21162,13 @@
         <v>45.90625</v>
       </c>
       <c r="R330" t="n">
-        <v>28</v>
+        <v>27.90625</v>
       </c>
       <c r="S330" t="n">
         <v>29</v>
       </c>
       <c r="T330" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="331">
@@ -21232,7 +21232,7 @@
         <v>90</v>
       </c>
       <c r="T331" t="n">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="332">
@@ -21288,13 +21288,13 @@
         <v>69</v>
       </c>
       <c r="R332" t="n">
-        <v>43</v>
+        <v>42.90625</v>
       </c>
       <c r="S332" t="n">
         <v>50</v>
       </c>
       <c r="T332" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333">
@@ -21358,7 +21358,7 @@
         <v>192</v>
       </c>
       <c r="T333" t="n">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="334">
@@ -21416,7 +21416,7 @@
         <v>15</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>0.1500244140625</v>
       </c>
       <c r="S334" t="n">
         <v>5</v>
@@ -21478,13 +21478,13 @@
         <v>52.5</v>
       </c>
       <c r="R335" t="n">
-        <v>2</v>
+        <v>1.7998046875</v>
       </c>
       <c r="S335" t="n">
         <v>8</v>
       </c>
       <c r="T335" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336">
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="T336" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -21596,7 +21596,7 @@
         <v>31.796875</v>
       </c>
       <c r="R337" t="n">
-        <v>5</v>
+        <v>5.3984375</v>
       </c>
       <c r="S337" t="n">
         <v>8</v>
@@ -21664,7 +21664,7 @@
         <v>29</v>
       </c>
       <c r="T338" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="339">
@@ -21784,13 +21784,13 @@
         <v>214.5</v>
       </c>
       <c r="R340" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="S340" t="n">
         <v>19</v>
       </c>
       <c r="T340" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="341">
@@ -21852,7 +21852,7 @@
         <v>50</v>
       </c>
       <c r="T341" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -21906,7 +21906,7 @@
         <v>23.5</v>
       </c>
       <c r="R342" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S342" t="n">
         <v>7</v>
@@ -21976,7 +21976,7 @@
         <v>16</v>
       </c>
       <c r="T343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344">
@@ -22032,13 +22032,13 @@
         <v>19.203125</v>
       </c>
       <c r="R344" t="n">
-        <v>2</v>
+        <v>2.400390625</v>
       </c>
       <c r="S344" t="n">
         <v>6</v>
       </c>
       <c r="T344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -22088,13 +22088,13 @@
       <c r="P345" t="inlineStr"/>
       <c r="Q345" t="inlineStr"/>
       <c r="R345" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S345" t="n">
         <v>0</v>
       </c>
       <c r="T345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -22152,7 +22152,7 @@
         <v>13.3515625</v>
       </c>
       <c r="R346" t="n">
-        <v>0</v>
+        <v>0.1500244140625</v>
       </c>
       <c r="S346" t="n">
         <v>2</v>
@@ -22214,13 +22214,13 @@
         <v>21.453125</v>
       </c>
       <c r="R347" t="n">
-        <v>2</v>
+        <v>2.400390625</v>
       </c>
       <c r="S347" t="n">
         <v>9</v>
       </c>
       <c r="T347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -22282,7 +22282,7 @@
         <v>10</v>
       </c>
       <c r="T348" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349">
@@ -22338,13 +22338,13 @@
       </c>
       <c r="Q349" t="inlineStr"/>
       <c r="R349" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="S349" t="n">
         <v>18</v>
       </c>
       <c r="T349" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350">
@@ -22402,13 +22402,13 @@
         <v>3008</v>
       </c>
       <c r="R350" t="n">
-        <v>280</v>
+        <v>280.25</v>
       </c>
       <c r="S350" t="n">
         <v>145</v>
       </c>
       <c r="T350" t="n">
-        <v>483</v>
+        <v>423</v>
       </c>
     </row>
     <row r="351">
@@ -22464,13 +22464,13 @@
         <v>555</v>
       </c>
       <c r="R351" t="n">
-        <v>760</v>
+        <v>760.5</v>
       </c>
       <c r="S351" t="n">
         <v>736</v>
       </c>
       <c r="T351" t="n">
-        <v>760</v>
+        <v>666</v>
       </c>
     </row>
     <row r="352">
@@ -22534,7 +22534,7 @@
         <v>1363</v>
       </c>
       <c r="T352" t="n">
-        <v>1623</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="353">
@@ -22598,7 +22598,7 @@
         <v>1745</v>
       </c>
       <c r="T353" t="n">
-        <v>2804</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="354">
@@ -22654,13 +22654,13 @@
         <v>292.5</v>
       </c>
       <c r="R354" t="n">
-        <v>115</v>
+        <v>115.1875</v>
       </c>
       <c r="S354" t="n">
         <v>113</v>
       </c>
       <c r="T354" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="355">
@@ -22724,7 +22724,7 @@
         <v>210</v>
       </c>
       <c r="T355" t="n">
-        <v>220</v>
+        <v>261</v>
       </c>
     </row>
     <row r="356">
@@ -22782,13 +22782,13 @@
         <v>115.5</v>
       </c>
       <c r="R356" t="n">
-        <v>88</v>
+        <v>87.625</v>
       </c>
       <c r="S356" t="n">
         <v>84</v>
       </c>
       <c r="T356" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="357">
@@ -22844,13 +22844,13 @@
         <v>1140</v>
       </c>
       <c r="R357" t="n">
-        <v>184</v>
+        <v>183.5</v>
       </c>
       <c r="S357" t="n">
         <v>154</v>
       </c>
       <c r="T357" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="358">
@@ -22914,7 +22914,7 @@
         <v>364</v>
       </c>
       <c r="T358" t="n">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="359">
@@ -22978,7 +22978,7 @@
         <v>880</v>
       </c>
       <c r="T359" t="n">
-        <v>1478</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="360">
@@ -23036,13 +23036,13 @@
         <v>186</v>
       </c>
       <c r="R360" t="n">
-        <v>152</v>
+        <v>152.125</v>
       </c>
       <c r="S360" t="n">
         <v>103</v>
       </c>
       <c r="T360" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="361">
@@ -23100,13 +23100,13 @@
         <v>563.5</v>
       </c>
       <c r="R361" t="n">
-        <v>140</v>
+        <v>139.5</v>
       </c>
       <c r="S361" t="n">
         <v>65</v>
       </c>
       <c r="T361" t="n">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="362">
@@ -23164,13 +23164,13 @@
         <v>822.5</v>
       </c>
       <c r="R362" t="n">
-        <v>48</v>
+        <v>47.875</v>
       </c>
       <c r="S362" t="n">
         <v>0</v>
       </c>
       <c r="T362" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="363">
@@ -23226,13 +23226,13 @@
         <v>122.375</v>
       </c>
       <c r="R363" t="n">
-        <v>497</v>
+        <v>496.75</v>
       </c>
       <c r="S363" t="n">
         <v>461</v>
       </c>
       <c r="T363" t="n">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="364">
@@ -23296,7 +23296,7 @@
         <v>570</v>
       </c>
       <c r="T364" t="n">
-        <v>635</v>
+        <v>576</v>
       </c>
     </row>
     <row r="365">
@@ -23360,7 +23360,7 @@
         <v>964</v>
       </c>
       <c r="T365" t="n">
-        <v>1658</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="366">
@@ -23418,13 +23418,13 @@
         <v>310.75</v>
       </c>
       <c r="R366" t="n">
-        <v>10</v>
+        <v>9.8984375</v>
       </c>
       <c r="S366" t="n">
         <v>0</v>
       </c>
       <c r="T366" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367">
@@ -23482,13 +23482,13 @@
         <v>486.5</v>
       </c>
       <c r="R367" t="n">
-        <v>594</v>
+        <v>593.5</v>
       </c>
       <c r="S367" t="n">
         <v>482</v>
       </c>
       <c r="T367" t="n">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="368">
@@ -23546,13 +23546,13 @@
         <v>4544</v>
       </c>
       <c r="R368" t="n">
-        <v>890</v>
+        <v>889.5</v>
       </c>
       <c r="S368" t="n">
         <v>580</v>
       </c>
       <c r="T368" t="n">
-        <v>1407</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="369">
@@ -23610,13 +23610,13 @@
         <v>88.0625</v>
       </c>
       <c r="R369" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="S369" t="n">
         <v>5</v>
       </c>
       <c r="T369" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370">
@@ -23674,13 +23674,13 @@
         <v>603</v>
       </c>
       <c r="R370" t="n">
-        <v>3</v>
+        <v>2.69921875</v>
       </c>
       <c r="S370" t="n">
         <v>18</v>
       </c>
       <c r="T370" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371">
@@ -23734,13 +23734,13 @@
       <c r="P371" t="inlineStr"/>
       <c r="Q371" t="inlineStr"/>
       <c r="R371" t="n">
-        <v>59</v>
+        <v>59.09375</v>
       </c>
       <c r="S371" t="n">
         <v>39</v>
       </c>
       <c r="T371" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="372">
@@ -23796,13 +23796,13 @@
         <v>26.09375</v>
       </c>
       <c r="R372" t="n">
-        <v>7</v>
+        <v>7.19921875</v>
       </c>
       <c r="S372" t="n">
         <v>8</v>
       </c>
       <c r="T372" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373">
@@ -23864,7 +23864,7 @@
         <v>14</v>
       </c>
       <c r="T373" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374">
@@ -23920,13 +23920,13 @@
         <v>216</v>
       </c>
       <c r="R374" t="n">
-        <v>153</v>
+        <v>152.75</v>
       </c>
       <c r="S374" t="n">
         <v>129</v>
       </c>
       <c r="T374" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="375">
@@ -23982,13 +23982,13 @@
         <v>1187</v>
       </c>
       <c r="R375" t="n">
-        <v>206</v>
+        <v>206.5</v>
       </c>
       <c r="S375" t="n">
         <v>190</v>
       </c>
       <c r="T375" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="376">
@@ -24046,13 +24046,13 @@
         <v>55.1875</v>
       </c>
       <c r="R376" t="n">
-        <v>4</v>
+        <v>4.05078125</v>
       </c>
       <c r="S376" t="n">
         <v>3</v>
       </c>
       <c r="T376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -24116,7 +24116,7 @@
         <v>12</v>
       </c>
       <c r="T377" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378">
@@ -24178,7 +24178,7 @@
         <v>510</v>
       </c>
       <c r="T378" t="n">
-        <v>616</v>
+        <v>555</v>
       </c>
     </row>
     <row r="379">
@@ -24242,7 +24242,7 @@
         <v>892</v>
       </c>
       <c r="T379" t="n">
-        <v>1403</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="380">
@@ -24300,13 +24300,13 @@
         <v>25.203125</v>
       </c>
       <c r="R380" t="n">
-        <v>6</v>
+        <v>6.1484375</v>
       </c>
       <c r="S380" t="n">
         <v>2</v>
       </c>
       <c r="T380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -24364,13 +24364,13 @@
         <v>23.09375</v>
       </c>
       <c r="R381" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S381" t="n">
         <v>2</v>
       </c>
       <c r="T381" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -24428,13 +24428,13 @@
         <v>42.15625</v>
       </c>
       <c r="R382" t="n">
-        <v>18</v>
+        <v>18.453125</v>
       </c>
       <c r="S382" t="n">
         <v>11</v>
       </c>
       <c r="T382" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383">
@@ -24492,13 +24492,13 @@
         <v>262.75</v>
       </c>
       <c r="R383" t="n">
-        <v>42</v>
+        <v>41.6875</v>
       </c>
       <c r="S383" t="n">
         <v>14</v>
       </c>
       <c r="T383" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="384">
@@ -24614,7 +24614,7 @@
         <v>28.3125</v>
       </c>
       <c r="R385" t="n">
-        <v>1</v>
+        <v>0.61181640625</v>
       </c>
       <c r="S385" t="n">
         <v>3</v>
@@ -24678,13 +24678,13 @@
         <v>70.5</v>
       </c>
       <c r="R386" t="n">
-        <v>8</v>
+        <v>7.80078125</v>
       </c>
       <c r="S386" t="n">
         <v>2</v>
       </c>
       <c r="T386" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387">
@@ -24742,13 +24742,13 @@
         <v>160</v>
       </c>
       <c r="R387" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="S387" t="n">
         <v>7</v>
       </c>
       <c r="T387" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388">
@@ -24806,7 +24806,7 @@
         <v>358</v>
       </c>
       <c r="R388" t="n">
-        <v>58</v>
+        <v>58.5</v>
       </c>
       <c r="S388" t="n">
         <v>10</v>
@@ -24870,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="T389" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="390">
@@ -24928,13 +24928,13 @@
         <v>80.375</v>
       </c>
       <c r="R390" t="n">
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="S390" t="n">
         <v>69</v>
       </c>
       <c r="T390" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="391">
@@ -24992,13 +24992,13 @@
         <v>520</v>
       </c>
       <c r="R391" t="n">
-        <v>135</v>
+        <v>134.75</v>
       </c>
       <c r="S391" t="n">
         <v>248</v>
       </c>
       <c r="T391" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="392">
@@ -25062,7 +25062,7 @@
         <v>361</v>
       </c>
       <c r="T392" t="n">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="393">
@@ -25116,13 +25116,13 @@
         <v>22.203125</v>
       </c>
       <c r="R393" t="n">
-        <v>5</v>
+        <v>4.80078125</v>
       </c>
       <c r="S393" t="n">
         <v>12</v>
       </c>
       <c r="T393" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394">
@@ -25180,13 +25180,13 @@
         <v>100.8125</v>
       </c>
       <c r="R394" t="n">
-        <v>48</v>
+        <v>47.6875</v>
       </c>
       <c r="S394" t="n">
         <v>65</v>
       </c>
       <c r="T394" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="395">
@@ -25244,13 +25244,13 @@
         <v>710</v>
       </c>
       <c r="R395" t="n">
-        <v>112</v>
+        <v>112.5</v>
       </c>
       <c r="S395" t="n">
         <v>136</v>
       </c>
       <c r="T395" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="396">
@@ -25308,13 +25308,13 @@
         <v>47.09375</v>
       </c>
       <c r="R396" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="S396" t="n">
         <v>21</v>
       </c>
       <c r="T396" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397">
@@ -25370,13 +25370,13 @@
         <v>132.625</v>
       </c>
       <c r="R397" t="n">
-        <v>43</v>
+        <v>42.90625</v>
       </c>
       <c r="S397" t="n">
         <v>47</v>
       </c>
       <c r="T397" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="398">
@@ -25440,7 +25440,7 @@
         <v>277</v>
       </c>
       <c r="T398" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="399">
@@ -25498,13 +25498,13 @@
         <v>110.375</v>
       </c>
       <c r="R399" t="n">
-        <v>54</v>
+        <v>54.3125</v>
       </c>
       <c r="S399" t="n">
         <v>53</v>
       </c>
       <c r="T399" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="400">
@@ -25568,7 +25568,7 @@
         <v>42</v>
       </c>
       <c r="T400" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="401">
@@ -25630,7 +25630,7 @@
         <v>8</v>
       </c>
       <c r="T401" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402">
@@ -25686,13 +25686,13 @@
         <v>53.6875</v>
       </c>
       <c r="R402" t="n">
-        <v>32</v>
+        <v>31.796875</v>
       </c>
       <c r="S402" t="n">
         <v>29</v>
       </c>
       <c r="T402" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="403">
@@ -25750,13 +25750,13 @@
         <v>420</v>
       </c>
       <c r="R403" t="n">
-        <v>86</v>
+        <v>86.5</v>
       </c>
       <c r="S403" t="n">
         <v>90</v>
       </c>
       <c r="T403" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404">
@@ -25812,13 +25812,13 @@
         <v>60.59375</v>
       </c>
       <c r="R404" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="S404" t="n">
         <v>50</v>
       </c>
       <c r="T404" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="405">
@@ -25876,13 +25876,13 @@
         <v>984.5</v>
       </c>
       <c r="R405" t="n">
-        <v>172</v>
+        <v>172.5</v>
       </c>
       <c r="S405" t="n">
         <v>192</v>
       </c>
       <c r="T405" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="406">
@@ -25940,7 +25940,7 @@
         <v>15.1484375</v>
       </c>
       <c r="R406" t="n">
-        <v>1</v>
+        <v>0.89990234375</v>
       </c>
       <c r="S406" t="n">
         <v>5</v>
@@ -26004,13 +26004,13 @@
         <v>46.1875</v>
       </c>
       <c r="R407" t="n">
-        <v>2</v>
+        <v>2.099609375</v>
       </c>
       <c r="S407" t="n">
         <v>8</v>
       </c>
       <c r="T407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -26068,13 +26068,13 @@
         <v>38.6875</v>
       </c>
       <c r="R408" t="n">
-        <v>11</v>
+        <v>10.796875</v>
       </c>
       <c r="S408" t="n">
         <v>8</v>
       </c>
       <c r="T408" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -26132,13 +26132,13 @@
         <v>231</v>
       </c>
       <c r="R409" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="S409" t="n">
         <v>29</v>
       </c>
       <c r="T409" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="410">
@@ -26196,13 +26196,13 @@
         <v>29.09375</v>
       </c>
       <c r="R410" t="n">
-        <v>6</v>
+        <v>6.30078125</v>
       </c>
       <c r="S410" t="n">
         <v>11</v>
       </c>
       <c r="T410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -26260,13 +26260,13 @@
         <v>251</v>
       </c>
       <c r="R411" t="n">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="S411" t="n">
         <v>19</v>
       </c>
       <c r="T411" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412">
@@ -26322,13 +26322,13 @@
         <v>266</v>
       </c>
       <c r="R412" t="n">
-        <v>42</v>
+        <v>42.5</v>
       </c>
       <c r="S412" t="n">
         <v>50</v>
       </c>
       <c r="T412" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="413">
@@ -26384,13 +26384,13 @@
         <v>155.5</v>
       </c>
       <c r="R413" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="S413" t="n">
         <v>16</v>
       </c>
       <c r="T413" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="414">
@@ -26448,13 +26448,13 @@
         <v>30.59375</v>
       </c>
       <c r="R414" t="n">
-        <v>1</v>
+        <v>1.2001953125</v>
       </c>
       <c r="S414" t="n">
         <v>6</v>
       </c>
       <c r="T414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -26504,7 +26504,7 @@
       <c r="P415" t="inlineStr"/>
       <c r="Q415" t="inlineStr"/>
       <c r="R415" t="n">
-        <v>1</v>
+        <v>1.0498046875</v>
       </c>
       <c r="S415" t="n">
         <v>0</v>
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
       <c r="T416" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -26622,7 +26622,7 @@
         <v>12.8984375</v>
       </c>
       <c r="R417" t="n">
-        <v>1</v>
+        <v>0.60009765625</v>
       </c>
       <c r="S417" t="n">
         <v>2</v>
@@ -26686,13 +26686,13 @@
         <v>27.296875</v>
       </c>
       <c r="R418" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S418" t="n">
         <v>9</v>
       </c>
       <c r="T418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -26746,13 +26746,13 @@
         <v>252.875</v>
       </c>
       <c r="R419" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="S419" t="n">
         <v>10</v>
       </c>
       <c r="T419" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="420">
@@ -26806,13 +26806,13 @@
       <c r="P420" t="inlineStr"/>
       <c r="Q420" t="inlineStr"/>
       <c r="R420" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="S420" t="n">
         <v>18</v>
       </c>
       <c r="T420" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421">
@@ -26870,13 +26870,13 @@
         <v>3030</v>
       </c>
       <c r="R421" t="n">
-        <v>416</v>
+        <v>416.25</v>
       </c>
       <c r="S421" t="n">
         <v>220</v>
       </c>
       <c r="T421" t="n">
-        <v>488</v>
+        <v>437</v>
       </c>
     </row>
     <row r="422">
@@ -26932,13 +26932,13 @@
         <v>707.5</v>
       </c>
       <c r="R422" t="n">
-        <v>960</v>
+        <v>960.5</v>
       </c>
       <c r="S422" t="n">
         <v>988</v>
       </c>
       <c r="T422" t="n">
-        <v>617</v>
+        <v>564</v>
       </c>
     </row>
     <row r="423">
@@ -27002,7 +27002,7 @@
         <v>2550</v>
       </c>
       <c r="T423" t="n">
-        <v>1457</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="424">
@@ -27066,7 +27066,7 @@
         <v>3060</v>
       </c>
       <c r="T424" t="n">
-        <v>2631</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="425">
@@ -27122,13 +27122,13 @@
         <v>330.25</v>
       </c>
       <c r="R425" t="n">
-        <v>143</v>
+        <v>143.375</v>
       </c>
       <c r="S425" t="n">
         <v>174</v>
       </c>
       <c r="T425" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="426">
@@ -27192,7 +27192,7 @@
         <v>336</v>
       </c>
       <c r="T426" t="n">
-        <v>332</v>
+        <v>390</v>
       </c>
     </row>
     <row r="427">
@@ -27256,7 +27256,7 @@
         <v>127</v>
       </c>
       <c r="T427" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="428">
@@ -27320,7 +27320,7 @@
         <v>249</v>
       </c>
       <c r="T428" t="n">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="429">
@@ -27378,13 +27378,13 @@
         <v>724</v>
       </c>
       <c r="R429" t="n">
-        <v>416</v>
+        <v>415.5</v>
       </c>
       <c r="S429" t="n">
         <v>616</v>
       </c>
       <c r="T429" t="n">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="430">
@@ -27448,7 +27448,7 @@
         <v>1479</v>
       </c>
       <c r="T430" t="n">
-        <v>1341</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="431">
@@ -27506,13 +27506,13 @@
         <v>233.75</v>
       </c>
       <c r="R431" t="n">
-        <v>215</v>
+        <v>214.75</v>
       </c>
       <c r="S431" t="n">
         <v>167</v>
       </c>
       <c r="T431" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="432">
@@ -27576,7 +27576,7 @@
         <v>123</v>
       </c>
       <c r="T432" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="433">
@@ -27634,13 +27634,13 @@
         <v>1045</v>
       </c>
       <c r="R433" t="n">
-        <v>48</v>
+        <v>47.875</v>
       </c>
       <c r="S433" t="n">
         <v>0</v>
       </c>
       <c r="T433" t="n">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="434">
@@ -27698,13 +27698,13 @@
         <v>170.375</v>
       </c>
       <c r="R434" t="n">
-        <v>556</v>
+        <v>555.5</v>
       </c>
       <c r="S434" t="n">
         <v>652</v>
       </c>
       <c r="T434" t="n">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="435">
@@ -27768,7 +27768,7 @@
         <v>847</v>
       </c>
       <c r="T435" t="n">
-        <v>484</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436">
@@ -27832,7 +27832,7 @@
         <v>1854</v>
       </c>
       <c r="T436" t="n">
-        <v>1370</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="437">
@@ -27890,13 +27890,13 @@
         <v>319</v>
       </c>
       <c r="R437" t="n">
-        <v>10</v>
+        <v>9.8984375</v>
       </c>
       <c r="S437" t="n">
         <v>0</v>
       </c>
       <c r="T437" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="438">
@@ -27954,13 +27954,13 @@
         <v>596</v>
       </c>
       <c r="R438" t="n">
-        <v>670</v>
+        <v>670.5</v>
       </c>
       <c r="S438" t="n">
         <v>800</v>
       </c>
       <c r="T438" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="439">
@@ -28024,7 +28024,7 @@
         <v>1166</v>
       </c>
       <c r="T439" t="n">
-        <v>1197</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="440">
@@ -28082,7 +28082,7 @@
         <v>97.375</v>
       </c>
       <c r="R440" t="n">
-        <v>2</v>
+        <v>1.9501953125</v>
       </c>
       <c r="S440" t="n">
         <v>5</v>
@@ -28146,13 +28146,13 @@
         <v>636.5</v>
       </c>
       <c r="R441" t="n">
-        <v>4</v>
+        <v>3.900390625</v>
       </c>
       <c r="S441" t="n">
         <v>18</v>
       </c>
       <c r="T441" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="442">
@@ -28204,13 +28204,13 @@
       <c r="P442" t="inlineStr"/>
       <c r="Q442" t="inlineStr"/>
       <c r="R442" t="n">
-        <v>70</v>
+        <v>69.875</v>
       </c>
       <c r="S442" t="n">
         <v>65</v>
       </c>
       <c r="T442" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="443">
@@ -28272,7 +28272,7 @@
         <v>13</v>
       </c>
       <c r="T443" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444">
@@ -28328,13 +28328,13 @@
         <v>167</v>
       </c>
       <c r="R444" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="S444" t="n">
         <v>13</v>
       </c>
       <c r="T444" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445">
@@ -28392,13 +28392,13 @@
         <v>263.75</v>
       </c>
       <c r="R445" t="n">
-        <v>187</v>
+        <v>186.875</v>
       </c>
       <c r="S445" t="n">
         <v>189</v>
       </c>
       <c r="T445" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="446">
@@ -28456,13 +28456,13 @@
         <v>1414</v>
       </c>
       <c r="R446" t="n">
-        <v>246</v>
+        <v>245.5</v>
       </c>
       <c r="S446" t="n">
         <v>338</v>
       </c>
       <c r="T446" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="447">
@@ -28520,13 +28520,13 @@
         <v>58.1875</v>
       </c>
       <c r="R447" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S447" t="n">
         <v>2</v>
       </c>
       <c r="T447" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -28584,13 +28584,13 @@
         <v>636.5</v>
       </c>
       <c r="R448" t="n">
-        <v>9</v>
+        <v>9.296875</v>
       </c>
       <c r="S448" t="n">
         <v>14</v>
       </c>
       <c r="T448" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="449">
@@ -28646,13 +28646,13 @@
         <v>1040</v>
       </c>
       <c r="R449" t="n">
-        <v>814</v>
+        <v>813.5</v>
       </c>
       <c r="S449" t="n">
         <v>812</v>
       </c>
       <c r="T449" t="n">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="450">
@@ -28716,7 +28716,7 @@
         <v>1586</v>
       </c>
       <c r="T450" t="n">
-        <v>1307</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="451">
@@ -28780,7 +28780,7 @@
         <v>4</v>
       </c>
       <c r="T451" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452">
@@ -28838,7 +28838,7 @@
         <v>29.09375</v>
       </c>
       <c r="R452" t="n">
-        <v>0</v>
+        <v>0.300048828125</v>
       </c>
       <c r="S452" t="n">
         <v>3</v>
@@ -28902,13 +28902,13 @@
         <v>46.8125</v>
       </c>
       <c r="R453" t="n">
-        <v>11</v>
+        <v>11.1015625</v>
       </c>
       <c r="S453" t="n">
         <v>13</v>
       </c>
       <c r="T453" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="454">
@@ -28966,13 +28966,13 @@
         <v>295.25</v>
       </c>
       <c r="R454" t="n">
-        <v>64</v>
+        <v>64.5</v>
       </c>
       <c r="S454" t="n">
         <v>40</v>
       </c>
       <c r="T454" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="455">
@@ -29030,13 +29030,13 @@
         <v>30.75</v>
       </c>
       <c r="R455" t="n">
-        <v>4</v>
+        <v>4.1328125</v>
       </c>
       <c r="S455" t="n">
         <v>4</v>
       </c>
       <c r="T455" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -29094,7 +29094,7 @@
         <v>110.375</v>
       </c>
       <c r="R456" t="n">
-        <v>11</v>
+        <v>10.796875</v>
       </c>
       <c r="S456" t="n">
         <v>4</v>
@@ -29164,7 +29164,7 @@
         <v>10</v>
       </c>
       <c r="T457" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458">
@@ -29228,7 +29228,7 @@
         <v>37</v>
       </c>
       <c r="T458" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="459">
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="T459" t="n">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="460">
@@ -29354,7 +29354,7 @@
         <v>83</v>
       </c>
       <c r="T460" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="461">
@@ -29418,7 +29418,7 @@
         <v>278</v>
       </c>
       <c r="T461" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="462">
@@ -29482,7 +29482,7 @@
         <v>386</v>
       </c>
       <c r="T462" t="n">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="463">
@@ -29538,13 +29538,13 @@
         <v>33.90625</v>
       </c>
       <c r="R463" t="n">
-        <v>7</v>
+        <v>6.8984375</v>
       </c>
       <c r="S463" t="n">
         <v>12</v>
       </c>
       <c r="T463" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -29602,13 +29602,13 @@
         <v>104.6875</v>
       </c>
       <c r="R464" t="n">
-        <v>151</v>
+        <v>150.875</v>
       </c>
       <c r="S464" t="n">
         <v>63</v>
       </c>
       <c r="T464" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="465">
@@ -29672,7 +29672,7 @@
         <v>141</v>
       </c>
       <c r="T465" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="466">
@@ -29730,13 +29730,13 @@
         <v>48</v>
       </c>
       <c r="R466" t="n">
-        <v>27</v>
+        <v>26.703125</v>
       </c>
       <c r="S466" t="n">
         <v>20</v>
       </c>
       <c r="T466" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467">
@@ -29800,7 +29800,7 @@
         <v>45</v>
       </c>
       <c r="T467" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="468">
@@ -29858,13 +29858,13 @@
         <v>880.5</v>
       </c>
       <c r="R468" t="n">
-        <v>496</v>
+        <v>495.5</v>
       </c>
       <c r="S468" t="n">
         <v>261</v>
       </c>
       <c r="T468" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="469">
@@ -29922,13 +29922,13 @@
         <v>100.5</v>
       </c>
       <c r="R469" t="n">
-        <v>80</v>
+        <v>79.8125</v>
       </c>
       <c r="S469" t="n">
         <v>51</v>
       </c>
       <c r="T469" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="470">
@@ -29992,7 +29992,7 @@
         <v>40</v>
       </c>
       <c r="T470" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="471">
@@ -30050,13 +30050,13 @@
         <v>32.09375</v>
       </c>
       <c r="R471" t="n">
-        <v>14</v>
+        <v>14.3984375</v>
       </c>
       <c r="S471" t="n">
         <v>8</v>
       </c>
       <c r="T471" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -30112,13 +30112,13 @@
         <v>63.90625</v>
       </c>
       <c r="R472" t="n">
-        <v>59</v>
+        <v>59.09375</v>
       </c>
       <c r="S472" t="n">
         <v>28</v>
       </c>
       <c r="T472" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="473">
@@ -30176,13 +30176,13 @@
         <v>404.5</v>
       </c>
       <c r="R473" t="n">
-        <v>296</v>
+        <v>295.5</v>
       </c>
       <c r="S473" t="n">
         <v>87</v>
       </c>
       <c r="T473" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="474">
@@ -30238,13 +30238,13 @@
         <v>52.1875</v>
       </c>
       <c r="R474" t="n">
-        <v>142</v>
+        <v>142.5</v>
       </c>
       <c r="S474" t="n">
         <v>48</v>
       </c>
       <c r="T474" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="475">
@@ -30302,13 +30302,13 @@
         <v>929</v>
       </c>
       <c r="R475" t="n">
-        <v>678</v>
+        <v>677.5</v>
       </c>
       <c r="S475" t="n">
         <v>187</v>
       </c>
       <c r="T475" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="476">
@@ -30366,13 +30366,13 @@
         <v>17.25</v>
       </c>
       <c r="R476" t="n">
-        <v>6</v>
+        <v>6.30078125</v>
       </c>
       <c r="S476" t="n">
         <v>5</v>
       </c>
       <c r="T476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
@@ -30430,13 +30430,13 @@
         <v>64.8125</v>
       </c>
       <c r="R477" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="S477" t="n">
         <v>7</v>
       </c>
       <c r="T477" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -30484,13 +30484,13 @@
       <c r="P478" t="inlineStr"/>
       <c r="Q478" t="inlineStr"/>
       <c r="R478" t="n">
-        <v>14</v>
+        <v>14.3984375</v>
       </c>
       <c r="S478" t="n">
         <v>60</v>
       </c>
       <c r="T478" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -30548,13 +30548,13 @@
         <v>37.8125</v>
       </c>
       <c r="R479" t="n">
-        <v>10</v>
+        <v>9.6015625</v>
       </c>
       <c r="S479" t="n">
         <v>7</v>
       </c>
       <c r="T479" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480">
@@ -30618,7 +30618,7 @@
         <v>33</v>
       </c>
       <c r="T480" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="481">
@@ -30676,13 +30676,13 @@
         <v>35.40625</v>
       </c>
       <c r="R481" t="n">
-        <v>29</v>
+        <v>29.40625</v>
       </c>
       <c r="S481" t="n">
         <v>10</v>
       </c>
       <c r="T481" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482">
@@ -30740,13 +30740,13 @@
         <v>279</v>
       </c>
       <c r="R482" t="n">
-        <v>118</v>
+        <v>118.5</v>
       </c>
       <c r="S482" t="n">
         <v>18</v>
       </c>
       <c r="T482" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="483">
@@ -30810,7 +30810,7 @@
         <v>48</v>
       </c>
       <c r="T483" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="484">
@@ -30870,7 +30870,7 @@
         <v>7</v>
       </c>
       <c r="T484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485">
@@ -30928,13 +30928,13 @@
         <v>169.5</v>
       </c>
       <c r="R485" t="n">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="S485" t="n">
         <v>15</v>
       </c>
       <c r="T485" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="486">
@@ -30992,13 +30992,13 @@
         <v>35.40625</v>
       </c>
       <c r="R486" t="n">
-        <v>14</v>
+        <v>14.3984375</v>
       </c>
       <c r="S486" t="n">
         <v>6</v>
       </c>
       <c r="T486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -31050,7 +31050,7 @@
       <c r="P487" t="inlineStr"/>
       <c r="Q487" t="inlineStr"/>
       <c r="R487" t="n">
-        <v>0</v>
+        <v>0.300048828125</v>
       </c>
       <c r="S487" t="n">
         <v>0</v>
@@ -31170,7 +31170,7 @@
         <v>15.1484375</v>
       </c>
       <c r="R489" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="S489" t="n">
         <v>2</v>
@@ -31234,7 +31234,7 @@
         <v>22.796875</v>
       </c>
       <c r="R490" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="S490" t="n">
         <v>8</v>
@@ -31296,13 +31296,13 @@
         <v>219.25</v>
       </c>
       <c r="R491" t="n">
-        <v>88</v>
+        <v>87.625</v>
       </c>
       <c r="S491" t="n">
         <v>9</v>
       </c>
       <c r="T491" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="492">
@@ -31424,13 +31424,13 @@
         <v>2658</v>
       </c>
       <c r="R493" t="n">
-        <v>642</v>
+        <v>641.5</v>
       </c>
       <c r="S493" t="n">
         <v>290</v>
       </c>
       <c r="T493" t="n">
-        <v>557</v>
+        <v>651</v>
       </c>
     </row>
     <row r="494">
@@ -31494,7 +31494,7 @@
         <v>1210</v>
       </c>
       <c r="T494" t="n">
-        <v>809</v>
+        <v>745</v>
       </c>
     </row>
     <row r="495">
@@ -31558,7 +31558,7 @@
         <v>3658</v>
       </c>
       <c r="T495" t="n">
-        <v>1723</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="496">
@@ -31622,7 +31622,7 @@
         <v>4804</v>
       </c>
       <c r="T496" t="n">
-        <v>3111</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="497">
@@ -31678,13 +31678,13 @@
         <v>353.75</v>
       </c>
       <c r="R497" t="n">
-        <v>198</v>
+        <v>197.75</v>
       </c>
       <c r="S497" t="n">
         <v>250</v>
       </c>
       <c r="T497" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="498">
@@ -31742,13 +31742,13 @@
         <v>1984</v>
       </c>
       <c r="R498" t="n">
-        <v>512</v>
+        <v>512.5</v>
       </c>
       <c r="S498" t="n">
         <v>719</v>
       </c>
       <c r="T498" t="n">
-        <v>352</v>
+        <v>407</v>
       </c>
     </row>
     <row r="499">
@@ -31804,13 +31804,13 @@
         <v>141</v>
       </c>
       <c r="R499" t="n">
-        <v>157</v>
+        <v>156.625</v>
       </c>
       <c r="S499" t="n">
         <v>176</v>
       </c>
       <c r="T499" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="500">
@@ -31868,13 +31868,13 @@
         <v>1102</v>
       </c>
       <c r="R500" t="n">
-        <v>320</v>
+        <v>320.5</v>
       </c>
       <c r="S500" t="n">
         <v>344</v>
       </c>
       <c r="T500" t="n">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="501">
@@ -31938,7 +31938,7 @@
         <v>936</v>
       </c>
       <c r="T501" t="n">
-        <v>391</v>
+        <v>354</v>
       </c>
     </row>
     <row r="502">
@@ -32002,7 +32002,7 @@
         <v>2964</v>
       </c>
       <c r="T502" t="n">
-        <v>1452</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="503">
@@ -32064,7 +32064,7 @@
         <v>256</v>
       </c>
       <c r="T503" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="504">
@@ -32120,13 +32120,13 @@
         <v>894</v>
       </c>
       <c r="R504" t="n">
-        <v>272</v>
+        <v>272.5</v>
       </c>
       <c r="S504" t="n">
         <v>225</v>
       </c>
       <c r="T504" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="505">
@@ -32184,13 +32184,13 @@
         <v>955</v>
       </c>
       <c r="R505" t="n">
-        <v>66</v>
+        <v>66.5</v>
       </c>
       <c r="S505" t="n">
         <v>0</v>
       </c>
       <c r="T505" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="506">
@@ -32252,7 +32252,7 @@
         <v>902</v>
       </c>
       <c r="T506" t="n">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="507">
@@ -32316,7 +32316,7 @@
         <v>1246</v>
       </c>
       <c r="T507" t="n">
-        <v>594</v>
+        <v>560</v>
       </c>
     </row>
     <row r="508">
@@ -32380,7 +32380,7 @@
         <v>2834</v>
       </c>
       <c r="T508" t="n">
-        <v>1442</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="509">
@@ -32438,13 +32438,13 @@
         <v>322.25</v>
       </c>
       <c r="R509" t="n">
-        <v>19</v>
+        <v>19.21875</v>
       </c>
       <c r="S509" t="n">
         <v>0</v>
       </c>
       <c r="T509" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="510">
@@ -32502,13 +32502,13 @@
         <v>645.5</v>
       </c>
       <c r="R510" t="n">
-        <v>954</v>
+        <v>954.5</v>
       </c>
       <c r="S510" t="n">
         <v>1100</v>
       </c>
       <c r="T510" t="n">
-        <v>591</v>
+        <v>506</v>
       </c>
     </row>
     <row r="511">
@@ -32572,7 +32572,7 @@
         <v>2388</v>
       </c>
       <c r="T511" t="n">
-        <v>1394</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="512">
@@ -32630,13 +32630,13 @@
         <v>101.6875</v>
       </c>
       <c r="R512" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="S512" t="n">
         <v>10</v>
       </c>
       <c r="T512" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="513">
@@ -32694,13 +32694,13 @@
         <v>652</v>
       </c>
       <c r="R513" t="n">
-        <v>27</v>
+        <v>27.296875</v>
       </c>
       <c r="S513" t="n">
         <v>29</v>
       </c>
       <c r="T513" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="514">
@@ -32758,7 +32758,7 @@
         <v>82</v>
       </c>
       <c r="T514" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="515">
@@ -32814,13 +32814,13 @@
         <v>30.90625</v>
       </c>
       <c r="R515" t="n">
-        <v>20</v>
+        <v>20.09375</v>
       </c>
       <c r="S515" t="n">
         <v>17</v>
       </c>
       <c r="T515" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="516">
@@ -32884,7 +32884,7 @@
         <v>32</v>
       </c>
       <c r="T516" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="517">
@@ -32940,13 +32940,13 @@
         <v>324.25</v>
       </c>
       <c r="R517" t="n">
-        <v>244</v>
+        <v>243.875</v>
       </c>
       <c r="S517" t="n">
         <v>290</v>
       </c>
       <c r="T517" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="518">
@@ -33008,7 +33008,7 @@
         <v>625</v>
       </c>
       <c r="T518" t="n">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="519">
@@ -33066,13 +33066,13 @@
         <v>59.09375</v>
       </c>
       <c r="R519" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="S519" t="n">
         <v>5</v>
       </c>
       <c r="T519" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="520">
@@ -33130,13 +33130,13 @@
         <v>640</v>
       </c>
       <c r="R520" t="n">
-        <v>16</v>
+        <v>15.8984375</v>
       </c>
       <c r="S520" t="n">
         <v>21</v>
       </c>
       <c r="T520" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="521">
@@ -33188,13 +33188,13 @@
         <v>794</v>
       </c>
       <c r="R521" t="n">
-        <v>20</v>
+        <v>19.796875</v>
       </c>
       <c r="S521" t="n">
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -33256,7 +33256,7 @@
         <v>1260</v>
       </c>
       <c r="T522" t="n">
-        <v>678</v>
+        <v>634</v>
       </c>
     </row>
     <row r="523">
@@ -33320,7 +33320,7 @@
         <v>2692</v>
       </c>
       <c r="T523" t="n">
-        <v>1821</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="524">
@@ -33374,7 +33374,7 @@
         <v>0</v>
       </c>
       <c r="T524" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -33432,13 +33432,13 @@
         <v>36.3125</v>
       </c>
       <c r="R525" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S525" t="n">
         <v>5</v>
       </c>
       <c r="T525" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="526">
@@ -33496,13 +33496,13 @@
         <v>28.34375</v>
       </c>
       <c r="R526" t="n">
-        <v>2</v>
+        <v>1.650390625</v>
       </c>
       <c r="S526" t="n">
         <v>4</v>
       </c>
       <c r="T526" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527">
@@ -33560,13 +33560,13 @@
         <v>68.375</v>
       </c>
       <c r="R527" t="n">
-        <v>30</v>
+        <v>30.453125</v>
       </c>
       <c r="S527" t="n">
         <v>17</v>
       </c>
       <c r="T527" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="528">
@@ -33630,7 +33630,7 @@
         <v>58</v>
       </c>
       <c r="T528" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="529">
@@ -33686,7 +33686,7 @@
         <v>0</v>
       </c>
       <c r="T529" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="530">
@@ -33744,13 +33744,13 @@
         <v>34.875</v>
       </c>
       <c r="R530" t="n">
-        <v>11</v>
+        <v>10.5546875</v>
       </c>
       <c r="S530" t="n">
         <v>4</v>
       </c>
       <c r="T530" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="531">
@@ -33808,13 +33808,13 @@
         <v>134.375</v>
       </c>
       <c r="R531" t="n">
-        <v>40</v>
+        <v>39.90625</v>
       </c>
       <c r="S531" t="n">
         <v>5</v>
       </c>
       <c r="T531" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="532">
@@ -33872,13 +33872,13 @@
         <v>200.5</v>
       </c>
       <c r="R532" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="S532" t="n">
         <v>13</v>
       </c>
       <c r="T532" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533">
@@ -33936,13 +33936,13 @@
         <v>587</v>
       </c>
       <c r="R533" t="n">
-        <v>138</v>
+        <v>138.5</v>
       </c>
       <c r="S533" t="n">
         <v>71</v>
       </c>
       <c r="T533" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="534">
@@ -34006,7 +34006,7 @@
         <v>100</v>
       </c>
       <c r="T534" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="535">
@@ -34064,13 +34064,13 @@
         <v>80.25</v>
       </c>
       <c r="R535" t="n">
-        <v>124</v>
+        <v>123.75</v>
       </c>
       <c r="S535" t="n">
         <v>41</v>
       </c>
       <c r="T535" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="536">
@@ -34192,13 +34192,13 @@
         <v>1116</v>
       </c>
       <c r="R537" t="n">
-        <v>914</v>
+        <v>913.5</v>
       </c>
       <c r="S537" t="n">
         <v>400</v>
       </c>
       <c r="T537" t="n">
-        <v>629</v>
+        <v>566</v>
       </c>
     </row>
     <row r="538">
@@ -34256,13 +34256,13 @@
         <v>22.796875</v>
       </c>
       <c r="R538" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="S538" t="n">
         <v>7</v>
       </c>
       <c r="T538" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539">
@@ -34322,7 +34322,7 @@
         <v>0</v>
       </c>
       <c r="T539" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -34380,13 +34380,13 @@
         <v>118.8125</v>
       </c>
       <c r="R540" t="n">
-        <v>126</v>
+        <v>125.6875</v>
       </c>
       <c r="S540" t="n">
         <v>41</v>
       </c>
       <c r="T540" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="541">
@@ -34444,13 +34444,13 @@
         <v>739</v>
       </c>
       <c r="R541" t="n">
-        <v>630</v>
+        <v>629.5</v>
       </c>
       <c r="S541" t="n">
         <v>252</v>
       </c>
       <c r="T541" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="542">
@@ -34508,13 +34508,13 @@
         <v>82.1875</v>
       </c>
       <c r="R542" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="S542" t="n">
         <v>25</v>
       </c>
       <c r="T542" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="543">
@@ -34568,13 +34568,13 @@
         <v>189.375</v>
       </c>
       <c r="R543" t="n">
-        <v>59</v>
+        <v>59.1875</v>
       </c>
       <c r="S543" t="n">
         <v>0</v>
       </c>
       <c r="T543" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -34632,13 +34632,13 @@
         <v>104.6875</v>
       </c>
       <c r="R544" t="n">
-        <v>149</v>
+        <v>149.375</v>
       </c>
       <c r="S544" t="n">
         <v>27</v>
       </c>
       <c r="T544" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="545">
@@ -34702,7 +34702,7 @@
         <v>324</v>
       </c>
       <c r="T545" t="n">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="546">
@@ -34760,13 +34760,13 @@
         <v>91.8125</v>
       </c>
       <c r="R546" t="n">
-        <v>122</v>
+        <v>122.375</v>
       </c>
       <c r="S546" t="n">
         <v>28</v>
       </c>
       <c r="T546" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="547">
@@ -34830,7 +34830,7 @@
         <v>204</v>
       </c>
       <c r="T547" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="548">
@@ -34888,13 +34888,13 @@
         <v>32.40625</v>
       </c>
       <c r="R548" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="S548" t="n">
         <v>11</v>
       </c>
       <c r="T548" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="549">
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="T549" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -35010,13 +35010,13 @@
         <v>57.3125</v>
       </c>
       <c r="R550" t="n">
-        <v>79</v>
+        <v>79.1875</v>
       </c>
       <c r="S550" t="n">
         <v>22</v>
       </c>
       <c r="T550" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="551">
@@ -35074,13 +35074,13 @@
         <v>395</v>
       </c>
       <c r="R551" t="n">
-        <v>380</v>
+        <v>379.5</v>
       </c>
       <c r="S551" t="n">
         <v>138</v>
       </c>
       <c r="T551" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="552">
@@ -35140,7 +35140,7 @@
         <v>0</v>
       </c>
       <c r="T552" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -35196,13 +35196,13 @@
         <v>68.375</v>
       </c>
       <c r="R553" t="n">
-        <v>100</v>
+        <v>99.875</v>
       </c>
       <c r="S553" t="n">
         <v>29</v>
       </c>
       <c r="T553" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="554">
@@ -35266,7 +35266,7 @@
         <v>390</v>
       </c>
       <c r="T554" t="n">
-        <v>481</v>
+        <v>446</v>
       </c>
     </row>
     <row r="555">
@@ -35324,13 +35324,13 @@
         <v>25.34375</v>
       </c>
       <c r="R555" t="n">
-        <v>9</v>
+        <v>9.1484375</v>
       </c>
       <c r="S555" t="n">
         <v>8</v>
       </c>
       <c r="T555" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="556">
@@ -35394,7 +35394,7 @@
         <v>20</v>
       </c>
       <c r="T556" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="557">
@@ -35444,13 +35444,13 @@
       <c r="P557" t="inlineStr"/>
       <c r="Q557" t="inlineStr"/>
       <c r="R557" t="n">
-        <v>74</v>
+        <v>74.125</v>
       </c>
       <c r="S557" t="n">
         <v>100</v>
       </c>
       <c r="T557" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="558">
@@ -35508,13 +35508,13 @@
         <v>42.3125</v>
       </c>
       <c r="R558" t="n">
-        <v>23</v>
+        <v>22.796875</v>
       </c>
       <c r="S558" t="n">
         <v>12</v>
       </c>
       <c r="T558" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="559">
@@ -35572,13 +35572,13 @@
         <v>250</v>
       </c>
       <c r="R559" t="n">
-        <v>150</v>
+        <v>149.5</v>
       </c>
       <c r="S559" t="n">
         <v>79</v>
       </c>
       <c r="T559" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="560">
@@ -35638,7 +35638,7 @@
         <v>0</v>
       </c>
       <c r="T560" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
@@ -35696,13 +35696,13 @@
         <v>30.296875</v>
       </c>
       <c r="R561" t="n">
-        <v>36</v>
+        <v>35.6875</v>
       </c>
       <c r="S561" t="n">
         <v>13</v>
       </c>
       <c r="T561" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="562">
@@ -35760,13 +35760,13 @@
         <v>218</v>
       </c>
       <c r="R562" t="n">
-        <v>148</v>
+        <v>147.5</v>
       </c>
       <c r="S562" t="n">
         <v>78</v>
       </c>
       <c r="T562" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="563">
@@ -35830,7 +35830,7 @@
         <v>54</v>
       </c>
       <c r="T563" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="564">
@@ -35892,7 +35892,7 @@
         <v>17</v>
       </c>
       <c r="T564" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="565">
@@ -35956,7 +35956,7 @@
         <v>51</v>
       </c>
       <c r="T565" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="566">
@@ -36014,13 +36014,13 @@
         <v>32.09375</v>
       </c>
       <c r="R566" t="n">
-        <v>21</v>
+        <v>20.703125</v>
       </c>
       <c r="S566" t="n">
         <v>11</v>
       </c>
       <c r="T566" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="567">
@@ -36072,7 +36072,7 @@
       <c r="P567" t="inlineStr"/>
       <c r="Q567" t="inlineStr"/>
       <c r="R567" t="n">
-        <v>1</v>
+        <v>1.349609375</v>
       </c>
       <c r="S567" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>17.09375</v>
       </c>
       <c r="R568" t="n">
-        <v>11</v>
+        <v>11.3984375</v>
       </c>
       <c r="S568" t="n">
         <v>14</v>
       </c>
       <c r="T568" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569">
@@ -36200,13 +36200,13 @@
         <v>27.75</v>
       </c>
       <c r="R569" t="n">
-        <v>21</v>
+        <v>21.296875</v>
       </c>
       <c r="S569" t="n">
         <v>19</v>
       </c>
       <c r="T569" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570">
@@ -36262,13 +36262,13 @@
         <v>317.75</v>
       </c>
       <c r="R570" t="n">
-        <v>180</v>
+        <v>180.25</v>
       </c>
       <c r="S570" t="n">
         <v>124</v>
       </c>
       <c r="T570" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="571">
@@ -36322,7 +36322,7 @@
         <v>0</v>
       </c>
       <c r="T571" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -36380,13 +36380,13 @@
         <v>195</v>
       </c>
       <c r="R572" t="n">
-        <v>160</v>
+        <v>160.5</v>
       </c>
       <c r="S572" t="n">
         <v>100</v>
       </c>
       <c r="T572" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="573">
@@ -36444,13 +36444,13 @@
         <v>2904</v>
       </c>
       <c r="R573" t="n">
-        <v>722</v>
+        <v>721.5</v>
       </c>
       <c r="S573" t="n">
         <v>640</v>
       </c>
       <c r="T573" t="n">
-        <v>834</v>
+        <v>941</v>
       </c>
     </row>
     <row r="574">
@@ -36514,7 +36514,7 @@
         <v>889</v>
       </c>
       <c r="T574" t="n">
-        <v>1060</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="575">
@@ -36578,7 +36578,7 @@
         <v>2090</v>
       </c>
       <c r="T575" t="n">
-        <v>2618</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="576">
@@ -36642,7 +36642,7 @@
         <v>3218</v>
       </c>
       <c r="T576" t="n">
-        <v>4199</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="577">
@@ -36700,13 +36700,13 @@
         <v>344</v>
       </c>
       <c r="R577" t="n">
-        <v>185</v>
+        <v>184.75</v>
       </c>
       <c r="S577" t="n">
         <v>167</v>
       </c>
       <c r="T577" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="578">
@@ -36770,7 +36770,7 @@
         <v>489</v>
       </c>
       <c r="T578" t="n">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="579">
@@ -36828,13 +36828,13 @@
         <v>155.75</v>
       </c>
       <c r="R579" t="n">
-        <v>77</v>
+        <v>76.8125</v>
       </c>
       <c r="S579" t="n">
         <v>83</v>
       </c>
       <c r="T579" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="580">
@@ -36890,13 +36890,13 @@
         <v>1248</v>
       </c>
       <c r="R580" t="n">
-        <v>286</v>
+        <v>286.5</v>
       </c>
       <c r="S580" t="n">
         <v>339</v>
       </c>
       <c r="T580" t="n">
-        <v>300</v>
+        <v>345</v>
       </c>
     </row>
     <row r="581">
@@ -36952,13 +36952,13 @@
         <v>687</v>
       </c>
       <c r="R581" t="n">
-        <v>522</v>
+        <v>521.5</v>
       </c>
       <c r="S581" t="n">
         <v>427</v>
       </c>
       <c r="T581" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="582">
@@ -37022,7 +37022,7 @@
         <v>2066</v>
       </c>
       <c r="T582" t="n">
-        <v>2465</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="583">
@@ -37146,7 +37146,7 @@
         <v>216</v>
       </c>
       <c r="T584" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="585">
@@ -37204,13 +37204,13 @@
         <v>857.5</v>
       </c>
       <c r="R585" t="n">
-        <v>191</v>
+        <v>190.75</v>
       </c>
       <c r="S585" t="n">
         <v>70</v>
       </c>
       <c r="T585" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="586">
@@ -37268,13 +37268,13 @@
         <v>183.625</v>
       </c>
       <c r="R586" t="n">
-        <v>600</v>
+        <v>600.5</v>
       </c>
       <c r="S586" t="n">
         <v>467</v>
       </c>
       <c r="T586" t="n">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="587">
@@ -37332,13 +37332,13 @@
         <v>719</v>
       </c>
       <c r="R587" t="n">
-        <v>998</v>
+        <v>997.5</v>
       </c>
       <c r="S587" t="n">
         <v>576</v>
       </c>
       <c r="T587" t="n">
-        <v>813</v>
+        <v>842</v>
       </c>
     </row>
     <row r="588">
@@ -37402,7 +37402,7 @@
         <v>2006</v>
       </c>
       <c r="T588" t="n">
-        <v>2607</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="589">
@@ -37458,13 +37458,13 @@
         <v>232</v>
       </c>
       <c r="R589" t="n">
-        <v>57</v>
+        <v>57.1875</v>
       </c>
       <c r="S589" t="n">
         <v>20</v>
       </c>
       <c r="T589" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="590">
@@ -37528,7 +37528,7 @@
         <v>618</v>
       </c>
       <c r="T590" t="n">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="591">
@@ -37592,7 +37592,7 @@
         <v>1639</v>
       </c>
       <c r="T591" t="n">
-        <v>2108</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="592">
@@ -37650,13 +37650,13 @@
         <v>91.625</v>
       </c>
       <c r="R592" t="n">
-        <v>10</v>
+        <v>10.203125</v>
       </c>
       <c r="S592" t="n">
         <v>11</v>
       </c>
       <c r="T592" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593">
@@ -37774,13 +37774,13 @@
       </c>
       <c r="Q594" t="inlineStr"/>
       <c r="R594" t="n">
-        <v>95</v>
+        <v>95.125</v>
       </c>
       <c r="S594" t="n">
         <v>65</v>
       </c>
       <c r="T594" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="595">
@@ -37836,13 +37836,13 @@
         <v>27.296875</v>
       </c>
       <c r="R595" t="n">
-        <v>15</v>
+        <v>14.703125</v>
       </c>
       <c r="S595" t="n">
         <v>10</v>
       </c>
       <c r="T595" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="596">
@@ -37904,7 +37904,7 @@
         <v>15</v>
       </c>
       <c r="T596" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="597">
@@ -37960,13 +37960,13 @@
         <v>210.25</v>
       </c>
       <c r="R597" t="n">
-        <v>200</v>
+        <v>199.5</v>
       </c>
       <c r="S597" t="n">
         <v>174</v>
       </c>
       <c r="T597" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="598">
@@ -38030,7 +38030,7 @@
         <v>436</v>
       </c>
       <c r="T598" t="n">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="599">
@@ -38088,13 +38088,13 @@
         <v>48.59375</v>
       </c>
       <c r="R599" t="n">
-        <v>5</v>
+        <v>5.3984375</v>
       </c>
       <c r="S599" t="n">
         <v>7</v>
       </c>
       <c r="T599" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="600">
@@ -38152,13 +38152,13 @@
         <v>592.5</v>
       </c>
       <c r="R600" t="n">
-        <v>12</v>
+        <v>12.296875</v>
       </c>
       <c r="S600" t="n">
         <v>28</v>
       </c>
       <c r="T600" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="601">
@@ -38212,13 +38212,13 @@
         <v>667.5</v>
       </c>
       <c r="R601" t="n">
-        <v>30</v>
+        <v>29.703125</v>
       </c>
       <c r="S601" t="n">
         <v>0</v>
       </c>
       <c r="T601" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="602">
@@ -38274,13 +38274,13 @@
         <v>1174</v>
       </c>
       <c r="R602" t="n">
-        <v>954</v>
+        <v>954.5</v>
       </c>
       <c r="S602" t="n">
         <v>694</v>
       </c>
       <c r="T602" t="n">
-        <v>1060</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="603">
@@ -38344,7 +38344,7 @@
         <v>2092</v>
       </c>
       <c r="T603" t="n">
-        <v>3117</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="604">
@@ -38400,7 +38400,7 @@
         <v>0</v>
       </c>
       <c r="T604" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605">
@@ -38458,7 +38458,7 @@
         <v>29.84375</v>
       </c>
       <c r="R605" t="n">
-        <v>7</v>
+        <v>6.8984375</v>
       </c>
       <c r="S605" t="n">
         <v>3</v>
@@ -38522,13 +38522,13 @@
         <v>26.84375</v>
       </c>
       <c r="R606" t="n">
-        <v>2</v>
+        <v>1.650390625</v>
       </c>
       <c r="S606" t="n">
         <v>3</v>
       </c>
       <c r="T606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -38586,13 +38586,13 @@
         <v>64.9375</v>
       </c>
       <c r="R607" t="n">
-        <v>28</v>
+        <v>27.75</v>
       </c>
       <c r="S607" t="n">
         <v>24</v>
       </c>
       <c r="T607" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="608">
@@ -38650,13 +38650,13 @@
         <v>469</v>
       </c>
       <c r="R608" t="n">
-        <v>250</v>
+        <v>250.25</v>
       </c>
       <c r="S608" t="n">
         <v>103</v>
       </c>
       <c r="T608" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="609">
@@ -38712,7 +38712,7 @@
         <v>0</v>
       </c>
       <c r="T609" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610">
@@ -38770,13 +38770,13 @@
         <v>35.65625</v>
       </c>
       <c r="R610" t="n">
-        <v>7</v>
+        <v>6.578125</v>
       </c>
       <c r="S610" t="n">
         <v>5</v>
       </c>
       <c r="T610" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611">
@@ -38834,13 +38834,13 @@
         <v>111.875</v>
       </c>
       <c r="R611" t="n">
-        <v>24</v>
+        <v>23.703125</v>
       </c>
       <c r="S611" t="n">
         <v>23</v>
       </c>
       <c r="T611" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="612">
@@ -38898,13 +38898,13 @@
         <v>193.5</v>
       </c>
       <c r="R612" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="S612" t="n">
         <v>30</v>
       </c>
       <c r="T612" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="613">
@@ -38962,7 +38962,7 @@
         <v>471</v>
       </c>
       <c r="R613" t="n">
-        <v>90</v>
+        <v>90.5</v>
       </c>
       <c r="S613" t="n">
         <v>104</v>
@@ -39030,7 +39030,7 @@
         <v>293</v>
       </c>
       <c r="T614" t="n">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
     <row r="615">
@@ -39088,13 +39088,13 @@
         <v>99.4375</v>
       </c>
       <c r="R615" t="n">
-        <v>128</v>
+        <v>128.25</v>
       </c>
       <c r="S615" t="n">
         <v>171</v>
       </c>
       <c r="T615" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="616">
@@ -39158,7 +39158,7 @@
         <v>878</v>
       </c>
       <c r="T616" t="n">
-        <v>451</v>
+        <v>478</v>
       </c>
     </row>
     <row r="617">
@@ -39222,7 +39222,7 @@
         <v>1200</v>
       </c>
       <c r="T617" t="n">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="618">
@@ -39280,13 +39280,13 @@
         <v>26.40625</v>
       </c>
       <c r="R618" t="n">
-        <v>26</v>
+        <v>26.40625</v>
       </c>
       <c r="S618" t="n">
         <v>39</v>
       </c>
       <c r="T618" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="619">
@@ -39346,7 +39346,7 @@
         <v>100</v>
       </c>
       <c r="T619" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="620">
@@ -39404,13 +39404,13 @@
         <v>97.1875</v>
       </c>
       <c r="R620" t="n">
-        <v>116</v>
+        <v>116.125</v>
       </c>
       <c r="S620" t="n">
         <v>178</v>
       </c>
       <c r="T620" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="621">
@@ -39474,7 +39474,7 @@
         <v>462</v>
       </c>
       <c r="T621" t="n">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="622">
@@ -39532,13 +39532,13 @@
         <v>48.59375</v>
       </c>
       <c r="R622" t="n">
-        <v>60</v>
+        <v>60.3125</v>
       </c>
       <c r="S622" t="n">
         <v>68</v>
       </c>
       <c r="T622" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="623">
@@ -39594,13 +39594,13 @@
         <v>185.125</v>
       </c>
       <c r="R623" t="n">
-        <v>82</v>
+        <v>82.375</v>
       </c>
       <c r="S623" t="n">
         <v>150</v>
       </c>
       <c r="T623" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="624">
@@ -39658,13 +39658,13 @@
         <v>113.375</v>
       </c>
       <c r="R624" t="n">
-        <v>121</v>
+        <v>120.875</v>
       </c>
       <c r="S624" t="n">
         <v>151</v>
       </c>
       <c r="T624" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="625">
@@ -39728,7 +39728,7 @@
         <v>925</v>
       </c>
       <c r="T625" t="n">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="626">
@@ -39786,13 +39786,13 @@
         <v>110.125</v>
       </c>
       <c r="R626" t="n">
-        <v>115</v>
+        <v>114.875</v>
       </c>
       <c r="S626" t="n">
         <v>172</v>
       </c>
       <c r="T626" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="627">
@@ -39856,7 +39856,7 @@
         <v>127</v>
       </c>
       <c r="T627" t="n">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="628">
@@ -39914,13 +39914,13 @@
         <v>34.5</v>
       </c>
       <c r="R628" t="n">
-        <v>27</v>
+        <v>27.296875</v>
       </c>
       <c r="S628" t="n">
         <v>27</v>
       </c>
       <c r="T628" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="629">
@@ -39980,7 +39980,7 @@
         <v>20</v>
       </c>
       <c r="T629" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="630">
@@ -40036,13 +40036,13 @@
         <v>39.3125</v>
       </c>
       <c r="R630" t="n">
-        <v>103</v>
+        <v>102.875</v>
       </c>
       <c r="S630" t="n">
         <v>93</v>
       </c>
       <c r="T630" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="631">
@@ -40100,13 +40100,13 @@
         <v>363.5</v>
       </c>
       <c r="R631" t="n">
-        <v>472</v>
+        <v>471.5</v>
       </c>
       <c r="S631" t="n">
         <v>308</v>
       </c>
       <c r="T631" t="n">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="632">
@@ -40166,7 +40166,7 @@
         <v>80</v>
       </c>
       <c r="T632" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="633">
@@ -40222,13 +40222,13 @@
         <v>68.6875</v>
       </c>
       <c r="R633" t="n">
-        <v>122</v>
+        <v>122.375</v>
       </c>
       <c r="S633" t="n">
         <v>174</v>
       </c>
       <c r="T633" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="634">
@@ -40292,7 +40292,7 @@
         <v>722</v>
       </c>
       <c r="T634" t="n">
-        <v>721</v>
+        <v>724</v>
       </c>
     </row>
     <row r="635">
@@ -40350,13 +40350,13 @@
         <v>15</v>
       </c>
       <c r="R635" t="n">
-        <v>11</v>
+        <v>10.953125</v>
       </c>
       <c r="S635" t="n">
         <v>16</v>
       </c>
       <c r="T635" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636">
@@ -40414,13 +40414,13 @@
         <v>63.3125</v>
       </c>
       <c r="R636" t="n">
-        <v>42</v>
+        <v>41.6875</v>
       </c>
       <c r="S636" t="n">
         <v>23</v>
       </c>
       <c r="T636" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="637">
@@ -40472,13 +40472,13 @@
       <c r="P637" t="inlineStr"/>
       <c r="Q637" t="inlineStr"/>
       <c r="R637" t="n">
-        <v>124</v>
+        <v>124.1875</v>
       </c>
       <c r="S637" t="n">
         <v>70</v>
       </c>
       <c r="T637" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="638">
@@ -40534,7 +40534,7 @@
         <v>20</v>
       </c>
       <c r="T638" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -40598,7 +40598,7 @@
         <v>26</v>
       </c>
       <c r="T639" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="640">
@@ -40656,13 +40656,13 @@
         <v>258.5</v>
       </c>
       <c r="R640" t="n">
-        <v>156</v>
+        <v>156.5</v>
       </c>
       <c r="S640" t="n">
         <v>95</v>
       </c>
       <c r="T640" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="641">
@@ -40722,7 +40722,7 @@
         <v>30</v>
       </c>
       <c r="T641" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="642">
@@ -40780,13 +40780,13 @@
         <v>37.1875</v>
       </c>
       <c r="R642" t="n">
-        <v>35</v>
+        <v>35.40625</v>
       </c>
       <c r="S642" t="n">
         <v>34</v>
       </c>
       <c r="T642" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="643">
@@ -40844,13 +40844,13 @@
         <v>299</v>
       </c>
       <c r="R643" t="n">
-        <v>168</v>
+        <v>167.5</v>
       </c>
       <c r="S643" t="n">
         <v>62</v>
       </c>
       <c r="T643" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="644">
@@ -40908,7 +40908,7 @@
         <v>291</v>
       </c>
       <c r="R644" t="n">
-        <v>136</v>
+        <v>135.5</v>
       </c>
       <c r="S644" t="n">
         <v>164</v>
@@ -40972,13 +40972,13 @@
         <v>93.5</v>
       </c>
       <c r="R645" t="n">
-        <v>52</v>
+        <v>52.5</v>
       </c>
       <c r="S645" t="n">
         <v>22</v>
       </c>
       <c r="T645" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="646">
@@ -41036,13 +41036,13 @@
         <v>206.5</v>
       </c>
       <c r="R646" t="n">
-        <v>78</v>
+        <v>78.5</v>
       </c>
       <c r="S646" t="n">
         <v>52</v>
       </c>
       <c r="T646" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="647">
@@ -41100,13 +41100,13 @@
         <v>38.40625</v>
       </c>
       <c r="R647" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="S647" t="n">
         <v>19</v>
       </c>
       <c r="T647" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="648">
@@ -41158,13 +41158,13 @@
       <c r="P648" t="inlineStr"/>
       <c r="Q648" t="inlineStr"/>
       <c r="R648" t="n">
-        <v>0</v>
+        <v>0.1500244140625</v>
       </c>
       <c r="S648" t="n">
         <v>0</v>
       </c>
       <c r="T648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649">
@@ -41222,13 +41222,13 @@
         <v>13.796875</v>
       </c>
       <c r="R649" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="S649" t="n">
         <v>6</v>
       </c>
       <c r="T649" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="650">
@@ -41286,13 +41286,13 @@
         <v>27.453125</v>
       </c>
       <c r="R650" t="n">
-        <v>29</v>
+        <v>28.65625</v>
       </c>
       <c r="S650" t="n">
         <v>29</v>
       </c>
       <c r="T650" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="651">
@@ -41348,13 +41348,13 @@
         <v>359.75</v>
       </c>
       <c r="R651" t="n">
-        <v>260</v>
+        <v>259.5</v>
       </c>
       <c r="S651" t="n">
         <v>30</v>
       </c>
       <c r="T651" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="652">
@@ -41410,7 +41410,7 @@
         <v>0</v>
       </c>
       <c r="T652" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="653">
@@ -41474,7 +41474,7 @@
         <v>58</v>
       </c>
       <c r="T653" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="654">
@@ -41538,7 +41538,7 @@
         <v>695</v>
       </c>
       <c r="T654" t="n">
-        <v>915</v>
+        <v>956</v>
       </c>
     </row>
     <row r="655">
@@ -41602,7 +41602,7 @@
         <v>931</v>
       </c>
       <c r="T655" t="n">
-        <v>1026</v>
+        <v>941</v>
       </c>
     </row>
     <row r="656">
@@ -41666,7 +41666,7 @@
         <v>2452</v>
       </c>
       <c r="T656" t="n">
-        <v>2320</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="657">
@@ -41730,7 +41730,7 @@
         <v>5460</v>
       </c>
       <c r="T657" t="n">
-        <v>4621</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="658">
@@ -41790,7 +41790,7 @@
         <v>0</v>
       </c>
       <c r="T658" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="659">
@@ -41844,13 +41844,13 @@
         <v>361.25</v>
       </c>
       <c r="R659" t="n">
-        <v>86</v>
+        <v>85.9375</v>
       </c>
       <c r="S659" t="n">
         <v>0</v>
       </c>
       <c r="T659" t="n">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="660">
@@ -41908,13 +41908,13 @@
         <v>267.5</v>
       </c>
       <c r="R660" t="n">
-        <v>264</v>
+        <v>263.5</v>
       </c>
       <c r="S660" t="n">
         <v>190</v>
       </c>
       <c r="T660" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="661">
@@ -41978,7 +41978,7 @@
         <v>633</v>
       </c>
       <c r="T661" t="n">
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="662">
@@ -42032,13 +42032,13 @@
         <v>344.5</v>
       </c>
       <c r="R662" t="n">
-        <v>96</v>
+        <v>96.4375</v>
       </c>
       <c r="S662" t="n">
         <v>0</v>
       </c>
       <c r="T662" t="n">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="663">
@@ -42100,7 +42100,7 @@
         <v>103</v>
       </c>
       <c r="T663" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="664">
@@ -42158,7 +42158,7 @@
         <v>846.5</v>
       </c>
       <c r="R664" t="n">
-        <v>576</v>
+        <v>576.5</v>
       </c>
       <c r="S664" t="n">
         <v>498</v>
@@ -42218,13 +42218,13 @@
         <v>1030</v>
       </c>
       <c r="R665" t="n">
-        <v>276</v>
+        <v>275.5</v>
       </c>
       <c r="S665" t="n">
         <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>342</v>
+        <v>363</v>
       </c>
     </row>
     <row r="666">
@@ -42282,13 +42282,13 @@
         <v>568</v>
       </c>
       <c r="R666" t="n">
-        <v>632</v>
+        <v>631.5</v>
       </c>
       <c r="S666" t="n">
         <v>488</v>
       </c>
       <c r="T666" t="n">
-        <v>556</v>
+        <v>589</v>
       </c>
     </row>
     <row r="667">
@@ -42352,7 +42352,7 @@
         <v>2784</v>
       </c>
       <c r="T667" t="n">
-        <v>2479</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="668">
@@ -42410,13 +42410,13 @@
         <v>168.625</v>
       </c>
       <c r="R668" t="n">
-        <v>251</v>
+        <v>250.75</v>
       </c>
       <c r="S668" t="n">
         <v>139</v>
       </c>
       <c r="T668" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="669">
@@ -42480,7 +42480,7 @@
         <v>183</v>
       </c>
       <c r="T669" t="n">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="670">
@@ -42538,13 +42538,13 @@
         <v>852.5</v>
       </c>
       <c r="R670" t="n">
-        <v>415</v>
+        <v>415.25</v>
       </c>
       <c r="S670" t="n">
         <v>90</v>
       </c>
       <c r="T670" t="n">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="671">
@@ -42608,7 +42608,7 @@
         <v>536</v>
       </c>
       <c r="T671" t="n">
-        <v>495</v>
+        <v>528</v>
       </c>
     </row>
     <row r="672">
@@ -42672,7 +42672,7 @@
         <v>767</v>
       </c>
       <c r="T672" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="673">
@@ -42736,7 +42736,7 @@
         <v>3224</v>
       </c>
       <c r="T673" t="n">
-        <v>2956</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="674">
@@ -42794,13 +42794,13 @@
         <v>296.75</v>
       </c>
       <c r="R674" t="n">
-        <v>100</v>
+        <v>99.9375</v>
       </c>
       <c r="S674" t="n">
         <v>20</v>
       </c>
       <c r="T674" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="675">
@@ -42864,7 +42864,7 @@
         <v>751</v>
       </c>
       <c r="T675" t="n">
-        <v>823</v>
+        <v>793</v>
       </c>
     </row>
     <row r="676">
@@ -42928,7 +42928,7 @@
         <v>2670</v>
       </c>
       <c r="T676" t="n">
-        <v>2878</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="677">
@@ -42986,13 +42986,13 @@
         <v>75.3125</v>
       </c>
       <c r="R677" t="n">
-        <v>44</v>
+        <v>43.65625</v>
       </c>
       <c r="S677" t="n">
         <v>12</v>
       </c>
       <c r="T677" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="678">
@@ -43050,13 +43050,13 @@
         <v>492.5</v>
       </c>
       <c r="R678" t="n">
-        <v>198</v>
+        <v>197.75</v>
       </c>
       <c r="S678" t="n">
         <v>58</v>
       </c>
       <c r="T678" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="679">
@@ -43112,13 +43112,13 @@
       </c>
       <c r="Q679" t="inlineStr"/>
       <c r="R679" t="n">
-        <v>193</v>
+        <v>192.625</v>
       </c>
       <c r="S679" t="n">
         <v>90</v>
       </c>
       <c r="T679" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="680">
@@ -43176,13 +43176,13 @@
         <v>13.5</v>
       </c>
       <c r="R680" t="n">
-        <v>29</v>
+        <v>29.09375</v>
       </c>
       <c r="S680" t="n">
         <v>14</v>
       </c>
       <c r="T680" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="681">
@@ -43240,13 +43240,13 @@
         <v>141</v>
       </c>
       <c r="R681" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="S681" t="n">
         <v>19</v>
       </c>
       <c r="T681" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="682">
@@ -43304,13 +43304,13 @@
         <v>179.125</v>
       </c>
       <c r="R682" t="n">
-        <v>263</v>
+        <v>262.75</v>
       </c>
       <c r="S682" t="n">
         <v>167</v>
       </c>
       <c r="T682" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="683">
@@ -43368,13 +43368,13 @@
         <v>1086</v>
       </c>
       <c r="R683" t="n">
-        <v>702</v>
+        <v>702.5</v>
       </c>
       <c r="S683" t="n">
         <v>496</v>
       </c>
       <c r="T683" t="n">
-        <v>526</v>
+        <v>496</v>
       </c>
     </row>
     <row r="684">
@@ -43432,13 +43432,13 @@
         <v>50.40625</v>
       </c>
       <c r="R684" t="n">
-        <v>22</v>
+        <v>21.75</v>
       </c>
       <c r="S684" t="n">
         <v>10</v>
       </c>
       <c r="T684" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="685">
@@ -43496,13 +43496,13 @@
         <v>617</v>
       </c>
       <c r="R685" t="n">
-        <v>121</v>
+        <v>121.1875</v>
       </c>
       <c r="S685" t="n">
         <v>56</v>
       </c>
       <c r="T685" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="686">
@@ -43558,13 +43558,13 @@
         <v>691</v>
       </c>
       <c r="R686" t="n">
-        <v>232</v>
+        <v>232.125</v>
       </c>
       <c r="S686" t="n">
         <v>0</v>
       </c>
       <c r="T686" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="687">
@@ -43628,7 +43628,7 @@
         <v>763</v>
       </c>
       <c r="T687" t="n">
-        <v>1027</v>
+        <v>954</v>
       </c>
     </row>
     <row r="688">
@@ -43692,7 +43692,7 @@
         <v>3532</v>
       </c>
       <c r="T688" t="n">
-        <v>3456</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="689">
@@ -43750,7 +43750,7 @@
         <v>0</v>
       </c>
       <c r="T689" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="690">
@@ -43808,13 +43808,13 @@
         <v>24.15625</v>
       </c>
       <c r="R690" t="n">
-        <v>12</v>
+        <v>11.8515625</v>
       </c>
       <c r="S690" t="n">
         <v>10</v>
       </c>
       <c r="T690" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="691">
@@ -43872,13 +43872,13 @@
         <v>28.65625</v>
       </c>
       <c r="R691" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S691" t="n">
         <v>8</v>
       </c>
       <c r="T691" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="692">
@@ -43936,7 +43936,7 @@
         <v>48</v>
       </c>
       <c r="R692" t="n">
-        <v>117</v>
+        <v>116.875</v>
       </c>
       <c r="S692" t="n">
         <v>46</v>
@@ -44000,13 +44000,13 @@
         <v>307</v>
       </c>
       <c r="R693" t="n">
-        <v>788</v>
+        <v>787.5</v>
       </c>
       <c r="S693" t="n">
         <v>254</v>
       </c>
       <c r="T693" t="n">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="694">
@@ -44064,7 +44064,7 @@
         <v>0</v>
       </c>
       <c r="T694" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="695">
@@ -44122,13 +44122,13 @@
         <v>28.453125</v>
       </c>
       <c r="R695" t="n">
-        <v>31</v>
+        <v>31.359375</v>
       </c>
       <c r="S695" t="n">
         <v>10</v>
       </c>
       <c r="T695" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="696">
@@ -44186,13 +44186,13 @@
         <v>107.6875</v>
       </c>
       <c r="R696" t="n">
-        <v>73</v>
+        <v>72.875</v>
       </c>
       <c r="S696" t="n">
         <v>53</v>
       </c>
       <c r="T696" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="697">
@@ -44250,7 +44250,7 @@
         <v>152</v>
       </c>
       <c r="R697" t="n">
-        <v>100</v>
+        <v>100.5</v>
       </c>
       <c r="S697" t="n">
         <v>85</v>
@@ -44320,7 +44320,7 @@
         <v>222</v>
       </c>
       <c r="T698" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="699">
@@ -44384,7 +44384,7 @@
         <v>276</v>
       </c>
       <c r="T699" t="n">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="700">
@@ -44442,13 +44442,13 @@
         <v>81</v>
       </c>
       <c r="R700" t="n">
-        <v>109</v>
+        <v>109.0625</v>
       </c>
       <c r="S700" t="n">
         <v>145</v>
       </c>
       <c r="T700" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="701">
@@ -44512,7 +44512,7 @@
         <v>704</v>
       </c>
       <c r="T701" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="702">
@@ -44576,7 +44576,7 @@
         <v>1069</v>
       </c>
       <c r="T702" t="n">
-        <v>1275</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="703">
@@ -44634,13 +44634,13 @@
         <v>25.203125</v>
       </c>
       <c r="R703" t="n">
-        <v>17</v>
+        <v>16.796875</v>
       </c>
       <c r="S703" t="n">
         <v>27</v>
       </c>
       <c r="T703" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="704">
@@ -44704,7 +44704,7 @@
         <v>115</v>
       </c>
       <c r="T704" t="n">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="705">
@@ -44762,13 +44762,13 @@
         <v>121.1875</v>
       </c>
       <c r="R705" t="n">
-        <v>131</v>
+        <v>131.375</v>
       </c>
       <c r="S705" t="n">
         <v>114</v>
       </c>
       <c r="T705" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="706">
@@ -44832,7 +44832,7 @@
         <v>661</v>
       </c>
       <c r="T706" t="n">
-        <v>681</v>
+        <v>703</v>
       </c>
     </row>
     <row r="707">
@@ -44890,13 +44890,13 @@
         <v>27.59375</v>
       </c>
       <c r="R707" t="n">
-        <v>40</v>
+        <v>39.59375</v>
       </c>
       <c r="S707" t="n">
         <v>32</v>
       </c>
       <c r="T707" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="708">
@@ -44960,7 +44960,7 @@
         <v>190</v>
       </c>
       <c r="T708" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="709">
@@ -45018,13 +45018,13 @@
         <v>96.875</v>
       </c>
       <c r="R709" t="n">
-        <v>111</v>
+        <v>111.3125</v>
       </c>
       <c r="S709" t="n">
         <v>81</v>
       </c>
       <c r="T709" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="710">
@@ -45088,7 +45088,7 @@
         <v>874</v>
       </c>
       <c r="T710" t="n">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="711">
@@ -45146,13 +45146,13 @@
         <v>80.375</v>
       </c>
       <c r="R711" t="n">
-        <v>136</v>
+        <v>136.25</v>
       </c>
       <c r="S711" t="n">
         <v>100</v>
       </c>
       <c r="T711" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="712">
@@ -45216,7 +45216,7 @@
         <v>626</v>
       </c>
       <c r="T712" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="713">
@@ -45274,13 +45274,13 @@
         <v>37.8125</v>
       </c>
       <c r="R713" t="n">
-        <v>29</v>
+        <v>29.09375</v>
       </c>
       <c r="S713" t="n">
         <v>17</v>
       </c>
       <c r="T713" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="714">
@@ -45336,7 +45336,7 @@
         <v>0</v>
       </c>
       <c r="T714" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="715">
@@ -45390,7 +45390,7 @@
         <v>0</v>
       </c>
       <c r="T715" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="716">
@@ -45454,7 +45454,7 @@
         <v>31</v>
       </c>
       <c r="T716" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="717">
@@ -45510,13 +45510,13 @@
         <v>62.09375</v>
       </c>
       <c r="R717" t="n">
-        <v>74</v>
+        <v>74.125</v>
       </c>
       <c r="S717" t="n">
         <v>71</v>
       </c>
       <c r="T717" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="718">
@@ -45574,13 +45574,13 @@
         <v>321.5</v>
       </c>
       <c r="R718" t="n">
-        <v>400</v>
+        <v>399.5</v>
       </c>
       <c r="S718" t="n">
         <v>388</v>
       </c>
       <c r="T718" t="n">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="719">
@@ -45644,7 +45644,7 @@
         <v>102</v>
       </c>
       <c r="T719" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="720">
@@ -45700,7 +45700,7 @@
         <v>55.5</v>
       </c>
       <c r="R720" t="n">
-        <v>113</v>
+        <v>113.125</v>
       </c>
       <c r="S720" t="n">
         <v>99</v>
@@ -45770,7 +45770,7 @@
         <v>962</v>
       </c>
       <c r="T721" t="n">
-        <v>1085</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="722">
@@ -45828,7 +45828,7 @@
         <v>19.65625</v>
       </c>
       <c r="R722" t="n">
-        <v>12</v>
+        <v>12.1484375</v>
       </c>
       <c r="S722" t="n">
         <v>23</v>
@@ -45892,13 +45892,13 @@
         <v>56.6875</v>
       </c>
       <c r="R723" t="n">
-        <v>29</v>
+        <v>29.09375</v>
       </c>
       <c r="S723" t="n">
         <v>34</v>
       </c>
       <c r="T723" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="724">
@@ -45956,7 +45956,7 @@
         <v>0</v>
       </c>
       <c r="T724" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="725">
@@ -46014,13 +46014,13 @@
         <v>23.703125</v>
       </c>
       <c r="R725" t="n">
-        <v>20</v>
+        <v>20.40625</v>
       </c>
       <c r="S725" t="n">
         <v>27</v>
       </c>
       <c r="T725" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="726">
@@ -46084,7 +46084,7 @@
         <v>155</v>
       </c>
       <c r="T726" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="727">
@@ -46146,7 +46146,7 @@
         <v>44</v>
       </c>
       <c r="T727" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="728">
@@ -46204,7 +46204,7 @@
         <v>26.703125</v>
       </c>
       <c r="R728" t="n">
-        <v>39</v>
+        <v>39.3125</v>
       </c>
       <c r="S728" t="n">
         <v>33</v>
@@ -46274,7 +46274,7 @@
         <v>155</v>
       </c>
       <c r="T729" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="730">
@@ -46332,13 +46332,13 @@
         <v>250.5</v>
       </c>
       <c r="R730" t="n">
-        <v>140</v>
+        <v>139.5</v>
       </c>
       <c r="S730" t="n">
         <v>169</v>
       </c>
       <c r="T730" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="731">
@@ -46394,13 +46394,13 @@
         <v>65.5</v>
       </c>
       <c r="R731" t="n">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="S731" t="n">
         <v>54</v>
       </c>
       <c r="T731" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="732">
@@ -46458,13 +46458,13 @@
         <v>137</v>
       </c>
       <c r="R732" t="n">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="S732" t="n">
         <v>109</v>
       </c>
       <c r="T732" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="733">
@@ -46522,13 +46522,13 @@
         <v>32.40625</v>
       </c>
       <c r="R733" t="n">
-        <v>27</v>
+        <v>26.703125</v>
       </c>
       <c r="S733" t="n">
         <v>22</v>
       </c>
       <c r="T733" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="734">
@@ -46582,7 +46582,7 @@
         <v>0</v>
       </c>
       <c r="T734" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="735">
@@ -46640,13 +46640,13 @@
         <v>16.953125</v>
       </c>
       <c r="R735" t="n">
-        <v>13</v>
+        <v>13.203125</v>
       </c>
       <c r="S735" t="n">
         <v>22</v>
       </c>
       <c r="T735" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="736">
@@ -46704,13 +46704,13 @@
         <v>24.59375</v>
       </c>
       <c r="R736" t="n">
-        <v>50</v>
+        <v>50.25</v>
       </c>
       <c r="S736" t="n">
         <v>26</v>
       </c>
       <c r="T736" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="737">
@@ -46772,7 +46772,7 @@
         <v>223</v>
       </c>
       <c r="T737" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="738">
@@ -46836,7 +46836,7 @@
         <v>233</v>
       </c>
       <c r="T738" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -596,7 +596,7 @@
         <v>95</v>
       </c>
       <c r="T2" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
@@ -658,7 +658,7 @@
         <v>480.25</v>
       </c>
       <c r="T3" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +784,7 @@
         <v>935</v>
       </c>
       <c r="T5" t="n">
-        <v>974</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6">
@@ -912,7 +912,7 @@
         <v>1270</v>
       </c>
       <c r="T7" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="8">
@@ -976,7 +976,7 @@
         <v>298.5</v>
       </c>
       <c r="T8" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9">
@@ -1100,7 +1100,7 @@
         <v>136.875</v>
       </c>
       <c r="T10" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1288,7 +1288,7 @@
         <v>85.1875</v>
       </c>
       <c r="T13" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -1352,7 +1352,7 @@
         <v>215.75</v>
       </c>
       <c r="T14" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15">
@@ -1478,7 +1478,7 @@
         <v>542.5</v>
       </c>
       <c r="T16" t="n">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17">
@@ -1542,7 +1542,7 @@
         <v>84.5</v>
       </c>
       <c r="T17" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -1666,7 +1666,7 @@
         <v>9.8984375</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1728,7 +1728,7 @@
         <v>57.875</v>
       </c>
       <c r="T20" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -2040,7 +2040,7 @@
         <v>1.8642578125</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2156,7 +2156,7 @@
         <v>334.25</v>
       </c>
       <c r="T27" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28">
@@ -2218,7 +2218,7 @@
         <v>352.5</v>
       </c>
       <c r="T28" t="n">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29">
@@ -2342,7 +2342,7 @@
         <v>443</v>
       </c>
       <c r="T30" t="n">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31">
@@ -2468,7 +2468,7 @@
         <v>326.75</v>
       </c>
       <c r="T32" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33">
@@ -2594,7 +2594,7 @@
         <v>513</v>
       </c>
       <c r="T34" t="n">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35">
@@ -2970,7 +2970,7 @@
         <v>27</v>
       </c>
       <c r="T40" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -3156,7 +3156,7 @@
         <v>87.1875</v>
       </c>
       <c r="T43" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -3282,7 +3282,7 @@
         <v>127.3125</v>
       </c>
       <c r="T45" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46">
@@ -3536,7 +3536,7 @@
         <v>345</v>
       </c>
       <c r="T49" t="n">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50">
@@ -3662,7 +3662,7 @@
         <v>599</v>
       </c>
       <c r="T51" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52">
@@ -4216,7 +4216,7 @@
         <v>0.8662109375</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -4790,7 +4790,7 @@
         <v>6.75</v>
       </c>
       <c r="T69" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -4914,7 +4914,7 @@
         <v>115</v>
       </c>
       <c r="T71" t="n">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72">
@@ -4978,7 +4978,7 @@
         <v>580.5</v>
       </c>
       <c r="T72" t="n">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73">
@@ -5040,7 +5040,7 @@
         <v>72</v>
       </c>
       <c r="T73" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
@@ -5104,7 +5104,7 @@
         <v>1219</v>
       </c>
       <c r="T74" t="n">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75">
@@ -5232,7 +5232,7 @@
         <v>1282</v>
       </c>
       <c r="T76" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77">
@@ -5296,7 +5296,7 @@
         <v>289.75</v>
       </c>
       <c r="T77" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78">
@@ -5484,7 +5484,7 @@
         <v>70.1875</v>
       </c>
       <c r="T80" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
@@ -5610,7 +5610,7 @@
         <v>100.375</v>
       </c>
       <c r="T82" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
@@ -5674,7 +5674,7 @@
         <v>278</v>
       </c>
       <c r="T83" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84">
@@ -5736,7 +5736,7 @@
         <v>42</v>
       </c>
       <c r="T84" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -5800,7 +5800,7 @@
         <v>654</v>
       </c>
       <c r="T85" t="n">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86">
@@ -5926,7 +5926,7 @@
         <v>75.25</v>
       </c>
       <c r="T87" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
@@ -6050,7 +6050,7 @@
         <v>60.875</v>
       </c>
       <c r="T89" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -6112,7 +6112,7 @@
         <v>35.09375</v>
       </c>
       <c r="T90" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -6174,7 +6174,7 @@
         <v>90</v>
       </c>
       <c r="T91" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92">
@@ -6300,7 +6300,7 @@
         <v>23.390625</v>
       </c>
       <c r="T93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -6426,7 +6426,7 @@
         <v>345</v>
       </c>
       <c r="T95" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96">
@@ -6612,7 +6612,7 @@
         <v>661.5</v>
       </c>
       <c r="T98" t="n">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99">
@@ -6740,7 +6740,7 @@
         <v>371</v>
       </c>
       <c r="T100" t="n">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101">
@@ -6802,7 +6802,7 @@
         <v>43</v>
       </c>
       <c r="T101" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -6866,7 +6866,7 @@
         <v>474.5</v>
       </c>
       <c r="T102" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103">
@@ -7248,7 +7248,7 @@
         <v>31</v>
       </c>
       <c r="T108" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
@@ -7434,7 +7434,7 @@
         <v>131.125</v>
       </c>
       <c r="T111" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
@@ -7560,7 +7560,7 @@
         <v>198</v>
       </c>
       <c r="T113" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
@@ -7752,7 +7752,7 @@
         <v>5.359375</v>
       </c>
       <c r="T116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -7814,7 +7814,7 @@
         <v>492.5</v>
       </c>
       <c r="T117" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118">
@@ -7942,7 +7942,7 @@
         <v>782</v>
       </c>
       <c r="T119" t="n">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="120">
@@ -8698,7 +8698,7 @@
         <v>1.7509765625</v>
       </c>
       <c r="T131" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -9016,7 +9016,7 @@
         <v>9.8515625</v>
       </c>
       <c r="T136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137">
@@ -9138,7 +9138,7 @@
         <v>160</v>
       </c>
       <c r="T138" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139">
@@ -9202,7 +9202,7 @@
         <v>620.5</v>
       </c>
       <c r="T139" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="140">
@@ -9328,7 +9328,7 @@
         <v>1044</v>
       </c>
       <c r="T141" t="n">
-        <v>1006</v>
+        <v>997</v>
       </c>
     </row>
     <row r="142">
@@ -9392,7 +9392,7 @@
         <v>196.125</v>
       </c>
       <c r="T142" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="143">
@@ -9456,7 +9456,7 @@
         <v>1320</v>
       </c>
       <c r="T143" t="n">
-        <v>1317</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="144">
@@ -9520,7 +9520,7 @@
         <v>316.25</v>
       </c>
       <c r="T144" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145">
@@ -9648,7 +9648,7 @@
         <v>148.125</v>
       </c>
       <c r="T146" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="147">
@@ -9832,7 +9832,7 @@
         <v>97.6875</v>
       </c>
       <c r="T149" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150">
@@ -9894,7 +9894,7 @@
         <v>260</v>
       </c>
       <c r="T150" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151">
@@ -10020,7 +10020,7 @@
         <v>575</v>
       </c>
       <c r="T152" t="n">
-        <v>622</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153">
@@ -10146,7 +10146,7 @@
         <v>93.875</v>
       </c>
       <c r="T154" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155">
@@ -10400,7 +10400,7 @@
         <v>105.25</v>
       </c>
       <c r="T158" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159">
@@ -10462,7 +10462,7 @@
         <v>30</v>
       </c>
       <c r="T159" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -10526,7 +10526,7 @@
         <v>27.78125</v>
       </c>
       <c r="T160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="T162" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="163">
@@ -10712,7 +10712,7 @@
         <v>381.75</v>
       </c>
       <c r="T163" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164">
@@ -10774,7 +10774,7 @@
         <v>393</v>
       </c>
       <c r="T164" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165">
@@ -10900,7 +10900,7 @@
         <v>635.5</v>
       </c>
       <c r="T166" t="n">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="167">
@@ -11026,7 +11026,7 @@
         <v>421.5</v>
       </c>
       <c r="T168" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169">
@@ -11152,7 +11152,7 @@
         <v>488.75</v>
       </c>
       <c r="T170" t="n">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="171">
@@ -11216,7 +11216,7 @@
         <v>147.5</v>
       </c>
       <c r="T171" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
@@ -11408,7 +11408,7 @@
         <v>12.6875</v>
       </c>
       <c r="T174" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -11532,7 +11532,7 @@
         <v>31</v>
       </c>
       <c r="T176" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177">
@@ -11718,7 +11718,7 @@
         <v>110.875</v>
       </c>
       <c r="T179" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180">
@@ -11844,7 +11844,7 @@
         <v>152.625</v>
       </c>
       <c r="T181" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="182">
@@ -12036,7 +12036,7 @@
         <v>10</v>
       </c>
       <c r="T184" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
@@ -12228,7 +12228,7 @@
         <v>819.5</v>
       </c>
       <c r="T187" t="n">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="188">
@@ -13414,7 +13414,7 @@
         <v>8</v>
       </c>
       <c r="T206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -13476,7 +13476,7 @@
         <v>145</v>
       </c>
       <c r="T207" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208">
@@ -13540,7 +13540,7 @@
         <v>796</v>
       </c>
       <c r="T208" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="209">
@@ -13604,7 +13604,7 @@
         <v>84</v>
       </c>
       <c r="T209" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210">
@@ -13668,7 +13668,7 @@
         <v>1428</v>
       </c>
       <c r="T210" t="n">
-        <v>1190</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="211">
@@ -13732,7 +13732,7 @@
         <v>209.125</v>
       </c>
       <c r="T211" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="212">
@@ -13796,7 +13796,7 @@
         <v>1530</v>
       </c>
       <c r="T212" t="n">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="213">
@@ -13860,7 +13860,7 @@
         <v>349.5</v>
       </c>
       <c r="T213" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="214">
@@ -13924,7 +13924,7 @@
         <v>111.875</v>
       </c>
       <c r="T214" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215">
@@ -13988,7 +13988,7 @@
         <v>173</v>
       </c>
       <c r="T215" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="216">
@@ -14238,7 +14238,7 @@
         <v>400.75</v>
       </c>
       <c r="T219" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="220">
@@ -14366,7 +14366,7 @@
         <v>823.5</v>
       </c>
       <c r="T221" t="n">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="222">
@@ -14674,7 +14674,7 @@
         <v>43.09375</v>
       </c>
       <c r="T226" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227">
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="T231" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232">
@@ -15046,7 +15046,7 @@
         <v>489.5</v>
       </c>
       <c r="T232" t="n">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="233">
@@ -15108,7 +15108,7 @@
         <v>531.5</v>
       </c>
       <c r="T233" t="n">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="234">
@@ -15234,7 +15234,7 @@
         <v>895.5</v>
       </c>
       <c r="T235" t="n">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="236">
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="T237" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="238">
@@ -15546,7 +15546,7 @@
         <v>601</v>
       </c>
       <c r="T240" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="241">
@@ -15610,7 +15610,7 @@
         <v>162.5</v>
       </c>
       <c r="T241" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="242">
@@ -16234,7 +16234,7 @@
         <v>193</v>
       </c>
       <c r="T251" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="252">
@@ -16488,7 +16488,7 @@
         <v>576</v>
       </c>
       <c r="T255" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="256">
@@ -16616,7 +16616,7 @@
         <v>873.5</v>
       </c>
       <c r="T257" t="n">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="258">
@@ -16740,7 +16740,7 @@
         <v>30.34375</v>
       </c>
       <c r="T259" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260">
@@ -17242,7 +17242,7 @@
         <v>5.48046875</v>
       </c>
       <c r="T267" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268">
@@ -17676,7 +17676,7 @@
         <v>8.3671875</v>
       </c>
       <c r="T274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -17740,7 +17740,7 @@
         <v>145</v>
       </c>
       <c r="T275" t="n">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="276">
@@ -17804,7 +17804,7 @@
         <v>649</v>
       </c>
       <c r="T276" t="n">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="277">
@@ -17932,7 +17932,7 @@
         <v>1134</v>
       </c>
       <c r="T278" t="n">
-        <v>1795</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="279">
@@ -17996,7 +17996,7 @@
         <v>247.75</v>
       </c>
       <c r="T279" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="280">
@@ -18060,7 +18060,7 @@
         <v>1364</v>
       </c>
       <c r="T280" t="n">
-        <v>3098</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="281">
@@ -18124,7 +18124,7 @@
         <v>361.25</v>
       </c>
       <c r="T281" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282">
@@ -18186,7 +18186,7 @@
         <v>95.8125</v>
       </c>
       <c r="T282" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="283">
@@ -18250,7 +18250,7 @@
         <v>141.875</v>
       </c>
       <c r="T283" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="284">
@@ -18436,7 +18436,7 @@
         <v>104.8125</v>
       </c>
       <c r="T286" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="287">
@@ -18556,7 +18556,7 @@
         <v>293.5</v>
       </c>
       <c r="T288" t="n">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="289">
@@ -18618,7 +18618,7 @@
         <v>65</v>
       </c>
       <c r="T289" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="290">
@@ -18682,7 +18682,7 @@
         <v>676</v>
       </c>
       <c r="T290" t="n">
-        <v>1654</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="291">
@@ -18744,7 +18744,7 @@
         <v>136.5</v>
       </c>
       <c r="T291" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="292">
@@ -18860,7 +18860,7 @@
         <v>99.875</v>
       </c>
       <c r="T293" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="294">
@@ -18982,7 +18982,7 @@
         <v>59.84375</v>
       </c>
       <c r="T295" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296">
@@ -19164,7 +19164,7 @@
         <v>277.25</v>
       </c>
       <c r="T298" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299">
@@ -19466,7 +19466,7 @@
         <v>0</v>
       </c>
       <c r="T303" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="304">
@@ -19528,7 +19528,7 @@
         <v>482.75</v>
       </c>
       <c r="T304" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="305">
@@ -19590,7 +19590,7 @@
         <v>513</v>
       </c>
       <c r="T305" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306">
@@ -19716,7 +19716,7 @@
         <v>765</v>
       </c>
       <c r="T307" t="n">
-        <v>1636</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="308">
@@ -19842,7 +19842,7 @@
         <v>0</v>
       </c>
       <c r="T309" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310">
@@ -19906,7 +19906,7 @@
         <v>378.75</v>
       </c>
       <c r="T310" t="n">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="311">
@@ -20032,7 +20032,7 @@
         <v>406.75</v>
       </c>
       <c r="T312" t="n">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="313">
@@ -20096,7 +20096,7 @@
         <v>192.5</v>
       </c>
       <c r="T313" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="314">
@@ -20588,7 +20588,7 @@
         <v>11</v>
       </c>
       <c r="T321" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322">
@@ -20650,7 +20650,7 @@
         <v>116</v>
       </c>
       <c r="T322" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="323">
@@ -20776,7 +20776,7 @@
         <v>167.5</v>
       </c>
       <c r="T324" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="325">
@@ -20966,7 +20966,7 @@
         <v>10.984375</v>
       </c>
       <c r="T327" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -21030,7 +21030,7 @@
         <v>477</v>
       </c>
       <c r="T328" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>804.5</v>
       </c>
       <c r="T330" t="n">
-        <v>2025</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="331">
@@ -21780,7 +21780,7 @@
         <v>7.21484375</v>
       </c>
       <c r="T340" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341">
@@ -21906,7 +21906,7 @@
         <v>8</v>
       </c>
       <c r="T342" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="343">
@@ -21968,7 +21968,7 @@
         <v>9.6015625</v>
       </c>
       <c r="T343" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344">
@@ -22344,7 +22344,7 @@
         <v>18</v>
       </c>
       <c r="T349" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="350">
@@ -22408,7 +22408,7 @@
         <v>145</v>
       </c>
       <c r="T350" t="n">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="351">
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="T351" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="352">
@@ -22528,7 +22528,7 @@
         <v>736</v>
       </c>
       <c r="T352" t="n">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="353">
@@ -22656,7 +22656,7 @@
         <v>1363</v>
       </c>
       <c r="T354" t="n">
-        <v>1627</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="355">
@@ -22720,7 +22720,7 @@
         <v>247.75</v>
       </c>
       <c r="T355" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="356">
@@ -22784,7 +22784,7 @@
         <v>1745</v>
       </c>
       <c r="T356" t="n">
-        <v>2682</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="357">
@@ -22848,7 +22848,7 @@
         <v>361.25</v>
       </c>
       <c r="T357" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
     </row>
     <row r="358">
@@ -22974,7 +22974,7 @@
         <v>210.25</v>
       </c>
       <c r="T359" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="360">
@@ -23224,7 +23224,7 @@
         <v>364</v>
       </c>
       <c r="T363" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="364">
@@ -23352,7 +23352,7 @@
         <v>879.5</v>
       </c>
       <c r="T365" t="n">
-        <v>1431</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="366">
@@ -23416,7 +23416,7 @@
         <v>136.5</v>
       </c>
       <c r="T366" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="367">
@@ -23480,7 +23480,7 @@
         <v>103.3125</v>
       </c>
       <c r="T367" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="368">
@@ -23734,7 +23734,7 @@
         <v>277.25</v>
       </c>
       <c r="T371" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="372">
@@ -23988,7 +23988,7 @@
         <v>0</v>
       </c>
       <c r="T375" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="376">
@@ -24050,7 +24050,7 @@
         <v>461</v>
       </c>
       <c r="T376" t="n">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="377">
@@ -24114,7 +24114,7 @@
         <v>569.5</v>
       </c>
       <c r="T377" t="n">
-        <v>555</v>
+        <v>546</v>
       </c>
     </row>
     <row r="378">
@@ -24240,7 +24240,7 @@
         <v>964</v>
       </c>
       <c r="T379" t="n">
-        <v>1513</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="380">
@@ -24432,7 +24432,7 @@
         <v>482.5</v>
       </c>
       <c r="T382" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="383">
@@ -24558,7 +24558,7 @@
         <v>580.5</v>
       </c>
       <c r="T384" t="n">
-        <v>1139</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="385">
@@ -24622,7 +24622,7 @@
         <v>192.5</v>
       </c>
       <c r="T385" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="386">
@@ -24814,7 +24814,7 @@
         <v>18.078125</v>
       </c>
       <c r="T388" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>39.09375</v>
       </c>
       <c r="T390" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="391">
@@ -25250,7 +25250,7 @@
         <v>190.125</v>
       </c>
       <c r="T395" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="396">
@@ -25504,7 +25504,7 @@
         <v>509.5</v>
       </c>
       <c r="T399" t="n">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="400">
@@ -25632,7 +25632,7 @@
         <v>892</v>
       </c>
       <c r="T401" t="n">
-        <v>1262</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="402">
@@ -25696,7 +25696,7 @@
         <v>19</v>
       </c>
       <c r="T402" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403">
@@ -25758,7 +25758,7 @@
         <v>50.46875</v>
       </c>
       <c r="T403" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="404">
@@ -25820,7 +25820,7 @@
         <v>16</v>
       </c>
       <c r="T404" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405">
@@ -25940,7 +25940,7 @@
         <v>0</v>
       </c>
       <c r="T406" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="407">
@@ -26812,7 +26812,7 @@
         <v>18</v>
       </c>
       <c r="T420" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="421">
@@ -26876,7 +26876,7 @@
         <v>220</v>
       </c>
       <c r="T421" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="422">
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="T422" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="423">
@@ -27000,7 +27000,7 @@
         <v>988.5</v>
       </c>
       <c r="T423" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="424">
@@ -27064,7 +27064,7 @@
         <v>82.75</v>
       </c>
       <c r="T424" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="425">
@@ -27128,7 +27128,7 @@
         <v>2550</v>
       </c>
       <c r="T425" t="n">
-        <v>1520</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="426">
@@ -27192,7 +27192,7 @@
         <v>278</v>
       </c>
       <c r="T426" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="427">
@@ -27256,7 +27256,7 @@
         <v>3060</v>
       </c>
       <c r="T427" t="n">
-        <v>3045</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="428">
@@ -27320,7 +27320,7 @@
         <v>386.25</v>
       </c>
       <c r="T428" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="429">
@@ -27446,7 +27446,7 @@
         <v>336.25</v>
       </c>
       <c r="T430" t="n">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="431">
@@ -27636,7 +27636,7 @@
         <v>249.375</v>
       </c>
       <c r="T433" t="n">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="434">
@@ -27700,7 +27700,7 @@
         <v>616.5</v>
       </c>
       <c r="T434" t="n">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="435">
@@ -27828,7 +27828,7 @@
         <v>1479</v>
       </c>
       <c r="T436" t="n">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="437">
@@ -27892,7 +27892,7 @@
         <v>140.75</v>
       </c>
       <c r="T437" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="438">
@@ -27956,7 +27956,7 @@
         <v>167.25</v>
       </c>
       <c r="T438" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="439">
@@ -28084,7 +28084,7 @@
         <v>123</v>
       </c>
       <c r="T440" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="441">
@@ -28148,7 +28148,7 @@
         <v>45.28125</v>
       </c>
       <c r="T441" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="442">
@@ -28212,7 +28212,7 @@
         <v>261.25</v>
       </c>
       <c r="T442" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="443">
@@ -28532,7 +28532,7 @@
         <v>652</v>
       </c>
       <c r="T447" t="n">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="448">
@@ -28596,7 +28596,7 @@
         <v>847</v>
       </c>
       <c r="T448" t="n">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="449">
@@ -28722,7 +28722,7 @@
         <v>1854</v>
       </c>
       <c r="T450" t="n">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="451">
@@ -28850,7 +28850,7 @@
         <v>0</v>
       </c>
       <c r="T452" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453">
@@ -28914,7 +28914,7 @@
         <v>800.5</v>
       </c>
       <c r="T453" t="n">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="454">
@@ -29040,7 +29040,7 @@
         <v>1166</v>
       </c>
       <c r="T455" t="n">
-        <v>1146</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="456">
@@ -29104,7 +29104,7 @@
         <v>187</v>
       </c>
       <c r="T456" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="457">
@@ -29296,7 +29296,7 @@
         <v>18</v>
       </c>
       <c r="T459" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="460">
@@ -29472,7 +29472,7 @@
         <v>60</v>
       </c>
       <c r="T462" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463">
@@ -29534,7 +29534,7 @@
         <v>13.3671875</v>
       </c>
       <c r="T463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464">
@@ -29596,7 +29596,7 @@
         <v>13.0625</v>
       </c>
       <c r="T464" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465">
@@ -29724,7 +29724,7 @@
         <v>7.4140625</v>
       </c>
       <c r="T466" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467">
@@ -29788,7 +29788,7 @@
         <v>338.5</v>
       </c>
       <c r="T467" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="468">
@@ -29916,7 +29916,7 @@
         <v>1.9951171875</v>
       </c>
       <c r="T469" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -30042,7 +30042,7 @@
         <v>812.5</v>
       </c>
       <c r="T471" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="472">
@@ -30170,7 +30170,7 @@
         <v>1586</v>
       </c>
       <c r="T473" t="n">
-        <v>1358</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="474">
@@ -30358,7 +30358,7 @@
         <v>6.80078125</v>
       </c>
       <c r="T476" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="477">
@@ -30422,7 +30422,7 @@
         <v>15.203125</v>
       </c>
       <c r="T477" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="478">
@@ -30728,7 +30728,7 @@
         <v>3.107421875</v>
       </c>
       <c r="T482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -30984,7 +30984,7 @@
         <v>40.5</v>
       </c>
       <c r="T486" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="487">
@@ -31238,7 +31238,7 @@
         <v>10</v>
       </c>
       <c r="T490" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="491">
@@ -31366,7 +31366,7 @@
         <v>17.296875</v>
       </c>
       <c r="T492" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="493">
@@ -31430,7 +31430,7 @@
         <v>290</v>
       </c>
       <c r="T493" t="n">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="494">
@@ -31558,7 +31558,7 @@
         <v>1210</v>
       </c>
       <c r="T495" t="n">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="496">
@@ -31686,7 +31686,7 @@
         <v>3658</v>
       </c>
       <c r="T497" t="n">
-        <v>1801</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="498">
@@ -31750,7 +31750,7 @@
         <v>240.75</v>
       </c>
       <c r="T498" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="499">
@@ -31940,7 +31940,7 @@
         <v>250.125</v>
       </c>
       <c r="T501" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="502">
@@ -32004,7 +32004,7 @@
         <v>719</v>
       </c>
       <c r="T502" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="503">
@@ -32066,7 +32066,7 @@
         <v>175.875</v>
       </c>
       <c r="T503" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="504">
@@ -32194,7 +32194,7 @@
         <v>343.75</v>
       </c>
       <c r="T505" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="506">
@@ -32254,7 +32254,7 @@
         <v>0</v>
       </c>
       <c r="T506" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="507">
@@ -32446,7 +32446,7 @@
         <v>2964</v>
       </c>
       <c r="T509" t="n">
-        <v>1378</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="510">
@@ -32510,7 +32510,7 @@
         <v>252.25</v>
       </c>
       <c r="T510" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="511">
@@ -32572,7 +32572,7 @@
         <v>255.875</v>
       </c>
       <c r="T511" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="512">
@@ -32698,7 +32698,7 @@
         <v>225.25</v>
       </c>
       <c r="T513" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="514">
@@ -32758,7 +32758,7 @@
         <v>0</v>
       </c>
       <c r="T514" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="515">
@@ -32822,7 +32822,7 @@
         <v>26.640625</v>
       </c>
       <c r="T515" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="516">
@@ -33142,7 +33142,7 @@
         <v>0</v>
       </c>
       <c r="T520" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="521">
@@ -33202,7 +33202,7 @@
         <v>0</v>
       </c>
       <c r="T521" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="522">
@@ -33264,7 +33264,7 @@
         <v>902.5</v>
       </c>
       <c r="T522" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="523">
@@ -33328,7 +33328,7 @@
         <v>1246</v>
       </c>
       <c r="T523" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="524">
@@ -33390,7 +33390,7 @@
         <v>22</v>
       </c>
       <c r="T524" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="525">
@@ -33454,7 +33454,7 @@
         <v>2834</v>
       </c>
       <c r="T525" t="n">
-        <v>1493</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="526">
@@ -33518,7 +33518,7 @@
         <v>138.25</v>
       </c>
       <c r="T526" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="527">
@@ -33582,7 +33582,7 @@
         <v>0</v>
       </c>
       <c r="T527" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="528">
@@ -33642,7 +33642,7 @@
         <v>0</v>
       </c>
       <c r="T528" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="529">
@@ -33706,7 +33706,7 @@
         <v>1100</v>
       </c>
       <c r="T529" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="530">
@@ -33832,7 +33832,7 @@
         <v>2388</v>
       </c>
       <c r="T531" t="n">
-        <v>1427</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="532">
@@ -33896,7 +33896,7 @@
         <v>390</v>
       </c>
       <c r="T532" t="n">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="533">
@@ -33960,7 +33960,7 @@
         <v>10.484375</v>
       </c>
       <c r="T533" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="534">
@@ -34024,7 +34024,7 @@
         <v>8.1875</v>
       </c>
       <c r="T534" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="535">
@@ -34266,7 +34266,7 @@
         <v>100</v>
       </c>
       <c r="T538" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="539">
@@ -34580,7 +34580,7 @@
         <v>625</v>
       </c>
       <c r="T543" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="544">
@@ -34644,7 +34644,7 @@
         <v>79.125</v>
       </c>
       <c r="T544" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="545">
@@ -34708,7 +34708,7 @@
         <v>5.33984375</v>
       </c>
       <c r="T545" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="546">
@@ -34830,7 +34830,7 @@
         <v>0</v>
       </c>
       <c r="T547" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="548">
@@ -34890,7 +34890,7 @@
         <v>0</v>
       </c>
       <c r="T548" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549">
@@ -34952,7 +34952,7 @@
         <v>1260</v>
       </c>
       <c r="T549" t="n">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="550">
@@ -35080,7 +35080,7 @@
         <v>2692</v>
       </c>
       <c r="T551" t="n">
-        <v>1817</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="552">
@@ -35144,7 +35144,7 @@
         <v>77.625</v>
       </c>
       <c r="T552" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="553">
@@ -35270,7 +35270,7 @@
         <v>17.109375</v>
       </c>
       <c r="T554" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="555">
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="T558" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="559">
@@ -35894,7 +35894,7 @@
         <v>58</v>
       </c>
       <c r="T564" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="565">
@@ -35956,7 +35956,7 @@
         <v>123.75</v>
       </c>
       <c r="T565" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="566">
@@ -36066,7 +36066,7 @@
         <v>0</v>
       </c>
       <c r="T567" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="568">
@@ -36130,7 +36130,7 @@
         <v>4.015625</v>
       </c>
       <c r="T568" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569">
@@ -36450,7 +36450,7 @@
         <v>640</v>
       </c>
       <c r="T573" t="n">
-        <v>886</v>
+        <v>874</v>
       </c>
     </row>
     <row r="574">
@@ -36512,7 +36512,7 @@
         <v>293.25</v>
       </c>
       <c r="T574" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="575">
@@ -36576,7 +36576,7 @@
         <v>889</v>
       </c>
       <c r="T575" t="n">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="576">
@@ -36704,7 +36704,7 @@
         <v>2090</v>
       </c>
       <c r="T577" t="n">
-        <v>2545</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="578">
@@ -36768,7 +36768,7 @@
         <v>878</v>
       </c>
       <c r="T578" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="579">
@@ -36832,7 +36832,7 @@
         <v>3218</v>
       </c>
       <c r="T579" t="n">
-        <v>4417</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="580">
@@ -36896,7 +36896,7 @@
         <v>1200</v>
       </c>
       <c r="T580" t="n">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="581">
@@ -36960,7 +36960,7 @@
         <v>167.125</v>
       </c>
       <c r="T581" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="582">
@@ -37024,7 +37024,7 @@
         <v>488.75</v>
       </c>
       <c r="T582" t="n">
-        <v>629</v>
+        <v>613</v>
       </c>
     </row>
     <row r="583">
@@ -37088,7 +37088,7 @@
         <v>82.8125</v>
       </c>
       <c r="T583" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="584">
@@ -37214,7 +37214,7 @@
         <v>338.75</v>
       </c>
       <c r="T585" t="n">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="586">
@@ -37274,7 +37274,7 @@
         <v>100</v>
       </c>
       <c r="T586" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="587">
@@ -37336,7 +37336,7 @@
         <v>427</v>
       </c>
       <c r="T587" t="n">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="588">
@@ -37464,7 +37464,7 @@
         <v>2066</v>
       </c>
       <c r="T589" t="n">
-        <v>2496</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="590">
@@ -37528,7 +37528,7 @@
         <v>462.25</v>
       </c>
       <c r="T590" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="591">
@@ -37716,7 +37716,7 @@
         <v>216.25</v>
       </c>
       <c r="T593" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="594">
@@ -37778,7 +37778,7 @@
         <v>150</v>
       </c>
       <c r="T594" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="595">
@@ -37842,7 +37842,7 @@
         <v>151.375</v>
       </c>
       <c r="T595" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="596">
@@ -37906,7 +37906,7 @@
         <v>925</v>
       </c>
       <c r="T596" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="597">
@@ -38034,7 +38034,7 @@
         <v>127</v>
       </c>
       <c r="T598" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="599">
@@ -38350,7 +38350,7 @@
         <v>576.5</v>
       </c>
       <c r="T603" t="n">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="604">
@@ -38476,7 +38476,7 @@
         <v>2006</v>
       </c>
       <c r="T605" t="n">
-        <v>2595</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="606">
@@ -38540,7 +38540,7 @@
         <v>307.75</v>
       </c>
       <c r="T606" t="n">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="607">
@@ -38602,7 +38602,7 @@
         <v>20</v>
       </c>
       <c r="T607" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="608">
@@ -38726,7 +38726,7 @@
         <v>617.5</v>
       </c>
       <c r="T609" t="n">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="610">
@@ -38788,7 +38788,7 @@
         <v>174.375</v>
       </c>
       <c r="T610" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="611">
@@ -38852,7 +38852,7 @@
         <v>1639</v>
       </c>
       <c r="T611" t="n">
-        <v>2178</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="612">
@@ -38916,7 +38916,7 @@
         <v>722.5</v>
       </c>
       <c r="T612" t="n">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="613">
@@ -39290,7 +39290,7 @@
         <v>70</v>
       </c>
       <c r="T618" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="619">
@@ -39470,7 +39470,7 @@
         <v>20</v>
       </c>
       <c r="T621" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="622">
@@ -39532,7 +39532,7 @@
         <v>173.875</v>
       </c>
       <c r="T622" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="623">
@@ -39596,7 +39596,7 @@
         <v>26.203125</v>
       </c>
       <c r="T623" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624">
@@ -39660,7 +39660,7 @@
         <v>435.5</v>
       </c>
       <c r="T624" t="n">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="625">
@@ -39912,7 +39912,7 @@
         <v>0</v>
       </c>
       <c r="T628" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="629">
@@ -39972,7 +39972,7 @@
         <v>30</v>
       </c>
       <c r="T629" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="630">
@@ -40034,7 +40034,7 @@
         <v>693.5</v>
       </c>
       <c r="T630" t="n">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="631">
@@ -40162,7 +40162,7 @@
         <v>2092</v>
       </c>
       <c r="T632" t="n">
-        <v>2986</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="633">
@@ -40290,7 +40290,7 @@
         <v>163.5</v>
       </c>
       <c r="T634" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="635">
@@ -40354,7 +40354,7 @@
         <v>22.5</v>
       </c>
       <c r="T635" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="636">
@@ -40596,7 +40596,7 @@
         <v>0</v>
       </c>
       <c r="T639" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="640">
@@ -40916,7 +40916,7 @@
         <v>29.21875</v>
       </c>
       <c r="T644" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="645">
@@ -40980,7 +40980,7 @@
         <v>102.6875</v>
       </c>
       <c r="T645" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="646">
@@ -41042,7 +41042,7 @@
         <v>29.578125</v>
       </c>
       <c r="T646" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="647">
@@ -41218,7 +41218,7 @@
         <v>4.859375</v>
       </c>
       <c r="T649" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650">
@@ -41410,7 +41410,7 @@
         <v>104.5</v>
       </c>
       <c r="T652" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="653">
@@ -41538,7 +41538,7 @@
         <v>695</v>
       </c>
       <c r="T654" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="655">
@@ -41602,7 +41602,7 @@
         <v>276</v>
       </c>
       <c r="T655" t="n">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="656">
@@ -41666,7 +41666,7 @@
         <v>931</v>
       </c>
       <c r="T656" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="657">
@@ -41794,7 +41794,7 @@
         <v>2452</v>
       </c>
       <c r="T658" t="n">
-        <v>2539</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="659">
@@ -41858,7 +41858,7 @@
         <v>703.5</v>
       </c>
       <c r="T659" t="n">
-        <v>572</v>
+        <v>580</v>
       </c>
     </row>
     <row r="660">
@@ -41922,7 +41922,7 @@
         <v>5460</v>
       </c>
       <c r="T660" t="n">
-        <v>4480</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="661">
@@ -41986,7 +41986,7 @@
         <v>1069</v>
       </c>
       <c r="T661" t="n">
-        <v>1347</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="662">
@@ -42046,7 +42046,7 @@
         <v>0</v>
       </c>
       <c r="T662" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="663">
@@ -42106,7 +42106,7 @@
         <v>0</v>
       </c>
       <c r="T663" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="664">
@@ -42170,7 +42170,7 @@
         <v>190</v>
       </c>
       <c r="T664" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="665">
@@ -42234,7 +42234,7 @@
         <v>633</v>
       </c>
       <c r="T665" t="n">
-        <v>790</v>
+        <v>781</v>
       </c>
     </row>
     <row r="666">
@@ -42294,7 +42294,7 @@
         <v>0</v>
       </c>
       <c r="T666" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="667">
@@ -42356,7 +42356,7 @@
         <v>103.4375</v>
       </c>
       <c r="T667" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="668">
@@ -42484,7 +42484,7 @@
         <v>498</v>
       </c>
       <c r="T669" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="670">
@@ -42544,7 +42544,7 @@
         <v>0</v>
       </c>
       <c r="T670" t="n">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="671">
@@ -42672,7 +42672,7 @@
         <v>487.75</v>
       </c>
       <c r="T672" t="n">
-        <v>541</v>
+        <v>549</v>
       </c>
     </row>
     <row r="673">
@@ -42736,7 +42736,7 @@
         <v>114.5</v>
       </c>
       <c r="T673" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="674">
@@ -42800,7 +42800,7 @@
         <v>2784</v>
       </c>
       <c r="T674" t="n">
-        <v>2660</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="675">
@@ -42864,7 +42864,7 @@
         <v>661</v>
       </c>
       <c r="T675" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="676">
@@ -42928,7 +42928,7 @@
         <v>139</v>
       </c>
       <c r="T676" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="677">
@@ -43056,7 +43056,7 @@
         <v>183.375</v>
       </c>
       <c r="T678" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="679">
@@ -43184,7 +43184,7 @@
         <v>81.1875</v>
       </c>
       <c r="T680" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="681">
@@ -43248,7 +43248,7 @@
         <v>873.5</v>
       </c>
       <c r="T681" t="n">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="682">
@@ -43312,7 +43312,7 @@
         <v>100</v>
       </c>
       <c r="T682" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="683">
@@ -43376,7 +43376,7 @@
         <v>626</v>
       </c>
       <c r="T683" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="684">
@@ -43440,7 +43440,7 @@
         <v>17.234375</v>
       </c>
       <c r="T684" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="685">
@@ -43496,7 +43496,7 @@
         <v>0</v>
       </c>
       <c r="T685" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="686">
@@ -43550,7 +43550,7 @@
         <v>0</v>
       </c>
       <c r="T686" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="687">
@@ -43614,7 +43614,7 @@
         <v>90</v>
       </c>
       <c r="T687" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="688">
@@ -43678,7 +43678,7 @@
         <v>30.828125</v>
       </c>
       <c r="T688" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="689">
@@ -43742,7 +43742,7 @@
         <v>535.5</v>
       </c>
       <c r="T689" t="n">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="690">
@@ -43806,7 +43806,7 @@
         <v>767</v>
       </c>
       <c r="T690" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
     </row>
     <row r="691">
@@ -43932,7 +43932,7 @@
         <v>3224</v>
       </c>
       <c r="T692" t="n">
-        <v>3263</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="693">
@@ -43996,7 +43996,7 @@
         <v>388</v>
       </c>
       <c r="T693" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="694">
@@ -44060,7 +44060,7 @@
         <v>20</v>
       </c>
       <c r="T694" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="695">
@@ -44124,7 +44124,7 @@
         <v>101.5</v>
       </c>
       <c r="T695" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="696">
@@ -44188,7 +44188,7 @@
         <v>751</v>
       </c>
       <c r="T696" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="697">
@@ -44314,7 +44314,7 @@
         <v>2670</v>
       </c>
       <c r="T698" t="n">
-        <v>3206</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="699">
@@ -44378,7 +44378,7 @@
         <v>961.5</v>
       </c>
       <c r="T699" t="n">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="700">
@@ -44506,7 +44506,7 @@
         <v>22.671875</v>
       </c>
       <c r="T701" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="702">
@@ -44570,7 +44570,7 @@
         <v>58.375</v>
       </c>
       <c r="T702" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="703">
@@ -44696,7 +44696,7 @@
         <v>89.8125</v>
       </c>
       <c r="T704" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="705">
@@ -44882,7 +44882,7 @@
         <v>19.234375</v>
       </c>
       <c r="T707" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="708">
@@ -44946,7 +44946,7 @@
         <v>167.125</v>
       </c>
       <c r="T708" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="709">
@@ -45074,7 +45074,7 @@
         <v>495.75</v>
       </c>
       <c r="T710" t="n">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="711">
@@ -45202,7 +45202,7 @@
         <v>10.4921875</v>
       </c>
       <c r="T712" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="713">
@@ -45390,7 +45390,7 @@
         <v>43.71875</v>
       </c>
       <c r="T715" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="716">
@@ -45454,7 +45454,7 @@
         <v>763</v>
       </c>
       <c r="T716" t="n">
-        <v>1031</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="717">
@@ -45582,7 +45582,7 @@
         <v>3532</v>
       </c>
       <c r="T718" t="n">
-        <v>3646</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="719">
@@ -45710,7 +45710,7 @@
         <v>168.75</v>
       </c>
       <c r="T720" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="721">
@@ -45772,7 +45772,7 @@
         <v>53.5625</v>
       </c>
       <c r="T721" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="722">
@@ -45900,7 +45900,7 @@
         <v>22</v>
       </c>
       <c r="T723" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="724">
@@ -45958,7 +45958,7 @@
         <v>0</v>
       </c>
       <c r="T724" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="725">
@@ -46012,7 +46012,7 @@
         <v>0</v>
       </c>
       <c r="T725" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="726">
@@ -46076,7 +46076,7 @@
         <v>9.8671875</v>
       </c>
       <c r="T726" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="727">
@@ -46140,7 +46140,7 @@
         <v>8.2265625</v>
       </c>
       <c r="T727" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="728">
@@ -46396,7 +46396,7 @@
         <v>254.375</v>
       </c>
       <c r="T731" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="732">
@@ -46458,7 +46458,7 @@
         <v>222.625</v>
       </c>
       <c r="T732" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="733">
@@ -46516,7 +46516,7 @@
         <v>0</v>
       </c>
       <c r="T733" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="734">
@@ -46708,7 +46708,7 @@
         <v>85.1875</v>
       </c>
       <c r="T736" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="737">
@@ -46772,7 +46772,7 @@
         <v>222.125</v>
       </c>
       <c r="T737" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="738">
@@ -46836,7 +46836,7 @@
         <v>233</v>
       </c>
       <c r="T738" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/results/on-trade_result.xlsx
+++ b/results/on-trade_result.xlsx
@@ -596,7 +596,7 @@
         <v>145</v>
       </c>
       <c r="T2" t="n">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4">
@@ -716,7 +716,7 @@
         <v>736</v>
       </c>
       <c r="T4" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5">
@@ -780,7 +780,7 @@
         <v>69.125</v>
       </c>
       <c r="T5" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -844,7 +844,7 @@
         <v>1363</v>
       </c>
       <c r="T6" t="n">
-        <v>1508</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="7">
@@ -908,7 +908,7 @@
         <v>247.75</v>
       </c>
       <c r="T7" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8">
@@ -972,7 +972,7 @@
         <v>1745</v>
       </c>
       <c r="T8" t="n">
-        <v>2558</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="9">
@@ -1036,7 +1036,7 @@
         <v>361.25</v>
       </c>
       <c r="T9" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>113.125</v>
       </c>
       <c r="T10" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1162,7 @@
         <v>210.25</v>
       </c>
       <c r="T11" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
@@ -1226,7 +1226,7 @@
         <v>83.75</v>
       </c>
       <c r="T12" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1412,7 +1412,7 @@
         <v>364</v>
       </c>
       <c r="T15" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16">
@@ -1476,7 +1476,7 @@
         <v>65</v>
       </c>
       <c r="T16" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1540,7 +1540,7 @@
         <v>879.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="18">
@@ -1604,7 +1604,7 @@
         <v>136.5</v>
       </c>
       <c r="T18" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1732,7 +1732,7 @@
         <v>20.890625</v>
       </c>
       <c r="T20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -1858,7 +1858,7 @@
         <v>46.96875</v>
       </c>
       <c r="T22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -1922,7 +1922,7 @@
         <v>277.25</v>
       </c>
       <c r="T23" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -2050,7 +2050,7 @@
         <v>41.75</v>
       </c>
       <c r="T25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -2238,7 +2238,7 @@
         <v>461</v>
       </c>
       <c r="T28" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29">
@@ -2302,7 +2302,7 @@
         <v>569.5</v>
       </c>
       <c r="T29" t="n">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30">
@@ -2364,7 +2364,7 @@
         <v>28.90625</v>
       </c>
       <c r="T30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2428,7 +2428,7 @@
         <v>964</v>
       </c>
       <c r="T31" t="n">
-        <v>1484</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="32">
@@ -2492,7 +2492,7 @@
         <v>90</v>
       </c>
       <c r="T32" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -2620,7 +2620,7 @@
         <v>482.5</v>
       </c>
       <c r="T34" t="n">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35">
@@ -2682,7 +2682,7 @@
         <v>50.25</v>
       </c>
       <c r="T35" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
@@ -2746,7 +2746,7 @@
         <v>580.5</v>
       </c>
       <c r="T36" t="n">
-        <v>1227</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="37">
@@ -2810,7 +2810,7 @@
         <v>192.5</v>
       </c>
       <c r="T37" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38">
@@ -3002,7 +3002,7 @@
         <v>18.078125</v>
       </c>
       <c r="T40" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
@@ -3126,7 +3126,7 @@
         <v>39.09375</v>
       </c>
       <c r="T42" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43">
@@ -3250,7 +3250,7 @@
         <v>13.5859375</v>
       </c>
       <c r="T44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -3312,7 +3312,7 @@
         <v>128.625</v>
       </c>
       <c r="T45" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -3438,7 +3438,7 @@
         <v>190.125</v>
       </c>
       <c r="T47" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48">
@@ -3630,7 +3630,7 @@
         <v>11.859375</v>
       </c>
       <c r="T50" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -3692,7 +3692,7 @@
         <v>509.5</v>
       </c>
       <c r="T51" t="n">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52">
@@ -3756,7 +3756,7 @@
         <v>10.5390625</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -3820,7 +3820,7 @@
         <v>892</v>
       </c>
       <c r="T53" t="n">
-        <v>1473</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="54">
@@ -3946,7 +3946,7 @@
         <v>50.46875</v>
       </c>
       <c r="T55" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -4502,7 +4502,7 @@
         <v>9</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -4566,7 +4566,7 @@
         <v>14</v>
       </c>
       <c r="T65" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -4626,7 +4626,7 @@
         <v>9.6015625</v>
       </c>
       <c r="T66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -4876,7 +4876,7 @@
         <v>6.9375</v>
       </c>
       <c r="T70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -4940,7 +4940,7 @@
         <v>9.8515625</v>
       </c>
       <c r="T71" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72">
@@ -5064,7 +5064,7 @@
         <v>220</v>
       </c>
       <c r="T73" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75">
@@ -5188,7 +5188,7 @@
         <v>988.5</v>
       </c>
       <c r="T75" t="n">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="76">
@@ -5316,7 +5316,7 @@
         <v>2550</v>
       </c>
       <c r="T77" t="n">
-        <v>1496</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="78">
@@ -5380,7 +5380,7 @@
         <v>278</v>
       </c>
       <c r="T78" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -5444,7 +5444,7 @@
         <v>3060</v>
       </c>
       <c r="T79" t="n">
-        <v>2939</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="80">
@@ -5508,7 +5508,7 @@
         <v>386.25</v>
       </c>
       <c r="T80" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81">
@@ -5634,7 +5634,7 @@
         <v>336.25</v>
       </c>
       <c r="T82" t="n">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83">
@@ -5698,7 +5698,7 @@
         <v>127.375</v>
       </c>
       <c r="T83" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84">
@@ -5824,7 +5824,7 @@
         <v>249.375</v>
       </c>
       <c r="T85" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86">
@@ -5888,7 +5888,7 @@
         <v>616.5</v>
       </c>
       <c r="T86" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="87">
@@ -5952,7 +5952,7 @@
         <v>62.6875</v>
       </c>
       <c r="T87" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88">
@@ -6016,7 +6016,7 @@
         <v>1479</v>
       </c>
       <c r="T88" t="n">
-        <v>1417</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="89">
@@ -6080,7 +6080,7 @@
         <v>140.75</v>
       </c>
       <c r="T89" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90">
@@ -6144,7 +6144,7 @@
         <v>167.25</v>
       </c>
       <c r="T90" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91">
@@ -6272,7 +6272,7 @@
         <v>123</v>
       </c>
       <c r="T92" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="93">
@@ -6336,7 +6336,7 @@
         <v>45.28125</v>
       </c>
       <c r="T93" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94">
@@ -6400,7 +6400,7 @@
         <v>261.25</v>
       </c>
       <c r="T94" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95">
@@ -6528,7 +6528,7 @@
         <v>39.75</v>
       </c>
       <c r="T96" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97">
@@ -6592,7 +6592,7 @@
         <v>7.7265625</v>
       </c>
       <c r="T97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -6720,7 +6720,7 @@
         <v>652</v>
       </c>
       <c r="T99" t="n">
-        <v>504</v>
+        <v>484</v>
       </c>
     </row>
     <row r="100">
@@ -6784,7 +6784,7 @@
         <v>847</v>
       </c>
       <c r="T100" t="n">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101">
@@ -6910,7 +6910,7 @@
         <v>1854</v>
       </c>
       <c r="T102" t="n">
-        <v>1452</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="103">
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105">
@@ -7102,7 +7102,7 @@
         <v>800.5</v>
       </c>
       <c r="T105" t="n">
-        <v>524</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106">
@@ -7164,7 +7164,7 @@
         <v>48.46875</v>
       </c>
       <c r="T106" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107">
@@ -7228,7 +7228,7 @@
         <v>1166</v>
       </c>
       <c r="T107" t="n">
-        <v>1294</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="108">
@@ -7292,7 +7292,7 @@
         <v>187</v>
       </c>
       <c r="T108" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109">
@@ -7484,7 +7484,7 @@
         <v>18</v>
       </c>
       <c r="T111" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
@@ -7606,7 +7606,7 @@
         <v>65.0625</v>
       </c>
       <c r="T113" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114">
@@ -7660,7 +7660,7 @@
         <v>60</v>
       </c>
       <c r="T114" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115">
@@ -7848,7 +7848,7 @@
         <v>189.25</v>
       </c>
       <c r="T117" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
@@ -7912,7 +7912,7 @@
         <v>7.4140625</v>
       </c>
       <c r="T118" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119">
@@ -7976,7 +7976,7 @@
         <v>338.5</v>
       </c>
       <c r="T119" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="120">
@@ -8168,7 +8168,7 @@
         <v>14.0546875</v>
       </c>
       <c r="T122" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -8230,7 +8230,7 @@
         <v>812.5</v>
       </c>
       <c r="T123" t="n">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124">
@@ -8294,7 +8294,7 @@
         <v>9.984375</v>
       </c>
       <c r="T124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125">
@@ -8358,7 +8358,7 @@
         <v>1586</v>
       </c>
       <c r="T125" t="n">
-        <v>1516</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="126">
@@ -8546,7 +8546,7 @@
         <v>6.80078125</v>
       </c>
       <c r="T128" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
@@ -8674,7 +8674,7 @@
         <v>5.80078125</v>
       </c>
       <c r="T130" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131">
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -9172,7 +9172,7 @@
         <v>40.5</v>
       </c>
       <c r="T138" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139">
@@ -9426,7 +9426,7 @@
         <v>10</v>
       </c>
       <c r="T142" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143">
@@ -9490,7 +9490,7 @@
         <v>37</v>
       </c>
       <c r="T143" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144">
@@ -9554,7 +9554,7 @@
         <v>17.296875</v>
       </c>
       <c r="T144" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145">
@@ -9618,7 +9618,7 @@
         <v>290</v>
       </c>
       <c r="T145" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="146">
@@ -9682,7 +9682,7 @@
         <v>100</v>
       </c>
       <c r="T146" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147">
@@ -9874,7 +9874,7 @@
         <v>3658</v>
       </c>
       <c r="T149" t="n">
-        <v>1647</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="150">
@@ -9938,7 +9938,7 @@
         <v>240.75</v>
       </c>
       <c r="T150" t="n">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="151">
@@ -10002,7 +10002,7 @@
         <v>4804</v>
       </c>
       <c r="T151" t="n">
-        <v>3039</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="152">
@@ -10066,7 +10066,7 @@
         <v>399.75</v>
       </c>
       <c r="T152" t="n">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="153">
@@ -10128,7 +10128,7 @@
         <v>250.125</v>
       </c>
       <c r="T153" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
@@ -10192,7 +10192,7 @@
         <v>719</v>
       </c>
       <c r="T154" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="155">
@@ -10254,7 +10254,7 @@
         <v>175.875</v>
       </c>
       <c r="T155" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156">
@@ -10382,7 +10382,7 @@
         <v>343.75</v>
       </c>
       <c r="T157" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158">
@@ -10442,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="T158" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159">
@@ -10506,7 +10506,7 @@
         <v>936</v>
       </c>
       <c r="T159" t="n">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="160">
@@ -10570,7 +10570,7 @@
         <v>40.71875</v>
       </c>
       <c r="T160" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="161">
@@ -10634,7 +10634,7 @@
         <v>2964</v>
       </c>
       <c r="T161" t="n">
-        <v>1449</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="162">
@@ -10698,7 +10698,7 @@
         <v>252.25</v>
       </c>
       <c r="T162" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163">
@@ -10760,7 +10760,7 @@
         <v>255.875</v>
       </c>
       <c r="T163" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164">
@@ -10886,7 +10886,7 @@
         <v>225.25</v>
       </c>
       <c r="T165" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166">
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="T166" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167">
@@ -11010,7 +11010,7 @@
         <v>26.640625</v>
       </c>
       <c r="T167" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="168">
@@ -11074,7 +11074,7 @@
         <v>324.5</v>
       </c>
       <c r="T168" t="n">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="169">
@@ -11138,7 +11138,7 @@
         <v>28.171875</v>
       </c>
       <c r="T169" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170">
@@ -11202,7 +11202,7 @@
         <v>203.75</v>
       </c>
       <c r="T170" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171">
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="T172" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="173">
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="T173" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
@@ -11452,7 +11452,7 @@
         <v>902.5</v>
       </c>
       <c r="T174" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175">
@@ -11516,7 +11516,7 @@
         <v>1246</v>
       </c>
       <c r="T175" t="n">
-        <v>567</v>
+        <v>550</v>
       </c>
     </row>
     <row r="176">
@@ -11578,7 +11578,7 @@
         <v>22</v>
       </c>
       <c r="T176" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177">
@@ -11642,7 +11642,7 @@
         <v>2834</v>
       </c>
       <c r="T177" t="n">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="178">
@@ -11706,7 +11706,7 @@
         <v>138.25</v>
       </c>
       <c r="T178" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179">
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="T179" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180">
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="T180" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181">
@@ -11894,7 +11894,7 @@
         <v>1100</v>
       </c>
       <c r="T181" t="n">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="182">
@@ -11956,7 +11956,7 @@
         <v>28.84375</v>
       </c>
       <c r="T182" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="183">
@@ -12020,7 +12020,7 @@
         <v>2388</v>
       </c>
       <c r="T183" t="n">
-        <v>1345</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="184">
@@ -12084,7 +12084,7 @@
         <v>390</v>
       </c>
       <c r="T184" t="n">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185">
@@ -12148,7 +12148,7 @@
         <v>10.484375</v>
       </c>
       <c r="T185" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
@@ -12276,7 +12276,7 @@
         <v>28.90625</v>
       </c>
       <c r="T187" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="188">
@@ -12398,7 +12398,7 @@
         <v>82</v>
       </c>
       <c r="T189" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190">
@@ -12454,7 +12454,7 @@
         <v>100</v>
       </c>
       <c r="T190" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="191">
@@ -12516,7 +12516,7 @@
         <v>16.84375</v>
       </c>
       <c r="T191" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
@@ -12580,7 +12580,7 @@
         <v>32.28125</v>
       </c>
       <c r="T192" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193">
@@ -12642,7 +12642,7 @@
         <v>289.75</v>
       </c>
       <c r="T193" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194">
@@ -12706,7 +12706,7 @@
         <v>12.21875</v>
       </c>
       <c r="T194" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
@@ -12768,7 +12768,7 @@
         <v>625</v>
       </c>
       <c r="T195" t="n">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196">
@@ -12832,7 +12832,7 @@
         <v>79.125</v>
       </c>
       <c r="T196" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="197">
@@ -12896,7 +12896,7 @@
         <v>5.33984375</v>
       </c>
       <c r="T197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -12960,7 +12960,7 @@
         <v>20.953125</v>
       </c>
       <c r="T198" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="199">
@@ -13018,7 +13018,7 @@
         <v>0</v>
       </c>
       <c r="T199" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200">
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="T200" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201">
@@ -13140,7 +13140,7 @@
         <v>1260</v>
       </c>
       <c r="T201" t="n">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="202">
@@ -13204,7 +13204,7 @@
         <v>12.8125</v>
       </c>
       <c r="T202" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203">
@@ -13268,7 +13268,7 @@
         <v>2692</v>
       </c>
       <c r="T203" t="n">
-        <v>1896</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="204">
@@ -13332,7 +13332,7 @@
         <v>77.625</v>
       </c>
       <c r="T204" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205">
@@ -13396,7 +13396,7 @@
         <v>53.9375</v>
       </c>
       <c r="T205" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206">
@@ -13458,7 +13458,7 @@
         <v>17.109375</v>
       </c>
       <c r="T206" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="207">
@@ -13522,7 +13522,7 @@
         <v>51.4375</v>
       </c>
       <c r="T207" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208">
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="T210" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211">
@@ -14018,7 +14018,7 @@
         <v>19.03125</v>
       </c>
       <c r="T215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -14082,7 +14082,7 @@
         <v>58</v>
       </c>
       <c r="T216" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="217">
@@ -14144,7 +14144,7 @@
         <v>123.75</v>
       </c>
       <c r="T217" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218">
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="T218" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="219">
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="T219" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220">
@@ -14510,7 +14510,7 @@
         <v>70.8125</v>
       </c>
       <c r="T223" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="224">
@@ -14574,7 +14574,7 @@
         <v>100.125</v>
       </c>
       <c r="T224" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="225">
@@ -14638,7 +14638,7 @@
         <v>640</v>
       </c>
       <c r="T225" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="226">
@@ -14700,7 +14700,7 @@
         <v>293.25</v>
       </c>
       <c r="T226" t="n">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="227">
@@ -14764,7 +14764,7 @@
         <v>889</v>
       </c>
       <c r="T227" t="n">
-        <v>1200</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="228">
@@ -14828,7 +14828,7 @@
         <v>170.625</v>
       </c>
       <c r="T228" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="229">
@@ -14892,7 +14892,7 @@
         <v>2090</v>
       </c>
       <c r="T229" t="n">
-        <v>2590</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="230">
@@ -14956,7 +14956,7 @@
         <v>878</v>
       </c>
       <c r="T230" t="n">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="231">
@@ -15020,7 +15020,7 @@
         <v>3218</v>
       </c>
       <c r="T231" t="n">
-        <v>4614</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="232">
@@ -15084,7 +15084,7 @@
         <v>1200</v>
       </c>
       <c r="T232" t="n">
-        <v>900</v>
+        <v>907</v>
       </c>
     </row>
     <row r="233">
@@ -15148,7 +15148,7 @@
         <v>167.125</v>
       </c>
       <c r="T233" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="234">
@@ -15212,7 +15212,7 @@
         <v>488.75</v>
       </c>
       <c r="T234" t="n">
-        <v>690</v>
+        <v>703</v>
       </c>
     </row>
     <row r="235">
@@ -15276,7 +15276,7 @@
         <v>82.8125</v>
       </c>
       <c r="T235" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="236">
@@ -15402,7 +15402,7 @@
         <v>338.75</v>
       </c>
       <c r="T237" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="238">
@@ -15462,7 +15462,7 @@
         <v>100</v>
       </c>
       <c r="T238" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239">
@@ -15524,7 +15524,7 @@
         <v>427</v>
       </c>
       <c r="T239" t="n">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="240">
@@ -15588,7 +15588,7 @@
         <v>177.75</v>
       </c>
       <c r="T240" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="241">
@@ -15652,7 +15652,7 @@
         <v>2066</v>
       </c>
       <c r="T241" t="n">
-        <v>2497</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="242">
@@ -15716,7 +15716,7 @@
         <v>462.25</v>
       </c>
       <c r="T242" t="n">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243">
@@ -15778,7 +15778,7 @@
         <v>168.875</v>
       </c>
       <c r="T243" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="244">
@@ -15904,7 +15904,7 @@
         <v>216.25</v>
       </c>
       <c r="T245" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246">
@@ -15966,7 +15966,7 @@
         <v>150</v>
       </c>
       <c r="T246" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="247">
@@ -16030,7 +16030,7 @@
         <v>151.375</v>
       </c>
       <c r="T247" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="248">
@@ -16094,7 +16094,7 @@
         <v>925</v>
       </c>
       <c r="T248" t="n">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="249">
@@ -16158,7 +16158,7 @@
         <v>171.625</v>
       </c>
       <c r="T249" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="250">
@@ -16222,7 +16222,7 @@
         <v>127</v>
       </c>
       <c r="T250" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="251">
@@ -16286,7 +16286,7 @@
         <v>26.875</v>
       </c>
       <c r="T251" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="252">
@@ -16350,7 +16350,7 @@
         <v>70</v>
       </c>
       <c r="T252" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="253">
@@ -16410,7 +16410,7 @@
         <v>20</v>
       </c>
       <c r="T253" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254">
@@ -16474,7 +16474,7 @@
         <v>466.75</v>
       </c>
       <c r="T254" t="n">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="255">
@@ -16538,7 +16538,7 @@
         <v>576.5</v>
       </c>
       <c r="T255" t="n">
-        <v>869</v>
+        <v>876</v>
       </c>
     </row>
     <row r="256">
@@ -16600,7 +16600,7 @@
         <v>93.125</v>
       </c>
       <c r="T256" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257">
@@ -16664,7 +16664,7 @@
         <v>2006</v>
       </c>
       <c r="T257" t="n">
-        <v>2721</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="258">
@@ -16728,7 +16728,7 @@
         <v>307.75</v>
       </c>
       <c r="T258" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259">
@@ -16790,7 +16790,7 @@
         <v>20</v>
       </c>
       <c r="T259" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260">
@@ -16850,7 +16850,7 @@
         <v>80</v>
       </c>
       <c r="T260" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="261">
@@ -16914,7 +16914,7 @@
         <v>617.5</v>
       </c>
       <c r="T261" t="n">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="262">
@@ -16976,7 +16976,7 @@
         <v>174.375</v>
       </c>
       <c r="T262" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="263">
@@ -17040,7 +17040,7 @@
         <v>1639</v>
       </c>
       <c r="T263" t="n">
-        <v>2206</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="264">
@@ -17104,7 +17104,7 @@
         <v>722.5</v>
       </c>
       <c r="T264" t="n">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="265">
@@ -17232,7 +17232,7 @@
         <v>16.1875</v>
       </c>
       <c r="T266" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267">
@@ -17296,7 +17296,7 @@
         <v>57.53125</v>
       </c>
       <c r="T267" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268">
@@ -17360,7 +17360,7 @@
         <v>23.109375</v>
       </c>
       <c r="T268" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
@@ -17420,7 +17420,7 @@
         <v>64.75</v>
       </c>
       <c r="T269" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270">
@@ -17540,7 +17540,7 @@
         <v>10.2265625</v>
       </c>
       <c r="T271" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="272">
@@ -17658,7 +17658,7 @@
         <v>20</v>
       </c>
       <c r="T273" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -17784,7 +17784,7 @@
         <v>26.203125</v>
       </c>
       <c r="T275" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="276">
@@ -17848,7 +17848,7 @@
         <v>435.5</v>
       </c>
       <c r="T276" t="n">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="277">
@@ -18040,7 +18040,7 @@
         <v>27.859375</v>
       </c>
       <c r="T279" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="280">
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="T280" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281">
@@ -18160,7 +18160,7 @@
         <v>30</v>
       </c>
       <c r="T281" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -18222,7 +18222,7 @@
         <v>693.5</v>
       </c>
       <c r="T282" t="n">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="283">
@@ -18350,7 +18350,7 @@
         <v>2092</v>
       </c>
       <c r="T284" t="n">
-        <v>2890</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="285">
@@ -18414,7 +18414,7 @@
         <v>61.625</v>
       </c>
       <c r="T285" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="286">
@@ -18478,7 +18478,7 @@
         <v>163.5</v>
       </c>
       <c r="T286" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="287">
@@ -18606,7 +18606,7 @@
         <v>51.84375</v>
       </c>
       <c r="T288" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="289">
@@ -18670,7 +18670,7 @@
         <v>19.328125</v>
       </c>
       <c r="T289" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="T291" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292">
@@ -18848,7 +18848,7 @@
         <v>2.986328125</v>
       </c>
       <c r="T292" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293">
@@ -18976,7 +18976,7 @@
         <v>6.48046875</v>
       </c>
       <c r="T294" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295">
@@ -19040,7 +19040,7 @@
         <v>23.765625</v>
       </c>
       <c r="T295" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="296">
@@ -19168,7 +19168,7 @@
         <v>102.6875</v>
       </c>
       <c r="T297" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="298">
@@ -19230,7 +19230,7 @@
         <v>29.578125</v>
       </c>
       <c r="T298" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="299">
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="T299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -19534,7 +19534,7 @@
         <v>29.84375</v>
       </c>
       <c r="T303" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="304">
@@ -19598,7 +19598,7 @@
         <v>104.5</v>
       </c>
       <c r="T304" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="305">
@@ -19662,7 +19662,7 @@
         <v>58.09375</v>
       </c>
       <c r="T305" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="306">
@@ -19726,7 +19726,7 @@
         <v>695</v>
       </c>
       <c r="T306" t="n">
-        <v>1040</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="307">
@@ -19790,7 +19790,7 @@
         <v>276</v>
       </c>
       <c r="T307" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="308">
@@ -19854,7 +19854,7 @@
         <v>931</v>
       </c>
       <c r="T308" t="n">
-        <v>1031</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="309">
@@ -19918,7 +19918,7 @@
         <v>145</v>
       </c>
       <c r="T309" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="310">
@@ -19982,7 +19982,7 @@
         <v>2452</v>
       </c>
       <c r="T310" t="n">
-        <v>2400</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="311">
@@ -20046,7 +20046,7 @@
         <v>703.5</v>
       </c>
       <c r="T311" t="n">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312">
@@ -20110,7 +20110,7 @@
         <v>5460</v>
       </c>
       <c r="T312" t="n">
-        <v>4639</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="313">
@@ -20174,7 +20174,7 @@
         <v>1069</v>
       </c>
       <c r="T313" t="n">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="314">
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="T314" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="315">
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
       <c r="T315" t="n">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="316">
@@ -20358,7 +20358,7 @@
         <v>190</v>
       </c>
       <c r="T316" t="n">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="317">
@@ -20422,7 +20422,7 @@
         <v>633</v>
       </c>
       <c r="T317" t="n">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="318">
@@ -20482,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="T318" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="319">
@@ -20544,7 +20544,7 @@
         <v>103.4375</v>
       </c>
       <c r="T319" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="320">
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="T322" t="n">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="323">
@@ -20796,7 +20796,7 @@
         <v>115</v>
       </c>
       <c r="T323" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="324">
@@ -20860,7 +20860,7 @@
         <v>487.75</v>
       </c>
       <c r="T324" t="n">
-        <v>565</v>
+        <v>542</v>
       </c>
     </row>
     <row r="325">
@@ -20924,7 +20924,7 @@
         <v>114.5</v>
       </c>
       <c r="T325" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="326">
@@ -20988,7 +20988,7 @@
         <v>2784</v>
       </c>
       <c r="T326" t="n">
-        <v>2364</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="327">
@@ -21052,7 +21052,7 @@
         <v>661</v>
       </c>
       <c r="T327" t="n">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="328">
@@ -21244,7 +21244,7 @@
         <v>183.375</v>
       </c>
       <c r="T330" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="331">
@@ -21372,7 +21372,7 @@
         <v>81.1875</v>
       </c>
       <c r="T332" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="333">
@@ -21436,7 +21436,7 @@
         <v>873.5</v>
       </c>
       <c r="T333" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="334">
@@ -21564,7 +21564,7 @@
         <v>626</v>
       </c>
       <c r="T335" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="336">
@@ -21628,7 +21628,7 @@
         <v>17.234375</v>
       </c>
       <c r="T336" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="337">
@@ -21684,7 +21684,7 @@
         <v>0</v>
       </c>
       <c r="T337" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="338">
@@ -21738,7 +21738,7 @@
         <v>0</v>
       </c>
       <c r="T338" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="339">
@@ -21802,7 +21802,7 @@
         <v>90</v>
       </c>
       <c r="T339" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="340">
@@ -21930,7 +21930,7 @@
         <v>535.5</v>
       </c>
       <c r="T341" t="n">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="342">
@@ -21994,7 +21994,7 @@
         <v>767</v>
       </c>
       <c r="T342" t="n">
-        <v>989</v>
+        <v>992</v>
       </c>
     </row>
     <row r="343">
@@ -22056,7 +22056,7 @@
         <v>71</v>
       </c>
       <c r="T343" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="344">
@@ -22120,7 +22120,7 @@
         <v>3224</v>
       </c>
       <c r="T344" t="n">
-        <v>3086</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="345">
@@ -22184,7 +22184,7 @@
         <v>388</v>
       </c>
       <c r="T345" t="n">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="346">
@@ -22312,7 +22312,7 @@
         <v>101.5</v>
       </c>
       <c r="T347" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="348">
@@ -22376,7 +22376,7 @@
         <v>751</v>
       </c>
       <c r="T348" t="n">
-        <v>868</v>
+        <v>882</v>
       </c>
     </row>
     <row r="349">
@@ -22502,7 +22502,7 @@
         <v>2670</v>
       </c>
       <c r="T350" t="n">
-        <v>2898</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="351">
@@ -22566,7 +22566,7 @@
         <v>961.5</v>
       </c>
       <c r="T351" t="n">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="352">
@@ -22630,7 +22630,7 @@
         <v>11.984375</v>
       </c>
       <c r="T352" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353">
@@ -22694,7 +22694,7 @@
         <v>22.671875</v>
       </c>
       <c r="T353" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="354">
@@ -22758,7 +22758,7 @@
         <v>58.375</v>
       </c>
       <c r="T354" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355">
@@ -22884,7 +22884,7 @@
         <v>89.8125</v>
       </c>
       <c r="T356" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="357">
@@ -23006,7 +23006,7 @@
         <v>13.859375</v>
       </c>
       <c r="T358" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="359">
@@ -23070,7 +23070,7 @@
         <v>19.234375</v>
       </c>
       <c r="T359" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="360">
@@ -23134,7 +23134,7 @@
         <v>167.125</v>
       </c>
       <c r="T360" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="361">
@@ -23198,7 +23198,7 @@
         <v>26.9375</v>
       </c>
       <c r="T361" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="362">
@@ -23262,7 +23262,7 @@
         <v>495.75</v>
       </c>
       <c r="T362" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="363">
@@ -23326,7 +23326,7 @@
         <v>155</v>
       </c>
       <c r="T363" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="364">
@@ -23390,7 +23390,7 @@
         <v>10.4921875</v>
       </c>
       <c r="T364" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="365">
@@ -23454,7 +23454,7 @@
         <v>55.5625</v>
       </c>
       <c r="T365" t="n">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="366">
@@ -23516,7 +23516,7 @@
         <v>0</v>
       </c>
       <c r="T366" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="367">
@@ -23578,7 +23578,7 @@
         <v>43.71875</v>
       </c>
       <c r="T367" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="368">
@@ -23642,7 +23642,7 @@
         <v>763</v>
       </c>
       <c r="T368" t="n">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="369">
@@ -23770,7 +23770,7 @@
         <v>3532</v>
       </c>
       <c r="T370" t="n">
-        <v>3338</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="371">
@@ -23834,7 +23834,7 @@
         <v>155</v>
       </c>
       <c r="T371" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="372">
@@ -23898,7 +23898,7 @@
         <v>168.75</v>
       </c>
       <c r="T372" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="373">
@@ -24024,7 +24024,7 @@
         <v>109</v>
       </c>
       <c r="T374" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="375">
@@ -24088,7 +24088,7 @@
         <v>22</v>
       </c>
       <c r="T375" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="376">
@@ -24146,7 +24146,7 @@
         <v>0</v>
       </c>
       <c r="T376" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377">
@@ -24200,7 +24200,7 @@
         <v>0</v>
       </c>
       <c r="T377" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="378">
@@ -24264,7 +24264,7 @@
         <v>9.8671875</v>
       </c>
       <c r="T378" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379">
@@ -24392,7 +24392,7 @@
         <v>22</v>
       </c>
       <c r="T380" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381">
@@ -24456,7 +24456,7 @@
         <v>46</v>
       </c>
       <c r="T381" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="382">
@@ -24520,7 +24520,7 @@
         <v>26.1875</v>
       </c>
       <c r="T382" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="383">
@@ -24584,7 +24584,7 @@
         <v>254.375</v>
       </c>
       <c r="T383" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="384">
@@ -24646,7 +24646,7 @@
         <v>222.625</v>
       </c>
       <c r="T384" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="385">
@@ -24768,7 +24768,7 @@
         <v>10.3828125</v>
       </c>
       <c r="T386" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387">
@@ -24832,7 +24832,7 @@
         <v>52.84375</v>
       </c>
       <c r="T387" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="388">
@@ -24896,7 +24896,7 @@
         <v>85.1875</v>
       </c>
       <c r="T388" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="389">
@@ -24960,7 +24960,7 @@
         <v>222.125</v>
       </c>
       <c r="T389" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="390">
@@ -25024,7 +25024,7 @@
         <v>233</v>
       </c>
       <c r="T390" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="391">
@@ -25088,7 +25088,7 @@
         <v>1380</v>
       </c>
       <c r="T391" t="n">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="392">
@@ -25152,7 +25152,7 @@
         <v>402.5</v>
       </c>
       <c r="T392" t="n">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="393">
@@ -25216,7 +25216,7 @@
         <v>1015</v>
       </c>
       <c r="T393" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="394">
@@ -25344,7 +25344,7 @@
         <v>3360</v>
       </c>
       <c r="T395" t="n">
-        <v>2358</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="396">
@@ -25408,7 +25408,7 @@
         <v>688.5</v>
       </c>
       <c r="T396" t="n">
-        <v>496</v>
+        <v>468</v>
       </c>
     </row>
     <row r="397">
@@ -25472,7 +25472,7 @@
         <v>7260</v>
       </c>
       <c r="T397" t="n">
-        <v>5311</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="398">
@@ -25536,7 +25536,7 @@
         <v>1201</v>
       </c>
       <c r="T398" t="n">
-        <v>1080</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="399">
@@ -25660,7 +25660,7 @@
         <v>107.9375</v>
       </c>
       <c r="T400" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="401">
@@ -25724,7 +25724,7 @@
         <v>345.75</v>
       </c>
       <c r="T401" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="402">
@@ -25788,7 +25788,7 @@
         <v>1184</v>
       </c>
       <c r="T402" t="n">
-        <v>1125</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="403">
@@ -25850,7 +25850,7 @@
         <v>123.25</v>
       </c>
       <c r="T403" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="404">
@@ -25914,7 +25914,7 @@
         <v>109.375</v>
       </c>
       <c r="T404" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="405">
@@ -25976,7 +25976,7 @@
         <v>22.046875</v>
       </c>
       <c r="T405" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="406">
@@ -26040,7 +26040,7 @@
         <v>678.5</v>
       </c>
       <c r="T406" t="n">
-        <v>547</v>
+        <v>530</v>
       </c>
     </row>
     <row r="407">
@@ -26102,7 +26102,7 @@
         <v>532.5</v>
       </c>
       <c r="T407" t="n">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="408">
@@ -26166,7 +26166,7 @@
         <v>126.5</v>
       </c>
       <c r="T408" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="409">
@@ -26230,7 +26230,7 @@
         <v>666</v>
       </c>
       <c r="T409" t="n">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="410">
@@ -26294,7 +26294,7 @@
         <v>112.75</v>
       </c>
       <c r="T410" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="411">
@@ -26358,7 +26358,7 @@
         <v>4712</v>
       </c>
       <c r="T411" t="n">
-        <v>2933</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="412">
@@ -26422,7 +26422,7 @@
         <v>770</v>
       </c>
       <c r="T412" t="n">
-        <v>473</v>
+        <v>435</v>
       </c>
     </row>
     <row r="413">
@@ -26548,7 +26548,7 @@
         <v>38.78125</v>
       </c>
       <c r="T414" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="415">
@@ -26612,7 +26612,7 @@
         <v>348</v>
       </c>
       <c r="T415" t="n">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="416">
@@ -26676,7 +26676,7 @@
         <v>195.875</v>
       </c>
       <c r="T416" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="417">
@@ -26740,7 +26740,7 @@
         <v>86.1875</v>
       </c>
       <c r="T417" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="418">
@@ -26804,7 +26804,7 @@
         <v>863</v>
       </c>
       <c r="T418" t="n">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="419">
@@ -26868,7 +26868,7 @@
         <v>122</v>
       </c>
       <c r="T419" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="420">
@@ -26932,7 +26932,7 @@
         <v>615</v>
       </c>
       <c r="T420" t="n">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="421">
@@ -26996,7 +26996,7 @@
         <v>19.953125</v>
       </c>
       <c r="T421" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="422">
@@ -27118,7 +27118,7 @@
         <v>492</v>
       </c>
       <c r="T423" t="n">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="424">
@@ -27246,7 +27246,7 @@
         <v>505.75</v>
       </c>
       <c r="T425" t="n">
-        <v>513</v>
+        <v>491</v>
       </c>
     </row>
     <row r="426">
@@ -27310,7 +27310,7 @@
         <v>872.5</v>
       </c>
       <c r="T426" t="n">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="427">
@@ -27372,7 +27372,7 @@
         <v>69</v>
       </c>
       <c r="T427" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="428">
@@ -27436,7 +27436,7 @@
         <v>4108</v>
       </c>
       <c r="T428" t="n">
-        <v>3104</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="429">
@@ -27500,7 +27500,7 @@
         <v>413.75</v>
       </c>
       <c r="T429" t="n">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="430">
@@ -27564,7 +27564,7 @@
         <v>135.375</v>
       </c>
       <c r="T430" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="431">
@@ -27628,7 +27628,7 @@
         <v>68.5</v>
       </c>
       <c r="T431" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="432">
@@ -27692,7 +27692,7 @@
         <v>834.5</v>
       </c>
       <c r="T432" t="n">
-        <v>874</v>
+        <v>861</v>
       </c>
     </row>
     <row r="433">
@@ -27754,7 +27754,7 @@
         <v>88</v>
       </c>
       <c r="T433" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="434">
@@ -27818,7 +27818,7 @@
         <v>4680</v>
       </c>
       <c r="T434" t="n">
-        <v>3501</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="435">
@@ -27882,7 +27882,7 @@
         <v>1061</v>
       </c>
       <c r="T435" t="n">
-        <v>1021</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="436">
@@ -28010,7 +28010,7 @@
         <v>17.90625</v>
       </c>
       <c r="T437" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="438">
@@ -28074,7 +28074,7 @@
         <v>79.75</v>
       </c>
       <c r="T438" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="439">
@@ -28138,7 +28138,7 @@
         <v>44.59375</v>
       </c>
       <c r="T439" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="440">
@@ -28200,7 +28200,7 @@
         <v>276.5</v>
       </c>
       <c r="T440" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="441">
@@ -28258,7 +28258,7 @@
         <v>160</v>
       </c>
       <c r="T441" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="442">
@@ -28312,7 +28312,7 @@
         <v>0</v>
       </c>
       <c r="T442" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="443">
@@ -28376,7 +28376,7 @@
         <v>24.84375</v>
       </c>
       <c r="T443" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="444">
@@ -28440,7 +28440,7 @@
         <v>87.125</v>
       </c>
       <c r="T444" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="445">
@@ -28500,7 +28500,7 @@
         <v>26.734375</v>
       </c>
       <c r="T445" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="446">
@@ -28564,7 +28564,7 @@
         <v>218.75</v>
       </c>
       <c r="T446" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="447">
@@ -28692,7 +28692,7 @@
         <v>1019</v>
       </c>
       <c r="T448" t="n">
-        <v>657</v>
+        <v>639</v>
       </c>
     </row>
     <row r="449">
@@ -28756,7 +28756,7 @@
         <v>182</v>
       </c>
       <c r="T449" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="450">
@@ -28820,7 +28820,7 @@
         <v>38.125</v>
       </c>
       <c r="T450" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451">
@@ -28884,7 +28884,7 @@
         <v>154.375</v>
       </c>
       <c r="T451" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="452">
@@ -28946,7 +28946,7 @@
         <v>352</v>
       </c>
       <c r="T452" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="453">
@@ -29010,7 +29010,7 @@
         <v>56.03125</v>
       </c>
       <c r="T453" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="454">
@@ -29074,7 +29074,7 @@
         <v>1139</v>
       </c>
       <c r="T454" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="455">
@@ -29136,7 +29136,7 @@
         <v>34</v>
       </c>
       <c r="T455" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="456">
@@ -29200,7 +29200,7 @@
         <v>5632</v>
       </c>
       <c r="T456" t="n">
-        <v>4038</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="457">
@@ -29264,7 +29264,7 @@
         <v>168</v>
       </c>
       <c r="T457" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="458">
@@ -29328,7 +29328,7 @@
         <v>180.125</v>
       </c>
       <c r="T458" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="459">
@@ -29390,7 +29390,7 @@
         <v>57.15625</v>
       </c>
       <c r="T459" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="460">
@@ -29452,7 +29452,7 @@
         <v>112</v>
       </c>
       <c r="T460" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="461">
@@ -29516,7 +29516,7 @@
         <v>23</v>
       </c>
       <c r="T461" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="462">
@@ -29638,7 +29638,7 @@
         <v>23.015625</v>
       </c>
       <c r="T463" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="464">
@@ -29766,7 +29766,7 @@
         <v>23</v>
       </c>
       <c r="T465" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466">
@@ -29830,7 +29830,7 @@
         <v>93.75</v>
       </c>
       <c r="T466" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="467">
@@ -29894,7 +29894,7 @@
         <v>38.90625</v>
       </c>
       <c r="T467" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="468">
@@ -29958,7 +29958,7 @@
         <v>502.5</v>
       </c>
       <c r="T468" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="469">
@@ -30020,7 +30020,7 @@
         <v>306</v>
       </c>
       <c r="T469" t="n">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="470">
@@ -30134,7 +30134,7 @@
         <v>0</v>
       </c>
       <c r="T471" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472">
@@ -30198,7 +30198,7 @@
         <v>30.4375</v>
       </c>
       <c r="T472" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473">
@@ -30262,7 +30262,7 @@
         <v>57.6875</v>
       </c>
       <c r="T473" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="474">
@@ -30326,7 +30326,7 @@
         <v>95</v>
       </c>
       <c r="T474" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="475">
@@ -30390,7 +30390,7 @@
         <v>225.375</v>
       </c>
       <c r="T475" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="476">
@@ -30454,7 +30454,7 @@
         <v>288</v>
       </c>
       <c r="T476" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="477">
@@ -30492,7 +30492,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J477" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr"/>
@@ -30518,7 +30518,7 @@
         <v>2418</v>
       </c>
       <c r="T477" t="n">
-        <v>1511</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="478">
@@ -30556,7 +30556,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J478" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr"/>
@@ -30582,7 +30582,7 @@
         <v>287</v>
       </c>
       <c r="T478" t="n">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="479">
@@ -30620,7 +30620,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr"/>
@@ -30646,7 +30646,7 @@
         <v>971.5</v>
       </c>
       <c r="T479" t="n">
-        <v>859</v>
+        <v>916</v>
       </c>
     </row>
     <row r="480">
@@ -30684,7 +30684,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr"/>
@@ -30710,7 +30710,7 @@
         <v>145</v>
       </c>
       <c r="T480" t="n">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="481">
@@ -30748,7 +30748,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J481" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr"/>
@@ -30774,7 +30774,7 @@
         <v>3492</v>
       </c>
       <c r="T481" t="n">
-        <v>1849</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="482">
@@ -30812,7 +30812,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J482" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr"/>
@@ -30838,7 +30838,7 @@
         <v>729</v>
       </c>
       <c r="T482" t="n">
-        <v>503</v>
+        <v>549</v>
       </c>
     </row>
     <row r="483">
@@ -30876,7 +30876,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr"/>
@@ -30902,7 +30902,7 @@
         <v>8108</v>
       </c>
       <c r="T483" t="n">
-        <v>6868</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="484">
@@ -30940,7 +30940,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J484" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr"/>
@@ -30966,7 +30966,7 @@
         <v>1168</v>
       </c>
       <c r="T484" t="n">
-        <v>1080</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="485">
@@ -31004,7 +31004,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr"/>
@@ -31030,7 +31030,7 @@
         <v>191.375</v>
       </c>
       <c r="T485" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="486">
@@ -31068,7 +31068,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr"/>
@@ -31084,7 +31084,7 @@
         <v>0</v>
       </c>
       <c r="T486" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="487">
@@ -31122,7 +31122,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J487" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr"/>
@@ -31148,7 +31148,7 @@
         <v>360.75</v>
       </c>
       <c r="T487" t="n">
-        <v>263</v>
+        <v>297</v>
       </c>
     </row>
     <row r="488">
@@ -31186,7 +31186,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J488" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr"/>
@@ -31212,7 +31212,7 @@
         <v>2033</v>
       </c>
       <c r="T488" t="n">
-        <v>1115</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="489">
@@ -31250,7 +31250,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr"/>
@@ -31276,7 +31276,7 @@
         <v>228.875</v>
       </c>
       <c r="T489" t="n">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="490">
@@ -31314,7 +31314,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr"/>
@@ -31338,7 +31338,7 @@
         <v>131.875</v>
       </c>
       <c r="T490" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="491">
@@ -31376,7 +31376,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr"/>
@@ -31400,7 +31400,7 @@
         <v>28.53125</v>
       </c>
       <c r="T491" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492">
@@ -31438,7 +31438,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr"/>
@@ -31464,7 +31464,7 @@
         <v>775.5</v>
       </c>
       <c r="T492" t="n">
-        <v>550</v>
+        <v>640</v>
       </c>
     </row>
     <row r="493">
@@ -31502,7 +31502,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J493" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr"/>
@@ -31528,7 +31528,7 @@
         <v>814</v>
       </c>
       <c r="T493" t="n">
-        <v>465</v>
+        <v>490</v>
       </c>
     </row>
     <row r="494">
@@ -31566,7 +31566,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J494" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr"/>
@@ -31592,7 +31592,7 @@
         <v>119.5625</v>
       </c>
       <c r="T494" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="495">
@@ -31630,7 +31630,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr"/>
@@ -31656,7 +31656,7 @@
         <v>731</v>
       </c>
       <c r="T495" t="n">
-        <v>501</v>
+        <v>591</v>
       </c>
     </row>
     <row r="496">
@@ -31694,7 +31694,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J496" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr"/>
@@ -31720,7 +31720,7 @@
         <v>119.0625</v>
       </c>
       <c r="T496" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="497">
@@ -31758,7 +31758,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr"/>
@@ -31784,7 +31784,7 @@
         <v>5784</v>
       </c>
       <c r="T497" t="n">
-        <v>2617</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="498">
@@ -31822,7 +31822,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr"/>
@@ -31848,7 +31848,7 @@
         <v>686.5</v>
       </c>
       <c r="T498" t="n">
-        <v>501</v>
+        <v>637</v>
       </c>
     </row>
     <row r="499">
@@ -31886,7 +31886,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr"/>
@@ -31912,7 +31912,7 @@
         <v>206.875</v>
       </c>
       <c r="T499" t="n">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="500">
@@ -31950,7 +31950,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J500" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr"/>
@@ -31974,7 +31974,7 @@
         <v>35.09375</v>
       </c>
       <c r="T500" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="501">
@@ -32012,7 +32012,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J501" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr"/>
@@ -32038,7 +32038,7 @@
         <v>451.5</v>
       </c>
       <c r="T501" t="n">
-        <v>387</v>
+        <v>441</v>
       </c>
     </row>
     <row r="502">
@@ -32076,7 +32076,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr"/>
@@ -32102,7 +32102,7 @@
         <v>197.375</v>
       </c>
       <c r="T502" t="n">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="503">
@@ -32140,7 +32140,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr"/>
@@ -32156,7 +32156,7 @@
         <v>0</v>
       </c>
       <c r="T503" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="504">
@@ -32194,7 +32194,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J504" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr"/>
@@ -32220,7 +32220,7 @@
         <v>84.4375</v>
       </c>
       <c r="T504" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="505">
@@ -32258,7 +32258,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr"/>
@@ -32284,7 +32284,7 @@
         <v>908</v>
       </c>
       <c r="T505" t="n">
-        <v>500</v>
+        <v>728</v>
       </c>
     </row>
     <row r="506">
@@ -32322,7 +32322,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J506" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr"/>
@@ -32348,7 +32348,7 @@
         <v>113</v>
       </c>
       <c r="T506" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="507">
@@ -32386,7 +32386,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J507" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr"/>
@@ -32412,7 +32412,7 @@
         <v>638</v>
       </c>
       <c r="T507" t="n">
-        <v>320</v>
+        <v>397</v>
       </c>
     </row>
     <row r="508">
@@ -32450,7 +32450,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr"/>
@@ -32476,7 +32476,7 @@
         <v>24.859375</v>
       </c>
       <c r="T508" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="509">
@@ -32514,7 +32514,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J509" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr"/>
@@ -32540,7 +32540,7 @@
         <v>687.5</v>
       </c>
       <c r="T509" t="n">
-        <v>544</v>
+        <v>589</v>
       </c>
     </row>
     <row r="510">
@@ -32578,7 +32578,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr"/>
@@ -32604,7 +32604,7 @@
         <v>32.0625</v>
       </c>
       <c r="T510" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="511">
@@ -32642,7 +32642,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr"/>
@@ -32668,7 +32668,7 @@
         <v>552.5</v>
       </c>
       <c r="T511" t="n">
-        <v>407</v>
+        <v>441</v>
       </c>
     </row>
     <row r="512">
@@ -32706,7 +32706,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J512" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr"/>
@@ -32732,7 +32732,7 @@
         <v>980</v>
       </c>
       <c r="T512" t="n">
-        <v>858</v>
+        <v>921</v>
       </c>
     </row>
     <row r="513">
@@ -32770,7 +32770,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J513" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr"/>
@@ -32794,7 +32794,7 @@
         <v>66</v>
       </c>
       <c r="T513" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="514">
@@ -32832,7 +32832,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J514" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr"/>
@@ -32858,7 +32858,7 @@
         <v>4840</v>
       </c>
       <c r="T514" t="n">
-        <v>2478</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="515">
@@ -32896,7 +32896,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr"/>
@@ -32922,7 +32922,7 @@
         <v>374.25</v>
       </c>
       <c r="T515" t="n">
-        <v>373</v>
+        <v>434</v>
       </c>
     </row>
     <row r="516">
@@ -32960,7 +32960,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr"/>
@@ -32986,7 +32986,7 @@
         <v>195.5</v>
       </c>
       <c r="T516" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="517">
@@ -33024,7 +33024,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J517" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr"/>
@@ -33050,7 +33050,7 @@
         <v>105.5</v>
       </c>
       <c r="T517" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="518">
@@ -33088,7 +33088,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr"/>
@@ -33114,7 +33114,7 @@
         <v>912</v>
       </c>
       <c r="T518" t="n">
-        <v>775</v>
+        <v>846</v>
       </c>
     </row>
     <row r="519">
@@ -33152,7 +33152,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J519" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr"/>
@@ -33176,7 +33176,7 @@
         <v>109</v>
       </c>
       <c r="T519" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="520">
@@ -33214,7 +33214,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J520" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr"/>
@@ -33240,7 +33240,7 @@
         <v>5432</v>
       </c>
       <c r="T520" t="n">
-        <v>2716</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="521">
@@ -33278,7 +33278,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J521" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
@@ -33304,7 +33304,7 @@
         <v>1104</v>
       </c>
       <c r="T521" t="n">
-        <v>878</v>
+        <v>941</v>
       </c>
     </row>
     <row r="522">
@@ -33342,7 +33342,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr"/>
@@ -33368,7 +33368,7 @@
         <v>48.34375</v>
       </c>
       <c r="T522" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="523">
@@ -33406,7 +33406,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr"/>
@@ -33432,7 +33432,7 @@
         <v>23.5625</v>
       </c>
       <c r="T523" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="524">
@@ -33470,7 +33470,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J524" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
@@ -33496,7 +33496,7 @@
         <v>264.75</v>
       </c>
       <c r="T524" t="n">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="525">
@@ -33534,7 +33534,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J525" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr"/>
@@ -33560,7 +33560,7 @@
         <v>46.59375</v>
       </c>
       <c r="T525" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="526">
@@ -33598,7 +33598,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J526" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr"/>
@@ -33622,7 +33622,7 @@
         <v>331.75</v>
       </c>
       <c r="T526" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="527">
@@ -33660,7 +33660,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J527" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
@@ -33680,7 +33680,7 @@
         <v>170</v>
       </c>
       <c r="T527" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="528">
@@ -33718,7 +33718,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr"/>
@@ -33734,7 +33734,7 @@
         <v>0</v>
       </c>
       <c r="T528" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="529">
@@ -33772,7 +33772,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr"/>
@@ -33790,7 +33790,7 @@
         <v>200</v>
       </c>
       <c r="T529" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="530">
@@ -33828,7 +33828,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr"/>
@@ -33854,7 +33854,7 @@
         <v>25.421875</v>
       </c>
       <c r="T530" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="531">
@@ -33892,7 +33892,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J531" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr"/>
@@ -33918,7 +33918,7 @@
         <v>122.9375</v>
       </c>
       <c r="T531" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="532">
@@ -33956,7 +33956,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J532" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr"/>
@@ -33976,7 +33976,7 @@
         <v>17.0625</v>
       </c>
       <c r="T532" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="533">
@@ -34014,7 +34014,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J533" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr"/>
@@ -34040,7 +34040,7 @@
         <v>238.625</v>
       </c>
       <c r="T533" t="n">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="534">
@@ -34078,7 +34078,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J534" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr"/>
@@ -34104,7 +34104,7 @@
         <v>28</v>
       </c>
       <c r="T534" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="535">
@@ -34142,7 +34142,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr"/>
@@ -34168,7 +34168,7 @@
         <v>1287</v>
       </c>
       <c r="T535" t="n">
-        <v>464</v>
+        <v>680</v>
       </c>
     </row>
     <row r="536">
@@ -34206,7 +34206,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J536" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr"/>
@@ -34232,7 +34232,7 @@
         <v>199</v>
       </c>
       <c r="T536" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="537">
@@ -34270,7 +34270,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J537" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr"/>
@@ -34296,7 +34296,7 @@
         <v>39.65625</v>
       </c>
       <c r="T537" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="538">
@@ -34334,7 +34334,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr"/>
@@ -34360,7 +34360,7 @@
         <v>238.25</v>
       </c>
       <c r="T538" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="539">
@@ -34398,7 +34398,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr"/>
@@ -34420,7 +34420,7 @@
         <v>0</v>
       </c>
       <c r="T539" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="540">
@@ -34458,7 +34458,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J540" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr"/>
@@ -34482,7 +34482,7 @@
         <v>626.5</v>
       </c>
       <c r="T540" t="n">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="541">
@@ -34520,7 +34520,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J541" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr"/>
@@ -34546,7 +34546,7 @@
         <v>45.46875</v>
       </c>
       <c r="T541" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="542">
@@ -34584,7 +34584,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J542" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr"/>
@@ -34600,7 +34600,7 @@
         <v>0</v>
       </c>
       <c r="T542" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="543">
@@ -34638,7 +34638,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J543" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr"/>
@@ -34664,7 +34664,7 @@
         <v>1240</v>
       </c>
       <c r="T543" t="n">
-        <v>966</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="544">
@@ -34702,7 +34702,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J544" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr"/>
@@ -34726,7 +34726,7 @@
         <v>30.125</v>
       </c>
       <c r="T544" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="545">
@@ -34764,7 +34764,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J545" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr"/>
@@ -34790,7 +34790,7 @@
         <v>7472</v>
       </c>
       <c r="T545" t="n">
-        <v>3377</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="546">
@@ -34828,7 +34828,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J546" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr"/>
@@ -34854,7 +34854,7 @@
         <v>181</v>
       </c>
       <c r="T546" t="n">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="547">
@@ -34892,7 +34892,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J547" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr"/>
@@ -34918,7 +34918,7 @@
         <v>175.5</v>
       </c>
       <c r="T547" t="n">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="548">
@@ -34956,7 +34956,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr"/>
@@ -34980,7 +34980,7 @@
         <v>55.6875</v>
       </c>
       <c r="T548" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="549">
@@ -35018,7 +35018,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J549" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr"/>
@@ -35044,7 +35044,7 @@
         <v>121</v>
       </c>
       <c r="T549" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="550">
@@ -35082,7 +35082,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J550" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr"/>
@@ -35108,7 +35108,7 @@
         <v>24</v>
       </c>
       <c r="T550" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="551">
@@ -35146,7 +35146,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J551" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr"/>
@@ -35162,7 +35162,7 @@
         <v>0</v>
       </c>
       <c r="T551" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="552">
@@ -35200,7 +35200,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J552" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr"/>
@@ -35258,7 +35258,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J553" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr"/>
@@ -35284,7 +35284,7 @@
         <v>25.578125</v>
       </c>
       <c r="T553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554">
@@ -35322,7 +35322,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J554" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr"/>
@@ -35386,7 +35386,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J555" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr"/>
@@ -35412,7 +35412,7 @@
         <v>11</v>
       </c>
       <c r="T555" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="556">
@@ -35450,7 +35450,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J556" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr"/>
@@ -35476,7 +35476,7 @@
         <v>138.875</v>
       </c>
       <c r="T556" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="557">
@@ -35514,7 +35514,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J557" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr"/>
@@ -35540,7 +35540,7 @@
         <v>27.234375</v>
       </c>
       <c r="T557" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="558">
@@ -35578,7 +35578,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J558" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr"/>
@@ -35604,7 +35604,7 @@
         <v>814.5</v>
       </c>
       <c r="T558" t="n">
-        <v>482</v>
+        <v>641</v>
       </c>
     </row>
     <row r="559">
@@ -35642,7 +35642,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr"/>
@@ -35666,7 +35666,7 @@
         <v>402.75</v>
       </c>
       <c r="T559" t="n">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="560">
@@ -35704,7 +35704,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J560" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr"/>
@@ -35762,7 +35762,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J561" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr"/>
@@ -35782,7 +35782,7 @@
         <v>0</v>
       </c>
       <c r="T561" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="562">
@@ -35820,7 +35820,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr"/>
@@ -35846,7 +35846,7 @@
         <v>32.34375</v>
       </c>
       <c r="T562" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="563">
@@ -35884,7 +35884,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr"/>
@@ -35910,7 +35910,7 @@
         <v>104.6875</v>
       </c>
       <c r="T563" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="564">
@@ -35948,7 +35948,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J564" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr"/>
@@ -35974,7 +35974,7 @@
         <v>160.625</v>
       </c>
       <c r="T564" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="565">
@@ -36012,7 +36012,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J565" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr"/>
@@ -36038,7 +36038,7 @@
         <v>480</v>
       </c>
       <c r="T565" t="n">
-        <v>254</v>
+        <v>293</v>
       </c>
     </row>
     <row r="566">
@@ -36076,7 +36076,7 @@
         <v>5.00390625</v>
       </c>
       <c r="J566" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr"/>
@@ -36102,7 +36102,7 @@
         <v>285</v>
       </c>
       <c r="T566" t="n">
-        <v>222</v>
+        <v>254</v>
       </c>
     </row>
     <row r="567">
@@ -36140,7 +36140,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J567" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr"/>
@@ -36166,7 +36166,7 @@
         <v>2650</v>
       </c>
       <c r="T567" t="n">
-        <v>1835</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="568">
@@ -36204,7 +36204,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J568" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr"/>
@@ -36230,7 +36230,7 @@
         <v>431.75</v>
       </c>
       <c r="T568" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="569">
@@ -36268,7 +36268,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J569" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr"/>
@@ -36294,7 +36294,7 @@
         <v>849</v>
       </c>
       <c r="T569" t="n">
-        <v>1090</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="570">
@@ -36332,7 +36332,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J570" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr"/>
@@ -36358,7 +36358,7 @@
         <v>145</v>
       </c>
       <c r="T570" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="571">
@@ -36396,7 +36396,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J571" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr"/>
@@ -36422,7 +36422,7 @@
         <v>3226</v>
       </c>
       <c r="T571" t="n">
-        <v>2630</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="572">
@@ -36460,7 +36460,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J572" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr"/>
@@ -36486,7 +36486,7 @@
         <v>734</v>
       </c>
       <c r="T572" t="n">
-        <v>604</v>
+        <v>637</v>
       </c>
     </row>
     <row r="573">
@@ -36524,7 +36524,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr"/>
@@ -36550,7 +36550,7 @@
         <v>8044</v>
       </c>
       <c r="T573" t="n">
-        <v>8411</v>
+        <v>8626</v>
       </c>
     </row>
     <row r="574">
@@ -36588,7 +36588,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J574" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr"/>
@@ -36614,7 +36614,7 @@
         <v>1195</v>
       </c>
       <c r="T574" t="n">
-        <v>1346</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="575">
@@ -36652,7 +36652,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr"/>
@@ -36678,7 +36678,7 @@
         <v>216.25</v>
       </c>
       <c r="T575" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="576">
@@ -36716,7 +36716,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr"/>
@@ -36734,7 +36734,7 @@
         <v>142.75</v>
       </c>
       <c r="T576" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="577">
@@ -36772,7 +36772,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J577" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr"/>
@@ -36798,7 +36798,7 @@
         <v>297.25</v>
       </c>
       <c r="T577" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="578">
@@ -36836,7 +36836,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J578" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr"/>
@@ -36862,7 +36862,7 @@
         <v>1762</v>
       </c>
       <c r="T578" t="n">
-        <v>1582</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="579">
@@ -36900,7 +36900,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J579" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr"/>
@@ -36926,7 +36926,7 @@
         <v>270.25</v>
       </c>
       <c r="T579" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="580">
@@ -36964,7 +36964,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J580" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr"/>
@@ -36990,7 +36990,7 @@
         <v>102.875</v>
       </c>
       <c r="T580" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="581">
@@ -37028,7 +37028,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J581" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr"/>
@@ -37052,7 +37052,7 @@
         <v>23.65625</v>
       </c>
       <c r="T581" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="582">
@@ -37090,7 +37090,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J582" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr"/>
@@ -37116,7 +37116,7 @@
         <v>638.5</v>
       </c>
       <c r="T582" t="n">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="583">
@@ -37154,7 +37154,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J583" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr"/>
@@ -37180,7 +37180,7 @@
         <v>879</v>
       </c>
       <c r="T583" t="n">
-        <v>552</v>
+        <v>509</v>
       </c>
     </row>
     <row r="584">
@@ -37218,7 +37218,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J584" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr"/>
@@ -37244,7 +37244,7 @@
         <v>135.625</v>
       </c>
       <c r="T584" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="585">
@@ -37282,7 +37282,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J585" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr"/>
@@ -37308,7 +37308,7 @@
         <v>593</v>
       </c>
       <c r="T585" t="n">
-        <v>669</v>
+        <v>658</v>
       </c>
     </row>
     <row r="586">
@@ -37346,7 +37346,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J586" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr"/>
@@ -37372,7 +37372,7 @@
         <v>120.9375</v>
       </c>
       <c r="T586" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="587">
@@ -37410,7 +37410,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr"/>
@@ -37436,7 +37436,7 @@
         <v>4996</v>
       </c>
       <c r="T587" t="n">
-        <v>3601</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="588">
@@ -37474,7 +37474,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J588" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr"/>
@@ -37500,7 +37500,7 @@
         <v>824.5</v>
       </c>
       <c r="T588" t="n">
-        <v>650</v>
+        <v>744</v>
       </c>
     </row>
     <row r="589">
@@ -37538,7 +37538,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J589" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr"/>
@@ -37564,7 +37564,7 @@
         <v>166.375</v>
       </c>
       <c r="T589" t="n">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="590">
@@ -37602,7 +37602,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J590" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr"/>
@@ -37626,7 +37626,7 @@
         <v>42.78125</v>
       </c>
       <c r="T590" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="591">
@@ -37664,7 +37664,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J591" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr"/>
@@ -37690,7 +37690,7 @@
         <v>374.25</v>
       </c>
       <c r="T591" t="n">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="592">
@@ -37728,7 +37728,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J592" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr"/>
@@ -37754,7 +37754,7 @@
         <v>210.125</v>
       </c>
       <c r="T592" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="593">
@@ -37792,7 +37792,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J593" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K593" t="inlineStr"/>
       <c r="L593" t="inlineStr"/>
@@ -37810,7 +37810,7 @@
         <v>0</v>
       </c>
       <c r="T593" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="594">
@@ -37848,7 +37848,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J594" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="inlineStr"/>
@@ -37912,7 +37912,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J595" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K595" t="inlineStr"/>
       <c r="L595" t="inlineStr"/>
@@ -37938,7 +37938,7 @@
         <v>925</v>
       </c>
       <c r="T595" t="n">
-        <v>897</v>
+        <v>913</v>
       </c>
     </row>
     <row r="596">
@@ -37976,7 +37976,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J596" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K596" t="inlineStr"/>
       <c r="L596" t="inlineStr"/>
@@ -38002,7 +38002,7 @@
         <v>108.25</v>
       </c>
       <c r="T596" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="597">
@@ -38040,7 +38040,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J597" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K597" t="inlineStr"/>
       <c r="L597" t="inlineStr"/>
@@ -38066,7 +38066,7 @@
         <v>605</v>
       </c>
       <c r="T597" t="n">
-        <v>500</v>
+        <v>471</v>
       </c>
     </row>
     <row r="598">
@@ -38104,7 +38104,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K598" t="inlineStr"/>
       <c r="L598" t="inlineStr"/>
@@ -38128,7 +38128,7 @@
         <v>28.453125</v>
       </c>
       <c r="T598" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="599">
@@ -38166,7 +38166,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K599" t="inlineStr"/>
       <c r="L599" t="inlineStr"/>
@@ -38192,7 +38192,7 @@
         <v>770</v>
       </c>
       <c r="T599" t="n">
-        <v>697</v>
+        <v>676</v>
       </c>
     </row>
     <row r="600">
@@ -38230,7 +38230,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K600" t="inlineStr"/>
       <c r="L600" t="inlineStr"/>
@@ -38256,7 +38256,7 @@
         <v>22.328125</v>
       </c>
       <c r="T600" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="601">
@@ -38294,7 +38294,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="inlineStr"/>
@@ -38320,7 +38320,7 @@
         <v>422.25</v>
       </c>
       <c r="T601" t="n">
-        <v>565</v>
+        <v>539</v>
       </c>
     </row>
     <row r="602">
@@ -38358,7 +38358,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J602" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K602" t="inlineStr"/>
       <c r="L602" t="inlineStr"/>
@@ -38374,7 +38374,7 @@
         <v>0</v>
       </c>
       <c r="T602" t="n">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="603">
@@ -38412,7 +38412,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J603" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K603" t="inlineStr"/>
       <c r="L603" t="inlineStr"/>
@@ -38438,7 +38438,7 @@
         <v>845.5</v>
       </c>
       <c r="T603" t="n">
-        <v>1117</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="604">
@@ -38476,7 +38476,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J604" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K604" t="inlineStr"/>
       <c r="L604" t="inlineStr"/>
@@ -38500,7 +38500,7 @@
         <v>62.375</v>
       </c>
       <c r="T604" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="605">
@@ -38538,7 +38538,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K605" t="inlineStr"/>
       <c r="L605" t="inlineStr"/>
@@ -38564,7 +38564,7 @@
         <v>4376</v>
       </c>
       <c r="T605" t="n">
-        <v>3474</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="606">
@@ -38602,7 +38602,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J606" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K606" t="inlineStr"/>
       <c r="L606" t="inlineStr"/>
@@ -38628,7 +38628,7 @@
         <v>443.75</v>
       </c>
       <c r="T606" t="n">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="607">
@@ -38666,7 +38666,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J607" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K607" t="inlineStr"/>
       <c r="L607" t="inlineStr"/>
@@ -38692,7 +38692,7 @@
         <v>250</v>
       </c>
       <c r="T607" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="608">
@@ -38730,7 +38730,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J608" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K608" t="inlineStr"/>
       <c r="L608" t="inlineStr"/>
@@ -38756,7 +38756,7 @@
         <v>73.5</v>
       </c>
       <c r="T608" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="609">
@@ -38794,7 +38794,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J609" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K609" t="inlineStr"/>
       <c r="L609" t="inlineStr"/>
@@ -38820,7 +38820,7 @@
         <v>792</v>
       </c>
       <c r="T609" t="n">
-        <v>1080</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="610">
@@ -38858,7 +38858,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K610" t="inlineStr"/>
       <c r="L610" t="inlineStr"/>
@@ -38882,7 +38882,7 @@
         <v>104</v>
       </c>
       <c r="T610" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="611">
@@ -38920,7 +38920,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J611" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K611" t="inlineStr"/>
       <c r="L611" t="inlineStr"/>
@@ -38946,7 +38946,7 @@
         <v>5044</v>
       </c>
       <c r="T611" t="n">
-        <v>4291</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="612">
@@ -38984,7 +38984,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J612" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K612" t="inlineStr"/>
       <c r="L612" t="inlineStr"/>
@@ -39010,7 +39010,7 @@
         <v>1138</v>
       </c>
       <c r="T612" t="n">
-        <v>1316</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="613">
@@ -39048,7 +39048,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J613" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="inlineStr"/>
@@ -39074,7 +39074,7 @@
         <v>53.875</v>
       </c>
       <c r="T613" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="614">
@@ -39112,7 +39112,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J614" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K614" t="inlineStr"/>
       <c r="L614" t="inlineStr"/>
@@ -39176,7 +39176,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J615" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K615" t="inlineStr"/>
       <c r="L615" t="inlineStr"/>
@@ -39202,7 +39202,7 @@
         <v>499.75</v>
       </c>
       <c r="T615" t="n">
-        <v>269</v>
+        <v>241</v>
       </c>
     </row>
     <row r="616">
@@ -39240,7 +39240,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J616" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K616" t="inlineStr"/>
       <c r="L616" t="inlineStr"/>
@@ -39266,7 +39266,7 @@
         <v>59.5625</v>
       </c>
       <c r="T616" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="617">
@@ -39304,7 +39304,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J617" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K617" t="inlineStr"/>
       <c r="L617" t="inlineStr"/>
@@ -39328,7 +39328,7 @@
         <v>342.5</v>
       </c>
       <c r="T617" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="618">
@@ -39366,7 +39366,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J618" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K618" t="inlineStr"/>
       <c r="L618" t="inlineStr"/>
@@ -39386,7 +39386,7 @@
         <v>0</v>
       </c>
       <c r="T618" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="619">
@@ -39424,7 +39424,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="inlineStr"/>
@@ -39444,7 +39444,7 @@
         <v>200</v>
       </c>
       <c r="T619" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="620">
@@ -39482,7 +39482,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J620" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K620" t="inlineStr"/>
       <c r="L620" t="inlineStr"/>
@@ -39508,7 +39508,7 @@
         <v>19.5</v>
       </c>
       <c r="T620" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="621">
@@ -39546,7 +39546,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J621" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K621" t="inlineStr"/>
       <c r="L621" t="inlineStr"/>
@@ -39572,7 +39572,7 @@
         <v>116.875</v>
       </c>
       <c r="T621" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="622">
@@ -39610,7 +39610,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J622" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K622" t="inlineStr"/>
       <c r="L622" t="inlineStr"/>
@@ -39634,7 +39634,7 @@
         <v>28.671875</v>
       </c>
       <c r="T622" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="623">
@@ -39672,7 +39672,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J623" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K623" t="inlineStr"/>
       <c r="L623" t="inlineStr"/>
@@ -39698,7 +39698,7 @@
         <v>200.75</v>
       </c>
       <c r="T623" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="624">
@@ -39736,7 +39736,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J624" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K624" t="inlineStr"/>
       <c r="L624" t="inlineStr"/>
@@ -39762,7 +39762,7 @@
         <v>48.0625</v>
       </c>
       <c r="T624" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="625">
@@ -39800,7 +39800,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J625" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K625" t="inlineStr"/>
       <c r="L625" t="inlineStr"/>
@@ -39826,7 +39826,7 @@
         <v>1046</v>
       </c>
       <c r="T625" t="n">
-        <v>918</v>
+        <v>893</v>
       </c>
     </row>
     <row r="626">
@@ -39864,7 +39864,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J626" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K626" t="inlineStr"/>
       <c r="L626" t="inlineStr"/>
@@ -39890,7 +39890,7 @@
         <v>215</v>
       </c>
       <c r="T626" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="627">
@@ -39928,7 +39928,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J627" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K627" t="inlineStr"/>
       <c r="L627" t="inlineStr"/>
@@ -39954,7 +39954,7 @@
         <v>34.125</v>
       </c>
       <c r="T627" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="628">
@@ -39992,7 +39992,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J628" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K628" t="inlineStr"/>
       <c r="L628" t="inlineStr"/>
@@ -40018,7 +40018,7 @@
         <v>209.375</v>
       </c>
       <c r="T628" t="n">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="629">
@@ -40056,7 +40056,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J629" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K629" t="inlineStr"/>
       <c r="L629" t="inlineStr"/>
@@ -40080,7 +40080,7 @@
         <v>682</v>
       </c>
       <c r="T629" t="n">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="630">
@@ -40118,7 +40118,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J630" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K630" t="inlineStr"/>
       <c r="L630" t="inlineStr"/>
@@ -40144,7 +40144,7 @@
         <v>60.0625</v>
       </c>
       <c r="T630" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="631">
@@ -40182,7 +40182,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J631" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K631" t="inlineStr"/>
       <c r="L631" t="inlineStr"/>
@@ -40200,7 +40200,7 @@
         <v>142.75</v>
       </c>
       <c r="T631" t="n">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="632">
@@ -40238,7 +40238,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J632" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K632" t="inlineStr"/>
       <c r="L632" t="inlineStr"/>
@@ -40264,7 +40264,7 @@
         <v>1005</v>
       </c>
       <c r="T632" t="n">
-        <v>1286</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="633">
@@ -40302,7 +40302,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J633" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K633" t="inlineStr"/>
       <c r="L633" t="inlineStr"/>
@@ -40326,7 +40326,7 @@
         <v>35</v>
       </c>
       <c r="T633" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="634">
@@ -40364,7 +40364,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K634" t="inlineStr"/>
       <c r="L634" t="inlineStr"/>
@@ -40390,7 +40390,7 @@
         <v>6312</v>
       </c>
       <c r="T634" t="n">
-        <v>5114</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="635">
@@ -40428,7 +40428,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J635" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K635" t="inlineStr"/>
       <c r="L635" t="inlineStr"/>
@@ -40454,7 +40454,7 @@
         <v>199</v>
       </c>
       <c r="T635" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="636">
@@ -40492,7 +40492,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K636" t="inlineStr"/>
       <c r="L636" t="inlineStr"/>
@@ -40518,7 +40518,7 @@
         <v>193.25</v>
       </c>
       <c r="T636" t="n">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="637">
@@ -40556,7 +40556,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K637" t="inlineStr"/>
       <c r="L637" t="inlineStr"/>
@@ -40580,7 +40580,7 @@
         <v>61.28125</v>
       </c>
       <c r="T637" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="638">
@@ -40618,7 +40618,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J638" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K638" t="inlineStr"/>
       <c r="L638" t="inlineStr"/>
@@ -40644,7 +40644,7 @@
         <v>130</v>
       </c>
       <c r="T638" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="639">
@@ -40682,7 +40682,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J639" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K639" t="inlineStr"/>
       <c r="L639" t="inlineStr"/>
@@ -40746,7 +40746,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J640" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K640" t="inlineStr"/>
       <c r="L640" t="inlineStr"/>
@@ -40766,7 +40766,7 @@
         <v>0</v>
       </c>
       <c r="T640" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="641">
@@ -40804,7 +40804,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J641" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr"/>
@@ -40830,7 +40830,7 @@
         <v>19.265625</v>
       </c>
       <c r="T641" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="642">
@@ -40868,7 +40868,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J642" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr"/>
@@ -40894,7 +40894,7 @@
         <v>14.015625</v>
       </c>
       <c r="T642" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="643">
@@ -40932,7 +40932,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J643" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr"/>
@@ -40958,7 +40958,7 @@
         <v>11</v>
       </c>
       <c r="T643" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="644">
@@ -40996,7 +40996,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J644" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr"/>
@@ -41022,7 +41022,7 @@
         <v>119.625</v>
       </c>
       <c r="T644" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="645">
@@ -41060,7 +41060,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J645" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr"/>
@@ -41086,7 +41086,7 @@
         <v>41.71875</v>
       </c>
       <c r="T645" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="646">
@@ -41124,7 +41124,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr"/>
@@ -41150,7 +41150,7 @@
         <v>1044</v>
       </c>
       <c r="T646" t="n">
-        <v>855</v>
+        <v>907</v>
       </c>
     </row>
     <row r="647">
@@ -41188,7 +41188,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J647" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr"/>
@@ -41212,7 +41212,7 @@
         <v>391</v>
       </c>
       <c r="T647" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="648">
@@ -41250,7 +41250,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J648" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr"/>
@@ -41272,7 +41272,7 @@
         <v>180</v>
       </c>
       <c r="T648" t="n">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="649">
@@ -41310,7 +41310,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J649" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr"/>
@@ -41332,7 +41332,7 @@
         <v>0</v>
       </c>
       <c r="T649" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="650">
@@ -41370,7 +41370,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J650" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr"/>
@@ -41434,7 +41434,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J651" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr"/>
@@ -41460,7 +41460,7 @@
         <v>138.625</v>
       </c>
       <c r="T651" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="652">
@@ -41498,7 +41498,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J652" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr"/>
@@ -41524,7 +41524,7 @@
         <v>165.125</v>
       </c>
       <c r="T652" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="653">
@@ -41562,7 +41562,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J653" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="inlineStr"/>
@@ -41588,7 +41588,7 @@
         <v>451</v>
       </c>
       <c r="T653" t="n">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="654">
@@ -41626,7 +41626,7 @@
         <v>11.1484375</v>
       </c>
       <c r="J654" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K654" t="inlineStr"/>
       <c r="L654" t="inlineStr"/>
@@ -41652,7 +41652,7 @@
         <v>386</v>
       </c>
       <c r="T654" t="n">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="655">
@@ -41690,7 +41690,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J655" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K655" t="inlineStr"/>
       <c r="L655" t="inlineStr"/>
@@ -41716,7 +41716,7 @@
         <v>2674</v>
       </c>
       <c r="T655" t="n">
-        <v>2429</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="656">
@@ -41754,7 +41754,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J656" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="inlineStr"/>
@@ -41780,7 +41780,7 @@
         <v>374.5</v>
       </c>
       <c r="T656" t="n">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="657">
@@ -41818,7 +41818,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J657" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K657" t="inlineStr"/>
       <c r="L657" t="inlineStr"/>
@@ -41834,7 +41834,7 @@
         <v>1.349609375</v>
       </c>
       <c r="T657" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="658">
@@ -41872,7 +41872,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J658" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K658" t="inlineStr"/>
       <c r="L658" t="inlineStr"/>
@@ -41898,7 +41898,7 @@
         <v>848</v>
       </c>
       <c r="T658" t="n">
-        <v>1314</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="659">
@@ -41936,7 +41936,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J659" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K659" t="inlineStr"/>
       <c r="L659" t="inlineStr"/>
@@ -41962,7 +41962,7 @@
         <v>150</v>
       </c>
       <c r="T659" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="660">
@@ -42000,7 +42000,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J660" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K660" t="inlineStr"/>
       <c r="L660" t="inlineStr"/>
@@ -42026,7 +42026,7 @@
         <v>3806</v>
       </c>
       <c r="T660" t="n">
-        <v>3189</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="661">
@@ -42064,7 +42064,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J661" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="inlineStr"/>
@@ -42090,7 +42090,7 @@
         <v>584.5</v>
       </c>
       <c r="T661" t="n">
-        <v>620</v>
+        <v>653</v>
       </c>
     </row>
     <row r="662">
@@ -42128,7 +42128,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J662" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K662" t="inlineStr"/>
       <c r="L662" t="inlineStr"/>
@@ -42154,7 +42154,7 @@
         <v>9400</v>
       </c>
       <c r="T662" t="n">
-        <v>9522</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="663">
@@ -42192,7 +42192,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J663" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K663" t="inlineStr"/>
       <c r="L663" t="inlineStr"/>
@@ -42218,7 +42218,7 @@
         <v>1164</v>
       </c>
       <c r="T663" t="n">
-        <v>1549</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="664">
@@ -42256,7 +42256,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J664" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K664" t="inlineStr"/>
       <c r="L664" t="inlineStr"/>
@@ -42274,7 +42274,7 @@
         <v>0</v>
       </c>
       <c r="T664" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="665">
@@ -42312,7 +42312,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J665" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K665" t="inlineStr"/>
       <c r="L665" t="inlineStr"/>
@@ -42334,7 +42334,7 @@
         <v>0</v>
       </c>
       <c r="T665" t="n">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="666">
@@ -42372,7 +42372,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J666" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K666" t="inlineStr"/>
       <c r="L666" t="inlineStr"/>
@@ -42398,7 +42398,7 @@
         <v>286.25</v>
       </c>
       <c r="T666" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="667">
@@ -42436,7 +42436,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J667" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K667" t="inlineStr"/>
       <c r="L667" t="inlineStr"/>
@@ -42456,7 +42456,7 @@
         <v>135.125</v>
       </c>
       <c r="T667" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="668">
@@ -42494,7 +42494,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J668" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr"/>
@@ -42520,7 +42520,7 @@
         <v>345.75</v>
       </c>
       <c r="T668" t="n">
-        <v>407</v>
+        <v>372</v>
       </c>
     </row>
     <row r="669">
@@ -42558,7 +42558,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J669" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr"/>
@@ -42584,7 +42584,7 @@
         <v>1998</v>
       </c>
       <c r="T669" t="n">
-        <v>1934</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="670">
@@ -42622,7 +42622,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr"/>
@@ -42648,7 +42648,7 @@
         <v>215.75</v>
       </c>
       <c r="T670" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="671">
@@ -42686,7 +42686,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J671" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr"/>
@@ -42712,7 +42712,7 @@
         <v>99.6875</v>
       </c>
       <c r="T671" t="n">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="672">
@@ -42750,7 +42750,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J672" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr"/>
@@ -42774,7 +42774,7 @@
         <v>22.453125</v>
       </c>
       <c r="T672" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="673">
@@ -42812,7 +42812,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J673" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr"/>
@@ -42838,7 +42838,7 @@
         <v>694.5</v>
       </c>
       <c r="T673" t="n">
-        <v>921</v>
+        <v>890</v>
       </c>
     </row>
     <row r="674">
@@ -42876,7 +42876,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J674" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr"/>
@@ -42902,7 +42902,7 @@
         <v>957.5</v>
       </c>
       <c r="T674" t="n">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="675">
@@ -42940,7 +42940,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J675" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr"/>
@@ -42966,7 +42966,7 @@
         <v>121.6875</v>
       </c>
       <c r="T675" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="676">
@@ -43004,7 +43004,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J676" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr"/>
@@ -43030,7 +43030,7 @@
         <v>623.5</v>
       </c>
       <c r="T676" t="n">
-        <v>792</v>
+        <v>747</v>
       </c>
     </row>
     <row r="677">
@@ -43068,7 +43068,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J677" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K677" t="inlineStr"/>
       <c r="L677" t="inlineStr"/>
@@ -43094,7 +43094,7 @@
         <v>99.8125</v>
       </c>
       <c r="T677" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="678">
@@ -43132,7 +43132,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J678" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr"/>
@@ -43158,7 +43158,7 @@
         <v>6000</v>
       </c>
       <c r="T678" t="n">
-        <v>4500</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="679">
@@ -43196,7 +43196,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr"/>
@@ -43222,7 +43222,7 @@
         <v>634</v>
       </c>
       <c r="T679" t="n">
-        <v>886</v>
+        <v>854</v>
       </c>
     </row>
     <row r="680">
@@ -43260,7 +43260,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J680" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr"/>
@@ -43286,7 +43286,7 @@
         <v>167.75</v>
       </c>
       <c r="T680" t="n">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="681">
@@ -43324,7 +43324,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J681" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr"/>
@@ -43348,7 +43348,7 @@
         <v>46.25</v>
       </c>
       <c r="T681" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="682">
@@ -43386,7 +43386,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J682" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr"/>
@@ -43412,7 +43412,7 @@
         <v>367.75</v>
       </c>
       <c r="T682" t="n">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="683">
@@ -43450,7 +43450,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J683" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr"/>
@@ -43476,7 +43476,7 @@
         <v>184.5</v>
       </c>
       <c r="T683" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="684">
@@ -43514,7 +43514,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J684" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr"/>
@@ -43534,7 +43534,7 @@
         <v>0</v>
       </c>
       <c r="T684" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="685">
@@ -43572,7 +43572,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J685" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr"/>
@@ -43596,7 +43596,7 @@
         <v>92.375</v>
       </c>
       <c r="T685" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="686">
@@ -43634,7 +43634,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J686" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr"/>
@@ -43660,7 +43660,7 @@
         <v>915.5</v>
       </c>
       <c r="T686" t="n">
-        <v>988</v>
+        <v>948</v>
       </c>
     </row>
     <row r="687">
@@ -43698,7 +43698,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J687" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr"/>
@@ -43724,7 +43724,7 @@
         <v>116</v>
       </c>
       <c r="T687" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="688">
@@ -43762,7 +43762,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J688" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr"/>
@@ -43788,7 +43788,7 @@
         <v>637</v>
       </c>
       <c r="T688" t="n">
-        <v>625</v>
+        <v>595</v>
       </c>
     </row>
     <row r="689">
@@ -43826,7 +43826,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J689" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr"/>
@@ -43850,7 +43850,7 @@
         <v>30.4375</v>
       </c>
       <c r="T689" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="690">
@@ -43888,7 +43888,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J690" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr"/>
@@ -43904,7 +43904,7 @@
         <v>0</v>
       </c>
       <c r="T690" t="n">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="691">
@@ -43942,7 +43942,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J691" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr"/>
@@ -43968,7 +43968,7 @@
         <v>820</v>
       </c>
       <c r="T691" t="n">
-        <v>926</v>
+        <v>878</v>
       </c>
     </row>
     <row r="692">
@@ -44006,7 +44006,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J692" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K692" t="inlineStr"/>
       <c r="L692" t="inlineStr"/>
@@ -44032,7 +44032,7 @@
         <v>26.328125</v>
       </c>
       <c r="T692" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="693">
@@ -44070,7 +44070,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J693" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr"/>
@@ -44096,7 +44096,7 @@
         <v>423.75</v>
       </c>
       <c r="T693" t="n">
-        <v>575</v>
+        <v>538</v>
       </c>
     </row>
     <row r="694">
@@ -44134,7 +44134,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J694" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr"/>
@@ -44152,7 +44152,7 @@
         <v>0</v>
       </c>
       <c r="T694" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="695">
@@ -44190,7 +44190,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J695" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr"/>
@@ -44216,7 +44216,7 @@
         <v>815</v>
       </c>
       <c r="T695" t="n">
-        <v>1249</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="696">
@@ -44254,7 +44254,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr"/>
@@ -44278,7 +44278,7 @@
         <v>64</v>
       </c>
       <c r="T696" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="697">
@@ -44316,7 +44316,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr"/>
@@ -44342,7 +44342,7 @@
         <v>5012</v>
       </c>
       <c r="T697" t="n">
-        <v>4122</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="698">
@@ -44380,7 +44380,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J698" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr"/>
@@ -44404,7 +44404,7 @@
         <v>307.25</v>
       </c>
       <c r="T698" t="n">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="699">
@@ -44442,7 +44442,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J699" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr"/>
@@ -44468,7 +44468,7 @@
         <v>272.25</v>
       </c>
       <c r="T699" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="700">
@@ -44506,7 +44506,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J700" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr"/>
@@ -44532,7 +44532,7 @@
         <v>86.625</v>
       </c>
       <c r="T700" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="701">
@@ -44570,7 +44570,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr"/>
@@ -44596,7 +44596,7 @@
         <v>871</v>
       </c>
       <c r="T701" t="n">
-        <v>1285</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="702">
@@ -44634,7 +44634,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J702" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr"/>
@@ -44658,7 +44658,7 @@
         <v>92</v>
       </c>
       <c r="T702" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="703">
@@ -44696,7 +44696,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr"/>
@@ -44722,7 +44722,7 @@
         <v>6620</v>
       </c>
       <c r="T703" t="n">
-        <v>4467</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="704">
@@ -44760,7 +44760,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J704" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr"/>
@@ -44786,7 +44786,7 @@
         <v>1008</v>
       </c>
       <c r="T704" t="n">
-        <v>1388</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="705">
@@ -44824,7 +44824,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr"/>
@@ -44850,7 +44850,7 @@
         <v>77.6875</v>
       </c>
       <c r="T705" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="706">
@@ -44888,7 +44888,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr"/>
@@ -44952,7 +44952,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr"/>
@@ -44978,7 +44978,7 @@
         <v>610.5</v>
       </c>
       <c r="T707" t="n">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="708">
@@ -45016,7 +45016,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J708" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr"/>
@@ -45042,7 +45042,7 @@
         <v>66.625</v>
       </c>
       <c r="T708" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="709">
@@ -45080,7 +45080,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J709" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr"/>
@@ -45102,7 +45102,7 @@
         <v>430</v>
       </c>
       <c r="T709" t="n">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="710">
@@ -45140,7 +45140,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J710" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr"/>
@@ -45160,7 +45160,7 @@
         <v>0</v>
       </c>
       <c r="T710" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="711">
@@ -45198,7 +45198,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr"/>
@@ -45218,7 +45218,7 @@
         <v>200</v>
       </c>
       <c r="T711" t="n">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="712">
@@ -45256,7 +45256,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J712" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr"/>
@@ -45282,7 +45282,7 @@
         <v>23.59375</v>
       </c>
       <c r="T712" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="713">
@@ -45320,7 +45320,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr"/>
@@ -45346,7 +45346,7 @@
         <v>142</v>
       </c>
       <c r="T713" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="714">
@@ -45384,7 +45384,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr"/>
@@ -45408,7 +45408,7 @@
         <v>219.625</v>
       </c>
       <c r="T714" t="n">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="715">
@@ -45446,7 +45446,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr"/>
@@ -45472,7 +45472,7 @@
         <v>32.1875</v>
       </c>
       <c r="T715" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="716">
@@ -45510,7 +45510,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J716" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr"/>
@@ -45536,7 +45536,7 @@
         <v>1195</v>
       </c>
       <c r="T716" t="n">
-        <v>1142</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="717">
@@ -45574,7 +45574,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J717" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr"/>
@@ -45600,7 +45600,7 @@
         <v>216.125</v>
       </c>
       <c r="T717" t="n">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="718">
@@ -45638,7 +45638,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J718" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr"/>
@@ -45664,7 +45664,7 @@
         <v>43.21875</v>
       </c>
       <c r="T718" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="719">
@@ -45702,7 +45702,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J719" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr"/>
@@ -45728,7 +45728,7 @@
         <v>306.75</v>
       </c>
       <c r="T719" t="n">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="720">
@@ -45766,7 +45766,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J720" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr"/>
@@ -45790,7 +45790,7 @@
         <v>0</v>
       </c>
       <c r="T720" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="721">
@@ -45828,7 +45828,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J721" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr"/>
@@ -45852,7 +45852,7 @@
         <v>708</v>
       </c>
       <c r="T721" t="n">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="722">
@@ -45890,7 +45890,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J722" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr"/>
@@ -45916,7 +45916,7 @@
         <v>36.375</v>
       </c>
       <c r="T722" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="723">
@@ -45954,7 +45954,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J723" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr"/>
@@ -45974,7 +45974,7 @@
         <v>135.125</v>
       </c>
       <c r="T723" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="724">
@@ -46012,7 +46012,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J724" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr"/>
@@ -46038,7 +46038,7 @@
         <v>1075</v>
       </c>
       <c r="T724" t="n">
-        <v>1412</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="725">
@@ -46076,7 +46076,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J725" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr"/>
@@ -46100,7 +46100,7 @@
         <v>19.8125</v>
       </c>
       <c r="T725" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="726">
@@ -46138,7 +46138,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr"/>
@@ -46164,7 +46164,7 @@
         <v>7464</v>
       </c>
       <c r="T726" t="n">
-        <v>6342</v>
+        <v>6592</v>
       </c>
     </row>
     <row r="727">
@@ -46202,7 +46202,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr"/>
@@ -46228,7 +46228,7 @@
         <v>192</v>
       </c>
       <c r="T727" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="728">
@@ -46266,7 +46266,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J728" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr"/>
@@ -46290,7 +46290,7 @@
         <v>166.25</v>
       </c>
       <c r="T728" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="729">
@@ -46328,7 +46328,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J729" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr"/>
@@ -46352,7 +46352,7 @@
         <v>52.71875</v>
       </c>
       <c r="T729" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="730">
@@ -46390,7 +46390,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J730" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr"/>
@@ -46416,7 +46416,7 @@
         <v>130.125</v>
       </c>
       <c r="T730" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="731">
@@ -46454,7 +46454,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J731" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr"/>
@@ -46480,7 +46480,7 @@
         <v>22.890625</v>
       </c>
       <c r="T731" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="732">
@@ -46518,7 +46518,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr"/>
@@ -46536,7 +46536,7 @@
         <v>0</v>
       </c>
       <c r="T732" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="733">
@@ -46574,7 +46574,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J733" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr"/>
@@ -46594,7 +46594,7 @@
         <v>0</v>
       </c>
       <c r="T733" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="734">
@@ -46632,7 +46632,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J734" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr"/>
@@ -46658,7 +46658,7 @@
         <v>27.359375</v>
       </c>
       <c r="T734" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="735">
@@ -46696,7 +46696,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J735" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr"/>
@@ -46760,7 +46760,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J736" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr"/>
@@ -46786,7 +46786,7 @@
         <v>11</v>
       </c>
       <c r="T736" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="737">
@@ -46824,7 +46824,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J737" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr"/>
@@ -46840,7 +46840,7 @@
         <v>3.849609375</v>
       </c>
       <c r="T737" t="n">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="738">
@@ -46878,7 +46878,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J738" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K738" t="inlineStr"/>
       <c r="L738" t="inlineStr"/>
@@ -46904,7 +46904,7 @@
         <v>165</v>
       </c>
       <c r="T738" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="739">
@@ -46942,7 +46942,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K739" t="inlineStr"/>
       <c r="L739" t="inlineStr"/>
@@ -46968,7 +46968,7 @@
         <v>23.6875</v>
       </c>
       <c r="T739" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="740">
@@ -47006,7 +47006,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J740" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K740" t="inlineStr"/>
       <c r="L740" t="inlineStr"/>
@@ -47032,7 +47032,7 @@
         <v>996.5</v>
       </c>
       <c r="T740" t="n">
-        <v>1157</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="741">
@@ -47070,7 +47070,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J741" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K741" t="inlineStr"/>
       <c r="L741" t="inlineStr"/>
@@ -47094,7 +47094,7 @@
         <v>383.75</v>
       </c>
       <c r="T741" t="n">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="742">
@@ -47132,7 +47132,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J742" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K742" t="inlineStr"/>
       <c r="L742" t="inlineStr"/>
@@ -47154,7 +47154,7 @@
         <v>250</v>
       </c>
       <c r="T742" t="n">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="743">
@@ -47192,7 +47192,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J743" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K743" t="inlineStr"/>
       <c r="L743" t="inlineStr"/>
@@ -47216,7 +47216,7 @@
         <v>20</v>
       </c>
       <c r="T743" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="744">
@@ -47254,7 +47254,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J744" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K744" t="inlineStr"/>
       <c r="L744" t="inlineStr"/>
@@ -47280,7 +47280,7 @@
         <v>52.03125</v>
       </c>
       <c r="T744" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="745">
@@ -47318,7 +47318,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J745" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K745" t="inlineStr"/>
       <c r="L745" t="inlineStr"/>
@@ -47344,7 +47344,7 @@
         <v>148.75</v>
       </c>
       <c r="T745" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="746">
@@ -47382,7 +47382,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J746" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K746" t="inlineStr"/>
       <c r="L746" t="inlineStr"/>
@@ -47408,7 +47408,7 @@
         <v>211.375</v>
       </c>
       <c r="T746" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="747">
@@ -47446,7 +47446,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J747" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K747" t="inlineStr"/>
       <c r="L747" t="inlineStr"/>
@@ -47472,7 +47472,7 @@
         <v>598.5</v>
       </c>
       <c r="T747" t="n">
-        <v>453</v>
+        <v>409</v>
       </c>
     </row>
     <row r="748">
@@ -47510,7 +47510,7 @@
         <v>9.0546875</v>
       </c>
       <c r="J748" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K748" t="inlineStr"/>
       <c r="L748" t="inlineStr"/>
@@ -47536,7 +47536,7 @@
         <v>355.75</v>
       </c>
       <c r="T748" t="n">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="749">
@@ -47574,7 +47574,7 @@
         <v>13.25</v>
       </c>
       <c r="J749" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K749" t="inlineStr"/>
       <c r="L749" t="inlineStr"/>
@@ -47600,7 +47600,7 @@
         <v>2878</v>
       </c>
       <c r="T749" t="n">
-        <v>2469</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="750">
@@ -47638,7 +47638,7 @@
         <v>13.25</v>
       </c>
       <c r="J750" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K750" t="inlineStr"/>
       <c r="L750" t="inlineStr"/>
@@ -47664,7 +47664,7 @@
         <v>369.5</v>
       </c>
       <c r="T750" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="751">
@@ -47702,7 +47702,7 @@
         <v>13.25</v>
       </c>
       <c r="J751" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K751" t="inlineStr"/>
       <c r="L751" t="inlineStr"/>
@@ -47720,7 +47720,7 @@
         <v>1.349609375</v>
       </c>
       <c r="T751" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="752">
@@ -47758,7 +47758,7 @@
         <v>13.25</v>
       </c>
       <c r="J752" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K752" t="inlineStr"/>
       <c r="L752" t="inlineStr"/>
@@ -47784,7 +47784,7 @@
         <v>1059</v>
       </c>
       <c r="T752" t="n">
-        <v>1421</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="753">
@@ -47822,7 +47822,7 @@
         <v>13.25</v>
       </c>
       <c r="J753" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K753" t="inlineStr"/>
       <c r="L753" t="inlineStr"/>
@@ -47848,7 +47848,7 @@
         <v>153</v>
       </c>
       <c r="T753" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="754">
@@ -47886,7 +47886,7 @@
         <v>13.25</v>
       </c>
       <c r="J754" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K754" t="inlineStr"/>
       <c r="L754" t="inlineStr"/>
@@ -47912,7 +47912,7 @@
         <v>4148</v>
       </c>
       <c r="T754" t="n">
-        <v>3383</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="755">
@@ -47950,7 +47950,7 @@
         <v>13.25</v>
       </c>
       <c r="J755" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K755" t="inlineStr"/>
       <c r="L755" t="inlineStr"/>
@@ -47976,7 +47976,7 @@
         <v>620.5</v>
       </c>
       <c r="T755" t="n">
-        <v>882</v>
+        <v>848</v>
       </c>
     </row>
     <row r="756">
@@ -48014,7 +48014,7 @@
         <v>13.25</v>
       </c>
       <c r="J756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K756" t="inlineStr"/>
       <c r="L756" t="inlineStr"/>
@@ -48040,7 +48040,7 @@
         <v>10840</v>
       </c>
       <c r="T756" t="n">
-        <v>11680</v>
+        <v>11973</v>
       </c>
     </row>
     <row r="757">
@@ -48078,7 +48078,7 @@
         <v>13.25</v>
       </c>
       <c r="J757" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K757" t="inlineStr"/>
       <c r="L757" t="inlineStr"/>
@@ -48104,7 +48104,7 @@
         <v>1178</v>
       </c>
       <c r="T757" t="n">
-        <v>1827</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="758">
@@ -48142,7 +48142,7 @@
         <v>13.25</v>
       </c>
       <c r="J758" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K758" t="inlineStr"/>
       <c r="L758" t="inlineStr"/>
@@ -48166,7 +48166,7 @@
         <v>53.21875</v>
       </c>
       <c r="T758" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="759">
@@ -48204,7 +48204,7 @@
         <v>13.25</v>
       </c>
       <c r="J759" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K759" t="inlineStr"/>
       <c r="L759" t="inlineStr"/>
@@ -48230,7 +48230,7 @@
         <v>308.25</v>
       </c>
       <c r="T759" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="760">
@@ -48268,7 +48268,7 @@
         <v>13.25</v>
       </c>
       <c r="J760" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K760" t="inlineStr"/>
       <c r="L760" t="inlineStr"/>
@@ -48288,7 +48288,7 @@
         <v>162.25</v>
       </c>
       <c r="T760" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="761">
@@ -48326,7 +48326,7 @@
         <v>13.25</v>
       </c>
       <c r="J761" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K761" t="inlineStr"/>
       <c r="L761" t="inlineStr"/>
@@ -48352,7 +48352,7 @@
         <v>383.75</v>
       </c>
       <c r="T761" t="n">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="762">
@@ -48390,7 +48390,7 @@
         <v>13.25</v>
       </c>
       <c r="J762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K762" t="inlineStr"/>
       <c r="L762" t="inlineStr"/>
@@ -48416,7 +48416,7 @@
         <v>2106</v>
       </c>
       <c r="T762" t="n">
-        <v>2210</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="763">
@@ -48454,7 +48454,7 @@
         <v>13.25</v>
       </c>
       <c r="J763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K763" t="inlineStr"/>
       <c r="L763" t="inlineStr"/>
@@ -48480,7 +48480,7 @@
         <v>254.75</v>
       </c>
       <c r="T763" t="n">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="764">
@@ -48518,7 +48518,7 @@
         <v>13.25</v>
       </c>
       <c r="J764" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K764" t="inlineStr"/>
       <c r="L764" t="inlineStr"/>
@@ -48542,7 +48542,7 @@
         <v>114.25</v>
       </c>
       <c r="T764" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="765">
@@ -48580,7 +48580,7 @@
         <v>13.25</v>
       </c>
       <c r="J765" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K765" t="inlineStr"/>
       <c r="L765" t="inlineStr"/>
@@ -48606,7 +48606,7 @@
         <v>26.40625</v>
       </c>
       <c r="T765" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="766">
@@ -48644,7 +48644,7 @@
         <v>13.25</v>
       </c>
       <c r="J766" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K766" t="inlineStr"/>
       <c r="L766" t="inlineStr"/>
@@ -48670,7 +48670,7 @@
         <v>747.5</v>
       </c>
       <c r="T766" t="n">
-        <v>1081</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="767">
@@ -48708,7 +48708,7 @@
         <v>13.25</v>
       </c>
       <c r="J767" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K767" t="inlineStr"/>
       <c r="L767" t="inlineStr"/>
@@ -48734,7 +48734,7 @@
         <v>1109</v>
       </c>
       <c r="T767" t="n">
-        <v>954</v>
+        <v>928</v>
       </c>
     </row>
     <row r="768">
@@ -48772,7 +48772,7 @@
         <v>13.25</v>
       </c>
       <c r="J768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K768" t="inlineStr"/>
       <c r="L768" t="inlineStr"/>
@@ -48798,7 +48798,7 @@
         <v>136.625</v>
       </c>
       <c r="T768" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="769">
@@ -48836,7 +48836,7 @@
         <v>13.25</v>
       </c>
       <c r="J769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K769" t="inlineStr"/>
       <c r="L769" t="inlineStr"/>
@@ -48862,7 +48862,7 @@
         <v>708.5</v>
       </c>
       <c r="T769" t="n">
-        <v>921</v>
+        <v>884</v>
       </c>
     </row>
     <row r="770">
@@ -48900,7 +48900,7 @@
         <v>13.25</v>
       </c>
       <c r="J770" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K770" t="inlineStr"/>
       <c r="L770" t="inlineStr"/>
@@ -48926,7 +48926,7 @@
         <v>109.625</v>
       </c>
       <c r="T770" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="771">
@@ -48964,7 +48964,7 @@
         <v>13.25</v>
       </c>
       <c r="J771" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K771" t="inlineStr"/>
       <c r="L771" t="inlineStr"/>
@@ -48990,7 +48990,7 @@
         <v>6428</v>
       </c>
       <c r="T771" t="n">
-        <v>4910</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="772">
@@ -49028,7 +49028,7 @@
         <v>13.25</v>
       </c>
       <c r="J772" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K772" t="inlineStr"/>
       <c r="L772" t="inlineStr"/>
@@ -49054,7 +49054,7 @@
         <v>754</v>
       </c>
       <c r="T772" t="n">
-        <v>1198</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="773">
@@ -49092,7 +49092,7 @@
         <v>13.25</v>
       </c>
       <c r="J773" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K773" t="inlineStr"/>
       <c r="L773" t="inlineStr"/>
@@ -49118,7 +49118,7 @@
         <v>188</v>
       </c>
       <c r="T773" t="n">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="774">
@@ -49156,7 +49156,7 @@
         <v>13.25</v>
       </c>
       <c r="J774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr"/>
@@ -49218,7 +49218,7 @@
         <v>13.25</v>
       </c>
       <c r="J775" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr"/>
@@ -49244,7 +49244,7 @@
         <v>448</v>
       </c>
       <c r="T775" t="n">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="776">
@@ -49282,7 +49282,7 @@
         <v>13.25</v>
       </c>
       <c r="J776" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr"/>
@@ -49308,7 +49308,7 @@
         <v>207.25</v>
       </c>
       <c r="T776" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="777">
@@ -49346,7 +49346,7 @@
         <v>13.25</v>
       </c>
       <c r="J777" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr"/>
@@ -49366,7 +49366,7 @@
         <v>12.90625</v>
       </c>
       <c r="T777" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="778">
@@ -49404,7 +49404,7 @@
         <v>13.25</v>
       </c>
       <c r="J778" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr"/>
@@ -49428,7 +49428,7 @@
         <v>76.625</v>
       </c>
       <c r="T778" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="779">
@@ -49466,7 +49466,7 @@
         <v>13.25</v>
       </c>
       <c r="J779" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr"/>
@@ -49490,7 +49490,7 @@
         <v>939</v>
       </c>
       <c r="T779" t="n">
-        <v>1145</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="780">
@@ -49528,7 +49528,7 @@
         <v>13.25</v>
       </c>
       <c r="J780" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr"/>
@@ -49554,7 +49554,7 @@
         <v>99.6875</v>
       </c>
       <c r="T780" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="781">
@@ -49592,7 +49592,7 @@
         <v>13.25</v>
       </c>
       <c r="J781" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr"/>
@@ -49618,7 +49618,7 @@
         <v>703</v>
       </c>
       <c r="T781" t="n">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="782">
@@ -49656,7 +49656,7 @@
         <v>13.25</v>
       </c>
       <c r="J782" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr"/>
@@ -49680,7 +49680,7 @@
         <v>40.09375</v>
       </c>
       <c r="T782" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="783">
@@ -49718,7 +49718,7 @@
         <v>13.25</v>
       </c>
       <c r="J783" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K783" t="inlineStr"/>
       <c r="L783" t="inlineStr"/>
@@ -49734,7 +49734,7 @@
         <v>0</v>
       </c>
       <c r="T783" t="n">
-        <v>114</v>
+        <v>81</v>
       </c>
     </row>
     <row r="784">
@@ -49772,7 +49772,7 @@
         <v>13.25</v>
       </c>
       <c r="J784" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr"/>
@@ -49798,7 +49798,7 @@
         <v>915.5</v>
       </c>
       <c r="T784" t="n">
-        <v>1099</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="785">
@@ -49836,7 +49836,7 @@
         <v>13.25</v>
       </c>
       <c r="J785" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr"/>
@@ -49862,7 +49862,7 @@
         <v>32.21875</v>
       </c>
       <c r="T785" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="786">
@@ -49900,7 +49900,7 @@
         <v>13.25</v>
       </c>
       <c r="J786" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr"/>
@@ -49926,7 +49926,7 @@
         <v>404.75</v>
       </c>
       <c r="T786" t="n">
-        <v>588</v>
+        <v>558</v>
       </c>
     </row>
     <row r="787">
@@ -49964,7 +49964,7 @@
         <v>13.25</v>
       </c>
       <c r="J787" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr"/>
@@ -49984,7 +49984,7 @@
         <v>5.546875</v>
       </c>
       <c r="T787" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="788">
@@ -50022,7 +50022,7 @@
         <v>13.25</v>
       </c>
       <c r="J788" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr"/>
@@ -50048,7 +50048,7 @@
         <v>879</v>
       </c>
       <c r="T788" t="n">
-        <v>1426</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="789">
@@ -50086,7 +50086,7 @@
         <v>13.25</v>
       </c>
       <c r="J789" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr"/>
@@ -50110,7 +50110,7 @@
         <v>68</v>
       </c>
       <c r="T789" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="790">
@@ -50148,7 +50148,7 @@
         <v>13.25</v>
       </c>
       <c r="J790" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr"/>
@@ -50174,7 +50174,7 @@
         <v>5396</v>
       </c>
       <c r="T790" t="n">
-        <v>5467</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="791">
@@ -50212,7 +50212,7 @@
         <v>13.25</v>
       </c>
       <c r="J791" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr"/>
@@ -50238,7 +50238,7 @@
         <v>416.75</v>
       </c>
       <c r="T791" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="792">
@@ -50276,7 +50276,7 @@
         <v>13.25</v>
       </c>
       <c r="J792" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr"/>
@@ -50302,7 +50302,7 @@
         <v>325</v>
       </c>
       <c r="T792" t="n">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="793">
@@ -50340,7 +50340,7 @@
         <v>13.25</v>
       </c>
       <c r="J793" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr"/>
@@ -50366,7 +50366,7 @@
         <v>106.0625</v>
       </c>
       <c r="T793" t="n">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="794">
@@ -50404,7 +50404,7 @@
         <v>13.25</v>
       </c>
       <c r="J794" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr"/>
@@ -50430,7 +50430,7 @@
         <v>929.5</v>
       </c>
       <c r="T794" t="n">
-        <v>1459</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="795">
@@ -50468,7 +50468,7 @@
         <v>13.25</v>
       </c>
       <c r="J795" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K795" t="inlineStr"/>
       <c r="L795" t="inlineStr"/>
@@ -50492,7 +50492,7 @@
         <v>103</v>
       </c>
       <c r="T795" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="796">
@@ -50530,7 +50530,7 @@
         <v>13.25</v>
       </c>
       <c r="J796" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K796" t="inlineStr"/>
       <c r="L796" t="inlineStr"/>
@@ -50556,7 +50556,7 @@
         <v>7784</v>
       </c>
       <c r="T796" t="n">
-        <v>6614</v>
+        <v>7278</v>
       </c>
     </row>
     <row r="797">
@@ -50594,7 +50594,7 @@
         <v>13.25</v>
       </c>
       <c r="J797" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K797" t="inlineStr"/>
       <c r="L797" t="inlineStr"/>
@@ -50620,7 +50620,7 @@
         <v>1253</v>
       </c>
       <c r="T797" t="n">
-        <v>1666</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="798">
@@ -50658,7 +50658,7 @@
         <v>13.25</v>
       </c>
       <c r="J798" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K798" t="inlineStr"/>
       <c r="L798" t="inlineStr"/>
@@ -50684,7 +50684,7 @@
         <v>83.875</v>
       </c>
       <c r="T798" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="799">
@@ -50722,7 +50722,7 @@
         <v>13.25</v>
       </c>
       <c r="J799" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr"/>
@@ -50748,7 +50748,7 @@
         <v>18.5</v>
       </c>
       <c r="T799" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="800">
@@ -50786,7 +50786,7 @@
         <v>13.25</v>
       </c>
       <c r="J800" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K800" t="inlineStr"/>
       <c r="L800" t="inlineStr"/>
@@ -50812,7 +50812,7 @@
         <v>705</v>
       </c>
       <c r="T800" t="n">
-        <v>661</v>
+        <v>623</v>
       </c>
     </row>
     <row r="801">
@@ -50850,7 +50850,7 @@
         <v>13.25</v>
       </c>
       <c r="J801" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K801" t="inlineStr"/>
       <c r="L801" t="inlineStr"/>
@@ -50876,7 +50876,7 @@
         <v>64.8125</v>
       </c>
       <c r="T801" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="802">
@@ -50914,7 +50914,7 @@
         <v>13.25</v>
       </c>
       <c r="J802" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K802" t="inlineStr"/>
       <c r="L802" t="inlineStr"/>
@@ -50938,7 +50938,7 @@
         <v>436.75</v>
       </c>
       <c r="T802" t="n">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="803">
@@ -50976,7 +50976,7 @@
         <v>13.25</v>
       </c>
       <c r="J803" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K803" t="inlineStr"/>
       <c r="L803" t="inlineStr"/>
@@ -50996,7 +50996,7 @@
         <v>0</v>
       </c>
       <c r="T803" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="804">
@@ -51034,7 +51034,7 @@
         <v>13.25</v>
       </c>
       <c r="J804" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K804" t="inlineStr"/>
       <c r="L804" t="inlineStr"/>
@@ -51054,7 +51054,7 @@
         <v>100</v>
       </c>
       <c r="T804" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="805">
@@ -51092,7 +51092,7 @@
         <v>13.25</v>
       </c>
       <c r="J805" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K805" t="inlineStr"/>
       <c r="L805" t="inlineStr"/>
@@ -51154,7 +51154,7 @@
         <v>13.25</v>
       </c>
       <c r="J806" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K806" t="inlineStr"/>
       <c r="L806" t="inlineStr"/>
@@ -51218,7 +51218,7 @@
         <v>13.25</v>
       </c>
       <c r="J807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K807" t="inlineStr"/>
       <c r="L807" t="inlineStr"/>
@@ -51240,7 +51240,7 @@
         <v>20.6875</v>
       </c>
       <c r="T807" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="808">
@@ -51278,7 +51278,7 @@
         <v>13.25</v>
       </c>
       <c r="J808" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K808" t="inlineStr"/>
       <c r="L808" t="inlineStr"/>
@@ -51302,7 +51302,7 @@
         <v>220.5</v>
       </c>
       <c r="T808" t="n">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="809">
@@ -51340,7 +51340,7 @@
         <v>13.25</v>
       </c>
       <c r="J809" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K809" t="inlineStr"/>
       <c r="L809" t="inlineStr"/>
@@ -51404,7 +51404,7 @@
         <v>13.25</v>
       </c>
       <c r="J810" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="inlineStr"/>
@@ -51430,7 +51430,7 @@
         <v>1363</v>
       </c>
       <c r="T810" t="n">
-        <v>1427</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="811">
@@ -51468,7 +51468,7 @@
         <v>13.25</v>
       </c>
       <c r="J811" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K811" t="inlineStr"/>
       <c r="L811" t="inlineStr"/>
@@ -51494,7 +51494,7 @@
         <v>221.625</v>
       </c>
       <c r="T811" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="812">
@@ -51532,7 +51532,7 @@
         <v>13.25</v>
       </c>
       <c r="J812" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K812" t="inlineStr"/>
       <c r="L812" t="inlineStr"/>
@@ -51558,7 +51558,7 @@
         <v>45.46875</v>
       </c>
       <c r="T812" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="813">
@@ -51596,7 +51596,7 @@
         <v>13.25</v>
       </c>
       <c r="J813" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K813" t="inlineStr"/>
       <c r="L813" t="inlineStr"/>
@@ -51622,7 +51622,7 @@
         <v>369</v>
       </c>
       <c r="T813" t="n">
-        <v>422</v>
+        <v>377</v>
       </c>
     </row>
     <row r="814">
@@ -51660,7 +51660,7 @@
         <v>13.25</v>
       </c>
       <c r="J814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K814" t="inlineStr"/>
       <c r="L814" t="inlineStr"/>
@@ -51684,7 +51684,7 @@
         <v>12.671875</v>
       </c>
       <c r="T814" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="815">
@@ -51722,7 +51722,7 @@
         <v>13.25</v>
       </c>
       <c r="J815" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K815" t="inlineStr"/>
       <c r="L815" t="inlineStr"/>
@@ -51746,7 +51746,7 @@
         <v>779</v>
       </c>
       <c r="T815" t="n">
-        <v>764</v>
+        <v>721</v>
       </c>
     </row>
     <row r="816">
@@ -51784,7 +51784,7 @@
         <v>13.25</v>
       </c>
       <c r="J816" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K816" t="inlineStr"/>
       <c r="L816" t="inlineStr"/>
@@ -51810,7 +51810,7 @@
         <v>58.4375</v>
       </c>
       <c r="T816" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="817">
@@ -51848,7 +51848,7 @@
         <v>13.25</v>
       </c>
       <c r="J817" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K817" t="inlineStr"/>
       <c r="L817" t="inlineStr"/>
@@ -51868,7 +51868,7 @@
         <v>162.25</v>
       </c>
       <c r="T817" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="818">
@@ -51906,7 +51906,7 @@
         <v>13.25</v>
       </c>
       <c r="J818" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K818" t="inlineStr"/>
       <c r="L818" t="inlineStr"/>
@@ -51932,7 +51932,7 @@
         <v>1285</v>
       </c>
       <c r="T818" t="n">
-        <v>1594</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="819">
@@ -51970,7 +51970,7 @@
         <v>13.25</v>
       </c>
       <c r="J819" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K819" t="inlineStr"/>
       <c r="L819" t="inlineStr"/>
@@ -52032,7 +52032,7 @@
         <v>13.25</v>
       </c>
       <c r="J820" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K820" t="inlineStr"/>
       <c r="L820" t="inlineStr"/>
@@ -52058,7 +52058,7 @@
         <v>8776</v>
       </c>
       <c r="T820" t="n">
-        <v>8687</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="821">
@@ -52096,7 +52096,7 @@
         <v>13.25</v>
       </c>
       <c r="J821" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K821" t="inlineStr"/>
       <c r="L821" t="inlineStr"/>
@@ -52120,7 +52120,7 @@
         <v>201</v>
       </c>
       <c r="T821" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="822">
@@ -52158,7 +52158,7 @@
         <v>13.25</v>
       </c>
       <c r="J822" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K822" t="inlineStr"/>
       <c r="L822" t="inlineStr"/>
@@ -52184,7 +52184,7 @@
         <v>191.375</v>
       </c>
       <c r="T822" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="823">
@@ -52222,7 +52222,7 @@
         <v>13.25</v>
       </c>
       <c r="J823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="inlineStr"/>
@@ -52246,7 +52246,7 @@
         <v>60.6875</v>
       </c>
       <c r="T823" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="824">
@@ -52284,7 +52284,7 @@
         <v>13.25</v>
       </c>
       <c r="J824" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K824" t="inlineStr"/>
       <c r="L824" t="inlineStr"/>
@@ -52310,7 +52310,7 @@
         <v>123.75</v>
       </c>
       <c r="T824" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="825">
@@ -52348,7 +52348,7 @@
         <v>13.25</v>
       </c>
       <c r="J825" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="inlineStr"/>
@@ -52374,7 +52374,7 @@
         <v>35</v>
       </c>
       <c r="T825" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="826">
@@ -52412,7 +52412,7 @@
         <v>13.25</v>
       </c>
       <c r="J826" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K826" t="inlineStr"/>
       <c r="L826" t="inlineStr"/>
@@ -52438,7 +52438,7 @@
         <v>24.6875</v>
       </c>
       <c r="T826" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="827">
@@ -52476,7 +52476,7 @@
         <v>13.25</v>
       </c>
       <c r="J827" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K827" t="inlineStr"/>
       <c r="L827" t="inlineStr"/>
@@ -52502,7 +52502,7 @@
         <v>22.015625</v>
       </c>
       <c r="T827" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="828">
@@ -52540,7 +52540,7 @@
         <v>13.25</v>
       </c>
       <c r="J828" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K828" t="inlineStr"/>
       <c r="L828" t="inlineStr"/>
@@ -52566,7 +52566,7 @@
         <v>18.75</v>
       </c>
       <c r="T828" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="829">
@@ -52604,7 +52604,7 @@
         <v>13.25</v>
       </c>
       <c r="J829" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K829" t="inlineStr"/>
       <c r="L829" t="inlineStr"/>
@@ -52622,7 +52622,7 @@
         <v>3.849609375</v>
       </c>
       <c r="T829" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="830">
@@ -52660,7 +52660,7 @@
         <v>13.25</v>
       </c>
       <c r="J830" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K830" t="inlineStr"/>
       <c r="L830" t="inlineStr"/>
@@ -52686,7 +52686,7 @@
         <v>194.75</v>
       </c>
       <c r="T830" t="n">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="831">
@@ -52724,7 +52724,7 @@
         <v>13.25</v>
       </c>
       <c r="J831" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K831" t="inlineStr"/>
       <c r="L831" t="inlineStr"/>
@@ -52750,7 +52750,7 @@
         <v>75.6875</v>
       </c>
       <c r="T831" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="832">
@@ -52788,7 +52788,7 @@
         <v>13.25</v>
       </c>
       <c r="J832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K832" t="inlineStr"/>
       <c r="L832" t="inlineStr"/>
@@ -52814,7 +52814,7 @@
         <v>1312</v>
       </c>
       <c r="T832" t="n">
-        <v>2251</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="833">
@@ -52852,7 +52852,7 @@
         <v>13.25</v>
       </c>
       <c r="J833" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K833" t="inlineStr"/>
       <c r="L833" t="inlineStr"/>
@@ -52876,7 +52876,7 @@
         <v>405.5</v>
       </c>
       <c r="T833" t="n">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="834">
@@ -52914,7 +52914,7 @@
         <v>13.25</v>
       </c>
       <c r="J834" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K834" t="inlineStr"/>
       <c r="L834" t="inlineStr"/>
@@ -52936,7 +52936,7 @@
         <v>457.75</v>
       </c>
       <c r="T834" t="n">
-        <v>627</v>
+        <v>606</v>
       </c>
     </row>
     <row r="835">
@@ -52974,7 +52974,7 @@
         <v>13.25</v>
       </c>
       <c r="J835" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K835" t="inlineStr"/>
       <c r="L835" t="inlineStr"/>
@@ -52998,7 +52998,7 @@
         <v>100</v>
       </c>
       <c r="T835" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="836">
@@ -53036,7 +53036,7 @@
         <v>13.25</v>
       </c>
       <c r="J836" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K836" t="inlineStr"/>
       <c r="L836" t="inlineStr"/>
@@ -53062,7 +53062,7 @@
         <v>52.5625</v>
       </c>
       <c r="T836" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="837">
@@ -53100,7 +53100,7 @@
         <v>13.25</v>
       </c>
       <c r="J837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K837" t="inlineStr"/>
       <c r="L837" t="inlineStr"/>
@@ -53126,7 +53126,7 @@
         <v>233.5</v>
       </c>
       <c r="T837" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="838">
@@ -53164,7 +53164,7 @@
         <v>13.25</v>
       </c>
       <c r="J838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K838" t="inlineStr"/>
       <c r="L838" t="inlineStr"/>
@@ -53190,7 +53190,7 @@
         <v>258</v>
       </c>
       <c r="T838" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="839">
@@ -53228,7 +53228,7 @@
         <v>13.25</v>
       </c>
       <c r="J839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K839" t="inlineStr"/>
       <c r="L839" t="inlineStr"/>
@@ -53254,7 +53254,7 @@
         <v>759.5</v>
       </c>
       <c r="T839" t="n">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="840">
@@ -53292,7 +53292,7 @@
         <v>13.25</v>
       </c>
       <c r="J840" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K840" t="inlineStr"/>
       <c r="L840" t="inlineStr"/>
@@ -53318,7 +53318,7 @@
         <v>349.75</v>
       </c>
       <c r="T840" t="n">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
